--- a/output/hd.xlsx
+++ b/output/hd.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="1" state="veryHidden" r:id="rId1"/>
-    <sheet name="BAV24G0I1C" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BAV24G0I1C (1)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CKV413C3J2G" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GAV413C3J2G" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GAV41H4J2G" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GLV415J4J2G" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GLV41H4J2G" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
@@ -422,7 +425,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="68"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="68">
@@ -633,6 +636,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,7 +1126,2010 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>CHECK VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>CKV413C3J2G</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>2, 12</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>FIRE WATER</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>ASME B16.1</t>
+        </is>
+      </c>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="80" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="n"/>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="80" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="n"/>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AJ15" s="98" t="n"/>
+    </row>
+    <row r="16" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="n"/>
+      <c r="P16" s="80" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="n"/>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="80" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="28" t="n"/>
+    </row>
+    <row r="17" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="n"/>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="61" t="inlineStr"/>
+      <c r="I17" s="61" t="n"/>
+      <c r="J17" s="61" t="n"/>
+      <c r="K17" s="61" t="n"/>
+      <c r="L17" s="61" t="n"/>
+      <c r="M17" s="61" t="n"/>
+      <c r="N17" s="61" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr"/>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr">
+        <is>
+          <t>MSS SP-136</t>
+        </is>
+      </c>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr"/>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>200</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="58" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="58" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="85" t="inlineStr">
+        <is>
+          <t>ASTM A536 GRADE 65-45-12</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>TRIM:</t>
+        </is>
+      </c>
+      <c r="AA31" s="42" t="n"/>
+      <c r="AB31" s="42" t="n"/>
+      <c r="AC31" s="70" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="85" t="inlineStr">
+        <is>
+          <t>NON METALLIC FLAT GASKET EPDM</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="42" t="n"/>
+      <c r="Z32" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AA32" s="42" t="n"/>
+      <c r="AB32" s="42" t="n"/>
+      <c r="AC32" s="70" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>SEAT:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="86" t="inlineStr">
+        <is>
+          <t>BRONZE</t>
+        </is>
+      </c>
+      <c r="I33" s="97" t="n"/>
+      <c r="J33" s="97" t="n"/>
+      <c r="K33" s="97" t="n"/>
+      <c r="L33" s="97" t="n"/>
+      <c r="M33" s="97" t="n"/>
+      <c r="N33" s="97" t="n"/>
+      <c r="O33" s="97" t="n"/>
+      <c r="P33" s="97" t="n"/>
+      <c r="Q33" s="97" t="n"/>
+      <c r="R33" s="97" t="n"/>
+      <c r="S33" s="97" t="n"/>
+      <c r="T33" s="97" t="n"/>
+      <c r="U33" s="97" t="n"/>
+      <c r="V33" s="97" t="n"/>
+      <c r="W33" s="97" t="n"/>
+      <c r="X33" s="97" t="n"/>
+      <c r="Y33" s="42" t="n"/>
+      <c r="Z33" s="81" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="AA33" s="42" t="n"/>
+      <c r="AB33" s="42" t="n"/>
+      <c r="AC33" s="70" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="83" t="inlineStr">
+        <is>
+          <t>SYSTEM:</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="67" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="67" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="18" t="n"/>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="67" t="n"/>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="67" t="inlineStr">
+        <is>
+          <t>UL LISTED / FM APPROVED, PIN: AISI 304, DISC: IRON EPDM ENCAPSULATED, BOLTED COVER, INSTALLATION: HORIZONTAL OR VERTICAL</t>
+        </is>
+      </c>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="n"/>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="67" t="n"/>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A39" s="37" t="n"/>
+      <c r="B39" s="61" t="n"/>
+      <c r="C39" s="61" t="n"/>
+      <c r="D39" s="61" t="n"/>
+      <c r="E39" s="61" t="n"/>
+      <c r="F39" s="61" t="n"/>
+      <c r="G39" s="61" t="n"/>
+      <c r="H39" s="61" t="n"/>
+      <c r="I39" s="61" t="n"/>
+      <c r="J39" s="61" t="n"/>
+      <c r="K39" s="61" t="n"/>
+      <c r="L39" s="61" t="n"/>
+      <c r="M39" s="61" t="n"/>
+      <c r="N39" s="61" t="n"/>
+      <c r="O39" s="61" t="n"/>
+      <c r="P39" s="61" t="n"/>
+      <c r="Q39" s="61" t="n"/>
+      <c r="R39" s="61" t="n"/>
+      <c r="S39" s="61" t="n"/>
+      <c r="T39" s="61" t="n"/>
+      <c r="U39" s="61" t="n"/>
+      <c r="V39" s="61" t="n"/>
+      <c r="W39" s="61" t="n"/>
+      <c r="X39" s="61" t="n"/>
+      <c r="Y39" s="61" t="n"/>
+      <c r="Z39" s="61" t="n"/>
+      <c r="AA39" s="61" t="n"/>
+      <c r="AB39" s="61" t="n"/>
+      <c r="AC39" s="61" t="n"/>
+      <c r="AD39" s="61" t="n"/>
+      <c r="AE39" s="61" t="n"/>
+      <c r="AF39" s="61" t="n"/>
+      <c r="AG39" s="61" t="n"/>
+      <c r="AH39" s="61" t="n"/>
+      <c r="AI39" s="61" t="n"/>
+      <c r="AJ39" s="28" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A40" s="15" t="n"/>
+      <c r="B40" s="51" t="n"/>
+      <c r="C40" s="51" t="n"/>
+      <c r="D40" s="51" t="n"/>
+      <c r="E40" s="51" t="n"/>
+      <c r="F40" s="51" t="n"/>
+      <c r="G40" s="51" t="n"/>
+      <c r="H40" s="51" t="n"/>
+      <c r="I40" s="51" t="n"/>
+      <c r="J40" s="51" t="n"/>
+      <c r="K40" s="51" t="n"/>
+      <c r="L40" s="51" t="n"/>
+      <c r="M40" s="51" t="n"/>
+      <c r="N40" s="51" t="n"/>
+      <c r="O40" s="51" t="n"/>
+      <c r="P40" s="51" t="n"/>
+      <c r="Q40" s="51" t="n"/>
+      <c r="R40" s="51" t="n"/>
+      <c r="S40" s="52" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T40" s="51" t="n"/>
+      <c r="U40" s="51" t="n"/>
+      <c r="V40" s="51" t="n"/>
+      <c r="W40" s="51" t="n"/>
+      <c r="X40" s="51" t="n"/>
+      <c r="Y40" s="51" t="n"/>
+      <c r="Z40" s="51" t="n"/>
+      <c r="AA40" s="51" t="n"/>
+      <c r="AB40" s="51" t="n"/>
+      <c r="AC40" s="51" t="n"/>
+      <c r="AD40" s="51" t="n"/>
+      <c r="AE40" s="51" t="n"/>
+      <c r="AF40" s="51" t="n"/>
+      <c r="AG40" s="51" t="n"/>
+      <c r="AH40" s="51" t="n"/>
+      <c r="AI40" s="51" t="n"/>
+      <c r="AJ40" s="16" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A41" s="38" t="n"/>
+      <c r="B41" s="33" t="n"/>
+      <c r="C41" s="33" t="n"/>
+      <c r="D41" s="33" t="n"/>
+      <c r="E41" s="33" t="n"/>
+      <c r="F41" s="33" t="n"/>
+      <c r="G41" s="33" t="n"/>
+      <c r="H41" s="33" t="n"/>
+      <c r="I41" s="33" t="n"/>
+      <c r="J41" s="33" t="n"/>
+      <c r="K41" s="33" t="n"/>
+      <c r="L41" s="33" t="n"/>
+      <c r="M41" s="33" t="n"/>
+      <c r="N41" s="33" t="n"/>
+      <c r="O41" s="33" t="n"/>
+      <c r="P41" s="33" t="n"/>
+      <c r="Q41" s="33" t="n"/>
+      <c r="R41" s="33" t="n"/>
+      <c r="S41" s="33" t="n"/>
+      <c r="T41" s="33" t="n"/>
+      <c r="U41" s="33" t="n"/>
+      <c r="V41" s="33" t="n"/>
+      <c r="W41" s="33" t="n"/>
+      <c r="X41" s="33" t="n"/>
+      <c r="Y41" s="33" t="n"/>
+      <c r="Z41" s="33" t="n"/>
+      <c r="AA41" s="33" t="n"/>
+      <c r="AB41" s="33" t="n"/>
+      <c r="AC41" s="33" t="n"/>
+      <c r="AD41" s="33" t="n"/>
+      <c r="AE41" s="33" t="n"/>
+      <c r="AF41" s="33" t="n"/>
+      <c r="AG41" s="33" t="n"/>
+      <c r="AH41" s="33" t="n"/>
+      <c r="AI41" s="33" t="n"/>
+      <c r="AJ41" s="34" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A42" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B42" s="86" t="inlineStr">
+        <is>
+          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C42" s="97" t="n"/>
+      <c r="D42" s="97" t="n"/>
+      <c r="E42" s="97" t="n"/>
+      <c r="F42" s="97" t="n"/>
+      <c r="G42" s="97" t="n"/>
+      <c r="H42" s="97" t="n"/>
+      <c r="I42" s="97" t="n"/>
+      <c r="J42" s="97" t="n"/>
+      <c r="K42" s="97" t="n"/>
+      <c r="L42" s="97" t="n"/>
+      <c r="M42" s="97" t="n"/>
+      <c r="N42" s="97" t="n"/>
+      <c r="O42" s="97" t="n"/>
+      <c r="P42" s="97" t="n"/>
+      <c r="Q42" s="97" t="n"/>
+      <c r="R42" s="97" t="n"/>
+      <c r="S42" s="97" t="n"/>
+      <c r="T42" s="97" t="n"/>
+      <c r="U42" s="97" t="n"/>
+      <c r="V42" s="97" t="n"/>
+      <c r="W42" s="97" t="n"/>
+      <c r="X42" s="97" t="n"/>
+      <c r="Y42" s="97" t="n"/>
+      <c r="Z42" s="97" t="n"/>
+      <c r="AA42" s="97" t="n"/>
+      <c r="AB42" s="97" t="n"/>
+      <c r="AC42" s="97" t="n"/>
+      <c r="AD42" s="97" t="n"/>
+      <c r="AE42" s="97" t="n"/>
+      <c r="AF42" s="97" t="n"/>
+      <c r="AG42" s="97" t="n"/>
+      <c r="AH42" s="97" t="n"/>
+      <c r="AI42" s="97" t="n"/>
+      <c r="AJ42" s="34" t="n"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="2" t="n"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
+      <c r="W43" s="2" t="n"/>
+      <c r="X43" s="2" t="n"/>
+      <c r="Y43" s="2" t="n"/>
+      <c r="Z43" s="2" t="n"/>
+      <c r="AA43" s="2" t="n"/>
+      <c r="AB43" s="2" t="n"/>
+      <c r="AC43" s="2" t="n"/>
+      <c r="AD43" s="2" t="n"/>
+      <c r="AE43" s="2" t="n"/>
+      <c r="AF43" s="2" t="n"/>
+      <c r="AG43" s="2" t="n"/>
+      <c r="AH43" s="2" t="n"/>
+      <c r="AI43" s="2" t="n"/>
+      <c r="AJ43" s="2" t="n"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="B44" s="82" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="B42:AI42"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AC33:AI33"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="H32:X32"/>
+    <mergeCell ref="H33:X33"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="B44:AH44"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="AC32:AI32"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+  </mergeCells>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,7 +3158,7 @@
       <c r="N1" s="12" t="n"/>
       <c r="O1" s="73" t="inlineStr">
         <is>
-          <t>BALL VALVE DATA SHEET</t>
+          <t>GATE VALVE DATA SHEET</t>
         </is>
       </c>
       <c r="P1" s="94" t="n"/>
@@ -1227,7 +3235,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>GAV413C3J2G</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -1273,7 +3281,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2, 3, 4, 6, 8, 10, 12, 12</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -1323,7 +3331,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -1373,7 +3381,7 @@
       <c r="G6" s="61" t="n"/>
       <c r="H6" s="67" t="inlineStr">
         <is>
-          <t>HCN &amp; HCR</t>
+          <t>FIRE WATER</t>
         </is>
       </c>
       <c r="I6" s="95" t="n"/>
@@ -1406,42 +3414,42 @@
       <c r="AJ6" s="65" t="n"/>
     </row>
     <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="57" t="n"/>
-      <c r="B7" s="48" t="n"/>
-      <c r="C7" s="48" t="n"/>
-      <c r="D7" s="48" t="n"/>
-      <c r="E7" s="48" t="n"/>
-      <c r="F7" s="48" t="n"/>
-      <c r="G7" s="48" t="n"/>
-      <c r="H7" s="48" t="n"/>
-      <c r="I7" s="48" t="n"/>
-      <c r="J7" s="48" t="n"/>
-      <c r="K7" s="48" t="n"/>
-      <c r="L7" s="48" t="n"/>
-      <c r="M7" s="48" t="n"/>
-      <c r="N7" s="48" t="n"/>
-      <c r="O7" s="48" t="n"/>
-      <c r="P7" s="48" t="n"/>
-      <c r="Q7" s="48" t="n"/>
-      <c r="R7" s="48" t="n"/>
-      <c r="S7" s="48" t="n"/>
-      <c r="T7" s="48" t="n"/>
-      <c r="U7" s="48" t="n"/>
-      <c r="V7" s="48" t="n"/>
-      <c r="W7" s="48" t="n"/>
-      <c r="X7" s="48" t="n"/>
-      <c r="Y7" s="48" t="n"/>
-      <c r="Z7" s="48" t="n"/>
-      <c r="AA7" s="48" t="n"/>
-      <c r="AB7" s="48" t="n"/>
-      <c r="AC7" s="48" t="n"/>
-      <c r="AD7" s="48" t="n"/>
-      <c r="AE7" s="48" t="n"/>
-      <c r="AF7" s="48" t="n"/>
-      <c r="AG7" s="48" t="n"/>
-      <c r="AH7" s="48" t="n"/>
-      <c r="AI7" s="48" t="n"/>
-      <c r="AJ7" s="31" t="n"/>
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
     </row>
     <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
       <c r="A8" s="15" t="n"/>
@@ -1537,7 +3545,7 @@
       <c r="G10" s="61" t="n"/>
       <c r="H10" s="69" t="inlineStr">
         <is>
-          <t>BALL VALVE, FLOATING BALL</t>
+          <t>GATE VALVE</t>
         </is>
       </c>
       <c r="I10" s="95" t="n"/>
@@ -1564,8 +3572,10 @@
           <t>RATING / CLASS:</t>
         </is>
       </c>
-      <c r="AC10" s="70" t="n">
-        <v>800</v>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
       </c>
       <c r="AD10" s="95" t="n"/>
       <c r="AE10" s="95" t="n"/>
@@ -1595,7 +3605,11 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr"/>
+      <c r="L11" s="69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -1607,7 +3621,11 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr"/>
+      <c r="T11" s="69" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -1671,11 +3689,7 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
+      <c r="AD12" s="68" t="inlineStr"/>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -1771,7 +3785,7 @@
       <c r="AE14" s="61" t="n"/>
       <c r="AF14" s="68" t="inlineStr">
         <is>
-          <t>MNF STD</t>
+          <t>ASME B16.1</t>
         </is>
       </c>
       <c r="AG14" s="95" t="n"/>
@@ -1779,70 +3793,33 @@
       <c r="AI14" s="95" t="n"/>
       <c r="AJ14" s="16" t="n"/>
     </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>BORE:</t>
-        </is>
-      </c>
+    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="n"/>
       <c r="B15" s="61" t="n"/>
       <c r="C15" s="61" t="n"/>
       <c r="D15" s="61" t="n"/>
       <c r="E15" s="61" t="n"/>
       <c r="F15" s="61" t="n"/>
       <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
+      <c r="H15" s="24" t="n"/>
       <c r="I15" s="61" t="n"/>
-      <c r="J15" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K15" s="95" t="n"/>
-      <c r="L15" s="95" t="n"/>
-      <c r="M15" s="95" t="n"/>
-      <c r="N15" s="95" t="n"/>
-      <c r="O15" s="95" t="n"/>
+      <c r="J15" s="80" t="n"/>
       <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="inlineStr">
-        <is>
-          <t>REDUCED</t>
-        </is>
-      </c>
+      <c r="Q15" s="81" t="n"/>
       <c r="R15" s="61" t="n"/>
       <c r="S15" s="61" t="n"/>
-      <c r="T15" s="68" t="inlineStr"/>
-      <c r="U15" s="95" t="n"/>
-      <c r="V15" s="95" t="n"/>
-      <c r="W15" s="95" t="n"/>
-      <c r="X15" s="95" t="n"/>
+      <c r="T15" s="80" t="n"/>
       <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="inlineStr">
-        <is>
-          <t>ACCORDING TO:</t>
-        </is>
-      </c>
+      <c r="Z15" s="24" t="n"/>
       <c r="AA15" s="61" t="n"/>
       <c r="AB15" s="61" t="n"/>
       <c r="AC15" s="61" t="n"/>
       <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="68" t="inlineStr"/>
-      <c r="AF15" s="95" t="n"/>
-      <c r="AG15" s="95" t="n"/>
-      <c r="AH15" s="95" t="n"/>
-      <c r="AI15" s="95" t="n"/>
-      <c r="AJ15" s="16" t="n"/>
-    </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>LENGHT:</t>
-        </is>
-      </c>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AJ15" s="98" t="n"/>
+    </row>
+    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="n"/>
       <c r="B16" s="61" t="n"/>
       <c r="C16" s="61" t="n"/>
       <c r="D16" s="61" t="n"/>
@@ -1856,36 +3833,24 @@
       <c r="L16" s="61" t="n"/>
       <c r="M16" s="61" t="n"/>
       <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="inlineStr">
-        <is>
-          <t>SHORT  PATTERN</t>
-        </is>
-      </c>
-      <c r="P16" s="68" t="inlineStr"/>
-      <c r="Q16" s="95" t="n"/>
-      <c r="R16" s="95" t="n"/>
+      <c r="O16" s="49" t="n"/>
+      <c r="P16" s="80" t="n"/>
       <c r="S16" s="61" t="n"/>
       <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="inlineStr">
-        <is>
-          <t>REG./LONG  PATTERN</t>
-        </is>
-      </c>
+      <c r="U16" s="24" t="n"/>
       <c r="V16" s="61" t="n"/>
       <c r="W16" s="61" t="n"/>
       <c r="X16" s="61" t="n"/>
       <c r="Y16" s="55" t="n"/>
       <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr"/>
-      <c r="AB16" s="95" t="n"/>
-      <c r="AC16" s="95" t="n"/>
+      <c r="AA16" s="80" t="n"/>
       <c r="AD16" s="61" t="n"/>
       <c r="AE16" s="61" t="n"/>
       <c r="AF16" s="61" t="n"/>
       <c r="AG16" s="61" t="n"/>
       <c r="AH16" s="61" t="n"/>
       <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="16" t="n"/>
+      <c r="AJ16" s="28" t="n"/>
     </row>
     <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A17" s="17" t="inlineStr">
@@ -1901,7 +3866,7 @@
       <c r="G17" s="61" t="n"/>
       <c r="H17" s="69" t="inlineStr">
         <is>
-          <t>LEVER OPERATOR</t>
+          <t>HANDWHEEL OPERATOR</t>
         </is>
       </c>
       <c r="I17" s="95" t="n"/>
@@ -2130,11 +4095,7 @@
           <t>API 608</t>
         </is>
       </c>
-      <c r="U22" s="71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U22" s="71" t="inlineStr"/>
       <c r="V22" s="95" t="n"/>
       <c r="W22" s="61" t="n"/>
       <c r="X22" s="61" t="n"/>
@@ -2153,7 +4114,11 @@
           <t>OTHER</t>
         </is>
       </c>
-      <c r="AG22" s="68" t="inlineStr"/>
+      <c r="AG22" s="68" t="inlineStr">
+        <is>
+          <t>MSS SP-128 TYPE II</t>
+        </is>
+      </c>
       <c r="AH22" s="95" t="n"/>
       <c r="AI22" s="95" t="n"/>
       <c r="AJ22" s="28" t="n"/>
@@ -2164,11 +4129,7 @@
           <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
         </is>
       </c>
-      <c r="L23" s="90" t="inlineStr">
-        <is>
-          <t>FIRE SAFE AS PER API 607</t>
-        </is>
-      </c>
+      <c r="L23" s="90" t="inlineStr"/>
       <c r="M23" s="95" t="n"/>
       <c r="N23" s="95" t="n"/>
       <c r="O23" s="95" t="n"/>
@@ -2207,7 +4168,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -2237,7 +4198,7 @@
       </c>
       <c r="AA24" s="61" t="n"/>
       <c r="AB24" s="69" t="n">
-        <v>32</v>
+        <v>-20</v>
       </c>
       <c r="AC24" s="95" t="n"/>
       <c r="AD24" s="24" t="inlineStr">
@@ -2297,11 +4258,7 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr">
-        <is>
-          <t>API 598</t>
-        </is>
-      </c>
+      <c r="AB25" s="77" t="inlineStr"/>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -2550,7 +4507,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM A105</t>
+          <t>ASTM A536 GRADE 65-45-12</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -2577,7 +4534,7 @@
       </c>
       <c r="AC31" s="68" t="inlineStr">
         <is>
-          <t>BY MNF</t>
+          <t>EPDM</t>
         </is>
       </c>
       <c r="AD31" s="95" t="n"/>
@@ -2602,7 +4559,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="67" t="inlineStr">
         <is>
-          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
+          <t>NON METALLIC FLAT GASKET EPDM</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -2648,7 +4605,7 @@
       <c r="G33" s="42" t="n"/>
       <c r="H33" s="67" t="inlineStr">
         <is>
-          <t>STEM: GRAPHITE</t>
+          <t>BY MNF</t>
         </is>
       </c>
       <c r="I33" s="95" t="n"/>
@@ -2681,9 +4638,9 @@
       <c r="AJ33" s="16" t="n"/>
     </row>
     <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="83" t="inlineStr">
-        <is>
-          <t>BALL:</t>
+      <c r="A34" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
         </is>
       </c>
       <c r="B34" s="42" t="n"/>
@@ -2694,7 +4651,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="67" t="inlineStr">
         <is>
-          <t>AISI 316</t>
+          <t>BRONZE</t>
         </is>
       </c>
       <c r="I34" s="95" t="n"/>
@@ -2727,9 +4684,9 @@
       <c r="AJ34" s="16" t="n"/>
     </row>
     <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
+      <c r="A35" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
         </is>
       </c>
       <c r="B35" s="42" t="n"/>
@@ -2740,7 +4697,7 @@
       <c r="G35" s="42" t="n"/>
       <c r="H35" s="67" t="inlineStr">
         <is>
-          <t>AISI 316</t>
+          <t>BY MNF</t>
         </is>
       </c>
       <c r="I35" s="95" t="n"/>
@@ -2773,9 +4730,9 @@
       <c r="AJ35" s="16" t="n"/>
     </row>
     <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
         </is>
       </c>
       <c r="B36" s="42" t="n"/>
@@ -2786,7 +4743,7 @@
       <c r="G36" s="42" t="n"/>
       <c r="H36" s="67" t="inlineStr">
         <is>
-          <t>RINGS: RPTFE</t>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
         </is>
       </c>
       <c r="I36" s="95" t="n"/>
@@ -2819,22 +4776,14 @@
       <c r="AJ36" s="16" t="n"/>
     </row>
     <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
+      <c r="A37" s="18" t="n"/>
       <c r="B37" s="42" t="n"/>
       <c r="C37" s="42" t="n"/>
       <c r="D37" s="42" t="n"/>
       <c r="E37" s="42" t="n"/>
       <c r="F37" s="42" t="n"/>
       <c r="G37" s="42" t="n"/>
-      <c r="H37" s="67" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
+      <c r="H37" s="67" t="n"/>
       <c r="I37" s="95" t="n"/>
       <c r="J37" s="95" t="n"/>
       <c r="K37" s="95" t="n"/>
@@ -2865,14 +4814,22 @@
       <c r="AJ37" s="16" t="n"/>
     </row>
     <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="n"/>
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
       <c r="B38" s="42" t="n"/>
       <c r="C38" s="42" t="n"/>
       <c r="D38" s="42" t="n"/>
       <c r="E38" s="42" t="n"/>
       <c r="F38" s="42" t="n"/>
       <c r="G38" s="42" t="n"/>
-      <c r="H38" s="67" t="n"/>
+      <c r="H38" s="67" t="inlineStr">
+        <is>
+          <t>UL LISTED / FM APPROVED, SOLID WEDGE, WEDGE: DUCTILE IRON EPDM ENCAPSULATED, STEM: OS&amp;Y/RSNRO, BONNET BOLTING AS PER MANUFACTURER'S STD WITH SURFACE PROTECTION</t>
+        </is>
+      </c>
       <c r="I38" s="95" t="n"/>
       <c r="J38" s="95" t="n"/>
       <c r="K38" s="95" t="n"/>
@@ -2903,22 +4860,14 @@
       <c r="AJ38" s="16" t="n"/>
     </row>
     <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
+      <c r="A39" s="18" t="n"/>
       <c r="B39" s="42" t="n"/>
       <c r="C39" s="42" t="n"/>
       <c r="D39" s="42" t="n"/>
       <c r="E39" s="42" t="n"/>
       <c r="F39" s="42" t="n"/>
       <c r="G39" s="42" t="n"/>
-      <c r="H39" s="67" t="inlineStr">
-        <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
-        </is>
-      </c>
+      <c r="H39" s="67" t="n"/>
       <c r="I39" s="95" t="n"/>
       <c r="J39" s="95" t="n"/>
       <c r="K39" s="95" t="n"/>
@@ -2948,317 +4897,237 @@
       <c r="AI39" s="95" t="n"/>
       <c r="AJ39" s="16" t="n"/>
     </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="42" t="n"/>
-      <c r="C40" s="42" t="n"/>
-      <c r="D40" s="42" t="n"/>
-      <c r="E40" s="42" t="n"/>
-      <c r="F40" s="42" t="n"/>
-      <c r="G40" s="42" t="n"/>
-      <c r="H40" s="67" t="n"/>
-      <c r="I40" s="95" t="n"/>
-      <c r="J40" s="95" t="n"/>
-      <c r="K40" s="95" t="n"/>
-      <c r="L40" s="95" t="n"/>
-      <c r="M40" s="95" t="n"/>
-      <c r="N40" s="95" t="n"/>
-      <c r="O40" s="95" t="n"/>
-      <c r="P40" s="95" t="n"/>
-      <c r="Q40" s="95" t="n"/>
-      <c r="R40" s="95" t="n"/>
-      <c r="S40" s="95" t="n"/>
-      <c r="T40" s="95" t="n"/>
-      <c r="U40" s="95" t="n"/>
-      <c r="V40" s="95" t="n"/>
-      <c r="W40" s="95" t="n"/>
-      <c r="X40" s="95" t="n"/>
-      <c r="Y40" s="95" t="n"/>
-      <c r="Z40" s="95" t="n"/>
-      <c r="AA40" s="95" t="n"/>
-      <c r="AB40" s="95" t="n"/>
-      <c r="AC40" s="95" t="n"/>
-      <c r="AD40" s="95" t="n"/>
-      <c r="AE40" s="95" t="n"/>
-      <c r="AF40" s="95" t="n"/>
-      <c r="AG40" s="95" t="n"/>
-      <c r="AH40" s="95" t="n"/>
-      <c r="AI40" s="95" t="n"/>
-      <c r="AJ40" s="16" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="37" t="n"/>
-      <c r="B41" s="61" t="n"/>
-      <c r="C41" s="61" t="n"/>
-      <c r="D41" s="61" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="61" t="n"/>
-      <c r="G41" s="61" t="n"/>
-      <c r="H41" s="61" t="n"/>
-      <c r="I41" s="61" t="n"/>
-      <c r="J41" s="61" t="n"/>
-      <c r="K41" s="61" t="n"/>
-      <c r="L41" s="61" t="n"/>
-      <c r="M41" s="61" t="n"/>
-      <c r="N41" s="61" t="n"/>
-      <c r="O41" s="61" t="n"/>
-      <c r="P41" s="61" t="n"/>
-      <c r="Q41" s="61" t="n"/>
-      <c r="R41" s="61" t="n"/>
-      <c r="S41" s="61" t="n"/>
-      <c r="T41" s="61" t="n"/>
-      <c r="U41" s="61" t="n"/>
-      <c r="V41" s="61" t="n"/>
-      <c r="W41" s="61" t="n"/>
-      <c r="X41" s="61" t="n"/>
-      <c r="Y41" s="61" t="n"/>
-      <c r="Z41" s="61" t="n"/>
-      <c r="AA41" s="61" t="n"/>
-      <c r="AB41" s="61" t="n"/>
-      <c r="AC41" s="61" t="n"/>
-      <c r="AD41" s="61" t="n"/>
-      <c r="AE41" s="61" t="n"/>
-      <c r="AF41" s="61" t="n"/>
-      <c r="AG41" s="61" t="n"/>
-      <c r="AH41" s="61" t="n"/>
-      <c r="AI41" s="61" t="n"/>
-      <c r="AJ41" s="28" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A42" s="15" t="n"/>
-      <c r="B42" s="51" t="n"/>
-      <c r="C42" s="51" t="n"/>
-      <c r="D42" s="51" t="n"/>
-      <c r="E42" s="51" t="n"/>
-      <c r="F42" s="51" t="n"/>
-      <c r="G42" s="51" t="n"/>
-      <c r="H42" s="51" t="n"/>
-      <c r="I42" s="51" t="n"/>
-      <c r="J42" s="51" t="n"/>
-      <c r="K42" s="51" t="n"/>
-      <c r="L42" s="51" t="n"/>
-      <c r="M42" s="51" t="n"/>
-      <c r="N42" s="51" t="n"/>
-      <c r="O42" s="51" t="n"/>
-      <c r="P42" s="51" t="n"/>
-      <c r="Q42" s="51" t="n"/>
-      <c r="R42" s="51" t="n"/>
-      <c r="S42" s="52" t="inlineStr">
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A40" s="37" t="n"/>
+      <c r="B40" s="61" t="n"/>
+      <c r="C40" s="61" t="n"/>
+      <c r="D40" s="61" t="n"/>
+      <c r="E40" s="61" t="n"/>
+      <c r="F40" s="61" t="n"/>
+      <c r="G40" s="61" t="n"/>
+      <c r="H40" s="61" t="n"/>
+      <c r="I40" s="61" t="n"/>
+      <c r="J40" s="61" t="n"/>
+      <c r="K40" s="61" t="n"/>
+      <c r="L40" s="61" t="n"/>
+      <c r="M40" s="61" t="n"/>
+      <c r="N40" s="61" t="n"/>
+      <c r="O40" s="61" t="n"/>
+      <c r="P40" s="61" t="n"/>
+      <c r="Q40" s="61" t="n"/>
+      <c r="R40" s="61" t="n"/>
+      <c r="S40" s="61" t="n"/>
+      <c r="T40" s="61" t="n"/>
+      <c r="U40" s="61" t="n"/>
+      <c r="V40" s="61" t="n"/>
+      <c r="W40" s="61" t="n"/>
+      <c r="X40" s="61" t="n"/>
+      <c r="Y40" s="61" t="n"/>
+      <c r="Z40" s="61" t="n"/>
+      <c r="AA40" s="61" t="n"/>
+      <c r="AB40" s="61" t="n"/>
+      <c r="AC40" s="61" t="n"/>
+      <c r="AD40" s="61" t="n"/>
+      <c r="AE40" s="61" t="n"/>
+      <c r="AF40" s="61" t="n"/>
+      <c r="AG40" s="61" t="n"/>
+      <c r="AH40" s="61" t="n"/>
+      <c r="AI40" s="61" t="n"/>
+      <c r="AJ40" s="28" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A41" s="15" t="n"/>
+      <c r="B41" s="51" t="n"/>
+      <c r="C41" s="51" t="n"/>
+      <c r="D41" s="51" t="n"/>
+      <c r="E41" s="51" t="n"/>
+      <c r="F41" s="51" t="n"/>
+      <c r="G41" s="51" t="n"/>
+      <c r="H41" s="51" t="n"/>
+      <c r="I41" s="51" t="n"/>
+      <c r="J41" s="51" t="n"/>
+      <c r="K41" s="51" t="n"/>
+      <c r="L41" s="51" t="n"/>
+      <c r="M41" s="51" t="n"/>
+      <c r="N41" s="51" t="n"/>
+      <c r="O41" s="51" t="n"/>
+      <c r="P41" s="51" t="n"/>
+      <c r="Q41" s="51" t="n"/>
+      <c r="R41" s="51" t="n"/>
+      <c r="S41" s="52" t="inlineStr">
         <is>
           <t>N O T E S</t>
         </is>
       </c>
-      <c r="T42" s="51" t="n"/>
-      <c r="U42" s="51" t="n"/>
-      <c r="V42" s="51" t="n"/>
-      <c r="W42" s="51" t="n"/>
-      <c r="X42" s="51" t="n"/>
-      <c r="Y42" s="51" t="n"/>
-      <c r="Z42" s="51" t="n"/>
-      <c r="AA42" s="51" t="n"/>
-      <c r="AB42" s="51" t="n"/>
-      <c r="AC42" s="51" t="n"/>
-      <c r="AD42" s="51" t="n"/>
-      <c r="AE42" s="51" t="n"/>
-      <c r="AF42" s="51" t="n"/>
-      <c r="AG42" s="51" t="n"/>
-      <c r="AH42" s="51" t="n"/>
-      <c r="AI42" s="51" t="n"/>
-      <c r="AJ42" s="16" t="n"/>
+      <c r="T41" s="51" t="n"/>
+      <c r="U41" s="51" t="n"/>
+      <c r="V41" s="51" t="n"/>
+      <c r="W41" s="51" t="n"/>
+      <c r="X41" s="51" t="n"/>
+      <c r="Y41" s="51" t="n"/>
+      <c r="Z41" s="51" t="n"/>
+      <c r="AA41" s="51" t="n"/>
+      <c r="AB41" s="51" t="n"/>
+      <c r="AC41" s="51" t="n"/>
+      <c r="AD41" s="51" t="n"/>
+      <c r="AE41" s="51" t="n"/>
+      <c r="AF41" s="51" t="n"/>
+      <c r="AG41" s="51" t="n"/>
+      <c r="AH41" s="51" t="n"/>
+      <c r="AI41" s="51" t="n"/>
+      <c r="AJ41" s="16" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A42" s="38" t="n"/>
+      <c r="B42" s="33" t="n"/>
+      <c r="C42" s="33" t="n"/>
+      <c r="D42" s="33" t="n"/>
+      <c r="E42" s="33" t="n"/>
+      <c r="F42" s="33" t="n"/>
+      <c r="G42" s="33" t="n"/>
+      <c r="H42" s="33" t="n"/>
+      <c r="I42" s="33" t="n"/>
+      <c r="J42" s="33" t="n"/>
+      <c r="K42" s="33" t="n"/>
+      <c r="L42" s="33" t="n"/>
+      <c r="M42" s="33" t="n"/>
+      <c r="N42" s="33" t="n"/>
+      <c r="O42" s="33" t="n"/>
+      <c r="P42" s="33" t="n"/>
+      <c r="Q42" s="33" t="n"/>
+      <c r="R42" s="33" t="n"/>
+      <c r="S42" s="33" t="n"/>
+      <c r="T42" s="33" t="n"/>
+      <c r="U42" s="33" t="n"/>
+      <c r="V42" s="33" t="n"/>
+      <c r="W42" s="33" t="n"/>
+      <c r="X42" s="33" t="n"/>
+      <c r="Y42" s="33" t="n"/>
+      <c r="Z42" s="33" t="n"/>
+      <c r="AA42" s="33" t="n"/>
+      <c r="AB42" s="33" t="n"/>
+      <c r="AC42" s="33" t="n"/>
+      <c r="AD42" s="33" t="n"/>
+      <c r="AE42" s="33" t="n"/>
+      <c r="AF42" s="33" t="n"/>
+      <c r="AG42" s="33" t="n"/>
+      <c r="AH42" s="33" t="n"/>
+      <c r="AI42" s="33" t="n"/>
+      <c r="AJ42" s="34" t="n"/>
     </row>
     <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="38" t="n"/>
-      <c r="B43" s="33" t="n"/>
-      <c r="C43" s="33" t="n"/>
-      <c r="D43" s="33" t="n"/>
-      <c r="E43" s="33" t="n"/>
-      <c r="F43" s="33" t="n"/>
-      <c r="G43" s="33" t="n"/>
-      <c r="H43" s="33" t="n"/>
-      <c r="I43" s="33" t="n"/>
-      <c r="J43" s="33" t="n"/>
-      <c r="K43" s="33" t="n"/>
-      <c r="L43" s="33" t="n"/>
-      <c r="M43" s="33" t="n"/>
-      <c r="N43" s="33" t="n"/>
-      <c r="O43" s="33" t="n"/>
-      <c r="P43" s="33" t="n"/>
-      <c r="Q43" s="33" t="n"/>
-      <c r="R43" s="33" t="n"/>
-      <c r="S43" s="33" t="n"/>
-      <c r="T43" s="33" t="n"/>
-      <c r="U43" s="33" t="n"/>
-      <c r="V43" s="33" t="n"/>
-      <c r="W43" s="33" t="n"/>
-      <c r="X43" s="33" t="n"/>
-      <c r="Y43" s="33" t="n"/>
-      <c r="Z43" s="33" t="n"/>
-      <c r="AA43" s="33" t="n"/>
-      <c r="AB43" s="33" t="n"/>
-      <c r="AC43" s="33" t="n"/>
-      <c r="AD43" s="33" t="n"/>
-      <c r="AE43" s="33" t="n"/>
-      <c r="AF43" s="33" t="n"/>
-      <c r="AG43" s="33" t="n"/>
-      <c r="AH43" s="33" t="n"/>
-      <c r="AI43" s="33" t="n"/>
-      <c r="AJ43" s="34" t="n"/>
-    </row>
-    <row r="44" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A44" s="22" t="inlineStr">
+      <c r="A43" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">1. 
 </t>
         </is>
       </c>
-      <c r="B44" s="23" t="inlineStr">
+      <c r="B43" s="23" t="inlineStr">
         <is>
           <t>Piping Class Doc. No.MTU-ES-01 V1</t>
         </is>
       </c>
-      <c r="C44" s="23" t="n"/>
-      <c r="D44" s="23" t="n"/>
-      <c r="E44" s="23" t="n"/>
-      <c r="F44" s="23" t="n"/>
-      <c r="G44" s="23" t="n"/>
-      <c r="H44" s="23" t="n"/>
-      <c r="I44" s="23" t="n"/>
-      <c r="J44" s="23" t="n"/>
-      <c r="K44" s="23" t="n"/>
-      <c r="L44" s="23" t="n"/>
-      <c r="M44" s="23" t="n"/>
-      <c r="N44" s="23" t="n"/>
-      <c r="O44" s="23" t="n"/>
-      <c r="P44" s="23" t="n"/>
-      <c r="Q44" s="23" t="n"/>
-      <c r="R44" s="23" t="n"/>
-      <c r="S44" s="23" t="n"/>
-      <c r="T44" s="23" t="n"/>
-      <c r="U44" s="23" t="n"/>
-      <c r="V44" s="23" t="n"/>
-      <c r="W44" s="23" t="n"/>
-      <c r="X44" s="23" t="n"/>
-      <c r="Y44" s="23" t="n"/>
-      <c r="Z44" s="23" t="n"/>
-      <c r="AA44" s="23" t="n"/>
-      <c r="AB44" s="23" t="n"/>
-      <c r="AC44" s="23" t="n"/>
-      <c r="AD44" s="23" t="n"/>
-      <c r="AE44" s="23" t="n"/>
-      <c r="AF44" s="23" t="n"/>
-      <c r="AG44" s="23" t="n"/>
-      <c r="AH44" s="23" t="n"/>
-      <c r="AI44" s="23" t="n"/>
-      <c r="AJ44" s="34" t="n"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
-      <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="n"/>
-      <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="n"/>
-      <c r="T45" s="2" t="n"/>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
-      <c r="W45" s="2" t="n"/>
-      <c r="X45" s="2" t="n"/>
-      <c r="Y45" s="2" t="n"/>
-      <c r="Z45" s="2" t="n"/>
-      <c r="AA45" s="2" t="n"/>
-      <c r="AB45" s="2" t="n"/>
-      <c r="AC45" s="2" t="n"/>
-      <c r="AD45" s="2" t="n"/>
-      <c r="AE45" s="2" t="n"/>
-      <c r="AF45" s="2" t="n"/>
-      <c r="AG45" s="2" t="n"/>
-      <c r="AH45" s="2" t="n"/>
-      <c r="AI45" s="2" t="n"/>
-      <c r="AJ45" s="2" t="n"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="82" t="n"/>
+      <c r="C43" s="23" t="n"/>
+      <c r="D43" s="23" t="n"/>
+      <c r="E43" s="23" t="n"/>
+      <c r="F43" s="23" t="n"/>
+      <c r="G43" s="23" t="n"/>
+      <c r="H43" s="23" t="n"/>
+      <c r="I43" s="23" t="n"/>
+      <c r="J43" s="23" t="n"/>
+      <c r="K43" s="23" t="n"/>
+      <c r="L43" s="23" t="n"/>
+      <c r="M43" s="23" t="n"/>
+      <c r="N43" s="23" t="n"/>
+      <c r="O43" s="23" t="n"/>
+      <c r="P43" s="23" t="n"/>
+      <c r="Q43" s="23" t="n"/>
+      <c r="R43" s="23" t="n"/>
+      <c r="S43" s="23" t="n"/>
+      <c r="T43" s="23" t="n"/>
+      <c r="U43" s="23" t="n"/>
+      <c r="V43" s="23" t="n"/>
+      <c r="W43" s="23" t="n"/>
+      <c r="X43" s="23" t="n"/>
+      <c r="Y43" s="23" t="n"/>
+      <c r="Z43" s="23" t="n"/>
+      <c r="AA43" s="23" t="n"/>
+      <c r="AB43" s="23" t="n"/>
+      <c r="AC43" s="23" t="n"/>
+      <c r="AD43" s="23" t="n"/>
+      <c r="AE43" s="23" t="n"/>
+      <c r="AF43" s="23" t="n"/>
+      <c r="AG43" s="23" t="n"/>
+      <c r="AH43" s="23" t="n"/>
+      <c r="AI43" s="23" t="n"/>
+      <c r="AJ43" s="34" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="50">
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="P16:R16"/>
     <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AB24:AC24"/>
     <mergeCell ref="H17:N17"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="T15:X15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="B46:AH46"/>
-    <mergeCell ref="H33:AI33"/>
-    <mergeCell ref="H34:AI34"/>
-    <mergeCell ref="H35:AI35"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="H10:W10"/>
     <mergeCell ref="O1:V1"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:N5"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="X27:AI27"/>
     <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H10:W10"/>
     <mergeCell ref="H6:AI6"/>
     <mergeCell ref="AC10:AI10"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="AC11:AD11"/>
     <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="H39:AI39"/>
-    <mergeCell ref="H40:AI40"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="H32:AI32"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="Q25:R25"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="H32:AI32"/>
+    <mergeCell ref="H33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
   </mergeCells>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.7874015748031497" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="122" scale="69" fitToHeight="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3287,7 +5156,7 @@
       <c r="N1" s="12" t="n"/>
       <c r="O1" s="73" t="inlineStr">
         <is>
-          <t>BALL VALVE DATA SHEET</t>
+          <t>GATE VALVE DATA SHEET</t>
         </is>
       </c>
       <c r="P1" s="94" t="n"/>
@@ -3364,7 +5233,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>GAV41H4J2G</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -3410,7 +5279,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>3/4, 1</t>
+          <t>1/2, 1</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -3460,7 +5329,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS3SA1</t>
+          <t>CS1SC2</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -3510,7 +5379,7 @@
       <c r="G6" s="61" t="n"/>
       <c r="H6" s="67" t="inlineStr">
         <is>
-          <t>HCN &amp; HCR</t>
+          <t>FIRE WATER</t>
         </is>
       </c>
       <c r="I6" s="95" t="n"/>
@@ -3543,42 +5412,42 @@
       <c r="AJ6" s="65" t="n"/>
     </row>
     <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="57" t="n"/>
-      <c r="B7" s="48" t="n"/>
-      <c r="C7" s="48" t="n"/>
-      <c r="D7" s="48" t="n"/>
-      <c r="E7" s="48" t="n"/>
-      <c r="F7" s="48" t="n"/>
-      <c r="G7" s="48" t="n"/>
-      <c r="H7" s="48" t="n"/>
-      <c r="I7" s="48" t="n"/>
-      <c r="J7" s="48" t="n"/>
-      <c r="K7" s="48" t="n"/>
-      <c r="L7" s="48" t="n"/>
-      <c r="M7" s="48" t="n"/>
-      <c r="N7" s="48" t="n"/>
-      <c r="O7" s="48" t="n"/>
-      <c r="P7" s="48" t="n"/>
-      <c r="Q7" s="48" t="n"/>
-      <c r="R7" s="48" t="n"/>
-      <c r="S7" s="48" t="n"/>
-      <c r="T7" s="48" t="n"/>
-      <c r="U7" s="48" t="n"/>
-      <c r="V7" s="48" t="n"/>
-      <c r="W7" s="48" t="n"/>
-      <c r="X7" s="48" t="n"/>
-      <c r="Y7" s="48" t="n"/>
-      <c r="Z7" s="48" t="n"/>
-      <c r="AA7" s="48" t="n"/>
-      <c r="AB7" s="48" t="n"/>
-      <c r="AC7" s="48" t="n"/>
-      <c r="AD7" s="48" t="n"/>
-      <c r="AE7" s="48" t="n"/>
-      <c r="AF7" s="48" t="n"/>
-      <c r="AG7" s="48" t="n"/>
-      <c r="AH7" s="48" t="n"/>
-      <c r="AI7" s="48" t="n"/>
-      <c r="AJ7" s="31" t="n"/>
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
     </row>
     <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
       <c r="A8" s="15" t="n"/>
@@ -3674,7 +5543,7 @@
       <c r="G10" s="61" t="n"/>
       <c r="H10" s="69" t="inlineStr">
         <is>
-          <t>BALL VALVE, FLOATING BALL</t>
+          <t>GATE VALVE</t>
         </is>
       </c>
       <c r="I10" s="95" t="n"/>
@@ -3701,8 +5570,10 @@
           <t>RATING / CLASS:</t>
         </is>
       </c>
-      <c r="AC10" s="70" t="n">
-        <v>800</v>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
       <c r="AD10" s="95" t="n"/>
       <c r="AE10" s="95" t="n"/>
@@ -3810,7 +5681,7 @@
       <c r="AC12" s="61" t="n"/>
       <c r="AD12" s="68" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>NPTF</t>
         </is>
       </c>
       <c r="AE12" s="95" t="n"/>
@@ -3908,7 +5779,7 @@
       <c r="AE14" s="61" t="n"/>
       <c r="AF14" s="68" t="inlineStr">
         <is>
-          <t>MNF STD</t>
+          <t>ASME B1.20.1</t>
         </is>
       </c>
       <c r="AG14" s="95" t="n"/>
@@ -3916,70 +5787,33 @@
       <c r="AI14" s="95" t="n"/>
       <c r="AJ14" s="16" t="n"/>
     </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>BORE:</t>
-        </is>
-      </c>
+    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="n"/>
       <c r="B15" s="61" t="n"/>
       <c r="C15" s="61" t="n"/>
       <c r="D15" s="61" t="n"/>
       <c r="E15" s="61" t="n"/>
       <c r="F15" s="61" t="n"/>
       <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
+      <c r="H15" s="24" t="n"/>
       <c r="I15" s="61" t="n"/>
-      <c r="J15" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K15" s="95" t="n"/>
-      <c r="L15" s="95" t="n"/>
-      <c r="M15" s="95" t="n"/>
-      <c r="N15" s="95" t="n"/>
-      <c r="O15" s="95" t="n"/>
+      <c r="J15" s="80" t="n"/>
       <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="inlineStr">
-        <is>
-          <t>REDUCED</t>
-        </is>
-      </c>
+      <c r="Q15" s="81" t="n"/>
       <c r="R15" s="61" t="n"/>
       <c r="S15" s="61" t="n"/>
-      <c r="T15" s="68" t="inlineStr"/>
-      <c r="U15" s="95" t="n"/>
-      <c r="V15" s="95" t="n"/>
-      <c r="W15" s="95" t="n"/>
-      <c r="X15" s="95" t="n"/>
+      <c r="T15" s="80" t="n"/>
       <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="inlineStr">
-        <is>
-          <t>ACCORDING TO:</t>
-        </is>
-      </c>
+      <c r="Z15" s="24" t="n"/>
       <c r="AA15" s="61" t="n"/>
       <c r="AB15" s="61" t="n"/>
       <c r="AC15" s="61" t="n"/>
       <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="68" t="inlineStr"/>
-      <c r="AF15" s="95" t="n"/>
-      <c r="AG15" s="95" t="n"/>
-      <c r="AH15" s="95" t="n"/>
-      <c r="AI15" s="95" t="n"/>
-      <c r="AJ15" s="16" t="n"/>
-    </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>LENGHT:</t>
-        </is>
-      </c>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AJ15" s="98" t="n"/>
+    </row>
+    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="n"/>
       <c r="B16" s="61" t="n"/>
       <c r="C16" s="61" t="n"/>
       <c r="D16" s="61" t="n"/>
@@ -3993,36 +5827,24 @@
       <c r="L16" s="61" t="n"/>
       <c r="M16" s="61" t="n"/>
       <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="inlineStr">
-        <is>
-          <t>SHORT  PATTERN</t>
-        </is>
-      </c>
-      <c r="P16" s="68" t="inlineStr"/>
-      <c r="Q16" s="95" t="n"/>
-      <c r="R16" s="95" t="n"/>
+      <c r="O16" s="49" t="n"/>
+      <c r="P16" s="80" t="n"/>
       <c r="S16" s="61" t="n"/>
       <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="inlineStr">
-        <is>
-          <t>REG./LONG  PATTERN</t>
-        </is>
-      </c>
+      <c r="U16" s="24" t="n"/>
       <c r="V16" s="61" t="n"/>
       <c r="W16" s="61" t="n"/>
       <c r="X16" s="61" t="n"/>
       <c r="Y16" s="55" t="n"/>
       <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr"/>
-      <c r="AB16" s="95" t="n"/>
-      <c r="AC16" s="95" t="n"/>
+      <c r="AA16" s="80" t="n"/>
       <c r="AD16" s="61" t="n"/>
       <c r="AE16" s="61" t="n"/>
       <c r="AF16" s="61" t="n"/>
       <c r="AG16" s="61" t="n"/>
       <c r="AH16" s="61" t="n"/>
       <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="16" t="n"/>
+      <c r="AJ16" s="28" t="n"/>
     </row>
     <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A17" s="17" t="inlineStr">
@@ -4038,7 +5860,7 @@
       <c r="G17" s="61" t="n"/>
       <c r="H17" s="69" t="inlineStr">
         <is>
-          <t>LEVER OPERATOR</t>
+          <t>HANDWHEEL OPERATOR</t>
         </is>
       </c>
       <c r="I17" s="95" t="n"/>
@@ -4267,11 +6089,7 @@
           <t>API 608</t>
         </is>
       </c>
-      <c r="U22" s="71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U22" s="71" t="inlineStr"/>
       <c r="V22" s="95" t="n"/>
       <c r="W22" s="61" t="n"/>
       <c r="X22" s="61" t="n"/>
@@ -4290,7 +6108,11 @@
           <t>OTHER</t>
         </is>
       </c>
-      <c r="AG22" s="68" t="inlineStr"/>
+      <c r="AG22" s="68" t="inlineStr">
+        <is>
+          <t>MSS SP-80</t>
+        </is>
+      </c>
       <c r="AH22" s="95" t="n"/>
       <c r="AI22" s="95" t="n"/>
       <c r="AJ22" s="28" t="n"/>
@@ -4301,11 +6123,7 @@
           <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
         </is>
       </c>
-      <c r="L23" s="90" t="inlineStr">
-        <is>
-          <t>FIRE SAFE AS PER API 607</t>
-        </is>
-      </c>
+      <c r="L23" s="90" t="inlineStr"/>
       <c r="M23" s="95" t="n"/>
       <c r="N23" s="95" t="n"/>
       <c r="O23" s="95" t="n"/>
@@ -4344,7 +6162,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>740</v>
+        <v>200</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -4374,7 +6192,7 @@
       </c>
       <c r="AA24" s="61" t="n"/>
       <c r="AB24" s="69" t="n">
-        <v>32</v>
+        <v>-20</v>
       </c>
       <c r="AC24" s="95" t="n"/>
       <c r="AD24" s="24" t="inlineStr">
@@ -4434,11 +6252,7 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr">
-        <is>
-          <t>API 598</t>
-        </is>
-      </c>
+      <c r="AB25" s="77" t="inlineStr"/>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -4687,7 +6501,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM A105</t>
+          <t>ASTM B62 UNS C83600</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -4714,7 +6528,7 @@
       </c>
       <c r="AC31" s="68" t="inlineStr">
         <is>
-          <t>BY MNF</t>
+          <t>LUBRICATED FIBER / GRAPHITE</t>
         </is>
       </c>
       <c r="AD31" s="95" t="n"/>
@@ -4739,7 +6553,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="67" t="inlineStr">
         <is>
-          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -4785,7 +6599,7 @@
       <c r="G33" s="42" t="n"/>
       <c r="H33" s="67" t="inlineStr">
         <is>
-          <t>STEM: GRAPHITE</t>
+          <t>BY MNF</t>
         </is>
       </c>
       <c r="I33" s="95" t="n"/>
@@ -4818,9 +6632,9 @@
       <c r="AJ33" s="16" t="n"/>
     </row>
     <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="83" t="inlineStr">
-        <is>
-          <t>BALL:</t>
+      <c r="A34" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
         </is>
       </c>
       <c r="B34" s="42" t="n"/>
@@ -4831,7 +6645,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="67" t="inlineStr">
         <is>
-          <t>AISI 316</t>
+          <t>BRONZE</t>
         </is>
       </c>
       <c r="I34" s="95" t="n"/>
@@ -4864,9 +6678,9 @@
       <c r="AJ34" s="16" t="n"/>
     </row>
     <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
+      <c r="A35" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
         </is>
       </c>
       <c r="B35" s="42" t="n"/>
@@ -4877,7 +6691,7 @@
       <c r="G35" s="42" t="n"/>
       <c r="H35" s="67" t="inlineStr">
         <is>
-          <t>AISI 316</t>
+          <t>RINGS: BRONZE</t>
         </is>
       </c>
       <c r="I35" s="95" t="n"/>
@@ -4910,9 +6724,9 @@
       <c r="AJ35" s="16" t="n"/>
     </row>
     <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
         </is>
       </c>
       <c r="B36" s="42" t="n"/>
@@ -4923,7 +6737,7 @@
       <c r="G36" s="42" t="n"/>
       <c r="H36" s="67" t="inlineStr">
         <is>
-          <t>RINGS: RPTFE</t>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
         </is>
       </c>
       <c r="I36" s="95" t="n"/>
@@ -4956,22 +6770,14 @@
       <c r="AJ36" s="16" t="n"/>
     </row>
     <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
+      <c r="A37" s="18" t="n"/>
       <c r="B37" s="42" t="n"/>
       <c r="C37" s="42" t="n"/>
       <c r="D37" s="42" t="n"/>
       <c r="E37" s="42" t="n"/>
       <c r="F37" s="42" t="n"/>
       <c r="G37" s="42" t="n"/>
-      <c r="H37" s="67" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
+      <c r="H37" s="67" t="n"/>
       <c r="I37" s="95" t="n"/>
       <c r="J37" s="95" t="n"/>
       <c r="K37" s="95" t="n"/>
@@ -5002,14 +6808,22 @@
       <c r="AJ37" s="16" t="n"/>
     </row>
     <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="n"/>
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
       <c r="B38" s="42" t="n"/>
       <c r="C38" s="42" t="n"/>
       <c r="D38" s="42" t="n"/>
       <c r="E38" s="42" t="n"/>
       <c r="F38" s="42" t="n"/>
       <c r="G38" s="42" t="n"/>
-      <c r="H38" s="67" t="n"/>
+      <c r="H38" s="67" t="inlineStr">
+        <is>
+          <t>SOLID WEDGE, STEM: OS&amp;Y/RSNRO, INTEGRAL SEATS, DISC: BRONZE, SCREWED BONNET</t>
+        </is>
+      </c>
       <c r="I38" s="95" t="n"/>
       <c r="J38" s="95" t="n"/>
       <c r="K38" s="95" t="n"/>
@@ -5040,22 +6854,14 @@
       <c r="AJ38" s="16" t="n"/>
     </row>
     <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
+      <c r="A39" s="18" t="n"/>
       <c r="B39" s="42" t="n"/>
       <c r="C39" s="42" t="n"/>
       <c r="D39" s="42" t="n"/>
       <c r="E39" s="42" t="n"/>
       <c r="F39" s="42" t="n"/>
       <c r="G39" s="42" t="n"/>
-      <c r="H39" s="67" t="inlineStr">
-        <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
-        </is>
-      </c>
+      <c r="H39" s="67" t="n"/>
       <c r="I39" s="95" t="n"/>
       <c r="J39" s="95" t="n"/>
       <c r="K39" s="95" t="n"/>
@@ -5085,43 +6891,2051 @@
       <c r="AI39" s="95" t="n"/>
       <c r="AJ39" s="16" t="n"/>
     </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="41">
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A40" s="37" t="n"/>
+      <c r="B40" s="61" t="n"/>
+      <c r="C40" s="61" t="n"/>
+      <c r="D40" s="61" t="n"/>
+      <c r="E40" s="61" t="n"/>
+      <c r="F40" s="61" t="n"/>
+      <c r="G40" s="61" t="n"/>
+      <c r="H40" s="61" t="n"/>
+      <c r="I40" s="61" t="n"/>
+      <c r="J40" s="61" t="n"/>
+      <c r="K40" s="61" t="n"/>
+      <c r="L40" s="61" t="n"/>
+      <c r="M40" s="61" t="n"/>
+      <c r="N40" s="61" t="n"/>
+      <c r="O40" s="61" t="n"/>
+      <c r="P40" s="61" t="n"/>
+      <c r="Q40" s="61" t="n"/>
+      <c r="R40" s="61" t="n"/>
+      <c r="S40" s="61" t="n"/>
+      <c r="T40" s="61" t="n"/>
+      <c r="U40" s="61" t="n"/>
+      <c r="V40" s="61" t="n"/>
+      <c r="W40" s="61" t="n"/>
+      <c r="X40" s="61" t="n"/>
+      <c r="Y40" s="61" t="n"/>
+      <c r="Z40" s="61" t="n"/>
+      <c r="AA40" s="61" t="n"/>
+      <c r="AB40" s="61" t="n"/>
+      <c r="AC40" s="61" t="n"/>
+      <c r="AD40" s="61" t="n"/>
+      <c r="AE40" s="61" t="n"/>
+      <c r="AF40" s="61" t="n"/>
+      <c r="AG40" s="61" t="n"/>
+      <c r="AH40" s="61" t="n"/>
+      <c r="AI40" s="61" t="n"/>
+      <c r="AJ40" s="28" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A41" s="15" t="n"/>
+      <c r="B41" s="51" t="n"/>
+      <c r="C41" s="51" t="n"/>
+      <c r="D41" s="51" t="n"/>
+      <c r="E41" s="51" t="n"/>
+      <c r="F41" s="51" t="n"/>
+      <c r="G41" s="51" t="n"/>
+      <c r="H41" s="51" t="n"/>
+      <c r="I41" s="51" t="n"/>
+      <c r="J41" s="51" t="n"/>
+      <c r="K41" s="51" t="n"/>
+      <c r="L41" s="51" t="n"/>
+      <c r="M41" s="51" t="n"/>
+      <c r="N41" s="51" t="n"/>
+      <c r="O41" s="51" t="n"/>
+      <c r="P41" s="51" t="n"/>
+      <c r="Q41" s="51" t="n"/>
+      <c r="R41" s="51" t="n"/>
+      <c r="S41" s="52" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T41" s="51" t="n"/>
+      <c r="U41" s="51" t="n"/>
+      <c r="V41" s="51" t="n"/>
+      <c r="W41" s="51" t="n"/>
+      <c r="X41" s="51" t="n"/>
+      <c r="Y41" s="51" t="n"/>
+      <c r="Z41" s="51" t="n"/>
+      <c r="AA41" s="51" t="n"/>
+      <c r="AB41" s="51" t="n"/>
+      <c r="AC41" s="51" t="n"/>
+      <c r="AD41" s="51" t="n"/>
+      <c r="AE41" s="51" t="n"/>
+      <c r="AF41" s="51" t="n"/>
+      <c r="AG41" s="51" t="n"/>
+      <c r="AH41" s="51" t="n"/>
+      <c r="AI41" s="51" t="n"/>
+      <c r="AJ41" s="16" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A42" s="38" t="n"/>
+      <c r="B42" s="33" t="n"/>
+      <c r="C42" s="33" t="n"/>
+      <c r="D42" s="33" t="n"/>
+      <c r="E42" s="33" t="n"/>
+      <c r="F42" s="33" t="n"/>
+      <c r="G42" s="33" t="n"/>
+      <c r="H42" s="33" t="n"/>
+      <c r="I42" s="33" t="n"/>
+      <c r="J42" s="33" t="n"/>
+      <c r="K42" s="33" t="n"/>
+      <c r="L42" s="33" t="n"/>
+      <c r="M42" s="33" t="n"/>
+      <c r="N42" s="33" t="n"/>
+      <c r="O42" s="33" t="n"/>
+      <c r="P42" s="33" t="n"/>
+      <c r="Q42" s="33" t="n"/>
+      <c r="R42" s="33" t="n"/>
+      <c r="S42" s="33" t="n"/>
+      <c r="T42" s="33" t="n"/>
+      <c r="U42" s="33" t="n"/>
+      <c r="V42" s="33" t="n"/>
+      <c r="W42" s="33" t="n"/>
+      <c r="X42" s="33" t="n"/>
+      <c r="Y42" s="33" t="n"/>
+      <c r="Z42" s="33" t="n"/>
+      <c r="AA42" s="33" t="n"/>
+      <c r="AB42" s="33" t="n"/>
+      <c r="AC42" s="33" t="n"/>
+      <c r="AD42" s="33" t="n"/>
+      <c r="AE42" s="33" t="n"/>
+      <c r="AF42" s="33" t="n"/>
+      <c r="AG42" s="33" t="n"/>
+      <c r="AH42" s="33" t="n"/>
+      <c r="AI42" s="33" t="n"/>
+      <c r="AJ42" s="34" t="n"/>
+    </row>
+    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A43" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B43" s="23" t="inlineStr">
+        <is>
+          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C43" s="23" t="n"/>
+      <c r="D43" s="23" t="n"/>
+      <c r="E43" s="23" t="n"/>
+      <c r="F43" s="23" t="n"/>
+      <c r="G43" s="23" t="n"/>
+      <c r="H43" s="23" t="n"/>
+      <c r="I43" s="23" t="n"/>
+      <c r="J43" s="23" t="n"/>
+      <c r="K43" s="23" t="n"/>
+      <c r="L43" s="23" t="n"/>
+      <c r="M43" s="23" t="n"/>
+      <c r="N43" s="23" t="n"/>
+      <c r="O43" s="23" t="n"/>
+      <c r="P43" s="23" t="n"/>
+      <c r="Q43" s="23" t="n"/>
+      <c r="R43" s="23" t="n"/>
+      <c r="S43" s="23" t="n"/>
+      <c r="T43" s="23" t="n"/>
+      <c r="U43" s="23" t="n"/>
+      <c r="V43" s="23" t="n"/>
+      <c r="W43" s="23" t="n"/>
+      <c r="X43" s="23" t="n"/>
+      <c r="Y43" s="23" t="n"/>
+      <c r="Z43" s="23" t="n"/>
+      <c r="AA43" s="23" t="n"/>
+      <c r="AB43" s="23" t="n"/>
+      <c r="AC43" s="23" t="n"/>
+      <c r="AD43" s="23" t="n"/>
+      <c r="AE43" s="23" t="n"/>
+      <c r="AF43" s="23" t="n"/>
+      <c r="AG43" s="23" t="n"/>
+      <c r="AH43" s="23" t="n"/>
+      <c r="AI43" s="23" t="n"/>
+      <c r="AJ43" s="34" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="H32:AI32"/>
+    <mergeCell ref="H33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.7874015748031497" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="122" scale="69" fitToHeight="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>GLV415J4J2G</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>2-1/2</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>FIRE WATER</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
+    </row>
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>ANGLE HOSE VALVE</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>300 PSI CWP</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr"/>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr"/>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>NPTFxNH</t>
+        </is>
+      </c>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>ASME B1.20.1 / NFPA 1963</t>
+        </is>
+      </c>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="80" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="n"/>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="80" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="n"/>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AJ15" s="98" t="n"/>
+    </row>
+    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="n"/>
+      <c r="P16" s="80" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="n"/>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="80" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="28" t="n"/>
+    </row>
+    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>TYPE OPERATOR :</t>
+        </is>
+      </c>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="69" t="inlineStr">
+        <is>
+          <t>HANDWHEEL OPERATOR</t>
+        </is>
+      </c>
+      <c r="I17" s="95" t="n"/>
+      <c r="J17" s="95" t="n"/>
+      <c r="K17" s="95" t="n"/>
+      <c r="L17" s="95" t="n"/>
+      <c r="M17" s="95" t="n"/>
+      <c r="N17" s="95" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr"/>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr">
+        <is>
+          <t>MSS SP-80</t>
+        </is>
+      </c>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr"/>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>200</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="52" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="52" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="89" t="inlineStr">
+        <is>
+          <t>ASTM B62 UNS C83600</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>TRIM:</t>
+        </is>
+      </c>
+      <c r="AA31" s="42" t="n"/>
+      <c r="AB31" s="42" t="n"/>
+      <c r="AC31" s="70" t="inlineStr"/>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="42" t="n"/>
+      <c r="Z32" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AA32" s="42" t="n"/>
+      <c r="AB32" s="42" t="n"/>
+      <c r="AC32" s="70" t="inlineStr">
+        <is>
+          <t>NON ASBESTOS ARAMID FIBERS WITH GRAPHITE</t>
+        </is>
+      </c>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>YOKE BEARINGS:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="86" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="I33" s="97" t="n"/>
+      <c r="J33" s="97" t="n"/>
+      <c r="K33" s="97" t="n"/>
+      <c r="L33" s="97" t="n"/>
+      <c r="M33" s="97" t="n"/>
+      <c r="N33" s="97" t="n"/>
+      <c r="O33" s="97" t="n"/>
+      <c r="P33" s="97" t="n"/>
+      <c r="Q33" s="97" t="n"/>
+      <c r="R33" s="97" t="n"/>
+      <c r="S33" s="97" t="n"/>
+      <c r="T33" s="97" t="n"/>
+      <c r="U33" s="97" t="n"/>
+      <c r="V33" s="97" t="n"/>
+      <c r="W33" s="97" t="n"/>
+      <c r="X33" s="97" t="n"/>
+      <c r="Y33" s="40" t="n"/>
+      <c r="Z33" s="81" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="AA33" s="42" t="n"/>
+      <c r="AB33" s="42" t="n"/>
+      <c r="AC33" s="70" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="87" t="inlineStr">
+        <is>
+          <t>BRONZE</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="87" t="inlineStr">
+        <is>
+          <t>DISC: RUBBER</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="87" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="n"/>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="87" t="n"/>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="87" t="inlineStr">
+        <is>
+          <t>UL LISTED / FM APPROVED, OUTLET WITH CAP AND CHAIN, RISING STEM, RENEWABLE DISC, INTEGRAL SEAT, DISC: BRONZE, SCREWED-IN BONNET</t>
+        </is>
+      </c>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A39" s="18" t="n"/>
+      <c r="B39" s="42" t="n"/>
+      <c r="C39" s="42" t="n"/>
+      <c r="D39" s="42" t="n"/>
+      <c r="E39" s="42" t="n"/>
+      <c r="F39" s="42" t="n"/>
+      <c r="G39" s="42" t="n"/>
+      <c r="H39" s="87" t="n"/>
+      <c r="I39" s="95" t="n"/>
+      <c r="J39" s="95" t="n"/>
+      <c r="K39" s="95" t="n"/>
+      <c r="L39" s="95" t="n"/>
+      <c r="M39" s="95" t="n"/>
+      <c r="N39" s="95" t="n"/>
+      <c r="O39" s="95" t="n"/>
+      <c r="P39" s="95" t="n"/>
+      <c r="Q39" s="95" t="n"/>
+      <c r="R39" s="95" t="n"/>
+      <c r="S39" s="95" t="n"/>
+      <c r="T39" s="95" t="n"/>
+      <c r="U39" s="95" t="n"/>
+      <c r="V39" s="95" t="n"/>
+      <c r="W39" s="95" t="n"/>
+      <c r="X39" s="95" t="n"/>
+      <c r="Y39" s="95" t="n"/>
+      <c r="Z39" s="95" t="n"/>
+      <c r="AA39" s="95" t="n"/>
+      <c r="AB39" s="95" t="n"/>
+      <c r="AC39" s="95" t="n"/>
+      <c r="AD39" s="95" t="n"/>
+      <c r="AE39" s="95" t="n"/>
+      <c r="AF39" s="95" t="n"/>
+      <c r="AG39" s="95" t="n"/>
+      <c r="AH39" s="95" t="n"/>
+      <c r="AI39" s="95" t="n"/>
+      <c r="AJ39" s="16" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A40" s="18" t="n"/>
-      <c r="B40" s="42" t="n"/>
-      <c r="C40" s="42" t="n"/>
-      <c r="D40" s="42" t="n"/>
-      <c r="E40" s="42" t="n"/>
-      <c r="F40" s="42" t="n"/>
-      <c r="G40" s="42" t="n"/>
-      <c r="H40" s="67" t="n"/>
-      <c r="I40" s="95" t="n"/>
-      <c r="J40" s="95" t="n"/>
-      <c r="K40" s="95" t="n"/>
-      <c r="L40" s="95" t="n"/>
-      <c r="M40" s="95" t="n"/>
-      <c r="N40" s="95" t="n"/>
-      <c r="O40" s="95" t="n"/>
-      <c r="P40" s="95" t="n"/>
-      <c r="Q40" s="95" t="n"/>
-      <c r="R40" s="95" t="n"/>
-      <c r="S40" s="95" t="n"/>
-      <c r="T40" s="95" t="n"/>
-      <c r="U40" s="95" t="n"/>
-      <c r="V40" s="95" t="n"/>
-      <c r="W40" s="95" t="n"/>
-      <c r="X40" s="95" t="n"/>
-      <c r="Y40" s="95" t="n"/>
-      <c r="Z40" s="95" t="n"/>
-      <c r="AA40" s="95" t="n"/>
-      <c r="AB40" s="95" t="n"/>
-      <c r="AC40" s="95" t="n"/>
-      <c r="AD40" s="95" t="n"/>
-      <c r="AE40" s="95" t="n"/>
-      <c r="AF40" s="95" t="n"/>
-      <c r="AG40" s="95" t="n"/>
-      <c r="AH40" s="95" t="n"/>
-      <c r="AI40" s="95" t="n"/>
-      <c r="AJ40" s="16" t="n"/>
+      <c r="B40" s="61" t="n"/>
+      <c r="C40" s="61" t="n"/>
+      <c r="D40" s="61" t="n"/>
+      <c r="E40" s="61" t="n"/>
+      <c r="F40" s="61" t="n"/>
+      <c r="G40" s="61" t="n"/>
+      <c r="H40" s="40" t="n"/>
+      <c r="I40" s="40" t="n"/>
+      <c r="J40" s="40" t="n"/>
+      <c r="K40" s="40" t="n"/>
+      <c r="L40" s="40" t="n"/>
+      <c r="M40" s="40" t="n"/>
+      <c r="N40" s="40" t="n"/>
+      <c r="O40" s="40" t="n"/>
+      <c r="P40" s="40" t="n"/>
+      <c r="Q40" s="40" t="n"/>
+      <c r="R40" s="40" t="n"/>
+      <c r="S40" s="40" t="n"/>
+      <c r="T40" s="40" t="n"/>
+      <c r="U40" s="40" t="n"/>
+      <c r="V40" s="40" t="n"/>
+      <c r="W40" s="40" t="n"/>
+      <c r="X40" s="40" t="n"/>
+      <c r="Y40" s="40" t="n"/>
+      <c r="Z40" s="40" t="n"/>
+      <c r="AA40" s="40" t="n"/>
+      <c r="AB40" s="40" t="n"/>
+      <c r="AC40" s="40" t="n"/>
+      <c r="AD40" s="40" t="n"/>
+      <c r="AE40" s="40" t="n"/>
+      <c r="AF40" s="40" t="n"/>
+      <c r="AG40" s="40" t="n"/>
+      <c r="AH40" s="40" t="n"/>
+      <c r="AI40" s="40" t="n"/>
+      <c r="AJ40" s="26" t="n"/>
     </row>
     <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A41" s="37" t="n"/>
@@ -5142,7 +8956,11 @@
       <c r="P41" s="61" t="n"/>
       <c r="Q41" s="61" t="n"/>
       <c r="R41" s="61" t="n"/>
-      <c r="S41" s="61" t="n"/>
+      <c r="S41" s="59" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
       <c r="T41" s="61" t="n"/>
       <c r="U41" s="61" t="n"/>
       <c r="V41" s="61" t="n"/>
@@ -5161,228 +8979,2238 @@
       <c r="AI41" s="61" t="n"/>
       <c r="AJ41" s="28" t="n"/>
     </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A42" s="15" t="n"/>
-      <c r="B42" s="51" t="n"/>
-      <c r="C42" s="51" t="n"/>
-      <c r="D42" s="51" t="n"/>
-      <c r="E42" s="51" t="n"/>
-      <c r="F42" s="51" t="n"/>
-      <c r="G42" s="51" t="n"/>
-      <c r="H42" s="51" t="n"/>
-      <c r="I42" s="51" t="n"/>
-      <c r="J42" s="51" t="n"/>
-      <c r="K42" s="51" t="n"/>
-      <c r="L42" s="51" t="n"/>
-      <c r="M42" s="51" t="n"/>
-      <c r="N42" s="51" t="n"/>
-      <c r="O42" s="51" t="n"/>
-      <c r="P42" s="51" t="n"/>
-      <c r="Q42" s="51" t="n"/>
-      <c r="R42" s="51" t="n"/>
-      <c r="S42" s="52" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T42" s="51" t="n"/>
-      <c r="U42" s="51" t="n"/>
-      <c r="V42" s="51" t="n"/>
-      <c r="W42" s="51" t="n"/>
-      <c r="X42" s="51" t="n"/>
-      <c r="Y42" s="51" t="n"/>
-      <c r="Z42" s="51" t="n"/>
-      <c r="AA42" s="51" t="n"/>
-      <c r="AB42" s="51" t="n"/>
-      <c r="AC42" s="51" t="n"/>
-      <c r="AD42" s="51" t="n"/>
-      <c r="AE42" s="51" t="n"/>
-      <c r="AF42" s="51" t="n"/>
-      <c r="AG42" s="51" t="n"/>
-      <c r="AH42" s="51" t="n"/>
-      <c r="AI42" s="51" t="n"/>
-      <c r="AJ42" s="16" t="n"/>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A42" s="37" t="n"/>
+      <c r="B42" s="61" t="n"/>
+      <c r="C42" s="61" t="n"/>
+      <c r="D42" s="61" t="n"/>
+      <c r="E42" s="61" t="n"/>
+      <c r="F42" s="61" t="n"/>
+      <c r="G42" s="61" t="n"/>
+      <c r="H42" s="61" t="n"/>
+      <c r="I42" s="61" t="n"/>
+      <c r="J42" s="61" t="n"/>
+      <c r="K42" s="61" t="n"/>
+      <c r="L42" s="61" t="n"/>
+      <c r="M42" s="61" t="n"/>
+      <c r="N42" s="61" t="n"/>
+      <c r="O42" s="61" t="n"/>
+      <c r="P42" s="61" t="n"/>
+      <c r="Q42" s="61" t="n"/>
+      <c r="R42" s="61" t="n"/>
+      <c r="S42" s="61" t="n"/>
+      <c r="T42" s="61" t="n"/>
+      <c r="U42" s="61" t="n"/>
+      <c r="V42" s="61" t="n"/>
+      <c r="W42" s="61" t="n"/>
+      <c r="X42" s="61" t="n"/>
+      <c r="Y42" s="61" t="n"/>
+      <c r="Z42" s="61" t="n"/>
+      <c r="AA42" s="61" t="n"/>
+      <c r="AB42" s="61" t="n"/>
+      <c r="AC42" s="61" t="n"/>
+      <c r="AD42" s="61" t="n"/>
+      <c r="AE42" s="61" t="n"/>
+      <c r="AF42" s="61" t="n"/>
+      <c r="AG42" s="61" t="n"/>
+      <c r="AH42" s="61" t="n"/>
+      <c r="AI42" s="61" t="n"/>
+      <c r="AJ42" s="28" t="n"/>
     </row>
     <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="38" t="n"/>
-      <c r="B43" s="33" t="n"/>
-      <c r="C43" s="33" t="n"/>
-      <c r="D43" s="33" t="n"/>
-      <c r="E43" s="33" t="n"/>
-      <c r="F43" s="33" t="n"/>
-      <c r="G43" s="33" t="n"/>
-      <c r="H43" s="33" t="n"/>
-      <c r="I43" s="33" t="n"/>
-      <c r="J43" s="33" t="n"/>
-      <c r="K43" s="33" t="n"/>
-      <c r="L43" s="33" t="n"/>
-      <c r="M43" s="33" t="n"/>
-      <c r="N43" s="33" t="n"/>
-      <c r="O43" s="33" t="n"/>
-      <c r="P43" s="33" t="n"/>
-      <c r="Q43" s="33" t="n"/>
-      <c r="R43" s="33" t="n"/>
-      <c r="S43" s="33" t="n"/>
-      <c r="T43" s="33" t="n"/>
-      <c r="U43" s="33" t="n"/>
-      <c r="V43" s="33" t="n"/>
-      <c r="W43" s="33" t="n"/>
-      <c r="X43" s="33" t="n"/>
-      <c r="Y43" s="33" t="n"/>
-      <c r="Z43" s="33" t="n"/>
-      <c r="AA43" s="33" t="n"/>
-      <c r="AB43" s="33" t="n"/>
-      <c r="AC43" s="33" t="n"/>
-      <c r="AD43" s="33" t="n"/>
-      <c r="AE43" s="33" t="n"/>
-      <c r="AF43" s="33" t="n"/>
-      <c r="AG43" s="33" t="n"/>
-      <c r="AH43" s="33" t="n"/>
-      <c r="AI43" s="33" t="n"/>
-      <c r="AJ43" s="34" t="n"/>
-    </row>
-    <row r="44" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A44" s="22" t="inlineStr">
+      <c r="A43" s="60" t="inlineStr">
         <is>
           <t xml:space="preserve">1. 
 </t>
         </is>
       </c>
-      <c r="B44" s="23" t="inlineStr">
-        <is>
-          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C44" s="23" t="n"/>
-      <c r="D44" s="23" t="n"/>
-      <c r="E44" s="23" t="n"/>
-      <c r="F44" s="23" t="n"/>
-      <c r="G44" s="23" t="n"/>
-      <c r="H44" s="23" t="n"/>
-      <c r="I44" s="23" t="n"/>
-      <c r="J44" s="23" t="n"/>
-      <c r="K44" s="23" t="n"/>
-      <c r="L44" s="23" t="n"/>
-      <c r="M44" s="23" t="n"/>
-      <c r="N44" s="23" t="n"/>
-      <c r="O44" s="23" t="n"/>
-      <c r="P44" s="23" t="n"/>
-      <c r="Q44" s="23" t="n"/>
-      <c r="R44" s="23" t="n"/>
-      <c r="S44" s="23" t="n"/>
-      <c r="T44" s="23" t="n"/>
-      <c r="U44" s="23" t="n"/>
-      <c r="V44" s="23" t="n"/>
-      <c r="W44" s="23" t="n"/>
-      <c r="X44" s="23" t="n"/>
-      <c r="Y44" s="23" t="n"/>
-      <c r="Z44" s="23" t="n"/>
-      <c r="AA44" s="23" t="n"/>
-      <c r="AB44" s="23" t="n"/>
-      <c r="AC44" s="23" t="n"/>
-      <c r="AD44" s="23" t="n"/>
-      <c r="AE44" s="23" t="n"/>
-      <c r="AF44" s="23" t="n"/>
-      <c r="AG44" s="23" t="n"/>
-      <c r="AH44" s="23" t="n"/>
-      <c r="AI44" s="23" t="n"/>
-      <c r="AJ44" s="34" t="n"/>
+      <c r="B43" s="88" t="inlineStr">
+        <is>
+          <t>Piping Class Doc: MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C43" s="97" t="n"/>
+      <c r="D43" s="97" t="n"/>
+      <c r="E43" s="97" t="n"/>
+      <c r="F43" s="97" t="n"/>
+      <c r="G43" s="97" t="n"/>
+      <c r="H43" s="97" t="n"/>
+      <c r="I43" s="97" t="n"/>
+      <c r="J43" s="97" t="n"/>
+      <c r="K43" s="97" t="n"/>
+      <c r="L43" s="97" t="n"/>
+      <c r="M43" s="97" t="n"/>
+      <c r="N43" s="97" t="n"/>
+      <c r="O43" s="97" t="n"/>
+      <c r="P43" s="97" t="n"/>
+      <c r="Q43" s="97" t="n"/>
+      <c r="R43" s="97" t="n"/>
+      <c r="S43" s="97" t="n"/>
+      <c r="T43" s="97" t="n"/>
+      <c r="U43" s="97" t="n"/>
+      <c r="V43" s="97" t="n"/>
+      <c r="W43" s="97" t="n"/>
+      <c r="X43" s="97" t="n"/>
+      <c r="Y43" s="97" t="n"/>
+      <c r="Z43" s="97" t="n"/>
+      <c r="AA43" s="97" t="n"/>
+      <c r="AB43" s="97" t="n"/>
+      <c r="AC43" s="97" t="n"/>
+      <c r="AD43" s="97" t="n"/>
+      <c r="AE43" s="97" t="n"/>
+      <c r="AF43" s="97" t="n"/>
+      <c r="AG43" s="97" t="n"/>
+      <c r="AH43" s="97" t="n"/>
+      <c r="AI43" s="97" t="n"/>
+      <c r="AJ43" s="99" t="n"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
+      <c r="R44" s="2" t="n"/>
+      <c r="S44" s="2" t="n"/>
+      <c r="T44" s="2" t="n"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="n"/>
+      <c r="W44" s="2" t="n"/>
+      <c r="X44" s="2" t="n"/>
+      <c r="Y44" s="2" t="n"/>
+      <c r="Z44" s="2" t="n"/>
+      <c r="AA44" s="2" t="n"/>
+      <c r="AB44" s="2" t="n"/>
+      <c r="AC44" s="2" t="n"/>
+      <c r="AD44" s="2" t="n"/>
+      <c r="AE44" s="2" t="n"/>
+      <c r="AF44" s="2" t="n"/>
+      <c r="AG44" s="2" t="n"/>
+      <c r="AH44" s="2" t="n"/>
+      <c r="AI44" s="2" t="n"/>
+      <c r="AJ44" s="2" t="n"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
-      <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="n"/>
-      <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="n"/>
-      <c r="T45" s="2" t="n"/>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
-      <c r="W45" s="2" t="n"/>
-      <c r="X45" s="2" t="n"/>
-      <c r="Y45" s="2" t="n"/>
-      <c r="Z45" s="2" t="n"/>
-      <c r="AA45" s="2" t="n"/>
-      <c r="AB45" s="2" t="n"/>
-      <c r="AC45" s="2" t="n"/>
-      <c r="AD45" s="2" t="n"/>
-      <c r="AE45" s="2" t="n"/>
-      <c r="AF45" s="2" t="n"/>
-      <c r="AG45" s="2" t="n"/>
-      <c r="AH45" s="2" t="n"/>
-      <c r="AI45" s="2" t="n"/>
-      <c r="AJ45" s="2" t="n"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="82" t="n"/>
+      <c r="B45" s="82" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
+  <mergeCells count="53">
     <mergeCell ref="P16:R16"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="B46:AH46"/>
-    <mergeCell ref="H33:AI33"/>
-    <mergeCell ref="H34:AI34"/>
-    <mergeCell ref="H35:AI35"/>
-    <mergeCell ref="H36:AI36"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="B45:AH45"/>
+    <mergeCell ref="B43:AJ43"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="U22:V22"/>
     <mergeCell ref="AA22:AB22"/>
     <mergeCell ref="AE22:AF22"/>
     <mergeCell ref="AG22:AI22"/>
     <mergeCell ref="L23:AI23"/>
     <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="H36:AI36"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="H32:X32"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="H33:X33"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="AC32:AI32"/>
+    <mergeCell ref="AC33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
+  </mergeCells>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>GLV41H4J2G</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>3/4, 1-1/2, 2</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>FIRE WATER</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
+    </row>
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr"/>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr"/>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>NPTF</t>
+        </is>
+      </c>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>ASME B1.20.1</t>
+        </is>
+      </c>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="80" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="n"/>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="80" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="n"/>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AJ15" s="98" t="n"/>
+    </row>
+    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="n"/>
+      <c r="P16" s="80" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="n"/>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="80" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="28" t="n"/>
+    </row>
+    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>TYPE OPERATOR :</t>
+        </is>
+      </c>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="69" t="inlineStr">
+        <is>
+          <t>HANDWHEEL OPERATOR</t>
+        </is>
+      </c>
+      <c r="I17" s="95" t="n"/>
+      <c r="J17" s="95" t="n"/>
+      <c r="K17" s="95" t="n"/>
+      <c r="L17" s="95" t="n"/>
+      <c r="M17" s="95" t="n"/>
+      <c r="N17" s="95" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr"/>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr">
+        <is>
+          <t>MSS SP-80</t>
+        </is>
+      </c>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr"/>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>200</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="52" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="52" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="89" t="inlineStr">
+        <is>
+          <t>ASTM B62 UNS C83600</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>TRIM:</t>
+        </is>
+      </c>
+      <c r="AA31" s="42" t="n"/>
+      <c r="AB31" s="42" t="n"/>
+      <c r="AC31" s="70" t="inlineStr"/>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="42" t="n"/>
+      <c r="Z32" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AA32" s="42" t="n"/>
+      <c r="AB32" s="42" t="n"/>
+      <c r="AC32" s="70" t="inlineStr">
+        <is>
+          <t>LUBRICATED FIBER / GRAPHITE</t>
+        </is>
+      </c>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>YOKE BEARINGS:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="86" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="I33" s="97" t="n"/>
+      <c r="J33" s="97" t="n"/>
+      <c r="K33" s="97" t="n"/>
+      <c r="L33" s="97" t="n"/>
+      <c r="M33" s="97" t="n"/>
+      <c r="N33" s="97" t="n"/>
+      <c r="O33" s="97" t="n"/>
+      <c r="P33" s="97" t="n"/>
+      <c r="Q33" s="97" t="n"/>
+      <c r="R33" s="97" t="n"/>
+      <c r="S33" s="97" t="n"/>
+      <c r="T33" s="97" t="n"/>
+      <c r="U33" s="97" t="n"/>
+      <c r="V33" s="97" t="n"/>
+      <c r="W33" s="97" t="n"/>
+      <c r="X33" s="97" t="n"/>
+      <c r="Y33" s="40" t="n"/>
+      <c r="Z33" s="81" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="AA33" s="42" t="n"/>
+      <c r="AB33" s="42" t="n"/>
+      <c r="AC33" s="70" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="87" t="inlineStr">
+        <is>
+          <t>BRONZE</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="87" t="inlineStr">
+        <is>
+          <t>RINGS: BRONZE</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="87" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="n"/>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="87" t="n"/>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="87" t="inlineStr">
+        <is>
+          <t>SWIVEL PLUG DISC, DISC: BRONZE, SCREWED BONNET, STEM: IS/RSRO, UL LISTED</t>
+        </is>
+      </c>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A39" s="18" t="n"/>
+      <c r="B39" s="42" t="n"/>
+      <c r="C39" s="42" t="n"/>
+      <c r="D39" s="42" t="n"/>
+      <c r="E39" s="42" t="n"/>
+      <c r="F39" s="42" t="n"/>
+      <c r="G39" s="42" t="n"/>
+      <c r="H39" s="87" t="n"/>
+      <c r="I39" s="95" t="n"/>
+      <c r="J39" s="95" t="n"/>
+      <c r="K39" s="95" t="n"/>
+      <c r="L39" s="95" t="n"/>
+      <c r="M39" s="95" t="n"/>
+      <c r="N39" s="95" t="n"/>
+      <c r="O39" s="95" t="n"/>
+      <c r="P39" s="95" t="n"/>
+      <c r="Q39" s="95" t="n"/>
+      <c r="R39" s="95" t="n"/>
+      <c r="S39" s="95" t="n"/>
+      <c r="T39" s="95" t="n"/>
+      <c r="U39" s="95" t="n"/>
+      <c r="V39" s="95" t="n"/>
+      <c r="W39" s="95" t="n"/>
+      <c r="X39" s="95" t="n"/>
+      <c r="Y39" s="95" t="n"/>
+      <c r="Z39" s="95" t="n"/>
+      <c r="AA39" s="95" t="n"/>
+      <c r="AB39" s="95" t="n"/>
+      <c r="AC39" s="95" t="n"/>
+      <c r="AD39" s="95" t="n"/>
+      <c r="AE39" s="95" t="n"/>
+      <c r="AF39" s="95" t="n"/>
+      <c r="AG39" s="95" t="n"/>
+      <c r="AH39" s="95" t="n"/>
+      <c r="AI39" s="95" t="n"/>
+      <c r="AJ39" s="16" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A40" s="18" t="n"/>
+      <c r="B40" s="61" t="n"/>
+      <c r="C40" s="61" t="n"/>
+      <c r="D40" s="61" t="n"/>
+      <c r="E40" s="61" t="n"/>
+      <c r="F40" s="61" t="n"/>
+      <c r="G40" s="61" t="n"/>
+      <c r="H40" s="40" t="n"/>
+      <c r="I40" s="40" t="n"/>
+      <c r="J40" s="40" t="n"/>
+      <c r="K40" s="40" t="n"/>
+      <c r="L40" s="40" t="n"/>
+      <c r="M40" s="40" t="n"/>
+      <c r="N40" s="40" t="n"/>
+      <c r="O40" s="40" t="n"/>
+      <c r="P40" s="40" t="n"/>
+      <c r="Q40" s="40" t="n"/>
+      <c r="R40" s="40" t="n"/>
+      <c r="S40" s="40" t="n"/>
+      <c r="T40" s="40" t="n"/>
+      <c r="U40" s="40" t="n"/>
+      <c r="V40" s="40" t="n"/>
+      <c r="W40" s="40" t="n"/>
+      <c r="X40" s="40" t="n"/>
+      <c r="Y40" s="40" t="n"/>
+      <c r="Z40" s="40" t="n"/>
+      <c r="AA40" s="40" t="n"/>
+      <c r="AB40" s="40" t="n"/>
+      <c r="AC40" s="40" t="n"/>
+      <c r="AD40" s="40" t="n"/>
+      <c r="AE40" s="40" t="n"/>
+      <c r="AF40" s="40" t="n"/>
+      <c r="AG40" s="40" t="n"/>
+      <c r="AH40" s="40" t="n"/>
+      <c r="AI40" s="40" t="n"/>
+      <c r="AJ40" s="26" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A41" s="37" t="n"/>
+      <c r="B41" s="61" t="n"/>
+      <c r="C41" s="61" t="n"/>
+      <c r="D41" s="61" t="n"/>
+      <c r="E41" s="61" t="n"/>
+      <c r="F41" s="61" t="n"/>
+      <c r="G41" s="61" t="n"/>
+      <c r="H41" s="61" t="n"/>
+      <c r="I41" s="61" t="n"/>
+      <c r="J41" s="61" t="n"/>
+      <c r="K41" s="61" t="n"/>
+      <c r="L41" s="61" t="n"/>
+      <c r="M41" s="61" t="n"/>
+      <c r="N41" s="61" t="n"/>
+      <c r="O41" s="61" t="n"/>
+      <c r="P41" s="61" t="n"/>
+      <c r="Q41" s="61" t="n"/>
+      <c r="R41" s="61" t="n"/>
+      <c r="S41" s="59" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T41" s="61" t="n"/>
+      <c r="U41" s="61" t="n"/>
+      <c r="V41" s="61" t="n"/>
+      <c r="W41" s="61" t="n"/>
+      <c r="X41" s="61" t="n"/>
+      <c r="Y41" s="61" t="n"/>
+      <c r="Z41" s="61" t="n"/>
+      <c r="AA41" s="61" t="n"/>
+      <c r="AB41" s="61" t="n"/>
+      <c r="AC41" s="61" t="n"/>
+      <c r="AD41" s="61" t="n"/>
+      <c r="AE41" s="61" t="n"/>
+      <c r="AF41" s="61" t="n"/>
+      <c r="AG41" s="61" t="n"/>
+      <c r="AH41" s="61" t="n"/>
+      <c r="AI41" s="61" t="n"/>
+      <c r="AJ41" s="28" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A42" s="37" t="n"/>
+      <c r="B42" s="61" t="n"/>
+      <c r="C42" s="61" t="n"/>
+      <c r="D42" s="61" t="n"/>
+      <c r="E42" s="61" t="n"/>
+      <c r="F42" s="61" t="n"/>
+      <c r="G42" s="61" t="n"/>
+      <c r="H42" s="61" t="n"/>
+      <c r="I42" s="61" t="n"/>
+      <c r="J42" s="61" t="n"/>
+      <c r="K42" s="61" t="n"/>
+      <c r="L42" s="61" t="n"/>
+      <c r="M42" s="61" t="n"/>
+      <c r="N42" s="61" t="n"/>
+      <c r="O42" s="61" t="n"/>
+      <c r="P42" s="61" t="n"/>
+      <c r="Q42" s="61" t="n"/>
+      <c r="R42" s="61" t="n"/>
+      <c r="S42" s="61" t="n"/>
+      <c r="T42" s="61" t="n"/>
+      <c r="U42" s="61" t="n"/>
+      <c r="V42" s="61" t="n"/>
+      <c r="W42" s="61" t="n"/>
+      <c r="X42" s="61" t="n"/>
+      <c r="Y42" s="61" t="n"/>
+      <c r="Z42" s="61" t="n"/>
+      <c r="AA42" s="61" t="n"/>
+      <c r="AB42" s="61" t="n"/>
+      <c r="AC42" s="61" t="n"/>
+      <c r="AD42" s="61" t="n"/>
+      <c r="AE42" s="61" t="n"/>
+      <c r="AF42" s="61" t="n"/>
+      <c r="AG42" s="61" t="n"/>
+      <c r="AH42" s="61" t="n"/>
+      <c r="AI42" s="61" t="n"/>
+      <c r="AJ42" s="28" t="n"/>
+    </row>
+    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A43" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B43" s="88" t="inlineStr">
+        <is>
+          <t>Piping Class Doc: MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C43" s="97" t="n"/>
+      <c r="D43" s="97" t="n"/>
+      <c r="E43" s="97" t="n"/>
+      <c r="F43" s="97" t="n"/>
+      <c r="G43" s="97" t="n"/>
+      <c r="H43" s="97" t="n"/>
+      <c r="I43" s="97" t="n"/>
+      <c r="J43" s="97" t="n"/>
+      <c r="K43" s="97" t="n"/>
+      <c r="L43" s="97" t="n"/>
+      <c r="M43" s="97" t="n"/>
+      <c r="N43" s="97" t="n"/>
+      <c r="O43" s="97" t="n"/>
+      <c r="P43" s="97" t="n"/>
+      <c r="Q43" s="97" t="n"/>
+      <c r="R43" s="97" t="n"/>
+      <c r="S43" s="97" t="n"/>
+      <c r="T43" s="97" t="n"/>
+      <c r="U43" s="97" t="n"/>
+      <c r="V43" s="97" t="n"/>
+      <c r="W43" s="97" t="n"/>
+      <c r="X43" s="97" t="n"/>
+      <c r="Y43" s="97" t="n"/>
+      <c r="Z43" s="97" t="n"/>
+      <c r="AA43" s="97" t="n"/>
+      <c r="AB43" s="97" t="n"/>
+      <c r="AC43" s="97" t="n"/>
+      <c r="AD43" s="97" t="n"/>
+      <c r="AE43" s="97" t="n"/>
+      <c r="AF43" s="97" t="n"/>
+      <c r="AG43" s="97" t="n"/>
+      <c r="AH43" s="97" t="n"/>
+      <c r="AI43" s="97" t="n"/>
+      <c r="AJ43" s="99" t="n"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
+      <c r="R44" s="2" t="n"/>
+      <c r="S44" s="2" t="n"/>
+      <c r="T44" s="2" t="n"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="n"/>
+      <c r="W44" s="2" t="n"/>
+      <c r="X44" s="2" t="n"/>
+      <c r="Y44" s="2" t="n"/>
+      <c r="Z44" s="2" t="n"/>
+      <c r="AA44" s="2" t="n"/>
+      <c r="AB44" s="2" t="n"/>
+      <c r="AC44" s="2" t="n"/>
+      <c r="AD44" s="2" t="n"/>
+      <c r="AE44" s="2" t="n"/>
+      <c r="AF44" s="2" t="n"/>
+      <c r="AG44" s="2" t="n"/>
+      <c r="AH44" s="2" t="n"/>
+      <c r="AI44" s="2" t="n"/>
+      <c r="AJ44" s="2" t="n"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="B45" s="82" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="P16:R16"/>
     <mergeCell ref="H24:O24"/>
     <mergeCell ref="AB24:AC24"/>
     <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H10:W10"/>
     <mergeCell ref="H6:AI6"/>
     <mergeCell ref="AC10:AI10"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="AC11:AD11"/>
     <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="H39:AI39"/>
-    <mergeCell ref="H40:AI40"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="H32:AI32"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="B45:AH45"/>
+    <mergeCell ref="B43:AJ43"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="H36:AI36"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="H32:X32"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="H33:X33"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="AC32:AI32"/>
+    <mergeCell ref="AC33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
   </mergeCells>
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="9" scale="64"/>

--- a/output/hd.xlsx
+++ b/output/hd.xlsx
@@ -7,11 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="1" state="veryHidden" r:id="rId1"/>
-    <sheet name="CKV413C3J2G" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GAV413C3J2G" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GAV41H4J2G" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GLV415J4J2G" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GLV41H4J2G" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BAV21A0F1C" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BAV21A0I1C" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BAV24G0I1C" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CKV21A0B2B" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GAV21A0B2B" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="GAV21A0B2B (1)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="GLV24F0B2B" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
@@ -1126,6 +1128,6431 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AJ46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>BALL VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>BAV21A0F1C</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>4, 6</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>HCN &amp; HCR</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="57" t="n"/>
+      <c r="B7" s="48" t="n"/>
+      <c r="C7" s="48" t="n"/>
+      <c r="D7" s="48" t="n"/>
+      <c r="E7" s="48" t="n"/>
+      <c r="F7" s="48" t="n"/>
+      <c r="G7" s="48" t="n"/>
+      <c r="H7" s="48" t="n"/>
+      <c r="I7" s="48" t="n"/>
+      <c r="J7" s="48" t="n"/>
+      <c r="K7" s="48" t="n"/>
+      <c r="L7" s="48" t="n"/>
+      <c r="M7" s="48" t="n"/>
+      <c r="N7" s="48" t="n"/>
+      <c r="O7" s="48" t="n"/>
+      <c r="P7" s="48" t="n"/>
+      <c r="Q7" s="48" t="n"/>
+      <c r="R7" s="48" t="n"/>
+      <c r="S7" s="48" t="n"/>
+      <c r="T7" s="48" t="n"/>
+      <c r="U7" s="48" t="n"/>
+      <c r="V7" s="48" t="n"/>
+      <c r="W7" s="48" t="n"/>
+      <c r="X7" s="48" t="n"/>
+      <c r="Y7" s="48" t="n"/>
+      <c r="Z7" s="48" t="n"/>
+      <c r="AA7" s="48" t="n"/>
+      <c r="AB7" s="48" t="n"/>
+      <c r="AC7" s="48" t="n"/>
+      <c r="AD7" s="48" t="n"/>
+      <c r="AE7" s="48" t="n"/>
+      <c r="AF7" s="48" t="n"/>
+      <c r="AG7" s="48" t="n"/>
+      <c r="AH7" s="48" t="n"/>
+      <c r="AI7" s="48" t="n"/>
+      <c r="AJ7" s="31" t="n"/>
+    </row>
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>BALL VALVE, FLOATING BALL</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr"/>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="inlineStr">
+        <is>
+          <t>BORE:</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K15" s="95" t="n"/>
+      <c r="L15" s="95" t="n"/>
+      <c r="M15" s="95" t="n"/>
+      <c r="N15" s="95" t="n"/>
+      <c r="O15" s="95" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="inlineStr">
+        <is>
+          <t>REDUCED</t>
+        </is>
+      </c>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="68" t="inlineStr"/>
+      <c r="U15" s="95" t="n"/>
+      <c r="V15" s="95" t="n"/>
+      <c r="W15" s="95" t="n"/>
+      <c r="X15" s="95" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="inlineStr">
+        <is>
+          <t>ACCORDING TO:</t>
+        </is>
+      </c>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="68" t="inlineStr"/>
+      <c r="AF15" s="95" t="n"/>
+      <c r="AG15" s="95" t="n"/>
+      <c r="AH15" s="95" t="n"/>
+      <c r="AI15" s="95" t="n"/>
+      <c r="AJ15" s="16" t="n"/>
+    </row>
+    <row r="16" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="inlineStr">
+        <is>
+          <t>LENGHT:</t>
+        </is>
+      </c>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="inlineStr">
+        <is>
+          <t>SHORT  PATTERN</t>
+        </is>
+      </c>
+      <c r="P16" s="68" t="inlineStr"/>
+      <c r="Q16" s="95" t="n"/>
+      <c r="R16" s="95" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="inlineStr">
+        <is>
+          <t>REG./LONG  PATTERN</t>
+        </is>
+      </c>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB16" s="95" t="n"/>
+      <c r="AC16" s="95" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="16" t="n"/>
+    </row>
+    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>TYPE OPERATOR :</t>
+        </is>
+      </c>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="69" t="inlineStr">
+        <is>
+          <t>LEVER OPERATOR</t>
+        </is>
+      </c>
+      <c r="I17" s="95" t="n"/>
+      <c r="J17" s="95" t="n"/>
+      <c r="K17" s="95" t="n"/>
+      <c r="L17" s="95" t="n"/>
+      <c r="M17" s="95" t="n"/>
+      <c r="N17" s="95" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr"/>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr">
+        <is>
+          <t>FIRE SAFE AS PER API 607</t>
+        </is>
+      </c>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>285</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="52" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="52" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="67" t="inlineStr">
+        <is>
+          <t>ASTM A216 Gr.WCB</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AC31" s="68" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="67" t="inlineStr">
+        <is>
+          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="95" t="n"/>
+      <c r="Z32" s="95" t="n"/>
+      <c r="AA32" s="95" t="n"/>
+      <c r="AB32" s="95" t="n"/>
+      <c r="AC32" s="95" t="n"/>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="67" t="inlineStr">
+        <is>
+          <t>STEM: GRAPHITE</t>
+        </is>
+      </c>
+      <c r="I33" s="95" t="n"/>
+      <c r="J33" s="95" t="n"/>
+      <c r="K33" s="95" t="n"/>
+      <c r="L33" s="95" t="n"/>
+      <c r="M33" s="95" t="n"/>
+      <c r="N33" s="95" t="n"/>
+      <c r="O33" s="95" t="n"/>
+      <c r="P33" s="95" t="n"/>
+      <c r="Q33" s="95" t="n"/>
+      <c r="R33" s="95" t="n"/>
+      <c r="S33" s="95" t="n"/>
+      <c r="T33" s="95" t="n"/>
+      <c r="U33" s="95" t="n"/>
+      <c r="V33" s="95" t="n"/>
+      <c r="W33" s="95" t="n"/>
+      <c r="X33" s="95" t="n"/>
+      <c r="Y33" s="95" t="n"/>
+      <c r="Z33" s="95" t="n"/>
+      <c r="AA33" s="95" t="n"/>
+      <c r="AB33" s="95" t="n"/>
+      <c r="AC33" s="95" t="n"/>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="83" t="inlineStr">
+        <is>
+          <t>BALL:</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="67" t="inlineStr">
+        <is>
+          <t>ASTM A105 + ENP (3 MILS TO ASTM B733)</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="67" t="inlineStr">
+        <is>
+          <t>AISI 410</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
+        </is>
+      </c>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="67" t="inlineStr">
+        <is>
+          <t>RINGS: RPTFE</t>
+        </is>
+      </c>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="67" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="n"/>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="67" t="n"/>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A39" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B39" s="42" t="n"/>
+      <c r="C39" s="42" t="n"/>
+      <c r="D39" s="42" t="n"/>
+      <c r="E39" s="42" t="n"/>
+      <c r="F39" s="42" t="n"/>
+      <c r="G39" s="42" t="n"/>
+      <c r="H39" s="67" t="inlineStr">
+        <is>
+          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY</t>
+        </is>
+      </c>
+      <c r="I39" s="95" t="n"/>
+      <c r="J39" s="95" t="n"/>
+      <c r="K39" s="95" t="n"/>
+      <c r="L39" s="95" t="n"/>
+      <c r="M39" s="95" t="n"/>
+      <c r="N39" s="95" t="n"/>
+      <c r="O39" s="95" t="n"/>
+      <c r="P39" s="95" t="n"/>
+      <c r="Q39" s="95" t="n"/>
+      <c r="R39" s="95" t="n"/>
+      <c r="S39" s="95" t="n"/>
+      <c r="T39" s="95" t="n"/>
+      <c r="U39" s="95" t="n"/>
+      <c r="V39" s="95" t="n"/>
+      <c r="W39" s="95" t="n"/>
+      <c r="X39" s="95" t="n"/>
+      <c r="Y39" s="95" t="n"/>
+      <c r="Z39" s="95" t="n"/>
+      <c r="AA39" s="95" t="n"/>
+      <c r="AB39" s="95" t="n"/>
+      <c r="AC39" s="95" t="n"/>
+      <c r="AD39" s="95" t="n"/>
+      <c r="AE39" s="95" t="n"/>
+      <c r="AF39" s="95" t="n"/>
+      <c r="AG39" s="95" t="n"/>
+      <c r="AH39" s="95" t="n"/>
+      <c r="AI39" s="95" t="n"/>
+      <c r="AJ39" s="16" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A40" s="18" t="n"/>
+      <c r="B40" s="42" t="n"/>
+      <c r="C40" s="42" t="n"/>
+      <c r="D40" s="42" t="n"/>
+      <c r="E40" s="42" t="n"/>
+      <c r="F40" s="42" t="n"/>
+      <c r="G40" s="42" t="n"/>
+      <c r="H40" s="67" t="n"/>
+      <c r="I40" s="95" t="n"/>
+      <c r="J40" s="95" t="n"/>
+      <c r="K40" s="95" t="n"/>
+      <c r="L40" s="95" t="n"/>
+      <c r="M40" s="95" t="n"/>
+      <c r="N40" s="95" t="n"/>
+      <c r="O40" s="95" t="n"/>
+      <c r="P40" s="95" t="n"/>
+      <c r="Q40" s="95" t="n"/>
+      <c r="R40" s="95" t="n"/>
+      <c r="S40" s="95" t="n"/>
+      <c r="T40" s="95" t="n"/>
+      <c r="U40" s="95" t="n"/>
+      <c r="V40" s="95" t="n"/>
+      <c r="W40" s="95" t="n"/>
+      <c r="X40" s="95" t="n"/>
+      <c r="Y40" s="95" t="n"/>
+      <c r="Z40" s="95" t="n"/>
+      <c r="AA40" s="95" t="n"/>
+      <c r="AB40" s="95" t="n"/>
+      <c r="AC40" s="95" t="n"/>
+      <c r="AD40" s="95" t="n"/>
+      <c r="AE40" s="95" t="n"/>
+      <c r="AF40" s="95" t="n"/>
+      <c r="AG40" s="95" t="n"/>
+      <c r="AH40" s="95" t="n"/>
+      <c r="AI40" s="95" t="n"/>
+      <c r="AJ40" s="16" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A41" s="37" t="n"/>
+      <c r="B41" s="61" t="n"/>
+      <c r="C41" s="61" t="n"/>
+      <c r="D41" s="61" t="n"/>
+      <c r="E41" s="61" t="n"/>
+      <c r="F41" s="61" t="n"/>
+      <c r="G41" s="61" t="n"/>
+      <c r="H41" s="61" t="n"/>
+      <c r="I41" s="61" t="n"/>
+      <c r="J41" s="61" t="n"/>
+      <c r="K41" s="61" t="n"/>
+      <c r="L41" s="61" t="n"/>
+      <c r="M41" s="61" t="n"/>
+      <c r="N41" s="61" t="n"/>
+      <c r="O41" s="61" t="n"/>
+      <c r="P41" s="61" t="n"/>
+      <c r="Q41" s="61" t="n"/>
+      <c r="R41" s="61" t="n"/>
+      <c r="S41" s="61" t="n"/>
+      <c r="T41" s="61" t="n"/>
+      <c r="U41" s="61" t="n"/>
+      <c r="V41" s="61" t="n"/>
+      <c r="W41" s="61" t="n"/>
+      <c r="X41" s="61" t="n"/>
+      <c r="Y41" s="61" t="n"/>
+      <c r="Z41" s="61" t="n"/>
+      <c r="AA41" s="61" t="n"/>
+      <c r="AB41" s="61" t="n"/>
+      <c r="AC41" s="61" t="n"/>
+      <c r="AD41" s="61" t="n"/>
+      <c r="AE41" s="61" t="n"/>
+      <c r="AF41" s="61" t="n"/>
+      <c r="AG41" s="61" t="n"/>
+      <c r="AH41" s="61" t="n"/>
+      <c r="AI41" s="61" t="n"/>
+      <c r="AJ41" s="28" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A42" s="15" t="n"/>
+      <c r="B42" s="51" t="n"/>
+      <c r="C42" s="51" t="n"/>
+      <c r="D42" s="51" t="n"/>
+      <c r="E42" s="51" t="n"/>
+      <c r="F42" s="51" t="n"/>
+      <c r="G42" s="51" t="n"/>
+      <c r="H42" s="51" t="n"/>
+      <c r="I42" s="51" t="n"/>
+      <c r="J42" s="51" t="n"/>
+      <c r="K42" s="51" t="n"/>
+      <c r="L42" s="51" t="n"/>
+      <c r="M42" s="51" t="n"/>
+      <c r="N42" s="51" t="n"/>
+      <c r="O42" s="51" t="n"/>
+      <c r="P42" s="51" t="n"/>
+      <c r="Q42" s="51" t="n"/>
+      <c r="R42" s="51" t="n"/>
+      <c r="S42" s="52" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T42" s="51" t="n"/>
+      <c r="U42" s="51" t="n"/>
+      <c r="V42" s="51" t="n"/>
+      <c r="W42" s="51" t="n"/>
+      <c r="X42" s="51" t="n"/>
+      <c r="Y42" s="51" t="n"/>
+      <c r="Z42" s="51" t="n"/>
+      <c r="AA42" s="51" t="n"/>
+      <c r="AB42" s="51" t="n"/>
+      <c r="AC42" s="51" t="n"/>
+      <c r="AD42" s="51" t="n"/>
+      <c r="AE42" s="51" t="n"/>
+      <c r="AF42" s="51" t="n"/>
+      <c r="AG42" s="51" t="n"/>
+      <c r="AH42" s="51" t="n"/>
+      <c r="AI42" s="51" t="n"/>
+      <c r="AJ42" s="16" t="n"/>
+    </row>
+    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A43" s="38" t="n"/>
+      <c r="B43" s="33" t="n"/>
+      <c r="C43" s="33" t="n"/>
+      <c r="D43" s="33" t="n"/>
+      <c r="E43" s="33" t="n"/>
+      <c r="F43" s="33" t="n"/>
+      <c r="G43" s="33" t="n"/>
+      <c r="H43" s="33" t="n"/>
+      <c r="I43" s="33" t="n"/>
+      <c r="J43" s="33" t="n"/>
+      <c r="K43" s="33" t="n"/>
+      <c r="L43" s="33" t="n"/>
+      <c r="M43" s="33" t="n"/>
+      <c r="N43" s="33" t="n"/>
+      <c r="O43" s="33" t="n"/>
+      <c r="P43" s="33" t="n"/>
+      <c r="Q43" s="33" t="n"/>
+      <c r="R43" s="33" t="n"/>
+      <c r="S43" s="33" t="n"/>
+      <c r="T43" s="33" t="n"/>
+      <c r="U43" s="33" t="n"/>
+      <c r="V43" s="33" t="n"/>
+      <c r="W43" s="33" t="n"/>
+      <c r="X43" s="33" t="n"/>
+      <c r="Y43" s="33" t="n"/>
+      <c r="Z43" s="33" t="n"/>
+      <c r="AA43" s="33" t="n"/>
+      <c r="AB43" s="33" t="n"/>
+      <c r="AC43" s="33" t="n"/>
+      <c r="AD43" s="33" t="n"/>
+      <c r="AE43" s="33" t="n"/>
+      <c r="AF43" s="33" t="n"/>
+      <c r="AG43" s="33" t="n"/>
+      <c r="AH43" s="33" t="n"/>
+      <c r="AI43" s="33" t="n"/>
+      <c r="AJ43" s="34" t="n"/>
+    </row>
+    <row r="44" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A44" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B44" s="23" t="inlineStr">
+        <is>
+          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C44" s="23" t="n"/>
+      <c r="D44" s="23" t="n"/>
+      <c r="E44" s="23" t="n"/>
+      <c r="F44" s="23" t="n"/>
+      <c r="G44" s="23" t="n"/>
+      <c r="H44" s="23" t="n"/>
+      <c r="I44" s="23" t="n"/>
+      <c r="J44" s="23" t="n"/>
+      <c r="K44" s="23" t="n"/>
+      <c r="L44" s="23" t="n"/>
+      <c r="M44" s="23" t="n"/>
+      <c r="N44" s="23" t="n"/>
+      <c r="O44" s="23" t="n"/>
+      <c r="P44" s="23" t="n"/>
+      <c r="Q44" s="23" t="n"/>
+      <c r="R44" s="23" t="n"/>
+      <c r="S44" s="23" t="n"/>
+      <c r="T44" s="23" t="n"/>
+      <c r="U44" s="23" t="n"/>
+      <c r="V44" s="23" t="n"/>
+      <c r="W44" s="23" t="n"/>
+      <c r="X44" s="23" t="n"/>
+      <c r="Y44" s="23" t="n"/>
+      <c r="Z44" s="23" t="n"/>
+      <c r="AA44" s="23" t="n"/>
+      <c r="AB44" s="23" t="n"/>
+      <c r="AC44" s="23" t="n"/>
+      <c r="AD44" s="23" t="n"/>
+      <c r="AE44" s="23" t="n"/>
+      <c r="AF44" s="23" t="n"/>
+      <c r="AG44" s="23" t="n"/>
+      <c r="AH44" s="23" t="n"/>
+      <c r="AI44" s="23" t="n"/>
+      <c r="AJ44" s="34" t="n"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="n"/>
+      <c r="T45" s="2" t="n"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
+      <c r="W45" s="2" t="n"/>
+      <c r="X45" s="2" t="n"/>
+      <c r="Y45" s="2" t="n"/>
+      <c r="Z45" s="2" t="n"/>
+      <c r="AA45" s="2" t="n"/>
+      <c r="AB45" s="2" t="n"/>
+      <c r="AC45" s="2" t="n"/>
+      <c r="AD45" s="2" t="n"/>
+      <c r="AE45" s="2" t="n"/>
+      <c r="AF45" s="2" t="n"/>
+      <c r="AG45" s="2" t="n"/>
+      <c r="AH45" s="2" t="n"/>
+      <c r="AI45" s="2" t="n"/>
+      <c r="AJ45" s="2" t="n"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="B46" s="82" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="B46:AH46"/>
+    <mergeCell ref="H33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="H40:AI40"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="H32:AI32"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="U22:V22"/>
+  </mergeCells>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>BALL VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>BAV21A0I1C</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>2, 3</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>HCN &amp; HCR</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="57" t="n"/>
+      <c r="B7" s="48" t="n"/>
+      <c r="C7" s="48" t="n"/>
+      <c r="D7" s="48" t="n"/>
+      <c r="E7" s="48" t="n"/>
+      <c r="F7" s="48" t="n"/>
+      <c r="G7" s="48" t="n"/>
+      <c r="H7" s="48" t="n"/>
+      <c r="I7" s="48" t="n"/>
+      <c r="J7" s="48" t="n"/>
+      <c r="K7" s="48" t="n"/>
+      <c r="L7" s="48" t="n"/>
+      <c r="M7" s="48" t="n"/>
+      <c r="N7" s="48" t="n"/>
+      <c r="O7" s="48" t="n"/>
+      <c r="P7" s="48" t="n"/>
+      <c r="Q7" s="48" t="n"/>
+      <c r="R7" s="48" t="n"/>
+      <c r="S7" s="48" t="n"/>
+      <c r="T7" s="48" t="n"/>
+      <c r="U7" s="48" t="n"/>
+      <c r="V7" s="48" t="n"/>
+      <c r="W7" s="48" t="n"/>
+      <c r="X7" s="48" t="n"/>
+      <c r="Y7" s="48" t="n"/>
+      <c r="Z7" s="48" t="n"/>
+      <c r="AA7" s="48" t="n"/>
+      <c r="AB7" s="48" t="n"/>
+      <c r="AC7" s="48" t="n"/>
+      <c r="AD7" s="48" t="n"/>
+      <c r="AE7" s="48" t="n"/>
+      <c r="AF7" s="48" t="n"/>
+      <c r="AG7" s="48" t="n"/>
+      <c r="AH7" s="48" t="n"/>
+      <c r="AI7" s="48" t="n"/>
+      <c r="AJ7" s="31" t="n"/>
+    </row>
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>BALL VALVE, FLOATING BALL</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr"/>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="inlineStr">
+        <is>
+          <t>BORE:</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K15" s="95" t="n"/>
+      <c r="L15" s="95" t="n"/>
+      <c r="M15" s="95" t="n"/>
+      <c r="N15" s="95" t="n"/>
+      <c r="O15" s="95" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="inlineStr">
+        <is>
+          <t>REDUCED</t>
+        </is>
+      </c>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="68" t="inlineStr"/>
+      <c r="U15" s="95" t="n"/>
+      <c r="V15" s="95" t="n"/>
+      <c r="W15" s="95" t="n"/>
+      <c r="X15" s="95" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="inlineStr">
+        <is>
+          <t>ACCORDING TO:</t>
+        </is>
+      </c>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="68" t="inlineStr"/>
+      <c r="AF15" s="95" t="n"/>
+      <c r="AG15" s="95" t="n"/>
+      <c r="AH15" s="95" t="n"/>
+      <c r="AI15" s="95" t="n"/>
+      <c r="AJ15" s="16" t="n"/>
+    </row>
+    <row r="16" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="inlineStr">
+        <is>
+          <t>LENGHT:</t>
+        </is>
+      </c>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="inlineStr">
+        <is>
+          <t>SHORT  PATTERN</t>
+        </is>
+      </c>
+      <c r="P16" s="68" t="inlineStr"/>
+      <c r="Q16" s="95" t="n"/>
+      <c r="R16" s="95" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="inlineStr">
+        <is>
+          <t>REG./LONG  PATTERN</t>
+        </is>
+      </c>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB16" s="95" t="n"/>
+      <c r="AC16" s="95" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="16" t="n"/>
+    </row>
+    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>TYPE OPERATOR :</t>
+        </is>
+      </c>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="69" t="inlineStr">
+        <is>
+          <t>LEVER OPERATOR</t>
+        </is>
+      </c>
+      <c r="I17" s="95" t="n"/>
+      <c r="J17" s="95" t="n"/>
+      <c r="K17" s="95" t="n"/>
+      <c r="L17" s="95" t="n"/>
+      <c r="M17" s="95" t="n"/>
+      <c r="N17" s="95" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr"/>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr">
+        <is>
+          <t>FIRE SAFE AS PER API 607</t>
+        </is>
+      </c>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>285</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="52" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="52" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="67" t="inlineStr">
+        <is>
+          <t>ASTM A216 Gr.WCB</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AC31" s="68" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="67" t="inlineStr">
+        <is>
+          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="95" t="n"/>
+      <c r="Z32" s="95" t="n"/>
+      <c r="AA32" s="95" t="n"/>
+      <c r="AB32" s="95" t="n"/>
+      <c r="AC32" s="95" t="n"/>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="67" t="inlineStr">
+        <is>
+          <t>STEM: GRAPHITE</t>
+        </is>
+      </c>
+      <c r="I33" s="95" t="n"/>
+      <c r="J33" s="95" t="n"/>
+      <c r="K33" s="95" t="n"/>
+      <c r="L33" s="95" t="n"/>
+      <c r="M33" s="95" t="n"/>
+      <c r="N33" s="95" t="n"/>
+      <c r="O33" s="95" t="n"/>
+      <c r="P33" s="95" t="n"/>
+      <c r="Q33" s="95" t="n"/>
+      <c r="R33" s="95" t="n"/>
+      <c r="S33" s="95" t="n"/>
+      <c r="T33" s="95" t="n"/>
+      <c r="U33" s="95" t="n"/>
+      <c r="V33" s="95" t="n"/>
+      <c r="W33" s="95" t="n"/>
+      <c r="X33" s="95" t="n"/>
+      <c r="Y33" s="95" t="n"/>
+      <c r="Z33" s="95" t="n"/>
+      <c r="AA33" s="95" t="n"/>
+      <c r="AB33" s="95" t="n"/>
+      <c r="AC33" s="95" t="n"/>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="83" t="inlineStr">
+        <is>
+          <t>BALL:</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="67" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="67" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
+        </is>
+      </c>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="67" t="inlineStr">
+        <is>
+          <t>RINGS: RPTFE</t>
+        </is>
+      </c>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="67" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="n"/>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="67" t="n"/>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A39" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B39" s="42" t="n"/>
+      <c r="C39" s="42" t="n"/>
+      <c r="D39" s="42" t="n"/>
+      <c r="E39" s="42" t="n"/>
+      <c r="F39" s="42" t="n"/>
+      <c r="G39" s="42" t="n"/>
+      <c r="H39" s="67" t="inlineStr">
+        <is>
+          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY</t>
+        </is>
+      </c>
+      <c r="I39" s="95" t="n"/>
+      <c r="J39" s="95" t="n"/>
+      <c r="K39" s="95" t="n"/>
+      <c r="L39" s="95" t="n"/>
+      <c r="M39" s="95" t="n"/>
+      <c r="N39" s="95" t="n"/>
+      <c r="O39" s="95" t="n"/>
+      <c r="P39" s="95" t="n"/>
+      <c r="Q39" s="95" t="n"/>
+      <c r="R39" s="95" t="n"/>
+      <c r="S39" s="95" t="n"/>
+      <c r="T39" s="95" t="n"/>
+      <c r="U39" s="95" t="n"/>
+      <c r="V39" s="95" t="n"/>
+      <c r="W39" s="95" t="n"/>
+      <c r="X39" s="95" t="n"/>
+      <c r="Y39" s="95" t="n"/>
+      <c r="Z39" s="95" t="n"/>
+      <c r="AA39" s="95" t="n"/>
+      <c r="AB39" s="95" t="n"/>
+      <c r="AC39" s="95" t="n"/>
+      <c r="AD39" s="95" t="n"/>
+      <c r="AE39" s="95" t="n"/>
+      <c r="AF39" s="95" t="n"/>
+      <c r="AG39" s="95" t="n"/>
+      <c r="AH39" s="95" t="n"/>
+      <c r="AI39" s="95" t="n"/>
+      <c r="AJ39" s="16" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A40" s="18" t="n"/>
+      <c r="B40" s="42" t="n"/>
+      <c r="C40" s="42" t="n"/>
+      <c r="D40" s="42" t="n"/>
+      <c r="E40" s="42" t="n"/>
+      <c r="F40" s="42" t="n"/>
+      <c r="G40" s="42" t="n"/>
+      <c r="H40" s="67" t="n"/>
+      <c r="I40" s="95" t="n"/>
+      <c r="J40" s="95" t="n"/>
+      <c r="K40" s="95" t="n"/>
+      <c r="L40" s="95" t="n"/>
+      <c r="M40" s="95" t="n"/>
+      <c r="N40" s="95" t="n"/>
+      <c r="O40" s="95" t="n"/>
+      <c r="P40" s="95" t="n"/>
+      <c r="Q40" s="95" t="n"/>
+      <c r="R40" s="95" t="n"/>
+      <c r="S40" s="95" t="n"/>
+      <c r="T40" s="95" t="n"/>
+      <c r="U40" s="95" t="n"/>
+      <c r="V40" s="95" t="n"/>
+      <c r="W40" s="95" t="n"/>
+      <c r="X40" s="95" t="n"/>
+      <c r="Y40" s="95" t="n"/>
+      <c r="Z40" s="95" t="n"/>
+      <c r="AA40" s="95" t="n"/>
+      <c r="AB40" s="95" t="n"/>
+      <c r="AC40" s="95" t="n"/>
+      <c r="AD40" s="95" t="n"/>
+      <c r="AE40" s="95" t="n"/>
+      <c r="AF40" s="95" t="n"/>
+      <c r="AG40" s="95" t="n"/>
+      <c r="AH40" s="95" t="n"/>
+      <c r="AI40" s="95" t="n"/>
+      <c r="AJ40" s="16" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A41" s="37" t="n"/>
+      <c r="B41" s="61" t="n"/>
+      <c r="C41" s="61" t="n"/>
+      <c r="D41" s="61" t="n"/>
+      <c r="E41" s="61" t="n"/>
+      <c r="F41" s="61" t="n"/>
+      <c r="G41" s="61" t="n"/>
+      <c r="H41" s="61" t="n"/>
+      <c r="I41" s="61" t="n"/>
+      <c r="J41" s="61" t="n"/>
+      <c r="K41" s="61" t="n"/>
+      <c r="L41" s="61" t="n"/>
+      <c r="M41" s="61" t="n"/>
+      <c r="N41" s="61" t="n"/>
+      <c r="O41" s="61" t="n"/>
+      <c r="P41" s="61" t="n"/>
+      <c r="Q41" s="61" t="n"/>
+      <c r="R41" s="61" t="n"/>
+      <c r="S41" s="61" t="n"/>
+      <c r="T41" s="61" t="n"/>
+      <c r="U41" s="61" t="n"/>
+      <c r="V41" s="61" t="n"/>
+      <c r="W41" s="61" t="n"/>
+      <c r="X41" s="61" t="n"/>
+      <c r="Y41" s="61" t="n"/>
+      <c r="Z41" s="61" t="n"/>
+      <c r="AA41" s="61" t="n"/>
+      <c r="AB41" s="61" t="n"/>
+      <c r="AC41" s="61" t="n"/>
+      <c r="AD41" s="61" t="n"/>
+      <c r="AE41" s="61" t="n"/>
+      <c r="AF41" s="61" t="n"/>
+      <c r="AG41" s="61" t="n"/>
+      <c r="AH41" s="61" t="n"/>
+      <c r="AI41" s="61" t="n"/>
+      <c r="AJ41" s="28" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A42" s="15" t="n"/>
+      <c r="B42" s="51" t="n"/>
+      <c r="C42" s="51" t="n"/>
+      <c r="D42" s="51" t="n"/>
+      <c r="E42" s="51" t="n"/>
+      <c r="F42" s="51" t="n"/>
+      <c r="G42" s="51" t="n"/>
+      <c r="H42" s="51" t="n"/>
+      <c r="I42" s="51" t="n"/>
+      <c r="J42" s="51" t="n"/>
+      <c r="K42" s="51" t="n"/>
+      <c r="L42" s="51" t="n"/>
+      <c r="M42" s="51" t="n"/>
+      <c r="N42" s="51" t="n"/>
+      <c r="O42" s="51" t="n"/>
+      <c r="P42" s="51" t="n"/>
+      <c r="Q42" s="51" t="n"/>
+      <c r="R42" s="51" t="n"/>
+      <c r="S42" s="52" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T42" s="51" t="n"/>
+      <c r="U42" s="51" t="n"/>
+      <c r="V42" s="51" t="n"/>
+      <c r="W42" s="51" t="n"/>
+      <c r="X42" s="51" t="n"/>
+      <c r="Y42" s="51" t="n"/>
+      <c r="Z42" s="51" t="n"/>
+      <c r="AA42" s="51" t="n"/>
+      <c r="AB42" s="51" t="n"/>
+      <c r="AC42" s="51" t="n"/>
+      <c r="AD42" s="51" t="n"/>
+      <c r="AE42" s="51" t="n"/>
+      <c r="AF42" s="51" t="n"/>
+      <c r="AG42" s="51" t="n"/>
+      <c r="AH42" s="51" t="n"/>
+      <c r="AI42" s="51" t="n"/>
+      <c r="AJ42" s="16" t="n"/>
+    </row>
+    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A43" s="38" t="n"/>
+      <c r="B43" s="33" t="n"/>
+      <c r="C43" s="33" t="n"/>
+      <c r="D43" s="33" t="n"/>
+      <c r="E43" s="33" t="n"/>
+      <c r="F43" s="33" t="n"/>
+      <c r="G43" s="33" t="n"/>
+      <c r="H43" s="33" t="n"/>
+      <c r="I43" s="33" t="n"/>
+      <c r="J43" s="33" t="n"/>
+      <c r="K43" s="33" t="n"/>
+      <c r="L43" s="33" t="n"/>
+      <c r="M43" s="33" t="n"/>
+      <c r="N43" s="33" t="n"/>
+      <c r="O43" s="33" t="n"/>
+      <c r="P43" s="33" t="n"/>
+      <c r="Q43" s="33" t="n"/>
+      <c r="R43" s="33" t="n"/>
+      <c r="S43" s="33" t="n"/>
+      <c r="T43" s="33" t="n"/>
+      <c r="U43" s="33" t="n"/>
+      <c r="V43" s="33" t="n"/>
+      <c r="W43" s="33" t="n"/>
+      <c r="X43" s="33" t="n"/>
+      <c r="Y43" s="33" t="n"/>
+      <c r="Z43" s="33" t="n"/>
+      <c r="AA43" s="33" t="n"/>
+      <c r="AB43" s="33" t="n"/>
+      <c r="AC43" s="33" t="n"/>
+      <c r="AD43" s="33" t="n"/>
+      <c r="AE43" s="33" t="n"/>
+      <c r="AF43" s="33" t="n"/>
+      <c r="AG43" s="33" t="n"/>
+      <c r="AH43" s="33" t="n"/>
+      <c r="AI43" s="33" t="n"/>
+      <c r="AJ43" s="34" t="n"/>
+    </row>
+    <row r="44" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A44" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B44" s="23" t="inlineStr">
+        <is>
+          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C44" s="23" t="n"/>
+      <c r="D44" s="23" t="n"/>
+      <c r="E44" s="23" t="n"/>
+      <c r="F44" s="23" t="n"/>
+      <c r="G44" s="23" t="n"/>
+      <c r="H44" s="23" t="n"/>
+      <c r="I44" s="23" t="n"/>
+      <c r="J44" s="23" t="n"/>
+      <c r="K44" s="23" t="n"/>
+      <c r="L44" s="23" t="n"/>
+      <c r="M44" s="23" t="n"/>
+      <c r="N44" s="23" t="n"/>
+      <c r="O44" s="23" t="n"/>
+      <c r="P44" s="23" t="n"/>
+      <c r="Q44" s="23" t="n"/>
+      <c r="R44" s="23" t="n"/>
+      <c r="S44" s="23" t="n"/>
+      <c r="T44" s="23" t="n"/>
+      <c r="U44" s="23" t="n"/>
+      <c r="V44" s="23" t="n"/>
+      <c r="W44" s="23" t="n"/>
+      <c r="X44" s="23" t="n"/>
+      <c r="Y44" s="23" t="n"/>
+      <c r="Z44" s="23" t="n"/>
+      <c r="AA44" s="23" t="n"/>
+      <c r="AB44" s="23" t="n"/>
+      <c r="AC44" s="23" t="n"/>
+      <c r="AD44" s="23" t="n"/>
+      <c r="AE44" s="23" t="n"/>
+      <c r="AF44" s="23" t="n"/>
+      <c r="AG44" s="23" t="n"/>
+      <c r="AH44" s="23" t="n"/>
+      <c r="AI44" s="23" t="n"/>
+      <c r="AJ44" s="34" t="n"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="n"/>
+      <c r="T45" s="2" t="n"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
+      <c r="W45" s="2" t="n"/>
+      <c r="X45" s="2" t="n"/>
+      <c r="Y45" s="2" t="n"/>
+      <c r="Z45" s="2" t="n"/>
+      <c r="AA45" s="2" t="n"/>
+      <c r="AB45" s="2" t="n"/>
+      <c r="AC45" s="2" t="n"/>
+      <c r="AD45" s="2" t="n"/>
+      <c r="AE45" s="2" t="n"/>
+      <c r="AF45" s="2" t="n"/>
+      <c r="AG45" s="2" t="n"/>
+      <c r="AH45" s="2" t="n"/>
+      <c r="AI45" s="2" t="n"/>
+      <c r="AJ45" s="2" t="n"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="B46" s="82" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="B46:AH46"/>
+    <mergeCell ref="H33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="H40:AI40"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="H32:AI32"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="U22:V22"/>
+  </mergeCells>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>BALL VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>BAV24G0I1C</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>1/2, 3/4, 1</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>HCN &amp; HCR</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="57" t="n"/>
+      <c r="B7" s="48" t="n"/>
+      <c r="C7" s="48" t="n"/>
+      <c r="D7" s="48" t="n"/>
+      <c r="E7" s="48" t="n"/>
+      <c r="F7" s="48" t="n"/>
+      <c r="G7" s="48" t="n"/>
+      <c r="H7" s="48" t="n"/>
+      <c r="I7" s="48" t="n"/>
+      <c r="J7" s="48" t="n"/>
+      <c r="K7" s="48" t="n"/>
+      <c r="L7" s="48" t="n"/>
+      <c r="M7" s="48" t="n"/>
+      <c r="N7" s="48" t="n"/>
+      <c r="O7" s="48" t="n"/>
+      <c r="P7" s="48" t="n"/>
+      <c r="Q7" s="48" t="n"/>
+      <c r="R7" s="48" t="n"/>
+      <c r="S7" s="48" t="n"/>
+      <c r="T7" s="48" t="n"/>
+      <c r="U7" s="48" t="n"/>
+      <c r="V7" s="48" t="n"/>
+      <c r="W7" s="48" t="n"/>
+      <c r="X7" s="48" t="n"/>
+      <c r="Y7" s="48" t="n"/>
+      <c r="Z7" s="48" t="n"/>
+      <c r="AA7" s="48" t="n"/>
+      <c r="AB7" s="48" t="n"/>
+      <c r="AC7" s="48" t="n"/>
+      <c r="AD7" s="48" t="n"/>
+      <c r="AE7" s="48" t="n"/>
+      <c r="AF7" s="48" t="n"/>
+      <c r="AG7" s="48" t="n"/>
+      <c r="AH7" s="48" t="n"/>
+      <c r="AI7" s="48" t="n"/>
+      <c r="AJ7" s="31" t="n"/>
+    </row>
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>BALL VALVE, FLOATING BALL</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr"/>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr"/>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>MNF STD</t>
+        </is>
+      </c>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="inlineStr">
+        <is>
+          <t>BORE:</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K15" s="95" t="n"/>
+      <c r="L15" s="95" t="n"/>
+      <c r="M15" s="95" t="n"/>
+      <c r="N15" s="95" t="n"/>
+      <c r="O15" s="95" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="inlineStr">
+        <is>
+          <t>REDUCED</t>
+        </is>
+      </c>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="68" t="inlineStr"/>
+      <c r="U15" s="95" t="n"/>
+      <c r="V15" s="95" t="n"/>
+      <c r="W15" s="95" t="n"/>
+      <c r="X15" s="95" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="inlineStr">
+        <is>
+          <t>ACCORDING TO:</t>
+        </is>
+      </c>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="68" t="inlineStr"/>
+      <c r="AF15" s="95" t="n"/>
+      <c r="AG15" s="95" t="n"/>
+      <c r="AH15" s="95" t="n"/>
+      <c r="AI15" s="95" t="n"/>
+      <c r="AJ15" s="16" t="n"/>
+    </row>
+    <row r="16" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="inlineStr">
+        <is>
+          <t>LENGHT:</t>
+        </is>
+      </c>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="inlineStr">
+        <is>
+          <t>SHORT  PATTERN</t>
+        </is>
+      </c>
+      <c r="P16" s="68" t="inlineStr"/>
+      <c r="Q16" s="95" t="n"/>
+      <c r="R16" s="95" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="inlineStr">
+        <is>
+          <t>REG./LONG  PATTERN</t>
+        </is>
+      </c>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="68" t="inlineStr"/>
+      <c r="AB16" s="95" t="n"/>
+      <c r="AC16" s="95" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="16" t="n"/>
+    </row>
+    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>TYPE OPERATOR :</t>
+        </is>
+      </c>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="69" t="inlineStr">
+        <is>
+          <t>LEVER OPERATOR</t>
+        </is>
+      </c>
+      <c r="I17" s="95" t="n"/>
+      <c r="J17" s="95" t="n"/>
+      <c r="K17" s="95" t="n"/>
+      <c r="L17" s="95" t="n"/>
+      <c r="M17" s="95" t="n"/>
+      <c r="N17" s="95" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr"/>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr">
+        <is>
+          <t>FIRE SAFE AS PER API 607</t>
+        </is>
+      </c>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>285</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr">
+        <is>
+          <t>API 598</t>
+        </is>
+      </c>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="52" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="52" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="67" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AC31" s="68" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="67" t="inlineStr">
+        <is>
+          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="95" t="n"/>
+      <c r="Z32" s="95" t="n"/>
+      <c r="AA32" s="95" t="n"/>
+      <c r="AB32" s="95" t="n"/>
+      <c r="AC32" s="95" t="n"/>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="67" t="inlineStr">
+        <is>
+          <t>STEM: GRAPHITE</t>
+        </is>
+      </c>
+      <c r="I33" s="95" t="n"/>
+      <c r="J33" s="95" t="n"/>
+      <c r="K33" s="95" t="n"/>
+      <c r="L33" s="95" t="n"/>
+      <c r="M33" s="95" t="n"/>
+      <c r="N33" s="95" t="n"/>
+      <c r="O33" s="95" t="n"/>
+      <c r="P33" s="95" t="n"/>
+      <c r="Q33" s="95" t="n"/>
+      <c r="R33" s="95" t="n"/>
+      <c r="S33" s="95" t="n"/>
+      <c r="T33" s="95" t="n"/>
+      <c r="U33" s="95" t="n"/>
+      <c r="V33" s="95" t="n"/>
+      <c r="W33" s="95" t="n"/>
+      <c r="X33" s="95" t="n"/>
+      <c r="Y33" s="95" t="n"/>
+      <c r="Z33" s="95" t="n"/>
+      <c r="AA33" s="95" t="n"/>
+      <c r="AB33" s="95" t="n"/>
+      <c r="AC33" s="95" t="n"/>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="83" t="inlineStr">
+        <is>
+          <t>BALL:</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="67" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="67" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
+        </is>
+      </c>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="67" t="inlineStr">
+        <is>
+          <t>RINGS: RPTFE</t>
+        </is>
+      </c>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="67" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="n"/>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="67" t="n"/>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A39" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B39" s="42" t="n"/>
+      <c r="C39" s="42" t="n"/>
+      <c r="D39" s="42" t="n"/>
+      <c r="E39" s="42" t="n"/>
+      <c r="F39" s="42" t="n"/>
+      <c r="G39" s="42" t="n"/>
+      <c r="H39" s="67" t="inlineStr">
+        <is>
+          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
+        </is>
+      </c>
+      <c r="I39" s="95" t="n"/>
+      <c r="J39" s="95" t="n"/>
+      <c r="K39" s="95" t="n"/>
+      <c r="L39" s="95" t="n"/>
+      <c r="M39" s="95" t="n"/>
+      <c r="N39" s="95" t="n"/>
+      <c r="O39" s="95" t="n"/>
+      <c r="P39" s="95" t="n"/>
+      <c r="Q39" s="95" t="n"/>
+      <c r="R39" s="95" t="n"/>
+      <c r="S39" s="95" t="n"/>
+      <c r="T39" s="95" t="n"/>
+      <c r="U39" s="95" t="n"/>
+      <c r="V39" s="95" t="n"/>
+      <c r="W39" s="95" t="n"/>
+      <c r="X39" s="95" t="n"/>
+      <c r="Y39" s="95" t="n"/>
+      <c r="Z39" s="95" t="n"/>
+      <c r="AA39" s="95" t="n"/>
+      <c r="AB39" s="95" t="n"/>
+      <c r="AC39" s="95" t="n"/>
+      <c r="AD39" s="95" t="n"/>
+      <c r="AE39" s="95" t="n"/>
+      <c r="AF39" s="95" t="n"/>
+      <c r="AG39" s="95" t="n"/>
+      <c r="AH39" s="95" t="n"/>
+      <c r="AI39" s="95" t="n"/>
+      <c r="AJ39" s="16" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A40" s="18" t="n"/>
+      <c r="B40" s="42" t="n"/>
+      <c r="C40" s="42" t="n"/>
+      <c r="D40" s="42" t="n"/>
+      <c r="E40" s="42" t="n"/>
+      <c r="F40" s="42" t="n"/>
+      <c r="G40" s="42" t="n"/>
+      <c r="H40" s="67" t="n"/>
+      <c r="I40" s="95" t="n"/>
+      <c r="J40" s="95" t="n"/>
+      <c r="K40" s="95" t="n"/>
+      <c r="L40" s="95" t="n"/>
+      <c r="M40" s="95" t="n"/>
+      <c r="N40" s="95" t="n"/>
+      <c r="O40" s="95" t="n"/>
+      <c r="P40" s="95" t="n"/>
+      <c r="Q40" s="95" t="n"/>
+      <c r="R40" s="95" t="n"/>
+      <c r="S40" s="95" t="n"/>
+      <c r="T40" s="95" t="n"/>
+      <c r="U40" s="95" t="n"/>
+      <c r="V40" s="95" t="n"/>
+      <c r="W40" s="95" t="n"/>
+      <c r="X40" s="95" t="n"/>
+      <c r="Y40" s="95" t="n"/>
+      <c r="Z40" s="95" t="n"/>
+      <c r="AA40" s="95" t="n"/>
+      <c r="AB40" s="95" t="n"/>
+      <c r="AC40" s="95" t="n"/>
+      <c r="AD40" s="95" t="n"/>
+      <c r="AE40" s="95" t="n"/>
+      <c r="AF40" s="95" t="n"/>
+      <c r="AG40" s="95" t="n"/>
+      <c r="AH40" s="95" t="n"/>
+      <c r="AI40" s="95" t="n"/>
+      <c r="AJ40" s="16" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A41" s="37" t="n"/>
+      <c r="B41" s="61" t="n"/>
+      <c r="C41" s="61" t="n"/>
+      <c r="D41" s="61" t="n"/>
+      <c r="E41" s="61" t="n"/>
+      <c r="F41" s="61" t="n"/>
+      <c r="G41" s="61" t="n"/>
+      <c r="H41" s="61" t="n"/>
+      <c r="I41" s="61" t="n"/>
+      <c r="J41" s="61" t="n"/>
+      <c r="K41" s="61" t="n"/>
+      <c r="L41" s="61" t="n"/>
+      <c r="M41" s="61" t="n"/>
+      <c r="N41" s="61" t="n"/>
+      <c r="O41" s="61" t="n"/>
+      <c r="P41" s="61" t="n"/>
+      <c r="Q41" s="61" t="n"/>
+      <c r="R41" s="61" t="n"/>
+      <c r="S41" s="61" t="n"/>
+      <c r="T41" s="61" t="n"/>
+      <c r="U41" s="61" t="n"/>
+      <c r="V41" s="61" t="n"/>
+      <c r="W41" s="61" t="n"/>
+      <c r="X41" s="61" t="n"/>
+      <c r="Y41" s="61" t="n"/>
+      <c r="Z41" s="61" t="n"/>
+      <c r="AA41" s="61" t="n"/>
+      <c r="AB41" s="61" t="n"/>
+      <c r="AC41" s="61" t="n"/>
+      <c r="AD41" s="61" t="n"/>
+      <c r="AE41" s="61" t="n"/>
+      <c r="AF41" s="61" t="n"/>
+      <c r="AG41" s="61" t="n"/>
+      <c r="AH41" s="61" t="n"/>
+      <c r="AI41" s="61" t="n"/>
+      <c r="AJ41" s="28" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A42" s="15" t="n"/>
+      <c r="B42" s="51" t="n"/>
+      <c r="C42" s="51" t="n"/>
+      <c r="D42" s="51" t="n"/>
+      <c r="E42" s="51" t="n"/>
+      <c r="F42" s="51" t="n"/>
+      <c r="G42" s="51" t="n"/>
+      <c r="H42" s="51" t="n"/>
+      <c r="I42" s="51" t="n"/>
+      <c r="J42" s="51" t="n"/>
+      <c r="K42" s="51" t="n"/>
+      <c r="L42" s="51" t="n"/>
+      <c r="M42" s="51" t="n"/>
+      <c r="N42" s="51" t="n"/>
+      <c r="O42" s="51" t="n"/>
+      <c r="P42" s="51" t="n"/>
+      <c r="Q42" s="51" t="n"/>
+      <c r="R42" s="51" t="n"/>
+      <c r="S42" s="52" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T42" s="51" t="n"/>
+      <c r="U42" s="51" t="n"/>
+      <c r="V42" s="51" t="n"/>
+      <c r="W42" s="51" t="n"/>
+      <c r="X42" s="51" t="n"/>
+      <c r="Y42" s="51" t="n"/>
+      <c r="Z42" s="51" t="n"/>
+      <c r="AA42" s="51" t="n"/>
+      <c r="AB42" s="51" t="n"/>
+      <c r="AC42" s="51" t="n"/>
+      <c r="AD42" s="51" t="n"/>
+      <c r="AE42" s="51" t="n"/>
+      <c r="AF42" s="51" t="n"/>
+      <c r="AG42" s="51" t="n"/>
+      <c r="AH42" s="51" t="n"/>
+      <c r="AI42" s="51" t="n"/>
+      <c r="AJ42" s="16" t="n"/>
+    </row>
+    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A43" s="38" t="n"/>
+      <c r="B43" s="33" t="n"/>
+      <c r="C43" s="33" t="n"/>
+      <c r="D43" s="33" t="n"/>
+      <c r="E43" s="33" t="n"/>
+      <c r="F43" s="33" t="n"/>
+      <c r="G43" s="33" t="n"/>
+      <c r="H43" s="33" t="n"/>
+      <c r="I43" s="33" t="n"/>
+      <c r="J43" s="33" t="n"/>
+      <c r="K43" s="33" t="n"/>
+      <c r="L43" s="33" t="n"/>
+      <c r="M43" s="33" t="n"/>
+      <c r="N43" s="33" t="n"/>
+      <c r="O43" s="33" t="n"/>
+      <c r="P43" s="33" t="n"/>
+      <c r="Q43" s="33" t="n"/>
+      <c r="R43" s="33" t="n"/>
+      <c r="S43" s="33" t="n"/>
+      <c r="T43" s="33" t="n"/>
+      <c r="U43" s="33" t="n"/>
+      <c r="V43" s="33" t="n"/>
+      <c r="W43" s="33" t="n"/>
+      <c r="X43" s="33" t="n"/>
+      <c r="Y43" s="33" t="n"/>
+      <c r="Z43" s="33" t="n"/>
+      <c r="AA43" s="33" t="n"/>
+      <c r="AB43" s="33" t="n"/>
+      <c r="AC43" s="33" t="n"/>
+      <c r="AD43" s="33" t="n"/>
+      <c r="AE43" s="33" t="n"/>
+      <c r="AF43" s="33" t="n"/>
+      <c r="AG43" s="33" t="n"/>
+      <c r="AH43" s="33" t="n"/>
+      <c r="AI43" s="33" t="n"/>
+      <c r="AJ43" s="34" t="n"/>
+    </row>
+    <row r="44" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A44" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B44" s="23" t="inlineStr">
+        <is>
+          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C44" s="23" t="n"/>
+      <c r="D44" s="23" t="n"/>
+      <c r="E44" s="23" t="n"/>
+      <c r="F44" s="23" t="n"/>
+      <c r="G44" s="23" t="n"/>
+      <c r="H44" s="23" t="n"/>
+      <c r="I44" s="23" t="n"/>
+      <c r="J44" s="23" t="n"/>
+      <c r="K44" s="23" t="n"/>
+      <c r="L44" s="23" t="n"/>
+      <c r="M44" s="23" t="n"/>
+      <c r="N44" s="23" t="n"/>
+      <c r="O44" s="23" t="n"/>
+      <c r="P44" s="23" t="n"/>
+      <c r="Q44" s="23" t="n"/>
+      <c r="R44" s="23" t="n"/>
+      <c r="S44" s="23" t="n"/>
+      <c r="T44" s="23" t="n"/>
+      <c r="U44" s="23" t="n"/>
+      <c r="V44" s="23" t="n"/>
+      <c r="W44" s="23" t="n"/>
+      <c r="X44" s="23" t="n"/>
+      <c r="Y44" s="23" t="n"/>
+      <c r="Z44" s="23" t="n"/>
+      <c r="AA44" s="23" t="n"/>
+      <c r="AB44" s="23" t="n"/>
+      <c r="AC44" s="23" t="n"/>
+      <c r="AD44" s="23" t="n"/>
+      <c r="AE44" s="23" t="n"/>
+      <c r="AF44" s="23" t="n"/>
+      <c r="AG44" s="23" t="n"/>
+      <c r="AH44" s="23" t="n"/>
+      <c r="AI44" s="23" t="n"/>
+      <c r="AJ44" s="34" t="n"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="n"/>
+      <c r="T45" s="2" t="n"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
+      <c r="W45" s="2" t="n"/>
+      <c r="X45" s="2" t="n"/>
+      <c r="Y45" s="2" t="n"/>
+      <c r="Z45" s="2" t="n"/>
+      <c r="AA45" s="2" t="n"/>
+      <c r="AB45" s="2" t="n"/>
+      <c r="AC45" s="2" t="n"/>
+      <c r="AD45" s="2" t="n"/>
+      <c r="AE45" s="2" t="n"/>
+      <c r="AF45" s="2" t="n"/>
+      <c r="AG45" s="2" t="n"/>
+      <c r="AH45" s="2" t="n"/>
+      <c r="AI45" s="2" t="n"/>
+      <c r="AJ45" s="2" t="n"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="B46" s="82" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="B46:AH46"/>
+    <mergeCell ref="H33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="H40:AI40"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="H32:AI32"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="U22:V22"/>
+  </mergeCells>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1232,7 +7659,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>CKV413C3J2G</t>
+          <t>CKV21A0B2B</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -1278,7 +7705,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>2, 12</t>
+          <t>2, 10</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -1328,7 +7755,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -1378,7 +7805,7 @@
       <c r="G6" s="61" t="n"/>
       <c r="H6" s="67" t="inlineStr">
         <is>
-          <t>FIRE WATER</t>
+          <t>HCN &amp; HCR</t>
         </is>
       </c>
       <c r="I6" s="95" t="n"/>
@@ -1571,7 +7998,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -1620,7 +8047,7 @@
       <c r="S11" s="61" t="n"/>
       <c r="T11" s="69" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="U11" s="95" t="n"/>
@@ -1757,7 +8184,11 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="Q14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -1780,11 +8211,7 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr">
-        <is>
-          <t>ASME B16.1</t>
-        </is>
-      </c>
+      <c r="AF14" s="68" t="inlineStr"/>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -2105,7 +8532,7 @@
       </c>
       <c r="AG22" s="68" t="inlineStr">
         <is>
-          <t>MSS SP-136</t>
+          <t>API 594</t>
         </is>
       </c>
       <c r="AH22" s="95" t="n"/>
@@ -2157,7 +8584,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -2187,7 +8614,7 @@
       </c>
       <c r="AA24" s="61" t="n"/>
       <c r="AB24" s="69" t="n">
-        <v>-20</v>
+        <v>32</v>
       </c>
       <c r="AC24" s="95" t="n"/>
       <c r="AD24" s="24" t="inlineStr">
@@ -2247,7 +8674,11 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AB25" s="77" t="inlineStr">
+        <is>
+          <t>API 598</t>
+        </is>
+      </c>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -2496,7 +8927,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="85" t="inlineStr">
         <is>
-          <t>ASTM A536 GRADE 65-45-12</t>
+          <t>ASTM A216 Gr.WCB</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -2525,7 +8956,7 @@
       <c r="AB31" s="42" t="n"/>
       <c r="AC31" s="70" t="inlineStr">
         <is>
-          <t>BY MNF</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AD31" s="95" t="n"/>
@@ -2550,7 +8981,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="85" t="inlineStr">
         <is>
-          <t>NON METALLIC FLAT GASKET EPDM</t>
+          <t>BOLTED COVER: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -2604,7 +9035,7 @@
       <c r="G33" s="42" t="n"/>
       <c r="H33" s="86" t="inlineStr">
         <is>
-          <t>BRONZE</t>
+          <t>RENEWABLE</t>
         </is>
       </c>
       <c r="I33" s="97" t="n"/>
@@ -2658,7 +9089,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="67" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE</t>
+          <t>SWING CHECK</t>
         </is>
       </c>
       <c r="I34" s="95" t="n"/>
@@ -2788,7 +9219,7 @@
       <c r="G37" s="42" t="n"/>
       <c r="H37" s="67" t="inlineStr">
         <is>
-          <t>UL LISTED / FM APPROVED, PIN: AISI 304, DISC: IRON EPDM ENCAPSULATED, BOLTED COVER, INSTALLATION: HORIZONTAL OR VERTICAL</t>
+          <t>INSTALLATION: HORIZONTAL OR VERTICAL, O-RING: VITON</t>
         </is>
       </c>
       <c r="I37" s="95" t="n"/>
@@ -3123,7 +9554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3235,7 +9666,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>GAV413C3J2G</t>
+          <t>GAV21A0B2B</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -3281,7 +9712,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>2, 3, 4, 6, 8, 10, 12, 12</t>
+          <t>2, 8, 10</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -3331,7 +9762,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -3381,7 +9812,7 @@
       <c r="G6" s="61" t="n"/>
       <c r="H6" s="67" t="inlineStr">
         <is>
-          <t>FIRE WATER</t>
+          <t>HCN &amp; HCR</t>
         </is>
       </c>
       <c r="I6" s="95" t="n"/>
@@ -3574,7 +10005,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -3623,7 +10054,7 @@
       <c r="S11" s="61" t="n"/>
       <c r="T11" s="69" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="U11" s="95" t="n"/>
@@ -3760,7 +10191,11 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="Q14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -3783,11 +10218,7 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr">
-        <is>
-          <t>ASME B16.1</t>
-        </is>
-      </c>
+      <c r="AF14" s="68" t="inlineStr"/>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -4075,7 +10506,11 @@
           <t>API 600</t>
         </is>
       </c>
-      <c r="I22" s="68" t="inlineStr"/>
+      <c r="I22" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J22" s="95" t="n"/>
       <c r="K22" s="61" t="n"/>
       <c r="L22" s="61" t="n"/>
@@ -4114,11 +10549,7 @@
           <t>OTHER</t>
         </is>
       </c>
-      <c r="AG22" s="68" t="inlineStr">
-        <is>
-          <t>MSS SP-128 TYPE II</t>
-        </is>
-      </c>
+      <c r="AG22" s="68" t="inlineStr"/>
       <c r="AH22" s="95" t="n"/>
       <c r="AI22" s="95" t="n"/>
       <c r="AJ22" s="28" t="n"/>
@@ -4168,7 +10599,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -4198,7 +10629,7 @@
       </c>
       <c r="AA24" s="61" t="n"/>
       <c r="AB24" s="69" t="n">
-        <v>-20</v>
+        <v>32</v>
       </c>
       <c r="AC24" s="95" t="n"/>
       <c r="AD24" s="24" t="inlineStr">
@@ -4258,7 +10689,11 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AB25" s="77" t="inlineStr">
+        <is>
+          <t>API 598</t>
+        </is>
+      </c>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -4507,7 +10942,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM A536 GRADE 65-45-12</t>
+          <t>ASTM A216 Gr.WCB</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -4534,7 +10969,7 @@
       </c>
       <c r="AC31" s="68" t="inlineStr">
         <is>
-          <t>EPDM</t>
+          <t>GRAPHITE</t>
         </is>
       </c>
       <c r="AD31" s="95" t="n"/>
@@ -4559,7 +10994,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="67" t="inlineStr">
         <is>
-          <t>NON METALLIC FLAT GASKET EPDM</t>
+          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -4651,7 +11086,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="67" t="inlineStr">
         <is>
-          <t>BRONZE</t>
+          <t>BY MNF</t>
         </is>
       </c>
       <c r="I34" s="95" t="n"/>
@@ -4697,7 +11132,7 @@
       <c r="G35" s="42" t="n"/>
       <c r="H35" s="67" t="inlineStr">
         <is>
-          <t>BY MNF</t>
+          <t>RENEWABLE</t>
         </is>
       </c>
       <c r="I35" s="95" t="n"/>
@@ -4827,7 +11262,7 @@
       <c r="G38" s="42" t="n"/>
       <c r="H38" s="67" t="inlineStr">
         <is>
-          <t>UL LISTED / FM APPROVED, SOLID WEDGE, WEDGE: DUCTILE IRON EPDM ENCAPSULATED, STEM: OS&amp;Y/RSNRO, BONNET BOLTING AS PER MANUFACTURER'S STD WITH SURFACE PROTECTION</t>
+          <t>FLEXIBLE WEDGE, STEM: OS&amp;Y/RSNRO</t>
         </is>
       </c>
       <c r="I38" s="95" t="n"/>
@@ -5121,7 +11556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5233,7 +11668,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>GAV41H4J2G</t>
+          <t>GAV21A0B2B</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -5279,7 +11714,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>1/2, 1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -5329,7 +11764,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -5379,7 +11814,7 @@
       <c r="G6" s="61" t="n"/>
       <c r="H6" s="67" t="inlineStr">
         <is>
-          <t>FIRE WATER</t>
+          <t>HCN &amp; HCR</t>
         </is>
       </c>
       <c r="I6" s="95" t="n"/>
@@ -5603,7 +12038,11 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr"/>
+      <c r="L11" s="69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -5615,7 +12054,11 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr"/>
+      <c r="T11" s="69" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -5679,11 +12122,7 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr">
-        <is>
-          <t>NPTF</t>
-        </is>
-      </c>
+      <c r="AD12" s="68" t="inlineStr"/>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -5754,7 +12193,11 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="Q14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -5777,11 +12220,7 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr">
-        <is>
-          <t>ASME B1.20.1</t>
-        </is>
-      </c>
+      <c r="AF14" s="68" t="inlineStr"/>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -5860,7 +12299,7 @@
       <c r="G17" s="61" t="n"/>
       <c r="H17" s="69" t="inlineStr">
         <is>
-          <t>HANDWHEEL OPERATOR</t>
+          <t>GEAR OPERATOR</t>
         </is>
       </c>
       <c r="I17" s="95" t="n"/>
@@ -6069,7 +12508,11 @@
           <t>API 600</t>
         </is>
       </c>
-      <c r="I22" s="68" t="inlineStr"/>
+      <c r="I22" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J22" s="95" t="n"/>
       <c r="K22" s="61" t="n"/>
       <c r="L22" s="61" t="n"/>
@@ -6108,11 +12551,7 @@
           <t>OTHER</t>
         </is>
       </c>
-      <c r="AG22" s="68" t="inlineStr">
-        <is>
-          <t>MSS SP-80</t>
-        </is>
-      </c>
+      <c r="AG22" s="68" t="inlineStr"/>
       <c r="AH22" s="95" t="n"/>
       <c r="AI22" s="95" t="n"/>
       <c r="AJ22" s="28" t="n"/>
@@ -6162,7 +12601,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -6192,7 +12631,7 @@
       </c>
       <c r="AA24" s="61" t="n"/>
       <c r="AB24" s="69" t="n">
-        <v>-20</v>
+        <v>32</v>
       </c>
       <c r="AC24" s="95" t="n"/>
       <c r="AD24" s="24" t="inlineStr">
@@ -6252,7 +12691,11 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AB25" s="77" t="inlineStr">
+        <is>
+          <t>API 598</t>
+        </is>
+      </c>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -6501,7 +12944,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM B62 UNS C83600</t>
+          <t>ASTM A216 Gr.WCB</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -6528,7 +12971,7 @@
       </c>
       <c r="AC31" s="68" t="inlineStr">
         <is>
-          <t>LUBRICATED FIBER / GRAPHITE</t>
+          <t>GRAPHITE</t>
         </is>
       </c>
       <c r="AD31" s="95" t="n"/>
@@ -6553,7 +12996,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -6645,7 +13088,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="67" t="inlineStr">
         <is>
-          <t>BRONZE</t>
+          <t>BY MNF</t>
         </is>
       </c>
       <c r="I34" s="95" t="n"/>
@@ -6691,7 +13134,7 @@
       <c r="G35" s="42" t="n"/>
       <c r="H35" s="67" t="inlineStr">
         <is>
-          <t>RINGS: BRONZE</t>
+          <t>RENEWABLE</t>
         </is>
       </c>
       <c r="I35" s="95" t="n"/>
@@ -6821,7 +13264,7 @@
       <c r="G38" s="42" t="n"/>
       <c r="H38" s="67" t="inlineStr">
         <is>
-          <t>SOLID WEDGE, STEM: OS&amp;Y/RSNRO, INTEGRAL SEATS, DISC: BRONZE, SCREWED BONNET</t>
+          <t>FLEXIBLE WEDGE, STEM: OS&amp;Y/RSNRO</t>
         </is>
       </c>
       <c r="I38" s="95" t="n"/>
@@ -7115,7 +13558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7227,7 +13670,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>GLV415J4J2G</t>
+          <t>GLV24F0B2B</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -7273,7 +13716,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>2-1/2</t>
+          <t>1/2, 3/4</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -7323,7 +13766,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS1SC2</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -7373,7 +13816,7 @@
       <c r="G6" s="61" t="n"/>
       <c r="H6" s="67" t="inlineStr">
         <is>
-          <t>FIRE WATER</t>
+          <t>HCN &amp; HCR</t>
         </is>
       </c>
       <c r="I6" s="95" t="n"/>
@@ -7537,7 +13980,7 @@
       <c r="G10" s="61" t="n"/>
       <c r="H10" s="69" t="inlineStr">
         <is>
-          <t>ANGLE HOSE VALVE</t>
+          <t>GLOBE VALVE</t>
         </is>
       </c>
       <c r="I10" s="95" t="n"/>
@@ -7566,7 +14009,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>300 PSI CWP</t>
+          <t>800</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -7622,7 +14065,11 @@
         </is>
       </c>
       <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AC11" s="71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD11" s="95" t="n"/>
       <c r="AE11" s="66" t="inlineStr">
         <is>
@@ -7673,11 +14120,7 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr">
-        <is>
-          <t>NPTFxNH</t>
-        </is>
-      </c>
+      <c r="AD12" s="68" t="inlineStr"/>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -7760,7 +14203,11 @@
           <t>ASME B16.11</t>
         </is>
       </c>
-      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Y14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z14" s="95" t="n"/>
       <c r="AA14" s="95" t="n"/>
       <c r="AB14" s="61" t="n"/>
@@ -7771,11 +14218,7 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr">
-        <is>
-          <t>ASME B1.20.1 / NFPA 1963</t>
-        </is>
-      </c>
+      <c r="AF14" s="68" t="inlineStr"/>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -8093,7 +14536,11 @@
           <t>API 602</t>
         </is>
       </c>
-      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AA22" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB22" s="95" t="n"/>
       <c r="AC22" s="61" t="n"/>
       <c r="AD22" s="61" t="n"/>
@@ -8102,11 +14549,7 @@
           <t>OTHER</t>
         </is>
       </c>
-      <c r="AG22" s="68" t="inlineStr">
-        <is>
-          <t>MSS SP-80</t>
-        </is>
-      </c>
+      <c r="AG22" s="68" t="inlineStr"/>
       <c r="AH22" s="95" t="n"/>
       <c r="AI22" s="95" t="n"/>
       <c r="AJ22" s="28" t="n"/>
@@ -8156,7 +14599,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -8186,7 +14629,7 @@
       </c>
       <c r="AA24" s="61" t="n"/>
       <c r="AB24" s="69" t="n">
-        <v>-20</v>
+        <v>32</v>
       </c>
       <c r="AC24" s="95" t="n"/>
       <c r="AD24" s="24" t="inlineStr">
@@ -8246,7 +14689,11 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AB25" s="77" t="inlineStr">
+        <is>
+          <t>API 598</t>
+        </is>
+      </c>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -8495,7 +14942,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="89" t="inlineStr">
         <is>
-          <t>ASTM B62 UNS C83600</t>
+          <t>ASTM A105</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -8522,7 +14969,11 @@
       </c>
       <c r="AA31" s="42" t="n"/>
       <c r="AB31" s="42" t="n"/>
-      <c r="AC31" s="70" t="inlineStr"/>
+      <c r="AC31" s="70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="AD31" s="95" t="n"/>
       <c r="AE31" s="95" t="n"/>
       <c r="AF31" s="95" t="n"/>
@@ -8545,7 +14996,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -8574,7 +15025,7 @@
       <c r="AB32" s="42" t="n"/>
       <c r="AC32" s="70" t="inlineStr">
         <is>
-          <t>NON ASBESTOS ARAMID FIBERS WITH GRAPHITE</t>
+          <t>GRAPHITE</t>
         </is>
       </c>
       <c r="AD32" s="95" t="n"/>
@@ -8653,7 +15104,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="87" t="inlineStr">
         <is>
-          <t>BRONZE</t>
+          <t>BY MNF</t>
         </is>
       </c>
       <c r="I34" s="95" t="n"/>
@@ -8699,7 +15150,7 @@
       <c r="G35" s="42" t="n"/>
       <c r="H35" s="87" t="inlineStr">
         <is>
-          <t>DISC: RUBBER</t>
+          <t>RENEWABLE</t>
         </is>
       </c>
       <c r="I35" s="95" t="n"/>
@@ -8829,2058 +15280,7 @@
       <c r="G38" s="42" t="n"/>
       <c r="H38" s="87" t="inlineStr">
         <is>
-          <t>UL LISTED / FM APPROVED, OUTLET WITH CAP AND CHAIN, RISING STEM, RENEWABLE DISC, INTEGRAL SEAT, DISC: BRONZE, SCREWED-IN BONNET</t>
-        </is>
-      </c>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="n"/>
-      <c r="B39" s="42" t="n"/>
-      <c r="C39" s="42" t="n"/>
-      <c r="D39" s="42" t="n"/>
-      <c r="E39" s="42" t="n"/>
-      <c r="F39" s="42" t="n"/>
-      <c r="G39" s="42" t="n"/>
-      <c r="H39" s="87" t="n"/>
-      <c r="I39" s="95" t="n"/>
-      <c r="J39" s="95" t="n"/>
-      <c r="K39" s="95" t="n"/>
-      <c r="L39" s="95" t="n"/>
-      <c r="M39" s="95" t="n"/>
-      <c r="N39" s="95" t="n"/>
-      <c r="O39" s="95" t="n"/>
-      <c r="P39" s="95" t="n"/>
-      <c r="Q39" s="95" t="n"/>
-      <c r="R39" s="95" t="n"/>
-      <c r="S39" s="95" t="n"/>
-      <c r="T39" s="95" t="n"/>
-      <c r="U39" s="95" t="n"/>
-      <c r="V39" s="95" t="n"/>
-      <c r="W39" s="95" t="n"/>
-      <c r="X39" s="95" t="n"/>
-      <c r="Y39" s="95" t="n"/>
-      <c r="Z39" s="95" t="n"/>
-      <c r="AA39" s="95" t="n"/>
-      <c r="AB39" s="95" t="n"/>
-      <c r="AC39" s="95" t="n"/>
-      <c r="AD39" s="95" t="n"/>
-      <c r="AE39" s="95" t="n"/>
-      <c r="AF39" s="95" t="n"/>
-      <c r="AG39" s="95" t="n"/>
-      <c r="AH39" s="95" t="n"/>
-      <c r="AI39" s="95" t="n"/>
-      <c r="AJ39" s="16" t="n"/>
-    </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="61" t="n"/>
-      <c r="C40" s="61" t="n"/>
-      <c r="D40" s="61" t="n"/>
-      <c r="E40" s="61" t="n"/>
-      <c r="F40" s="61" t="n"/>
-      <c r="G40" s="61" t="n"/>
-      <c r="H40" s="40" t="n"/>
-      <c r="I40" s="40" t="n"/>
-      <c r="J40" s="40" t="n"/>
-      <c r="K40" s="40" t="n"/>
-      <c r="L40" s="40" t="n"/>
-      <c r="M40" s="40" t="n"/>
-      <c r="N40" s="40" t="n"/>
-      <c r="O40" s="40" t="n"/>
-      <c r="P40" s="40" t="n"/>
-      <c r="Q40" s="40" t="n"/>
-      <c r="R40" s="40" t="n"/>
-      <c r="S40" s="40" t="n"/>
-      <c r="T40" s="40" t="n"/>
-      <c r="U40" s="40" t="n"/>
-      <c r="V40" s="40" t="n"/>
-      <c r="W40" s="40" t="n"/>
-      <c r="X40" s="40" t="n"/>
-      <c r="Y40" s="40" t="n"/>
-      <c r="Z40" s="40" t="n"/>
-      <c r="AA40" s="40" t="n"/>
-      <c r="AB40" s="40" t="n"/>
-      <c r="AC40" s="40" t="n"/>
-      <c r="AD40" s="40" t="n"/>
-      <c r="AE40" s="40" t="n"/>
-      <c r="AF40" s="40" t="n"/>
-      <c r="AG40" s="40" t="n"/>
-      <c r="AH40" s="40" t="n"/>
-      <c r="AI40" s="40" t="n"/>
-      <c r="AJ40" s="26" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="37" t="n"/>
-      <c r="B41" s="61" t="n"/>
-      <c r="C41" s="61" t="n"/>
-      <c r="D41" s="61" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="61" t="n"/>
-      <c r="G41" s="61" t="n"/>
-      <c r="H41" s="61" t="n"/>
-      <c r="I41" s="61" t="n"/>
-      <c r="J41" s="61" t="n"/>
-      <c r="K41" s="61" t="n"/>
-      <c r="L41" s="61" t="n"/>
-      <c r="M41" s="61" t="n"/>
-      <c r="N41" s="61" t="n"/>
-      <c r="O41" s="61" t="n"/>
-      <c r="P41" s="61" t="n"/>
-      <c r="Q41" s="61" t="n"/>
-      <c r="R41" s="61" t="n"/>
-      <c r="S41" s="59" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T41" s="61" t="n"/>
-      <c r="U41" s="61" t="n"/>
-      <c r="V41" s="61" t="n"/>
-      <c r="W41" s="61" t="n"/>
-      <c r="X41" s="61" t="n"/>
-      <c r="Y41" s="61" t="n"/>
-      <c r="Z41" s="61" t="n"/>
-      <c r="AA41" s="61" t="n"/>
-      <c r="AB41" s="61" t="n"/>
-      <c r="AC41" s="61" t="n"/>
-      <c r="AD41" s="61" t="n"/>
-      <c r="AE41" s="61" t="n"/>
-      <c r="AF41" s="61" t="n"/>
-      <c r="AG41" s="61" t="n"/>
-      <c r="AH41" s="61" t="n"/>
-      <c r="AI41" s="61" t="n"/>
-      <c r="AJ41" s="28" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A42" s="37" t="n"/>
-      <c r="B42" s="61" t="n"/>
-      <c r="C42" s="61" t="n"/>
-      <c r="D42" s="61" t="n"/>
-      <c r="E42" s="61" t="n"/>
-      <c r="F42" s="61" t="n"/>
-      <c r="G42" s="61" t="n"/>
-      <c r="H42" s="61" t="n"/>
-      <c r="I42" s="61" t="n"/>
-      <c r="J42" s="61" t="n"/>
-      <c r="K42" s="61" t="n"/>
-      <c r="L42" s="61" t="n"/>
-      <c r="M42" s="61" t="n"/>
-      <c r="N42" s="61" t="n"/>
-      <c r="O42" s="61" t="n"/>
-      <c r="P42" s="61" t="n"/>
-      <c r="Q42" s="61" t="n"/>
-      <c r="R42" s="61" t="n"/>
-      <c r="S42" s="61" t="n"/>
-      <c r="T42" s="61" t="n"/>
-      <c r="U42" s="61" t="n"/>
-      <c r="V42" s="61" t="n"/>
-      <c r="W42" s="61" t="n"/>
-      <c r="X42" s="61" t="n"/>
-      <c r="Y42" s="61" t="n"/>
-      <c r="Z42" s="61" t="n"/>
-      <c r="AA42" s="61" t="n"/>
-      <c r="AB42" s="61" t="n"/>
-      <c r="AC42" s="61" t="n"/>
-      <c r="AD42" s="61" t="n"/>
-      <c r="AE42" s="61" t="n"/>
-      <c r="AF42" s="61" t="n"/>
-      <c r="AG42" s="61" t="n"/>
-      <c r="AH42" s="61" t="n"/>
-      <c r="AI42" s="61" t="n"/>
-      <c r="AJ42" s="28" t="n"/>
-    </row>
-    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 
-</t>
-        </is>
-      </c>
-      <c r="B43" s="88" t="inlineStr">
-        <is>
-          <t>Piping Class Doc: MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C43" s="97" t="n"/>
-      <c r="D43" s="97" t="n"/>
-      <c r="E43" s="97" t="n"/>
-      <c r="F43" s="97" t="n"/>
-      <c r="G43" s="97" t="n"/>
-      <c r="H43" s="97" t="n"/>
-      <c r="I43" s="97" t="n"/>
-      <c r="J43" s="97" t="n"/>
-      <c r="K43" s="97" t="n"/>
-      <c r="L43" s="97" t="n"/>
-      <c r="M43" s="97" t="n"/>
-      <c r="N43" s="97" t="n"/>
-      <c r="O43" s="97" t="n"/>
-      <c r="P43" s="97" t="n"/>
-      <c r="Q43" s="97" t="n"/>
-      <c r="R43" s="97" t="n"/>
-      <c r="S43" s="97" t="n"/>
-      <c r="T43" s="97" t="n"/>
-      <c r="U43" s="97" t="n"/>
-      <c r="V43" s="97" t="n"/>
-      <c r="W43" s="97" t="n"/>
-      <c r="X43" s="97" t="n"/>
-      <c r="Y43" s="97" t="n"/>
-      <c r="Z43" s="97" t="n"/>
-      <c r="AA43" s="97" t="n"/>
-      <c r="AB43" s="97" t="n"/>
-      <c r="AC43" s="97" t="n"/>
-      <c r="AD43" s="97" t="n"/>
-      <c r="AE43" s="97" t="n"/>
-      <c r="AF43" s="97" t="n"/>
-      <c r="AG43" s="97" t="n"/>
-      <c r="AH43" s="97" t="n"/>
-      <c r="AI43" s="97" t="n"/>
-      <c r="AJ43" s="99" t="n"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="n"/>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
-      <c r="P44" s="2" t="n"/>
-      <c r="Q44" s="2" t="n"/>
-      <c r="R44" s="2" t="n"/>
-      <c r="S44" s="2" t="n"/>
-      <c r="T44" s="2" t="n"/>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="n"/>
-      <c r="W44" s="2" t="n"/>
-      <c r="X44" s="2" t="n"/>
-      <c r="Y44" s="2" t="n"/>
-      <c r="Z44" s="2" t="n"/>
-      <c r="AA44" s="2" t="n"/>
-      <c r="AB44" s="2" t="n"/>
-      <c r="AC44" s="2" t="n"/>
-      <c r="AD44" s="2" t="n"/>
-      <c r="AE44" s="2" t="n"/>
-      <c r="AF44" s="2" t="n"/>
-      <c r="AG44" s="2" t="n"/>
-      <c r="AH44" s="2" t="n"/>
-      <c r="AI44" s="2" t="n"/>
-      <c r="AJ44" s="2" t="n"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="B45:AH45"/>
-    <mergeCell ref="B43:AJ43"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="H32:X32"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="H35:AI35"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="H33:X33"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="H39:AI39"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="AC32:AI32"/>
-    <mergeCell ref="AC33:AI33"/>
-    <mergeCell ref="H34:AI34"/>
-  </mergeCells>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AJ45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
-    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-      <c r="AA1" s="12" t="n"/>
-      <c r="AB1" s="12" t="n"/>
-      <c r="AC1" s="12" t="n"/>
-      <c r="AD1" s="12" t="n"/>
-      <c r="AE1" s="12" t="n"/>
-      <c r="AF1" s="12" t="n"/>
-      <c r="AG1" s="12" t="n"/>
-      <c r="AH1" s="12" t="n"/>
-      <c r="AI1" s="12" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A2" s="37" t="n"/>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="61" t="n"/>
-      <c r="D2" s="61" t="n"/>
-      <c r="E2" s="61" t="n"/>
-      <c r="F2" s="61" t="n"/>
-      <c r="G2" s="61" t="n"/>
-      <c r="H2" s="61" t="n"/>
-      <c r="I2" s="61" t="n"/>
-      <c r="J2" s="61" t="n"/>
-      <c r="K2" s="61" t="n"/>
-      <c r="L2" s="61" t="n"/>
-      <c r="M2" s="61" t="n"/>
-      <c r="N2" s="61" t="n"/>
-      <c r="O2" s="61" t="n"/>
-      <c r="P2" s="61" t="n"/>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="61" t="n"/>
-      <c r="S2" s="61" t="n"/>
-      <c r="T2" s="61" t="n"/>
-      <c r="U2" s="61" t="n"/>
-      <c r="V2" s="61" t="n"/>
-      <c r="W2" s="61" t="n"/>
-      <c r="X2" s="61" t="n"/>
-      <c r="Y2" s="61" t="n"/>
-      <c r="Z2" s="61" t="n"/>
-      <c r="AA2" s="61" t="n"/>
-      <c r="AB2" s="61" t="n"/>
-      <c r="AC2" s="61" t="n"/>
-      <c r="AD2" s="61" t="n"/>
-      <c r="AE2" s="61" t="n"/>
-      <c r="AF2" s="61" t="n"/>
-      <c r="AG2" s="61" t="n"/>
-      <c r="AH2" s="61" t="n"/>
-      <c r="AI2" s="61" t="n"/>
-      <c r="AJ2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>TAG. No.</t>
-        </is>
-      </c>
-      <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>GLV41H4J2G</t>
-        </is>
-      </c>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="61" t="n"/>
-      <c r="M3" s="61" t="n"/>
-      <c r="N3" s="61" t="n"/>
-      <c r="O3" s="61" t="n"/>
-      <c r="P3" s="48" t="n"/>
-      <c r="Q3" s="48" t="n"/>
-      <c r="R3" s="48" t="n"/>
-      <c r="S3" s="48" t="n"/>
-      <c r="T3" s="48" t="n"/>
-      <c r="U3" s="48" t="n"/>
-      <c r="V3" s="48" t="n"/>
-      <c r="W3" s="48" t="n"/>
-      <c r="X3" s="48" t="n"/>
-      <c r="Y3" s="48" t="n"/>
-      <c r="Z3" s="48" t="n"/>
-      <c r="AA3" s="48" t="n"/>
-      <c r="AB3" s="48" t="n"/>
-      <c r="AC3" s="48" t="n"/>
-      <c r="AD3" s="48" t="n"/>
-      <c r="AE3" s="48" t="n"/>
-      <c r="AF3" s="48" t="n"/>
-      <c r="AG3" s="48" t="n"/>
-      <c r="AH3" s="48" t="n"/>
-      <c r="AI3" s="48" t="n"/>
-      <c r="AJ3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>SIZE :</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="96" t="inlineStr">
-        <is>
-          <t>3/4, 1-1/2, 2</t>
-        </is>
-      </c>
-      <c r="I4" s="97" t="n"/>
-      <c r="J4" s="97" t="n"/>
-      <c r="K4" s="49" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="61" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="61" t="n"/>
-      <c r="S4" s="61" t="n"/>
-      <c r="T4" s="61" t="n"/>
-      <c r="U4" s="61" t="n"/>
-      <c r="V4" s="61" t="n"/>
-      <c r="W4" s="61" t="n"/>
-      <c r="X4" s="61" t="n"/>
-      <c r="Y4" s="61" t="n"/>
-      <c r="Z4" s="61" t="n"/>
-      <c r="AA4" s="61" t="n"/>
-      <c r="AB4" s="61" t="n"/>
-      <c r="AC4" s="61" t="n"/>
-      <c r="AD4" s="61" t="n"/>
-      <c r="AE4" s="61" t="n"/>
-      <c r="AF4" s="61" t="n"/>
-      <c r="AG4" s="61" t="n"/>
-      <c r="AH4" s="61" t="n"/>
-      <c r="AI4" s="50" t="n"/>
-      <c r="AJ4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>PIPING CLASS :</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n"/>
-      <c r="C5" s="47" t="n"/>
-      <c r="D5" s="47" t="n"/>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="69" t="inlineStr">
-        <is>
-          <t>CS1SC2</t>
-        </is>
-      </c>
-      <c r="I5" s="95" t="n"/>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="95" t="n"/>
-      <c r="L5" s="95" t="n"/>
-      <c r="M5" s="95" t="n"/>
-      <c r="N5" s="95" t="n"/>
-      <c r="O5" s="47" t="n"/>
-      <c r="P5" s="47" t="n"/>
-      <c r="Q5" s="47" t="n"/>
-      <c r="R5" s="47" t="n"/>
-      <c r="S5" s="47" t="n"/>
-      <c r="T5" s="47" t="n"/>
-      <c r="U5" s="47" t="n"/>
-      <c r="V5" s="61" t="n"/>
-      <c r="W5" s="24" t="inlineStr">
-        <is>
-          <t>PLANT LOCATION:</t>
-        </is>
-      </c>
-      <c r="X5" s="61" t="n"/>
-      <c r="Y5" s="61" t="n"/>
-      <c r="Z5" s="61" t="n"/>
-      <c r="AA5" s="61" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="95" t="n"/>
-      <c r="AD5" s="95" t="n"/>
-      <c r="AE5" s="95" t="n"/>
-      <c r="AF5" s="95" t="n"/>
-      <c r="AG5" s="95" t="n"/>
-      <c r="AH5" s="95" t="n"/>
-      <c r="AI5" s="95" t="n"/>
-      <c r="AJ5" s="65" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>SERVICE (Note 1):</t>
-        </is>
-      </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="61" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="61" t="n"/>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
-        <is>
-          <t>FIRE WATER</t>
-        </is>
-      </c>
-      <c r="I6" s="95" t="n"/>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="95" t="n"/>
-      <c r="L6" s="95" t="n"/>
-      <c r="M6" s="95" t="n"/>
-      <c r="N6" s="95" t="n"/>
-      <c r="O6" s="95" t="n"/>
-      <c r="P6" s="95" t="n"/>
-      <c r="Q6" s="95" t="n"/>
-      <c r="R6" s="95" t="n"/>
-      <c r="S6" s="95" t="n"/>
-      <c r="T6" s="95" t="n"/>
-      <c r="U6" s="95" t="n"/>
-      <c r="V6" s="95" t="n"/>
-      <c r="W6" s="95" t="n"/>
-      <c r="X6" s="95" t="n"/>
-      <c r="Y6" s="95" t="n"/>
-      <c r="Z6" s="95" t="n"/>
-      <c r="AA6" s="95" t="n"/>
-      <c r="AB6" s="95" t="n"/>
-      <c r="AC6" s="95" t="n"/>
-      <c r="AD6" s="95" t="n"/>
-      <c r="AE6" s="95" t="n"/>
-      <c r="AF6" s="95" t="n"/>
-      <c r="AG6" s="95" t="n"/>
-      <c r="AH6" s="95" t="n"/>
-      <c r="AI6" s="95" t="n"/>
-      <c r="AJ6" s="65" t="n"/>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="37" t="n"/>
-      <c r="B7" s="61" t="n"/>
-      <c r="C7" s="61" t="n"/>
-      <c r="D7" s="61" t="n"/>
-      <c r="E7" s="61" t="n"/>
-      <c r="F7" s="61" t="n"/>
-      <c r="G7" s="61" t="n"/>
-      <c r="H7" s="61" t="n"/>
-      <c r="I7" s="61" t="n"/>
-      <c r="J7" s="61" t="n"/>
-      <c r="K7" s="61" t="n"/>
-      <c r="L7" s="61" t="n"/>
-      <c r="M7" s="61" t="n"/>
-      <c r="N7" s="61" t="n"/>
-      <c r="O7" s="61" t="n"/>
-      <c r="P7" s="61" t="n"/>
-      <c r="Q7" s="61" t="n"/>
-      <c r="R7" s="61" t="n"/>
-      <c r="S7" s="61" t="n"/>
-      <c r="T7" s="61" t="n"/>
-      <c r="U7" s="61" t="n"/>
-      <c r="V7" s="61" t="n"/>
-      <c r="W7" s="61" t="n"/>
-      <c r="X7" s="61" t="n"/>
-      <c r="Y7" s="61" t="n"/>
-      <c r="Z7" s="61" t="n"/>
-      <c r="AA7" s="61" t="n"/>
-      <c r="AB7" s="61" t="n"/>
-      <c r="AC7" s="61" t="n"/>
-      <c r="AD7" s="61" t="n"/>
-      <c r="AE7" s="61" t="n"/>
-      <c r="AF7" s="61" t="n"/>
-      <c r="AG7" s="61" t="n"/>
-      <c r="AH7" s="61" t="n"/>
-      <c r="AI7" s="61" t="n"/>
-      <c r="AJ7" s="28" t="n"/>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A8" s="15" t="n"/>
-      <c r="B8" s="51" t="n"/>
-      <c r="C8" s="51" t="n"/>
-      <c r="D8" s="51" t="n"/>
-      <c r="E8" s="51" t="n"/>
-      <c r="F8" s="51" t="n"/>
-      <c r="G8" s="51" t="n"/>
-      <c r="H8" s="51" t="n"/>
-      <c r="I8" s="51" t="n"/>
-      <c r="J8" s="51" t="n"/>
-      <c r="K8" s="51" t="n"/>
-      <c r="L8" s="51" t="n"/>
-      <c r="M8" s="51" t="n"/>
-      <c r="N8" s="51" t="n"/>
-      <c r="O8" s="51" t="n"/>
-      <c r="P8" s="51" t="n"/>
-      <c r="Q8" s="51" t="n"/>
-      <c r="R8" s="51" t="n"/>
-      <c r="S8" s="52" t="inlineStr">
-        <is>
-          <t>M E C H A N I C A L</t>
-        </is>
-      </c>
-      <c r="T8" s="51" t="n"/>
-      <c r="U8" s="51" t="n"/>
-      <c r="V8" s="51" t="n"/>
-      <c r="W8" s="51" t="n"/>
-      <c r="X8" s="51" t="n"/>
-      <c r="Y8" s="51" t="n"/>
-      <c r="Z8" s="51" t="n"/>
-      <c r="AA8" s="51" t="n"/>
-      <c r="AB8" s="51" t="n"/>
-      <c r="AC8" s="51" t="n"/>
-      <c r="AD8" s="51" t="n"/>
-      <c r="AE8" s="51" t="n"/>
-      <c r="AF8" s="51" t="n"/>
-      <c r="AG8" s="51" t="n"/>
-      <c r="AH8" s="51" t="n"/>
-      <c r="AI8" s="51" t="n"/>
-      <c r="AJ8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="61" t="n"/>
-      <c r="D9" s="61" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="61" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="61" t="n"/>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="61" t="n"/>
-      <c r="K9" s="61" t="n"/>
-      <c r="L9" s="61" t="n"/>
-      <c r="M9" s="61" t="n"/>
-      <c r="N9" s="61" t="n"/>
-      <c r="O9" s="61" t="n"/>
-      <c r="P9" s="61" t="n"/>
-      <c r="Q9" s="61" t="n"/>
-      <c r="R9" s="61" t="n"/>
-      <c r="S9" s="61" t="n"/>
-      <c r="T9" s="61" t="n"/>
-      <c r="U9" s="61" t="n"/>
-      <c r="V9" s="61" t="n"/>
-      <c r="W9" s="61" t="n"/>
-      <c r="X9" s="61" t="n"/>
-      <c r="Y9" s="61" t="n"/>
-      <c r="Z9" s="61" t="n"/>
-      <c r="AA9" s="61" t="n"/>
-      <c r="AB9" s="61" t="n"/>
-      <c r="AC9" s="61" t="n"/>
-      <c r="AD9" s="61" t="n"/>
-      <c r="AE9" s="61" t="n"/>
-      <c r="AF9" s="61" t="n"/>
-      <c r="AG9" s="61" t="n"/>
-      <c r="AH9" s="61" t="n"/>
-      <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>VALVE TYPE :</t>
-        </is>
-      </c>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="61" t="n"/>
-      <c r="D10" s="61" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="61" t="n"/>
-      <c r="G10" s="61" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE</t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="95" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="95" t="n"/>
-      <c r="M10" s="95" t="n"/>
-      <c r="N10" s="95" t="n"/>
-      <c r="O10" s="95" t="n"/>
-      <c r="P10" s="95" t="n"/>
-      <c r="Q10" s="95" t="n"/>
-      <c r="R10" s="95" t="n"/>
-      <c r="S10" s="95" t="n"/>
-      <c r="T10" s="95" t="n"/>
-      <c r="U10" s="95" t="n"/>
-      <c r="V10" s="95" t="n"/>
-      <c r="W10" s="95" t="n"/>
-      <c r="X10" s="61" t="n"/>
-      <c r="Y10" s="61" t="n"/>
-      <c r="Z10" s="61" t="n"/>
-      <c r="AA10" s="61" t="n"/>
-      <c r="AB10" s="49" t="inlineStr">
-        <is>
-          <t>RATING / CLASS:</t>
-        </is>
-      </c>
-      <c r="AC10" s="70" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="AD10" s="95" t="n"/>
-      <c r="AE10" s="95" t="n"/>
-      <c r="AF10" s="95" t="n"/>
-      <c r="AG10" s="95" t="n"/>
-      <c r="AH10" s="95" t="n"/>
-      <c r="AI10" s="95" t="n"/>
-      <c r="AJ10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>END CONNECTIONS:</t>
-        </is>
-      </c>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="61" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="61" t="n"/>
-      <c r="G11" s="61" t="n"/>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLANGED </t>
-        </is>
-      </c>
-      <c r="I11" s="61" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr"/>
-      <c r="M11" s="95" t="n"/>
-      <c r="N11" s="61" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="61" t="n"/>
-      <c r="Q11" s="61" t="n"/>
-      <c r="R11" s="49" t="inlineStr">
-        <is>
-          <t>FACING:</t>
-        </is>
-      </c>
-      <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr"/>
-      <c r="U11" s="95" t="n"/>
-      <c r="V11" s="61" t="n"/>
-      <c r="W11" s="61" t="n"/>
-      <c r="X11" s="61" t="n"/>
-      <c r="Y11" s="61" t="n"/>
-      <c r="Z11" s="61" t="n"/>
-      <c r="AA11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOCKETWELD </t>
-        </is>
-      </c>
-      <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
-      <c r="AD11" s="95" t="n"/>
-      <c r="AE11" s="66" t="inlineStr">
-        <is>
-          <t>SCREWED</t>
-        </is>
-      </c>
-      <c r="AF11" s="66" t="n"/>
-      <c r="AG11" s="66" t="n"/>
-      <c r="AH11" s="72" t="inlineStr"/>
-      <c r="AI11" s="95" t="n"/>
-      <c r="AJ11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="37" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="61" t="n"/>
-      <c r="D12" s="61" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="61" t="n"/>
-      <c r="G12" s="61" t="n"/>
-      <c r="H12" s="54" t="inlineStr">
-        <is>
-          <t>BUTTWELD</t>
-        </is>
-      </c>
-      <c r="I12" s="61" t="n"/>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="61" t="n"/>
-      <c r="L12" s="68" t="inlineStr"/>
-      <c r="M12" s="95" t="n"/>
-      <c r="N12" s="95" t="n"/>
-      <c r="O12" s="95" t="n"/>
-      <c r="P12" s="95" t="n"/>
-      <c r="Q12" s="95" t="n"/>
-      <c r="R12" s="95" t="n"/>
-      <c r="S12" s="95" t="n"/>
-      <c r="T12" s="95" t="n"/>
-      <c r="U12" s="95" t="n"/>
-      <c r="V12" s="95" t="n"/>
-      <c r="W12" s="61" t="n"/>
-      <c r="X12" s="61" t="n"/>
-      <c r="Y12" s="61" t="n"/>
-      <c r="Z12" s="61" t="n"/>
-      <c r="AA12" s="61" t="n"/>
-      <c r="AB12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-      <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr">
-        <is>
-          <t>NPTF</t>
-        </is>
-      </c>
-      <c r="AE12" s="95" t="n"/>
-      <c r="AF12" s="95" t="n"/>
-      <c r="AG12" s="95" t="n"/>
-      <c r="AH12" s="95" t="n"/>
-      <c r="AI12" s="95" t="n"/>
-      <c r="AJ12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A13" s="37" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="61" t="n"/>
-      <c r="D13" s="61" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="61" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="61" t="n"/>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="61" t="n"/>
-      <c r="L13" s="61" t="n"/>
-      <c r="M13" s="61" t="n"/>
-      <c r="N13" s="61" t="n"/>
-      <c r="O13" s="61" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="61" t="n"/>
-      <c r="R13" s="61" t="n"/>
-      <c r="S13" s="61" t="n"/>
-      <c r="T13" s="61" t="n"/>
-      <c r="U13" s="61" t="n"/>
-      <c r="V13" s="61" t="n"/>
-      <c r="W13" s="61" t="n"/>
-      <c r="X13" s="61" t="n"/>
-      <c r="Y13" s="61" t="n"/>
-      <c r="Z13" s="61" t="n"/>
-      <c r="AA13" s="61" t="n"/>
-      <c r="AB13" s="53" t="n"/>
-      <c r="AC13" s="61" t="n"/>
-      <c r="AD13" s="61" t="n"/>
-      <c r="AE13" s="61" t="n"/>
-      <c r="AF13" s="61" t="n"/>
-      <c r="AG13" s="61" t="n"/>
-      <c r="AH13" s="61" t="n"/>
-      <c r="AI13" s="61" t="n"/>
-      <c r="AJ13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
-        </is>
-      </c>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="61" t="n"/>
-      <c r="D14" s="61" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="61" t="n"/>
-      <c r="G14" s="61" t="n"/>
-      <c r="H14" s="61" t="n"/>
-      <c r="I14" s="61" t="n"/>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="61" t="n"/>
-      <c r="L14" s="61" t="n"/>
-      <c r="M14" s="61" t="n"/>
-      <c r="N14" s="61" t="n"/>
-      <c r="O14" s="61" t="n"/>
-      <c r="P14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.5</t>
-        </is>
-      </c>
-      <c r="Q14" s="68" t="inlineStr"/>
-      <c r="R14" s="95" t="n"/>
-      <c r="S14" s="95" t="n"/>
-      <c r="T14" s="61" t="n"/>
-      <c r="U14" s="61" t="n"/>
-      <c r="V14" s="61" t="n"/>
-      <c r="W14" s="61" t="n"/>
-      <c r="X14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.11</t>
-        </is>
-      </c>
-      <c r="Y14" s="68" t="inlineStr"/>
-      <c r="Z14" s="95" t="n"/>
-      <c r="AA14" s="95" t="n"/>
-      <c r="AB14" s="61" t="n"/>
-      <c r="AC14" s="61" t="n"/>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr">
-        <is>
-          <t>ASME B1.20.1</t>
-        </is>
-      </c>
-      <c r="AG14" s="95" t="n"/>
-      <c r="AH14" s="95" t="n"/>
-      <c r="AI14" s="95" t="n"/>
-      <c r="AJ14" s="16" t="n"/>
-    </row>
-    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="61" t="n"/>
-      <c r="D15" s="61" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="61" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="n"/>
-      <c r="I15" s="61" t="n"/>
-      <c r="J15" s="80" t="n"/>
-      <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="n"/>
-      <c r="R15" s="61" t="n"/>
-      <c r="S15" s="61" t="n"/>
-      <c r="T15" s="80" t="n"/>
-      <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="n"/>
-      <c r="AA15" s="61" t="n"/>
-      <c r="AB15" s="61" t="n"/>
-      <c r="AC15" s="61" t="n"/>
-      <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="84" t="n"/>
-      <c r="AJ15" s="98" t="n"/>
-    </row>
-    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="n"/>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="61" t="n"/>
-      <c r="D16" s="61" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="61" t="n"/>
-      <c r="G16" s="61" t="n"/>
-      <c r="H16" s="61" t="n"/>
-      <c r="I16" s="61" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="61" t="n"/>
-      <c r="L16" s="61" t="n"/>
-      <c r="M16" s="61" t="n"/>
-      <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="n"/>
-      <c r="P16" s="80" t="n"/>
-      <c r="S16" s="61" t="n"/>
-      <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="n"/>
-      <c r="V16" s="61" t="n"/>
-      <c r="W16" s="61" t="n"/>
-      <c r="X16" s="61" t="n"/>
-      <c r="Y16" s="55" t="n"/>
-      <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="80" t="n"/>
-      <c r="AD16" s="61" t="n"/>
-      <c r="AE16" s="61" t="n"/>
-      <c r="AF16" s="61" t="n"/>
-      <c r="AG16" s="61" t="n"/>
-      <c r="AH16" s="61" t="n"/>
-      <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="28" t="n"/>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A17" s="17" t="inlineStr">
-        <is>
-          <t>TYPE OPERATOR :</t>
-        </is>
-      </c>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="61" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="69" t="inlineStr">
-        <is>
-          <t>HANDWHEEL OPERATOR</t>
-        </is>
-      </c>
-      <c r="I17" s="95" t="n"/>
-      <c r="J17" s="95" t="n"/>
-      <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="n"/>
-      <c r="M17" s="95" t="n"/>
-      <c r="N17" s="95" t="n"/>
-      <c r="O17" s="61" t="n"/>
-      <c r="P17" s="61" t="n"/>
-      <c r="Q17" s="61" t="n"/>
-      <c r="R17" s="61" t="n"/>
-      <c r="S17" s="61" t="n"/>
-      <c r="T17" s="61" t="n"/>
-      <c r="U17" s="61" t="n"/>
-      <c r="V17" s="61" t="n"/>
-      <c r="W17" s="61" t="n"/>
-      <c r="X17" s="61" t="n"/>
-      <c r="Y17" s="61" t="n"/>
-      <c r="Z17" s="61" t="n"/>
-      <c r="AA17" s="61" t="n"/>
-      <c r="AB17" s="61" t="n"/>
-      <c r="AC17" s="61" t="n"/>
-      <c r="AD17" s="61" t="n"/>
-      <c r="AE17" s="61" t="n"/>
-      <c r="AF17" s="61" t="n"/>
-      <c r="AG17" s="61" t="n"/>
-      <c r="AH17" s="61" t="n"/>
-      <c r="AI17" s="61" t="n"/>
-      <c r="AJ17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A18" s="37" t="n"/>
-      <c r="B18" s="61" t="n"/>
-      <c r="C18" s="61" t="n"/>
-      <c r="D18" s="61" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="61" t="n"/>
-      <c r="G18" s="61" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="61" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="61" t="n"/>
-      <c r="L18" s="61" t="n"/>
-      <c r="M18" s="61" t="n"/>
-      <c r="N18" s="61" t="n"/>
-      <c r="O18" s="61" t="n"/>
-      <c r="P18" s="61" t="n"/>
-      <c r="Q18" s="61" t="n"/>
-      <c r="R18" s="61" t="n"/>
-      <c r="S18" s="61" t="n"/>
-      <c r="T18" s="61" t="n"/>
-      <c r="U18" s="61" t="n"/>
-      <c r="V18" s="61" t="n"/>
-      <c r="W18" s="61" t="n"/>
-      <c r="X18" s="61" t="n"/>
-      <c r="Y18" s="55" t="n"/>
-      <c r="Z18" s="61" t="n"/>
-      <c r="AA18" s="61" t="n"/>
-      <c r="AB18" s="61" t="n"/>
-      <c r="AC18" s="61" t="n"/>
-      <c r="AD18" s="61" t="n"/>
-      <c r="AE18" s="61" t="n"/>
-      <c r="AF18" s="61" t="n"/>
-      <c r="AG18" s="61" t="n"/>
-      <c r="AH18" s="61" t="n"/>
-      <c r="AI18" s="61" t="n"/>
-      <c r="AJ18" s="28" t="n"/>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="51" t="n"/>
-      <c r="C19" s="51" t="n"/>
-      <c r="D19" s="51" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
-      <c r="G19" s="51" t="n"/>
-      <c r="H19" s="51" t="n"/>
-      <c r="I19" s="51" t="n"/>
-      <c r="J19" s="51" t="n"/>
-      <c r="K19" s="51" t="n"/>
-      <c r="L19" s="51" t="n"/>
-      <c r="M19" s="51" t="n"/>
-      <c r="N19" s="51" t="n"/>
-      <c r="O19" s="51" t="n"/>
-      <c r="P19" s="51" t="n"/>
-      <c r="Q19" s="51" t="n"/>
-      <c r="R19" s="51" t="n"/>
-      <c r="S19" s="52" t="inlineStr">
-        <is>
-          <t>D E S I G N</t>
-        </is>
-      </c>
-      <c r="T19" s="51" t="n"/>
-      <c r="U19" s="51" t="n"/>
-      <c r="V19" s="51" t="n"/>
-      <c r="W19" s="51" t="n"/>
-      <c r="X19" s="51" t="n"/>
-      <c r="Y19" s="51" t="n"/>
-      <c r="Z19" s="51" t="n"/>
-      <c r="AA19" s="51" t="n"/>
-      <c r="AB19" s="51" t="n"/>
-      <c r="AC19" s="51" t="n"/>
-      <c r="AD19" s="51" t="n"/>
-      <c r="AE19" s="51" t="n"/>
-      <c r="AF19" s="51" t="n"/>
-      <c r="AG19" s="51" t="n"/>
-      <c r="AH19" s="51" t="n"/>
-      <c r="AI19" s="51" t="n"/>
-      <c r="AJ19" s="16" t="n"/>
-    </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A20" s="37" t="n"/>
-      <c r="B20" s="61" t="n"/>
-      <c r="C20" s="61" t="n"/>
-      <c r="D20" s="61" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="61" t="n"/>
-      <c r="H20" s="61" t="n"/>
-      <c r="I20" s="61" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="61" t="n"/>
-      <c r="L20" s="61" t="n"/>
-      <c r="M20" s="61" t="n"/>
-      <c r="N20" s="61" t="n"/>
-      <c r="O20" s="61" t="n"/>
-      <c r="P20" s="61" t="n"/>
-      <c r="Q20" s="61" t="n"/>
-      <c r="R20" s="61" t="n"/>
-      <c r="S20" s="61" t="n"/>
-      <c r="T20" s="61" t="n"/>
-      <c r="U20" s="61" t="n"/>
-      <c r="V20" s="61" t="n"/>
-      <c r="W20" s="61" t="n"/>
-      <c r="X20" s="61" t="n"/>
-      <c r="Y20" s="61" t="n"/>
-      <c r="Z20" s="61" t="n"/>
-      <c r="AA20" s="61" t="n"/>
-      <c r="AB20" s="61" t="n"/>
-      <c r="AC20" s="61" t="n"/>
-      <c r="AD20" s="61" t="n"/>
-      <c r="AE20" s="61" t="n"/>
-      <c r="AF20" s="61" t="n"/>
-      <c r="AG20" s="61" t="n"/>
-      <c r="AH20" s="61" t="n"/>
-      <c r="AI20" s="61" t="n"/>
-      <c r="AJ20" s="28" t="n"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>APPLICABLE PIPING</t>
-        </is>
-      </c>
-      <c r="B21" s="61" t="n"/>
-      <c r="C21" s="61" t="n"/>
-      <c r="D21" s="61" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="61" t="n"/>
-      <c r="H21" s="61" t="n"/>
-      <c r="I21" s="61" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="61" t="n"/>
-      <c r="L21" s="61" t="n"/>
-      <c r="M21" s="61" t="n"/>
-      <c r="N21" s="61" t="n"/>
-      <c r="O21" s="61" t="n"/>
-      <c r="P21" s="61" t="n"/>
-      <c r="Q21" s="61" t="n"/>
-      <c r="R21" s="61" t="n"/>
-      <c r="S21" s="61" t="n"/>
-      <c r="T21" s="61" t="n"/>
-      <c r="U21" s="61" t="n"/>
-      <c r="V21" s="61" t="n"/>
-      <c r="W21" s="61" t="n"/>
-      <c r="X21" s="61" t="n"/>
-      <c r="Y21" s="61" t="n"/>
-      <c r="Z21" s="61" t="n"/>
-      <c r="AA21" s="61" t="n"/>
-      <c r="AB21" s="61" t="n"/>
-      <c r="AC21" s="61" t="n"/>
-      <c r="AD21" s="61" t="n"/>
-      <c r="AE21" s="61" t="n"/>
-      <c r="AF21" s="61" t="n"/>
-      <c r="AG21" s="61" t="n"/>
-      <c r="AH21" s="61" t="n"/>
-      <c r="AI21" s="61" t="n"/>
-      <c r="AJ21" s="28" t="n"/>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DESIGN CODE:       </t>
-        </is>
-      </c>
-      <c r="B22" s="61" t="n"/>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>API 600</t>
-        </is>
-      </c>
-      <c r="I22" s="68" t="inlineStr"/>
-      <c r="J22" s="95" t="n"/>
-      <c r="K22" s="61" t="n"/>
-      <c r="L22" s="61" t="n"/>
-      <c r="M22" s="81" t="inlineStr">
-        <is>
-          <t>API 6D</t>
-        </is>
-      </c>
-      <c r="N22" s="61" t="n"/>
-      <c r="O22" s="68" t="inlineStr"/>
-      <c r="P22" s="95" t="n"/>
-      <c r="Q22" s="61" t="n"/>
-      <c r="R22" s="61" t="n"/>
-      <c r="S22" s="61" t="n"/>
-      <c r="T22" s="53" t="inlineStr">
-        <is>
-          <t>API 608</t>
-        </is>
-      </c>
-      <c r="U22" s="71" t="inlineStr"/>
-      <c r="V22" s="95" t="n"/>
-      <c r="W22" s="61" t="n"/>
-      <c r="X22" s="61" t="n"/>
-      <c r="Y22" s="61" t="n"/>
-      <c r="Z22" s="56" t="inlineStr">
-        <is>
-          <t>API 602</t>
-        </is>
-      </c>
-      <c r="AA22" s="68" t="inlineStr"/>
-      <c r="AB22" s="95" t="n"/>
-      <c r="AC22" s="61" t="n"/>
-      <c r="AD22" s="61" t="n"/>
-      <c r="AE22" s="79" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AG22" s="68" t="inlineStr">
-        <is>
-          <t>MSS SP-80</t>
-        </is>
-      </c>
-      <c r="AH22" s="95" t="n"/>
-      <c r="AI22" s="95" t="n"/>
-      <c r="AJ22" s="28" t="n"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
-        </is>
-      </c>
-      <c r="L23" s="90" t="inlineStr"/>
-      <c r="M23" s="95" t="n"/>
-      <c r="N23" s="95" t="n"/>
-      <c r="O23" s="95" t="n"/>
-      <c r="P23" s="95" t="n"/>
-      <c r="Q23" s="95" t="n"/>
-      <c r="R23" s="95" t="n"/>
-      <c r="S23" s="95" t="n"/>
-      <c r="T23" s="95" t="n"/>
-      <c r="U23" s="95" t="n"/>
-      <c r="V23" s="95" t="n"/>
-      <c r="W23" s="95" t="n"/>
-      <c r="X23" s="95" t="n"/>
-      <c r="Y23" s="95" t="n"/>
-      <c r="Z23" s="95" t="n"/>
-      <c r="AA23" s="95" t="n"/>
-      <c r="AB23" s="95" t="n"/>
-      <c r="AC23" s="95" t="n"/>
-      <c r="AD23" s="95" t="n"/>
-      <c r="AE23" s="95" t="n"/>
-      <c r="AF23" s="95" t="n"/>
-      <c r="AG23" s="95" t="n"/>
-      <c r="AH23" s="95" t="n"/>
-      <c r="AI23" s="95" t="n"/>
-      <c r="AJ23" s="28" t="n"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="68" t="n">
-        <v>200</v>
-      </c>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="95" t="n"/>
-      <c r="K24" s="95" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="95" t="n"/>
-      <c r="N24" s="95" t="n"/>
-      <c r="O24" s="95" t="n"/>
-      <c r="P24" s="24" t="inlineStr">
-        <is>
-          <t>PSIG @100°F</t>
-        </is>
-      </c>
-      <c r="Q24" s="61" t="n"/>
-      <c r="R24" s="61" t="n"/>
-      <c r="S24" s="61" t="n"/>
-      <c r="T24" s="61" t="n"/>
-      <c r="U24" s="61" t="n"/>
-      <c r="V24" s="61" t="n"/>
-      <c r="W24" s="61" t="n"/>
-      <c r="X24" s="61" t="n"/>
-      <c r="Y24" s="61" t="n"/>
-      <c r="Z24" s="49" t="inlineStr">
-        <is>
-          <t>DESIGN TEMP:</t>
-        </is>
-      </c>
-      <c r="AA24" s="61" t="n"/>
-      <c r="AB24" s="69" t="n">
-        <v>-20</v>
-      </c>
-      <c r="AC24" s="95" t="n"/>
-      <c r="AD24" s="24" t="inlineStr">
-        <is>
-          <t>F. MIN</t>
-        </is>
-      </c>
-      <c r="AE24" s="61" t="n"/>
-      <c r="AF24" s="69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="95" t="n"/>
-      <c r="AH24" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F. MAX</t>
-        </is>
-      </c>
-      <c r="AI24" s="61" t="n"/>
-      <c r="AJ24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B25" s="61" t="n"/>
-      <c r="C25" s="61" t="n"/>
-      <c r="D25" s="61" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="61" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="61" t="n"/>
-      <c r="I25" s="61" t="n"/>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="32" t="n"/>
-      <c r="L25" s="32" t="n"/>
-      <c r="M25" s="32" t="n"/>
-      <c r="N25" s="32" t="n"/>
-      <c r="O25" s="32" t="n"/>
-      <c r="P25" s="33" t="n"/>
-      <c r="Q25" s="79" t="inlineStr">
-        <is>
-          <t>PSIG</t>
-        </is>
-      </c>
-      <c r="S25" s="61" t="n"/>
-      <c r="T25" s="61" t="n"/>
-      <c r="U25" s="61" t="n"/>
-      <c r="V25" s="61" t="n"/>
-      <c r="W25" s="24" t="inlineStr">
-        <is>
-          <t>TEST PRESSURE:</t>
-        </is>
-      </c>
-      <c r="X25" s="61" t="n"/>
-      <c r="Y25" s="61" t="n"/>
-      <c r="Z25" s="61" t="n"/>
-      <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
-      <c r="AC25" s="95" t="n"/>
-      <c r="AD25" s="95" t="n"/>
-      <c r="AE25" s="24" t="n"/>
-      <c r="AF25" s="78" t="n"/>
-      <c r="AH25" s="61" t="n"/>
-      <c r="AI25" s="61" t="n"/>
-      <c r="AJ25" s="31" t="n"/>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>CONTAMINANTS :</t>
-        </is>
-      </c>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="61" t="n"/>
-      <c r="G26" s="61" t="n"/>
-      <c r="H26" s="24" t="inlineStr">
-        <is>
-          <t>CO2:</t>
-        </is>
-      </c>
-      <c r="I26" s="19" t="n"/>
-      <c r="J26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n"/>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="n"/>
-      <c r="Q26" s="61" t="n"/>
-      <c r="R26" s="61" t="n"/>
-      <c r="S26" s="49" t="inlineStr">
-        <is>
-          <t>CHLORIDE:</t>
-        </is>
-      </c>
-      <c r="T26" s="85" t="n"/>
-      <c r="U26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V26" s="20" t="n"/>
-      <c r="W26" s="33" t="n"/>
-      <c r="X26" s="33" t="n"/>
-      <c r="Y26" s="33" t="n"/>
-      <c r="Z26" s="33" t="n"/>
-      <c r="AA26" s="61" t="n"/>
-      <c r="AB26" s="53" t="inlineStr">
-        <is>
-          <t>H2S:</t>
-        </is>
-      </c>
-      <c r="AC26" s="70" t="n"/>
-      <c r="AD26" s="95" t="n"/>
-      <c r="AE26" s="95" t="n"/>
-      <c r="AF26" s="95" t="n"/>
-      <c r="AG26" s="95" t="n"/>
-      <c r="AH26" s="95" t="n"/>
-      <c r="AI26" s="95" t="n"/>
-      <c r="AJ26" s="28" t="n"/>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A27" s="37" t="n"/>
-      <c r="B27" s="61" t="n"/>
-      <c r="C27" s="61" t="n"/>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="61" t="n"/>
-      <c r="G27" s="61" t="n"/>
-      <c r="H27" s="24" t="inlineStr">
-        <is>
-          <t>METHANOL :</t>
-        </is>
-      </c>
-      <c r="I27" s="61" t="n"/>
-      <c r="J27" s="61" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n"/>
-      <c r="M27" s="33" t="n"/>
-      <c r="N27" s="33" t="n"/>
-      <c r="O27" s="33" t="n"/>
-      <c r="P27" s="33" t="n"/>
-      <c r="Q27" s="33" t="n"/>
-      <c r="R27" s="33" t="n"/>
-      <c r="S27" s="33" t="n"/>
-      <c r="T27" s="33" t="n"/>
-      <c r="U27" s="61" t="n"/>
-      <c r="V27" s="61" t="n"/>
-      <c r="W27" s="53" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="95" t="n"/>
-      <c r="Z27" s="95" t="n"/>
-      <c r="AA27" s="95" t="n"/>
-      <c r="AB27" s="95" t="n"/>
-      <c r="AC27" s="95" t="n"/>
-      <c r="AD27" s="95" t="n"/>
-      <c r="AE27" s="95" t="n"/>
-      <c r="AF27" s="95" t="n"/>
-      <c r="AG27" s="95" t="n"/>
-      <c r="AH27" s="95" t="n"/>
-      <c r="AI27" s="95" t="n"/>
-      <c r="AJ27" s="28" t="n"/>
-    </row>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A28" s="37" t="n"/>
-      <c r="B28" s="61" t="n"/>
-      <c r="C28" s="61" t="n"/>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="61" t="n"/>
-      <c r="G28" s="61" t="n"/>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="61" t="n"/>
-      <c r="J28" s="61" t="n"/>
-      <c r="K28" s="61" t="n"/>
-      <c r="L28" s="61" t="n"/>
-      <c r="M28" s="61" t="n"/>
-      <c r="N28" s="61" t="n"/>
-      <c r="O28" s="61" t="n"/>
-      <c r="P28" s="61" t="n"/>
-      <c r="Q28" s="61" t="n"/>
-      <c r="R28" s="61" t="n"/>
-      <c r="S28" s="61" t="n"/>
-      <c r="T28" s="61" t="n"/>
-      <c r="U28" s="61" t="n"/>
-      <c r="V28" s="61" t="n"/>
-      <c r="W28" s="61" t="n"/>
-      <c r="X28" s="61" t="n"/>
-      <c r="Y28" s="61" t="n"/>
-      <c r="Z28" s="61" t="n"/>
-      <c r="AA28" s="61" t="n"/>
-      <c r="AB28" s="61" t="n"/>
-      <c r="AC28" s="61" t="n"/>
-      <c r="AD28" s="61" t="n"/>
-      <c r="AE28" s="61" t="n"/>
-      <c r="AF28" s="61" t="n"/>
-      <c r="AG28" s="61" t="n"/>
-      <c r="AH28" s="61" t="n"/>
-      <c r="AI28" s="61" t="n"/>
-      <c r="AJ28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
-      <c r="G29" s="51" t="n"/>
-      <c r="H29" s="51" t="n"/>
-      <c r="I29" s="51" t="n"/>
-      <c r="J29" s="51" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-      <c r="P29" s="51" t="n"/>
-      <c r="Q29" s="51" t="n"/>
-      <c r="R29" s="51" t="n"/>
-      <c r="S29" s="52" t="inlineStr">
-        <is>
-          <t>M A T E R I A L S</t>
-        </is>
-      </c>
-      <c r="T29" s="51" t="n"/>
-      <c r="U29" s="51" t="n"/>
-      <c r="V29" s="51" t="n"/>
-      <c r="W29" s="51" t="n"/>
-      <c r="X29" s="51" t="n"/>
-      <c r="Y29" s="51" t="n"/>
-      <c r="Z29" s="51" t="n"/>
-      <c r="AA29" s="51" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="51" t="n"/>
-      <c r="AD29" s="51" t="n"/>
-      <c r="AE29" s="51" t="n"/>
-      <c r="AF29" s="51" t="n"/>
-      <c r="AG29" s="51" t="n"/>
-      <c r="AH29" s="51" t="n"/>
-      <c r="AI29" s="51" t="n"/>
-      <c r="AJ29" s="16" t="n"/>
-    </row>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="51" t="n"/>
-      <c r="C30" s="51" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
-      <c r="G30" s="51" t="n"/>
-      <c r="H30" s="51" t="n"/>
-      <c r="I30" s="51" t="n"/>
-      <c r="J30" s="51" t="n"/>
-      <c r="K30" s="51" t="n"/>
-      <c r="L30" s="51" t="n"/>
-      <c r="M30" s="51" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-      <c r="P30" s="51" t="n"/>
-      <c r="Q30" s="51" t="n"/>
-      <c r="R30" s="51" t="n"/>
-      <c r="S30" s="52" t="n"/>
-      <c r="T30" s="51" t="n"/>
-      <c r="U30" s="51" t="n"/>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="51" t="n"/>
-      <c r="X30" s="51" t="n"/>
-      <c r="Y30" s="51" t="n"/>
-      <c r="Z30" s="51" t="n"/>
-      <c r="AA30" s="51" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="51" t="n"/>
-      <c r="AD30" s="51" t="n"/>
-      <c r="AE30" s="51" t="n"/>
-      <c r="AF30" s="51" t="n"/>
-      <c r="AG30" s="51" t="n"/>
-      <c r="AH30" s="51" t="n"/>
-      <c r="AI30" s="51" t="n"/>
-      <c r="AJ30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="42" t="n"/>
-      <c r="G31" s="42" t="n"/>
-      <c r="H31" s="89" t="inlineStr">
-        <is>
-          <t>ASTM B62 UNS C83600</t>
-        </is>
-      </c>
-      <c r="I31" s="95" t="n"/>
-      <c r="J31" s="95" t="n"/>
-      <c r="K31" s="95" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="95" t="n"/>
-      <c r="N31" s="95" t="n"/>
-      <c r="O31" s="95" t="n"/>
-      <c r="P31" s="95" t="n"/>
-      <c r="Q31" s="95" t="n"/>
-      <c r="R31" s="95" t="n"/>
-      <c r="S31" s="95" t="n"/>
-      <c r="T31" s="95" t="n"/>
-      <c r="U31" s="95" t="n"/>
-      <c r="V31" s="95" t="n"/>
-      <c r="W31" s="95" t="n"/>
-      <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>TRIM:</t>
-        </is>
-      </c>
-      <c r="AA31" s="42" t="n"/>
-      <c r="AB31" s="42" t="n"/>
-      <c r="AC31" s="70" t="inlineStr"/>
-      <c r="AD31" s="95" t="n"/>
-      <c r="AE31" s="95" t="n"/>
-      <c r="AF31" s="95" t="n"/>
-      <c r="AG31" s="95" t="n"/>
-      <c r="AH31" s="95" t="n"/>
-      <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
-      <c r="E32" s="42" t="n"/>
-      <c r="F32" s="42" t="n"/>
-      <c r="G32" s="42" t="n"/>
-      <c r="H32" s="85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="42" t="n"/>
-      <c r="Z32" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AA32" s="42" t="n"/>
-      <c r="AB32" s="42" t="n"/>
-      <c r="AC32" s="70" t="inlineStr">
-        <is>
-          <t>LUBRICATED FIBER / GRAPHITE</t>
-        </is>
-      </c>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>YOKE BEARINGS:</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="86" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="I33" s="97" t="n"/>
-      <c r="J33" s="97" t="n"/>
-      <c r="K33" s="97" t="n"/>
-      <c r="L33" s="97" t="n"/>
-      <c r="M33" s="97" t="n"/>
-      <c r="N33" s="97" t="n"/>
-      <c r="O33" s="97" t="n"/>
-      <c r="P33" s="97" t="n"/>
-      <c r="Q33" s="97" t="n"/>
-      <c r="R33" s="97" t="n"/>
-      <c r="S33" s="97" t="n"/>
-      <c r="T33" s="97" t="n"/>
-      <c r="U33" s="97" t="n"/>
-      <c r="V33" s="97" t="n"/>
-      <c r="W33" s="97" t="n"/>
-      <c r="X33" s="97" t="n"/>
-      <c r="Y33" s="40" t="n"/>
-      <c r="Z33" s="81" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
-        </is>
-      </c>
-      <c r="AA33" s="42" t="n"/>
-      <c r="AB33" s="42" t="n"/>
-      <c r="AC33" s="70" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
-        </is>
-      </c>
-      <c r="B34" s="42" t="n"/>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="87" t="inlineStr">
-        <is>
-          <t>BRONZE</t>
-        </is>
-      </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
-    </row>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
-        </is>
-      </c>
-      <c r="B35" s="42" t="n"/>
-      <c r="C35" s="42" t="n"/>
-      <c r="D35" s="42" t="n"/>
-      <c r="E35" s="42" t="n"/>
-      <c r="F35" s="42" t="n"/>
-      <c r="G35" s="42" t="n"/>
-      <c r="H35" s="87" t="inlineStr">
-        <is>
-          <t>RINGS: BRONZE</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
-      <c r="B36" s="42" t="n"/>
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="87" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="n"/>
-      <c r="B37" s="42" t="n"/>
-      <c r="C37" s="42" t="n"/>
-      <c r="D37" s="42" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="42" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="87" t="n"/>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
-      <c r="B38" s="42" t="n"/>
-      <c r="C38" s="42" t="n"/>
-      <c r="D38" s="42" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="42" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="87" t="inlineStr">
-        <is>
-          <t>SWIVEL PLUG DISC, DISC: BRONZE, SCREWED BONNET, STEM: IS/RSRO, UL LISTED</t>
+          <t>SWIVEL PLUG DISC, STEM: OS&amp;Y/RSRO</t>
         </is>
       </c>
       <c r="I38" s="95" t="n"/>

--- a/output/hd.xlsx
+++ b/output/hd.xlsx
@@ -7,13 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="1" state="veryHidden" r:id="rId1"/>
-    <sheet name="BAV21A0F1C" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BAV21A0I1C" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="BAV24G0I1C" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CKV21A0B2B" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GAV21A0B2B" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GAV21A0B2B (1)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GLV24F0B2B" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="BAV24G0I1C" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CKV21A0B2B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CLV24F0B2B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GAV24F0B2B" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MFV21A0I2I" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
@@ -427,7 +425,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="68"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="68">
@@ -639,7 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,7 +1231,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -1280,7 +1277,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>4, 6</t>
+          <t>1/2, 3/4, 1</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -1573,7 +1570,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -1604,11 +1601,7 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L11" s="69" t="inlineStr"/>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -1620,11 +1613,7 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
+      <c r="T11" s="69" t="inlineStr"/>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -1688,7 +1677,11 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -1759,11 +1752,7 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -1786,7 +1775,11 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>MNF STD</t>
+        </is>
+      </c>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -1889,11 +1882,7 @@
       <c r="X16" s="61" t="n"/>
       <c r="Y16" s="55" t="n"/>
       <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA16" s="68" t="inlineStr"/>
       <c r="AB16" s="95" t="n"/>
       <c r="AC16" s="95" t="n"/>
       <c r="AD16" s="61" t="n"/>
@@ -2314,7 +2303,11 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AB25" s="77" t="inlineStr">
+        <is>
+          <t>API 598</t>
+        </is>
+      </c>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -2563,7 +2556,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM A216 Gr.WCB</t>
+          <t>ASTM A105</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -2615,7 +2608,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="67" t="inlineStr">
         <is>
-          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
+          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -2707,7 +2700,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="67" t="inlineStr">
         <is>
-          <t>ASTM A105 + ENP (3 MILS TO ASTM B733)</t>
+          <t>AISI 316</t>
         </is>
       </c>
       <c r="I34" s="95" t="n"/>
@@ -2753,7 +2746,7 @@
       <c r="G35" s="42" t="n"/>
       <c r="H35" s="67" t="inlineStr">
         <is>
-          <t>AISI 410</t>
+          <t>AISI 316</t>
         </is>
       </c>
       <c r="I35" s="95" t="n"/>
@@ -2929,7 +2922,7 @@
       <c r="G39" s="42" t="n"/>
       <c r="H39" s="67" t="inlineStr">
         <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY</t>
+          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
         </is>
       </c>
       <c r="I39" s="95" t="n"/>
@@ -3271,4288 +3264,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
-    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>BALL VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-      <c r="AA1" s="12" t="n"/>
-      <c r="AB1" s="12" t="n"/>
-      <c r="AC1" s="12" t="n"/>
-      <c r="AD1" s="12" t="n"/>
-      <c r="AE1" s="12" t="n"/>
-      <c r="AF1" s="12" t="n"/>
-      <c r="AG1" s="12" t="n"/>
-      <c r="AH1" s="12" t="n"/>
-      <c r="AI1" s="12" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A2" s="37" t="n"/>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="61" t="n"/>
-      <c r="D2" s="61" t="n"/>
-      <c r="E2" s="61" t="n"/>
-      <c r="F2" s="61" t="n"/>
-      <c r="G2" s="61" t="n"/>
-      <c r="H2" s="61" t="n"/>
-      <c r="I2" s="61" t="n"/>
-      <c r="J2" s="61" t="n"/>
-      <c r="K2" s="61" t="n"/>
-      <c r="L2" s="61" t="n"/>
-      <c r="M2" s="61" t="n"/>
-      <c r="N2" s="61" t="n"/>
-      <c r="O2" s="61" t="n"/>
-      <c r="P2" s="61" t="n"/>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="61" t="n"/>
-      <c r="S2" s="61" t="n"/>
-      <c r="T2" s="61" t="n"/>
-      <c r="U2" s="61" t="n"/>
-      <c r="V2" s="61" t="n"/>
-      <c r="W2" s="61" t="n"/>
-      <c r="X2" s="61" t="n"/>
-      <c r="Y2" s="61" t="n"/>
-      <c r="Z2" s="61" t="n"/>
-      <c r="AA2" s="61" t="n"/>
-      <c r="AB2" s="61" t="n"/>
-      <c r="AC2" s="61" t="n"/>
-      <c r="AD2" s="61" t="n"/>
-      <c r="AE2" s="61" t="n"/>
-      <c r="AF2" s="61" t="n"/>
-      <c r="AG2" s="61" t="n"/>
-      <c r="AH2" s="61" t="n"/>
-      <c r="AI2" s="61" t="n"/>
-      <c r="AJ2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>TAG. No.</t>
-        </is>
-      </c>
-      <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>BAV21A0I1C</t>
-        </is>
-      </c>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="61" t="n"/>
-      <c r="M3" s="61" t="n"/>
-      <c r="N3" s="61" t="n"/>
-      <c r="O3" s="61" t="n"/>
-      <c r="P3" s="48" t="n"/>
-      <c r="Q3" s="48" t="n"/>
-      <c r="R3" s="48" t="n"/>
-      <c r="S3" s="48" t="n"/>
-      <c r="T3" s="48" t="n"/>
-      <c r="U3" s="48" t="n"/>
-      <c r="V3" s="48" t="n"/>
-      <c r="W3" s="48" t="n"/>
-      <c r="X3" s="48" t="n"/>
-      <c r="Y3" s="48" t="n"/>
-      <c r="Z3" s="48" t="n"/>
-      <c r="AA3" s="48" t="n"/>
-      <c r="AB3" s="48" t="n"/>
-      <c r="AC3" s="48" t="n"/>
-      <c r="AD3" s="48" t="n"/>
-      <c r="AE3" s="48" t="n"/>
-      <c r="AF3" s="48" t="n"/>
-      <c r="AG3" s="48" t="n"/>
-      <c r="AH3" s="48" t="n"/>
-      <c r="AI3" s="48" t="n"/>
-      <c r="AJ3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>SIZE :</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="96" t="inlineStr">
-        <is>
-          <t>2, 3</t>
-        </is>
-      </c>
-      <c r="I4" s="97" t="n"/>
-      <c r="J4" s="97" t="n"/>
-      <c r="K4" s="49" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="61" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="61" t="n"/>
-      <c r="S4" s="61" t="n"/>
-      <c r="T4" s="61" t="n"/>
-      <c r="U4" s="61" t="n"/>
-      <c r="V4" s="61" t="n"/>
-      <c r="W4" s="61" t="n"/>
-      <c r="X4" s="61" t="n"/>
-      <c r="Y4" s="61" t="n"/>
-      <c r="Z4" s="61" t="n"/>
-      <c r="AA4" s="61" t="n"/>
-      <c r="AB4" s="61" t="n"/>
-      <c r="AC4" s="61" t="n"/>
-      <c r="AD4" s="61" t="n"/>
-      <c r="AE4" s="61" t="n"/>
-      <c r="AF4" s="61" t="n"/>
-      <c r="AG4" s="61" t="n"/>
-      <c r="AH4" s="61" t="n"/>
-      <c r="AI4" s="50" t="n"/>
-      <c r="AJ4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>PIPING CLASS :</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n"/>
-      <c r="C5" s="47" t="n"/>
-      <c r="D5" s="47" t="n"/>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="69" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="I5" s="95" t="n"/>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="95" t="n"/>
-      <c r="L5" s="95" t="n"/>
-      <c r="M5" s="95" t="n"/>
-      <c r="N5" s="95" t="n"/>
-      <c r="O5" s="47" t="n"/>
-      <c r="P5" s="47" t="n"/>
-      <c r="Q5" s="47" t="n"/>
-      <c r="R5" s="47" t="n"/>
-      <c r="S5" s="47" t="n"/>
-      <c r="T5" s="47" t="n"/>
-      <c r="U5" s="47" t="n"/>
-      <c r="V5" s="61" t="n"/>
-      <c r="W5" s="24" t="inlineStr">
-        <is>
-          <t>PLANT LOCATION:</t>
-        </is>
-      </c>
-      <c r="X5" s="61" t="n"/>
-      <c r="Y5" s="61" t="n"/>
-      <c r="Z5" s="61" t="n"/>
-      <c r="AA5" s="61" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="95" t="n"/>
-      <c r="AD5" s="95" t="n"/>
-      <c r="AE5" s="95" t="n"/>
-      <c r="AF5" s="95" t="n"/>
-      <c r="AG5" s="95" t="n"/>
-      <c r="AH5" s="95" t="n"/>
-      <c r="AI5" s="95" t="n"/>
-      <c r="AJ5" s="65" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>SERVICE (Note 1):</t>
-        </is>
-      </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="61" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="61" t="n"/>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
-        <is>
-          <t>HCN &amp; HCR</t>
-        </is>
-      </c>
-      <c r="I6" s="95" t="n"/>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="95" t="n"/>
-      <c r="L6" s="95" t="n"/>
-      <c r="M6" s="95" t="n"/>
-      <c r="N6" s="95" t="n"/>
-      <c r="O6" s="95" t="n"/>
-      <c r="P6" s="95" t="n"/>
-      <c r="Q6" s="95" t="n"/>
-      <c r="R6" s="95" t="n"/>
-      <c r="S6" s="95" t="n"/>
-      <c r="T6" s="95" t="n"/>
-      <c r="U6" s="95" t="n"/>
-      <c r="V6" s="95" t="n"/>
-      <c r="W6" s="95" t="n"/>
-      <c r="X6" s="95" t="n"/>
-      <c r="Y6" s="95" t="n"/>
-      <c r="Z6" s="95" t="n"/>
-      <c r="AA6" s="95" t="n"/>
-      <c r="AB6" s="95" t="n"/>
-      <c r="AC6" s="95" t="n"/>
-      <c r="AD6" s="95" t="n"/>
-      <c r="AE6" s="95" t="n"/>
-      <c r="AF6" s="95" t="n"/>
-      <c r="AG6" s="95" t="n"/>
-      <c r="AH6" s="95" t="n"/>
-      <c r="AI6" s="95" t="n"/>
-      <c r="AJ6" s="65" t="n"/>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="57" t="n"/>
-      <c r="B7" s="48" t="n"/>
-      <c r="C7" s="48" t="n"/>
-      <c r="D7" s="48" t="n"/>
-      <c r="E7" s="48" t="n"/>
-      <c r="F7" s="48" t="n"/>
-      <c r="G7" s="48" t="n"/>
-      <c r="H7" s="48" t="n"/>
-      <c r="I7" s="48" t="n"/>
-      <c r="J7" s="48" t="n"/>
-      <c r="K7" s="48" t="n"/>
-      <c r="L7" s="48" t="n"/>
-      <c r="M7" s="48" t="n"/>
-      <c r="N7" s="48" t="n"/>
-      <c r="O7" s="48" t="n"/>
-      <c r="P7" s="48" t="n"/>
-      <c r="Q7" s="48" t="n"/>
-      <c r="R7" s="48" t="n"/>
-      <c r="S7" s="48" t="n"/>
-      <c r="T7" s="48" t="n"/>
-      <c r="U7" s="48" t="n"/>
-      <c r="V7" s="48" t="n"/>
-      <c r="W7" s="48" t="n"/>
-      <c r="X7" s="48" t="n"/>
-      <c r="Y7" s="48" t="n"/>
-      <c r="Z7" s="48" t="n"/>
-      <c r="AA7" s="48" t="n"/>
-      <c r="AB7" s="48" t="n"/>
-      <c r="AC7" s="48" t="n"/>
-      <c r="AD7" s="48" t="n"/>
-      <c r="AE7" s="48" t="n"/>
-      <c r="AF7" s="48" t="n"/>
-      <c r="AG7" s="48" t="n"/>
-      <c r="AH7" s="48" t="n"/>
-      <c r="AI7" s="48" t="n"/>
-      <c r="AJ7" s="31" t="n"/>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A8" s="15" t="n"/>
-      <c r="B8" s="51" t="n"/>
-      <c r="C8" s="51" t="n"/>
-      <c r="D8" s="51" t="n"/>
-      <c r="E8" s="51" t="n"/>
-      <c r="F8" s="51" t="n"/>
-      <c r="G8" s="51" t="n"/>
-      <c r="H8" s="51" t="n"/>
-      <c r="I8" s="51" t="n"/>
-      <c r="J8" s="51" t="n"/>
-      <c r="K8" s="51" t="n"/>
-      <c r="L8" s="51" t="n"/>
-      <c r="M8" s="51" t="n"/>
-      <c r="N8" s="51" t="n"/>
-      <c r="O8" s="51" t="n"/>
-      <c r="P8" s="51" t="n"/>
-      <c r="Q8" s="51" t="n"/>
-      <c r="R8" s="51" t="n"/>
-      <c r="S8" s="52" t="inlineStr">
-        <is>
-          <t>M E C H A N I C A L</t>
-        </is>
-      </c>
-      <c r="T8" s="51" t="n"/>
-      <c r="U8" s="51" t="n"/>
-      <c r="V8" s="51" t="n"/>
-      <c r="W8" s="51" t="n"/>
-      <c r="X8" s="51" t="n"/>
-      <c r="Y8" s="51" t="n"/>
-      <c r="Z8" s="51" t="n"/>
-      <c r="AA8" s="51" t="n"/>
-      <c r="AB8" s="51" t="n"/>
-      <c r="AC8" s="51" t="n"/>
-      <c r="AD8" s="51" t="n"/>
-      <c r="AE8" s="51" t="n"/>
-      <c r="AF8" s="51" t="n"/>
-      <c r="AG8" s="51" t="n"/>
-      <c r="AH8" s="51" t="n"/>
-      <c r="AI8" s="51" t="n"/>
-      <c r="AJ8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="61" t="n"/>
-      <c r="D9" s="61" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="61" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="61" t="n"/>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="61" t="n"/>
-      <c r="K9" s="61" t="n"/>
-      <c r="L9" s="61" t="n"/>
-      <c r="M9" s="61" t="n"/>
-      <c r="N9" s="61" t="n"/>
-      <c r="O9" s="61" t="n"/>
-      <c r="P9" s="61" t="n"/>
-      <c r="Q9" s="61" t="n"/>
-      <c r="R9" s="61" t="n"/>
-      <c r="S9" s="61" t="n"/>
-      <c r="T9" s="61" t="n"/>
-      <c r="U9" s="61" t="n"/>
-      <c r="V9" s="61" t="n"/>
-      <c r="W9" s="61" t="n"/>
-      <c r="X9" s="61" t="n"/>
-      <c r="Y9" s="61" t="n"/>
-      <c r="Z9" s="61" t="n"/>
-      <c r="AA9" s="61" t="n"/>
-      <c r="AB9" s="61" t="n"/>
-      <c r="AC9" s="61" t="n"/>
-      <c r="AD9" s="61" t="n"/>
-      <c r="AE9" s="61" t="n"/>
-      <c r="AF9" s="61" t="n"/>
-      <c r="AG9" s="61" t="n"/>
-      <c r="AH9" s="61" t="n"/>
-      <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>VALVE TYPE :</t>
-        </is>
-      </c>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="61" t="n"/>
-      <c r="D10" s="61" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="61" t="n"/>
-      <c r="G10" s="61" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
-        <is>
-          <t>BALL VALVE, FLOATING BALL</t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="95" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="95" t="n"/>
-      <c r="M10" s="95" t="n"/>
-      <c r="N10" s="95" t="n"/>
-      <c r="O10" s="95" t="n"/>
-      <c r="P10" s="95" t="n"/>
-      <c r="Q10" s="95" t="n"/>
-      <c r="R10" s="95" t="n"/>
-      <c r="S10" s="95" t="n"/>
-      <c r="T10" s="95" t="n"/>
-      <c r="U10" s="95" t="n"/>
-      <c r="V10" s="95" t="n"/>
-      <c r="W10" s="95" t="n"/>
-      <c r="X10" s="61" t="n"/>
-      <c r="Y10" s="61" t="n"/>
-      <c r="Z10" s="61" t="n"/>
-      <c r="AA10" s="61" t="n"/>
-      <c r="AB10" s="49" t="inlineStr">
-        <is>
-          <t>RATING / CLASS:</t>
-        </is>
-      </c>
-      <c r="AC10" s="70" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="AD10" s="95" t="n"/>
-      <c r="AE10" s="95" t="n"/>
-      <c r="AF10" s="95" t="n"/>
-      <c r="AG10" s="95" t="n"/>
-      <c r="AH10" s="95" t="n"/>
-      <c r="AI10" s="95" t="n"/>
-      <c r="AJ10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>END CONNECTIONS:</t>
-        </is>
-      </c>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="61" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="61" t="n"/>
-      <c r="G11" s="61" t="n"/>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLANGED </t>
-        </is>
-      </c>
-      <c r="I11" s="61" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M11" s="95" t="n"/>
-      <c r="N11" s="61" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="61" t="n"/>
-      <c r="Q11" s="61" t="n"/>
-      <c r="R11" s="49" t="inlineStr">
-        <is>
-          <t>FACING:</t>
-        </is>
-      </c>
-      <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="U11" s="95" t="n"/>
-      <c r="V11" s="61" t="n"/>
-      <c r="W11" s="61" t="n"/>
-      <c r="X11" s="61" t="n"/>
-      <c r="Y11" s="61" t="n"/>
-      <c r="Z11" s="61" t="n"/>
-      <c r="AA11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOCKETWELD </t>
-        </is>
-      </c>
-      <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
-      <c r="AD11" s="95" t="n"/>
-      <c r="AE11" s="66" t="inlineStr">
-        <is>
-          <t>SCREWED</t>
-        </is>
-      </c>
-      <c r="AF11" s="66" t="n"/>
-      <c r="AG11" s="66" t="n"/>
-      <c r="AH11" s="72" t="inlineStr"/>
-      <c r="AI11" s="95" t="n"/>
-      <c r="AJ11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="37" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="61" t="n"/>
-      <c r="D12" s="61" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="61" t="n"/>
-      <c r="G12" s="61" t="n"/>
-      <c r="H12" s="54" t="inlineStr">
-        <is>
-          <t>BUTTWELD</t>
-        </is>
-      </c>
-      <c r="I12" s="61" t="n"/>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="61" t="n"/>
-      <c r="L12" s="68" t="inlineStr"/>
-      <c r="M12" s="95" t="n"/>
-      <c r="N12" s="95" t="n"/>
-      <c r="O12" s="95" t="n"/>
-      <c r="P12" s="95" t="n"/>
-      <c r="Q12" s="95" t="n"/>
-      <c r="R12" s="95" t="n"/>
-      <c r="S12" s="95" t="n"/>
-      <c r="T12" s="95" t="n"/>
-      <c r="U12" s="95" t="n"/>
-      <c r="V12" s="95" t="n"/>
-      <c r="W12" s="61" t="n"/>
-      <c r="X12" s="61" t="n"/>
-      <c r="Y12" s="61" t="n"/>
-      <c r="Z12" s="61" t="n"/>
-      <c r="AA12" s="61" t="n"/>
-      <c r="AB12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-      <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
-      <c r="AE12" s="95" t="n"/>
-      <c r="AF12" s="95" t="n"/>
-      <c r="AG12" s="95" t="n"/>
-      <c r="AH12" s="95" t="n"/>
-      <c r="AI12" s="95" t="n"/>
-      <c r="AJ12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A13" s="37" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="61" t="n"/>
-      <c r="D13" s="61" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="61" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="61" t="n"/>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="61" t="n"/>
-      <c r="L13" s="61" t="n"/>
-      <c r="M13" s="61" t="n"/>
-      <c r="N13" s="61" t="n"/>
-      <c r="O13" s="61" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="61" t="n"/>
-      <c r="R13" s="61" t="n"/>
-      <c r="S13" s="61" t="n"/>
-      <c r="T13" s="61" t="n"/>
-      <c r="U13" s="61" t="n"/>
-      <c r="V13" s="61" t="n"/>
-      <c r="W13" s="61" t="n"/>
-      <c r="X13" s="61" t="n"/>
-      <c r="Y13" s="61" t="n"/>
-      <c r="Z13" s="61" t="n"/>
-      <c r="AA13" s="61" t="n"/>
-      <c r="AB13" s="53" t="n"/>
-      <c r="AC13" s="61" t="n"/>
-      <c r="AD13" s="61" t="n"/>
-      <c r="AE13" s="61" t="n"/>
-      <c r="AF13" s="61" t="n"/>
-      <c r="AG13" s="61" t="n"/>
-      <c r="AH13" s="61" t="n"/>
-      <c r="AI13" s="61" t="n"/>
-      <c r="AJ13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
-        </is>
-      </c>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="61" t="n"/>
-      <c r="D14" s="61" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="61" t="n"/>
-      <c r="G14" s="61" t="n"/>
-      <c r="H14" s="61" t="n"/>
-      <c r="I14" s="61" t="n"/>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="61" t="n"/>
-      <c r="L14" s="61" t="n"/>
-      <c r="M14" s="61" t="n"/>
-      <c r="N14" s="61" t="n"/>
-      <c r="O14" s="61" t="n"/>
-      <c r="P14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.5</t>
-        </is>
-      </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R14" s="95" t="n"/>
-      <c r="S14" s="95" t="n"/>
-      <c r="T14" s="61" t="n"/>
-      <c r="U14" s="61" t="n"/>
-      <c r="V14" s="61" t="n"/>
-      <c r="W14" s="61" t="n"/>
-      <c r="X14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.11</t>
-        </is>
-      </c>
-      <c r="Y14" s="68" t="inlineStr"/>
-      <c r="Z14" s="95" t="n"/>
-      <c r="AA14" s="95" t="n"/>
-      <c r="AB14" s="61" t="n"/>
-      <c r="AC14" s="61" t="n"/>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
-      <c r="AG14" s="95" t="n"/>
-      <c r="AH14" s="95" t="n"/>
-      <c r="AI14" s="95" t="n"/>
-      <c r="AJ14" s="16" t="n"/>
-    </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>BORE:</t>
-        </is>
-      </c>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="61" t="n"/>
-      <c r="D15" s="61" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="61" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="I15" s="61" t="n"/>
-      <c r="J15" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K15" s="95" t="n"/>
-      <c r="L15" s="95" t="n"/>
-      <c r="M15" s="95" t="n"/>
-      <c r="N15" s="95" t="n"/>
-      <c r="O15" s="95" t="n"/>
-      <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="inlineStr">
-        <is>
-          <t>REDUCED</t>
-        </is>
-      </c>
-      <c r="R15" s="61" t="n"/>
-      <c r="S15" s="61" t="n"/>
-      <c r="T15" s="68" t="inlineStr"/>
-      <c r="U15" s="95" t="n"/>
-      <c r="V15" s="95" t="n"/>
-      <c r="W15" s="95" t="n"/>
-      <c r="X15" s="95" t="n"/>
-      <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="inlineStr">
-        <is>
-          <t>ACCORDING TO:</t>
-        </is>
-      </c>
-      <c r="AA15" s="61" t="n"/>
-      <c r="AB15" s="61" t="n"/>
-      <c r="AC15" s="61" t="n"/>
-      <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="68" t="inlineStr"/>
-      <c r="AF15" s="95" t="n"/>
-      <c r="AG15" s="95" t="n"/>
-      <c r="AH15" s="95" t="n"/>
-      <c r="AI15" s="95" t="n"/>
-      <c r="AJ15" s="16" t="n"/>
-    </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>LENGHT:</t>
-        </is>
-      </c>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="61" t="n"/>
-      <c r="D16" s="61" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="61" t="n"/>
-      <c r="G16" s="61" t="n"/>
-      <c r="H16" s="61" t="n"/>
-      <c r="I16" s="61" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="61" t="n"/>
-      <c r="L16" s="61" t="n"/>
-      <c r="M16" s="61" t="n"/>
-      <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="inlineStr">
-        <is>
-          <t>SHORT  PATTERN</t>
-        </is>
-      </c>
-      <c r="P16" s="68" t="inlineStr"/>
-      <c r="Q16" s="95" t="n"/>
-      <c r="R16" s="95" t="n"/>
-      <c r="S16" s="61" t="n"/>
-      <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="inlineStr">
-        <is>
-          <t>REG./LONG  PATTERN</t>
-        </is>
-      </c>
-      <c r="V16" s="61" t="n"/>
-      <c r="W16" s="61" t="n"/>
-      <c r="X16" s="61" t="n"/>
-      <c r="Y16" s="55" t="n"/>
-      <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB16" s="95" t="n"/>
-      <c r="AC16" s="95" t="n"/>
-      <c r="AD16" s="61" t="n"/>
-      <c r="AE16" s="61" t="n"/>
-      <c r="AF16" s="61" t="n"/>
-      <c r="AG16" s="61" t="n"/>
-      <c r="AH16" s="61" t="n"/>
-      <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="16" t="n"/>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A17" s="17" t="inlineStr">
-        <is>
-          <t>TYPE OPERATOR :</t>
-        </is>
-      </c>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="61" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="69" t="inlineStr">
-        <is>
-          <t>LEVER OPERATOR</t>
-        </is>
-      </c>
-      <c r="I17" s="95" t="n"/>
-      <c r="J17" s="95" t="n"/>
-      <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="n"/>
-      <c r="M17" s="95" t="n"/>
-      <c r="N17" s="95" t="n"/>
-      <c r="O17" s="61" t="n"/>
-      <c r="P17" s="61" t="n"/>
-      <c r="Q17" s="61" t="n"/>
-      <c r="R17" s="61" t="n"/>
-      <c r="S17" s="61" t="n"/>
-      <c r="T17" s="61" t="n"/>
-      <c r="U17" s="61" t="n"/>
-      <c r="V17" s="61" t="n"/>
-      <c r="W17" s="61" t="n"/>
-      <c r="X17" s="61" t="n"/>
-      <c r="Y17" s="61" t="n"/>
-      <c r="Z17" s="61" t="n"/>
-      <c r="AA17" s="61" t="n"/>
-      <c r="AB17" s="61" t="n"/>
-      <c r="AC17" s="61" t="n"/>
-      <c r="AD17" s="61" t="n"/>
-      <c r="AE17" s="61" t="n"/>
-      <c r="AF17" s="61" t="n"/>
-      <c r="AG17" s="61" t="n"/>
-      <c r="AH17" s="61" t="n"/>
-      <c r="AI17" s="61" t="n"/>
-      <c r="AJ17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A18" s="37" t="n"/>
-      <c r="B18" s="61" t="n"/>
-      <c r="C18" s="61" t="n"/>
-      <c r="D18" s="61" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="61" t="n"/>
-      <c r="G18" s="61" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="61" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="61" t="n"/>
-      <c r="L18" s="61" t="n"/>
-      <c r="M18" s="61" t="n"/>
-      <c r="N18" s="61" t="n"/>
-      <c r="O18" s="61" t="n"/>
-      <c r="P18" s="61" t="n"/>
-      <c r="Q18" s="61" t="n"/>
-      <c r="R18" s="61" t="n"/>
-      <c r="S18" s="61" t="n"/>
-      <c r="T18" s="61" t="n"/>
-      <c r="U18" s="61" t="n"/>
-      <c r="V18" s="61" t="n"/>
-      <c r="W18" s="61" t="n"/>
-      <c r="X18" s="61" t="n"/>
-      <c r="Y18" s="55" t="n"/>
-      <c r="Z18" s="61" t="n"/>
-      <c r="AA18" s="61" t="n"/>
-      <c r="AB18" s="61" t="n"/>
-      <c r="AC18" s="61" t="n"/>
-      <c r="AD18" s="61" t="n"/>
-      <c r="AE18" s="61" t="n"/>
-      <c r="AF18" s="61" t="n"/>
-      <c r="AG18" s="61" t="n"/>
-      <c r="AH18" s="61" t="n"/>
-      <c r="AI18" s="61" t="n"/>
-      <c r="AJ18" s="28" t="n"/>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="51" t="n"/>
-      <c r="C19" s="51" t="n"/>
-      <c r="D19" s="51" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
-      <c r="G19" s="51" t="n"/>
-      <c r="H19" s="51" t="n"/>
-      <c r="I19" s="51" t="n"/>
-      <c r="J19" s="51" t="n"/>
-      <c r="K19" s="51" t="n"/>
-      <c r="L19" s="51" t="n"/>
-      <c r="M19" s="51" t="n"/>
-      <c r="N19" s="51" t="n"/>
-      <c r="O19" s="51" t="n"/>
-      <c r="P19" s="51" t="n"/>
-      <c r="Q19" s="51" t="n"/>
-      <c r="R19" s="51" t="n"/>
-      <c r="S19" s="52" t="inlineStr">
-        <is>
-          <t>D E S I G N</t>
-        </is>
-      </c>
-      <c r="T19" s="51" t="n"/>
-      <c r="U19" s="51" t="n"/>
-      <c r="V19" s="51" t="n"/>
-      <c r="W19" s="51" t="n"/>
-      <c r="X19" s="51" t="n"/>
-      <c r="Y19" s="51" t="n"/>
-      <c r="Z19" s="51" t="n"/>
-      <c r="AA19" s="51" t="n"/>
-      <c r="AB19" s="51" t="n"/>
-      <c r="AC19" s="51" t="n"/>
-      <c r="AD19" s="51" t="n"/>
-      <c r="AE19" s="51" t="n"/>
-      <c r="AF19" s="51" t="n"/>
-      <c r="AG19" s="51" t="n"/>
-      <c r="AH19" s="51" t="n"/>
-      <c r="AI19" s="51" t="n"/>
-      <c r="AJ19" s="16" t="n"/>
-    </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A20" s="37" t="n"/>
-      <c r="B20" s="61" t="n"/>
-      <c r="C20" s="61" t="n"/>
-      <c r="D20" s="61" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="61" t="n"/>
-      <c r="H20" s="61" t="n"/>
-      <c r="I20" s="61" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="61" t="n"/>
-      <c r="L20" s="61" t="n"/>
-      <c r="M20" s="61" t="n"/>
-      <c r="N20" s="61" t="n"/>
-      <c r="O20" s="61" t="n"/>
-      <c r="P20" s="61" t="n"/>
-      <c r="Q20" s="61" t="n"/>
-      <c r="R20" s="61" t="n"/>
-      <c r="S20" s="61" t="n"/>
-      <c r="T20" s="61" t="n"/>
-      <c r="U20" s="61" t="n"/>
-      <c r="V20" s="61" t="n"/>
-      <c r="W20" s="61" t="n"/>
-      <c r="X20" s="61" t="n"/>
-      <c r="Y20" s="61" t="n"/>
-      <c r="Z20" s="61" t="n"/>
-      <c r="AA20" s="61" t="n"/>
-      <c r="AB20" s="61" t="n"/>
-      <c r="AC20" s="61" t="n"/>
-      <c r="AD20" s="61" t="n"/>
-      <c r="AE20" s="61" t="n"/>
-      <c r="AF20" s="61" t="n"/>
-      <c r="AG20" s="61" t="n"/>
-      <c r="AH20" s="61" t="n"/>
-      <c r="AI20" s="61" t="n"/>
-      <c r="AJ20" s="28" t="n"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>APPLICABLE PIPING</t>
-        </is>
-      </c>
-      <c r="B21" s="61" t="n"/>
-      <c r="C21" s="61" t="n"/>
-      <c r="D21" s="61" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="61" t="n"/>
-      <c r="H21" s="61" t="n"/>
-      <c r="I21" s="61" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="61" t="n"/>
-      <c r="L21" s="61" t="n"/>
-      <c r="M21" s="61" t="n"/>
-      <c r="N21" s="61" t="n"/>
-      <c r="O21" s="61" t="n"/>
-      <c r="P21" s="61" t="n"/>
-      <c r="Q21" s="61" t="n"/>
-      <c r="R21" s="61" t="n"/>
-      <c r="S21" s="61" t="n"/>
-      <c r="T21" s="61" t="n"/>
-      <c r="U21" s="61" t="n"/>
-      <c r="V21" s="61" t="n"/>
-      <c r="W21" s="61" t="n"/>
-      <c r="X21" s="61" t="n"/>
-      <c r="Y21" s="61" t="n"/>
-      <c r="Z21" s="61" t="n"/>
-      <c r="AA21" s="61" t="n"/>
-      <c r="AB21" s="61" t="n"/>
-      <c r="AC21" s="61" t="n"/>
-      <c r="AD21" s="61" t="n"/>
-      <c r="AE21" s="61" t="n"/>
-      <c r="AF21" s="61" t="n"/>
-      <c r="AG21" s="61" t="n"/>
-      <c r="AH21" s="61" t="n"/>
-      <c r="AI21" s="61" t="n"/>
-      <c r="AJ21" s="28" t="n"/>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DESIGN CODE:       </t>
-        </is>
-      </c>
-      <c r="B22" s="61" t="n"/>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>API 600</t>
-        </is>
-      </c>
-      <c r="I22" s="68" t="inlineStr"/>
-      <c r="J22" s="95" t="n"/>
-      <c r="K22" s="61" t="n"/>
-      <c r="L22" s="61" t="n"/>
-      <c r="M22" s="81" t="inlineStr">
-        <is>
-          <t>API 6D</t>
-        </is>
-      </c>
-      <c r="N22" s="61" t="n"/>
-      <c r="O22" s="68" t="inlineStr"/>
-      <c r="P22" s="95" t="n"/>
-      <c r="Q22" s="61" t="n"/>
-      <c r="R22" s="61" t="n"/>
-      <c r="S22" s="61" t="n"/>
-      <c r="T22" s="53" t="inlineStr">
-        <is>
-          <t>API 608</t>
-        </is>
-      </c>
-      <c r="U22" s="71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V22" s="95" t="n"/>
-      <c r="W22" s="61" t="n"/>
-      <c r="X22" s="61" t="n"/>
-      <c r="Y22" s="61" t="n"/>
-      <c r="Z22" s="56" t="inlineStr">
-        <is>
-          <t>API 602</t>
-        </is>
-      </c>
-      <c r="AA22" s="68" t="inlineStr"/>
-      <c r="AB22" s="95" t="n"/>
-      <c r="AC22" s="61" t="n"/>
-      <c r="AD22" s="61" t="n"/>
-      <c r="AE22" s="79" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AG22" s="68" t="inlineStr"/>
-      <c r="AH22" s="95" t="n"/>
-      <c r="AI22" s="95" t="n"/>
-      <c r="AJ22" s="28" t="n"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
-        </is>
-      </c>
-      <c r="L23" s="90" t="inlineStr">
-        <is>
-          <t>FIRE SAFE AS PER API 607</t>
-        </is>
-      </c>
-      <c r="M23" s="95" t="n"/>
-      <c r="N23" s="95" t="n"/>
-      <c r="O23" s="95" t="n"/>
-      <c r="P23" s="95" t="n"/>
-      <c r="Q23" s="95" t="n"/>
-      <c r="R23" s="95" t="n"/>
-      <c r="S23" s="95" t="n"/>
-      <c r="T23" s="95" t="n"/>
-      <c r="U23" s="95" t="n"/>
-      <c r="V23" s="95" t="n"/>
-      <c r="W23" s="95" t="n"/>
-      <c r="X23" s="95" t="n"/>
-      <c r="Y23" s="95" t="n"/>
-      <c r="Z23" s="95" t="n"/>
-      <c r="AA23" s="95" t="n"/>
-      <c r="AB23" s="95" t="n"/>
-      <c r="AC23" s="95" t="n"/>
-      <c r="AD23" s="95" t="n"/>
-      <c r="AE23" s="95" t="n"/>
-      <c r="AF23" s="95" t="n"/>
-      <c r="AG23" s="95" t="n"/>
-      <c r="AH23" s="95" t="n"/>
-      <c r="AI23" s="95" t="n"/>
-      <c r="AJ23" s="28" t="n"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="68" t="n">
-        <v>285</v>
-      </c>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="95" t="n"/>
-      <c r="K24" s="95" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="95" t="n"/>
-      <c r="N24" s="95" t="n"/>
-      <c r="O24" s="95" t="n"/>
-      <c r="P24" s="24" t="inlineStr">
-        <is>
-          <t>PSIG @100°F</t>
-        </is>
-      </c>
-      <c r="Q24" s="61" t="n"/>
-      <c r="R24" s="61" t="n"/>
-      <c r="S24" s="61" t="n"/>
-      <c r="T24" s="61" t="n"/>
-      <c r="U24" s="61" t="n"/>
-      <c r="V24" s="61" t="n"/>
-      <c r="W24" s="61" t="n"/>
-      <c r="X24" s="61" t="n"/>
-      <c r="Y24" s="61" t="n"/>
-      <c r="Z24" s="49" t="inlineStr">
-        <is>
-          <t>DESIGN TEMP:</t>
-        </is>
-      </c>
-      <c r="AA24" s="61" t="n"/>
-      <c r="AB24" s="69" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="95" t="n"/>
-      <c r="AD24" s="24" t="inlineStr">
-        <is>
-          <t>F. MIN</t>
-        </is>
-      </c>
-      <c r="AE24" s="61" t="n"/>
-      <c r="AF24" s="69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="95" t="n"/>
-      <c r="AH24" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F. MAX</t>
-        </is>
-      </c>
-      <c r="AI24" s="61" t="n"/>
-      <c r="AJ24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B25" s="61" t="n"/>
-      <c r="C25" s="61" t="n"/>
-      <c r="D25" s="61" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="61" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="61" t="n"/>
-      <c r="I25" s="61" t="n"/>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="32" t="n"/>
-      <c r="L25" s="32" t="n"/>
-      <c r="M25" s="32" t="n"/>
-      <c r="N25" s="32" t="n"/>
-      <c r="O25" s="32" t="n"/>
-      <c r="P25" s="33" t="n"/>
-      <c r="Q25" s="79" t="inlineStr">
-        <is>
-          <t>PSIG</t>
-        </is>
-      </c>
-      <c r="S25" s="61" t="n"/>
-      <c r="T25" s="61" t="n"/>
-      <c r="U25" s="61" t="n"/>
-      <c r="V25" s="61" t="n"/>
-      <c r="W25" s="24" t="inlineStr">
-        <is>
-          <t>TEST PRESSURE:</t>
-        </is>
-      </c>
-      <c r="X25" s="61" t="n"/>
-      <c r="Y25" s="61" t="n"/>
-      <c r="Z25" s="61" t="n"/>
-      <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
-      <c r="AC25" s="95" t="n"/>
-      <c r="AD25" s="95" t="n"/>
-      <c r="AE25" s="24" t="n"/>
-      <c r="AF25" s="78" t="n"/>
-      <c r="AH25" s="61" t="n"/>
-      <c r="AI25" s="61" t="n"/>
-      <c r="AJ25" s="31" t="n"/>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>CONTAMINANTS :</t>
-        </is>
-      </c>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="61" t="n"/>
-      <c r="G26" s="61" t="n"/>
-      <c r="H26" s="24" t="inlineStr">
-        <is>
-          <t>CO2:</t>
-        </is>
-      </c>
-      <c r="I26" s="19" t="n"/>
-      <c r="J26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n"/>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="n"/>
-      <c r="Q26" s="61" t="n"/>
-      <c r="R26" s="61" t="n"/>
-      <c r="S26" s="49" t="inlineStr">
-        <is>
-          <t>CHLORIDE:</t>
-        </is>
-      </c>
-      <c r="T26" s="85" t="n"/>
-      <c r="U26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V26" s="20" t="n"/>
-      <c r="W26" s="33" t="n"/>
-      <c r="X26" s="33" t="n"/>
-      <c r="Y26" s="33" t="n"/>
-      <c r="Z26" s="33" t="n"/>
-      <c r="AA26" s="61" t="n"/>
-      <c r="AB26" s="53" t="inlineStr">
-        <is>
-          <t>H2S:</t>
-        </is>
-      </c>
-      <c r="AC26" s="70" t="n"/>
-      <c r="AD26" s="95" t="n"/>
-      <c r="AE26" s="95" t="n"/>
-      <c r="AF26" s="95" t="n"/>
-      <c r="AG26" s="95" t="n"/>
-      <c r="AH26" s="95" t="n"/>
-      <c r="AI26" s="95" t="n"/>
-      <c r="AJ26" s="28" t="n"/>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A27" s="37" t="n"/>
-      <c r="B27" s="61" t="n"/>
-      <c r="C27" s="61" t="n"/>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="61" t="n"/>
-      <c r="G27" s="61" t="n"/>
-      <c r="H27" s="24" t="inlineStr">
-        <is>
-          <t>METHANOL :</t>
-        </is>
-      </c>
-      <c r="I27" s="61" t="n"/>
-      <c r="J27" s="61" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n"/>
-      <c r="M27" s="33" t="n"/>
-      <c r="N27" s="33" t="n"/>
-      <c r="O27" s="33" t="n"/>
-      <c r="P27" s="33" t="n"/>
-      <c r="Q27" s="33" t="n"/>
-      <c r="R27" s="33" t="n"/>
-      <c r="S27" s="33" t="n"/>
-      <c r="T27" s="33" t="n"/>
-      <c r="U27" s="61" t="n"/>
-      <c r="V27" s="61" t="n"/>
-      <c r="W27" s="53" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="95" t="n"/>
-      <c r="Z27" s="95" t="n"/>
-      <c r="AA27" s="95" t="n"/>
-      <c r="AB27" s="95" t="n"/>
-      <c r="AC27" s="95" t="n"/>
-      <c r="AD27" s="95" t="n"/>
-      <c r="AE27" s="95" t="n"/>
-      <c r="AF27" s="95" t="n"/>
-      <c r="AG27" s="95" t="n"/>
-      <c r="AH27" s="95" t="n"/>
-      <c r="AI27" s="95" t="n"/>
-      <c r="AJ27" s="28" t="n"/>
-    </row>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A28" s="37" t="n"/>
-      <c r="B28" s="61" t="n"/>
-      <c r="C28" s="61" t="n"/>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="61" t="n"/>
-      <c r="G28" s="61" t="n"/>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="61" t="n"/>
-      <c r="J28" s="61" t="n"/>
-      <c r="K28" s="61" t="n"/>
-      <c r="L28" s="61" t="n"/>
-      <c r="M28" s="61" t="n"/>
-      <c r="N28" s="61" t="n"/>
-      <c r="O28" s="61" t="n"/>
-      <c r="P28" s="61" t="n"/>
-      <c r="Q28" s="61" t="n"/>
-      <c r="R28" s="61" t="n"/>
-      <c r="S28" s="61" t="n"/>
-      <c r="T28" s="61" t="n"/>
-      <c r="U28" s="61" t="n"/>
-      <c r="V28" s="61" t="n"/>
-      <c r="W28" s="61" t="n"/>
-      <c r="X28" s="61" t="n"/>
-      <c r="Y28" s="61" t="n"/>
-      <c r="Z28" s="61" t="n"/>
-      <c r="AA28" s="61" t="n"/>
-      <c r="AB28" s="61" t="n"/>
-      <c r="AC28" s="61" t="n"/>
-      <c r="AD28" s="61" t="n"/>
-      <c r="AE28" s="61" t="n"/>
-      <c r="AF28" s="61" t="n"/>
-      <c r="AG28" s="61" t="n"/>
-      <c r="AH28" s="61" t="n"/>
-      <c r="AI28" s="61" t="n"/>
-      <c r="AJ28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
-      <c r="G29" s="51" t="n"/>
-      <c r="H29" s="51" t="n"/>
-      <c r="I29" s="51" t="n"/>
-      <c r="J29" s="51" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-      <c r="P29" s="51" t="n"/>
-      <c r="Q29" s="51" t="n"/>
-      <c r="R29" s="51" t="n"/>
-      <c r="S29" s="52" t="inlineStr">
-        <is>
-          <t>M A T E R I A L S</t>
-        </is>
-      </c>
-      <c r="T29" s="51" t="n"/>
-      <c r="U29" s="51" t="n"/>
-      <c r="V29" s="51" t="n"/>
-      <c r="W29" s="51" t="n"/>
-      <c r="X29" s="51" t="n"/>
-      <c r="Y29" s="51" t="n"/>
-      <c r="Z29" s="51" t="n"/>
-      <c r="AA29" s="51" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="51" t="n"/>
-      <c r="AD29" s="51" t="n"/>
-      <c r="AE29" s="51" t="n"/>
-      <c r="AF29" s="51" t="n"/>
-      <c r="AG29" s="51" t="n"/>
-      <c r="AH29" s="51" t="n"/>
-      <c r="AI29" s="51" t="n"/>
-      <c r="AJ29" s="16" t="n"/>
-    </row>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="51" t="n"/>
-      <c r="C30" s="51" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
-      <c r="G30" s="51" t="n"/>
-      <c r="H30" s="51" t="n"/>
-      <c r="I30" s="51" t="n"/>
-      <c r="J30" s="51" t="n"/>
-      <c r="K30" s="51" t="n"/>
-      <c r="L30" s="51" t="n"/>
-      <c r="M30" s="51" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-      <c r="P30" s="51" t="n"/>
-      <c r="Q30" s="51" t="n"/>
-      <c r="R30" s="51" t="n"/>
-      <c r="S30" s="52" t="n"/>
-      <c r="T30" s="51" t="n"/>
-      <c r="U30" s="51" t="n"/>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="51" t="n"/>
-      <c r="X30" s="51" t="n"/>
-      <c r="Y30" s="51" t="n"/>
-      <c r="Z30" s="51" t="n"/>
-      <c r="AA30" s="51" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="51" t="n"/>
-      <c r="AD30" s="51" t="n"/>
-      <c r="AE30" s="51" t="n"/>
-      <c r="AF30" s="51" t="n"/>
-      <c r="AG30" s="51" t="n"/>
-      <c r="AH30" s="51" t="n"/>
-      <c r="AI30" s="51" t="n"/>
-      <c r="AJ30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="42" t="n"/>
-      <c r="G31" s="42" t="n"/>
-      <c r="H31" s="67" t="inlineStr">
-        <is>
-          <t>ASTM A216 Gr.WCB</t>
-        </is>
-      </c>
-      <c r="I31" s="95" t="n"/>
-      <c r="J31" s="95" t="n"/>
-      <c r="K31" s="95" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="95" t="n"/>
-      <c r="N31" s="95" t="n"/>
-      <c r="O31" s="95" t="n"/>
-      <c r="P31" s="95" t="n"/>
-      <c r="Q31" s="95" t="n"/>
-      <c r="R31" s="95" t="n"/>
-      <c r="S31" s="95" t="n"/>
-      <c r="T31" s="95" t="n"/>
-      <c r="U31" s="95" t="n"/>
-      <c r="V31" s="95" t="n"/>
-      <c r="W31" s="95" t="n"/>
-      <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AC31" s="68" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD31" s="95" t="n"/>
-      <c r="AE31" s="95" t="n"/>
-      <c r="AF31" s="95" t="n"/>
-      <c r="AG31" s="95" t="n"/>
-      <c r="AH31" s="95" t="n"/>
-      <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
-      <c r="E32" s="42" t="n"/>
-      <c r="F32" s="42" t="n"/>
-      <c r="G32" s="42" t="n"/>
-      <c r="H32" s="67" t="inlineStr">
-        <is>
-          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="95" t="n"/>
-      <c r="Z32" s="95" t="n"/>
-      <c r="AA32" s="95" t="n"/>
-      <c r="AB32" s="95" t="n"/>
-      <c r="AC32" s="95" t="n"/>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="67" t="inlineStr">
-        <is>
-          <t>STEM: GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I33" s="95" t="n"/>
-      <c r="J33" s="95" t="n"/>
-      <c r="K33" s="95" t="n"/>
-      <c r="L33" s="95" t="n"/>
-      <c r="M33" s="95" t="n"/>
-      <c r="N33" s="95" t="n"/>
-      <c r="O33" s="95" t="n"/>
-      <c r="P33" s="95" t="n"/>
-      <c r="Q33" s="95" t="n"/>
-      <c r="R33" s="95" t="n"/>
-      <c r="S33" s="95" t="n"/>
-      <c r="T33" s="95" t="n"/>
-      <c r="U33" s="95" t="n"/>
-      <c r="V33" s="95" t="n"/>
-      <c r="W33" s="95" t="n"/>
-      <c r="X33" s="95" t="n"/>
-      <c r="Y33" s="95" t="n"/>
-      <c r="Z33" s="95" t="n"/>
-      <c r="AA33" s="95" t="n"/>
-      <c r="AB33" s="95" t="n"/>
-      <c r="AC33" s="95" t="n"/>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="83" t="inlineStr">
-        <is>
-          <t>BALL:</t>
-        </is>
-      </c>
-      <c r="B34" s="42" t="n"/>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="67" t="inlineStr">
-        <is>
-          <t>AISI 316</t>
-        </is>
-      </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
-    </row>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
-        </is>
-      </c>
-      <c r="B35" s="42" t="n"/>
-      <c r="C35" s="42" t="n"/>
-      <c r="D35" s="42" t="n"/>
-      <c r="E35" s="42" t="n"/>
-      <c r="F35" s="42" t="n"/>
-      <c r="G35" s="42" t="n"/>
-      <c r="H35" s="67" t="inlineStr">
-        <is>
-          <t>AISI 316</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
-        </is>
-      </c>
-      <c r="B36" s="42" t="n"/>
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="67" t="inlineStr">
-        <is>
-          <t>RINGS: RPTFE</t>
-        </is>
-      </c>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
-      <c r="B37" s="42" t="n"/>
-      <c r="C37" s="42" t="n"/>
-      <c r="D37" s="42" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="42" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="67" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="n"/>
-      <c r="B38" s="42" t="n"/>
-      <c r="C38" s="42" t="n"/>
-      <c r="D38" s="42" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="42" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="67" t="n"/>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
-      <c r="B39" s="42" t="n"/>
-      <c r="C39" s="42" t="n"/>
-      <c r="D39" s="42" t="n"/>
-      <c r="E39" s="42" t="n"/>
-      <c r="F39" s="42" t="n"/>
-      <c r="G39" s="42" t="n"/>
-      <c r="H39" s="67" t="inlineStr">
-        <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY</t>
-        </is>
-      </c>
-      <c r="I39" s="95" t="n"/>
-      <c r="J39" s="95" t="n"/>
-      <c r="K39" s="95" t="n"/>
-      <c r="L39" s="95" t="n"/>
-      <c r="M39" s="95" t="n"/>
-      <c r="N39" s="95" t="n"/>
-      <c r="O39" s="95" t="n"/>
-      <c r="P39" s="95" t="n"/>
-      <c r="Q39" s="95" t="n"/>
-      <c r="R39" s="95" t="n"/>
-      <c r="S39" s="95" t="n"/>
-      <c r="T39" s="95" t="n"/>
-      <c r="U39" s="95" t="n"/>
-      <c r="V39" s="95" t="n"/>
-      <c r="W39" s="95" t="n"/>
-      <c r="X39" s="95" t="n"/>
-      <c r="Y39" s="95" t="n"/>
-      <c r="Z39" s="95" t="n"/>
-      <c r="AA39" s="95" t="n"/>
-      <c r="AB39" s="95" t="n"/>
-      <c r="AC39" s="95" t="n"/>
-      <c r="AD39" s="95" t="n"/>
-      <c r="AE39" s="95" t="n"/>
-      <c r="AF39" s="95" t="n"/>
-      <c r="AG39" s="95" t="n"/>
-      <c r="AH39" s="95" t="n"/>
-      <c r="AI39" s="95" t="n"/>
-      <c r="AJ39" s="16" t="n"/>
-    </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="42" t="n"/>
-      <c r="C40" s="42" t="n"/>
-      <c r="D40" s="42" t="n"/>
-      <c r="E40" s="42" t="n"/>
-      <c r="F40" s="42" t="n"/>
-      <c r="G40" s="42" t="n"/>
-      <c r="H40" s="67" t="n"/>
-      <c r="I40" s="95" t="n"/>
-      <c r="J40" s="95" t="n"/>
-      <c r="K40" s="95" t="n"/>
-      <c r="L40" s="95" t="n"/>
-      <c r="M40" s="95" t="n"/>
-      <c r="N40" s="95" t="n"/>
-      <c r="O40" s="95" t="n"/>
-      <c r="P40" s="95" t="n"/>
-      <c r="Q40" s="95" t="n"/>
-      <c r="R40" s="95" t="n"/>
-      <c r="S40" s="95" t="n"/>
-      <c r="T40" s="95" t="n"/>
-      <c r="U40" s="95" t="n"/>
-      <c r="V40" s="95" t="n"/>
-      <c r="W40" s="95" t="n"/>
-      <c r="X40" s="95" t="n"/>
-      <c r="Y40" s="95" t="n"/>
-      <c r="Z40" s="95" t="n"/>
-      <c r="AA40" s="95" t="n"/>
-      <c r="AB40" s="95" t="n"/>
-      <c r="AC40" s="95" t="n"/>
-      <c r="AD40" s="95" t="n"/>
-      <c r="AE40" s="95" t="n"/>
-      <c r="AF40" s="95" t="n"/>
-      <c r="AG40" s="95" t="n"/>
-      <c r="AH40" s="95" t="n"/>
-      <c r="AI40" s="95" t="n"/>
-      <c r="AJ40" s="16" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="37" t="n"/>
-      <c r="B41" s="61" t="n"/>
-      <c r="C41" s="61" t="n"/>
-      <c r="D41" s="61" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="61" t="n"/>
-      <c r="G41" s="61" t="n"/>
-      <c r="H41" s="61" t="n"/>
-      <c r="I41" s="61" t="n"/>
-      <c r="J41" s="61" t="n"/>
-      <c r="K41" s="61" t="n"/>
-      <c r="L41" s="61" t="n"/>
-      <c r="M41" s="61" t="n"/>
-      <c r="N41" s="61" t="n"/>
-      <c r="O41" s="61" t="n"/>
-      <c r="P41" s="61" t="n"/>
-      <c r="Q41" s="61" t="n"/>
-      <c r="R41" s="61" t="n"/>
-      <c r="S41" s="61" t="n"/>
-      <c r="T41" s="61" t="n"/>
-      <c r="U41" s="61" t="n"/>
-      <c r="V41" s="61" t="n"/>
-      <c r="W41" s="61" t="n"/>
-      <c r="X41" s="61" t="n"/>
-      <c r="Y41" s="61" t="n"/>
-      <c r="Z41" s="61" t="n"/>
-      <c r="AA41" s="61" t="n"/>
-      <c r="AB41" s="61" t="n"/>
-      <c r="AC41" s="61" t="n"/>
-      <c r="AD41" s="61" t="n"/>
-      <c r="AE41" s="61" t="n"/>
-      <c r="AF41" s="61" t="n"/>
-      <c r="AG41" s="61" t="n"/>
-      <c r="AH41" s="61" t="n"/>
-      <c r="AI41" s="61" t="n"/>
-      <c r="AJ41" s="28" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A42" s="15" t="n"/>
-      <c r="B42" s="51" t="n"/>
-      <c r="C42" s="51" t="n"/>
-      <c r="D42" s="51" t="n"/>
-      <c r="E42" s="51" t="n"/>
-      <c r="F42" s="51" t="n"/>
-      <c r="G42" s="51" t="n"/>
-      <c r="H42" s="51" t="n"/>
-      <c r="I42" s="51" t="n"/>
-      <c r="J42" s="51" t="n"/>
-      <c r="K42" s="51" t="n"/>
-      <c r="L42" s="51" t="n"/>
-      <c r="M42" s="51" t="n"/>
-      <c r="N42" s="51" t="n"/>
-      <c r="O42" s="51" t="n"/>
-      <c r="P42" s="51" t="n"/>
-      <c r="Q42" s="51" t="n"/>
-      <c r="R42" s="51" t="n"/>
-      <c r="S42" s="52" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T42" s="51" t="n"/>
-      <c r="U42" s="51" t="n"/>
-      <c r="V42" s="51" t="n"/>
-      <c r="W42" s="51" t="n"/>
-      <c r="X42" s="51" t="n"/>
-      <c r="Y42" s="51" t="n"/>
-      <c r="Z42" s="51" t="n"/>
-      <c r="AA42" s="51" t="n"/>
-      <c r="AB42" s="51" t="n"/>
-      <c r="AC42" s="51" t="n"/>
-      <c r="AD42" s="51" t="n"/>
-      <c r="AE42" s="51" t="n"/>
-      <c r="AF42" s="51" t="n"/>
-      <c r="AG42" s="51" t="n"/>
-      <c r="AH42" s="51" t="n"/>
-      <c r="AI42" s="51" t="n"/>
-      <c r="AJ42" s="16" t="n"/>
-    </row>
-    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="38" t="n"/>
-      <c r="B43" s="33" t="n"/>
-      <c r="C43" s="33" t="n"/>
-      <c r="D43" s="33" t="n"/>
-      <c r="E43" s="33" t="n"/>
-      <c r="F43" s="33" t="n"/>
-      <c r="G43" s="33" t="n"/>
-      <c r="H43" s="33" t="n"/>
-      <c r="I43" s="33" t="n"/>
-      <c r="J43" s="33" t="n"/>
-      <c r="K43" s="33" t="n"/>
-      <c r="L43" s="33" t="n"/>
-      <c r="M43" s="33" t="n"/>
-      <c r="N43" s="33" t="n"/>
-      <c r="O43" s="33" t="n"/>
-      <c r="P43" s="33" t="n"/>
-      <c r="Q43" s="33" t="n"/>
-      <c r="R43" s="33" t="n"/>
-      <c r="S43" s="33" t="n"/>
-      <c r="T43" s="33" t="n"/>
-      <c r="U43" s="33" t="n"/>
-      <c r="V43" s="33" t="n"/>
-      <c r="W43" s="33" t="n"/>
-      <c r="X43" s="33" t="n"/>
-      <c r="Y43" s="33" t="n"/>
-      <c r="Z43" s="33" t="n"/>
-      <c r="AA43" s="33" t="n"/>
-      <c r="AB43" s="33" t="n"/>
-      <c r="AC43" s="33" t="n"/>
-      <c r="AD43" s="33" t="n"/>
-      <c r="AE43" s="33" t="n"/>
-      <c r="AF43" s="33" t="n"/>
-      <c r="AG43" s="33" t="n"/>
-      <c r="AH43" s="33" t="n"/>
-      <c r="AI43" s="33" t="n"/>
-      <c r="AJ43" s="34" t="n"/>
-    </row>
-    <row r="44" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A44" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 
-</t>
-        </is>
-      </c>
-      <c r="B44" s="23" t="inlineStr">
-        <is>
-          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C44" s="23" t="n"/>
-      <c r="D44" s="23" t="n"/>
-      <c r="E44" s="23" t="n"/>
-      <c r="F44" s="23" t="n"/>
-      <c r="G44" s="23" t="n"/>
-      <c r="H44" s="23" t="n"/>
-      <c r="I44" s="23" t="n"/>
-      <c r="J44" s="23" t="n"/>
-      <c r="K44" s="23" t="n"/>
-      <c r="L44" s="23" t="n"/>
-      <c r="M44" s="23" t="n"/>
-      <c r="N44" s="23" t="n"/>
-      <c r="O44" s="23" t="n"/>
-      <c r="P44" s="23" t="n"/>
-      <c r="Q44" s="23" t="n"/>
-      <c r="R44" s="23" t="n"/>
-      <c r="S44" s="23" t="n"/>
-      <c r="T44" s="23" t="n"/>
-      <c r="U44" s="23" t="n"/>
-      <c r="V44" s="23" t="n"/>
-      <c r="W44" s="23" t="n"/>
-      <c r="X44" s="23" t="n"/>
-      <c r="Y44" s="23" t="n"/>
-      <c r="Z44" s="23" t="n"/>
-      <c r="AA44" s="23" t="n"/>
-      <c r="AB44" s="23" t="n"/>
-      <c r="AC44" s="23" t="n"/>
-      <c r="AD44" s="23" t="n"/>
-      <c r="AE44" s="23" t="n"/>
-      <c r="AF44" s="23" t="n"/>
-      <c r="AG44" s="23" t="n"/>
-      <c r="AH44" s="23" t="n"/>
-      <c r="AI44" s="23" t="n"/>
-      <c r="AJ44" s="34" t="n"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
-      <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="n"/>
-      <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="n"/>
-      <c r="T45" s="2" t="n"/>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
-      <c r="W45" s="2" t="n"/>
-      <c r="X45" s="2" t="n"/>
-      <c r="Y45" s="2" t="n"/>
-      <c r="Z45" s="2" t="n"/>
-      <c r="AA45" s="2" t="n"/>
-      <c r="AB45" s="2" t="n"/>
-      <c r="AC45" s="2" t="n"/>
-      <c r="AD45" s="2" t="n"/>
-      <c r="AE45" s="2" t="n"/>
-      <c r="AF45" s="2" t="n"/>
-      <c r="AG45" s="2" t="n"/>
-      <c r="AH45" s="2" t="n"/>
-      <c r="AI45" s="2" t="n"/>
-      <c r="AJ45" s="2" t="n"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="B46:AH46"/>
-    <mergeCell ref="H33:AI33"/>
-    <mergeCell ref="H34:AI34"/>
-    <mergeCell ref="H35:AI35"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="H39:AI39"/>
-    <mergeCell ref="H40:AI40"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="H32:AI32"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
-  </mergeCells>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AJ46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
-    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>BALL VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-      <c r="AA1" s="12" t="n"/>
-      <c r="AB1" s="12" t="n"/>
-      <c r="AC1" s="12" t="n"/>
-      <c r="AD1" s="12" t="n"/>
-      <c r="AE1" s="12" t="n"/>
-      <c r="AF1" s="12" t="n"/>
-      <c r="AG1" s="12" t="n"/>
-      <c r="AH1" s="12" t="n"/>
-      <c r="AI1" s="12" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A2" s="37" t="n"/>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="61" t="n"/>
-      <c r="D2" s="61" t="n"/>
-      <c r="E2" s="61" t="n"/>
-      <c r="F2" s="61" t="n"/>
-      <c r="G2" s="61" t="n"/>
-      <c r="H2" s="61" t="n"/>
-      <c r="I2" s="61" t="n"/>
-      <c r="J2" s="61" t="n"/>
-      <c r="K2" s="61" t="n"/>
-      <c r="L2" s="61" t="n"/>
-      <c r="M2" s="61" t="n"/>
-      <c r="N2" s="61" t="n"/>
-      <c r="O2" s="61" t="n"/>
-      <c r="P2" s="61" t="n"/>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="61" t="n"/>
-      <c r="S2" s="61" t="n"/>
-      <c r="T2" s="61" t="n"/>
-      <c r="U2" s="61" t="n"/>
-      <c r="V2" s="61" t="n"/>
-      <c r="W2" s="61" t="n"/>
-      <c r="X2" s="61" t="n"/>
-      <c r="Y2" s="61" t="n"/>
-      <c r="Z2" s="61" t="n"/>
-      <c r="AA2" s="61" t="n"/>
-      <c r="AB2" s="61" t="n"/>
-      <c r="AC2" s="61" t="n"/>
-      <c r="AD2" s="61" t="n"/>
-      <c r="AE2" s="61" t="n"/>
-      <c r="AF2" s="61" t="n"/>
-      <c r="AG2" s="61" t="n"/>
-      <c r="AH2" s="61" t="n"/>
-      <c r="AI2" s="61" t="n"/>
-      <c r="AJ2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>TAG. No.</t>
-        </is>
-      </c>
-      <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>BAV24G0I1C</t>
-        </is>
-      </c>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="61" t="n"/>
-      <c r="M3" s="61" t="n"/>
-      <c r="N3" s="61" t="n"/>
-      <c r="O3" s="61" t="n"/>
-      <c r="P3" s="48" t="n"/>
-      <c r="Q3" s="48" t="n"/>
-      <c r="R3" s="48" t="n"/>
-      <c r="S3" s="48" t="n"/>
-      <c r="T3" s="48" t="n"/>
-      <c r="U3" s="48" t="n"/>
-      <c r="V3" s="48" t="n"/>
-      <c r="W3" s="48" t="n"/>
-      <c r="X3" s="48" t="n"/>
-      <c r="Y3" s="48" t="n"/>
-      <c r="Z3" s="48" t="n"/>
-      <c r="AA3" s="48" t="n"/>
-      <c r="AB3" s="48" t="n"/>
-      <c r="AC3" s="48" t="n"/>
-      <c r="AD3" s="48" t="n"/>
-      <c r="AE3" s="48" t="n"/>
-      <c r="AF3" s="48" t="n"/>
-      <c r="AG3" s="48" t="n"/>
-      <c r="AH3" s="48" t="n"/>
-      <c r="AI3" s="48" t="n"/>
-      <c r="AJ3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>SIZE :</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="96" t="inlineStr">
-        <is>
-          <t>1/2, 3/4, 1</t>
-        </is>
-      </c>
-      <c r="I4" s="97" t="n"/>
-      <c r="J4" s="97" t="n"/>
-      <c r="K4" s="49" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="61" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="61" t="n"/>
-      <c r="S4" s="61" t="n"/>
-      <c r="T4" s="61" t="n"/>
-      <c r="U4" s="61" t="n"/>
-      <c r="V4" s="61" t="n"/>
-      <c r="W4" s="61" t="n"/>
-      <c r="X4" s="61" t="n"/>
-      <c r="Y4" s="61" t="n"/>
-      <c r="Z4" s="61" t="n"/>
-      <c r="AA4" s="61" t="n"/>
-      <c r="AB4" s="61" t="n"/>
-      <c r="AC4" s="61" t="n"/>
-      <c r="AD4" s="61" t="n"/>
-      <c r="AE4" s="61" t="n"/>
-      <c r="AF4" s="61" t="n"/>
-      <c r="AG4" s="61" t="n"/>
-      <c r="AH4" s="61" t="n"/>
-      <c r="AI4" s="50" t="n"/>
-      <c r="AJ4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>PIPING CLASS :</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n"/>
-      <c r="C5" s="47" t="n"/>
-      <c r="D5" s="47" t="n"/>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="69" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="I5" s="95" t="n"/>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="95" t="n"/>
-      <c r="L5" s="95" t="n"/>
-      <c r="M5" s="95" t="n"/>
-      <c r="N5" s="95" t="n"/>
-      <c r="O5" s="47" t="n"/>
-      <c r="P5" s="47" t="n"/>
-      <c r="Q5" s="47" t="n"/>
-      <c r="R5" s="47" t="n"/>
-      <c r="S5" s="47" t="n"/>
-      <c r="T5" s="47" t="n"/>
-      <c r="U5" s="47" t="n"/>
-      <c r="V5" s="61" t="n"/>
-      <c r="W5" s="24" t="inlineStr">
-        <is>
-          <t>PLANT LOCATION:</t>
-        </is>
-      </c>
-      <c r="X5" s="61" t="n"/>
-      <c r="Y5" s="61" t="n"/>
-      <c r="Z5" s="61" t="n"/>
-      <c r="AA5" s="61" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="95" t="n"/>
-      <c r="AD5" s="95" t="n"/>
-      <c r="AE5" s="95" t="n"/>
-      <c r="AF5" s="95" t="n"/>
-      <c r="AG5" s="95" t="n"/>
-      <c r="AH5" s="95" t="n"/>
-      <c r="AI5" s="95" t="n"/>
-      <c r="AJ5" s="65" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>SERVICE (Note 1):</t>
-        </is>
-      </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="61" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="61" t="n"/>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
-        <is>
-          <t>HCN &amp; HCR</t>
-        </is>
-      </c>
-      <c r="I6" s="95" t="n"/>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="95" t="n"/>
-      <c r="L6" s="95" t="n"/>
-      <c r="M6" s="95" t="n"/>
-      <c r="N6" s="95" t="n"/>
-      <c r="O6" s="95" t="n"/>
-      <c r="P6" s="95" t="n"/>
-      <c r="Q6" s="95" t="n"/>
-      <c r="R6" s="95" t="n"/>
-      <c r="S6" s="95" t="n"/>
-      <c r="T6" s="95" t="n"/>
-      <c r="U6" s="95" t="n"/>
-      <c r="V6" s="95" t="n"/>
-      <c r="W6" s="95" t="n"/>
-      <c r="X6" s="95" t="n"/>
-      <c r="Y6" s="95" t="n"/>
-      <c r="Z6" s="95" t="n"/>
-      <c r="AA6" s="95" t="n"/>
-      <c r="AB6" s="95" t="n"/>
-      <c r="AC6" s="95" t="n"/>
-      <c r="AD6" s="95" t="n"/>
-      <c r="AE6" s="95" t="n"/>
-      <c r="AF6" s="95" t="n"/>
-      <c r="AG6" s="95" t="n"/>
-      <c r="AH6" s="95" t="n"/>
-      <c r="AI6" s="95" t="n"/>
-      <c r="AJ6" s="65" t="n"/>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="57" t="n"/>
-      <c r="B7" s="48" t="n"/>
-      <c r="C7" s="48" t="n"/>
-      <c r="D7" s="48" t="n"/>
-      <c r="E7" s="48" t="n"/>
-      <c r="F7" s="48" t="n"/>
-      <c r="G7" s="48" t="n"/>
-      <c r="H7" s="48" t="n"/>
-      <c r="I7" s="48" t="n"/>
-      <c r="J7" s="48" t="n"/>
-      <c r="K7" s="48" t="n"/>
-      <c r="L7" s="48" t="n"/>
-      <c r="M7" s="48" t="n"/>
-      <c r="N7" s="48" t="n"/>
-      <c r="O7" s="48" t="n"/>
-      <c r="P7" s="48" t="n"/>
-      <c r="Q7" s="48" t="n"/>
-      <c r="R7" s="48" t="n"/>
-      <c r="S7" s="48" t="n"/>
-      <c r="T7" s="48" t="n"/>
-      <c r="U7" s="48" t="n"/>
-      <c r="V7" s="48" t="n"/>
-      <c r="W7" s="48" t="n"/>
-      <c r="X7" s="48" t="n"/>
-      <c r="Y7" s="48" t="n"/>
-      <c r="Z7" s="48" t="n"/>
-      <c r="AA7" s="48" t="n"/>
-      <c r="AB7" s="48" t="n"/>
-      <c r="AC7" s="48" t="n"/>
-      <c r="AD7" s="48" t="n"/>
-      <c r="AE7" s="48" t="n"/>
-      <c r="AF7" s="48" t="n"/>
-      <c r="AG7" s="48" t="n"/>
-      <c r="AH7" s="48" t="n"/>
-      <c r="AI7" s="48" t="n"/>
-      <c r="AJ7" s="31" t="n"/>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A8" s="15" t="n"/>
-      <c r="B8" s="51" t="n"/>
-      <c r="C8" s="51" t="n"/>
-      <c r="D8" s="51" t="n"/>
-      <c r="E8" s="51" t="n"/>
-      <c r="F8" s="51" t="n"/>
-      <c r="G8" s="51" t="n"/>
-      <c r="H8" s="51" t="n"/>
-      <c r="I8" s="51" t="n"/>
-      <c r="J8" s="51" t="n"/>
-      <c r="K8" s="51" t="n"/>
-      <c r="L8" s="51" t="n"/>
-      <c r="M8" s="51" t="n"/>
-      <c r="N8" s="51" t="n"/>
-      <c r="O8" s="51" t="n"/>
-      <c r="P8" s="51" t="n"/>
-      <c r="Q8" s="51" t="n"/>
-      <c r="R8" s="51" t="n"/>
-      <c r="S8" s="52" t="inlineStr">
-        <is>
-          <t>M E C H A N I C A L</t>
-        </is>
-      </c>
-      <c r="T8" s="51" t="n"/>
-      <c r="U8" s="51" t="n"/>
-      <c r="V8" s="51" t="n"/>
-      <c r="W8" s="51" t="n"/>
-      <c r="X8" s="51" t="n"/>
-      <c r="Y8" s="51" t="n"/>
-      <c r="Z8" s="51" t="n"/>
-      <c r="AA8" s="51" t="n"/>
-      <c r="AB8" s="51" t="n"/>
-      <c r="AC8" s="51" t="n"/>
-      <c r="AD8" s="51" t="n"/>
-      <c r="AE8" s="51" t="n"/>
-      <c r="AF8" s="51" t="n"/>
-      <c r="AG8" s="51" t="n"/>
-      <c r="AH8" s="51" t="n"/>
-      <c r="AI8" s="51" t="n"/>
-      <c r="AJ8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="61" t="n"/>
-      <c r="D9" s="61" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="61" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="61" t="n"/>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="61" t="n"/>
-      <c r="K9" s="61" t="n"/>
-      <c r="L9" s="61" t="n"/>
-      <c r="M9" s="61" t="n"/>
-      <c r="N9" s="61" t="n"/>
-      <c r="O9" s="61" t="n"/>
-      <c r="P9" s="61" t="n"/>
-      <c r="Q9" s="61" t="n"/>
-      <c r="R9" s="61" t="n"/>
-      <c r="S9" s="61" t="n"/>
-      <c r="T9" s="61" t="n"/>
-      <c r="U9" s="61" t="n"/>
-      <c r="V9" s="61" t="n"/>
-      <c r="W9" s="61" t="n"/>
-      <c r="X9" s="61" t="n"/>
-      <c r="Y9" s="61" t="n"/>
-      <c r="Z9" s="61" t="n"/>
-      <c r="AA9" s="61" t="n"/>
-      <c r="AB9" s="61" t="n"/>
-      <c r="AC9" s="61" t="n"/>
-      <c r="AD9" s="61" t="n"/>
-      <c r="AE9" s="61" t="n"/>
-      <c r="AF9" s="61" t="n"/>
-      <c r="AG9" s="61" t="n"/>
-      <c r="AH9" s="61" t="n"/>
-      <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>VALVE TYPE :</t>
-        </is>
-      </c>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="61" t="n"/>
-      <c r="D10" s="61" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="61" t="n"/>
-      <c r="G10" s="61" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
-        <is>
-          <t>BALL VALVE, FLOATING BALL</t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="95" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="95" t="n"/>
-      <c r="M10" s="95" t="n"/>
-      <c r="N10" s="95" t="n"/>
-      <c r="O10" s="95" t="n"/>
-      <c r="P10" s="95" t="n"/>
-      <c r="Q10" s="95" t="n"/>
-      <c r="R10" s="95" t="n"/>
-      <c r="S10" s="95" t="n"/>
-      <c r="T10" s="95" t="n"/>
-      <c r="U10" s="95" t="n"/>
-      <c r="V10" s="95" t="n"/>
-      <c r="W10" s="95" t="n"/>
-      <c r="X10" s="61" t="n"/>
-      <c r="Y10" s="61" t="n"/>
-      <c r="Z10" s="61" t="n"/>
-      <c r="AA10" s="61" t="n"/>
-      <c r="AB10" s="49" t="inlineStr">
-        <is>
-          <t>RATING / CLASS:</t>
-        </is>
-      </c>
-      <c r="AC10" s="70" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="AD10" s="95" t="n"/>
-      <c r="AE10" s="95" t="n"/>
-      <c r="AF10" s="95" t="n"/>
-      <c r="AG10" s="95" t="n"/>
-      <c r="AH10" s="95" t="n"/>
-      <c r="AI10" s="95" t="n"/>
-      <c r="AJ10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>END CONNECTIONS:</t>
-        </is>
-      </c>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="61" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="61" t="n"/>
-      <c r="G11" s="61" t="n"/>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLANGED </t>
-        </is>
-      </c>
-      <c r="I11" s="61" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr"/>
-      <c r="M11" s="95" t="n"/>
-      <c r="N11" s="61" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="61" t="n"/>
-      <c r="Q11" s="61" t="n"/>
-      <c r="R11" s="49" t="inlineStr">
-        <is>
-          <t>FACING:</t>
-        </is>
-      </c>
-      <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr"/>
-      <c r="U11" s="95" t="n"/>
-      <c r="V11" s="61" t="n"/>
-      <c r="W11" s="61" t="n"/>
-      <c r="X11" s="61" t="n"/>
-      <c r="Y11" s="61" t="n"/>
-      <c r="Z11" s="61" t="n"/>
-      <c r="AA11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOCKETWELD </t>
-        </is>
-      </c>
-      <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
-      <c r="AD11" s="95" t="n"/>
-      <c r="AE11" s="66" t="inlineStr">
-        <is>
-          <t>SCREWED</t>
-        </is>
-      </c>
-      <c r="AF11" s="66" t="n"/>
-      <c r="AG11" s="66" t="n"/>
-      <c r="AH11" s="72" t="inlineStr"/>
-      <c r="AI11" s="95" t="n"/>
-      <c r="AJ11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="37" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="61" t="n"/>
-      <c r="D12" s="61" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="61" t="n"/>
-      <c r="G12" s="61" t="n"/>
-      <c r="H12" s="54" t="inlineStr">
-        <is>
-          <t>BUTTWELD</t>
-        </is>
-      </c>
-      <c r="I12" s="61" t="n"/>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="61" t="n"/>
-      <c r="L12" s="68" t="inlineStr"/>
-      <c r="M12" s="95" t="n"/>
-      <c r="N12" s="95" t="n"/>
-      <c r="O12" s="95" t="n"/>
-      <c r="P12" s="95" t="n"/>
-      <c r="Q12" s="95" t="n"/>
-      <c r="R12" s="95" t="n"/>
-      <c r="S12" s="95" t="n"/>
-      <c r="T12" s="95" t="n"/>
-      <c r="U12" s="95" t="n"/>
-      <c r="V12" s="95" t="n"/>
-      <c r="W12" s="61" t="n"/>
-      <c r="X12" s="61" t="n"/>
-      <c r="Y12" s="61" t="n"/>
-      <c r="Z12" s="61" t="n"/>
-      <c r="AA12" s="61" t="n"/>
-      <c r="AB12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-      <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="AE12" s="95" t="n"/>
-      <c r="AF12" s="95" t="n"/>
-      <c r="AG12" s="95" t="n"/>
-      <c r="AH12" s="95" t="n"/>
-      <c r="AI12" s="95" t="n"/>
-      <c r="AJ12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A13" s="37" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="61" t="n"/>
-      <c r="D13" s="61" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="61" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="61" t="n"/>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="61" t="n"/>
-      <c r="L13" s="61" t="n"/>
-      <c r="M13" s="61" t="n"/>
-      <c r="N13" s="61" t="n"/>
-      <c r="O13" s="61" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="61" t="n"/>
-      <c r="R13" s="61" t="n"/>
-      <c r="S13" s="61" t="n"/>
-      <c r="T13" s="61" t="n"/>
-      <c r="U13" s="61" t="n"/>
-      <c r="V13" s="61" t="n"/>
-      <c r="W13" s="61" t="n"/>
-      <c r="X13" s="61" t="n"/>
-      <c r="Y13" s="61" t="n"/>
-      <c r="Z13" s="61" t="n"/>
-      <c r="AA13" s="61" t="n"/>
-      <c r="AB13" s="53" t="n"/>
-      <c r="AC13" s="61" t="n"/>
-      <c r="AD13" s="61" t="n"/>
-      <c r="AE13" s="61" t="n"/>
-      <c r="AF13" s="61" t="n"/>
-      <c r="AG13" s="61" t="n"/>
-      <c r="AH13" s="61" t="n"/>
-      <c r="AI13" s="61" t="n"/>
-      <c r="AJ13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
-        </is>
-      </c>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="61" t="n"/>
-      <c r="D14" s="61" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="61" t="n"/>
-      <c r="G14" s="61" t="n"/>
-      <c r="H14" s="61" t="n"/>
-      <c r="I14" s="61" t="n"/>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="61" t="n"/>
-      <c r="L14" s="61" t="n"/>
-      <c r="M14" s="61" t="n"/>
-      <c r="N14" s="61" t="n"/>
-      <c r="O14" s="61" t="n"/>
-      <c r="P14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.5</t>
-        </is>
-      </c>
-      <c r="Q14" s="68" t="inlineStr"/>
-      <c r="R14" s="95" t="n"/>
-      <c r="S14" s="95" t="n"/>
-      <c r="T14" s="61" t="n"/>
-      <c r="U14" s="61" t="n"/>
-      <c r="V14" s="61" t="n"/>
-      <c r="W14" s="61" t="n"/>
-      <c r="X14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.11</t>
-        </is>
-      </c>
-      <c r="Y14" s="68" t="inlineStr"/>
-      <c r="Z14" s="95" t="n"/>
-      <c r="AA14" s="95" t="n"/>
-      <c r="AB14" s="61" t="n"/>
-      <c r="AC14" s="61" t="n"/>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr">
-        <is>
-          <t>MNF STD</t>
-        </is>
-      </c>
-      <c r="AG14" s="95" t="n"/>
-      <c r="AH14" s="95" t="n"/>
-      <c r="AI14" s="95" t="n"/>
-      <c r="AJ14" s="16" t="n"/>
-    </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>BORE:</t>
-        </is>
-      </c>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="61" t="n"/>
-      <c r="D15" s="61" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="61" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="I15" s="61" t="n"/>
-      <c r="J15" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K15" s="95" t="n"/>
-      <c r="L15" s="95" t="n"/>
-      <c r="M15" s="95" t="n"/>
-      <c r="N15" s="95" t="n"/>
-      <c r="O15" s="95" t="n"/>
-      <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="inlineStr">
-        <is>
-          <t>REDUCED</t>
-        </is>
-      </c>
-      <c r="R15" s="61" t="n"/>
-      <c r="S15" s="61" t="n"/>
-      <c r="T15" s="68" t="inlineStr"/>
-      <c r="U15" s="95" t="n"/>
-      <c r="V15" s="95" t="n"/>
-      <c r="W15" s="95" t="n"/>
-      <c r="X15" s="95" t="n"/>
-      <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="inlineStr">
-        <is>
-          <t>ACCORDING TO:</t>
-        </is>
-      </c>
-      <c r="AA15" s="61" t="n"/>
-      <c r="AB15" s="61" t="n"/>
-      <c r="AC15" s="61" t="n"/>
-      <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="68" t="inlineStr"/>
-      <c r="AF15" s="95" t="n"/>
-      <c r="AG15" s="95" t="n"/>
-      <c r="AH15" s="95" t="n"/>
-      <c r="AI15" s="95" t="n"/>
-      <c r="AJ15" s="16" t="n"/>
-    </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>LENGHT:</t>
-        </is>
-      </c>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="61" t="n"/>
-      <c r="D16" s="61" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="61" t="n"/>
-      <c r="G16" s="61" t="n"/>
-      <c r="H16" s="61" t="n"/>
-      <c r="I16" s="61" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="61" t="n"/>
-      <c r="L16" s="61" t="n"/>
-      <c r="M16" s="61" t="n"/>
-      <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="inlineStr">
-        <is>
-          <t>SHORT  PATTERN</t>
-        </is>
-      </c>
-      <c r="P16" s="68" t="inlineStr"/>
-      <c r="Q16" s="95" t="n"/>
-      <c r="R16" s="95" t="n"/>
-      <c r="S16" s="61" t="n"/>
-      <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="inlineStr">
-        <is>
-          <t>REG./LONG  PATTERN</t>
-        </is>
-      </c>
-      <c r="V16" s="61" t="n"/>
-      <c r="W16" s="61" t="n"/>
-      <c r="X16" s="61" t="n"/>
-      <c r="Y16" s="55" t="n"/>
-      <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr"/>
-      <c r="AB16" s="95" t="n"/>
-      <c r="AC16" s="95" t="n"/>
-      <c r="AD16" s="61" t="n"/>
-      <c r="AE16" s="61" t="n"/>
-      <c r="AF16" s="61" t="n"/>
-      <c r="AG16" s="61" t="n"/>
-      <c r="AH16" s="61" t="n"/>
-      <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="16" t="n"/>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A17" s="17" t="inlineStr">
-        <is>
-          <t>TYPE OPERATOR :</t>
-        </is>
-      </c>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="61" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="69" t="inlineStr">
-        <is>
-          <t>LEVER OPERATOR</t>
-        </is>
-      </c>
-      <c r="I17" s="95" t="n"/>
-      <c r="J17" s="95" t="n"/>
-      <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="n"/>
-      <c r="M17" s="95" t="n"/>
-      <c r="N17" s="95" t="n"/>
-      <c r="O17" s="61" t="n"/>
-      <c r="P17" s="61" t="n"/>
-      <c r="Q17" s="61" t="n"/>
-      <c r="R17" s="61" t="n"/>
-      <c r="S17" s="61" t="n"/>
-      <c r="T17" s="61" t="n"/>
-      <c r="U17" s="61" t="n"/>
-      <c r="V17" s="61" t="n"/>
-      <c r="W17" s="61" t="n"/>
-      <c r="X17" s="61" t="n"/>
-      <c r="Y17" s="61" t="n"/>
-      <c r="Z17" s="61" t="n"/>
-      <c r="AA17" s="61" t="n"/>
-      <c r="AB17" s="61" t="n"/>
-      <c r="AC17" s="61" t="n"/>
-      <c r="AD17" s="61" t="n"/>
-      <c r="AE17" s="61" t="n"/>
-      <c r="AF17" s="61" t="n"/>
-      <c r="AG17" s="61" t="n"/>
-      <c r="AH17" s="61" t="n"/>
-      <c r="AI17" s="61" t="n"/>
-      <c r="AJ17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A18" s="37" t="n"/>
-      <c r="B18" s="61" t="n"/>
-      <c r="C18" s="61" t="n"/>
-      <c r="D18" s="61" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="61" t="n"/>
-      <c r="G18" s="61" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="61" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="61" t="n"/>
-      <c r="L18" s="61" t="n"/>
-      <c r="M18" s="61" t="n"/>
-      <c r="N18" s="61" t="n"/>
-      <c r="O18" s="61" t="n"/>
-      <c r="P18" s="61" t="n"/>
-      <c r="Q18" s="61" t="n"/>
-      <c r="R18" s="61" t="n"/>
-      <c r="S18" s="61" t="n"/>
-      <c r="T18" s="61" t="n"/>
-      <c r="U18" s="61" t="n"/>
-      <c r="V18" s="61" t="n"/>
-      <c r="W18" s="61" t="n"/>
-      <c r="X18" s="61" t="n"/>
-      <c r="Y18" s="55" t="n"/>
-      <c r="Z18" s="61" t="n"/>
-      <c r="AA18" s="61" t="n"/>
-      <c r="AB18" s="61" t="n"/>
-      <c r="AC18" s="61" t="n"/>
-      <c r="AD18" s="61" t="n"/>
-      <c r="AE18" s="61" t="n"/>
-      <c r="AF18" s="61" t="n"/>
-      <c r="AG18" s="61" t="n"/>
-      <c r="AH18" s="61" t="n"/>
-      <c r="AI18" s="61" t="n"/>
-      <c r="AJ18" s="28" t="n"/>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="51" t="n"/>
-      <c r="C19" s="51" t="n"/>
-      <c r="D19" s="51" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
-      <c r="G19" s="51" t="n"/>
-      <c r="H19" s="51" t="n"/>
-      <c r="I19" s="51" t="n"/>
-      <c r="J19" s="51" t="n"/>
-      <c r="K19" s="51" t="n"/>
-      <c r="L19" s="51" t="n"/>
-      <c r="M19" s="51" t="n"/>
-      <c r="N19" s="51" t="n"/>
-      <c r="O19" s="51" t="n"/>
-      <c r="P19" s="51" t="n"/>
-      <c r="Q19" s="51" t="n"/>
-      <c r="R19" s="51" t="n"/>
-      <c r="S19" s="52" t="inlineStr">
-        <is>
-          <t>D E S I G N</t>
-        </is>
-      </c>
-      <c r="T19" s="51" t="n"/>
-      <c r="U19" s="51" t="n"/>
-      <c r="V19" s="51" t="n"/>
-      <c r="W19" s="51" t="n"/>
-      <c r="X19" s="51" t="n"/>
-      <c r="Y19" s="51" t="n"/>
-      <c r="Z19" s="51" t="n"/>
-      <c r="AA19" s="51" t="n"/>
-      <c r="AB19" s="51" t="n"/>
-      <c r="AC19" s="51" t="n"/>
-      <c r="AD19" s="51" t="n"/>
-      <c r="AE19" s="51" t="n"/>
-      <c r="AF19" s="51" t="n"/>
-      <c r="AG19" s="51" t="n"/>
-      <c r="AH19" s="51" t="n"/>
-      <c r="AI19" s="51" t="n"/>
-      <c r="AJ19" s="16" t="n"/>
-    </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A20" s="37" t="n"/>
-      <c r="B20" s="61" t="n"/>
-      <c r="C20" s="61" t="n"/>
-      <c r="D20" s="61" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="61" t="n"/>
-      <c r="H20" s="61" t="n"/>
-      <c r="I20" s="61" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="61" t="n"/>
-      <c r="L20" s="61" t="n"/>
-      <c r="M20" s="61" t="n"/>
-      <c r="N20" s="61" t="n"/>
-      <c r="O20" s="61" t="n"/>
-      <c r="P20" s="61" t="n"/>
-      <c r="Q20" s="61" t="n"/>
-      <c r="R20" s="61" t="n"/>
-      <c r="S20" s="61" t="n"/>
-      <c r="T20" s="61" t="n"/>
-      <c r="U20" s="61" t="n"/>
-      <c r="V20" s="61" t="n"/>
-      <c r="W20" s="61" t="n"/>
-      <c r="X20" s="61" t="n"/>
-      <c r="Y20" s="61" t="n"/>
-      <c r="Z20" s="61" t="n"/>
-      <c r="AA20" s="61" t="n"/>
-      <c r="AB20" s="61" t="n"/>
-      <c r="AC20" s="61" t="n"/>
-      <c r="AD20" s="61" t="n"/>
-      <c r="AE20" s="61" t="n"/>
-      <c r="AF20" s="61" t="n"/>
-      <c r="AG20" s="61" t="n"/>
-      <c r="AH20" s="61" t="n"/>
-      <c r="AI20" s="61" t="n"/>
-      <c r="AJ20" s="28" t="n"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>APPLICABLE PIPING</t>
-        </is>
-      </c>
-      <c r="B21" s="61" t="n"/>
-      <c r="C21" s="61" t="n"/>
-      <c r="D21" s="61" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="61" t="n"/>
-      <c r="H21" s="61" t="n"/>
-      <c r="I21" s="61" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="61" t="n"/>
-      <c r="L21" s="61" t="n"/>
-      <c r="M21" s="61" t="n"/>
-      <c r="N21" s="61" t="n"/>
-      <c r="O21" s="61" t="n"/>
-      <c r="P21" s="61" t="n"/>
-      <c r="Q21" s="61" t="n"/>
-      <c r="R21" s="61" t="n"/>
-      <c r="S21" s="61" t="n"/>
-      <c r="T21" s="61" t="n"/>
-      <c r="U21" s="61" t="n"/>
-      <c r="V21" s="61" t="n"/>
-      <c r="W21" s="61" t="n"/>
-      <c r="X21" s="61" t="n"/>
-      <c r="Y21" s="61" t="n"/>
-      <c r="Z21" s="61" t="n"/>
-      <c r="AA21" s="61" t="n"/>
-      <c r="AB21" s="61" t="n"/>
-      <c r="AC21" s="61" t="n"/>
-      <c r="AD21" s="61" t="n"/>
-      <c r="AE21" s="61" t="n"/>
-      <c r="AF21" s="61" t="n"/>
-      <c r="AG21" s="61" t="n"/>
-      <c r="AH21" s="61" t="n"/>
-      <c r="AI21" s="61" t="n"/>
-      <c r="AJ21" s="28" t="n"/>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DESIGN CODE:       </t>
-        </is>
-      </c>
-      <c r="B22" s="61" t="n"/>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>API 600</t>
-        </is>
-      </c>
-      <c r="I22" s="68" t="inlineStr"/>
-      <c r="J22" s="95" t="n"/>
-      <c r="K22" s="61" t="n"/>
-      <c r="L22" s="61" t="n"/>
-      <c r="M22" s="81" t="inlineStr">
-        <is>
-          <t>API 6D</t>
-        </is>
-      </c>
-      <c r="N22" s="61" t="n"/>
-      <c r="O22" s="68" t="inlineStr"/>
-      <c r="P22" s="95" t="n"/>
-      <c r="Q22" s="61" t="n"/>
-      <c r="R22" s="61" t="n"/>
-      <c r="S22" s="61" t="n"/>
-      <c r="T22" s="53" t="inlineStr">
-        <is>
-          <t>API 608</t>
-        </is>
-      </c>
-      <c r="U22" s="71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V22" s="95" t="n"/>
-      <c r="W22" s="61" t="n"/>
-      <c r="X22" s="61" t="n"/>
-      <c r="Y22" s="61" t="n"/>
-      <c r="Z22" s="56" t="inlineStr">
-        <is>
-          <t>API 602</t>
-        </is>
-      </c>
-      <c r="AA22" s="68" t="inlineStr"/>
-      <c r="AB22" s="95" t="n"/>
-      <c r="AC22" s="61" t="n"/>
-      <c r="AD22" s="61" t="n"/>
-      <c r="AE22" s="79" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AG22" s="68" t="inlineStr"/>
-      <c r="AH22" s="95" t="n"/>
-      <c r="AI22" s="95" t="n"/>
-      <c r="AJ22" s="28" t="n"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
-        </is>
-      </c>
-      <c r="L23" s="90" t="inlineStr">
-        <is>
-          <t>FIRE SAFE AS PER API 607</t>
-        </is>
-      </c>
-      <c r="M23" s="95" t="n"/>
-      <c r="N23" s="95" t="n"/>
-      <c r="O23" s="95" t="n"/>
-      <c r="P23" s="95" t="n"/>
-      <c r="Q23" s="95" t="n"/>
-      <c r="R23" s="95" t="n"/>
-      <c r="S23" s="95" t="n"/>
-      <c r="T23" s="95" t="n"/>
-      <c r="U23" s="95" t="n"/>
-      <c r="V23" s="95" t="n"/>
-      <c r="W23" s="95" t="n"/>
-      <c r="X23" s="95" t="n"/>
-      <c r="Y23" s="95" t="n"/>
-      <c r="Z23" s="95" t="n"/>
-      <c r="AA23" s="95" t="n"/>
-      <c r="AB23" s="95" t="n"/>
-      <c r="AC23" s="95" t="n"/>
-      <c r="AD23" s="95" t="n"/>
-      <c r="AE23" s="95" t="n"/>
-      <c r="AF23" s="95" t="n"/>
-      <c r="AG23" s="95" t="n"/>
-      <c r="AH23" s="95" t="n"/>
-      <c r="AI23" s="95" t="n"/>
-      <c r="AJ23" s="28" t="n"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="68" t="n">
-        <v>285</v>
-      </c>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="95" t="n"/>
-      <c r="K24" s="95" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="95" t="n"/>
-      <c r="N24" s="95" t="n"/>
-      <c r="O24" s="95" t="n"/>
-      <c r="P24" s="24" t="inlineStr">
-        <is>
-          <t>PSIG @100°F</t>
-        </is>
-      </c>
-      <c r="Q24" s="61" t="n"/>
-      <c r="R24" s="61" t="n"/>
-      <c r="S24" s="61" t="n"/>
-      <c r="T24" s="61" t="n"/>
-      <c r="U24" s="61" t="n"/>
-      <c r="V24" s="61" t="n"/>
-      <c r="W24" s="61" t="n"/>
-      <c r="X24" s="61" t="n"/>
-      <c r="Y24" s="61" t="n"/>
-      <c r="Z24" s="49" t="inlineStr">
-        <is>
-          <t>DESIGN TEMP:</t>
-        </is>
-      </c>
-      <c r="AA24" s="61" t="n"/>
-      <c r="AB24" s="69" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="95" t="n"/>
-      <c r="AD24" s="24" t="inlineStr">
-        <is>
-          <t>F. MIN</t>
-        </is>
-      </c>
-      <c r="AE24" s="61" t="n"/>
-      <c r="AF24" s="69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="95" t="n"/>
-      <c r="AH24" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F. MAX</t>
-        </is>
-      </c>
-      <c r="AI24" s="61" t="n"/>
-      <c r="AJ24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B25" s="61" t="n"/>
-      <c r="C25" s="61" t="n"/>
-      <c r="D25" s="61" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="61" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="61" t="n"/>
-      <c r="I25" s="61" t="n"/>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="32" t="n"/>
-      <c r="L25" s="32" t="n"/>
-      <c r="M25" s="32" t="n"/>
-      <c r="N25" s="32" t="n"/>
-      <c r="O25" s="32" t="n"/>
-      <c r="P25" s="33" t="n"/>
-      <c r="Q25" s="79" t="inlineStr">
-        <is>
-          <t>PSIG</t>
-        </is>
-      </c>
-      <c r="S25" s="61" t="n"/>
-      <c r="T25" s="61" t="n"/>
-      <c r="U25" s="61" t="n"/>
-      <c r="V25" s="61" t="n"/>
-      <c r="W25" s="24" t="inlineStr">
-        <is>
-          <t>TEST PRESSURE:</t>
-        </is>
-      </c>
-      <c r="X25" s="61" t="n"/>
-      <c r="Y25" s="61" t="n"/>
-      <c r="Z25" s="61" t="n"/>
-      <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr">
-        <is>
-          <t>API 598</t>
-        </is>
-      </c>
-      <c r="AC25" s="95" t="n"/>
-      <c r="AD25" s="95" t="n"/>
-      <c r="AE25" s="24" t="n"/>
-      <c r="AF25" s="78" t="n"/>
-      <c r="AH25" s="61" t="n"/>
-      <c r="AI25" s="61" t="n"/>
-      <c r="AJ25" s="31" t="n"/>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>CONTAMINANTS :</t>
-        </is>
-      </c>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="61" t="n"/>
-      <c r="G26" s="61" t="n"/>
-      <c r="H26" s="24" t="inlineStr">
-        <is>
-          <t>CO2:</t>
-        </is>
-      </c>
-      <c r="I26" s="19" t="n"/>
-      <c r="J26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n"/>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="n"/>
-      <c r="Q26" s="61" t="n"/>
-      <c r="R26" s="61" t="n"/>
-      <c r="S26" s="49" t="inlineStr">
-        <is>
-          <t>CHLORIDE:</t>
-        </is>
-      </c>
-      <c r="T26" s="85" t="n"/>
-      <c r="U26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V26" s="20" t="n"/>
-      <c r="W26" s="33" t="n"/>
-      <c r="X26" s="33" t="n"/>
-      <c r="Y26" s="33" t="n"/>
-      <c r="Z26" s="33" t="n"/>
-      <c r="AA26" s="61" t="n"/>
-      <c r="AB26" s="53" t="inlineStr">
-        <is>
-          <t>H2S:</t>
-        </is>
-      </c>
-      <c r="AC26" s="70" t="n"/>
-      <c r="AD26" s="95" t="n"/>
-      <c r="AE26" s="95" t="n"/>
-      <c r="AF26" s="95" t="n"/>
-      <c r="AG26" s="95" t="n"/>
-      <c r="AH26" s="95" t="n"/>
-      <c r="AI26" s="95" t="n"/>
-      <c r="AJ26" s="28" t="n"/>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A27" s="37" t="n"/>
-      <c r="B27" s="61" t="n"/>
-      <c r="C27" s="61" t="n"/>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="61" t="n"/>
-      <c r="G27" s="61" t="n"/>
-      <c r="H27" s="24" t="inlineStr">
-        <is>
-          <t>METHANOL :</t>
-        </is>
-      </c>
-      <c r="I27" s="61" t="n"/>
-      <c r="J27" s="61" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n"/>
-      <c r="M27" s="33" t="n"/>
-      <c r="N27" s="33" t="n"/>
-      <c r="O27" s="33" t="n"/>
-      <c r="P27" s="33" t="n"/>
-      <c r="Q27" s="33" t="n"/>
-      <c r="R27" s="33" t="n"/>
-      <c r="S27" s="33" t="n"/>
-      <c r="T27" s="33" t="n"/>
-      <c r="U27" s="61" t="n"/>
-      <c r="V27" s="61" t="n"/>
-      <c r="W27" s="53" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="95" t="n"/>
-      <c r="Z27" s="95" t="n"/>
-      <c r="AA27" s="95" t="n"/>
-      <c r="AB27" s="95" t="n"/>
-      <c r="AC27" s="95" t="n"/>
-      <c r="AD27" s="95" t="n"/>
-      <c r="AE27" s="95" t="n"/>
-      <c r="AF27" s="95" t="n"/>
-      <c r="AG27" s="95" t="n"/>
-      <c r="AH27" s="95" t="n"/>
-      <c r="AI27" s="95" t="n"/>
-      <c r="AJ27" s="28" t="n"/>
-    </row>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A28" s="37" t="n"/>
-      <c r="B28" s="61" t="n"/>
-      <c r="C28" s="61" t="n"/>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="61" t="n"/>
-      <c r="G28" s="61" t="n"/>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="61" t="n"/>
-      <c r="J28" s="61" t="n"/>
-      <c r="K28" s="61" t="n"/>
-      <c r="L28" s="61" t="n"/>
-      <c r="M28" s="61" t="n"/>
-      <c r="N28" s="61" t="n"/>
-      <c r="O28" s="61" t="n"/>
-      <c r="P28" s="61" t="n"/>
-      <c r="Q28" s="61" t="n"/>
-      <c r="R28" s="61" t="n"/>
-      <c r="S28" s="61" t="n"/>
-      <c r="T28" s="61" t="n"/>
-      <c r="U28" s="61" t="n"/>
-      <c r="V28" s="61" t="n"/>
-      <c r="W28" s="61" t="n"/>
-      <c r="X28" s="61" t="n"/>
-      <c r="Y28" s="61" t="n"/>
-      <c r="Z28" s="61" t="n"/>
-      <c r="AA28" s="61" t="n"/>
-      <c r="AB28" s="61" t="n"/>
-      <c r="AC28" s="61" t="n"/>
-      <c r="AD28" s="61" t="n"/>
-      <c r="AE28" s="61" t="n"/>
-      <c r="AF28" s="61" t="n"/>
-      <c r="AG28" s="61" t="n"/>
-      <c r="AH28" s="61" t="n"/>
-      <c r="AI28" s="61" t="n"/>
-      <c r="AJ28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
-      <c r="G29" s="51" t="n"/>
-      <c r="H29" s="51" t="n"/>
-      <c r="I29" s="51" t="n"/>
-      <c r="J29" s="51" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-      <c r="P29" s="51" t="n"/>
-      <c r="Q29" s="51" t="n"/>
-      <c r="R29" s="51" t="n"/>
-      <c r="S29" s="52" t="inlineStr">
-        <is>
-          <t>M A T E R I A L S</t>
-        </is>
-      </c>
-      <c r="T29" s="51" t="n"/>
-      <c r="U29" s="51" t="n"/>
-      <c r="V29" s="51" t="n"/>
-      <c r="W29" s="51" t="n"/>
-      <c r="X29" s="51" t="n"/>
-      <c r="Y29" s="51" t="n"/>
-      <c r="Z29" s="51" t="n"/>
-      <c r="AA29" s="51" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="51" t="n"/>
-      <c r="AD29" s="51" t="n"/>
-      <c r="AE29" s="51" t="n"/>
-      <c r="AF29" s="51" t="n"/>
-      <c r="AG29" s="51" t="n"/>
-      <c r="AH29" s="51" t="n"/>
-      <c r="AI29" s="51" t="n"/>
-      <c r="AJ29" s="16" t="n"/>
-    </row>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="51" t="n"/>
-      <c r="C30" s="51" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
-      <c r="G30" s="51" t="n"/>
-      <c r="H30" s="51" t="n"/>
-      <c r="I30" s="51" t="n"/>
-      <c r="J30" s="51" t="n"/>
-      <c r="K30" s="51" t="n"/>
-      <c r="L30" s="51" t="n"/>
-      <c r="M30" s="51" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-      <c r="P30" s="51" t="n"/>
-      <c r="Q30" s="51" t="n"/>
-      <c r="R30" s="51" t="n"/>
-      <c r="S30" s="52" t="n"/>
-      <c r="T30" s="51" t="n"/>
-      <c r="U30" s="51" t="n"/>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="51" t="n"/>
-      <c r="X30" s="51" t="n"/>
-      <c r="Y30" s="51" t="n"/>
-      <c r="Z30" s="51" t="n"/>
-      <c r="AA30" s="51" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="51" t="n"/>
-      <c r="AD30" s="51" t="n"/>
-      <c r="AE30" s="51" t="n"/>
-      <c r="AF30" s="51" t="n"/>
-      <c r="AG30" s="51" t="n"/>
-      <c r="AH30" s="51" t="n"/>
-      <c r="AI30" s="51" t="n"/>
-      <c r="AJ30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="42" t="n"/>
-      <c r="G31" s="42" t="n"/>
-      <c r="H31" s="67" t="inlineStr">
-        <is>
-          <t>ASTM A105</t>
-        </is>
-      </c>
-      <c r="I31" s="95" t="n"/>
-      <c r="J31" s="95" t="n"/>
-      <c r="K31" s="95" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="95" t="n"/>
-      <c r="N31" s="95" t="n"/>
-      <c r="O31" s="95" t="n"/>
-      <c r="P31" s="95" t="n"/>
-      <c r="Q31" s="95" t="n"/>
-      <c r="R31" s="95" t="n"/>
-      <c r="S31" s="95" t="n"/>
-      <c r="T31" s="95" t="n"/>
-      <c r="U31" s="95" t="n"/>
-      <c r="V31" s="95" t="n"/>
-      <c r="W31" s="95" t="n"/>
-      <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AC31" s="68" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD31" s="95" t="n"/>
-      <c r="AE31" s="95" t="n"/>
-      <c r="AF31" s="95" t="n"/>
-      <c r="AG31" s="95" t="n"/>
-      <c r="AH31" s="95" t="n"/>
-      <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
-      <c r="E32" s="42" t="n"/>
-      <c r="F32" s="42" t="n"/>
-      <c r="G32" s="42" t="n"/>
-      <c r="H32" s="67" t="inlineStr">
-        <is>
-          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="95" t="n"/>
-      <c r="Z32" s="95" t="n"/>
-      <c r="AA32" s="95" t="n"/>
-      <c r="AB32" s="95" t="n"/>
-      <c r="AC32" s="95" t="n"/>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="67" t="inlineStr">
-        <is>
-          <t>STEM: GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I33" s="95" t="n"/>
-      <c r="J33" s="95" t="n"/>
-      <c r="K33" s="95" t="n"/>
-      <c r="L33" s="95" t="n"/>
-      <c r="M33" s="95" t="n"/>
-      <c r="N33" s="95" t="n"/>
-      <c r="O33" s="95" t="n"/>
-      <c r="P33" s="95" t="n"/>
-      <c r="Q33" s="95" t="n"/>
-      <c r="R33" s="95" t="n"/>
-      <c r="S33" s="95" t="n"/>
-      <c r="T33" s="95" t="n"/>
-      <c r="U33" s="95" t="n"/>
-      <c r="V33" s="95" t="n"/>
-      <c r="W33" s="95" t="n"/>
-      <c r="X33" s="95" t="n"/>
-      <c r="Y33" s="95" t="n"/>
-      <c r="Z33" s="95" t="n"/>
-      <c r="AA33" s="95" t="n"/>
-      <c r="AB33" s="95" t="n"/>
-      <c r="AC33" s="95" t="n"/>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="83" t="inlineStr">
-        <is>
-          <t>BALL:</t>
-        </is>
-      </c>
-      <c r="B34" s="42" t="n"/>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="67" t="inlineStr">
-        <is>
-          <t>AISI 316</t>
-        </is>
-      </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
-    </row>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
-        </is>
-      </c>
-      <c r="B35" s="42" t="n"/>
-      <c r="C35" s="42" t="n"/>
-      <c r="D35" s="42" t="n"/>
-      <c r="E35" s="42" t="n"/>
-      <c r="F35" s="42" t="n"/>
-      <c r="G35" s="42" t="n"/>
-      <c r="H35" s="67" t="inlineStr">
-        <is>
-          <t>AISI 316</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
-        </is>
-      </c>
-      <c r="B36" s="42" t="n"/>
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="67" t="inlineStr">
-        <is>
-          <t>RINGS: RPTFE</t>
-        </is>
-      </c>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
-      <c r="B37" s="42" t="n"/>
-      <c r="C37" s="42" t="n"/>
-      <c r="D37" s="42" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="42" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="67" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="n"/>
-      <c r="B38" s="42" t="n"/>
-      <c r="C38" s="42" t="n"/>
-      <c r="D38" s="42" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="42" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="67" t="n"/>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
-      <c r="B39" s="42" t="n"/>
-      <c r="C39" s="42" t="n"/>
-      <c r="D39" s="42" t="n"/>
-      <c r="E39" s="42" t="n"/>
-      <c r="F39" s="42" t="n"/>
-      <c r="G39" s="42" t="n"/>
-      <c r="H39" s="67" t="inlineStr">
-        <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
-        </is>
-      </c>
-      <c r="I39" s="95" t="n"/>
-      <c r="J39" s="95" t="n"/>
-      <c r="K39" s="95" t="n"/>
-      <c r="L39" s="95" t="n"/>
-      <c r="M39" s="95" t="n"/>
-      <c r="N39" s="95" t="n"/>
-      <c r="O39" s="95" t="n"/>
-      <c r="P39" s="95" t="n"/>
-      <c r="Q39" s="95" t="n"/>
-      <c r="R39" s="95" t="n"/>
-      <c r="S39" s="95" t="n"/>
-      <c r="T39" s="95" t="n"/>
-      <c r="U39" s="95" t="n"/>
-      <c r="V39" s="95" t="n"/>
-      <c r="W39" s="95" t="n"/>
-      <c r="X39" s="95" t="n"/>
-      <c r="Y39" s="95" t="n"/>
-      <c r="Z39" s="95" t="n"/>
-      <c r="AA39" s="95" t="n"/>
-      <c r="AB39" s="95" t="n"/>
-      <c r="AC39" s="95" t="n"/>
-      <c r="AD39" s="95" t="n"/>
-      <c r="AE39" s="95" t="n"/>
-      <c r="AF39" s="95" t="n"/>
-      <c r="AG39" s="95" t="n"/>
-      <c r="AH39" s="95" t="n"/>
-      <c r="AI39" s="95" t="n"/>
-      <c r="AJ39" s="16" t="n"/>
-    </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="42" t="n"/>
-      <c r="C40" s="42" t="n"/>
-      <c r="D40" s="42" t="n"/>
-      <c r="E40" s="42" t="n"/>
-      <c r="F40" s="42" t="n"/>
-      <c r="G40" s="42" t="n"/>
-      <c r="H40" s="67" t="n"/>
-      <c r="I40" s="95" t="n"/>
-      <c r="J40" s="95" t="n"/>
-      <c r="K40" s="95" t="n"/>
-      <c r="L40" s="95" t="n"/>
-      <c r="M40" s="95" t="n"/>
-      <c r="N40" s="95" t="n"/>
-      <c r="O40" s="95" t="n"/>
-      <c r="P40" s="95" t="n"/>
-      <c r="Q40" s="95" t="n"/>
-      <c r="R40" s="95" t="n"/>
-      <c r="S40" s="95" t="n"/>
-      <c r="T40" s="95" t="n"/>
-      <c r="U40" s="95" t="n"/>
-      <c r="V40" s="95" t="n"/>
-      <c r="W40" s="95" t="n"/>
-      <c r="X40" s="95" t="n"/>
-      <c r="Y40" s="95" t="n"/>
-      <c r="Z40" s="95" t="n"/>
-      <c r="AA40" s="95" t="n"/>
-      <c r="AB40" s="95" t="n"/>
-      <c r="AC40" s="95" t="n"/>
-      <c r="AD40" s="95" t="n"/>
-      <c r="AE40" s="95" t="n"/>
-      <c r="AF40" s="95" t="n"/>
-      <c r="AG40" s="95" t="n"/>
-      <c r="AH40" s="95" t="n"/>
-      <c r="AI40" s="95" t="n"/>
-      <c r="AJ40" s="16" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="37" t="n"/>
-      <c r="B41" s="61" t="n"/>
-      <c r="C41" s="61" t="n"/>
-      <c r="D41" s="61" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="61" t="n"/>
-      <c r="G41" s="61" t="n"/>
-      <c r="H41" s="61" t="n"/>
-      <c r="I41" s="61" t="n"/>
-      <c r="J41" s="61" t="n"/>
-      <c r="K41" s="61" t="n"/>
-      <c r="L41" s="61" t="n"/>
-      <c r="M41" s="61" t="n"/>
-      <c r="N41" s="61" t="n"/>
-      <c r="O41" s="61" t="n"/>
-      <c r="P41" s="61" t="n"/>
-      <c r="Q41" s="61" t="n"/>
-      <c r="R41" s="61" t="n"/>
-      <c r="S41" s="61" t="n"/>
-      <c r="T41" s="61" t="n"/>
-      <c r="U41" s="61" t="n"/>
-      <c r="V41" s="61" t="n"/>
-      <c r="W41" s="61" t="n"/>
-      <c r="X41" s="61" t="n"/>
-      <c r="Y41" s="61" t="n"/>
-      <c r="Z41" s="61" t="n"/>
-      <c r="AA41" s="61" t="n"/>
-      <c r="AB41" s="61" t="n"/>
-      <c r="AC41" s="61" t="n"/>
-      <c r="AD41" s="61" t="n"/>
-      <c r="AE41" s="61" t="n"/>
-      <c r="AF41" s="61" t="n"/>
-      <c r="AG41" s="61" t="n"/>
-      <c r="AH41" s="61" t="n"/>
-      <c r="AI41" s="61" t="n"/>
-      <c r="AJ41" s="28" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A42" s="15" t="n"/>
-      <c r="B42" s="51" t="n"/>
-      <c r="C42" s="51" t="n"/>
-      <c r="D42" s="51" t="n"/>
-      <c r="E42" s="51" t="n"/>
-      <c r="F42" s="51" t="n"/>
-      <c r="G42" s="51" t="n"/>
-      <c r="H42" s="51" t="n"/>
-      <c r="I42" s="51" t="n"/>
-      <c r="J42" s="51" t="n"/>
-      <c r="K42" s="51" t="n"/>
-      <c r="L42" s="51" t="n"/>
-      <c r="M42" s="51" t="n"/>
-      <c r="N42" s="51" t="n"/>
-      <c r="O42" s="51" t="n"/>
-      <c r="P42" s="51" t="n"/>
-      <c r="Q42" s="51" t="n"/>
-      <c r="R42" s="51" t="n"/>
-      <c r="S42" s="52" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T42" s="51" t="n"/>
-      <c r="U42" s="51" t="n"/>
-      <c r="V42" s="51" t="n"/>
-      <c r="W42" s="51" t="n"/>
-      <c r="X42" s="51" t="n"/>
-      <c r="Y42" s="51" t="n"/>
-      <c r="Z42" s="51" t="n"/>
-      <c r="AA42" s="51" t="n"/>
-      <c r="AB42" s="51" t="n"/>
-      <c r="AC42" s="51" t="n"/>
-      <c r="AD42" s="51" t="n"/>
-      <c r="AE42" s="51" t="n"/>
-      <c r="AF42" s="51" t="n"/>
-      <c r="AG42" s="51" t="n"/>
-      <c r="AH42" s="51" t="n"/>
-      <c r="AI42" s="51" t="n"/>
-      <c r="AJ42" s="16" t="n"/>
-    </row>
-    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="38" t="n"/>
-      <c r="B43" s="33" t="n"/>
-      <c r="C43" s="33" t="n"/>
-      <c r="D43" s="33" t="n"/>
-      <c r="E43" s="33" t="n"/>
-      <c r="F43" s="33" t="n"/>
-      <c r="G43" s="33" t="n"/>
-      <c r="H43" s="33" t="n"/>
-      <c r="I43" s="33" t="n"/>
-      <c r="J43" s="33" t="n"/>
-      <c r="K43" s="33" t="n"/>
-      <c r="L43" s="33" t="n"/>
-      <c r="M43" s="33" t="n"/>
-      <c r="N43" s="33" t="n"/>
-      <c r="O43" s="33" t="n"/>
-      <c r="P43" s="33" t="n"/>
-      <c r="Q43" s="33" t="n"/>
-      <c r="R43" s="33" t="n"/>
-      <c r="S43" s="33" t="n"/>
-      <c r="T43" s="33" t="n"/>
-      <c r="U43" s="33" t="n"/>
-      <c r="V43" s="33" t="n"/>
-      <c r="W43" s="33" t="n"/>
-      <c r="X43" s="33" t="n"/>
-      <c r="Y43" s="33" t="n"/>
-      <c r="Z43" s="33" t="n"/>
-      <c r="AA43" s="33" t="n"/>
-      <c r="AB43" s="33" t="n"/>
-      <c r="AC43" s="33" t="n"/>
-      <c r="AD43" s="33" t="n"/>
-      <c r="AE43" s="33" t="n"/>
-      <c r="AF43" s="33" t="n"/>
-      <c r="AG43" s="33" t="n"/>
-      <c r="AH43" s="33" t="n"/>
-      <c r="AI43" s="33" t="n"/>
-      <c r="AJ43" s="34" t="n"/>
-    </row>
-    <row r="44" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A44" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 
-</t>
-        </is>
-      </c>
-      <c r="B44" s="23" t="inlineStr">
-        <is>
-          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C44" s="23" t="n"/>
-      <c r="D44" s="23" t="n"/>
-      <c r="E44" s="23" t="n"/>
-      <c r="F44" s="23" t="n"/>
-      <c r="G44" s="23" t="n"/>
-      <c r="H44" s="23" t="n"/>
-      <c r="I44" s="23" t="n"/>
-      <c r="J44" s="23" t="n"/>
-      <c r="K44" s="23" t="n"/>
-      <c r="L44" s="23" t="n"/>
-      <c r="M44" s="23" t="n"/>
-      <c r="N44" s="23" t="n"/>
-      <c r="O44" s="23" t="n"/>
-      <c r="P44" s="23" t="n"/>
-      <c r="Q44" s="23" t="n"/>
-      <c r="R44" s="23" t="n"/>
-      <c r="S44" s="23" t="n"/>
-      <c r="T44" s="23" t="n"/>
-      <c r="U44" s="23" t="n"/>
-      <c r="V44" s="23" t="n"/>
-      <c r="W44" s="23" t="n"/>
-      <c r="X44" s="23" t="n"/>
-      <c r="Y44" s="23" t="n"/>
-      <c r="Z44" s="23" t="n"/>
-      <c r="AA44" s="23" t="n"/>
-      <c r="AB44" s="23" t="n"/>
-      <c r="AC44" s="23" t="n"/>
-      <c r="AD44" s="23" t="n"/>
-      <c r="AE44" s="23" t="n"/>
-      <c r="AF44" s="23" t="n"/>
-      <c r="AG44" s="23" t="n"/>
-      <c r="AH44" s="23" t="n"/>
-      <c r="AI44" s="23" t="n"/>
-      <c r="AJ44" s="34" t="n"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
-      <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="n"/>
-      <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="n"/>
-      <c r="T45" s="2" t="n"/>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
-      <c r="W45" s="2" t="n"/>
-      <c r="X45" s="2" t="n"/>
-      <c r="Y45" s="2" t="n"/>
-      <c r="Z45" s="2" t="n"/>
-      <c r="AA45" s="2" t="n"/>
-      <c r="AB45" s="2" t="n"/>
-      <c r="AC45" s="2" t="n"/>
-      <c r="AD45" s="2" t="n"/>
-      <c r="AE45" s="2" t="n"/>
-      <c r="AF45" s="2" t="n"/>
-      <c r="AG45" s="2" t="n"/>
-      <c r="AH45" s="2" t="n"/>
-      <c r="AI45" s="2" t="n"/>
-      <c r="AJ45" s="2" t="n"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="B46:AH46"/>
-    <mergeCell ref="H33:AI33"/>
-    <mergeCell ref="H34:AI34"/>
-    <mergeCell ref="H35:AI35"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="H39:AI39"/>
-    <mergeCell ref="H40:AI40"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="H32:AI32"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
-  </mergeCells>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7705,7 +3416,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>2, 10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -9554,7 +5265,2006 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>CHECK VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>CLV24F0B2B</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>HCN &amp; HCR</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>LIFT CHECK VALVE</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr"/>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr"/>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr"/>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="80" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="n"/>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="80" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="n"/>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AJ15" s="98" t="n"/>
+    </row>
+    <row r="16" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="n"/>
+      <c r="P16" s="80" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="n"/>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="80" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="28" t="n"/>
+    </row>
+    <row r="17" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="n"/>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="61" t="inlineStr"/>
+      <c r="I17" s="61" t="n"/>
+      <c r="J17" s="61" t="n"/>
+      <c r="K17" s="61" t="n"/>
+      <c r="L17" s="61" t="n"/>
+      <c r="M17" s="61" t="n"/>
+      <c r="N17" s="61" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr"/>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr"/>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr"/>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>285</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="58" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="58" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="85" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>TRIM:</t>
+        </is>
+      </c>
+      <c r="AA31" s="42" t="n"/>
+      <c r="AB31" s="42" t="n"/>
+      <c r="AC31" s="70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="85" t="inlineStr">
+        <is>
+          <t>BOLTED COVER: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="42" t="n"/>
+      <c r="Z32" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AA32" s="42" t="n"/>
+      <c r="AB32" s="42" t="n"/>
+      <c r="AC32" s="70" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>SEAT:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="86" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="I33" s="97" t="n"/>
+      <c r="J33" s="97" t="n"/>
+      <c r="K33" s="97" t="n"/>
+      <c r="L33" s="97" t="n"/>
+      <c r="M33" s="97" t="n"/>
+      <c r="N33" s="97" t="n"/>
+      <c r="O33" s="97" t="n"/>
+      <c r="P33" s="97" t="n"/>
+      <c r="Q33" s="97" t="n"/>
+      <c r="R33" s="97" t="n"/>
+      <c r="S33" s="97" t="n"/>
+      <c r="T33" s="97" t="n"/>
+      <c r="U33" s="97" t="n"/>
+      <c r="V33" s="97" t="n"/>
+      <c r="W33" s="97" t="n"/>
+      <c r="X33" s="97" t="n"/>
+      <c r="Y33" s="42" t="n"/>
+      <c r="Z33" s="81" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="AA33" s="42" t="n"/>
+      <c r="AB33" s="42" t="n"/>
+      <c r="AC33" s="70" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="83" t="inlineStr">
+        <is>
+          <t>SYSTEM:</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="67" t="inlineStr">
+        <is>
+          <t>LIFT CHECK</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="67" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="18" t="n"/>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="67" t="n"/>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="67" t="inlineStr">
+        <is>
+          <t>INSTALLATION: HORIZONTAL OR VERTICAL, PISTON TYPE: OBTURATOR</t>
+        </is>
+      </c>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="n"/>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="67" t="n"/>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A39" s="37" t="n"/>
+      <c r="B39" s="61" t="n"/>
+      <c r="C39" s="61" t="n"/>
+      <c r="D39" s="61" t="n"/>
+      <c r="E39" s="61" t="n"/>
+      <c r="F39" s="61" t="n"/>
+      <c r="G39" s="61" t="n"/>
+      <c r="H39" s="61" t="n"/>
+      <c r="I39" s="61" t="n"/>
+      <c r="J39" s="61" t="n"/>
+      <c r="K39" s="61" t="n"/>
+      <c r="L39" s="61" t="n"/>
+      <c r="M39" s="61" t="n"/>
+      <c r="N39" s="61" t="n"/>
+      <c r="O39" s="61" t="n"/>
+      <c r="P39" s="61" t="n"/>
+      <c r="Q39" s="61" t="n"/>
+      <c r="R39" s="61" t="n"/>
+      <c r="S39" s="61" t="n"/>
+      <c r="T39" s="61" t="n"/>
+      <c r="U39" s="61" t="n"/>
+      <c r="V39" s="61" t="n"/>
+      <c r="W39" s="61" t="n"/>
+      <c r="X39" s="61" t="n"/>
+      <c r="Y39" s="61" t="n"/>
+      <c r="Z39" s="61" t="n"/>
+      <c r="AA39" s="61" t="n"/>
+      <c r="AB39" s="61" t="n"/>
+      <c r="AC39" s="61" t="n"/>
+      <c r="AD39" s="61" t="n"/>
+      <c r="AE39" s="61" t="n"/>
+      <c r="AF39" s="61" t="n"/>
+      <c r="AG39" s="61" t="n"/>
+      <c r="AH39" s="61" t="n"/>
+      <c r="AI39" s="61" t="n"/>
+      <c r="AJ39" s="28" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A40" s="15" t="n"/>
+      <c r="B40" s="51" t="n"/>
+      <c r="C40" s="51" t="n"/>
+      <c r="D40" s="51" t="n"/>
+      <c r="E40" s="51" t="n"/>
+      <c r="F40" s="51" t="n"/>
+      <c r="G40" s="51" t="n"/>
+      <c r="H40" s="51" t="n"/>
+      <c r="I40" s="51" t="n"/>
+      <c r="J40" s="51" t="n"/>
+      <c r="K40" s="51" t="n"/>
+      <c r="L40" s="51" t="n"/>
+      <c r="M40" s="51" t="n"/>
+      <c r="N40" s="51" t="n"/>
+      <c r="O40" s="51" t="n"/>
+      <c r="P40" s="51" t="n"/>
+      <c r="Q40" s="51" t="n"/>
+      <c r="R40" s="51" t="n"/>
+      <c r="S40" s="52" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T40" s="51" t="n"/>
+      <c r="U40" s="51" t="n"/>
+      <c r="V40" s="51" t="n"/>
+      <c r="W40" s="51" t="n"/>
+      <c r="X40" s="51" t="n"/>
+      <c r="Y40" s="51" t="n"/>
+      <c r="Z40" s="51" t="n"/>
+      <c r="AA40" s="51" t="n"/>
+      <c r="AB40" s="51" t="n"/>
+      <c r="AC40" s="51" t="n"/>
+      <c r="AD40" s="51" t="n"/>
+      <c r="AE40" s="51" t="n"/>
+      <c r="AF40" s="51" t="n"/>
+      <c r="AG40" s="51" t="n"/>
+      <c r="AH40" s="51" t="n"/>
+      <c r="AI40" s="51" t="n"/>
+      <c r="AJ40" s="16" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A41" s="38" t="n"/>
+      <c r="B41" s="33" t="n"/>
+      <c r="C41" s="33" t="n"/>
+      <c r="D41" s="33" t="n"/>
+      <c r="E41" s="33" t="n"/>
+      <c r="F41" s="33" t="n"/>
+      <c r="G41" s="33" t="n"/>
+      <c r="H41" s="33" t="n"/>
+      <c r="I41" s="33" t="n"/>
+      <c r="J41" s="33" t="n"/>
+      <c r="K41" s="33" t="n"/>
+      <c r="L41" s="33" t="n"/>
+      <c r="M41" s="33" t="n"/>
+      <c r="N41" s="33" t="n"/>
+      <c r="O41" s="33" t="n"/>
+      <c r="P41" s="33" t="n"/>
+      <c r="Q41" s="33" t="n"/>
+      <c r="R41" s="33" t="n"/>
+      <c r="S41" s="33" t="n"/>
+      <c r="T41" s="33" t="n"/>
+      <c r="U41" s="33" t="n"/>
+      <c r="V41" s="33" t="n"/>
+      <c r="W41" s="33" t="n"/>
+      <c r="X41" s="33" t="n"/>
+      <c r="Y41" s="33" t="n"/>
+      <c r="Z41" s="33" t="n"/>
+      <c r="AA41" s="33" t="n"/>
+      <c r="AB41" s="33" t="n"/>
+      <c r="AC41" s="33" t="n"/>
+      <c r="AD41" s="33" t="n"/>
+      <c r="AE41" s="33" t="n"/>
+      <c r="AF41" s="33" t="n"/>
+      <c r="AG41" s="33" t="n"/>
+      <c r="AH41" s="33" t="n"/>
+      <c r="AI41" s="33" t="n"/>
+      <c r="AJ41" s="34" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A42" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B42" s="86" t="inlineStr">
+        <is>
+          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C42" s="97" t="n"/>
+      <c r="D42" s="97" t="n"/>
+      <c r="E42" s="97" t="n"/>
+      <c r="F42" s="97" t="n"/>
+      <c r="G42" s="97" t="n"/>
+      <c r="H42" s="97" t="n"/>
+      <c r="I42" s="97" t="n"/>
+      <c r="J42" s="97" t="n"/>
+      <c r="K42" s="97" t="n"/>
+      <c r="L42" s="97" t="n"/>
+      <c r="M42" s="97" t="n"/>
+      <c r="N42" s="97" t="n"/>
+      <c r="O42" s="97" t="n"/>
+      <c r="P42" s="97" t="n"/>
+      <c r="Q42" s="97" t="n"/>
+      <c r="R42" s="97" t="n"/>
+      <c r="S42" s="97" t="n"/>
+      <c r="T42" s="97" t="n"/>
+      <c r="U42" s="97" t="n"/>
+      <c r="V42" s="97" t="n"/>
+      <c r="W42" s="97" t="n"/>
+      <c r="X42" s="97" t="n"/>
+      <c r="Y42" s="97" t="n"/>
+      <c r="Z42" s="97" t="n"/>
+      <c r="AA42" s="97" t="n"/>
+      <c r="AB42" s="97" t="n"/>
+      <c r="AC42" s="97" t="n"/>
+      <c r="AD42" s="97" t="n"/>
+      <c r="AE42" s="97" t="n"/>
+      <c r="AF42" s="97" t="n"/>
+      <c r="AG42" s="97" t="n"/>
+      <c r="AH42" s="97" t="n"/>
+      <c r="AI42" s="97" t="n"/>
+      <c r="AJ42" s="34" t="n"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="2" t="n"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
+      <c r="W43" s="2" t="n"/>
+      <c r="X43" s="2" t="n"/>
+      <c r="Y43" s="2" t="n"/>
+      <c r="Z43" s="2" t="n"/>
+      <c r="AA43" s="2" t="n"/>
+      <c r="AB43" s="2" t="n"/>
+      <c r="AC43" s="2" t="n"/>
+      <c r="AD43" s="2" t="n"/>
+      <c r="AE43" s="2" t="n"/>
+      <c r="AF43" s="2" t="n"/>
+      <c r="AG43" s="2" t="n"/>
+      <c r="AH43" s="2" t="n"/>
+      <c r="AI43" s="2" t="n"/>
+      <c r="AJ43" s="2" t="n"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="B44" s="82" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="B42:AI42"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AC33:AI33"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="H32:X32"/>
+    <mergeCell ref="H33:X33"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="B44:AH44"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="AC32:AI32"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+  </mergeCells>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9666,7 +7376,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>GAV21A0B2B</t>
+          <t>GAV24F0B2B</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -9712,7 +7422,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>2, 8, 10</t>
+          <t>3/4</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -10005,7 +7715,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -10036,11 +7746,7 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L11" s="69" t="inlineStr"/>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -10052,11 +7758,7 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
+      <c r="T11" s="69" t="inlineStr"/>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -10069,7 +7771,11 @@
         </is>
       </c>
       <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AC11" s="71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD11" s="95" t="n"/>
       <c r="AE11" s="66" t="inlineStr">
         <is>
@@ -10191,11 +7897,7 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -10207,7 +7909,11 @@
           <t>ASME B16.11</t>
         </is>
       </c>
-      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Y14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z14" s="95" t="n"/>
       <c r="AA14" s="95" t="n"/>
       <c r="AB14" s="61" t="n"/>
@@ -10506,11 +8212,7 @@
           <t>API 600</t>
         </is>
       </c>
-      <c r="I22" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I22" s="68" t="inlineStr"/>
       <c r="J22" s="95" t="n"/>
       <c r="K22" s="61" t="n"/>
       <c r="L22" s="61" t="n"/>
@@ -10540,7 +8242,11 @@
           <t>API 602</t>
         </is>
       </c>
-      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AA22" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB22" s="95" t="n"/>
       <c r="AC22" s="61" t="n"/>
       <c r="AD22" s="61" t="n"/>
@@ -10942,7 +8648,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM A216 Gr.WCB</t>
+          <t>ASTM A105</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -11262,7 +8968,7 @@
       <c r="G38" s="42" t="n"/>
       <c r="H38" s="67" t="inlineStr">
         <is>
-          <t>FLEXIBLE WEDGE, STEM: OS&amp;Y/RSNRO</t>
+          <t>SOLID WEDGE, STEM: OS&amp;Y/RSNRO</t>
         </is>
       </c>
       <c r="I38" s="95" t="n"/>
@@ -11556,13 +9262,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11587,20 +9293,20 @@
       <c r="J1" s="12" t="n"/>
       <c r="K1" s="12" t="n"/>
       <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>GATE VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
+      <c r="M1" s="39" t="inlineStr">
+        <is>
+          <t>DOUBLE BLOCK AND BLEED VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="N1" s="39" t="n"/>
+      <c r="O1" s="39" t="n"/>
+      <c r="P1" s="39" t="n"/>
+      <c r="Q1" s="39" t="n"/>
+      <c r="R1" s="39" t="n"/>
+      <c r="S1" s="39" t="n"/>
+      <c r="T1" s="39" t="n"/>
+      <c r="U1" s="39" t="n"/>
+      <c r="V1" s="39" t="n"/>
       <c r="W1" s="12" t="n"/>
       <c r="X1" s="12" t="n"/>
       <c r="Y1" s="12" t="n"/>
@@ -11668,7 +9374,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>GAV21A0B2B</t>
+          <t>MFV21A0I2I</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -11714,7 +9420,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3/4</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -11962,7 +9668,7 @@
       <c r="AG9" s="61" t="n"/>
       <c r="AH9" s="61" t="n"/>
       <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
+      <c r="AJ9" s="16" t="n"/>
     </row>
     <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A10" s="17" t="inlineStr">
@@ -11978,7 +9684,7 @@
       <c r="G10" s="61" t="n"/>
       <c r="H10" s="69" t="inlineStr">
         <is>
-          <t>GATE VALVE</t>
+          <t>INTEGRAL MONOGLANGE, DBB VALVE</t>
         </is>
       </c>
       <c r="I10" s="95" t="n"/>
@@ -12038,11 +9744,7 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L11" s="69" t="inlineStr"/>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -12054,11 +9756,7 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
+      <c r="T11" s="69" t="inlineStr"/>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -12122,7 +9820,11 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>RFxFNPT</t>
+        </is>
+      </c>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -12193,11 +9895,7 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -12220,7 +9918,11 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>ASBE B16.5xB1.20.1</t>
+        </is>
+      </c>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -12299,7 +10001,7 @@
       <c r="G17" s="61" t="n"/>
       <c r="H17" s="69" t="inlineStr">
         <is>
-          <t>GEAR OPERATOR</t>
+          <t>T-HANDLE OPERATOR</t>
         </is>
       </c>
       <c r="I17" s="95" t="n"/>
@@ -12508,11 +10210,7 @@
           <t>API 600</t>
         </is>
       </c>
-      <c r="I22" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I22" s="68" t="inlineStr"/>
       <c r="J22" s="95" t="n"/>
       <c r="K22" s="61" t="n"/>
       <c r="L22" s="61" t="n"/>
@@ -12551,7 +10249,11 @@
           <t>OTHER</t>
         </is>
       </c>
-      <c r="AG22" s="68" t="inlineStr"/>
+      <c r="AG22" s="68" t="inlineStr">
+        <is>
+          <t>EEMUA 182</t>
+        </is>
+      </c>
       <c r="AH22" s="95" t="n"/>
       <c r="AI22" s="95" t="n"/>
       <c r="AJ22" s="28" t="n"/>
@@ -12691,11 +10393,7 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr">
-        <is>
-          <t>API 598</t>
-        </is>
-      </c>
+      <c r="AB25" s="77" t="inlineStr"/>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -12850,7 +10548,7 @@
       <c r="AI28" s="61" t="n"/>
       <c r="AJ28" s="28" t="n"/>
     </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="15" t="n"/>
       <c r="B29" s="51" t="n"/>
       <c r="C29" s="51" t="n"/>
@@ -12869,7 +10567,7 @@
       <c r="P29" s="51" t="n"/>
       <c r="Q29" s="51" t="n"/>
       <c r="R29" s="51" t="n"/>
-      <c r="S29" s="52" t="inlineStr">
+      <c r="S29" s="58" t="inlineStr">
         <is>
           <t>M A T E R I A L S</t>
         </is>
@@ -12892,7 +10590,7 @@
       <c r="AI29" s="51" t="n"/>
       <c r="AJ29" s="16" t="n"/>
     </row>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="15" t="n"/>
       <c r="B30" s="51" t="n"/>
       <c r="C30" s="51" t="n"/>
@@ -12911,7 +10609,7 @@
       <c r="P30" s="51" t="n"/>
       <c r="Q30" s="51" t="n"/>
       <c r="R30" s="51" t="n"/>
-      <c r="S30" s="52" t="n"/>
+      <c r="S30" s="58" t="n"/>
       <c r="T30" s="51" t="n"/>
       <c r="U30" s="51" t="n"/>
       <c r="V30" s="51" t="n"/>
@@ -12931,9 +10629,9 @@
       <c r="AJ30" s="16" t="n"/>
     </row>
     <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>BODY:</t>
         </is>
       </c>
       <c r="B31" s="42" t="n"/>
@@ -12942,9 +10640,9 @@
       <c r="E31" s="42" t="n"/>
       <c r="F31" s="42" t="n"/>
       <c r="G31" s="42" t="n"/>
-      <c r="H31" s="67" t="inlineStr">
-        <is>
-          <t>ASTM A216 Gr.WCB</t>
+      <c r="H31" s="92" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -12963,29 +10661,23 @@
       <c r="V31" s="95" t="n"/>
       <c r="W31" s="95" t="n"/>
       <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AC31" s="68" t="inlineStr">
-        <is>
-          <t>GRAPHITE</t>
-        </is>
-      </c>
+      <c r="Y31" s="95" t="n"/>
+      <c r="Z31" s="95" t="n"/>
+      <c r="AA31" s="95" t="n"/>
+      <c r="AB31" s="95" t="n"/>
+      <c r="AC31" s="95" t="n"/>
       <c r="AD31" s="95" t="n"/>
       <c r="AE31" s="95" t="n"/>
       <c r="AF31" s="95" t="n"/>
       <c r="AG31" s="95" t="n"/>
       <c r="AH31" s="95" t="n"/>
       <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
+      <c r="AJ31" s="64" t="n"/>
     </row>
     <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
         </is>
       </c>
       <c r="B32" s="42" t="n"/>
@@ -12994,44 +10686,44 @@
       <c r="E32" s="42" t="n"/>
       <c r="F32" s="42" t="n"/>
       <c r="G32" s="42" t="n"/>
-      <c r="H32" s="67" t="inlineStr">
-        <is>
-          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="95" t="n"/>
-      <c r="Z32" s="95" t="n"/>
-      <c r="AA32" s="95" t="n"/>
-      <c r="AB32" s="95" t="n"/>
-      <c r="AC32" s="95" t="n"/>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
+      <c r="H32" s="93" t="inlineStr">
+        <is>
+          <t>GRAPHITE</t>
+        </is>
+      </c>
+      <c r="I32" s="97" t="n"/>
+      <c r="J32" s="97" t="n"/>
+      <c r="K32" s="97" t="n"/>
+      <c r="L32" s="97" t="n"/>
+      <c r="M32" s="97" t="n"/>
+      <c r="N32" s="97" t="n"/>
+      <c r="O32" s="97" t="n"/>
+      <c r="P32" s="97" t="n"/>
+      <c r="Q32" s="97" t="n"/>
+      <c r="R32" s="97" t="n"/>
+      <c r="S32" s="97" t="n"/>
+      <c r="T32" s="97" t="n"/>
+      <c r="U32" s="97" t="n"/>
+      <c r="V32" s="97" t="n"/>
+      <c r="W32" s="97" t="n"/>
+      <c r="X32" s="97" t="n"/>
+      <c r="Y32" s="97" t="n"/>
+      <c r="Z32" s="97" t="n"/>
+      <c r="AA32" s="97" t="n"/>
+      <c r="AB32" s="97" t="n"/>
+      <c r="AC32" s="97" t="n"/>
+      <c r="AD32" s="97" t="n"/>
+      <c r="AE32" s="97" t="n"/>
+      <c r="AF32" s="97" t="n"/>
+      <c r="AG32" s="97" t="n"/>
+      <c r="AH32" s="97" t="n"/>
+      <c r="AI32" s="97" t="n"/>
+      <c r="AJ32" s="64" t="n"/>
     </row>
     <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>STEM / STEM TIP:</t>
         </is>
       </c>
       <c r="B33" s="42" t="n"/>
@@ -13040,44 +10732,44 @@
       <c r="E33" s="42" t="n"/>
       <c r="F33" s="42" t="n"/>
       <c r="G33" s="42" t="n"/>
-      <c r="H33" s="67" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="I33" s="95" t="n"/>
-      <c r="J33" s="95" t="n"/>
-      <c r="K33" s="95" t="n"/>
-      <c r="L33" s="95" t="n"/>
-      <c r="M33" s="95" t="n"/>
-      <c r="N33" s="95" t="n"/>
-      <c r="O33" s="95" t="n"/>
-      <c r="P33" s="95" t="n"/>
-      <c r="Q33" s="95" t="n"/>
-      <c r="R33" s="95" t="n"/>
-      <c r="S33" s="95" t="n"/>
-      <c r="T33" s="95" t="n"/>
-      <c r="U33" s="95" t="n"/>
-      <c r="V33" s="95" t="n"/>
-      <c r="W33" s="95" t="n"/>
-      <c r="X33" s="95" t="n"/>
-      <c r="Y33" s="95" t="n"/>
-      <c r="Z33" s="95" t="n"/>
-      <c r="AA33" s="95" t="n"/>
-      <c r="AB33" s="95" t="n"/>
-      <c r="AC33" s="95" t="n"/>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
+      <c r="H33" s="93" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
+      <c r="I33" s="97" t="n"/>
+      <c r="J33" s="97" t="n"/>
+      <c r="K33" s="97" t="n"/>
+      <c r="L33" s="97" t="n"/>
+      <c r="M33" s="97" t="n"/>
+      <c r="N33" s="97" t="n"/>
+      <c r="O33" s="97" t="n"/>
+      <c r="P33" s="97" t="n"/>
+      <c r="Q33" s="97" t="n"/>
+      <c r="R33" s="97" t="n"/>
+      <c r="S33" s="97" t="n"/>
+      <c r="T33" s="97" t="n"/>
+      <c r="U33" s="97" t="n"/>
+      <c r="V33" s="97" t="n"/>
+      <c r="W33" s="97" t="n"/>
+      <c r="X33" s="97" t="n"/>
+      <c r="Y33" s="97" t="n"/>
+      <c r="Z33" s="97" t="n"/>
+      <c r="AA33" s="97" t="n"/>
+      <c r="AB33" s="97" t="n"/>
+      <c r="AC33" s="97" t="n"/>
+      <c r="AD33" s="97" t="n"/>
+      <c r="AE33" s="97" t="n"/>
+      <c r="AF33" s="97" t="n"/>
+      <c r="AG33" s="97" t="n"/>
+      <c r="AH33" s="97" t="n"/>
+      <c r="AI33" s="97" t="n"/>
+      <c r="AJ33" s="64" t="n"/>
     </row>
     <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
         </is>
       </c>
       <c r="B34" s="42" t="n"/>
@@ -13086,44 +10778,44 @@
       <c r="E34" s="42" t="n"/>
       <c r="F34" s="42" t="n"/>
       <c r="G34" s="42" t="n"/>
-      <c r="H34" s="67" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
+      <c r="H34" s="93" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
+      <c r="I34" s="97" t="n"/>
+      <c r="J34" s="97" t="n"/>
+      <c r="K34" s="97" t="n"/>
+      <c r="L34" s="97" t="n"/>
+      <c r="M34" s="97" t="n"/>
+      <c r="N34" s="97" t="n"/>
+      <c r="O34" s="97" t="n"/>
+      <c r="P34" s="97" t="n"/>
+      <c r="Q34" s="97" t="n"/>
+      <c r="R34" s="97" t="n"/>
+      <c r="S34" s="97" t="n"/>
+      <c r="T34" s="97" t="n"/>
+      <c r="U34" s="97" t="n"/>
+      <c r="V34" s="97" t="n"/>
+      <c r="W34" s="97" t="n"/>
+      <c r="X34" s="97" t="n"/>
+      <c r="Y34" s="97" t="n"/>
+      <c r="Z34" s="97" t="n"/>
+      <c r="AA34" s="97" t="n"/>
+      <c r="AB34" s="97" t="n"/>
+      <c r="AC34" s="97" t="n"/>
+      <c r="AD34" s="97" t="n"/>
+      <c r="AE34" s="97" t="n"/>
+      <c r="AF34" s="97" t="n"/>
+      <c r="AG34" s="97" t="n"/>
+      <c r="AH34" s="97" t="n"/>
+      <c r="AI34" s="97" t="n"/>
+      <c r="AJ34" s="64" t="n"/>
     </row>
     <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>COATING:</t>
         </is>
       </c>
       <c r="B35" s="42" t="n"/>
@@ -13132,207 +10824,199 @@
       <c r="E35" s="42" t="n"/>
       <c r="F35" s="42" t="n"/>
       <c r="G35" s="42" t="n"/>
-      <c r="H35" s="67" t="inlineStr">
-        <is>
-          <t>RENEWABLE</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
+      <c r="H35" s="93" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I35" s="97" t="n"/>
+      <c r="J35" s="97" t="n"/>
+      <c r="K35" s="97" t="n"/>
+      <c r="L35" s="97" t="n"/>
+      <c r="M35" s="97" t="n"/>
+      <c r="N35" s="97" t="n"/>
+      <c r="O35" s="97" t="n"/>
+      <c r="P35" s="97" t="n"/>
+      <c r="Q35" s="97" t="n"/>
+      <c r="R35" s="97" t="n"/>
+      <c r="S35" s="97" t="n"/>
+      <c r="T35" s="97" t="n"/>
+      <c r="U35" s="97" t="n"/>
+      <c r="V35" s="97" t="n"/>
+      <c r="W35" s="97" t="n"/>
+      <c r="X35" s="97" t="n"/>
+      <c r="Y35" s="97" t="n"/>
+      <c r="Z35" s="97" t="n"/>
+      <c r="AA35" s="97" t="n"/>
+      <c r="AB35" s="97" t="n"/>
+      <c r="AC35" s="97" t="n"/>
+      <c r="AD35" s="97" t="n"/>
+      <c r="AE35" s="97" t="n"/>
+      <c r="AF35" s="97" t="n"/>
+      <c r="AG35" s="97" t="n"/>
+      <c r="AH35" s="97" t="n"/>
+      <c r="AI35" s="97" t="n"/>
+      <c r="AJ35" s="64" t="n"/>
     </row>
     <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="42" t="n"/>
       <c r="C36" s="42" t="n"/>
       <c r="D36" s="42" t="n"/>
       <c r="E36" s="42" t="n"/>
       <c r="F36" s="42" t="n"/>
       <c r="G36" s="42" t="n"/>
-      <c r="H36" s="67" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
+      <c r="H36" s="93" t="n"/>
+      <c r="I36" s="97" t="n"/>
+      <c r="J36" s="97" t="n"/>
+      <c r="K36" s="97" t="n"/>
+      <c r="L36" s="97" t="n"/>
+      <c r="M36" s="97" t="n"/>
+      <c r="N36" s="97" t="n"/>
+      <c r="O36" s="97" t="n"/>
+      <c r="P36" s="97" t="n"/>
+      <c r="Q36" s="97" t="n"/>
+      <c r="R36" s="97" t="n"/>
+      <c r="S36" s="97" t="n"/>
+      <c r="T36" s="97" t="n"/>
+      <c r="U36" s="97" t="n"/>
+      <c r="V36" s="97" t="n"/>
+      <c r="W36" s="97" t="n"/>
+      <c r="X36" s="97" t="n"/>
+      <c r="Y36" s="97" t="n"/>
+      <c r="Z36" s="97" t="n"/>
+      <c r="AA36" s="97" t="n"/>
+      <c r="AB36" s="97" t="n"/>
+      <c r="AC36" s="97" t="n"/>
+      <c r="AD36" s="97" t="n"/>
+      <c r="AE36" s="97" t="n"/>
+      <c r="AF36" s="97" t="n"/>
+      <c r="AG36" s="97" t="n"/>
+      <c r="AH36" s="97" t="n"/>
+      <c r="AI36" s="97" t="n"/>
+      <c r="AJ36" s="64" t="n"/>
     </row>
     <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="n"/>
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
       <c r="B37" s="42" t="n"/>
       <c r="C37" s="42" t="n"/>
       <c r="D37" s="42" t="n"/>
       <c r="E37" s="42" t="n"/>
       <c r="F37" s="42" t="n"/>
       <c r="G37" s="42" t="n"/>
-      <c r="H37" s="67" t="n"/>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
+      <c r="H37" s="93" t="inlineStr">
+        <is>
+          <t>STEM: OS&amp;Y/RSRO, AISI 316 STEM TIP, SWIVEL NEEDLE, INTEGRAL SEATS</t>
+        </is>
+      </c>
+      <c r="I37" s="97" t="n"/>
+      <c r="J37" s="97" t="n"/>
+      <c r="K37" s="97" t="n"/>
+      <c r="L37" s="97" t="n"/>
+      <c r="M37" s="97" t="n"/>
+      <c r="N37" s="97" t="n"/>
+      <c r="O37" s="97" t="n"/>
+      <c r="P37" s="97" t="n"/>
+      <c r="Q37" s="97" t="n"/>
+      <c r="R37" s="97" t="n"/>
+      <c r="S37" s="97" t="n"/>
+      <c r="T37" s="97" t="n"/>
+      <c r="U37" s="97" t="n"/>
+      <c r="V37" s="97" t="n"/>
+      <c r="W37" s="97" t="n"/>
+      <c r="X37" s="97" t="n"/>
+      <c r="Y37" s="97" t="n"/>
+      <c r="Z37" s="97" t="n"/>
+      <c r="AA37" s="97" t="n"/>
+      <c r="AB37" s="97" t="n"/>
+      <c r="AC37" s="97" t="n"/>
+      <c r="AD37" s="97" t="n"/>
+      <c r="AE37" s="97" t="n"/>
+      <c r="AF37" s="97" t="n"/>
+      <c r="AG37" s="97" t="n"/>
+      <c r="AH37" s="97" t="n"/>
+      <c r="AI37" s="97" t="n"/>
+      <c r="AJ37" s="64" t="n"/>
     </row>
     <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
+      <c r="A38" s="5" t="n"/>
       <c r="B38" s="42" t="n"/>
       <c r="C38" s="42" t="n"/>
       <c r="D38" s="42" t="n"/>
       <c r="E38" s="42" t="n"/>
       <c r="F38" s="42" t="n"/>
       <c r="G38" s="42" t="n"/>
-      <c r="H38" s="67" t="inlineStr">
-        <is>
-          <t>FLEXIBLE WEDGE, STEM: OS&amp;Y/RSNRO</t>
-        </is>
-      </c>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="n"/>
-      <c r="B39" s="42" t="n"/>
-      <c r="C39" s="42" t="n"/>
-      <c r="D39" s="42" t="n"/>
-      <c r="E39" s="42" t="n"/>
-      <c r="F39" s="42" t="n"/>
-      <c r="G39" s="42" t="n"/>
-      <c r="H39" s="67" t="n"/>
-      <c r="I39" s="95" t="n"/>
-      <c r="J39" s="95" t="n"/>
-      <c r="K39" s="95" t="n"/>
-      <c r="L39" s="95" t="n"/>
-      <c r="M39" s="95" t="n"/>
-      <c r="N39" s="95" t="n"/>
-      <c r="O39" s="95" t="n"/>
-      <c r="P39" s="95" t="n"/>
-      <c r="Q39" s="95" t="n"/>
-      <c r="R39" s="95" t="n"/>
-      <c r="S39" s="95" t="n"/>
-      <c r="T39" s="95" t="n"/>
-      <c r="U39" s="95" t="n"/>
-      <c r="V39" s="95" t="n"/>
-      <c r="W39" s="95" t="n"/>
-      <c r="X39" s="95" t="n"/>
-      <c r="Y39" s="95" t="n"/>
-      <c r="Z39" s="95" t="n"/>
-      <c r="AA39" s="95" t="n"/>
-      <c r="AB39" s="95" t="n"/>
-      <c r="AC39" s="95" t="n"/>
-      <c r="AD39" s="95" t="n"/>
-      <c r="AE39" s="95" t="n"/>
-      <c r="AF39" s="95" t="n"/>
-      <c r="AG39" s="95" t="n"/>
-      <c r="AH39" s="95" t="n"/>
-      <c r="AI39" s="95" t="n"/>
-      <c r="AJ39" s="16" t="n"/>
+      <c r="H38" s="93" t="n"/>
+      <c r="I38" s="97" t="n"/>
+      <c r="J38" s="97" t="n"/>
+      <c r="K38" s="97" t="n"/>
+      <c r="L38" s="97" t="n"/>
+      <c r="M38" s="97" t="n"/>
+      <c r="N38" s="97" t="n"/>
+      <c r="O38" s="97" t="n"/>
+      <c r="P38" s="97" t="n"/>
+      <c r="Q38" s="97" t="n"/>
+      <c r="R38" s="97" t="n"/>
+      <c r="S38" s="97" t="n"/>
+      <c r="T38" s="97" t="n"/>
+      <c r="U38" s="97" t="n"/>
+      <c r="V38" s="97" t="n"/>
+      <c r="W38" s="97" t="n"/>
+      <c r="X38" s="97" t="n"/>
+      <c r="Y38" s="97" t="n"/>
+      <c r="Z38" s="97" t="n"/>
+      <c r="AA38" s="97" t="n"/>
+      <c r="AB38" s="97" t="n"/>
+      <c r="AC38" s="97" t="n"/>
+      <c r="AD38" s="97" t="n"/>
+      <c r="AE38" s="97" t="n"/>
+      <c r="AF38" s="97" t="n"/>
+      <c r="AG38" s="97" t="n"/>
+      <c r="AH38" s="97" t="n"/>
+      <c r="AI38" s="97" t="n"/>
+      <c r="AJ38" s="64" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A39" s="5" t="n"/>
+      <c r="B39" s="61" t="n"/>
+      <c r="C39" s="61" t="n"/>
+      <c r="D39" s="61" t="n"/>
+      <c r="E39" s="61" t="n"/>
+      <c r="F39" s="61" t="n"/>
+      <c r="G39" s="61" t="n"/>
+      <c r="H39" s="62" t="n"/>
+      <c r="I39" s="62" t="n"/>
+      <c r="J39" s="62" t="n"/>
+      <c r="K39" s="62" t="n"/>
+      <c r="L39" s="62" t="n"/>
+      <c r="M39" s="62" t="n"/>
+      <c r="N39" s="62" t="n"/>
+      <c r="O39" s="62" t="n"/>
+      <c r="P39" s="62" t="n"/>
+      <c r="Q39" s="62" t="n"/>
+      <c r="R39" s="62" t="n"/>
+      <c r="S39" s="62" t="n"/>
+      <c r="T39" s="62" t="n"/>
+      <c r="U39" s="62" t="n"/>
+      <c r="V39" s="62" t="n"/>
+      <c r="W39" s="62" t="n"/>
+      <c r="X39" s="62" t="n"/>
+      <c r="Y39" s="62" t="n"/>
+      <c r="Z39" s="62" t="n"/>
+      <c r="AA39" s="62" t="n"/>
+      <c r="AB39" s="62" t="n"/>
+      <c r="AC39" s="62" t="n"/>
+      <c r="AD39" s="62" t="n"/>
+      <c r="AE39" s="62" t="n"/>
+      <c r="AF39" s="62" t="n"/>
+      <c r="AG39" s="62" t="n"/>
+      <c r="AH39" s="62" t="n"/>
+      <c r="AI39" s="62" t="n"/>
+      <c r="AJ39" s="10" t="n"/>
     </row>
     <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A40" s="37" t="n"/>
@@ -13353,7 +11037,11 @@
       <c r="P40" s="61" t="n"/>
       <c r="Q40" s="61" t="n"/>
       <c r="R40" s="61" t="n"/>
-      <c r="S40" s="61" t="n"/>
+      <c r="S40" s="63" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
       <c r="T40" s="61" t="n"/>
       <c r="U40" s="61" t="n"/>
       <c r="V40" s="61" t="n"/>
@@ -13372,2245 +11060,182 @@
       <c r="AI40" s="61" t="n"/>
       <c r="AJ40" s="28" t="n"/>
     </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A41" s="15" t="n"/>
-      <c r="B41" s="51" t="n"/>
-      <c r="C41" s="51" t="n"/>
-      <c r="D41" s="51" t="n"/>
-      <c r="E41" s="51" t="n"/>
-      <c r="F41" s="51" t="n"/>
-      <c r="G41" s="51" t="n"/>
-      <c r="H41" s="51" t="n"/>
-      <c r="I41" s="51" t="n"/>
-      <c r="J41" s="51" t="n"/>
-      <c r="K41" s="51" t="n"/>
-      <c r="L41" s="51" t="n"/>
-      <c r="M41" s="51" t="n"/>
-      <c r="N41" s="51" t="n"/>
-      <c r="O41" s="51" t="n"/>
-      <c r="P41" s="51" t="n"/>
-      <c r="Q41" s="51" t="n"/>
-      <c r="R41" s="51" t="n"/>
-      <c r="S41" s="52" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T41" s="51" t="n"/>
-      <c r="U41" s="51" t="n"/>
-      <c r="V41" s="51" t="n"/>
-      <c r="W41" s="51" t="n"/>
-      <c r="X41" s="51" t="n"/>
-      <c r="Y41" s="51" t="n"/>
-      <c r="Z41" s="51" t="n"/>
-      <c r="AA41" s="51" t="n"/>
-      <c r="AB41" s="51" t="n"/>
-      <c r="AC41" s="51" t="n"/>
-      <c r="AD41" s="51" t="n"/>
-      <c r="AE41" s="51" t="n"/>
-      <c r="AF41" s="51" t="n"/>
-      <c r="AG41" s="51" t="n"/>
-      <c r="AH41" s="51" t="n"/>
-      <c r="AI41" s="51" t="n"/>
-      <c r="AJ41" s="16" t="n"/>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A41" s="38" t="n"/>
+      <c r="B41" s="33" t="n"/>
+      <c r="C41" s="33" t="n"/>
+      <c r="D41" s="33" t="n"/>
+      <c r="E41" s="33" t="n"/>
+      <c r="F41" s="33" t="n"/>
+      <c r="G41" s="33" t="n"/>
+      <c r="H41" s="33" t="n"/>
+      <c r="I41" s="33" t="n"/>
+      <c r="J41" s="33" t="n"/>
+      <c r="K41" s="33" t="n"/>
+      <c r="L41" s="33" t="n"/>
+      <c r="M41" s="33" t="n"/>
+      <c r="N41" s="33" t="n"/>
+      <c r="O41" s="33" t="n"/>
+      <c r="P41" s="33" t="n"/>
+      <c r="Q41" s="33" t="n"/>
+      <c r="R41" s="33" t="n"/>
+      <c r="S41" s="33" t="n"/>
+      <c r="T41" s="33" t="n"/>
+      <c r="U41" s="33" t="n"/>
+      <c r="V41" s="33" t="n"/>
+      <c r="W41" s="33" t="n"/>
+      <c r="X41" s="33" t="n"/>
+      <c r="Y41" s="33" t="n"/>
+      <c r="Z41" s="33" t="n"/>
+      <c r="AA41" s="33" t="n"/>
+      <c r="AB41" s="33" t="n"/>
+      <c r="AC41" s="33" t="n"/>
+      <c r="AD41" s="33" t="n"/>
+      <c r="AE41" s="33" t="n"/>
+      <c r="AF41" s="33" t="n"/>
+      <c r="AG41" s="33" t="n"/>
+      <c r="AH41" s="33" t="n"/>
+      <c r="AI41" s="33" t="n"/>
+      <c r="AJ41" s="34" t="n"/>
     </row>
     <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A42" s="38" t="n"/>
-      <c r="B42" s="33" t="n"/>
-      <c r="C42" s="33" t="n"/>
-      <c r="D42" s="33" t="n"/>
-      <c r="E42" s="33" t="n"/>
-      <c r="F42" s="33" t="n"/>
-      <c r="G42" s="33" t="n"/>
-      <c r="H42" s="33" t="n"/>
-      <c r="I42" s="33" t="n"/>
-      <c r="J42" s="33" t="n"/>
-      <c r="K42" s="33" t="n"/>
-      <c r="L42" s="33" t="n"/>
-      <c r="M42" s="33" t="n"/>
-      <c r="N42" s="33" t="n"/>
-      <c r="O42" s="33" t="n"/>
-      <c r="P42" s="33" t="n"/>
-      <c r="Q42" s="33" t="n"/>
-      <c r="R42" s="33" t="n"/>
-      <c r="S42" s="33" t="n"/>
-      <c r="T42" s="33" t="n"/>
-      <c r="U42" s="33" t="n"/>
-      <c r="V42" s="33" t="n"/>
-      <c r="W42" s="33" t="n"/>
-      <c r="X42" s="33" t="n"/>
-      <c r="Y42" s="33" t="n"/>
-      <c r="Z42" s="33" t="n"/>
-      <c r="AA42" s="33" t="n"/>
-      <c r="AB42" s="33" t="n"/>
-      <c r="AC42" s="33" t="n"/>
-      <c r="AD42" s="33" t="n"/>
-      <c r="AE42" s="33" t="n"/>
-      <c r="AF42" s="33" t="n"/>
-      <c r="AG42" s="33" t="n"/>
-      <c r="AH42" s="33" t="n"/>
-      <c r="AI42" s="33" t="n"/>
-      <c r="AJ42" s="34" t="n"/>
-    </row>
-    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="22" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">1. 
 </t>
         </is>
       </c>
-      <c r="B43" s="23" t="inlineStr">
+      <c r="B42" s="91" t="inlineStr">
         <is>
           <t>Piping Class Doc. No.MTU-ES-01 V1</t>
         </is>
       </c>
-      <c r="C43" s="23" t="n"/>
-      <c r="D43" s="23" t="n"/>
-      <c r="E43" s="23" t="n"/>
-      <c r="F43" s="23" t="n"/>
-      <c r="G43" s="23" t="n"/>
-      <c r="H43" s="23" t="n"/>
-      <c r="I43" s="23" t="n"/>
-      <c r="J43" s="23" t="n"/>
-      <c r="K43" s="23" t="n"/>
-      <c r="L43" s="23" t="n"/>
-      <c r="M43" s="23" t="n"/>
-      <c r="N43" s="23" t="n"/>
-      <c r="O43" s="23" t="n"/>
-      <c r="P43" s="23" t="n"/>
-      <c r="Q43" s="23" t="n"/>
-      <c r="R43" s="23" t="n"/>
-      <c r="S43" s="23" t="n"/>
-      <c r="T43" s="23" t="n"/>
-      <c r="U43" s="23" t="n"/>
-      <c r="V43" s="23" t="n"/>
-      <c r="W43" s="23" t="n"/>
-      <c r="X43" s="23" t="n"/>
-      <c r="Y43" s="23" t="n"/>
-      <c r="Z43" s="23" t="n"/>
-      <c r="AA43" s="23" t="n"/>
-      <c r="AB43" s="23" t="n"/>
-      <c r="AC43" s="23" t="n"/>
-      <c r="AD43" s="23" t="n"/>
-      <c r="AE43" s="23" t="n"/>
-      <c r="AF43" s="23" t="n"/>
-      <c r="AG43" s="23" t="n"/>
-      <c r="AH43" s="23" t="n"/>
-      <c r="AI43" s="23" t="n"/>
-      <c r="AJ43" s="34" t="n"/>
+      <c r="C42" s="97" t="n"/>
+      <c r="D42" s="97" t="n"/>
+      <c r="E42" s="97" t="n"/>
+      <c r="F42" s="97" t="n"/>
+      <c r="G42" s="97" t="n"/>
+      <c r="H42" s="97" t="n"/>
+      <c r="I42" s="97" t="n"/>
+      <c r="J42" s="97" t="n"/>
+      <c r="K42" s="97" t="n"/>
+      <c r="L42" s="97" t="n"/>
+      <c r="M42" s="97" t="n"/>
+      <c r="N42" s="97" t="n"/>
+      <c r="O42" s="97" t="n"/>
+      <c r="P42" s="97" t="n"/>
+      <c r="Q42" s="97" t="n"/>
+      <c r="R42" s="97" t="n"/>
+      <c r="S42" s="97" t="n"/>
+      <c r="T42" s="97" t="n"/>
+      <c r="U42" s="97" t="n"/>
+      <c r="V42" s="97" t="n"/>
+      <c r="W42" s="97" t="n"/>
+      <c r="X42" s="97" t="n"/>
+      <c r="Y42" s="97" t="n"/>
+      <c r="Z42" s="97" t="n"/>
+      <c r="AA42" s="97" t="n"/>
+      <c r="AB42" s="97" t="n"/>
+      <c r="AC42" s="97" t="n"/>
+      <c r="AD42" s="97" t="n"/>
+      <c r="AE42" s="97" t="n"/>
+      <c r="AF42" s="97" t="n"/>
+      <c r="AG42" s="97" t="n"/>
+      <c r="AH42" s="97" t="n"/>
+      <c r="AI42" s="97" t="n"/>
+      <c r="AJ42" s="34" t="n"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="2" t="n"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
+      <c r="W43" s="2" t="n"/>
+      <c r="X43" s="2" t="n"/>
+      <c r="Y43" s="2" t="n"/>
+      <c r="Z43" s="2" t="n"/>
+      <c r="AA43" s="2" t="n"/>
+      <c r="AB43" s="2" t="n"/>
+      <c r="AC43" s="2" t="n"/>
+      <c r="AD43" s="2" t="n"/>
+      <c r="AE43" s="2" t="n"/>
+      <c r="AF43" s="2" t="n"/>
+      <c r="AG43" s="2" t="n"/>
+      <c r="AH43" s="2" t="n"/>
+      <c r="AI43" s="2" t="n"/>
+      <c r="AJ43" s="2" t="n"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="B44" s="82" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="AA16:AC16"/>
+  <mergeCells count="48">
     <mergeCell ref="H24:O24"/>
     <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="H39:AI39"/>
     <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="AA22:AB22"/>
     <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="AB5:AI5"/>
     <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B44:AH44"/>
+    <mergeCell ref="B42:AI42"/>
+    <mergeCell ref="H31:AI31"/>
     <mergeCell ref="H32:AI32"/>
     <mergeCell ref="H33:AI33"/>
     <mergeCell ref="H34:AI34"/>
     <mergeCell ref="H35:AI35"/>
     <mergeCell ref="H36:AI36"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.7874015748031497" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="122" scale="69" fitToHeight="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AJ45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
-    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-      <c r="AA1" s="12" t="n"/>
-      <c r="AB1" s="12" t="n"/>
-      <c r="AC1" s="12" t="n"/>
-      <c r="AD1" s="12" t="n"/>
-      <c r="AE1" s="12" t="n"/>
-      <c r="AF1" s="12" t="n"/>
-      <c r="AG1" s="12" t="n"/>
-      <c r="AH1" s="12" t="n"/>
-      <c r="AI1" s="12" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A2" s="37" t="n"/>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="61" t="n"/>
-      <c r="D2" s="61" t="n"/>
-      <c r="E2" s="61" t="n"/>
-      <c r="F2" s="61" t="n"/>
-      <c r="G2" s="61" t="n"/>
-      <c r="H2" s="61" t="n"/>
-      <c r="I2" s="61" t="n"/>
-      <c r="J2" s="61" t="n"/>
-      <c r="K2" s="61" t="n"/>
-      <c r="L2" s="61" t="n"/>
-      <c r="M2" s="61" t="n"/>
-      <c r="N2" s="61" t="n"/>
-      <c r="O2" s="61" t="n"/>
-      <c r="P2" s="61" t="n"/>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="61" t="n"/>
-      <c r="S2" s="61" t="n"/>
-      <c r="T2" s="61" t="n"/>
-      <c r="U2" s="61" t="n"/>
-      <c r="V2" s="61" t="n"/>
-      <c r="W2" s="61" t="n"/>
-      <c r="X2" s="61" t="n"/>
-      <c r="Y2" s="61" t="n"/>
-      <c r="Z2" s="61" t="n"/>
-      <c r="AA2" s="61" t="n"/>
-      <c r="AB2" s="61" t="n"/>
-      <c r="AC2" s="61" t="n"/>
-      <c r="AD2" s="61" t="n"/>
-      <c r="AE2" s="61" t="n"/>
-      <c r="AF2" s="61" t="n"/>
-      <c r="AG2" s="61" t="n"/>
-      <c r="AH2" s="61" t="n"/>
-      <c r="AI2" s="61" t="n"/>
-      <c r="AJ2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>TAG. No.</t>
-        </is>
-      </c>
-      <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>GLV24F0B2B</t>
-        </is>
-      </c>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="61" t="n"/>
-      <c r="M3" s="61" t="n"/>
-      <c r="N3" s="61" t="n"/>
-      <c r="O3" s="61" t="n"/>
-      <c r="P3" s="48" t="n"/>
-      <c r="Q3" s="48" t="n"/>
-      <c r="R3" s="48" t="n"/>
-      <c r="S3" s="48" t="n"/>
-      <c r="T3" s="48" t="n"/>
-      <c r="U3" s="48" t="n"/>
-      <c r="V3" s="48" t="n"/>
-      <c r="W3" s="48" t="n"/>
-      <c r="X3" s="48" t="n"/>
-      <c r="Y3" s="48" t="n"/>
-      <c r="Z3" s="48" t="n"/>
-      <c r="AA3" s="48" t="n"/>
-      <c r="AB3" s="48" t="n"/>
-      <c r="AC3" s="48" t="n"/>
-      <c r="AD3" s="48" t="n"/>
-      <c r="AE3" s="48" t="n"/>
-      <c r="AF3" s="48" t="n"/>
-      <c r="AG3" s="48" t="n"/>
-      <c r="AH3" s="48" t="n"/>
-      <c r="AI3" s="48" t="n"/>
-      <c r="AJ3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>SIZE :</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="96" t="inlineStr">
-        <is>
-          <t>1/2, 3/4</t>
-        </is>
-      </c>
-      <c r="I4" s="97" t="n"/>
-      <c r="J4" s="97" t="n"/>
-      <c r="K4" s="49" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="61" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="61" t="n"/>
-      <c r="S4" s="61" t="n"/>
-      <c r="T4" s="61" t="n"/>
-      <c r="U4" s="61" t="n"/>
-      <c r="V4" s="61" t="n"/>
-      <c r="W4" s="61" t="n"/>
-      <c r="X4" s="61" t="n"/>
-      <c r="Y4" s="61" t="n"/>
-      <c r="Z4" s="61" t="n"/>
-      <c r="AA4" s="61" t="n"/>
-      <c r="AB4" s="61" t="n"/>
-      <c r="AC4" s="61" t="n"/>
-      <c r="AD4" s="61" t="n"/>
-      <c r="AE4" s="61" t="n"/>
-      <c r="AF4" s="61" t="n"/>
-      <c r="AG4" s="61" t="n"/>
-      <c r="AH4" s="61" t="n"/>
-      <c r="AI4" s="50" t="n"/>
-      <c r="AJ4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>PIPING CLASS :</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n"/>
-      <c r="C5" s="47" t="n"/>
-      <c r="D5" s="47" t="n"/>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="69" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="I5" s="95" t="n"/>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="95" t="n"/>
-      <c r="L5" s="95" t="n"/>
-      <c r="M5" s="95" t="n"/>
-      <c r="N5" s="95" t="n"/>
-      <c r="O5" s="47" t="n"/>
-      <c r="P5" s="47" t="n"/>
-      <c r="Q5" s="47" t="n"/>
-      <c r="R5" s="47" t="n"/>
-      <c r="S5" s="47" t="n"/>
-      <c r="T5" s="47" t="n"/>
-      <c r="U5" s="47" t="n"/>
-      <c r="V5" s="61" t="n"/>
-      <c r="W5" s="24" t="inlineStr">
-        <is>
-          <t>PLANT LOCATION:</t>
-        </is>
-      </c>
-      <c r="X5" s="61" t="n"/>
-      <c r="Y5" s="61" t="n"/>
-      <c r="Z5" s="61" t="n"/>
-      <c r="AA5" s="61" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="95" t="n"/>
-      <c r="AD5" s="95" t="n"/>
-      <c r="AE5" s="95" t="n"/>
-      <c r="AF5" s="95" t="n"/>
-      <c r="AG5" s="95" t="n"/>
-      <c r="AH5" s="95" t="n"/>
-      <c r="AI5" s="95" t="n"/>
-      <c r="AJ5" s="65" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>SERVICE (Note 1):</t>
-        </is>
-      </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="61" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="61" t="n"/>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
-        <is>
-          <t>HCN &amp; HCR</t>
-        </is>
-      </c>
-      <c r="I6" s="95" t="n"/>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="95" t="n"/>
-      <c r="L6" s="95" t="n"/>
-      <c r="M6" s="95" t="n"/>
-      <c r="N6" s="95" t="n"/>
-      <c r="O6" s="95" t="n"/>
-      <c r="P6" s="95" t="n"/>
-      <c r="Q6" s="95" t="n"/>
-      <c r="R6" s="95" t="n"/>
-      <c r="S6" s="95" t="n"/>
-      <c r="T6" s="95" t="n"/>
-      <c r="U6" s="95" t="n"/>
-      <c r="V6" s="95" t="n"/>
-      <c r="W6" s="95" t="n"/>
-      <c r="X6" s="95" t="n"/>
-      <c r="Y6" s="95" t="n"/>
-      <c r="Z6" s="95" t="n"/>
-      <c r="AA6" s="95" t="n"/>
-      <c r="AB6" s="95" t="n"/>
-      <c r="AC6" s="95" t="n"/>
-      <c r="AD6" s="95" t="n"/>
-      <c r="AE6" s="95" t="n"/>
-      <c r="AF6" s="95" t="n"/>
-      <c r="AG6" s="95" t="n"/>
-      <c r="AH6" s="95" t="n"/>
-      <c r="AI6" s="95" t="n"/>
-      <c r="AJ6" s="65" t="n"/>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="37" t="n"/>
-      <c r="B7" s="61" t="n"/>
-      <c r="C7" s="61" t="n"/>
-      <c r="D7" s="61" t="n"/>
-      <c r="E7" s="61" t="n"/>
-      <c r="F7" s="61" t="n"/>
-      <c r="G7" s="61" t="n"/>
-      <c r="H7" s="61" t="n"/>
-      <c r="I7" s="61" t="n"/>
-      <c r="J7" s="61" t="n"/>
-      <c r="K7" s="61" t="n"/>
-      <c r="L7" s="61" t="n"/>
-      <c r="M7" s="61" t="n"/>
-      <c r="N7" s="61" t="n"/>
-      <c r="O7" s="61" t="n"/>
-      <c r="P7" s="61" t="n"/>
-      <c r="Q7" s="61" t="n"/>
-      <c r="R7" s="61" t="n"/>
-      <c r="S7" s="61" t="n"/>
-      <c r="T7" s="61" t="n"/>
-      <c r="U7" s="61" t="n"/>
-      <c r="V7" s="61" t="n"/>
-      <c r="W7" s="61" t="n"/>
-      <c r="X7" s="61" t="n"/>
-      <c r="Y7" s="61" t="n"/>
-      <c r="Z7" s="61" t="n"/>
-      <c r="AA7" s="61" t="n"/>
-      <c r="AB7" s="61" t="n"/>
-      <c r="AC7" s="61" t="n"/>
-      <c r="AD7" s="61" t="n"/>
-      <c r="AE7" s="61" t="n"/>
-      <c r="AF7" s="61" t="n"/>
-      <c r="AG7" s="61" t="n"/>
-      <c r="AH7" s="61" t="n"/>
-      <c r="AI7" s="61" t="n"/>
-      <c r="AJ7" s="28" t="n"/>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A8" s="15" t="n"/>
-      <c r="B8" s="51" t="n"/>
-      <c r="C8" s="51" t="n"/>
-      <c r="D8" s="51" t="n"/>
-      <c r="E8" s="51" t="n"/>
-      <c r="F8" s="51" t="n"/>
-      <c r="G8" s="51" t="n"/>
-      <c r="H8" s="51" t="n"/>
-      <c r="I8" s="51" t="n"/>
-      <c r="J8" s="51" t="n"/>
-      <c r="K8" s="51" t="n"/>
-      <c r="L8" s="51" t="n"/>
-      <c r="M8" s="51" t="n"/>
-      <c r="N8" s="51" t="n"/>
-      <c r="O8" s="51" t="n"/>
-      <c r="P8" s="51" t="n"/>
-      <c r="Q8" s="51" t="n"/>
-      <c r="R8" s="51" t="n"/>
-      <c r="S8" s="52" t="inlineStr">
-        <is>
-          <t>M E C H A N I C A L</t>
-        </is>
-      </c>
-      <c r="T8" s="51" t="n"/>
-      <c r="U8" s="51" t="n"/>
-      <c r="V8" s="51" t="n"/>
-      <c r="W8" s="51" t="n"/>
-      <c r="X8" s="51" t="n"/>
-      <c r="Y8" s="51" t="n"/>
-      <c r="Z8" s="51" t="n"/>
-      <c r="AA8" s="51" t="n"/>
-      <c r="AB8" s="51" t="n"/>
-      <c r="AC8" s="51" t="n"/>
-      <c r="AD8" s="51" t="n"/>
-      <c r="AE8" s="51" t="n"/>
-      <c r="AF8" s="51" t="n"/>
-      <c r="AG8" s="51" t="n"/>
-      <c r="AH8" s="51" t="n"/>
-      <c r="AI8" s="51" t="n"/>
-      <c r="AJ8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="61" t="n"/>
-      <c r="D9" s="61" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="61" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="61" t="n"/>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="61" t="n"/>
-      <c r="K9" s="61" t="n"/>
-      <c r="L9" s="61" t="n"/>
-      <c r="M9" s="61" t="n"/>
-      <c r="N9" s="61" t="n"/>
-      <c r="O9" s="61" t="n"/>
-      <c r="P9" s="61" t="n"/>
-      <c r="Q9" s="61" t="n"/>
-      <c r="R9" s="61" t="n"/>
-      <c r="S9" s="61" t="n"/>
-      <c r="T9" s="61" t="n"/>
-      <c r="U9" s="61" t="n"/>
-      <c r="V9" s="61" t="n"/>
-      <c r="W9" s="61" t="n"/>
-      <c r="X9" s="61" t="n"/>
-      <c r="Y9" s="61" t="n"/>
-      <c r="Z9" s="61" t="n"/>
-      <c r="AA9" s="61" t="n"/>
-      <c r="AB9" s="61" t="n"/>
-      <c r="AC9" s="61" t="n"/>
-      <c r="AD9" s="61" t="n"/>
-      <c r="AE9" s="61" t="n"/>
-      <c r="AF9" s="61" t="n"/>
-      <c r="AG9" s="61" t="n"/>
-      <c r="AH9" s="61" t="n"/>
-      <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>VALVE TYPE :</t>
-        </is>
-      </c>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="61" t="n"/>
-      <c r="D10" s="61" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="61" t="n"/>
-      <c r="G10" s="61" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE</t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="95" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="95" t="n"/>
-      <c r="M10" s="95" t="n"/>
-      <c r="N10" s="95" t="n"/>
-      <c r="O10" s="95" t="n"/>
-      <c r="P10" s="95" t="n"/>
-      <c r="Q10" s="95" t="n"/>
-      <c r="R10" s="95" t="n"/>
-      <c r="S10" s="95" t="n"/>
-      <c r="T10" s="95" t="n"/>
-      <c r="U10" s="95" t="n"/>
-      <c r="V10" s="95" t="n"/>
-      <c r="W10" s="95" t="n"/>
-      <c r="X10" s="61" t="n"/>
-      <c r="Y10" s="61" t="n"/>
-      <c r="Z10" s="61" t="n"/>
-      <c r="AA10" s="61" t="n"/>
-      <c r="AB10" s="49" t="inlineStr">
-        <is>
-          <t>RATING / CLASS:</t>
-        </is>
-      </c>
-      <c r="AC10" s="70" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="AD10" s="95" t="n"/>
-      <c r="AE10" s="95" t="n"/>
-      <c r="AF10" s="95" t="n"/>
-      <c r="AG10" s="95" t="n"/>
-      <c r="AH10" s="95" t="n"/>
-      <c r="AI10" s="95" t="n"/>
-      <c r="AJ10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>END CONNECTIONS:</t>
-        </is>
-      </c>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="61" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="61" t="n"/>
-      <c r="G11" s="61" t="n"/>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLANGED </t>
-        </is>
-      </c>
-      <c r="I11" s="61" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr"/>
-      <c r="M11" s="95" t="n"/>
-      <c r="N11" s="61" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="61" t="n"/>
-      <c r="Q11" s="61" t="n"/>
-      <c r="R11" s="49" t="inlineStr">
-        <is>
-          <t>FACING:</t>
-        </is>
-      </c>
-      <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr"/>
-      <c r="U11" s="95" t="n"/>
-      <c r="V11" s="61" t="n"/>
-      <c r="W11" s="61" t="n"/>
-      <c r="X11" s="61" t="n"/>
-      <c r="Y11" s="61" t="n"/>
-      <c r="Z11" s="61" t="n"/>
-      <c r="AA11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOCKETWELD </t>
-        </is>
-      </c>
-      <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD11" s="95" t="n"/>
-      <c r="AE11" s="66" t="inlineStr">
-        <is>
-          <t>SCREWED</t>
-        </is>
-      </c>
-      <c r="AF11" s="66" t="n"/>
-      <c r="AG11" s="66" t="n"/>
-      <c r="AH11" s="72" t="inlineStr"/>
-      <c r="AI11" s="95" t="n"/>
-      <c r="AJ11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="37" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="61" t="n"/>
-      <c r="D12" s="61" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="61" t="n"/>
-      <c r="G12" s="61" t="n"/>
-      <c r="H12" s="54" t="inlineStr">
-        <is>
-          <t>BUTTWELD</t>
-        </is>
-      </c>
-      <c r="I12" s="61" t="n"/>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="61" t="n"/>
-      <c r="L12" s="68" t="inlineStr"/>
-      <c r="M12" s="95" t="n"/>
-      <c r="N12" s="95" t="n"/>
-      <c r="O12" s="95" t="n"/>
-      <c r="P12" s="95" t="n"/>
-      <c r="Q12" s="95" t="n"/>
-      <c r="R12" s="95" t="n"/>
-      <c r="S12" s="95" t="n"/>
-      <c r="T12" s="95" t="n"/>
-      <c r="U12" s="95" t="n"/>
-      <c r="V12" s="95" t="n"/>
-      <c r="W12" s="61" t="n"/>
-      <c r="X12" s="61" t="n"/>
-      <c r="Y12" s="61" t="n"/>
-      <c r="Z12" s="61" t="n"/>
-      <c r="AA12" s="61" t="n"/>
-      <c r="AB12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-      <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
-      <c r="AE12" s="95" t="n"/>
-      <c r="AF12" s="95" t="n"/>
-      <c r="AG12" s="95" t="n"/>
-      <c r="AH12" s="95" t="n"/>
-      <c r="AI12" s="95" t="n"/>
-      <c r="AJ12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A13" s="37" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="61" t="n"/>
-      <c r="D13" s="61" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="61" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="61" t="n"/>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="61" t="n"/>
-      <c r="L13" s="61" t="n"/>
-      <c r="M13" s="61" t="n"/>
-      <c r="N13" s="61" t="n"/>
-      <c r="O13" s="61" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="61" t="n"/>
-      <c r="R13" s="61" t="n"/>
-      <c r="S13" s="61" t="n"/>
-      <c r="T13" s="61" t="n"/>
-      <c r="U13" s="61" t="n"/>
-      <c r="V13" s="61" t="n"/>
-      <c r="W13" s="61" t="n"/>
-      <c r="X13" s="61" t="n"/>
-      <c r="Y13" s="61" t="n"/>
-      <c r="Z13" s="61" t="n"/>
-      <c r="AA13" s="61" t="n"/>
-      <c r="AB13" s="53" t="n"/>
-      <c r="AC13" s="61" t="n"/>
-      <c r="AD13" s="61" t="n"/>
-      <c r="AE13" s="61" t="n"/>
-      <c r="AF13" s="61" t="n"/>
-      <c r="AG13" s="61" t="n"/>
-      <c r="AH13" s="61" t="n"/>
-      <c r="AI13" s="61" t="n"/>
-      <c r="AJ13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
-        </is>
-      </c>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="61" t="n"/>
-      <c r="D14" s="61" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="61" t="n"/>
-      <c r="G14" s="61" t="n"/>
-      <c r="H14" s="61" t="n"/>
-      <c r="I14" s="61" t="n"/>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="61" t="n"/>
-      <c r="L14" s="61" t="n"/>
-      <c r="M14" s="61" t="n"/>
-      <c r="N14" s="61" t="n"/>
-      <c r="O14" s="61" t="n"/>
-      <c r="P14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.5</t>
-        </is>
-      </c>
-      <c r="Q14" s="68" t="inlineStr"/>
-      <c r="R14" s="95" t="n"/>
-      <c r="S14" s="95" t="n"/>
-      <c r="T14" s="61" t="n"/>
-      <c r="U14" s="61" t="n"/>
-      <c r="V14" s="61" t="n"/>
-      <c r="W14" s="61" t="n"/>
-      <c r="X14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.11</t>
-        </is>
-      </c>
-      <c r="Y14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z14" s="95" t="n"/>
-      <c r="AA14" s="95" t="n"/>
-      <c r="AB14" s="61" t="n"/>
-      <c r="AC14" s="61" t="n"/>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
-      <c r="AG14" s="95" t="n"/>
-      <c r="AH14" s="95" t="n"/>
-      <c r="AI14" s="95" t="n"/>
-      <c r="AJ14" s="16" t="n"/>
-    </row>
-    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="61" t="n"/>
-      <c r="D15" s="61" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="61" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="n"/>
-      <c r="I15" s="61" t="n"/>
-      <c r="J15" s="80" t="n"/>
-      <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="n"/>
-      <c r="R15" s="61" t="n"/>
-      <c r="S15" s="61" t="n"/>
-      <c r="T15" s="80" t="n"/>
-      <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="n"/>
-      <c r="AA15" s="61" t="n"/>
-      <c r="AB15" s="61" t="n"/>
-      <c r="AC15" s="61" t="n"/>
-      <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="84" t="n"/>
-      <c r="AJ15" s="98" t="n"/>
-    </row>
-    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="n"/>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="61" t="n"/>
-      <c r="D16" s="61" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="61" t="n"/>
-      <c r="G16" s="61" t="n"/>
-      <c r="H16" s="61" t="n"/>
-      <c r="I16" s="61" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="61" t="n"/>
-      <c r="L16" s="61" t="n"/>
-      <c r="M16" s="61" t="n"/>
-      <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="n"/>
-      <c r="P16" s="80" t="n"/>
-      <c r="S16" s="61" t="n"/>
-      <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="n"/>
-      <c r="V16" s="61" t="n"/>
-      <c r="W16" s="61" t="n"/>
-      <c r="X16" s="61" t="n"/>
-      <c r="Y16" s="55" t="n"/>
-      <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="80" t="n"/>
-      <c r="AD16" s="61" t="n"/>
-      <c r="AE16" s="61" t="n"/>
-      <c r="AF16" s="61" t="n"/>
-      <c r="AG16" s="61" t="n"/>
-      <c r="AH16" s="61" t="n"/>
-      <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="28" t="n"/>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A17" s="17" t="inlineStr">
-        <is>
-          <t>TYPE OPERATOR :</t>
-        </is>
-      </c>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="61" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="69" t="inlineStr">
-        <is>
-          <t>HANDWHEEL OPERATOR</t>
-        </is>
-      </c>
-      <c r="I17" s="95" t="n"/>
-      <c r="J17" s="95" t="n"/>
-      <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="n"/>
-      <c r="M17" s="95" t="n"/>
-      <c r="N17" s="95" t="n"/>
-      <c r="O17" s="61" t="n"/>
-      <c r="P17" s="61" t="n"/>
-      <c r="Q17" s="61" t="n"/>
-      <c r="R17" s="61" t="n"/>
-      <c r="S17" s="61" t="n"/>
-      <c r="T17" s="61" t="n"/>
-      <c r="U17" s="61" t="n"/>
-      <c r="V17" s="61" t="n"/>
-      <c r="W17" s="61" t="n"/>
-      <c r="X17" s="61" t="n"/>
-      <c r="Y17" s="61" t="n"/>
-      <c r="Z17" s="61" t="n"/>
-      <c r="AA17" s="61" t="n"/>
-      <c r="AB17" s="61" t="n"/>
-      <c r="AC17" s="61" t="n"/>
-      <c r="AD17" s="61" t="n"/>
-      <c r="AE17" s="61" t="n"/>
-      <c r="AF17" s="61" t="n"/>
-      <c r="AG17" s="61" t="n"/>
-      <c r="AH17" s="61" t="n"/>
-      <c r="AI17" s="61" t="n"/>
-      <c r="AJ17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A18" s="37" t="n"/>
-      <c r="B18" s="61" t="n"/>
-      <c r="C18" s="61" t="n"/>
-      <c r="D18" s="61" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="61" t="n"/>
-      <c r="G18" s="61" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="61" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="61" t="n"/>
-      <c r="L18" s="61" t="n"/>
-      <c r="M18" s="61" t="n"/>
-      <c r="N18" s="61" t="n"/>
-      <c r="O18" s="61" t="n"/>
-      <c r="P18" s="61" t="n"/>
-      <c r="Q18" s="61" t="n"/>
-      <c r="R18" s="61" t="n"/>
-      <c r="S18" s="61" t="n"/>
-      <c r="T18" s="61" t="n"/>
-      <c r="U18" s="61" t="n"/>
-      <c r="V18" s="61" t="n"/>
-      <c r="W18" s="61" t="n"/>
-      <c r="X18" s="61" t="n"/>
-      <c r="Y18" s="55" t="n"/>
-      <c r="Z18" s="61" t="n"/>
-      <c r="AA18" s="61" t="n"/>
-      <c r="AB18" s="61" t="n"/>
-      <c r="AC18" s="61" t="n"/>
-      <c r="AD18" s="61" t="n"/>
-      <c r="AE18" s="61" t="n"/>
-      <c r="AF18" s="61" t="n"/>
-      <c r="AG18" s="61" t="n"/>
-      <c r="AH18" s="61" t="n"/>
-      <c r="AI18" s="61" t="n"/>
-      <c r="AJ18" s="28" t="n"/>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="51" t="n"/>
-      <c r="C19" s="51" t="n"/>
-      <c r="D19" s="51" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
-      <c r="G19" s="51" t="n"/>
-      <c r="H19" s="51" t="n"/>
-      <c r="I19" s="51" t="n"/>
-      <c r="J19" s="51" t="n"/>
-      <c r="K19" s="51" t="n"/>
-      <c r="L19" s="51" t="n"/>
-      <c r="M19" s="51" t="n"/>
-      <c r="N19" s="51" t="n"/>
-      <c r="O19" s="51" t="n"/>
-      <c r="P19" s="51" t="n"/>
-      <c r="Q19" s="51" t="n"/>
-      <c r="R19" s="51" t="n"/>
-      <c r="S19" s="52" t="inlineStr">
-        <is>
-          <t>D E S I G N</t>
-        </is>
-      </c>
-      <c r="T19" s="51" t="n"/>
-      <c r="U19" s="51" t="n"/>
-      <c r="V19" s="51" t="n"/>
-      <c r="W19" s="51" t="n"/>
-      <c r="X19" s="51" t="n"/>
-      <c r="Y19" s="51" t="n"/>
-      <c r="Z19" s="51" t="n"/>
-      <c r="AA19" s="51" t="n"/>
-      <c r="AB19" s="51" t="n"/>
-      <c r="AC19" s="51" t="n"/>
-      <c r="AD19" s="51" t="n"/>
-      <c r="AE19" s="51" t="n"/>
-      <c r="AF19" s="51" t="n"/>
-      <c r="AG19" s="51" t="n"/>
-      <c r="AH19" s="51" t="n"/>
-      <c r="AI19" s="51" t="n"/>
-      <c r="AJ19" s="16" t="n"/>
-    </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A20" s="37" t="n"/>
-      <c r="B20" s="61" t="n"/>
-      <c r="C20" s="61" t="n"/>
-      <c r="D20" s="61" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="61" t="n"/>
-      <c r="H20" s="61" t="n"/>
-      <c r="I20" s="61" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="61" t="n"/>
-      <c r="L20" s="61" t="n"/>
-      <c r="M20" s="61" t="n"/>
-      <c r="N20" s="61" t="n"/>
-      <c r="O20" s="61" t="n"/>
-      <c r="P20" s="61" t="n"/>
-      <c r="Q20" s="61" t="n"/>
-      <c r="R20" s="61" t="n"/>
-      <c r="S20" s="61" t="n"/>
-      <c r="T20" s="61" t="n"/>
-      <c r="U20" s="61" t="n"/>
-      <c r="V20" s="61" t="n"/>
-      <c r="W20" s="61" t="n"/>
-      <c r="X20" s="61" t="n"/>
-      <c r="Y20" s="61" t="n"/>
-      <c r="Z20" s="61" t="n"/>
-      <c r="AA20" s="61" t="n"/>
-      <c r="AB20" s="61" t="n"/>
-      <c r="AC20" s="61" t="n"/>
-      <c r="AD20" s="61" t="n"/>
-      <c r="AE20" s="61" t="n"/>
-      <c r="AF20" s="61" t="n"/>
-      <c r="AG20" s="61" t="n"/>
-      <c r="AH20" s="61" t="n"/>
-      <c r="AI20" s="61" t="n"/>
-      <c r="AJ20" s="28" t="n"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>APPLICABLE PIPING</t>
-        </is>
-      </c>
-      <c r="B21" s="61" t="n"/>
-      <c r="C21" s="61" t="n"/>
-      <c r="D21" s="61" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="61" t="n"/>
-      <c r="H21" s="61" t="n"/>
-      <c r="I21" s="61" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="61" t="n"/>
-      <c r="L21" s="61" t="n"/>
-      <c r="M21" s="61" t="n"/>
-      <c r="N21" s="61" t="n"/>
-      <c r="O21" s="61" t="n"/>
-      <c r="P21" s="61" t="n"/>
-      <c r="Q21" s="61" t="n"/>
-      <c r="R21" s="61" t="n"/>
-      <c r="S21" s="61" t="n"/>
-      <c r="T21" s="61" t="n"/>
-      <c r="U21" s="61" t="n"/>
-      <c r="V21" s="61" t="n"/>
-      <c r="W21" s="61" t="n"/>
-      <c r="X21" s="61" t="n"/>
-      <c r="Y21" s="61" t="n"/>
-      <c r="Z21" s="61" t="n"/>
-      <c r="AA21" s="61" t="n"/>
-      <c r="AB21" s="61" t="n"/>
-      <c r="AC21" s="61" t="n"/>
-      <c r="AD21" s="61" t="n"/>
-      <c r="AE21" s="61" t="n"/>
-      <c r="AF21" s="61" t="n"/>
-      <c r="AG21" s="61" t="n"/>
-      <c r="AH21" s="61" t="n"/>
-      <c r="AI21" s="61" t="n"/>
-      <c r="AJ21" s="28" t="n"/>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DESIGN CODE:       </t>
-        </is>
-      </c>
-      <c r="B22" s="61" t="n"/>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>API 600</t>
-        </is>
-      </c>
-      <c r="I22" s="68" t="inlineStr"/>
-      <c r="J22" s="95" t="n"/>
-      <c r="K22" s="61" t="n"/>
-      <c r="L22" s="61" t="n"/>
-      <c r="M22" s="81" t="inlineStr">
-        <is>
-          <t>API 6D</t>
-        </is>
-      </c>
-      <c r="N22" s="61" t="n"/>
-      <c r="O22" s="68" t="inlineStr"/>
-      <c r="P22" s="95" t="n"/>
-      <c r="Q22" s="61" t="n"/>
-      <c r="R22" s="61" t="n"/>
-      <c r="S22" s="61" t="n"/>
-      <c r="T22" s="53" t="inlineStr">
-        <is>
-          <t>API 608</t>
-        </is>
-      </c>
-      <c r="U22" s="71" t="inlineStr"/>
-      <c r="V22" s="95" t="n"/>
-      <c r="W22" s="61" t="n"/>
-      <c r="X22" s="61" t="n"/>
-      <c r="Y22" s="61" t="n"/>
-      <c r="Z22" s="56" t="inlineStr">
-        <is>
-          <t>API 602</t>
-        </is>
-      </c>
-      <c r="AA22" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB22" s="95" t="n"/>
-      <c r="AC22" s="61" t="n"/>
-      <c r="AD22" s="61" t="n"/>
-      <c r="AE22" s="79" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AG22" s="68" t="inlineStr"/>
-      <c r="AH22" s="95" t="n"/>
-      <c r="AI22" s="95" t="n"/>
-      <c r="AJ22" s="28" t="n"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
-        </is>
-      </c>
-      <c r="L23" s="90" t="inlineStr"/>
-      <c r="M23" s="95" t="n"/>
-      <c r="N23" s="95" t="n"/>
-      <c r="O23" s="95" t="n"/>
-      <c r="P23" s="95" t="n"/>
-      <c r="Q23" s="95" t="n"/>
-      <c r="R23" s="95" t="n"/>
-      <c r="S23" s="95" t="n"/>
-      <c r="T23" s="95" t="n"/>
-      <c r="U23" s="95" t="n"/>
-      <c r="V23" s="95" t="n"/>
-      <c r="W23" s="95" t="n"/>
-      <c r="X23" s="95" t="n"/>
-      <c r="Y23" s="95" t="n"/>
-      <c r="Z23" s="95" t="n"/>
-      <c r="AA23" s="95" t="n"/>
-      <c r="AB23" s="95" t="n"/>
-      <c r="AC23" s="95" t="n"/>
-      <c r="AD23" s="95" t="n"/>
-      <c r="AE23" s="95" t="n"/>
-      <c r="AF23" s="95" t="n"/>
-      <c r="AG23" s="95" t="n"/>
-      <c r="AH23" s="95" t="n"/>
-      <c r="AI23" s="95" t="n"/>
-      <c r="AJ23" s="28" t="n"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="68" t="n">
-        <v>285</v>
-      </c>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="95" t="n"/>
-      <c r="K24" s="95" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="95" t="n"/>
-      <c r="N24" s="95" t="n"/>
-      <c r="O24" s="95" t="n"/>
-      <c r="P24" s="24" t="inlineStr">
-        <is>
-          <t>PSIG @100°F</t>
-        </is>
-      </c>
-      <c r="Q24" s="61" t="n"/>
-      <c r="R24" s="61" t="n"/>
-      <c r="S24" s="61" t="n"/>
-      <c r="T24" s="61" t="n"/>
-      <c r="U24" s="61" t="n"/>
-      <c r="V24" s="61" t="n"/>
-      <c r="W24" s="61" t="n"/>
-      <c r="X24" s="61" t="n"/>
-      <c r="Y24" s="61" t="n"/>
-      <c r="Z24" s="49" t="inlineStr">
-        <is>
-          <t>DESIGN TEMP:</t>
-        </is>
-      </c>
-      <c r="AA24" s="61" t="n"/>
-      <c r="AB24" s="69" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="95" t="n"/>
-      <c r="AD24" s="24" t="inlineStr">
-        <is>
-          <t>F. MIN</t>
-        </is>
-      </c>
-      <c r="AE24" s="61" t="n"/>
-      <c r="AF24" s="69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="95" t="n"/>
-      <c r="AH24" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F. MAX</t>
-        </is>
-      </c>
-      <c r="AI24" s="61" t="n"/>
-      <c r="AJ24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B25" s="61" t="n"/>
-      <c r="C25" s="61" t="n"/>
-      <c r="D25" s="61" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="61" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="61" t="n"/>
-      <c r="I25" s="61" t="n"/>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="32" t="n"/>
-      <c r="L25" s="32" t="n"/>
-      <c r="M25" s="32" t="n"/>
-      <c r="N25" s="32" t="n"/>
-      <c r="O25" s="32" t="n"/>
-      <c r="P25" s="33" t="n"/>
-      <c r="Q25" s="79" t="inlineStr">
-        <is>
-          <t>PSIG</t>
-        </is>
-      </c>
-      <c r="S25" s="61" t="n"/>
-      <c r="T25" s="61" t="n"/>
-      <c r="U25" s="61" t="n"/>
-      <c r="V25" s="61" t="n"/>
-      <c r="W25" s="24" t="inlineStr">
-        <is>
-          <t>TEST PRESSURE:</t>
-        </is>
-      </c>
-      <c r="X25" s="61" t="n"/>
-      <c r="Y25" s="61" t="n"/>
-      <c r="Z25" s="61" t="n"/>
-      <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr">
-        <is>
-          <t>API 598</t>
-        </is>
-      </c>
-      <c r="AC25" s="95" t="n"/>
-      <c r="AD25" s="95" t="n"/>
-      <c r="AE25" s="24" t="n"/>
-      <c r="AF25" s="78" t="n"/>
-      <c r="AH25" s="61" t="n"/>
-      <c r="AI25" s="61" t="n"/>
-      <c r="AJ25" s="31" t="n"/>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>CONTAMINANTS :</t>
-        </is>
-      </c>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="61" t="n"/>
-      <c r="G26" s="61" t="n"/>
-      <c r="H26" s="24" t="inlineStr">
-        <is>
-          <t>CO2:</t>
-        </is>
-      </c>
-      <c r="I26" s="19" t="n"/>
-      <c r="J26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n"/>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="n"/>
-      <c r="Q26" s="61" t="n"/>
-      <c r="R26" s="61" t="n"/>
-      <c r="S26" s="49" t="inlineStr">
-        <is>
-          <t>CHLORIDE:</t>
-        </is>
-      </c>
-      <c r="T26" s="85" t="n"/>
-      <c r="U26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V26" s="20" t="n"/>
-      <c r="W26" s="33" t="n"/>
-      <c r="X26" s="33" t="n"/>
-      <c r="Y26" s="33" t="n"/>
-      <c r="Z26" s="33" t="n"/>
-      <c r="AA26" s="61" t="n"/>
-      <c r="AB26" s="53" t="inlineStr">
-        <is>
-          <t>H2S:</t>
-        </is>
-      </c>
-      <c r="AC26" s="70" t="n"/>
-      <c r="AD26" s="95" t="n"/>
-      <c r="AE26" s="95" t="n"/>
-      <c r="AF26" s="95" t="n"/>
-      <c r="AG26" s="95" t="n"/>
-      <c r="AH26" s="95" t="n"/>
-      <c r="AI26" s="95" t="n"/>
-      <c r="AJ26" s="28" t="n"/>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A27" s="37" t="n"/>
-      <c r="B27" s="61" t="n"/>
-      <c r="C27" s="61" t="n"/>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="61" t="n"/>
-      <c r="G27" s="61" t="n"/>
-      <c r="H27" s="24" t="inlineStr">
-        <is>
-          <t>METHANOL :</t>
-        </is>
-      </c>
-      <c r="I27" s="61" t="n"/>
-      <c r="J27" s="61" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n"/>
-      <c r="M27" s="33" t="n"/>
-      <c r="N27" s="33" t="n"/>
-      <c r="O27" s="33" t="n"/>
-      <c r="P27" s="33" t="n"/>
-      <c r="Q27" s="33" t="n"/>
-      <c r="R27" s="33" t="n"/>
-      <c r="S27" s="33" t="n"/>
-      <c r="T27" s="33" t="n"/>
-      <c r="U27" s="61" t="n"/>
-      <c r="V27" s="61" t="n"/>
-      <c r="W27" s="53" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="95" t="n"/>
-      <c r="Z27" s="95" t="n"/>
-      <c r="AA27" s="95" t="n"/>
-      <c r="AB27" s="95" t="n"/>
-      <c r="AC27" s="95" t="n"/>
-      <c r="AD27" s="95" t="n"/>
-      <c r="AE27" s="95" t="n"/>
-      <c r="AF27" s="95" t="n"/>
-      <c r="AG27" s="95" t="n"/>
-      <c r="AH27" s="95" t="n"/>
-      <c r="AI27" s="95" t="n"/>
-      <c r="AJ27" s="28" t="n"/>
-    </row>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A28" s="37" t="n"/>
-      <c r="B28" s="61" t="n"/>
-      <c r="C28" s="61" t="n"/>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="61" t="n"/>
-      <c r="G28" s="61" t="n"/>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="61" t="n"/>
-      <c r="J28" s="61" t="n"/>
-      <c r="K28" s="61" t="n"/>
-      <c r="L28" s="61" t="n"/>
-      <c r="M28" s="61" t="n"/>
-      <c r="N28" s="61" t="n"/>
-      <c r="O28" s="61" t="n"/>
-      <c r="P28" s="61" t="n"/>
-      <c r="Q28" s="61" t="n"/>
-      <c r="R28" s="61" t="n"/>
-      <c r="S28" s="61" t="n"/>
-      <c r="T28" s="61" t="n"/>
-      <c r="U28" s="61" t="n"/>
-      <c r="V28" s="61" t="n"/>
-      <c r="W28" s="61" t="n"/>
-      <c r="X28" s="61" t="n"/>
-      <c r="Y28" s="61" t="n"/>
-      <c r="Z28" s="61" t="n"/>
-      <c r="AA28" s="61" t="n"/>
-      <c r="AB28" s="61" t="n"/>
-      <c r="AC28" s="61" t="n"/>
-      <c r="AD28" s="61" t="n"/>
-      <c r="AE28" s="61" t="n"/>
-      <c r="AF28" s="61" t="n"/>
-      <c r="AG28" s="61" t="n"/>
-      <c r="AH28" s="61" t="n"/>
-      <c r="AI28" s="61" t="n"/>
-      <c r="AJ28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
-      <c r="G29" s="51" t="n"/>
-      <c r="H29" s="51" t="n"/>
-      <c r="I29" s="51" t="n"/>
-      <c r="J29" s="51" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-      <c r="P29" s="51" t="n"/>
-      <c r="Q29" s="51" t="n"/>
-      <c r="R29" s="51" t="n"/>
-      <c r="S29" s="52" t="inlineStr">
-        <is>
-          <t>M A T E R I A L S</t>
-        </is>
-      </c>
-      <c r="T29" s="51" t="n"/>
-      <c r="U29" s="51" t="n"/>
-      <c r="V29" s="51" t="n"/>
-      <c r="W29" s="51" t="n"/>
-      <c r="X29" s="51" t="n"/>
-      <c r="Y29" s="51" t="n"/>
-      <c r="Z29" s="51" t="n"/>
-      <c r="AA29" s="51" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="51" t="n"/>
-      <c r="AD29" s="51" t="n"/>
-      <c r="AE29" s="51" t="n"/>
-      <c r="AF29" s="51" t="n"/>
-      <c r="AG29" s="51" t="n"/>
-      <c r="AH29" s="51" t="n"/>
-      <c r="AI29" s="51" t="n"/>
-      <c r="AJ29" s="16" t="n"/>
-    </row>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="51" t="n"/>
-      <c r="C30" s="51" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
-      <c r="G30" s="51" t="n"/>
-      <c r="H30" s="51" t="n"/>
-      <c r="I30" s="51" t="n"/>
-      <c r="J30" s="51" t="n"/>
-      <c r="K30" s="51" t="n"/>
-      <c r="L30" s="51" t="n"/>
-      <c r="M30" s="51" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-      <c r="P30" s="51" t="n"/>
-      <c r="Q30" s="51" t="n"/>
-      <c r="R30" s="51" t="n"/>
-      <c r="S30" s="52" t="n"/>
-      <c r="T30" s="51" t="n"/>
-      <c r="U30" s="51" t="n"/>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="51" t="n"/>
-      <c r="X30" s="51" t="n"/>
-      <c r="Y30" s="51" t="n"/>
-      <c r="Z30" s="51" t="n"/>
-      <c r="AA30" s="51" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="51" t="n"/>
-      <c r="AD30" s="51" t="n"/>
-      <c r="AE30" s="51" t="n"/>
-      <c r="AF30" s="51" t="n"/>
-      <c r="AG30" s="51" t="n"/>
-      <c r="AH30" s="51" t="n"/>
-      <c r="AI30" s="51" t="n"/>
-      <c r="AJ30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="42" t="n"/>
-      <c r="G31" s="42" t="n"/>
-      <c r="H31" s="89" t="inlineStr">
-        <is>
-          <t>ASTM A105</t>
-        </is>
-      </c>
-      <c r="I31" s="95" t="n"/>
-      <c r="J31" s="95" t="n"/>
-      <c r="K31" s="95" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="95" t="n"/>
-      <c r="N31" s="95" t="n"/>
-      <c r="O31" s="95" t="n"/>
-      <c r="P31" s="95" t="n"/>
-      <c r="Q31" s="95" t="n"/>
-      <c r="R31" s="95" t="n"/>
-      <c r="S31" s="95" t="n"/>
-      <c r="T31" s="95" t="n"/>
-      <c r="U31" s="95" t="n"/>
-      <c r="V31" s="95" t="n"/>
-      <c r="W31" s="95" t="n"/>
-      <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>TRIM:</t>
-        </is>
-      </c>
-      <c r="AA31" s="42" t="n"/>
-      <c r="AB31" s="42" t="n"/>
-      <c r="AC31" s="70" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AD31" s="95" t="n"/>
-      <c r="AE31" s="95" t="n"/>
-      <c r="AF31" s="95" t="n"/>
-      <c r="AG31" s="95" t="n"/>
-      <c r="AH31" s="95" t="n"/>
-      <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
-      <c r="E32" s="42" t="n"/>
-      <c r="F32" s="42" t="n"/>
-      <c r="G32" s="42" t="n"/>
-      <c r="H32" s="85" t="inlineStr">
-        <is>
-          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="42" t="n"/>
-      <c r="Z32" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AA32" s="42" t="n"/>
-      <c r="AB32" s="42" t="n"/>
-      <c r="AC32" s="70" t="inlineStr">
-        <is>
-          <t>GRAPHITE</t>
-        </is>
-      </c>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>YOKE BEARINGS:</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="86" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="I33" s="97" t="n"/>
-      <c r="J33" s="97" t="n"/>
-      <c r="K33" s="97" t="n"/>
-      <c r="L33" s="97" t="n"/>
-      <c r="M33" s="97" t="n"/>
-      <c r="N33" s="97" t="n"/>
-      <c r="O33" s="97" t="n"/>
-      <c r="P33" s="97" t="n"/>
-      <c r="Q33" s="97" t="n"/>
-      <c r="R33" s="97" t="n"/>
-      <c r="S33" s="97" t="n"/>
-      <c r="T33" s="97" t="n"/>
-      <c r="U33" s="97" t="n"/>
-      <c r="V33" s="97" t="n"/>
-      <c r="W33" s="97" t="n"/>
-      <c r="X33" s="97" t="n"/>
-      <c r="Y33" s="40" t="n"/>
-      <c r="Z33" s="81" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
-        </is>
-      </c>
-      <c r="AA33" s="42" t="n"/>
-      <c r="AB33" s="42" t="n"/>
-      <c r="AC33" s="70" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
-        </is>
-      </c>
-      <c r="B34" s="42" t="n"/>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="87" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
-    </row>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
-        </is>
-      </c>
-      <c r="B35" s="42" t="n"/>
-      <c r="C35" s="42" t="n"/>
-      <c r="D35" s="42" t="n"/>
-      <c r="E35" s="42" t="n"/>
-      <c r="F35" s="42" t="n"/>
-      <c r="G35" s="42" t="n"/>
-      <c r="H35" s="87" t="inlineStr">
-        <is>
-          <t>RENEWABLE</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
-      <c r="B36" s="42" t="n"/>
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="87" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="n"/>
-      <c r="B37" s="42" t="n"/>
-      <c r="C37" s="42" t="n"/>
-      <c r="D37" s="42" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="42" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="87" t="n"/>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
-      <c r="B38" s="42" t="n"/>
-      <c r="C38" s="42" t="n"/>
-      <c r="D38" s="42" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="42" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="87" t="inlineStr">
-        <is>
-          <t>SWIVEL PLUG DISC, STEM: OS&amp;Y/RSRO</t>
-        </is>
-      </c>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="n"/>
-      <c r="B39" s="42" t="n"/>
-      <c r="C39" s="42" t="n"/>
-      <c r="D39" s="42" t="n"/>
-      <c r="E39" s="42" t="n"/>
-      <c r="F39" s="42" t="n"/>
-      <c r="G39" s="42" t="n"/>
-      <c r="H39" s="87" t="n"/>
-      <c r="I39" s="95" t="n"/>
-      <c r="J39" s="95" t="n"/>
-      <c r="K39" s="95" t="n"/>
-      <c r="L39" s="95" t="n"/>
-      <c r="M39" s="95" t="n"/>
-      <c r="N39" s="95" t="n"/>
-      <c r="O39" s="95" t="n"/>
-      <c r="P39" s="95" t="n"/>
-      <c r="Q39" s="95" t="n"/>
-      <c r="R39" s="95" t="n"/>
-      <c r="S39" s="95" t="n"/>
-      <c r="T39" s="95" t="n"/>
-      <c r="U39" s="95" t="n"/>
-      <c r="V39" s="95" t="n"/>
-      <c r="W39" s="95" t="n"/>
-      <c r="X39" s="95" t="n"/>
-      <c r="Y39" s="95" t="n"/>
-      <c r="Z39" s="95" t="n"/>
-      <c r="AA39" s="95" t="n"/>
-      <c r="AB39" s="95" t="n"/>
-      <c r="AC39" s="95" t="n"/>
-      <c r="AD39" s="95" t="n"/>
-      <c r="AE39" s="95" t="n"/>
-      <c r="AF39" s="95" t="n"/>
-      <c r="AG39" s="95" t="n"/>
-      <c r="AH39" s="95" t="n"/>
-      <c r="AI39" s="95" t="n"/>
-      <c r="AJ39" s="16" t="n"/>
-    </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="61" t="n"/>
-      <c r="C40" s="61" t="n"/>
-      <c r="D40" s="61" t="n"/>
-      <c r="E40" s="61" t="n"/>
-      <c r="F40" s="61" t="n"/>
-      <c r="G40" s="61" t="n"/>
-      <c r="H40" s="40" t="n"/>
-      <c r="I40" s="40" t="n"/>
-      <c r="J40" s="40" t="n"/>
-      <c r="K40" s="40" t="n"/>
-      <c r="L40" s="40" t="n"/>
-      <c r="M40" s="40" t="n"/>
-      <c r="N40" s="40" t="n"/>
-      <c r="O40" s="40" t="n"/>
-      <c r="P40" s="40" t="n"/>
-      <c r="Q40" s="40" t="n"/>
-      <c r="R40" s="40" t="n"/>
-      <c r="S40" s="40" t="n"/>
-      <c r="T40" s="40" t="n"/>
-      <c r="U40" s="40" t="n"/>
-      <c r="V40" s="40" t="n"/>
-      <c r="W40" s="40" t="n"/>
-      <c r="X40" s="40" t="n"/>
-      <c r="Y40" s="40" t="n"/>
-      <c r="Z40" s="40" t="n"/>
-      <c r="AA40" s="40" t="n"/>
-      <c r="AB40" s="40" t="n"/>
-      <c r="AC40" s="40" t="n"/>
-      <c r="AD40" s="40" t="n"/>
-      <c r="AE40" s="40" t="n"/>
-      <c r="AF40" s="40" t="n"/>
-      <c r="AG40" s="40" t="n"/>
-      <c r="AH40" s="40" t="n"/>
-      <c r="AI40" s="40" t="n"/>
-      <c r="AJ40" s="26" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="37" t="n"/>
-      <c r="B41" s="61" t="n"/>
-      <c r="C41" s="61" t="n"/>
-      <c r="D41" s="61" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="61" t="n"/>
-      <c r="G41" s="61" t="n"/>
-      <c r="H41" s="61" t="n"/>
-      <c r="I41" s="61" t="n"/>
-      <c r="J41" s="61" t="n"/>
-      <c r="K41" s="61" t="n"/>
-      <c r="L41" s="61" t="n"/>
-      <c r="M41" s="61" t="n"/>
-      <c r="N41" s="61" t="n"/>
-      <c r="O41" s="61" t="n"/>
-      <c r="P41" s="61" t="n"/>
-      <c r="Q41" s="61" t="n"/>
-      <c r="R41" s="61" t="n"/>
-      <c r="S41" s="59" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T41" s="61" t="n"/>
-      <c r="U41" s="61" t="n"/>
-      <c r="V41" s="61" t="n"/>
-      <c r="W41" s="61" t="n"/>
-      <c r="X41" s="61" t="n"/>
-      <c r="Y41" s="61" t="n"/>
-      <c r="Z41" s="61" t="n"/>
-      <c r="AA41" s="61" t="n"/>
-      <c r="AB41" s="61" t="n"/>
-      <c r="AC41" s="61" t="n"/>
-      <c r="AD41" s="61" t="n"/>
-      <c r="AE41" s="61" t="n"/>
-      <c r="AF41" s="61" t="n"/>
-      <c r="AG41" s="61" t="n"/>
-      <c r="AH41" s="61" t="n"/>
-      <c r="AI41" s="61" t="n"/>
-      <c r="AJ41" s="28" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A42" s="37" t="n"/>
-      <c r="B42" s="61" t="n"/>
-      <c r="C42" s="61" t="n"/>
-      <c r="D42" s="61" t="n"/>
-      <c r="E42" s="61" t="n"/>
-      <c r="F42" s="61" t="n"/>
-      <c r="G42" s="61" t="n"/>
-      <c r="H42" s="61" t="n"/>
-      <c r="I42" s="61" t="n"/>
-      <c r="J42" s="61" t="n"/>
-      <c r="K42" s="61" t="n"/>
-      <c r="L42" s="61" t="n"/>
-      <c r="M42" s="61" t="n"/>
-      <c r="N42" s="61" t="n"/>
-      <c r="O42" s="61" t="n"/>
-      <c r="P42" s="61" t="n"/>
-      <c r="Q42" s="61" t="n"/>
-      <c r="R42" s="61" t="n"/>
-      <c r="S42" s="61" t="n"/>
-      <c r="T42" s="61" t="n"/>
-      <c r="U42" s="61" t="n"/>
-      <c r="V42" s="61" t="n"/>
-      <c r="W42" s="61" t="n"/>
-      <c r="X42" s="61" t="n"/>
-      <c r="Y42" s="61" t="n"/>
-      <c r="Z42" s="61" t="n"/>
-      <c r="AA42" s="61" t="n"/>
-      <c r="AB42" s="61" t="n"/>
-      <c r="AC42" s="61" t="n"/>
-      <c r="AD42" s="61" t="n"/>
-      <c r="AE42" s="61" t="n"/>
-      <c r="AF42" s="61" t="n"/>
-      <c r="AG42" s="61" t="n"/>
-      <c r="AH42" s="61" t="n"/>
-      <c r="AI42" s="61" t="n"/>
-      <c r="AJ42" s="28" t="n"/>
-    </row>
-    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 
-</t>
-        </is>
-      </c>
-      <c r="B43" s="88" t="inlineStr">
-        <is>
-          <t>Piping Class Doc: MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C43" s="97" t="n"/>
-      <c r="D43" s="97" t="n"/>
-      <c r="E43" s="97" t="n"/>
-      <c r="F43" s="97" t="n"/>
-      <c r="G43" s="97" t="n"/>
-      <c r="H43" s="97" t="n"/>
-      <c r="I43" s="97" t="n"/>
-      <c r="J43" s="97" t="n"/>
-      <c r="K43" s="97" t="n"/>
-      <c r="L43" s="97" t="n"/>
-      <c r="M43" s="97" t="n"/>
-      <c r="N43" s="97" t="n"/>
-      <c r="O43" s="97" t="n"/>
-      <c r="P43" s="97" t="n"/>
-      <c r="Q43" s="97" t="n"/>
-      <c r="R43" s="97" t="n"/>
-      <c r="S43" s="97" t="n"/>
-      <c r="T43" s="97" t="n"/>
-      <c r="U43" s="97" t="n"/>
-      <c r="V43" s="97" t="n"/>
-      <c r="W43" s="97" t="n"/>
-      <c r="X43" s="97" t="n"/>
-      <c r="Y43" s="97" t="n"/>
-      <c r="Z43" s="97" t="n"/>
-      <c r="AA43" s="97" t="n"/>
-      <c r="AB43" s="97" t="n"/>
-      <c r="AC43" s="97" t="n"/>
-      <c r="AD43" s="97" t="n"/>
-      <c r="AE43" s="97" t="n"/>
-      <c r="AF43" s="97" t="n"/>
-      <c r="AG43" s="97" t="n"/>
-      <c r="AH43" s="97" t="n"/>
-      <c r="AI43" s="97" t="n"/>
-      <c r="AJ43" s="99" t="n"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="n"/>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
-      <c r="P44" s="2" t="n"/>
-      <c r="Q44" s="2" t="n"/>
-      <c r="R44" s="2" t="n"/>
-      <c r="S44" s="2" t="n"/>
-      <c r="T44" s="2" t="n"/>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="n"/>
-      <c r="W44" s="2" t="n"/>
-      <c r="X44" s="2" t="n"/>
-      <c r="Y44" s="2" t="n"/>
-      <c r="Z44" s="2" t="n"/>
-      <c r="AA44" s="2" t="n"/>
-      <c r="AB44" s="2" t="n"/>
-      <c r="AC44" s="2" t="n"/>
-      <c r="AD44" s="2" t="n"/>
-      <c r="AE44" s="2" t="n"/>
-      <c r="AF44" s="2" t="n"/>
-      <c r="AG44" s="2" t="n"/>
-      <c r="AH44" s="2" t="n"/>
-      <c r="AI44" s="2" t="n"/>
-      <c r="AJ44" s="2" t="n"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="B45:AH45"/>
-    <mergeCell ref="B43:AJ43"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="AD12:AI12"/>
     <mergeCell ref="AC26:AI26"/>
     <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="H32:X32"/>
-    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="P16:R16"/>
     <mergeCell ref="AA16:AC16"/>
     <mergeCell ref="H17:N17"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="AB25:AD25"/>
     <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AG22:AI22"/>
     <mergeCell ref="A23:K23"/>
-    <mergeCell ref="H33:X33"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="H39:AI39"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="AC32:AI32"/>
-    <mergeCell ref="AC33:AI33"/>
-    <mergeCell ref="H34:AI34"/>
   </mergeCells>
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="9" scale="64"/>

--- a/output/hd.xlsx
+++ b/output/hd.xlsx
@@ -7,13 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="1" state="veryHidden" r:id="rId1"/>
-    <sheet name="BAV21A0F1C" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BAV21A0I1C" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="BAV24G0I1C" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CKV21A0B2B" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GAV21A0B2B" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GAV21A0B2B (1)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GLV21A0B2B" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="BAV24G0I1C" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CKV21A0B2B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CLV24F0B2B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GAV24F0B2B" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MFV21A0I2I" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
@@ -427,7 +425,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="68"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="68">
@@ -639,7 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,7 +1231,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -1280,7 +1277,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>4, 6</t>
+          <t>1/2, 3/4, 1</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -1572,7 +1569,7 @@
         </is>
       </c>
       <c r="AC10" s="70" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="AD10" s="95" t="n"/>
       <c r="AE10" s="95" t="n"/>
@@ -1602,11 +1599,7 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L11" s="69" t="inlineStr"/>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -1618,11 +1611,7 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
+      <c r="T11" s="69" t="inlineStr"/>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -1686,7 +1675,11 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -1757,11 +1750,7 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -1784,7 +1773,11 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>MNF STD</t>
+        </is>
+      </c>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -1887,11 +1880,7 @@
       <c r="X16" s="61" t="n"/>
       <c r="Y16" s="55" t="n"/>
       <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA16" s="68" t="inlineStr"/>
       <c r="AB16" s="95" t="n"/>
       <c r="AC16" s="95" t="n"/>
       <c r="AD16" s="61" t="n"/>
@@ -2312,7 +2301,11 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AB25" s="77" t="inlineStr">
+        <is>
+          <t>API 598</t>
+        </is>
+      </c>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -2561,7 +2554,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM A216 Gr.WCB</t>
+          <t>ASTM A105</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -2613,7 +2606,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="67" t="inlineStr">
         <is>
-          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
+          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -2705,7 +2698,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="67" t="inlineStr">
         <is>
-          <t>ASTM A105 + ENP (3 MILS TO ASTM B733)</t>
+          <t>AISI 316</t>
         </is>
       </c>
       <c r="I34" s="95" t="n"/>
@@ -2751,7 +2744,7 @@
       <c r="G35" s="42" t="n"/>
       <c r="H35" s="67" t="inlineStr">
         <is>
-          <t>AISI 410</t>
+          <t>AISI 316</t>
         </is>
       </c>
       <c r="I35" s="95" t="n"/>
@@ -2927,7 +2920,7 @@
       <c r="G39" s="42" t="n"/>
       <c r="H39" s="67" t="inlineStr">
         <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY</t>
+          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
         </is>
       </c>
       <c r="I39" s="95" t="n"/>
@@ -3269,4284 +3262,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
-    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>BALL VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-      <c r="AA1" s="12" t="n"/>
-      <c r="AB1" s="12" t="n"/>
-      <c r="AC1" s="12" t="n"/>
-      <c r="AD1" s="12" t="n"/>
-      <c r="AE1" s="12" t="n"/>
-      <c r="AF1" s="12" t="n"/>
-      <c r="AG1" s="12" t="n"/>
-      <c r="AH1" s="12" t="n"/>
-      <c r="AI1" s="12" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A2" s="37" t="n"/>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="61" t="n"/>
-      <c r="D2" s="61" t="n"/>
-      <c r="E2" s="61" t="n"/>
-      <c r="F2" s="61" t="n"/>
-      <c r="G2" s="61" t="n"/>
-      <c r="H2" s="61" t="n"/>
-      <c r="I2" s="61" t="n"/>
-      <c r="J2" s="61" t="n"/>
-      <c r="K2" s="61" t="n"/>
-      <c r="L2" s="61" t="n"/>
-      <c r="M2" s="61" t="n"/>
-      <c r="N2" s="61" t="n"/>
-      <c r="O2" s="61" t="n"/>
-      <c r="P2" s="61" t="n"/>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="61" t="n"/>
-      <c r="S2" s="61" t="n"/>
-      <c r="T2" s="61" t="n"/>
-      <c r="U2" s="61" t="n"/>
-      <c r="V2" s="61" t="n"/>
-      <c r="W2" s="61" t="n"/>
-      <c r="X2" s="61" t="n"/>
-      <c r="Y2" s="61" t="n"/>
-      <c r="Z2" s="61" t="n"/>
-      <c r="AA2" s="61" t="n"/>
-      <c r="AB2" s="61" t="n"/>
-      <c r="AC2" s="61" t="n"/>
-      <c r="AD2" s="61" t="n"/>
-      <c r="AE2" s="61" t="n"/>
-      <c r="AF2" s="61" t="n"/>
-      <c r="AG2" s="61" t="n"/>
-      <c r="AH2" s="61" t="n"/>
-      <c r="AI2" s="61" t="n"/>
-      <c r="AJ2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>TAG. No.</t>
-        </is>
-      </c>
-      <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>BAV21A0I1C</t>
-        </is>
-      </c>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="61" t="n"/>
-      <c r="M3" s="61" t="n"/>
-      <c r="N3" s="61" t="n"/>
-      <c r="O3" s="61" t="n"/>
-      <c r="P3" s="48" t="n"/>
-      <c r="Q3" s="48" t="n"/>
-      <c r="R3" s="48" t="n"/>
-      <c r="S3" s="48" t="n"/>
-      <c r="T3" s="48" t="n"/>
-      <c r="U3" s="48" t="n"/>
-      <c r="V3" s="48" t="n"/>
-      <c r="W3" s="48" t="n"/>
-      <c r="X3" s="48" t="n"/>
-      <c r="Y3" s="48" t="n"/>
-      <c r="Z3" s="48" t="n"/>
-      <c r="AA3" s="48" t="n"/>
-      <c r="AB3" s="48" t="n"/>
-      <c r="AC3" s="48" t="n"/>
-      <c r="AD3" s="48" t="n"/>
-      <c r="AE3" s="48" t="n"/>
-      <c r="AF3" s="48" t="n"/>
-      <c r="AG3" s="48" t="n"/>
-      <c r="AH3" s="48" t="n"/>
-      <c r="AI3" s="48" t="n"/>
-      <c r="AJ3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>SIZE :</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="96" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I4" s="97" t="n"/>
-      <c r="J4" s="97" t="n"/>
-      <c r="K4" s="49" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="61" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="61" t="n"/>
-      <c r="S4" s="61" t="n"/>
-      <c r="T4" s="61" t="n"/>
-      <c r="U4" s="61" t="n"/>
-      <c r="V4" s="61" t="n"/>
-      <c r="W4" s="61" t="n"/>
-      <c r="X4" s="61" t="n"/>
-      <c r="Y4" s="61" t="n"/>
-      <c r="Z4" s="61" t="n"/>
-      <c r="AA4" s="61" t="n"/>
-      <c r="AB4" s="61" t="n"/>
-      <c r="AC4" s="61" t="n"/>
-      <c r="AD4" s="61" t="n"/>
-      <c r="AE4" s="61" t="n"/>
-      <c r="AF4" s="61" t="n"/>
-      <c r="AG4" s="61" t="n"/>
-      <c r="AH4" s="61" t="n"/>
-      <c r="AI4" s="50" t="n"/>
-      <c r="AJ4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>PIPING CLASS :</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n"/>
-      <c r="C5" s="47" t="n"/>
-      <c r="D5" s="47" t="n"/>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="69" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="I5" s="95" t="n"/>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="95" t="n"/>
-      <c r="L5" s="95" t="n"/>
-      <c r="M5" s="95" t="n"/>
-      <c r="N5" s="95" t="n"/>
-      <c r="O5" s="47" t="n"/>
-      <c r="P5" s="47" t="n"/>
-      <c r="Q5" s="47" t="n"/>
-      <c r="R5" s="47" t="n"/>
-      <c r="S5" s="47" t="n"/>
-      <c r="T5" s="47" t="n"/>
-      <c r="U5" s="47" t="n"/>
-      <c r="V5" s="61" t="n"/>
-      <c r="W5" s="24" t="inlineStr">
-        <is>
-          <t>PLANT LOCATION:</t>
-        </is>
-      </c>
-      <c r="X5" s="61" t="n"/>
-      <c r="Y5" s="61" t="n"/>
-      <c r="Z5" s="61" t="n"/>
-      <c r="AA5" s="61" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="95" t="n"/>
-      <c r="AD5" s="95" t="n"/>
-      <c r="AE5" s="95" t="n"/>
-      <c r="AF5" s="95" t="n"/>
-      <c r="AG5" s="95" t="n"/>
-      <c r="AH5" s="95" t="n"/>
-      <c r="AI5" s="95" t="n"/>
-      <c r="AJ5" s="65" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>SERVICE (Note 1):</t>
-        </is>
-      </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="61" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="61" t="n"/>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
-        <is>
-          <t>HCN &amp; HCR</t>
-        </is>
-      </c>
-      <c r="I6" s="95" t="n"/>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="95" t="n"/>
-      <c r="L6" s="95" t="n"/>
-      <c r="M6" s="95" t="n"/>
-      <c r="N6" s="95" t="n"/>
-      <c r="O6" s="95" t="n"/>
-      <c r="P6" s="95" t="n"/>
-      <c r="Q6" s="95" t="n"/>
-      <c r="R6" s="95" t="n"/>
-      <c r="S6" s="95" t="n"/>
-      <c r="T6" s="95" t="n"/>
-      <c r="U6" s="95" t="n"/>
-      <c r="V6" s="95" t="n"/>
-      <c r="W6" s="95" t="n"/>
-      <c r="X6" s="95" t="n"/>
-      <c r="Y6" s="95" t="n"/>
-      <c r="Z6" s="95" t="n"/>
-      <c r="AA6" s="95" t="n"/>
-      <c r="AB6" s="95" t="n"/>
-      <c r="AC6" s="95" t="n"/>
-      <c r="AD6" s="95" t="n"/>
-      <c r="AE6" s="95" t="n"/>
-      <c r="AF6" s="95" t="n"/>
-      <c r="AG6" s="95" t="n"/>
-      <c r="AH6" s="95" t="n"/>
-      <c r="AI6" s="95" t="n"/>
-      <c r="AJ6" s="65" t="n"/>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="57" t="n"/>
-      <c r="B7" s="48" t="n"/>
-      <c r="C7" s="48" t="n"/>
-      <c r="D7" s="48" t="n"/>
-      <c r="E7" s="48" t="n"/>
-      <c r="F7" s="48" t="n"/>
-      <c r="G7" s="48" t="n"/>
-      <c r="H7" s="48" t="n"/>
-      <c r="I7" s="48" t="n"/>
-      <c r="J7" s="48" t="n"/>
-      <c r="K7" s="48" t="n"/>
-      <c r="L7" s="48" t="n"/>
-      <c r="M7" s="48" t="n"/>
-      <c r="N7" s="48" t="n"/>
-      <c r="O7" s="48" t="n"/>
-      <c r="P7" s="48" t="n"/>
-      <c r="Q7" s="48" t="n"/>
-      <c r="R7" s="48" t="n"/>
-      <c r="S7" s="48" t="n"/>
-      <c r="T7" s="48" t="n"/>
-      <c r="U7" s="48" t="n"/>
-      <c r="V7" s="48" t="n"/>
-      <c r="W7" s="48" t="n"/>
-      <c r="X7" s="48" t="n"/>
-      <c r="Y7" s="48" t="n"/>
-      <c r="Z7" s="48" t="n"/>
-      <c r="AA7" s="48" t="n"/>
-      <c r="AB7" s="48" t="n"/>
-      <c r="AC7" s="48" t="n"/>
-      <c r="AD7" s="48" t="n"/>
-      <c r="AE7" s="48" t="n"/>
-      <c r="AF7" s="48" t="n"/>
-      <c r="AG7" s="48" t="n"/>
-      <c r="AH7" s="48" t="n"/>
-      <c r="AI7" s="48" t="n"/>
-      <c r="AJ7" s="31" t="n"/>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A8" s="15" t="n"/>
-      <c r="B8" s="51" t="n"/>
-      <c r="C8" s="51" t="n"/>
-      <c r="D8" s="51" t="n"/>
-      <c r="E8" s="51" t="n"/>
-      <c r="F8" s="51" t="n"/>
-      <c r="G8" s="51" t="n"/>
-      <c r="H8" s="51" t="n"/>
-      <c r="I8" s="51" t="n"/>
-      <c r="J8" s="51" t="n"/>
-      <c r="K8" s="51" t="n"/>
-      <c r="L8" s="51" t="n"/>
-      <c r="M8" s="51" t="n"/>
-      <c r="N8" s="51" t="n"/>
-      <c r="O8" s="51" t="n"/>
-      <c r="P8" s="51" t="n"/>
-      <c r="Q8" s="51" t="n"/>
-      <c r="R8" s="51" t="n"/>
-      <c r="S8" s="52" t="inlineStr">
-        <is>
-          <t>M E C H A N I C A L</t>
-        </is>
-      </c>
-      <c r="T8" s="51" t="n"/>
-      <c r="U8" s="51" t="n"/>
-      <c r="V8" s="51" t="n"/>
-      <c r="W8" s="51" t="n"/>
-      <c r="X8" s="51" t="n"/>
-      <c r="Y8" s="51" t="n"/>
-      <c r="Z8" s="51" t="n"/>
-      <c r="AA8" s="51" t="n"/>
-      <c r="AB8" s="51" t="n"/>
-      <c r="AC8" s="51" t="n"/>
-      <c r="AD8" s="51" t="n"/>
-      <c r="AE8" s="51" t="n"/>
-      <c r="AF8" s="51" t="n"/>
-      <c r="AG8" s="51" t="n"/>
-      <c r="AH8" s="51" t="n"/>
-      <c r="AI8" s="51" t="n"/>
-      <c r="AJ8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="61" t="n"/>
-      <c r="D9" s="61" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="61" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="61" t="n"/>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="61" t="n"/>
-      <c r="K9" s="61" t="n"/>
-      <c r="L9" s="61" t="n"/>
-      <c r="M9" s="61" t="n"/>
-      <c r="N9" s="61" t="n"/>
-      <c r="O9" s="61" t="n"/>
-      <c r="P9" s="61" t="n"/>
-      <c r="Q9" s="61" t="n"/>
-      <c r="R9" s="61" t="n"/>
-      <c r="S9" s="61" t="n"/>
-      <c r="T9" s="61" t="n"/>
-      <c r="U9" s="61" t="n"/>
-      <c r="V9" s="61" t="n"/>
-      <c r="W9" s="61" t="n"/>
-      <c r="X9" s="61" t="n"/>
-      <c r="Y9" s="61" t="n"/>
-      <c r="Z9" s="61" t="n"/>
-      <c r="AA9" s="61" t="n"/>
-      <c r="AB9" s="61" t="n"/>
-      <c r="AC9" s="61" t="n"/>
-      <c r="AD9" s="61" t="n"/>
-      <c r="AE9" s="61" t="n"/>
-      <c r="AF9" s="61" t="n"/>
-      <c r="AG9" s="61" t="n"/>
-      <c r="AH9" s="61" t="n"/>
-      <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>VALVE TYPE :</t>
-        </is>
-      </c>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="61" t="n"/>
-      <c r="D10" s="61" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="61" t="n"/>
-      <c r="G10" s="61" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
-        <is>
-          <t>BALL VALVE, FLOATING BALL</t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="95" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="95" t="n"/>
-      <c r="M10" s="95" t="n"/>
-      <c r="N10" s="95" t="n"/>
-      <c r="O10" s="95" t="n"/>
-      <c r="P10" s="95" t="n"/>
-      <c r="Q10" s="95" t="n"/>
-      <c r="R10" s="95" t="n"/>
-      <c r="S10" s="95" t="n"/>
-      <c r="T10" s="95" t="n"/>
-      <c r="U10" s="95" t="n"/>
-      <c r="V10" s="95" t="n"/>
-      <c r="W10" s="95" t="n"/>
-      <c r="X10" s="61" t="n"/>
-      <c r="Y10" s="61" t="n"/>
-      <c r="Z10" s="61" t="n"/>
-      <c r="AA10" s="61" t="n"/>
-      <c r="AB10" s="49" t="inlineStr">
-        <is>
-          <t>RATING / CLASS:</t>
-        </is>
-      </c>
-      <c r="AC10" s="70" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD10" s="95" t="n"/>
-      <c r="AE10" s="95" t="n"/>
-      <c r="AF10" s="95" t="n"/>
-      <c r="AG10" s="95" t="n"/>
-      <c r="AH10" s="95" t="n"/>
-      <c r="AI10" s="95" t="n"/>
-      <c r="AJ10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>END CONNECTIONS:</t>
-        </is>
-      </c>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="61" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="61" t="n"/>
-      <c r="G11" s="61" t="n"/>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLANGED </t>
-        </is>
-      </c>
-      <c r="I11" s="61" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M11" s="95" t="n"/>
-      <c r="N11" s="61" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="61" t="n"/>
-      <c r="Q11" s="61" t="n"/>
-      <c r="R11" s="49" t="inlineStr">
-        <is>
-          <t>FACING:</t>
-        </is>
-      </c>
-      <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="U11" s="95" t="n"/>
-      <c r="V11" s="61" t="n"/>
-      <c r="W11" s="61" t="n"/>
-      <c r="X11" s="61" t="n"/>
-      <c r="Y11" s="61" t="n"/>
-      <c r="Z11" s="61" t="n"/>
-      <c r="AA11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOCKETWELD </t>
-        </is>
-      </c>
-      <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
-      <c r="AD11" s="95" t="n"/>
-      <c r="AE11" s="66" t="inlineStr">
-        <is>
-          <t>SCREWED</t>
-        </is>
-      </c>
-      <c r="AF11" s="66" t="n"/>
-      <c r="AG11" s="66" t="n"/>
-      <c r="AH11" s="72" t="inlineStr"/>
-      <c r="AI11" s="95" t="n"/>
-      <c r="AJ11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="37" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="61" t="n"/>
-      <c r="D12" s="61" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="61" t="n"/>
-      <c r="G12" s="61" t="n"/>
-      <c r="H12" s="54" t="inlineStr">
-        <is>
-          <t>BUTTWELD</t>
-        </is>
-      </c>
-      <c r="I12" s="61" t="n"/>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="61" t="n"/>
-      <c r="L12" s="68" t="inlineStr"/>
-      <c r="M12" s="95" t="n"/>
-      <c r="N12" s="95" t="n"/>
-      <c r="O12" s="95" t="n"/>
-      <c r="P12" s="95" t="n"/>
-      <c r="Q12" s="95" t="n"/>
-      <c r="R12" s="95" t="n"/>
-      <c r="S12" s="95" t="n"/>
-      <c r="T12" s="95" t="n"/>
-      <c r="U12" s="95" t="n"/>
-      <c r="V12" s="95" t="n"/>
-      <c r="W12" s="61" t="n"/>
-      <c r="X12" s="61" t="n"/>
-      <c r="Y12" s="61" t="n"/>
-      <c r="Z12" s="61" t="n"/>
-      <c r="AA12" s="61" t="n"/>
-      <c r="AB12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-      <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
-      <c r="AE12" s="95" t="n"/>
-      <c r="AF12" s="95" t="n"/>
-      <c r="AG12" s="95" t="n"/>
-      <c r="AH12" s="95" t="n"/>
-      <c r="AI12" s="95" t="n"/>
-      <c r="AJ12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A13" s="37" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="61" t="n"/>
-      <c r="D13" s="61" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="61" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="61" t="n"/>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="61" t="n"/>
-      <c r="L13" s="61" t="n"/>
-      <c r="M13" s="61" t="n"/>
-      <c r="N13" s="61" t="n"/>
-      <c r="O13" s="61" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="61" t="n"/>
-      <c r="R13" s="61" t="n"/>
-      <c r="S13" s="61" t="n"/>
-      <c r="T13" s="61" t="n"/>
-      <c r="U13" s="61" t="n"/>
-      <c r="V13" s="61" t="n"/>
-      <c r="W13" s="61" t="n"/>
-      <c r="X13" s="61" t="n"/>
-      <c r="Y13" s="61" t="n"/>
-      <c r="Z13" s="61" t="n"/>
-      <c r="AA13" s="61" t="n"/>
-      <c r="AB13" s="53" t="n"/>
-      <c r="AC13" s="61" t="n"/>
-      <c r="AD13" s="61" t="n"/>
-      <c r="AE13" s="61" t="n"/>
-      <c r="AF13" s="61" t="n"/>
-      <c r="AG13" s="61" t="n"/>
-      <c r="AH13" s="61" t="n"/>
-      <c r="AI13" s="61" t="n"/>
-      <c r="AJ13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
-        </is>
-      </c>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="61" t="n"/>
-      <c r="D14" s="61" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="61" t="n"/>
-      <c r="G14" s="61" t="n"/>
-      <c r="H14" s="61" t="n"/>
-      <c r="I14" s="61" t="n"/>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="61" t="n"/>
-      <c r="L14" s="61" t="n"/>
-      <c r="M14" s="61" t="n"/>
-      <c r="N14" s="61" t="n"/>
-      <c r="O14" s="61" t="n"/>
-      <c r="P14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.5</t>
-        </is>
-      </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R14" s="95" t="n"/>
-      <c r="S14" s="95" t="n"/>
-      <c r="T14" s="61" t="n"/>
-      <c r="U14" s="61" t="n"/>
-      <c r="V14" s="61" t="n"/>
-      <c r="W14" s="61" t="n"/>
-      <c r="X14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.11</t>
-        </is>
-      </c>
-      <c r="Y14" s="68" t="inlineStr"/>
-      <c r="Z14" s="95" t="n"/>
-      <c r="AA14" s="95" t="n"/>
-      <c r="AB14" s="61" t="n"/>
-      <c r="AC14" s="61" t="n"/>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
-      <c r="AG14" s="95" t="n"/>
-      <c r="AH14" s="95" t="n"/>
-      <c r="AI14" s="95" t="n"/>
-      <c r="AJ14" s="16" t="n"/>
-    </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>BORE:</t>
-        </is>
-      </c>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="61" t="n"/>
-      <c r="D15" s="61" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="61" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="I15" s="61" t="n"/>
-      <c r="J15" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K15" s="95" t="n"/>
-      <c r="L15" s="95" t="n"/>
-      <c r="M15" s="95" t="n"/>
-      <c r="N15" s="95" t="n"/>
-      <c r="O15" s="95" t="n"/>
-      <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="inlineStr">
-        <is>
-          <t>REDUCED</t>
-        </is>
-      </c>
-      <c r="R15" s="61" t="n"/>
-      <c r="S15" s="61" t="n"/>
-      <c r="T15" s="68" t="inlineStr"/>
-      <c r="U15" s="95" t="n"/>
-      <c r="V15" s="95" t="n"/>
-      <c r="W15" s="95" t="n"/>
-      <c r="X15" s="95" t="n"/>
-      <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="inlineStr">
-        <is>
-          <t>ACCORDING TO:</t>
-        </is>
-      </c>
-      <c r="AA15" s="61" t="n"/>
-      <c r="AB15" s="61" t="n"/>
-      <c r="AC15" s="61" t="n"/>
-      <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="68" t="inlineStr"/>
-      <c r="AF15" s="95" t="n"/>
-      <c r="AG15" s="95" t="n"/>
-      <c r="AH15" s="95" t="n"/>
-      <c r="AI15" s="95" t="n"/>
-      <c r="AJ15" s="16" t="n"/>
-    </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>LENGHT:</t>
-        </is>
-      </c>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="61" t="n"/>
-      <c r="D16" s="61" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="61" t="n"/>
-      <c r="G16" s="61" t="n"/>
-      <c r="H16" s="61" t="n"/>
-      <c r="I16" s="61" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="61" t="n"/>
-      <c r="L16" s="61" t="n"/>
-      <c r="M16" s="61" t="n"/>
-      <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="inlineStr">
-        <is>
-          <t>SHORT  PATTERN</t>
-        </is>
-      </c>
-      <c r="P16" s="68" t="inlineStr"/>
-      <c r="Q16" s="95" t="n"/>
-      <c r="R16" s="95" t="n"/>
-      <c r="S16" s="61" t="n"/>
-      <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="inlineStr">
-        <is>
-          <t>REG./LONG  PATTERN</t>
-        </is>
-      </c>
-      <c r="V16" s="61" t="n"/>
-      <c r="W16" s="61" t="n"/>
-      <c r="X16" s="61" t="n"/>
-      <c r="Y16" s="55" t="n"/>
-      <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB16" s="95" t="n"/>
-      <c r="AC16" s="95" t="n"/>
-      <c r="AD16" s="61" t="n"/>
-      <c r="AE16" s="61" t="n"/>
-      <c r="AF16" s="61" t="n"/>
-      <c r="AG16" s="61" t="n"/>
-      <c r="AH16" s="61" t="n"/>
-      <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="16" t="n"/>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A17" s="17" t="inlineStr">
-        <is>
-          <t>TYPE OPERATOR :</t>
-        </is>
-      </c>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="61" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="69" t="inlineStr">
-        <is>
-          <t>LEVER OPERATOR</t>
-        </is>
-      </c>
-      <c r="I17" s="95" t="n"/>
-      <c r="J17" s="95" t="n"/>
-      <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="n"/>
-      <c r="M17" s="95" t="n"/>
-      <c r="N17" s="95" t="n"/>
-      <c r="O17" s="61" t="n"/>
-      <c r="P17" s="61" t="n"/>
-      <c r="Q17" s="61" t="n"/>
-      <c r="R17" s="61" t="n"/>
-      <c r="S17" s="61" t="n"/>
-      <c r="T17" s="61" t="n"/>
-      <c r="U17" s="61" t="n"/>
-      <c r="V17" s="61" t="n"/>
-      <c r="W17" s="61" t="n"/>
-      <c r="X17" s="61" t="n"/>
-      <c r="Y17" s="61" t="n"/>
-      <c r="Z17" s="61" t="n"/>
-      <c r="AA17" s="61" t="n"/>
-      <c r="AB17" s="61" t="n"/>
-      <c r="AC17" s="61" t="n"/>
-      <c r="AD17" s="61" t="n"/>
-      <c r="AE17" s="61" t="n"/>
-      <c r="AF17" s="61" t="n"/>
-      <c r="AG17" s="61" t="n"/>
-      <c r="AH17" s="61" t="n"/>
-      <c r="AI17" s="61" t="n"/>
-      <c r="AJ17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A18" s="37" t="n"/>
-      <c r="B18" s="61" t="n"/>
-      <c r="C18" s="61" t="n"/>
-      <c r="D18" s="61" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="61" t="n"/>
-      <c r="G18" s="61" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="61" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="61" t="n"/>
-      <c r="L18" s="61" t="n"/>
-      <c r="M18" s="61" t="n"/>
-      <c r="N18" s="61" t="n"/>
-      <c r="O18" s="61" t="n"/>
-      <c r="P18" s="61" t="n"/>
-      <c r="Q18" s="61" t="n"/>
-      <c r="R18" s="61" t="n"/>
-      <c r="S18" s="61" t="n"/>
-      <c r="T18" s="61" t="n"/>
-      <c r="U18" s="61" t="n"/>
-      <c r="V18" s="61" t="n"/>
-      <c r="W18" s="61" t="n"/>
-      <c r="X18" s="61" t="n"/>
-      <c r="Y18" s="55" t="n"/>
-      <c r="Z18" s="61" t="n"/>
-      <c r="AA18" s="61" t="n"/>
-      <c r="AB18" s="61" t="n"/>
-      <c r="AC18" s="61" t="n"/>
-      <c r="AD18" s="61" t="n"/>
-      <c r="AE18" s="61" t="n"/>
-      <c r="AF18" s="61" t="n"/>
-      <c r="AG18" s="61" t="n"/>
-      <c r="AH18" s="61" t="n"/>
-      <c r="AI18" s="61" t="n"/>
-      <c r="AJ18" s="28" t="n"/>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="51" t="n"/>
-      <c r="C19" s="51" t="n"/>
-      <c r="D19" s="51" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
-      <c r="G19" s="51" t="n"/>
-      <c r="H19" s="51" t="n"/>
-      <c r="I19" s="51" t="n"/>
-      <c r="J19" s="51" t="n"/>
-      <c r="K19" s="51" t="n"/>
-      <c r="L19" s="51" t="n"/>
-      <c r="M19" s="51" t="n"/>
-      <c r="N19" s="51" t="n"/>
-      <c r="O19" s="51" t="n"/>
-      <c r="P19" s="51" t="n"/>
-      <c r="Q19" s="51" t="n"/>
-      <c r="R19" s="51" t="n"/>
-      <c r="S19" s="52" t="inlineStr">
-        <is>
-          <t>D E S I G N</t>
-        </is>
-      </c>
-      <c r="T19" s="51" t="n"/>
-      <c r="U19" s="51" t="n"/>
-      <c r="V19" s="51" t="n"/>
-      <c r="W19" s="51" t="n"/>
-      <c r="X19" s="51" t="n"/>
-      <c r="Y19" s="51" t="n"/>
-      <c r="Z19" s="51" t="n"/>
-      <c r="AA19" s="51" t="n"/>
-      <c r="AB19" s="51" t="n"/>
-      <c r="AC19" s="51" t="n"/>
-      <c r="AD19" s="51" t="n"/>
-      <c r="AE19" s="51" t="n"/>
-      <c r="AF19" s="51" t="n"/>
-      <c r="AG19" s="51" t="n"/>
-      <c r="AH19" s="51" t="n"/>
-      <c r="AI19" s="51" t="n"/>
-      <c r="AJ19" s="16" t="n"/>
-    </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A20" s="37" t="n"/>
-      <c r="B20" s="61" t="n"/>
-      <c r="C20" s="61" t="n"/>
-      <c r="D20" s="61" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="61" t="n"/>
-      <c r="H20" s="61" t="n"/>
-      <c r="I20" s="61" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="61" t="n"/>
-      <c r="L20" s="61" t="n"/>
-      <c r="M20" s="61" t="n"/>
-      <c r="N20" s="61" t="n"/>
-      <c r="O20" s="61" t="n"/>
-      <c r="P20" s="61" t="n"/>
-      <c r="Q20" s="61" t="n"/>
-      <c r="R20" s="61" t="n"/>
-      <c r="S20" s="61" t="n"/>
-      <c r="T20" s="61" t="n"/>
-      <c r="U20" s="61" t="n"/>
-      <c r="V20" s="61" t="n"/>
-      <c r="W20" s="61" t="n"/>
-      <c r="X20" s="61" t="n"/>
-      <c r="Y20" s="61" t="n"/>
-      <c r="Z20" s="61" t="n"/>
-      <c r="AA20" s="61" t="n"/>
-      <c r="AB20" s="61" t="n"/>
-      <c r="AC20" s="61" t="n"/>
-      <c r="AD20" s="61" t="n"/>
-      <c r="AE20" s="61" t="n"/>
-      <c r="AF20" s="61" t="n"/>
-      <c r="AG20" s="61" t="n"/>
-      <c r="AH20" s="61" t="n"/>
-      <c r="AI20" s="61" t="n"/>
-      <c r="AJ20" s="28" t="n"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>APPLICABLE PIPING</t>
-        </is>
-      </c>
-      <c r="B21" s="61" t="n"/>
-      <c r="C21" s="61" t="n"/>
-      <c r="D21" s="61" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="61" t="n"/>
-      <c r="H21" s="61" t="n"/>
-      <c r="I21" s="61" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="61" t="n"/>
-      <c r="L21" s="61" t="n"/>
-      <c r="M21" s="61" t="n"/>
-      <c r="N21" s="61" t="n"/>
-      <c r="O21" s="61" t="n"/>
-      <c r="P21" s="61" t="n"/>
-      <c r="Q21" s="61" t="n"/>
-      <c r="R21" s="61" t="n"/>
-      <c r="S21" s="61" t="n"/>
-      <c r="T21" s="61" t="n"/>
-      <c r="U21" s="61" t="n"/>
-      <c r="V21" s="61" t="n"/>
-      <c r="W21" s="61" t="n"/>
-      <c r="X21" s="61" t="n"/>
-      <c r="Y21" s="61" t="n"/>
-      <c r="Z21" s="61" t="n"/>
-      <c r="AA21" s="61" t="n"/>
-      <c r="AB21" s="61" t="n"/>
-      <c r="AC21" s="61" t="n"/>
-      <c r="AD21" s="61" t="n"/>
-      <c r="AE21" s="61" t="n"/>
-      <c r="AF21" s="61" t="n"/>
-      <c r="AG21" s="61" t="n"/>
-      <c r="AH21" s="61" t="n"/>
-      <c r="AI21" s="61" t="n"/>
-      <c r="AJ21" s="28" t="n"/>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DESIGN CODE:       </t>
-        </is>
-      </c>
-      <c r="B22" s="61" t="n"/>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>API 600</t>
-        </is>
-      </c>
-      <c r="I22" s="68" t="inlineStr"/>
-      <c r="J22" s="95" t="n"/>
-      <c r="K22" s="61" t="n"/>
-      <c r="L22" s="61" t="n"/>
-      <c r="M22" s="81" t="inlineStr">
-        <is>
-          <t>API 6D</t>
-        </is>
-      </c>
-      <c r="N22" s="61" t="n"/>
-      <c r="O22" s="68" t="inlineStr"/>
-      <c r="P22" s="95" t="n"/>
-      <c r="Q22" s="61" t="n"/>
-      <c r="R22" s="61" t="n"/>
-      <c r="S22" s="61" t="n"/>
-      <c r="T22" s="53" t="inlineStr">
-        <is>
-          <t>API 608</t>
-        </is>
-      </c>
-      <c r="U22" s="71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V22" s="95" t="n"/>
-      <c r="W22" s="61" t="n"/>
-      <c r="X22" s="61" t="n"/>
-      <c r="Y22" s="61" t="n"/>
-      <c r="Z22" s="56" t="inlineStr">
-        <is>
-          <t>API 602</t>
-        </is>
-      </c>
-      <c r="AA22" s="68" t="inlineStr"/>
-      <c r="AB22" s="95" t="n"/>
-      <c r="AC22" s="61" t="n"/>
-      <c r="AD22" s="61" t="n"/>
-      <c r="AE22" s="79" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AG22" s="68" t="inlineStr"/>
-      <c r="AH22" s="95" t="n"/>
-      <c r="AI22" s="95" t="n"/>
-      <c r="AJ22" s="28" t="n"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
-        </is>
-      </c>
-      <c r="L23" s="90" t="inlineStr">
-        <is>
-          <t>FIRE SAFE AS PER API 607</t>
-        </is>
-      </c>
-      <c r="M23" s="95" t="n"/>
-      <c r="N23" s="95" t="n"/>
-      <c r="O23" s="95" t="n"/>
-      <c r="P23" s="95" t="n"/>
-      <c r="Q23" s="95" t="n"/>
-      <c r="R23" s="95" t="n"/>
-      <c r="S23" s="95" t="n"/>
-      <c r="T23" s="95" t="n"/>
-      <c r="U23" s="95" t="n"/>
-      <c r="V23" s="95" t="n"/>
-      <c r="W23" s="95" t="n"/>
-      <c r="X23" s="95" t="n"/>
-      <c r="Y23" s="95" t="n"/>
-      <c r="Z23" s="95" t="n"/>
-      <c r="AA23" s="95" t="n"/>
-      <c r="AB23" s="95" t="n"/>
-      <c r="AC23" s="95" t="n"/>
-      <c r="AD23" s="95" t="n"/>
-      <c r="AE23" s="95" t="n"/>
-      <c r="AF23" s="95" t="n"/>
-      <c r="AG23" s="95" t="n"/>
-      <c r="AH23" s="95" t="n"/>
-      <c r="AI23" s="95" t="n"/>
-      <c r="AJ23" s="28" t="n"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="68" t="n">
-        <v>285</v>
-      </c>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="95" t="n"/>
-      <c r="K24" s="95" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="95" t="n"/>
-      <c r="N24" s="95" t="n"/>
-      <c r="O24" s="95" t="n"/>
-      <c r="P24" s="24" t="inlineStr">
-        <is>
-          <t>PSIG @100°F</t>
-        </is>
-      </c>
-      <c r="Q24" s="61" t="n"/>
-      <c r="R24" s="61" t="n"/>
-      <c r="S24" s="61" t="n"/>
-      <c r="T24" s="61" t="n"/>
-      <c r="U24" s="61" t="n"/>
-      <c r="V24" s="61" t="n"/>
-      <c r="W24" s="61" t="n"/>
-      <c r="X24" s="61" t="n"/>
-      <c r="Y24" s="61" t="n"/>
-      <c r="Z24" s="49" t="inlineStr">
-        <is>
-          <t>DESIGN TEMP:</t>
-        </is>
-      </c>
-      <c r="AA24" s="61" t="n"/>
-      <c r="AB24" s="69" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="95" t="n"/>
-      <c r="AD24" s="24" t="inlineStr">
-        <is>
-          <t>F. MIN</t>
-        </is>
-      </c>
-      <c r="AE24" s="61" t="n"/>
-      <c r="AF24" s="69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="95" t="n"/>
-      <c r="AH24" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F. MAX</t>
-        </is>
-      </c>
-      <c r="AI24" s="61" t="n"/>
-      <c r="AJ24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B25" s="61" t="n"/>
-      <c r="C25" s="61" t="n"/>
-      <c r="D25" s="61" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="61" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="61" t="n"/>
-      <c r="I25" s="61" t="n"/>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="32" t="n"/>
-      <c r="L25" s="32" t="n"/>
-      <c r="M25" s="32" t="n"/>
-      <c r="N25" s="32" t="n"/>
-      <c r="O25" s="32" t="n"/>
-      <c r="P25" s="33" t="n"/>
-      <c r="Q25" s="79" t="inlineStr">
-        <is>
-          <t>PSIG</t>
-        </is>
-      </c>
-      <c r="S25" s="61" t="n"/>
-      <c r="T25" s="61" t="n"/>
-      <c r="U25" s="61" t="n"/>
-      <c r="V25" s="61" t="n"/>
-      <c r="W25" s="24" t="inlineStr">
-        <is>
-          <t>TEST PRESSURE:</t>
-        </is>
-      </c>
-      <c r="X25" s="61" t="n"/>
-      <c r="Y25" s="61" t="n"/>
-      <c r="Z25" s="61" t="n"/>
-      <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
-      <c r="AC25" s="95" t="n"/>
-      <c r="AD25" s="95" t="n"/>
-      <c r="AE25" s="24" t="n"/>
-      <c r="AF25" s="78" t="n"/>
-      <c r="AH25" s="61" t="n"/>
-      <c r="AI25" s="61" t="n"/>
-      <c r="AJ25" s="31" t="n"/>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>CONTAMINANTS :</t>
-        </is>
-      </c>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="61" t="n"/>
-      <c r="G26" s="61" t="n"/>
-      <c r="H26" s="24" t="inlineStr">
-        <is>
-          <t>CO2:</t>
-        </is>
-      </c>
-      <c r="I26" s="19" t="n"/>
-      <c r="J26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n"/>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="n"/>
-      <c r="Q26" s="61" t="n"/>
-      <c r="R26" s="61" t="n"/>
-      <c r="S26" s="49" t="inlineStr">
-        <is>
-          <t>CHLORIDE:</t>
-        </is>
-      </c>
-      <c r="T26" s="85" t="n"/>
-      <c r="U26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V26" s="20" t="n"/>
-      <c r="W26" s="33" t="n"/>
-      <c r="X26" s="33" t="n"/>
-      <c r="Y26" s="33" t="n"/>
-      <c r="Z26" s="33" t="n"/>
-      <c r="AA26" s="61" t="n"/>
-      <c r="AB26" s="53" t="inlineStr">
-        <is>
-          <t>H2S:</t>
-        </is>
-      </c>
-      <c r="AC26" s="70" t="n"/>
-      <c r="AD26" s="95" t="n"/>
-      <c r="AE26" s="95" t="n"/>
-      <c r="AF26" s="95" t="n"/>
-      <c r="AG26" s="95" t="n"/>
-      <c r="AH26" s="95" t="n"/>
-      <c r="AI26" s="95" t="n"/>
-      <c r="AJ26" s="28" t="n"/>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A27" s="37" t="n"/>
-      <c r="B27" s="61" t="n"/>
-      <c r="C27" s="61" t="n"/>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="61" t="n"/>
-      <c r="G27" s="61" t="n"/>
-      <c r="H27" s="24" t="inlineStr">
-        <is>
-          <t>METHANOL :</t>
-        </is>
-      </c>
-      <c r="I27" s="61" t="n"/>
-      <c r="J27" s="61" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n"/>
-      <c r="M27" s="33" t="n"/>
-      <c r="N27" s="33" t="n"/>
-      <c r="O27" s="33" t="n"/>
-      <c r="P27" s="33" t="n"/>
-      <c r="Q27" s="33" t="n"/>
-      <c r="R27" s="33" t="n"/>
-      <c r="S27" s="33" t="n"/>
-      <c r="T27" s="33" t="n"/>
-      <c r="U27" s="61" t="n"/>
-      <c r="V27" s="61" t="n"/>
-      <c r="W27" s="53" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="95" t="n"/>
-      <c r="Z27" s="95" t="n"/>
-      <c r="AA27" s="95" t="n"/>
-      <c r="AB27" s="95" t="n"/>
-      <c r="AC27" s="95" t="n"/>
-      <c r="AD27" s="95" t="n"/>
-      <c r="AE27" s="95" t="n"/>
-      <c r="AF27" s="95" t="n"/>
-      <c r="AG27" s="95" t="n"/>
-      <c r="AH27" s="95" t="n"/>
-      <c r="AI27" s="95" t="n"/>
-      <c r="AJ27" s="28" t="n"/>
-    </row>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A28" s="37" t="n"/>
-      <c r="B28" s="61" t="n"/>
-      <c r="C28" s="61" t="n"/>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="61" t="n"/>
-      <c r="G28" s="61" t="n"/>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="61" t="n"/>
-      <c r="J28" s="61" t="n"/>
-      <c r="K28" s="61" t="n"/>
-      <c r="L28" s="61" t="n"/>
-      <c r="M28" s="61" t="n"/>
-      <c r="N28" s="61" t="n"/>
-      <c r="O28" s="61" t="n"/>
-      <c r="P28" s="61" t="n"/>
-      <c r="Q28" s="61" t="n"/>
-      <c r="R28" s="61" t="n"/>
-      <c r="S28" s="61" t="n"/>
-      <c r="T28" s="61" t="n"/>
-      <c r="U28" s="61" t="n"/>
-      <c r="V28" s="61" t="n"/>
-      <c r="W28" s="61" t="n"/>
-      <c r="X28" s="61" t="n"/>
-      <c r="Y28" s="61" t="n"/>
-      <c r="Z28" s="61" t="n"/>
-      <c r="AA28" s="61" t="n"/>
-      <c r="AB28" s="61" t="n"/>
-      <c r="AC28" s="61" t="n"/>
-      <c r="AD28" s="61" t="n"/>
-      <c r="AE28" s="61" t="n"/>
-      <c r="AF28" s="61" t="n"/>
-      <c r="AG28" s="61" t="n"/>
-      <c r="AH28" s="61" t="n"/>
-      <c r="AI28" s="61" t="n"/>
-      <c r="AJ28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
-      <c r="G29" s="51" t="n"/>
-      <c r="H29" s="51" t="n"/>
-      <c r="I29" s="51" t="n"/>
-      <c r="J29" s="51" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-      <c r="P29" s="51" t="n"/>
-      <c r="Q29" s="51" t="n"/>
-      <c r="R29" s="51" t="n"/>
-      <c r="S29" s="52" t="inlineStr">
-        <is>
-          <t>M A T E R I A L S</t>
-        </is>
-      </c>
-      <c r="T29" s="51" t="n"/>
-      <c r="U29" s="51" t="n"/>
-      <c r="V29" s="51" t="n"/>
-      <c r="W29" s="51" t="n"/>
-      <c r="X29" s="51" t="n"/>
-      <c r="Y29" s="51" t="n"/>
-      <c r="Z29" s="51" t="n"/>
-      <c r="AA29" s="51" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="51" t="n"/>
-      <c r="AD29" s="51" t="n"/>
-      <c r="AE29" s="51" t="n"/>
-      <c r="AF29" s="51" t="n"/>
-      <c r="AG29" s="51" t="n"/>
-      <c r="AH29" s="51" t="n"/>
-      <c r="AI29" s="51" t="n"/>
-      <c r="AJ29" s="16" t="n"/>
-    </row>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="51" t="n"/>
-      <c r="C30" s="51" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
-      <c r="G30" s="51" t="n"/>
-      <c r="H30" s="51" t="n"/>
-      <c r="I30" s="51" t="n"/>
-      <c r="J30" s="51" t="n"/>
-      <c r="K30" s="51" t="n"/>
-      <c r="L30" s="51" t="n"/>
-      <c r="M30" s="51" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-      <c r="P30" s="51" t="n"/>
-      <c r="Q30" s="51" t="n"/>
-      <c r="R30" s="51" t="n"/>
-      <c r="S30" s="52" t="n"/>
-      <c r="T30" s="51" t="n"/>
-      <c r="U30" s="51" t="n"/>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="51" t="n"/>
-      <c r="X30" s="51" t="n"/>
-      <c r="Y30" s="51" t="n"/>
-      <c r="Z30" s="51" t="n"/>
-      <c r="AA30" s="51" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="51" t="n"/>
-      <c r="AD30" s="51" t="n"/>
-      <c r="AE30" s="51" t="n"/>
-      <c r="AF30" s="51" t="n"/>
-      <c r="AG30" s="51" t="n"/>
-      <c r="AH30" s="51" t="n"/>
-      <c r="AI30" s="51" t="n"/>
-      <c r="AJ30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="42" t="n"/>
-      <c r="G31" s="42" t="n"/>
-      <c r="H31" s="67" t="inlineStr">
-        <is>
-          <t>ASTM A216 Gr.WCB</t>
-        </is>
-      </c>
-      <c r="I31" s="95" t="n"/>
-      <c r="J31" s="95" t="n"/>
-      <c r="K31" s="95" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="95" t="n"/>
-      <c r="N31" s="95" t="n"/>
-      <c r="O31" s="95" t="n"/>
-      <c r="P31" s="95" t="n"/>
-      <c r="Q31" s="95" t="n"/>
-      <c r="R31" s="95" t="n"/>
-      <c r="S31" s="95" t="n"/>
-      <c r="T31" s="95" t="n"/>
-      <c r="U31" s="95" t="n"/>
-      <c r="V31" s="95" t="n"/>
-      <c r="W31" s="95" t="n"/>
-      <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AC31" s="68" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD31" s="95" t="n"/>
-      <c r="AE31" s="95" t="n"/>
-      <c r="AF31" s="95" t="n"/>
-      <c r="AG31" s="95" t="n"/>
-      <c r="AH31" s="95" t="n"/>
-      <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
-      <c r="E32" s="42" t="n"/>
-      <c r="F32" s="42" t="n"/>
-      <c r="G32" s="42" t="n"/>
-      <c r="H32" s="67" t="inlineStr">
-        <is>
-          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="95" t="n"/>
-      <c r="Z32" s="95" t="n"/>
-      <c r="AA32" s="95" t="n"/>
-      <c r="AB32" s="95" t="n"/>
-      <c r="AC32" s="95" t="n"/>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="67" t="inlineStr">
-        <is>
-          <t>STEM: GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I33" s="95" t="n"/>
-      <c r="J33" s="95" t="n"/>
-      <c r="K33" s="95" t="n"/>
-      <c r="L33" s="95" t="n"/>
-      <c r="M33" s="95" t="n"/>
-      <c r="N33" s="95" t="n"/>
-      <c r="O33" s="95" t="n"/>
-      <c r="P33" s="95" t="n"/>
-      <c r="Q33" s="95" t="n"/>
-      <c r="R33" s="95" t="n"/>
-      <c r="S33" s="95" t="n"/>
-      <c r="T33" s="95" t="n"/>
-      <c r="U33" s="95" t="n"/>
-      <c r="V33" s="95" t="n"/>
-      <c r="W33" s="95" t="n"/>
-      <c r="X33" s="95" t="n"/>
-      <c r="Y33" s="95" t="n"/>
-      <c r="Z33" s="95" t="n"/>
-      <c r="AA33" s="95" t="n"/>
-      <c r="AB33" s="95" t="n"/>
-      <c r="AC33" s="95" t="n"/>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="83" t="inlineStr">
-        <is>
-          <t>BALL:</t>
-        </is>
-      </c>
-      <c r="B34" s="42" t="n"/>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="67" t="inlineStr">
-        <is>
-          <t>AISI 316</t>
-        </is>
-      </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
-    </row>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
-        </is>
-      </c>
-      <c r="B35" s="42" t="n"/>
-      <c r="C35" s="42" t="n"/>
-      <c r="D35" s="42" t="n"/>
-      <c r="E35" s="42" t="n"/>
-      <c r="F35" s="42" t="n"/>
-      <c r="G35" s="42" t="n"/>
-      <c r="H35" s="67" t="inlineStr">
-        <is>
-          <t>AISI 316</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
-        </is>
-      </c>
-      <c r="B36" s="42" t="n"/>
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="67" t="inlineStr">
-        <is>
-          <t>RINGS: RPTFE</t>
-        </is>
-      </c>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
-      <c r="B37" s="42" t="n"/>
-      <c r="C37" s="42" t="n"/>
-      <c r="D37" s="42" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="42" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="67" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="n"/>
-      <c r="B38" s="42" t="n"/>
-      <c r="C38" s="42" t="n"/>
-      <c r="D38" s="42" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="42" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="67" t="n"/>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
-      <c r="B39" s="42" t="n"/>
-      <c r="C39" s="42" t="n"/>
-      <c r="D39" s="42" t="n"/>
-      <c r="E39" s="42" t="n"/>
-      <c r="F39" s="42" t="n"/>
-      <c r="G39" s="42" t="n"/>
-      <c r="H39" s="67" t="inlineStr">
-        <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY</t>
-        </is>
-      </c>
-      <c r="I39" s="95" t="n"/>
-      <c r="J39" s="95" t="n"/>
-      <c r="K39" s="95" t="n"/>
-      <c r="L39" s="95" t="n"/>
-      <c r="M39" s="95" t="n"/>
-      <c r="N39" s="95" t="n"/>
-      <c r="O39" s="95" t="n"/>
-      <c r="P39" s="95" t="n"/>
-      <c r="Q39" s="95" t="n"/>
-      <c r="R39" s="95" t="n"/>
-      <c r="S39" s="95" t="n"/>
-      <c r="T39" s="95" t="n"/>
-      <c r="U39" s="95" t="n"/>
-      <c r="V39" s="95" t="n"/>
-      <c r="W39" s="95" t="n"/>
-      <c r="X39" s="95" t="n"/>
-      <c r="Y39" s="95" t="n"/>
-      <c r="Z39" s="95" t="n"/>
-      <c r="AA39" s="95" t="n"/>
-      <c r="AB39" s="95" t="n"/>
-      <c r="AC39" s="95" t="n"/>
-      <c r="AD39" s="95" t="n"/>
-      <c r="AE39" s="95" t="n"/>
-      <c r="AF39" s="95" t="n"/>
-      <c r="AG39" s="95" t="n"/>
-      <c r="AH39" s="95" t="n"/>
-      <c r="AI39" s="95" t="n"/>
-      <c r="AJ39" s="16" t="n"/>
-    </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="42" t="n"/>
-      <c r="C40" s="42" t="n"/>
-      <c r="D40" s="42" t="n"/>
-      <c r="E40" s="42" t="n"/>
-      <c r="F40" s="42" t="n"/>
-      <c r="G40" s="42" t="n"/>
-      <c r="H40" s="67" t="n"/>
-      <c r="I40" s="95" t="n"/>
-      <c r="J40" s="95" t="n"/>
-      <c r="K40" s="95" t="n"/>
-      <c r="L40" s="95" t="n"/>
-      <c r="M40" s="95" t="n"/>
-      <c r="N40" s="95" t="n"/>
-      <c r="O40" s="95" t="n"/>
-      <c r="P40" s="95" t="n"/>
-      <c r="Q40" s="95" t="n"/>
-      <c r="R40" s="95" t="n"/>
-      <c r="S40" s="95" t="n"/>
-      <c r="T40" s="95" t="n"/>
-      <c r="U40" s="95" t="n"/>
-      <c r="V40" s="95" t="n"/>
-      <c r="W40" s="95" t="n"/>
-      <c r="X40" s="95" t="n"/>
-      <c r="Y40" s="95" t="n"/>
-      <c r="Z40" s="95" t="n"/>
-      <c r="AA40" s="95" t="n"/>
-      <c r="AB40" s="95" t="n"/>
-      <c r="AC40" s="95" t="n"/>
-      <c r="AD40" s="95" t="n"/>
-      <c r="AE40" s="95" t="n"/>
-      <c r="AF40" s="95" t="n"/>
-      <c r="AG40" s="95" t="n"/>
-      <c r="AH40" s="95" t="n"/>
-      <c r="AI40" s="95" t="n"/>
-      <c r="AJ40" s="16" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="37" t="n"/>
-      <c r="B41" s="61" t="n"/>
-      <c r="C41" s="61" t="n"/>
-      <c r="D41" s="61" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="61" t="n"/>
-      <c r="G41" s="61" t="n"/>
-      <c r="H41" s="61" t="n"/>
-      <c r="I41" s="61" t="n"/>
-      <c r="J41" s="61" t="n"/>
-      <c r="K41" s="61" t="n"/>
-      <c r="L41" s="61" t="n"/>
-      <c r="M41" s="61" t="n"/>
-      <c r="N41" s="61" t="n"/>
-      <c r="O41" s="61" t="n"/>
-      <c r="P41" s="61" t="n"/>
-      <c r="Q41" s="61" t="n"/>
-      <c r="R41" s="61" t="n"/>
-      <c r="S41" s="61" t="n"/>
-      <c r="T41" s="61" t="n"/>
-      <c r="U41" s="61" t="n"/>
-      <c r="V41" s="61" t="n"/>
-      <c r="W41" s="61" t="n"/>
-      <c r="X41" s="61" t="n"/>
-      <c r="Y41" s="61" t="n"/>
-      <c r="Z41" s="61" t="n"/>
-      <c r="AA41" s="61" t="n"/>
-      <c r="AB41" s="61" t="n"/>
-      <c r="AC41" s="61" t="n"/>
-      <c r="AD41" s="61" t="n"/>
-      <c r="AE41" s="61" t="n"/>
-      <c r="AF41" s="61" t="n"/>
-      <c r="AG41" s="61" t="n"/>
-      <c r="AH41" s="61" t="n"/>
-      <c r="AI41" s="61" t="n"/>
-      <c r="AJ41" s="28" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A42" s="15" t="n"/>
-      <c r="B42" s="51" t="n"/>
-      <c r="C42" s="51" t="n"/>
-      <c r="D42" s="51" t="n"/>
-      <c r="E42" s="51" t="n"/>
-      <c r="F42" s="51" t="n"/>
-      <c r="G42" s="51" t="n"/>
-      <c r="H42" s="51" t="n"/>
-      <c r="I42" s="51" t="n"/>
-      <c r="J42" s="51" t="n"/>
-      <c r="K42" s="51" t="n"/>
-      <c r="L42" s="51" t="n"/>
-      <c r="M42" s="51" t="n"/>
-      <c r="N42" s="51" t="n"/>
-      <c r="O42" s="51" t="n"/>
-      <c r="P42" s="51" t="n"/>
-      <c r="Q42" s="51" t="n"/>
-      <c r="R42" s="51" t="n"/>
-      <c r="S42" s="52" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T42" s="51" t="n"/>
-      <c r="U42" s="51" t="n"/>
-      <c r="V42" s="51" t="n"/>
-      <c r="W42" s="51" t="n"/>
-      <c r="X42" s="51" t="n"/>
-      <c r="Y42" s="51" t="n"/>
-      <c r="Z42" s="51" t="n"/>
-      <c r="AA42" s="51" t="n"/>
-      <c r="AB42" s="51" t="n"/>
-      <c r="AC42" s="51" t="n"/>
-      <c r="AD42" s="51" t="n"/>
-      <c r="AE42" s="51" t="n"/>
-      <c r="AF42" s="51" t="n"/>
-      <c r="AG42" s="51" t="n"/>
-      <c r="AH42" s="51" t="n"/>
-      <c r="AI42" s="51" t="n"/>
-      <c r="AJ42" s="16" t="n"/>
-    </row>
-    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="38" t="n"/>
-      <c r="B43" s="33" t="n"/>
-      <c r="C43" s="33" t="n"/>
-      <c r="D43" s="33" t="n"/>
-      <c r="E43" s="33" t="n"/>
-      <c r="F43" s="33" t="n"/>
-      <c r="G43" s="33" t="n"/>
-      <c r="H43" s="33" t="n"/>
-      <c r="I43" s="33" t="n"/>
-      <c r="J43" s="33" t="n"/>
-      <c r="K43" s="33" t="n"/>
-      <c r="L43" s="33" t="n"/>
-      <c r="M43" s="33" t="n"/>
-      <c r="N43" s="33" t="n"/>
-      <c r="O43" s="33" t="n"/>
-      <c r="P43" s="33" t="n"/>
-      <c r="Q43" s="33" t="n"/>
-      <c r="R43" s="33" t="n"/>
-      <c r="S43" s="33" t="n"/>
-      <c r="T43" s="33" t="n"/>
-      <c r="U43" s="33" t="n"/>
-      <c r="V43" s="33" t="n"/>
-      <c r="W43" s="33" t="n"/>
-      <c r="X43" s="33" t="n"/>
-      <c r="Y43" s="33" t="n"/>
-      <c r="Z43" s="33" t="n"/>
-      <c r="AA43" s="33" t="n"/>
-      <c r="AB43" s="33" t="n"/>
-      <c r="AC43" s="33" t="n"/>
-      <c r="AD43" s="33" t="n"/>
-      <c r="AE43" s="33" t="n"/>
-      <c r="AF43" s="33" t="n"/>
-      <c r="AG43" s="33" t="n"/>
-      <c r="AH43" s="33" t="n"/>
-      <c r="AI43" s="33" t="n"/>
-      <c r="AJ43" s="34" t="n"/>
-    </row>
-    <row r="44" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A44" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 
-</t>
-        </is>
-      </c>
-      <c r="B44" s="23" t="inlineStr">
-        <is>
-          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C44" s="23" t="n"/>
-      <c r="D44" s="23" t="n"/>
-      <c r="E44" s="23" t="n"/>
-      <c r="F44" s="23" t="n"/>
-      <c r="G44" s="23" t="n"/>
-      <c r="H44" s="23" t="n"/>
-      <c r="I44" s="23" t="n"/>
-      <c r="J44" s="23" t="n"/>
-      <c r="K44" s="23" t="n"/>
-      <c r="L44" s="23" t="n"/>
-      <c r="M44" s="23" t="n"/>
-      <c r="N44" s="23" t="n"/>
-      <c r="O44" s="23" t="n"/>
-      <c r="P44" s="23" t="n"/>
-      <c r="Q44" s="23" t="n"/>
-      <c r="R44" s="23" t="n"/>
-      <c r="S44" s="23" t="n"/>
-      <c r="T44" s="23" t="n"/>
-      <c r="U44" s="23" t="n"/>
-      <c r="V44" s="23" t="n"/>
-      <c r="W44" s="23" t="n"/>
-      <c r="X44" s="23" t="n"/>
-      <c r="Y44" s="23" t="n"/>
-      <c r="Z44" s="23" t="n"/>
-      <c r="AA44" s="23" t="n"/>
-      <c r="AB44" s="23" t="n"/>
-      <c r="AC44" s="23" t="n"/>
-      <c r="AD44" s="23" t="n"/>
-      <c r="AE44" s="23" t="n"/>
-      <c r="AF44" s="23" t="n"/>
-      <c r="AG44" s="23" t="n"/>
-      <c r="AH44" s="23" t="n"/>
-      <c r="AI44" s="23" t="n"/>
-      <c r="AJ44" s="34" t="n"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
-      <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="n"/>
-      <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="n"/>
-      <c r="T45" s="2" t="n"/>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
-      <c r="W45" s="2" t="n"/>
-      <c r="X45" s="2" t="n"/>
-      <c r="Y45" s="2" t="n"/>
-      <c r="Z45" s="2" t="n"/>
-      <c r="AA45" s="2" t="n"/>
-      <c r="AB45" s="2" t="n"/>
-      <c r="AC45" s="2" t="n"/>
-      <c r="AD45" s="2" t="n"/>
-      <c r="AE45" s="2" t="n"/>
-      <c r="AF45" s="2" t="n"/>
-      <c r="AG45" s="2" t="n"/>
-      <c r="AH45" s="2" t="n"/>
-      <c r="AI45" s="2" t="n"/>
-      <c r="AJ45" s="2" t="n"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="B46:AH46"/>
-    <mergeCell ref="H33:AI33"/>
-    <mergeCell ref="H34:AI34"/>
-    <mergeCell ref="H35:AI35"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="H39:AI39"/>
-    <mergeCell ref="H40:AI40"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="H32:AI32"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
-  </mergeCells>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AJ46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
-    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>BALL VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-      <c r="AA1" s="12" t="n"/>
-      <c r="AB1" s="12" t="n"/>
-      <c r="AC1" s="12" t="n"/>
-      <c r="AD1" s="12" t="n"/>
-      <c r="AE1" s="12" t="n"/>
-      <c r="AF1" s="12" t="n"/>
-      <c r="AG1" s="12" t="n"/>
-      <c r="AH1" s="12" t="n"/>
-      <c r="AI1" s="12" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A2" s="37" t="n"/>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="61" t="n"/>
-      <c r="D2" s="61" t="n"/>
-      <c r="E2" s="61" t="n"/>
-      <c r="F2" s="61" t="n"/>
-      <c r="G2" s="61" t="n"/>
-      <c r="H2" s="61" t="n"/>
-      <c r="I2" s="61" t="n"/>
-      <c r="J2" s="61" t="n"/>
-      <c r="K2" s="61" t="n"/>
-      <c r="L2" s="61" t="n"/>
-      <c r="M2" s="61" t="n"/>
-      <c r="N2" s="61" t="n"/>
-      <c r="O2" s="61" t="n"/>
-      <c r="P2" s="61" t="n"/>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="61" t="n"/>
-      <c r="S2" s="61" t="n"/>
-      <c r="T2" s="61" t="n"/>
-      <c r="U2" s="61" t="n"/>
-      <c r="V2" s="61" t="n"/>
-      <c r="W2" s="61" t="n"/>
-      <c r="X2" s="61" t="n"/>
-      <c r="Y2" s="61" t="n"/>
-      <c r="Z2" s="61" t="n"/>
-      <c r="AA2" s="61" t="n"/>
-      <c r="AB2" s="61" t="n"/>
-      <c r="AC2" s="61" t="n"/>
-      <c r="AD2" s="61" t="n"/>
-      <c r="AE2" s="61" t="n"/>
-      <c r="AF2" s="61" t="n"/>
-      <c r="AG2" s="61" t="n"/>
-      <c r="AH2" s="61" t="n"/>
-      <c r="AI2" s="61" t="n"/>
-      <c r="AJ2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>TAG. No.</t>
-        </is>
-      </c>
-      <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>BAV24G0I1C</t>
-        </is>
-      </c>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="61" t="n"/>
-      <c r="M3" s="61" t="n"/>
-      <c r="N3" s="61" t="n"/>
-      <c r="O3" s="61" t="n"/>
-      <c r="P3" s="48" t="n"/>
-      <c r="Q3" s="48" t="n"/>
-      <c r="R3" s="48" t="n"/>
-      <c r="S3" s="48" t="n"/>
-      <c r="T3" s="48" t="n"/>
-      <c r="U3" s="48" t="n"/>
-      <c r="V3" s="48" t="n"/>
-      <c r="W3" s="48" t="n"/>
-      <c r="X3" s="48" t="n"/>
-      <c r="Y3" s="48" t="n"/>
-      <c r="Z3" s="48" t="n"/>
-      <c r="AA3" s="48" t="n"/>
-      <c r="AB3" s="48" t="n"/>
-      <c r="AC3" s="48" t="n"/>
-      <c r="AD3" s="48" t="n"/>
-      <c r="AE3" s="48" t="n"/>
-      <c r="AF3" s="48" t="n"/>
-      <c r="AG3" s="48" t="n"/>
-      <c r="AH3" s="48" t="n"/>
-      <c r="AI3" s="48" t="n"/>
-      <c r="AJ3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>SIZE :</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="96" t="inlineStr">
-        <is>
-          <t>3/4, 1</t>
-        </is>
-      </c>
-      <c r="I4" s="97" t="n"/>
-      <c r="J4" s="97" t="n"/>
-      <c r="K4" s="49" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="61" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="61" t="n"/>
-      <c r="S4" s="61" t="n"/>
-      <c r="T4" s="61" t="n"/>
-      <c r="U4" s="61" t="n"/>
-      <c r="V4" s="61" t="n"/>
-      <c r="W4" s="61" t="n"/>
-      <c r="X4" s="61" t="n"/>
-      <c r="Y4" s="61" t="n"/>
-      <c r="Z4" s="61" t="n"/>
-      <c r="AA4" s="61" t="n"/>
-      <c r="AB4" s="61" t="n"/>
-      <c r="AC4" s="61" t="n"/>
-      <c r="AD4" s="61" t="n"/>
-      <c r="AE4" s="61" t="n"/>
-      <c r="AF4" s="61" t="n"/>
-      <c r="AG4" s="61" t="n"/>
-      <c r="AH4" s="61" t="n"/>
-      <c r="AI4" s="50" t="n"/>
-      <c r="AJ4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>PIPING CLASS :</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n"/>
-      <c r="C5" s="47" t="n"/>
-      <c r="D5" s="47" t="n"/>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="69" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="I5" s="95" t="n"/>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="95" t="n"/>
-      <c r="L5" s="95" t="n"/>
-      <c r="M5" s="95" t="n"/>
-      <c r="N5" s="95" t="n"/>
-      <c r="O5" s="47" t="n"/>
-      <c r="P5" s="47" t="n"/>
-      <c r="Q5" s="47" t="n"/>
-      <c r="R5" s="47" t="n"/>
-      <c r="S5" s="47" t="n"/>
-      <c r="T5" s="47" t="n"/>
-      <c r="U5" s="47" t="n"/>
-      <c r="V5" s="61" t="n"/>
-      <c r="W5" s="24" t="inlineStr">
-        <is>
-          <t>PLANT LOCATION:</t>
-        </is>
-      </c>
-      <c r="X5" s="61" t="n"/>
-      <c r="Y5" s="61" t="n"/>
-      <c r="Z5" s="61" t="n"/>
-      <c r="AA5" s="61" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="95" t="n"/>
-      <c r="AD5" s="95" t="n"/>
-      <c r="AE5" s="95" t="n"/>
-      <c r="AF5" s="95" t="n"/>
-      <c r="AG5" s="95" t="n"/>
-      <c r="AH5" s="95" t="n"/>
-      <c r="AI5" s="95" t="n"/>
-      <c r="AJ5" s="65" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>SERVICE (Note 1):</t>
-        </is>
-      </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="61" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="61" t="n"/>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
-        <is>
-          <t>HCN &amp; HCR</t>
-        </is>
-      </c>
-      <c r="I6" s="95" t="n"/>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="95" t="n"/>
-      <c r="L6" s="95" t="n"/>
-      <c r="M6" s="95" t="n"/>
-      <c r="N6" s="95" t="n"/>
-      <c r="O6" s="95" t="n"/>
-      <c r="P6" s="95" t="n"/>
-      <c r="Q6" s="95" t="n"/>
-      <c r="R6" s="95" t="n"/>
-      <c r="S6" s="95" t="n"/>
-      <c r="T6" s="95" t="n"/>
-      <c r="U6" s="95" t="n"/>
-      <c r="V6" s="95" t="n"/>
-      <c r="W6" s="95" t="n"/>
-      <c r="X6" s="95" t="n"/>
-      <c r="Y6" s="95" t="n"/>
-      <c r="Z6" s="95" t="n"/>
-      <c r="AA6" s="95" t="n"/>
-      <c r="AB6" s="95" t="n"/>
-      <c r="AC6" s="95" t="n"/>
-      <c r="AD6" s="95" t="n"/>
-      <c r="AE6" s="95" t="n"/>
-      <c r="AF6" s="95" t="n"/>
-      <c r="AG6" s="95" t="n"/>
-      <c r="AH6" s="95" t="n"/>
-      <c r="AI6" s="95" t="n"/>
-      <c r="AJ6" s="65" t="n"/>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="57" t="n"/>
-      <c r="B7" s="48" t="n"/>
-      <c r="C7" s="48" t="n"/>
-      <c r="D7" s="48" t="n"/>
-      <c r="E7" s="48" t="n"/>
-      <c r="F7" s="48" t="n"/>
-      <c r="G7" s="48" t="n"/>
-      <c r="H7" s="48" t="n"/>
-      <c r="I7" s="48" t="n"/>
-      <c r="J7" s="48" t="n"/>
-      <c r="K7" s="48" t="n"/>
-      <c r="L7" s="48" t="n"/>
-      <c r="M7" s="48" t="n"/>
-      <c r="N7" s="48" t="n"/>
-      <c r="O7" s="48" t="n"/>
-      <c r="P7" s="48" t="n"/>
-      <c r="Q7" s="48" t="n"/>
-      <c r="R7" s="48" t="n"/>
-      <c r="S7" s="48" t="n"/>
-      <c r="T7" s="48" t="n"/>
-      <c r="U7" s="48" t="n"/>
-      <c r="V7" s="48" t="n"/>
-      <c r="W7" s="48" t="n"/>
-      <c r="X7" s="48" t="n"/>
-      <c r="Y7" s="48" t="n"/>
-      <c r="Z7" s="48" t="n"/>
-      <c r="AA7" s="48" t="n"/>
-      <c r="AB7" s="48" t="n"/>
-      <c r="AC7" s="48" t="n"/>
-      <c r="AD7" s="48" t="n"/>
-      <c r="AE7" s="48" t="n"/>
-      <c r="AF7" s="48" t="n"/>
-      <c r="AG7" s="48" t="n"/>
-      <c r="AH7" s="48" t="n"/>
-      <c r="AI7" s="48" t="n"/>
-      <c r="AJ7" s="31" t="n"/>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A8" s="15" t="n"/>
-      <c r="B8" s="51" t="n"/>
-      <c r="C8" s="51" t="n"/>
-      <c r="D8" s="51" t="n"/>
-      <c r="E8" s="51" t="n"/>
-      <c r="F8" s="51" t="n"/>
-      <c r="G8" s="51" t="n"/>
-      <c r="H8" s="51" t="n"/>
-      <c r="I8" s="51" t="n"/>
-      <c r="J8" s="51" t="n"/>
-      <c r="K8" s="51" t="n"/>
-      <c r="L8" s="51" t="n"/>
-      <c r="M8" s="51" t="n"/>
-      <c r="N8" s="51" t="n"/>
-      <c r="O8" s="51" t="n"/>
-      <c r="P8" s="51" t="n"/>
-      <c r="Q8" s="51" t="n"/>
-      <c r="R8" s="51" t="n"/>
-      <c r="S8" s="52" t="inlineStr">
-        <is>
-          <t>M E C H A N I C A L</t>
-        </is>
-      </c>
-      <c r="T8" s="51" t="n"/>
-      <c r="U8" s="51" t="n"/>
-      <c r="V8" s="51" t="n"/>
-      <c r="W8" s="51" t="n"/>
-      <c r="X8" s="51" t="n"/>
-      <c r="Y8" s="51" t="n"/>
-      <c r="Z8" s="51" t="n"/>
-      <c r="AA8" s="51" t="n"/>
-      <c r="AB8" s="51" t="n"/>
-      <c r="AC8" s="51" t="n"/>
-      <c r="AD8" s="51" t="n"/>
-      <c r="AE8" s="51" t="n"/>
-      <c r="AF8" s="51" t="n"/>
-      <c r="AG8" s="51" t="n"/>
-      <c r="AH8" s="51" t="n"/>
-      <c r="AI8" s="51" t="n"/>
-      <c r="AJ8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="61" t="n"/>
-      <c r="D9" s="61" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="61" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="61" t="n"/>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="61" t="n"/>
-      <c r="K9" s="61" t="n"/>
-      <c r="L9" s="61" t="n"/>
-      <c r="M9" s="61" t="n"/>
-      <c r="N9" s="61" t="n"/>
-      <c r="O9" s="61" t="n"/>
-      <c r="P9" s="61" t="n"/>
-      <c r="Q9" s="61" t="n"/>
-      <c r="R9" s="61" t="n"/>
-      <c r="S9" s="61" t="n"/>
-      <c r="T9" s="61" t="n"/>
-      <c r="U9" s="61" t="n"/>
-      <c r="V9" s="61" t="n"/>
-      <c r="W9" s="61" t="n"/>
-      <c r="X9" s="61" t="n"/>
-      <c r="Y9" s="61" t="n"/>
-      <c r="Z9" s="61" t="n"/>
-      <c r="AA9" s="61" t="n"/>
-      <c r="AB9" s="61" t="n"/>
-      <c r="AC9" s="61" t="n"/>
-      <c r="AD9" s="61" t="n"/>
-      <c r="AE9" s="61" t="n"/>
-      <c r="AF9" s="61" t="n"/>
-      <c r="AG9" s="61" t="n"/>
-      <c r="AH9" s="61" t="n"/>
-      <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>VALVE TYPE :</t>
-        </is>
-      </c>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="61" t="n"/>
-      <c r="D10" s="61" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="61" t="n"/>
-      <c r="G10" s="61" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
-        <is>
-          <t>BALL VALVE, FLOATING BALL</t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="95" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="95" t="n"/>
-      <c r="M10" s="95" t="n"/>
-      <c r="N10" s="95" t="n"/>
-      <c r="O10" s="95" t="n"/>
-      <c r="P10" s="95" t="n"/>
-      <c r="Q10" s="95" t="n"/>
-      <c r="R10" s="95" t="n"/>
-      <c r="S10" s="95" t="n"/>
-      <c r="T10" s="95" t="n"/>
-      <c r="U10" s="95" t="n"/>
-      <c r="V10" s="95" t="n"/>
-      <c r="W10" s="95" t="n"/>
-      <c r="X10" s="61" t="n"/>
-      <c r="Y10" s="61" t="n"/>
-      <c r="Z10" s="61" t="n"/>
-      <c r="AA10" s="61" t="n"/>
-      <c r="AB10" s="49" t="inlineStr">
-        <is>
-          <t>RATING / CLASS:</t>
-        </is>
-      </c>
-      <c r="AC10" s="70" t="n">
-        <v>800</v>
-      </c>
-      <c r="AD10" s="95" t="n"/>
-      <c r="AE10" s="95" t="n"/>
-      <c r="AF10" s="95" t="n"/>
-      <c r="AG10" s="95" t="n"/>
-      <c r="AH10" s="95" t="n"/>
-      <c r="AI10" s="95" t="n"/>
-      <c r="AJ10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>END CONNECTIONS:</t>
-        </is>
-      </c>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="61" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="61" t="n"/>
-      <c r="G11" s="61" t="n"/>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLANGED </t>
-        </is>
-      </c>
-      <c r="I11" s="61" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr"/>
-      <c r="M11" s="95" t="n"/>
-      <c r="N11" s="61" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="61" t="n"/>
-      <c r="Q11" s="61" t="n"/>
-      <c r="R11" s="49" t="inlineStr">
-        <is>
-          <t>FACING:</t>
-        </is>
-      </c>
-      <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr"/>
-      <c r="U11" s="95" t="n"/>
-      <c r="V11" s="61" t="n"/>
-      <c r="W11" s="61" t="n"/>
-      <c r="X11" s="61" t="n"/>
-      <c r="Y11" s="61" t="n"/>
-      <c r="Z11" s="61" t="n"/>
-      <c r="AA11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOCKETWELD </t>
-        </is>
-      </c>
-      <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
-      <c r="AD11" s="95" t="n"/>
-      <c r="AE11" s="66" t="inlineStr">
-        <is>
-          <t>SCREWED</t>
-        </is>
-      </c>
-      <c r="AF11" s="66" t="n"/>
-      <c r="AG11" s="66" t="n"/>
-      <c r="AH11" s="72" t="inlineStr"/>
-      <c r="AI11" s="95" t="n"/>
-      <c r="AJ11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="37" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="61" t="n"/>
-      <c r="D12" s="61" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="61" t="n"/>
-      <c r="G12" s="61" t="n"/>
-      <c r="H12" s="54" t="inlineStr">
-        <is>
-          <t>BUTTWELD</t>
-        </is>
-      </c>
-      <c r="I12" s="61" t="n"/>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="61" t="n"/>
-      <c r="L12" s="68" t="inlineStr"/>
-      <c r="M12" s="95" t="n"/>
-      <c r="N12" s="95" t="n"/>
-      <c r="O12" s="95" t="n"/>
-      <c r="P12" s="95" t="n"/>
-      <c r="Q12" s="95" t="n"/>
-      <c r="R12" s="95" t="n"/>
-      <c r="S12" s="95" t="n"/>
-      <c r="T12" s="95" t="n"/>
-      <c r="U12" s="95" t="n"/>
-      <c r="V12" s="95" t="n"/>
-      <c r="W12" s="61" t="n"/>
-      <c r="X12" s="61" t="n"/>
-      <c r="Y12" s="61" t="n"/>
-      <c r="Z12" s="61" t="n"/>
-      <c r="AA12" s="61" t="n"/>
-      <c r="AB12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-      <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="AE12" s="95" t="n"/>
-      <c r="AF12" s="95" t="n"/>
-      <c r="AG12" s="95" t="n"/>
-      <c r="AH12" s="95" t="n"/>
-      <c r="AI12" s="95" t="n"/>
-      <c r="AJ12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A13" s="37" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="61" t="n"/>
-      <c r="D13" s="61" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="61" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="61" t="n"/>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="61" t="n"/>
-      <c r="L13" s="61" t="n"/>
-      <c r="M13" s="61" t="n"/>
-      <c r="N13" s="61" t="n"/>
-      <c r="O13" s="61" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="61" t="n"/>
-      <c r="R13" s="61" t="n"/>
-      <c r="S13" s="61" t="n"/>
-      <c r="T13" s="61" t="n"/>
-      <c r="U13" s="61" t="n"/>
-      <c r="V13" s="61" t="n"/>
-      <c r="W13" s="61" t="n"/>
-      <c r="X13" s="61" t="n"/>
-      <c r="Y13" s="61" t="n"/>
-      <c r="Z13" s="61" t="n"/>
-      <c r="AA13" s="61" t="n"/>
-      <c r="AB13" s="53" t="n"/>
-      <c r="AC13" s="61" t="n"/>
-      <c r="AD13" s="61" t="n"/>
-      <c r="AE13" s="61" t="n"/>
-      <c r="AF13" s="61" t="n"/>
-      <c r="AG13" s="61" t="n"/>
-      <c r="AH13" s="61" t="n"/>
-      <c r="AI13" s="61" t="n"/>
-      <c r="AJ13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
-        </is>
-      </c>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="61" t="n"/>
-      <c r="D14" s="61" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="61" t="n"/>
-      <c r="G14" s="61" t="n"/>
-      <c r="H14" s="61" t="n"/>
-      <c r="I14" s="61" t="n"/>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="61" t="n"/>
-      <c r="L14" s="61" t="n"/>
-      <c r="M14" s="61" t="n"/>
-      <c r="N14" s="61" t="n"/>
-      <c r="O14" s="61" t="n"/>
-      <c r="P14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.5</t>
-        </is>
-      </c>
-      <c r="Q14" s="68" t="inlineStr"/>
-      <c r="R14" s="95" t="n"/>
-      <c r="S14" s="95" t="n"/>
-      <c r="T14" s="61" t="n"/>
-      <c r="U14" s="61" t="n"/>
-      <c r="V14" s="61" t="n"/>
-      <c r="W14" s="61" t="n"/>
-      <c r="X14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.11</t>
-        </is>
-      </c>
-      <c r="Y14" s="68" t="inlineStr"/>
-      <c r="Z14" s="95" t="n"/>
-      <c r="AA14" s="95" t="n"/>
-      <c r="AB14" s="61" t="n"/>
-      <c r="AC14" s="61" t="n"/>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr">
-        <is>
-          <t>MNF STD</t>
-        </is>
-      </c>
-      <c r="AG14" s="95" t="n"/>
-      <c r="AH14" s="95" t="n"/>
-      <c r="AI14" s="95" t="n"/>
-      <c r="AJ14" s="16" t="n"/>
-    </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>BORE:</t>
-        </is>
-      </c>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="61" t="n"/>
-      <c r="D15" s="61" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="61" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="I15" s="61" t="n"/>
-      <c r="J15" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K15" s="95" t="n"/>
-      <c r="L15" s="95" t="n"/>
-      <c r="M15" s="95" t="n"/>
-      <c r="N15" s="95" t="n"/>
-      <c r="O15" s="95" t="n"/>
-      <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="inlineStr">
-        <is>
-          <t>REDUCED</t>
-        </is>
-      </c>
-      <c r="R15" s="61" t="n"/>
-      <c r="S15" s="61" t="n"/>
-      <c r="T15" s="68" t="inlineStr"/>
-      <c r="U15" s="95" t="n"/>
-      <c r="V15" s="95" t="n"/>
-      <c r="W15" s="95" t="n"/>
-      <c r="X15" s="95" t="n"/>
-      <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="inlineStr">
-        <is>
-          <t>ACCORDING TO:</t>
-        </is>
-      </c>
-      <c r="AA15" s="61" t="n"/>
-      <c r="AB15" s="61" t="n"/>
-      <c r="AC15" s="61" t="n"/>
-      <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="68" t="inlineStr"/>
-      <c r="AF15" s="95" t="n"/>
-      <c r="AG15" s="95" t="n"/>
-      <c r="AH15" s="95" t="n"/>
-      <c r="AI15" s="95" t="n"/>
-      <c r="AJ15" s="16" t="n"/>
-    </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>LENGHT:</t>
-        </is>
-      </c>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="61" t="n"/>
-      <c r="D16" s="61" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="61" t="n"/>
-      <c r="G16" s="61" t="n"/>
-      <c r="H16" s="61" t="n"/>
-      <c r="I16" s="61" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="61" t="n"/>
-      <c r="L16" s="61" t="n"/>
-      <c r="M16" s="61" t="n"/>
-      <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="inlineStr">
-        <is>
-          <t>SHORT  PATTERN</t>
-        </is>
-      </c>
-      <c r="P16" s="68" t="inlineStr"/>
-      <c r="Q16" s="95" t="n"/>
-      <c r="R16" s="95" t="n"/>
-      <c r="S16" s="61" t="n"/>
-      <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="inlineStr">
-        <is>
-          <t>REG./LONG  PATTERN</t>
-        </is>
-      </c>
-      <c r="V16" s="61" t="n"/>
-      <c r="W16" s="61" t="n"/>
-      <c r="X16" s="61" t="n"/>
-      <c r="Y16" s="55" t="n"/>
-      <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr"/>
-      <c r="AB16" s="95" t="n"/>
-      <c r="AC16" s="95" t="n"/>
-      <c r="AD16" s="61" t="n"/>
-      <c r="AE16" s="61" t="n"/>
-      <c r="AF16" s="61" t="n"/>
-      <c r="AG16" s="61" t="n"/>
-      <c r="AH16" s="61" t="n"/>
-      <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="16" t="n"/>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A17" s="17" t="inlineStr">
-        <is>
-          <t>TYPE OPERATOR :</t>
-        </is>
-      </c>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="61" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="69" t="inlineStr">
-        <is>
-          <t>LEVER OPERATOR</t>
-        </is>
-      </c>
-      <c r="I17" s="95" t="n"/>
-      <c r="J17" s="95" t="n"/>
-      <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="n"/>
-      <c r="M17" s="95" t="n"/>
-      <c r="N17" s="95" t="n"/>
-      <c r="O17" s="61" t="n"/>
-      <c r="P17" s="61" t="n"/>
-      <c r="Q17" s="61" t="n"/>
-      <c r="R17" s="61" t="n"/>
-      <c r="S17" s="61" t="n"/>
-      <c r="T17" s="61" t="n"/>
-      <c r="U17" s="61" t="n"/>
-      <c r="V17" s="61" t="n"/>
-      <c r="W17" s="61" t="n"/>
-      <c r="X17" s="61" t="n"/>
-      <c r="Y17" s="61" t="n"/>
-      <c r="Z17" s="61" t="n"/>
-      <c r="AA17" s="61" t="n"/>
-      <c r="AB17" s="61" t="n"/>
-      <c r="AC17" s="61" t="n"/>
-      <c r="AD17" s="61" t="n"/>
-      <c r="AE17" s="61" t="n"/>
-      <c r="AF17" s="61" t="n"/>
-      <c r="AG17" s="61" t="n"/>
-      <c r="AH17" s="61" t="n"/>
-      <c r="AI17" s="61" t="n"/>
-      <c r="AJ17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A18" s="37" t="n"/>
-      <c r="B18" s="61" t="n"/>
-      <c r="C18" s="61" t="n"/>
-      <c r="D18" s="61" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="61" t="n"/>
-      <c r="G18" s="61" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="61" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="61" t="n"/>
-      <c r="L18" s="61" t="n"/>
-      <c r="M18" s="61" t="n"/>
-      <c r="N18" s="61" t="n"/>
-      <c r="O18" s="61" t="n"/>
-      <c r="P18" s="61" t="n"/>
-      <c r="Q18" s="61" t="n"/>
-      <c r="R18" s="61" t="n"/>
-      <c r="S18" s="61" t="n"/>
-      <c r="T18" s="61" t="n"/>
-      <c r="U18" s="61" t="n"/>
-      <c r="V18" s="61" t="n"/>
-      <c r="W18" s="61" t="n"/>
-      <c r="X18" s="61" t="n"/>
-      <c r="Y18" s="55" t="n"/>
-      <c r="Z18" s="61" t="n"/>
-      <c r="AA18" s="61" t="n"/>
-      <c r="AB18" s="61" t="n"/>
-      <c r="AC18" s="61" t="n"/>
-      <c r="AD18" s="61" t="n"/>
-      <c r="AE18" s="61" t="n"/>
-      <c r="AF18" s="61" t="n"/>
-      <c r="AG18" s="61" t="n"/>
-      <c r="AH18" s="61" t="n"/>
-      <c r="AI18" s="61" t="n"/>
-      <c r="AJ18" s="28" t="n"/>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="51" t="n"/>
-      <c r="C19" s="51" t="n"/>
-      <c r="D19" s="51" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
-      <c r="G19" s="51" t="n"/>
-      <c r="H19" s="51" t="n"/>
-      <c r="I19" s="51" t="n"/>
-      <c r="J19" s="51" t="n"/>
-      <c r="K19" s="51" t="n"/>
-      <c r="L19" s="51" t="n"/>
-      <c r="M19" s="51" t="n"/>
-      <c r="N19" s="51" t="n"/>
-      <c r="O19" s="51" t="n"/>
-      <c r="P19" s="51" t="n"/>
-      <c r="Q19" s="51" t="n"/>
-      <c r="R19" s="51" t="n"/>
-      <c r="S19" s="52" t="inlineStr">
-        <is>
-          <t>D E S I G N</t>
-        </is>
-      </c>
-      <c r="T19" s="51" t="n"/>
-      <c r="U19" s="51" t="n"/>
-      <c r="V19" s="51" t="n"/>
-      <c r="W19" s="51" t="n"/>
-      <c r="X19" s="51" t="n"/>
-      <c r="Y19" s="51" t="n"/>
-      <c r="Z19" s="51" t="n"/>
-      <c r="AA19" s="51" t="n"/>
-      <c r="AB19" s="51" t="n"/>
-      <c r="AC19" s="51" t="n"/>
-      <c r="AD19" s="51" t="n"/>
-      <c r="AE19" s="51" t="n"/>
-      <c r="AF19" s="51" t="n"/>
-      <c r="AG19" s="51" t="n"/>
-      <c r="AH19" s="51" t="n"/>
-      <c r="AI19" s="51" t="n"/>
-      <c r="AJ19" s="16" t="n"/>
-    </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A20" s="37" t="n"/>
-      <c r="B20" s="61" t="n"/>
-      <c r="C20" s="61" t="n"/>
-      <c r="D20" s="61" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="61" t="n"/>
-      <c r="H20" s="61" t="n"/>
-      <c r="I20" s="61" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="61" t="n"/>
-      <c r="L20" s="61" t="n"/>
-      <c r="M20" s="61" t="n"/>
-      <c r="N20" s="61" t="n"/>
-      <c r="O20" s="61" t="n"/>
-      <c r="P20" s="61" t="n"/>
-      <c r="Q20" s="61" t="n"/>
-      <c r="R20" s="61" t="n"/>
-      <c r="S20" s="61" t="n"/>
-      <c r="T20" s="61" t="n"/>
-      <c r="U20" s="61" t="n"/>
-      <c r="V20" s="61" t="n"/>
-      <c r="W20" s="61" t="n"/>
-      <c r="X20" s="61" t="n"/>
-      <c r="Y20" s="61" t="n"/>
-      <c r="Z20" s="61" t="n"/>
-      <c r="AA20" s="61" t="n"/>
-      <c r="AB20" s="61" t="n"/>
-      <c r="AC20" s="61" t="n"/>
-      <c r="AD20" s="61" t="n"/>
-      <c r="AE20" s="61" t="n"/>
-      <c r="AF20" s="61" t="n"/>
-      <c r="AG20" s="61" t="n"/>
-      <c r="AH20" s="61" t="n"/>
-      <c r="AI20" s="61" t="n"/>
-      <c r="AJ20" s="28" t="n"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>APPLICABLE PIPING</t>
-        </is>
-      </c>
-      <c r="B21" s="61" t="n"/>
-      <c r="C21" s="61" t="n"/>
-      <c r="D21" s="61" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="61" t="n"/>
-      <c r="H21" s="61" t="n"/>
-      <c r="I21" s="61" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="61" t="n"/>
-      <c r="L21" s="61" t="n"/>
-      <c r="M21" s="61" t="n"/>
-      <c r="N21" s="61" t="n"/>
-      <c r="O21" s="61" t="n"/>
-      <c r="P21" s="61" t="n"/>
-      <c r="Q21" s="61" t="n"/>
-      <c r="R21" s="61" t="n"/>
-      <c r="S21" s="61" t="n"/>
-      <c r="T21" s="61" t="n"/>
-      <c r="U21" s="61" t="n"/>
-      <c r="V21" s="61" t="n"/>
-      <c r="W21" s="61" t="n"/>
-      <c r="X21" s="61" t="n"/>
-      <c r="Y21" s="61" t="n"/>
-      <c r="Z21" s="61" t="n"/>
-      <c r="AA21" s="61" t="n"/>
-      <c r="AB21" s="61" t="n"/>
-      <c r="AC21" s="61" t="n"/>
-      <c r="AD21" s="61" t="n"/>
-      <c r="AE21" s="61" t="n"/>
-      <c r="AF21" s="61" t="n"/>
-      <c r="AG21" s="61" t="n"/>
-      <c r="AH21" s="61" t="n"/>
-      <c r="AI21" s="61" t="n"/>
-      <c r="AJ21" s="28" t="n"/>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DESIGN CODE:       </t>
-        </is>
-      </c>
-      <c r="B22" s="61" t="n"/>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>API 600</t>
-        </is>
-      </c>
-      <c r="I22" s="68" t="inlineStr"/>
-      <c r="J22" s="95" t="n"/>
-      <c r="K22" s="61" t="n"/>
-      <c r="L22" s="61" t="n"/>
-      <c r="M22" s="81" t="inlineStr">
-        <is>
-          <t>API 6D</t>
-        </is>
-      </c>
-      <c r="N22" s="61" t="n"/>
-      <c r="O22" s="68" t="inlineStr"/>
-      <c r="P22" s="95" t="n"/>
-      <c r="Q22" s="61" t="n"/>
-      <c r="R22" s="61" t="n"/>
-      <c r="S22" s="61" t="n"/>
-      <c r="T22" s="53" t="inlineStr">
-        <is>
-          <t>API 608</t>
-        </is>
-      </c>
-      <c r="U22" s="71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V22" s="95" t="n"/>
-      <c r="W22" s="61" t="n"/>
-      <c r="X22" s="61" t="n"/>
-      <c r="Y22" s="61" t="n"/>
-      <c r="Z22" s="56" t="inlineStr">
-        <is>
-          <t>API 602</t>
-        </is>
-      </c>
-      <c r="AA22" s="68" t="inlineStr"/>
-      <c r="AB22" s="95" t="n"/>
-      <c r="AC22" s="61" t="n"/>
-      <c r="AD22" s="61" t="n"/>
-      <c r="AE22" s="79" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AG22" s="68" t="inlineStr"/>
-      <c r="AH22" s="95" t="n"/>
-      <c r="AI22" s="95" t="n"/>
-      <c r="AJ22" s="28" t="n"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
-        </is>
-      </c>
-      <c r="L23" s="90" t="inlineStr">
-        <is>
-          <t>FIRE SAFE AS PER API 607</t>
-        </is>
-      </c>
-      <c r="M23" s="95" t="n"/>
-      <c r="N23" s="95" t="n"/>
-      <c r="O23" s="95" t="n"/>
-      <c r="P23" s="95" t="n"/>
-      <c r="Q23" s="95" t="n"/>
-      <c r="R23" s="95" t="n"/>
-      <c r="S23" s="95" t="n"/>
-      <c r="T23" s="95" t="n"/>
-      <c r="U23" s="95" t="n"/>
-      <c r="V23" s="95" t="n"/>
-      <c r="W23" s="95" t="n"/>
-      <c r="X23" s="95" t="n"/>
-      <c r="Y23" s="95" t="n"/>
-      <c r="Z23" s="95" t="n"/>
-      <c r="AA23" s="95" t="n"/>
-      <c r="AB23" s="95" t="n"/>
-      <c r="AC23" s="95" t="n"/>
-      <c r="AD23" s="95" t="n"/>
-      <c r="AE23" s="95" t="n"/>
-      <c r="AF23" s="95" t="n"/>
-      <c r="AG23" s="95" t="n"/>
-      <c r="AH23" s="95" t="n"/>
-      <c r="AI23" s="95" t="n"/>
-      <c r="AJ23" s="28" t="n"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="68" t="n">
-        <v>285</v>
-      </c>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="95" t="n"/>
-      <c r="K24" s="95" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="95" t="n"/>
-      <c r="N24" s="95" t="n"/>
-      <c r="O24" s="95" t="n"/>
-      <c r="P24" s="24" t="inlineStr">
-        <is>
-          <t>PSIG @100°F</t>
-        </is>
-      </c>
-      <c r="Q24" s="61" t="n"/>
-      <c r="R24" s="61" t="n"/>
-      <c r="S24" s="61" t="n"/>
-      <c r="T24" s="61" t="n"/>
-      <c r="U24" s="61" t="n"/>
-      <c r="V24" s="61" t="n"/>
-      <c r="W24" s="61" t="n"/>
-      <c r="X24" s="61" t="n"/>
-      <c r="Y24" s="61" t="n"/>
-      <c r="Z24" s="49" t="inlineStr">
-        <is>
-          <t>DESIGN TEMP:</t>
-        </is>
-      </c>
-      <c r="AA24" s="61" t="n"/>
-      <c r="AB24" s="69" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="95" t="n"/>
-      <c r="AD24" s="24" t="inlineStr">
-        <is>
-          <t>F. MIN</t>
-        </is>
-      </c>
-      <c r="AE24" s="61" t="n"/>
-      <c r="AF24" s="69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="95" t="n"/>
-      <c r="AH24" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F. MAX</t>
-        </is>
-      </c>
-      <c r="AI24" s="61" t="n"/>
-      <c r="AJ24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B25" s="61" t="n"/>
-      <c r="C25" s="61" t="n"/>
-      <c r="D25" s="61" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="61" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="61" t="n"/>
-      <c r="I25" s="61" t="n"/>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="32" t="n"/>
-      <c r="L25" s="32" t="n"/>
-      <c r="M25" s="32" t="n"/>
-      <c r="N25" s="32" t="n"/>
-      <c r="O25" s="32" t="n"/>
-      <c r="P25" s="33" t="n"/>
-      <c r="Q25" s="79" t="inlineStr">
-        <is>
-          <t>PSIG</t>
-        </is>
-      </c>
-      <c r="S25" s="61" t="n"/>
-      <c r="T25" s="61" t="n"/>
-      <c r="U25" s="61" t="n"/>
-      <c r="V25" s="61" t="n"/>
-      <c r="W25" s="24" t="inlineStr">
-        <is>
-          <t>TEST PRESSURE:</t>
-        </is>
-      </c>
-      <c r="X25" s="61" t="n"/>
-      <c r="Y25" s="61" t="n"/>
-      <c r="Z25" s="61" t="n"/>
-      <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr">
-        <is>
-          <t>API 598</t>
-        </is>
-      </c>
-      <c r="AC25" s="95" t="n"/>
-      <c r="AD25" s="95" t="n"/>
-      <c r="AE25" s="24" t="n"/>
-      <c r="AF25" s="78" t="n"/>
-      <c r="AH25" s="61" t="n"/>
-      <c r="AI25" s="61" t="n"/>
-      <c r="AJ25" s="31" t="n"/>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>CONTAMINANTS :</t>
-        </is>
-      </c>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="61" t="n"/>
-      <c r="G26" s="61" t="n"/>
-      <c r="H26" s="24" t="inlineStr">
-        <is>
-          <t>CO2:</t>
-        </is>
-      </c>
-      <c r="I26" s="19" t="n"/>
-      <c r="J26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n"/>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="n"/>
-      <c r="Q26" s="61" t="n"/>
-      <c r="R26" s="61" t="n"/>
-      <c r="S26" s="49" t="inlineStr">
-        <is>
-          <t>CHLORIDE:</t>
-        </is>
-      </c>
-      <c r="T26" s="85" t="n"/>
-      <c r="U26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V26" s="20" t="n"/>
-      <c r="W26" s="33" t="n"/>
-      <c r="X26" s="33" t="n"/>
-      <c r="Y26" s="33" t="n"/>
-      <c r="Z26" s="33" t="n"/>
-      <c r="AA26" s="61" t="n"/>
-      <c r="AB26" s="53" t="inlineStr">
-        <is>
-          <t>H2S:</t>
-        </is>
-      </c>
-      <c r="AC26" s="70" t="n"/>
-      <c r="AD26" s="95" t="n"/>
-      <c r="AE26" s="95" t="n"/>
-      <c r="AF26" s="95" t="n"/>
-      <c r="AG26" s="95" t="n"/>
-      <c r="AH26" s="95" t="n"/>
-      <c r="AI26" s="95" t="n"/>
-      <c r="AJ26" s="28" t="n"/>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A27" s="37" t="n"/>
-      <c r="B27" s="61" t="n"/>
-      <c r="C27" s="61" t="n"/>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="61" t="n"/>
-      <c r="G27" s="61" t="n"/>
-      <c r="H27" s="24" t="inlineStr">
-        <is>
-          <t>METHANOL :</t>
-        </is>
-      </c>
-      <c r="I27" s="61" t="n"/>
-      <c r="J27" s="61" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n"/>
-      <c r="M27" s="33" t="n"/>
-      <c r="N27" s="33" t="n"/>
-      <c r="O27" s="33" t="n"/>
-      <c r="P27" s="33" t="n"/>
-      <c r="Q27" s="33" t="n"/>
-      <c r="R27" s="33" t="n"/>
-      <c r="S27" s="33" t="n"/>
-      <c r="T27" s="33" t="n"/>
-      <c r="U27" s="61" t="n"/>
-      <c r="V27" s="61" t="n"/>
-      <c r="W27" s="53" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="95" t="n"/>
-      <c r="Z27" s="95" t="n"/>
-      <c r="AA27" s="95" t="n"/>
-      <c r="AB27" s="95" t="n"/>
-      <c r="AC27" s="95" t="n"/>
-      <c r="AD27" s="95" t="n"/>
-      <c r="AE27" s="95" t="n"/>
-      <c r="AF27" s="95" t="n"/>
-      <c r="AG27" s="95" t="n"/>
-      <c r="AH27" s="95" t="n"/>
-      <c r="AI27" s="95" t="n"/>
-      <c r="AJ27" s="28" t="n"/>
-    </row>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A28" s="37" t="n"/>
-      <c r="B28" s="61" t="n"/>
-      <c r="C28" s="61" t="n"/>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="61" t="n"/>
-      <c r="G28" s="61" t="n"/>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="61" t="n"/>
-      <c r="J28" s="61" t="n"/>
-      <c r="K28" s="61" t="n"/>
-      <c r="L28" s="61" t="n"/>
-      <c r="M28" s="61" t="n"/>
-      <c r="N28" s="61" t="n"/>
-      <c r="O28" s="61" t="n"/>
-      <c r="P28" s="61" t="n"/>
-      <c r="Q28" s="61" t="n"/>
-      <c r="R28" s="61" t="n"/>
-      <c r="S28" s="61" t="n"/>
-      <c r="T28" s="61" t="n"/>
-      <c r="U28" s="61" t="n"/>
-      <c r="V28" s="61" t="n"/>
-      <c r="W28" s="61" t="n"/>
-      <c r="X28" s="61" t="n"/>
-      <c r="Y28" s="61" t="n"/>
-      <c r="Z28" s="61" t="n"/>
-      <c r="AA28" s="61" t="n"/>
-      <c r="AB28" s="61" t="n"/>
-      <c r="AC28" s="61" t="n"/>
-      <c r="AD28" s="61" t="n"/>
-      <c r="AE28" s="61" t="n"/>
-      <c r="AF28" s="61" t="n"/>
-      <c r="AG28" s="61" t="n"/>
-      <c r="AH28" s="61" t="n"/>
-      <c r="AI28" s="61" t="n"/>
-      <c r="AJ28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
-      <c r="G29" s="51" t="n"/>
-      <c r="H29" s="51" t="n"/>
-      <c r="I29" s="51" t="n"/>
-      <c r="J29" s="51" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-      <c r="P29" s="51" t="n"/>
-      <c r="Q29" s="51" t="n"/>
-      <c r="R29" s="51" t="n"/>
-      <c r="S29" s="52" t="inlineStr">
-        <is>
-          <t>M A T E R I A L S</t>
-        </is>
-      </c>
-      <c r="T29" s="51" t="n"/>
-      <c r="U29" s="51" t="n"/>
-      <c r="V29" s="51" t="n"/>
-      <c r="W29" s="51" t="n"/>
-      <c r="X29" s="51" t="n"/>
-      <c r="Y29" s="51" t="n"/>
-      <c r="Z29" s="51" t="n"/>
-      <c r="AA29" s="51" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="51" t="n"/>
-      <c r="AD29" s="51" t="n"/>
-      <c r="AE29" s="51" t="n"/>
-      <c r="AF29" s="51" t="n"/>
-      <c r="AG29" s="51" t="n"/>
-      <c r="AH29" s="51" t="n"/>
-      <c r="AI29" s="51" t="n"/>
-      <c r="AJ29" s="16" t="n"/>
-    </row>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="51" t="n"/>
-      <c r="C30" s="51" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
-      <c r="G30" s="51" t="n"/>
-      <c r="H30" s="51" t="n"/>
-      <c r="I30" s="51" t="n"/>
-      <c r="J30" s="51" t="n"/>
-      <c r="K30" s="51" t="n"/>
-      <c r="L30" s="51" t="n"/>
-      <c r="M30" s="51" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-      <c r="P30" s="51" t="n"/>
-      <c r="Q30" s="51" t="n"/>
-      <c r="R30" s="51" t="n"/>
-      <c r="S30" s="52" t="n"/>
-      <c r="T30" s="51" t="n"/>
-      <c r="U30" s="51" t="n"/>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="51" t="n"/>
-      <c r="X30" s="51" t="n"/>
-      <c r="Y30" s="51" t="n"/>
-      <c r="Z30" s="51" t="n"/>
-      <c r="AA30" s="51" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="51" t="n"/>
-      <c r="AD30" s="51" t="n"/>
-      <c r="AE30" s="51" t="n"/>
-      <c r="AF30" s="51" t="n"/>
-      <c r="AG30" s="51" t="n"/>
-      <c r="AH30" s="51" t="n"/>
-      <c r="AI30" s="51" t="n"/>
-      <c r="AJ30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="42" t="n"/>
-      <c r="G31" s="42" t="n"/>
-      <c r="H31" s="67" t="inlineStr">
-        <is>
-          <t>ASTM A105</t>
-        </is>
-      </c>
-      <c r="I31" s="95" t="n"/>
-      <c r="J31" s="95" t="n"/>
-      <c r="K31" s="95" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="95" t="n"/>
-      <c r="N31" s="95" t="n"/>
-      <c r="O31" s="95" t="n"/>
-      <c r="P31" s="95" t="n"/>
-      <c r="Q31" s="95" t="n"/>
-      <c r="R31" s="95" t="n"/>
-      <c r="S31" s="95" t="n"/>
-      <c r="T31" s="95" t="n"/>
-      <c r="U31" s="95" t="n"/>
-      <c r="V31" s="95" t="n"/>
-      <c r="W31" s="95" t="n"/>
-      <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AC31" s="68" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD31" s="95" t="n"/>
-      <c r="AE31" s="95" t="n"/>
-      <c r="AF31" s="95" t="n"/>
-      <c r="AG31" s="95" t="n"/>
-      <c r="AH31" s="95" t="n"/>
-      <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
-      <c r="E32" s="42" t="n"/>
-      <c r="F32" s="42" t="n"/>
-      <c r="G32" s="42" t="n"/>
-      <c r="H32" s="67" t="inlineStr">
-        <is>
-          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="95" t="n"/>
-      <c r="Z32" s="95" t="n"/>
-      <c r="AA32" s="95" t="n"/>
-      <c r="AB32" s="95" t="n"/>
-      <c r="AC32" s="95" t="n"/>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="67" t="inlineStr">
-        <is>
-          <t>STEM: GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I33" s="95" t="n"/>
-      <c r="J33" s="95" t="n"/>
-      <c r="K33" s="95" t="n"/>
-      <c r="L33" s="95" t="n"/>
-      <c r="M33" s="95" t="n"/>
-      <c r="N33" s="95" t="n"/>
-      <c r="O33" s="95" t="n"/>
-      <c r="P33" s="95" t="n"/>
-      <c r="Q33" s="95" t="n"/>
-      <c r="R33" s="95" t="n"/>
-      <c r="S33" s="95" t="n"/>
-      <c r="T33" s="95" t="n"/>
-      <c r="U33" s="95" t="n"/>
-      <c r="V33" s="95" t="n"/>
-      <c r="W33" s="95" t="n"/>
-      <c r="X33" s="95" t="n"/>
-      <c r="Y33" s="95" t="n"/>
-      <c r="Z33" s="95" t="n"/>
-      <c r="AA33" s="95" t="n"/>
-      <c r="AB33" s="95" t="n"/>
-      <c r="AC33" s="95" t="n"/>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="83" t="inlineStr">
-        <is>
-          <t>BALL:</t>
-        </is>
-      </c>
-      <c r="B34" s="42" t="n"/>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="67" t="inlineStr">
-        <is>
-          <t>AISI 316</t>
-        </is>
-      </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
-    </row>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
-        </is>
-      </c>
-      <c r="B35" s="42" t="n"/>
-      <c r="C35" s="42" t="n"/>
-      <c r="D35" s="42" t="n"/>
-      <c r="E35" s="42" t="n"/>
-      <c r="F35" s="42" t="n"/>
-      <c r="G35" s="42" t="n"/>
-      <c r="H35" s="67" t="inlineStr">
-        <is>
-          <t>AISI 316</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
-        </is>
-      </c>
-      <c r="B36" s="42" t="n"/>
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="67" t="inlineStr">
-        <is>
-          <t>RINGS: RPTFE</t>
-        </is>
-      </c>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
-      <c r="B37" s="42" t="n"/>
-      <c r="C37" s="42" t="n"/>
-      <c r="D37" s="42" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="42" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="67" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="n"/>
-      <c r="B38" s="42" t="n"/>
-      <c r="C38" s="42" t="n"/>
-      <c r="D38" s="42" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="42" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="67" t="n"/>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
-      <c r="B39" s="42" t="n"/>
-      <c r="C39" s="42" t="n"/>
-      <c r="D39" s="42" t="n"/>
-      <c r="E39" s="42" t="n"/>
-      <c r="F39" s="42" t="n"/>
-      <c r="G39" s="42" t="n"/>
-      <c r="H39" s="67" t="inlineStr">
-        <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
-        </is>
-      </c>
-      <c r="I39" s="95" t="n"/>
-      <c r="J39" s="95" t="n"/>
-      <c r="K39" s="95" t="n"/>
-      <c r="L39" s="95" t="n"/>
-      <c r="M39" s="95" t="n"/>
-      <c r="N39" s="95" t="n"/>
-      <c r="O39" s="95" t="n"/>
-      <c r="P39" s="95" t="n"/>
-      <c r="Q39" s="95" t="n"/>
-      <c r="R39" s="95" t="n"/>
-      <c r="S39" s="95" t="n"/>
-      <c r="T39" s="95" t="n"/>
-      <c r="U39" s="95" t="n"/>
-      <c r="V39" s="95" t="n"/>
-      <c r="W39" s="95" t="n"/>
-      <c r="X39" s="95" t="n"/>
-      <c r="Y39" s="95" t="n"/>
-      <c r="Z39" s="95" t="n"/>
-      <c r="AA39" s="95" t="n"/>
-      <c r="AB39" s="95" t="n"/>
-      <c r="AC39" s="95" t="n"/>
-      <c r="AD39" s="95" t="n"/>
-      <c r="AE39" s="95" t="n"/>
-      <c r="AF39" s="95" t="n"/>
-      <c r="AG39" s="95" t="n"/>
-      <c r="AH39" s="95" t="n"/>
-      <c r="AI39" s="95" t="n"/>
-      <c r="AJ39" s="16" t="n"/>
-    </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="42" t="n"/>
-      <c r="C40" s="42" t="n"/>
-      <c r="D40" s="42" t="n"/>
-      <c r="E40" s="42" t="n"/>
-      <c r="F40" s="42" t="n"/>
-      <c r="G40" s="42" t="n"/>
-      <c r="H40" s="67" t="n"/>
-      <c r="I40" s="95" t="n"/>
-      <c r="J40" s="95" t="n"/>
-      <c r="K40" s="95" t="n"/>
-      <c r="L40" s="95" t="n"/>
-      <c r="M40" s="95" t="n"/>
-      <c r="N40" s="95" t="n"/>
-      <c r="O40" s="95" t="n"/>
-      <c r="P40" s="95" t="n"/>
-      <c r="Q40" s="95" t="n"/>
-      <c r="R40" s="95" t="n"/>
-      <c r="S40" s="95" t="n"/>
-      <c r="T40" s="95" t="n"/>
-      <c r="U40" s="95" t="n"/>
-      <c r="V40" s="95" t="n"/>
-      <c r="W40" s="95" t="n"/>
-      <c r="X40" s="95" t="n"/>
-      <c r="Y40" s="95" t="n"/>
-      <c r="Z40" s="95" t="n"/>
-      <c r="AA40" s="95" t="n"/>
-      <c r="AB40" s="95" t="n"/>
-      <c r="AC40" s="95" t="n"/>
-      <c r="AD40" s="95" t="n"/>
-      <c r="AE40" s="95" t="n"/>
-      <c r="AF40" s="95" t="n"/>
-      <c r="AG40" s="95" t="n"/>
-      <c r="AH40" s="95" t="n"/>
-      <c r="AI40" s="95" t="n"/>
-      <c r="AJ40" s="16" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="37" t="n"/>
-      <c r="B41" s="61" t="n"/>
-      <c r="C41" s="61" t="n"/>
-      <c r="D41" s="61" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="61" t="n"/>
-      <c r="G41" s="61" t="n"/>
-      <c r="H41" s="61" t="n"/>
-      <c r="I41" s="61" t="n"/>
-      <c r="J41" s="61" t="n"/>
-      <c r="K41" s="61" t="n"/>
-      <c r="L41" s="61" t="n"/>
-      <c r="M41" s="61" t="n"/>
-      <c r="N41" s="61" t="n"/>
-      <c r="O41" s="61" t="n"/>
-      <c r="P41" s="61" t="n"/>
-      <c r="Q41" s="61" t="n"/>
-      <c r="R41" s="61" t="n"/>
-      <c r="S41" s="61" t="n"/>
-      <c r="T41" s="61" t="n"/>
-      <c r="U41" s="61" t="n"/>
-      <c r="V41" s="61" t="n"/>
-      <c r="W41" s="61" t="n"/>
-      <c r="X41" s="61" t="n"/>
-      <c r="Y41" s="61" t="n"/>
-      <c r="Z41" s="61" t="n"/>
-      <c r="AA41" s="61" t="n"/>
-      <c r="AB41" s="61" t="n"/>
-      <c r="AC41" s="61" t="n"/>
-      <c r="AD41" s="61" t="n"/>
-      <c r="AE41" s="61" t="n"/>
-      <c r="AF41" s="61" t="n"/>
-      <c r="AG41" s="61" t="n"/>
-      <c r="AH41" s="61" t="n"/>
-      <c r="AI41" s="61" t="n"/>
-      <c r="AJ41" s="28" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A42" s="15" t="n"/>
-      <c r="B42" s="51" t="n"/>
-      <c r="C42" s="51" t="n"/>
-      <c r="D42" s="51" t="n"/>
-      <c r="E42" s="51" t="n"/>
-      <c r="F42" s="51" t="n"/>
-      <c r="G42" s="51" t="n"/>
-      <c r="H42" s="51" t="n"/>
-      <c r="I42" s="51" t="n"/>
-      <c r="J42" s="51" t="n"/>
-      <c r="K42" s="51" t="n"/>
-      <c r="L42" s="51" t="n"/>
-      <c r="M42" s="51" t="n"/>
-      <c r="N42" s="51" t="n"/>
-      <c r="O42" s="51" t="n"/>
-      <c r="P42" s="51" t="n"/>
-      <c r="Q42" s="51" t="n"/>
-      <c r="R42" s="51" t="n"/>
-      <c r="S42" s="52" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T42" s="51" t="n"/>
-      <c r="U42" s="51" t="n"/>
-      <c r="V42" s="51" t="n"/>
-      <c r="W42" s="51" t="n"/>
-      <c r="X42" s="51" t="n"/>
-      <c r="Y42" s="51" t="n"/>
-      <c r="Z42" s="51" t="n"/>
-      <c r="AA42" s="51" t="n"/>
-      <c r="AB42" s="51" t="n"/>
-      <c r="AC42" s="51" t="n"/>
-      <c r="AD42" s="51" t="n"/>
-      <c r="AE42" s="51" t="n"/>
-      <c r="AF42" s="51" t="n"/>
-      <c r="AG42" s="51" t="n"/>
-      <c r="AH42" s="51" t="n"/>
-      <c r="AI42" s="51" t="n"/>
-      <c r="AJ42" s="16" t="n"/>
-    </row>
-    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="38" t="n"/>
-      <c r="B43" s="33" t="n"/>
-      <c r="C43" s="33" t="n"/>
-      <c r="D43" s="33" t="n"/>
-      <c r="E43" s="33" t="n"/>
-      <c r="F43" s="33" t="n"/>
-      <c r="G43" s="33" t="n"/>
-      <c r="H43" s="33" t="n"/>
-      <c r="I43" s="33" t="n"/>
-      <c r="J43" s="33" t="n"/>
-      <c r="K43" s="33" t="n"/>
-      <c r="L43" s="33" t="n"/>
-      <c r="M43" s="33" t="n"/>
-      <c r="N43" s="33" t="n"/>
-      <c r="O43" s="33" t="n"/>
-      <c r="P43" s="33" t="n"/>
-      <c r="Q43" s="33" t="n"/>
-      <c r="R43" s="33" t="n"/>
-      <c r="S43" s="33" t="n"/>
-      <c r="T43" s="33" t="n"/>
-      <c r="U43" s="33" t="n"/>
-      <c r="V43" s="33" t="n"/>
-      <c r="W43" s="33" t="n"/>
-      <c r="X43" s="33" t="n"/>
-      <c r="Y43" s="33" t="n"/>
-      <c r="Z43" s="33" t="n"/>
-      <c r="AA43" s="33" t="n"/>
-      <c r="AB43" s="33" t="n"/>
-      <c r="AC43" s="33" t="n"/>
-      <c r="AD43" s="33" t="n"/>
-      <c r="AE43" s="33" t="n"/>
-      <c r="AF43" s="33" t="n"/>
-      <c r="AG43" s="33" t="n"/>
-      <c r="AH43" s="33" t="n"/>
-      <c r="AI43" s="33" t="n"/>
-      <c r="AJ43" s="34" t="n"/>
-    </row>
-    <row r="44" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A44" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 
-</t>
-        </is>
-      </c>
-      <c r="B44" s="23" t="inlineStr">
-        <is>
-          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C44" s="23" t="n"/>
-      <c r="D44" s="23" t="n"/>
-      <c r="E44" s="23" t="n"/>
-      <c r="F44" s="23" t="n"/>
-      <c r="G44" s="23" t="n"/>
-      <c r="H44" s="23" t="n"/>
-      <c r="I44" s="23" t="n"/>
-      <c r="J44" s="23" t="n"/>
-      <c r="K44" s="23" t="n"/>
-      <c r="L44" s="23" t="n"/>
-      <c r="M44" s="23" t="n"/>
-      <c r="N44" s="23" t="n"/>
-      <c r="O44" s="23" t="n"/>
-      <c r="P44" s="23" t="n"/>
-      <c r="Q44" s="23" t="n"/>
-      <c r="R44" s="23" t="n"/>
-      <c r="S44" s="23" t="n"/>
-      <c r="T44" s="23" t="n"/>
-      <c r="U44" s="23" t="n"/>
-      <c r="V44" s="23" t="n"/>
-      <c r="W44" s="23" t="n"/>
-      <c r="X44" s="23" t="n"/>
-      <c r="Y44" s="23" t="n"/>
-      <c r="Z44" s="23" t="n"/>
-      <c r="AA44" s="23" t="n"/>
-      <c r="AB44" s="23" t="n"/>
-      <c r="AC44" s="23" t="n"/>
-      <c r="AD44" s="23" t="n"/>
-      <c r="AE44" s="23" t="n"/>
-      <c r="AF44" s="23" t="n"/>
-      <c r="AG44" s="23" t="n"/>
-      <c r="AH44" s="23" t="n"/>
-      <c r="AI44" s="23" t="n"/>
-      <c r="AJ44" s="34" t="n"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
-      <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="n"/>
-      <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="n"/>
-      <c r="T45" s="2" t="n"/>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
-      <c r="W45" s="2" t="n"/>
-      <c r="X45" s="2" t="n"/>
-      <c r="Y45" s="2" t="n"/>
-      <c r="Z45" s="2" t="n"/>
-      <c r="AA45" s="2" t="n"/>
-      <c r="AB45" s="2" t="n"/>
-      <c r="AC45" s="2" t="n"/>
-      <c r="AD45" s="2" t="n"/>
-      <c r="AE45" s="2" t="n"/>
-      <c r="AF45" s="2" t="n"/>
-      <c r="AG45" s="2" t="n"/>
-      <c r="AH45" s="2" t="n"/>
-      <c r="AI45" s="2" t="n"/>
-      <c r="AJ45" s="2" t="n"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="B46:AH46"/>
-    <mergeCell ref="H33:AI33"/>
-    <mergeCell ref="H34:AI34"/>
-    <mergeCell ref="H35:AI35"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="H39:AI39"/>
-    <mergeCell ref="H40:AI40"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="H32:AI32"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
-  </mergeCells>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7699,7 +3414,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>8, 10, 24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -9542,7 +5257,2000 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>CHECK VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>CLV24F0B2B</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>HCN &amp; HCR</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>LIFT CHECK VALVE</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="n">
+        <v>800</v>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr"/>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr"/>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr"/>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="80" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="n"/>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="80" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="n"/>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AJ15" s="98" t="n"/>
+    </row>
+    <row r="16" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="n"/>
+      <c r="P16" s="80" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="n"/>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="80" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="28" t="n"/>
+    </row>
+    <row r="17" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="n"/>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="61" t="inlineStr"/>
+      <c r="I17" s="61" t="n"/>
+      <c r="J17" s="61" t="n"/>
+      <c r="K17" s="61" t="n"/>
+      <c r="L17" s="61" t="n"/>
+      <c r="M17" s="61" t="n"/>
+      <c r="N17" s="61" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr"/>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr"/>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr"/>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>285</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="58" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="58" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="85" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>TRIM:</t>
+        </is>
+      </c>
+      <c r="AA31" s="42" t="n"/>
+      <c r="AB31" s="42" t="n"/>
+      <c r="AC31" s="70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="85" t="inlineStr">
+        <is>
+          <t>BOLTED COVER: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="42" t="n"/>
+      <c r="Z32" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AA32" s="42" t="n"/>
+      <c r="AB32" s="42" t="n"/>
+      <c r="AC32" s="70" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>SEAT:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="86" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="I33" s="97" t="n"/>
+      <c r="J33" s="97" t="n"/>
+      <c r="K33" s="97" t="n"/>
+      <c r="L33" s="97" t="n"/>
+      <c r="M33" s="97" t="n"/>
+      <c r="N33" s="97" t="n"/>
+      <c r="O33" s="97" t="n"/>
+      <c r="P33" s="97" t="n"/>
+      <c r="Q33" s="97" t="n"/>
+      <c r="R33" s="97" t="n"/>
+      <c r="S33" s="97" t="n"/>
+      <c r="T33" s="97" t="n"/>
+      <c r="U33" s="97" t="n"/>
+      <c r="V33" s="97" t="n"/>
+      <c r="W33" s="97" t="n"/>
+      <c r="X33" s="97" t="n"/>
+      <c r="Y33" s="42" t="n"/>
+      <c r="Z33" s="81" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="AA33" s="42" t="n"/>
+      <c r="AB33" s="42" t="n"/>
+      <c r="AC33" s="70" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="83" t="inlineStr">
+        <is>
+          <t>SYSTEM:</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="67" t="inlineStr"/>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="67" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="18" t="n"/>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="67" t="n"/>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="67" t="inlineStr">
+        <is>
+          <t>INSTALLATION: HORIZONTAL OR VERTICAL, PISTON TYPE: OBTURATOR</t>
+        </is>
+      </c>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="n"/>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="67" t="n"/>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A39" s="37" t="n"/>
+      <c r="B39" s="61" t="n"/>
+      <c r="C39" s="61" t="n"/>
+      <c r="D39" s="61" t="n"/>
+      <c r="E39" s="61" t="n"/>
+      <c r="F39" s="61" t="n"/>
+      <c r="G39" s="61" t="n"/>
+      <c r="H39" s="61" t="n"/>
+      <c r="I39" s="61" t="n"/>
+      <c r="J39" s="61" t="n"/>
+      <c r="K39" s="61" t="n"/>
+      <c r="L39" s="61" t="n"/>
+      <c r="M39" s="61" t="n"/>
+      <c r="N39" s="61" t="n"/>
+      <c r="O39" s="61" t="n"/>
+      <c r="P39" s="61" t="n"/>
+      <c r="Q39" s="61" t="n"/>
+      <c r="R39" s="61" t="n"/>
+      <c r="S39" s="61" t="n"/>
+      <c r="T39" s="61" t="n"/>
+      <c r="U39" s="61" t="n"/>
+      <c r="V39" s="61" t="n"/>
+      <c r="W39" s="61" t="n"/>
+      <c r="X39" s="61" t="n"/>
+      <c r="Y39" s="61" t="n"/>
+      <c r="Z39" s="61" t="n"/>
+      <c r="AA39" s="61" t="n"/>
+      <c r="AB39" s="61" t="n"/>
+      <c r="AC39" s="61" t="n"/>
+      <c r="AD39" s="61" t="n"/>
+      <c r="AE39" s="61" t="n"/>
+      <c r="AF39" s="61" t="n"/>
+      <c r="AG39" s="61" t="n"/>
+      <c r="AH39" s="61" t="n"/>
+      <c r="AI39" s="61" t="n"/>
+      <c r="AJ39" s="28" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A40" s="15" t="n"/>
+      <c r="B40" s="51" t="n"/>
+      <c r="C40" s="51" t="n"/>
+      <c r="D40" s="51" t="n"/>
+      <c r="E40" s="51" t="n"/>
+      <c r="F40" s="51" t="n"/>
+      <c r="G40" s="51" t="n"/>
+      <c r="H40" s="51" t="n"/>
+      <c r="I40" s="51" t="n"/>
+      <c r="J40" s="51" t="n"/>
+      <c r="K40" s="51" t="n"/>
+      <c r="L40" s="51" t="n"/>
+      <c r="M40" s="51" t="n"/>
+      <c r="N40" s="51" t="n"/>
+      <c r="O40" s="51" t="n"/>
+      <c r="P40" s="51" t="n"/>
+      <c r="Q40" s="51" t="n"/>
+      <c r="R40" s="51" t="n"/>
+      <c r="S40" s="52" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T40" s="51" t="n"/>
+      <c r="U40" s="51" t="n"/>
+      <c r="V40" s="51" t="n"/>
+      <c r="W40" s="51" t="n"/>
+      <c r="X40" s="51" t="n"/>
+      <c r="Y40" s="51" t="n"/>
+      <c r="Z40" s="51" t="n"/>
+      <c r="AA40" s="51" t="n"/>
+      <c r="AB40" s="51" t="n"/>
+      <c r="AC40" s="51" t="n"/>
+      <c r="AD40" s="51" t="n"/>
+      <c r="AE40" s="51" t="n"/>
+      <c r="AF40" s="51" t="n"/>
+      <c r="AG40" s="51" t="n"/>
+      <c r="AH40" s="51" t="n"/>
+      <c r="AI40" s="51" t="n"/>
+      <c r="AJ40" s="16" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A41" s="38" t="n"/>
+      <c r="B41" s="33" t="n"/>
+      <c r="C41" s="33" t="n"/>
+      <c r="D41" s="33" t="n"/>
+      <c r="E41" s="33" t="n"/>
+      <c r="F41" s="33" t="n"/>
+      <c r="G41" s="33" t="n"/>
+      <c r="H41" s="33" t="n"/>
+      <c r="I41" s="33" t="n"/>
+      <c r="J41" s="33" t="n"/>
+      <c r="K41" s="33" t="n"/>
+      <c r="L41" s="33" t="n"/>
+      <c r="M41" s="33" t="n"/>
+      <c r="N41" s="33" t="n"/>
+      <c r="O41" s="33" t="n"/>
+      <c r="P41" s="33" t="n"/>
+      <c r="Q41" s="33" t="n"/>
+      <c r="R41" s="33" t="n"/>
+      <c r="S41" s="33" t="n"/>
+      <c r="T41" s="33" t="n"/>
+      <c r="U41" s="33" t="n"/>
+      <c r="V41" s="33" t="n"/>
+      <c r="W41" s="33" t="n"/>
+      <c r="X41" s="33" t="n"/>
+      <c r="Y41" s="33" t="n"/>
+      <c r="Z41" s="33" t="n"/>
+      <c r="AA41" s="33" t="n"/>
+      <c r="AB41" s="33" t="n"/>
+      <c r="AC41" s="33" t="n"/>
+      <c r="AD41" s="33" t="n"/>
+      <c r="AE41" s="33" t="n"/>
+      <c r="AF41" s="33" t="n"/>
+      <c r="AG41" s="33" t="n"/>
+      <c r="AH41" s="33" t="n"/>
+      <c r="AI41" s="33" t="n"/>
+      <c r="AJ41" s="34" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A42" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B42" s="86" t="inlineStr">
+        <is>
+          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C42" s="97" t="n"/>
+      <c r="D42" s="97" t="n"/>
+      <c r="E42" s="97" t="n"/>
+      <c r="F42" s="97" t="n"/>
+      <c r="G42" s="97" t="n"/>
+      <c r="H42" s="97" t="n"/>
+      <c r="I42" s="97" t="n"/>
+      <c r="J42" s="97" t="n"/>
+      <c r="K42" s="97" t="n"/>
+      <c r="L42" s="97" t="n"/>
+      <c r="M42" s="97" t="n"/>
+      <c r="N42" s="97" t="n"/>
+      <c r="O42" s="97" t="n"/>
+      <c r="P42" s="97" t="n"/>
+      <c r="Q42" s="97" t="n"/>
+      <c r="R42" s="97" t="n"/>
+      <c r="S42" s="97" t="n"/>
+      <c r="T42" s="97" t="n"/>
+      <c r="U42" s="97" t="n"/>
+      <c r="V42" s="97" t="n"/>
+      <c r="W42" s="97" t="n"/>
+      <c r="X42" s="97" t="n"/>
+      <c r="Y42" s="97" t="n"/>
+      <c r="Z42" s="97" t="n"/>
+      <c r="AA42" s="97" t="n"/>
+      <c r="AB42" s="97" t="n"/>
+      <c r="AC42" s="97" t="n"/>
+      <c r="AD42" s="97" t="n"/>
+      <c r="AE42" s="97" t="n"/>
+      <c r="AF42" s="97" t="n"/>
+      <c r="AG42" s="97" t="n"/>
+      <c r="AH42" s="97" t="n"/>
+      <c r="AI42" s="97" t="n"/>
+      <c r="AJ42" s="34" t="n"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="2" t="n"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
+      <c r="W43" s="2" t="n"/>
+      <c r="X43" s="2" t="n"/>
+      <c r="Y43" s="2" t="n"/>
+      <c r="Z43" s="2" t="n"/>
+      <c r="AA43" s="2" t="n"/>
+      <c r="AB43" s="2" t="n"/>
+      <c r="AC43" s="2" t="n"/>
+      <c r="AD43" s="2" t="n"/>
+      <c r="AE43" s="2" t="n"/>
+      <c r="AF43" s="2" t="n"/>
+      <c r="AG43" s="2" t="n"/>
+      <c r="AH43" s="2" t="n"/>
+      <c r="AI43" s="2" t="n"/>
+      <c r="AJ43" s="2" t="n"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="B44" s="82" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="B42:AI42"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AC33:AI33"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="H32:X32"/>
+    <mergeCell ref="H33:X33"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="B44:AH44"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="AC32:AI32"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+  </mergeCells>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9654,7 +7362,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>GAV21A0B2B</t>
+          <t>GAV24F0B2B</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -9700,7 +7408,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3/4</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -9992,7 +7700,7 @@
         </is>
       </c>
       <c r="AC10" s="70" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="AD10" s="95" t="n"/>
       <c r="AE10" s="95" t="n"/>
@@ -10022,11 +7730,7 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L11" s="69" t="inlineStr"/>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -10038,11 +7742,7 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
+      <c r="T11" s="69" t="inlineStr"/>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -10055,7 +7755,11 @@
         </is>
       </c>
       <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AC11" s="71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD11" s="95" t="n"/>
       <c r="AE11" s="66" t="inlineStr">
         <is>
@@ -10177,11 +7881,7 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -10193,7 +7893,11 @@
           <t>ASME B16.11</t>
         </is>
       </c>
-      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Y14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z14" s="95" t="n"/>
       <c r="AA14" s="95" t="n"/>
       <c r="AB14" s="61" t="n"/>
@@ -10492,11 +8196,7 @@
           <t>API 600</t>
         </is>
       </c>
-      <c r="I22" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I22" s="68" t="inlineStr"/>
       <c r="J22" s="95" t="n"/>
       <c r="K22" s="61" t="n"/>
       <c r="L22" s="61" t="n"/>
@@ -10526,7 +8226,11 @@
           <t>API 602</t>
         </is>
       </c>
-      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AA22" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB22" s="95" t="n"/>
       <c r="AC22" s="61" t="n"/>
       <c r="AD22" s="61" t="n"/>
@@ -10928,7 +8632,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM A216 Gr.WCB</t>
+          <t>ASTM A105</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -11248,7 +8952,7 @@
       <c r="G38" s="42" t="n"/>
       <c r="H38" s="67" t="inlineStr">
         <is>
-          <t>FLEXIBLE WEDGE, STEM: OS&amp;Y/RSNRO</t>
+          <t>SOLID WEDGE, STEM: OS&amp;Y/RSNRO</t>
         </is>
       </c>
       <c r="I38" s="95" t="n"/>
@@ -11542,13 +9246,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11573,20 +9277,20 @@
       <c r="J1" s="12" t="n"/>
       <c r="K1" s="12" t="n"/>
       <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>GATE VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
+      <c r="M1" s="39" t="inlineStr">
+        <is>
+          <t>DOUBLE BLOCK AND BLEED VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="N1" s="39" t="n"/>
+      <c r="O1" s="39" t="n"/>
+      <c r="P1" s="39" t="n"/>
+      <c r="Q1" s="39" t="n"/>
+      <c r="R1" s="39" t="n"/>
+      <c r="S1" s="39" t="n"/>
+      <c r="T1" s="39" t="n"/>
+      <c r="U1" s="39" t="n"/>
+      <c r="V1" s="39" t="n"/>
       <c r="W1" s="12" t="n"/>
       <c r="X1" s="12" t="n"/>
       <c r="Y1" s="12" t="n"/>
@@ -11654,7 +9358,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>GAV21A0B2B</t>
+          <t>MFV21A0I2I</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -11700,7 +9404,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3/4</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -11948,7 +9652,7 @@
       <c r="AG9" s="61" t="n"/>
       <c r="AH9" s="61" t="n"/>
       <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
+      <c r="AJ9" s="16" t="n"/>
     </row>
     <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A10" s="17" t="inlineStr">
@@ -11964,7 +9668,7 @@
       <c r="G10" s="61" t="n"/>
       <c r="H10" s="69" t="inlineStr">
         <is>
-          <t>GATE VALVE</t>
+          <t>INTEGRAL MONOGLANGE, DBB VALVE</t>
         </is>
       </c>
       <c r="I10" s="95" t="n"/>
@@ -12022,11 +9726,7 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L11" s="69" t="inlineStr"/>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -12038,11 +9738,7 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
+      <c r="T11" s="69" t="inlineStr"/>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -12106,7 +9802,11 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>RFxFNPT</t>
+        </is>
+      </c>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -12177,11 +9877,7 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -12204,7 +9900,11 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>ASBE B16.5xB1.20.1</t>
+        </is>
+      </c>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -12283,7 +9983,7 @@
       <c r="G17" s="61" t="n"/>
       <c r="H17" s="69" t="inlineStr">
         <is>
-          <t>GEAR OPERATOR</t>
+          <t>T-HANDLE OPERATOR</t>
         </is>
       </c>
       <c r="I17" s="95" t="n"/>
@@ -12492,11 +10192,7 @@
           <t>API 600</t>
         </is>
       </c>
-      <c r="I22" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I22" s="68" t="inlineStr"/>
       <c r="J22" s="95" t="n"/>
       <c r="K22" s="61" t="n"/>
       <c r="L22" s="61" t="n"/>
@@ -12535,7 +10231,11 @@
           <t>OTHER</t>
         </is>
       </c>
-      <c r="AG22" s="68" t="inlineStr"/>
+      <c r="AG22" s="68" t="inlineStr">
+        <is>
+          <t>EEMUA 182</t>
+        </is>
+      </c>
       <c r="AH22" s="95" t="n"/>
       <c r="AI22" s="95" t="n"/>
       <c r="AJ22" s="28" t="n"/>
@@ -12675,11 +10375,7 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr">
-        <is>
-          <t>API 598</t>
-        </is>
-      </c>
+      <c r="AB25" s="77" t="inlineStr"/>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -12834,7 +10530,7 @@
       <c r="AI28" s="61" t="n"/>
       <c r="AJ28" s="28" t="n"/>
     </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+    <row r="29" ht="15" customHeight="1">
       <c r="A29" s="15" t="n"/>
       <c r="B29" s="51" t="n"/>
       <c r="C29" s="51" t="n"/>
@@ -12853,7 +10549,7 @@
       <c r="P29" s="51" t="n"/>
       <c r="Q29" s="51" t="n"/>
       <c r="R29" s="51" t="n"/>
-      <c r="S29" s="52" t="inlineStr">
+      <c r="S29" s="58" t="inlineStr">
         <is>
           <t>M A T E R I A L S</t>
         </is>
@@ -12876,7 +10572,7 @@
       <c r="AI29" s="51" t="n"/>
       <c r="AJ29" s="16" t="n"/>
     </row>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="15" t="n"/>
       <c r="B30" s="51" t="n"/>
       <c r="C30" s="51" t="n"/>
@@ -12895,7 +10591,7 @@
       <c r="P30" s="51" t="n"/>
       <c r="Q30" s="51" t="n"/>
       <c r="R30" s="51" t="n"/>
-      <c r="S30" s="52" t="n"/>
+      <c r="S30" s="58" t="n"/>
       <c r="T30" s="51" t="n"/>
       <c r="U30" s="51" t="n"/>
       <c r="V30" s="51" t="n"/>
@@ -12915,9 +10611,9 @@
       <c r="AJ30" s="16" t="n"/>
     </row>
     <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
+      <c r="A31" s="43" t="inlineStr">
+        <is>
+          <t>BODY:</t>
         </is>
       </c>
       <c r="B31" s="42" t="n"/>
@@ -12926,9 +10622,9 @@
       <c r="E31" s="42" t="n"/>
       <c r="F31" s="42" t="n"/>
       <c r="G31" s="42" t="n"/>
-      <c r="H31" s="67" t="inlineStr">
-        <is>
-          <t>ASTM A216 Gr.WCB</t>
+      <c r="H31" s="92" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -12947,29 +10643,23 @@
       <c r="V31" s="95" t="n"/>
       <c r="W31" s="95" t="n"/>
       <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AC31" s="68" t="inlineStr">
-        <is>
-          <t>GRAPHITE</t>
-        </is>
-      </c>
+      <c r="Y31" s="95" t="n"/>
+      <c r="Z31" s="95" t="n"/>
+      <c r="AA31" s="95" t="n"/>
+      <c r="AB31" s="95" t="n"/>
+      <c r="AC31" s="95" t="n"/>
       <c r="AD31" s="95" t="n"/>
       <c r="AE31" s="95" t="n"/>
       <c r="AF31" s="95" t="n"/>
       <c r="AG31" s="95" t="n"/>
       <c r="AH31" s="95" t="n"/>
       <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
+      <c r="AJ31" s="64" t="n"/>
     </row>
     <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
+      <c r="A32" s="43" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
         </is>
       </c>
       <c r="B32" s="42" t="n"/>
@@ -12978,44 +10668,44 @@
       <c r="E32" s="42" t="n"/>
       <c r="F32" s="42" t="n"/>
       <c r="G32" s="42" t="n"/>
-      <c r="H32" s="67" t="inlineStr">
-        <is>
-          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="95" t="n"/>
-      <c r="Z32" s="95" t="n"/>
-      <c r="AA32" s="95" t="n"/>
-      <c r="AB32" s="95" t="n"/>
-      <c r="AC32" s="95" t="n"/>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
+      <c r="H32" s="93" t="inlineStr">
+        <is>
+          <t>GRAPHITE</t>
+        </is>
+      </c>
+      <c r="I32" s="97" t="n"/>
+      <c r="J32" s="97" t="n"/>
+      <c r="K32" s="97" t="n"/>
+      <c r="L32" s="97" t="n"/>
+      <c r="M32" s="97" t="n"/>
+      <c r="N32" s="97" t="n"/>
+      <c r="O32" s="97" t="n"/>
+      <c r="P32" s="97" t="n"/>
+      <c r="Q32" s="97" t="n"/>
+      <c r="R32" s="97" t="n"/>
+      <c r="S32" s="97" t="n"/>
+      <c r="T32" s="97" t="n"/>
+      <c r="U32" s="97" t="n"/>
+      <c r="V32" s="97" t="n"/>
+      <c r="W32" s="97" t="n"/>
+      <c r="X32" s="97" t="n"/>
+      <c r="Y32" s="97" t="n"/>
+      <c r="Z32" s="97" t="n"/>
+      <c r="AA32" s="97" t="n"/>
+      <c r="AB32" s="97" t="n"/>
+      <c r="AC32" s="97" t="n"/>
+      <c r="AD32" s="97" t="n"/>
+      <c r="AE32" s="97" t="n"/>
+      <c r="AF32" s="97" t="n"/>
+      <c r="AG32" s="97" t="n"/>
+      <c r="AH32" s="97" t="n"/>
+      <c r="AI32" s="97" t="n"/>
+      <c r="AJ32" s="64" t="n"/>
     </row>
     <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>STEM / STEM TIP:</t>
         </is>
       </c>
       <c r="B33" s="42" t="n"/>
@@ -13024,44 +10714,44 @@
       <c r="E33" s="42" t="n"/>
       <c r="F33" s="42" t="n"/>
       <c r="G33" s="42" t="n"/>
-      <c r="H33" s="67" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="I33" s="95" t="n"/>
-      <c r="J33" s="95" t="n"/>
-      <c r="K33" s="95" t="n"/>
-      <c r="L33" s="95" t="n"/>
-      <c r="M33" s="95" t="n"/>
-      <c r="N33" s="95" t="n"/>
-      <c r="O33" s="95" t="n"/>
-      <c r="P33" s="95" t="n"/>
-      <c r="Q33" s="95" t="n"/>
-      <c r="R33" s="95" t="n"/>
-      <c r="S33" s="95" t="n"/>
-      <c r="T33" s="95" t="n"/>
-      <c r="U33" s="95" t="n"/>
-      <c r="V33" s="95" t="n"/>
-      <c r="W33" s="95" t="n"/>
-      <c r="X33" s="95" t="n"/>
-      <c r="Y33" s="95" t="n"/>
-      <c r="Z33" s="95" t="n"/>
-      <c r="AA33" s="95" t="n"/>
-      <c r="AB33" s="95" t="n"/>
-      <c r="AC33" s="95" t="n"/>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
+      <c r="H33" s="93" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
+      <c r="I33" s="97" t="n"/>
+      <c r="J33" s="97" t="n"/>
+      <c r="K33" s="97" t="n"/>
+      <c r="L33" s="97" t="n"/>
+      <c r="M33" s="97" t="n"/>
+      <c r="N33" s="97" t="n"/>
+      <c r="O33" s="97" t="n"/>
+      <c r="P33" s="97" t="n"/>
+      <c r="Q33" s="97" t="n"/>
+      <c r="R33" s="97" t="n"/>
+      <c r="S33" s="97" t="n"/>
+      <c r="T33" s="97" t="n"/>
+      <c r="U33" s="97" t="n"/>
+      <c r="V33" s="97" t="n"/>
+      <c r="W33" s="97" t="n"/>
+      <c r="X33" s="97" t="n"/>
+      <c r="Y33" s="97" t="n"/>
+      <c r="Z33" s="97" t="n"/>
+      <c r="AA33" s="97" t="n"/>
+      <c r="AB33" s="97" t="n"/>
+      <c r="AC33" s="97" t="n"/>
+      <c r="AD33" s="97" t="n"/>
+      <c r="AE33" s="97" t="n"/>
+      <c r="AF33" s="97" t="n"/>
+      <c r="AG33" s="97" t="n"/>
+      <c r="AH33" s="97" t="n"/>
+      <c r="AI33" s="97" t="n"/>
+      <c r="AJ33" s="64" t="n"/>
     </row>
     <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
         </is>
       </c>
       <c r="B34" s="42" t="n"/>
@@ -13070,44 +10760,44 @@
       <c r="E34" s="42" t="n"/>
       <c r="F34" s="42" t="n"/>
       <c r="G34" s="42" t="n"/>
-      <c r="H34" s="67" t="inlineStr">
+      <c r="H34" s="93" t="inlineStr">
         <is>
           <t>BY MNF</t>
         </is>
       </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
+      <c r="I34" s="97" t="n"/>
+      <c r="J34" s="97" t="n"/>
+      <c r="K34" s="97" t="n"/>
+      <c r="L34" s="97" t="n"/>
+      <c r="M34" s="97" t="n"/>
+      <c r="N34" s="97" t="n"/>
+      <c r="O34" s="97" t="n"/>
+      <c r="P34" s="97" t="n"/>
+      <c r="Q34" s="97" t="n"/>
+      <c r="R34" s="97" t="n"/>
+      <c r="S34" s="97" t="n"/>
+      <c r="T34" s="97" t="n"/>
+      <c r="U34" s="97" t="n"/>
+      <c r="V34" s="97" t="n"/>
+      <c r="W34" s="97" t="n"/>
+      <c r="X34" s="97" t="n"/>
+      <c r="Y34" s="97" t="n"/>
+      <c r="Z34" s="97" t="n"/>
+      <c r="AA34" s="97" t="n"/>
+      <c r="AB34" s="97" t="n"/>
+      <c r="AC34" s="97" t="n"/>
+      <c r="AD34" s="97" t="n"/>
+      <c r="AE34" s="97" t="n"/>
+      <c r="AF34" s="97" t="n"/>
+      <c r="AG34" s="97" t="n"/>
+      <c r="AH34" s="97" t="n"/>
+      <c r="AI34" s="97" t="n"/>
+      <c r="AJ34" s="64" t="n"/>
     </row>
     <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>COATING:</t>
         </is>
       </c>
       <c r="B35" s="42" t="n"/>
@@ -13116,207 +10806,199 @@
       <c r="E35" s="42" t="n"/>
       <c r="F35" s="42" t="n"/>
       <c r="G35" s="42" t="n"/>
-      <c r="H35" s="67" t="inlineStr">
-        <is>
-          <t>RENEWABLE</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
+      <c r="H35" s="93" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I35" s="97" t="n"/>
+      <c r="J35" s="97" t="n"/>
+      <c r="K35" s="97" t="n"/>
+      <c r="L35" s="97" t="n"/>
+      <c r="M35" s="97" t="n"/>
+      <c r="N35" s="97" t="n"/>
+      <c r="O35" s="97" t="n"/>
+      <c r="P35" s="97" t="n"/>
+      <c r="Q35" s="97" t="n"/>
+      <c r="R35" s="97" t="n"/>
+      <c r="S35" s="97" t="n"/>
+      <c r="T35" s="97" t="n"/>
+      <c r="U35" s="97" t="n"/>
+      <c r="V35" s="97" t="n"/>
+      <c r="W35" s="97" t="n"/>
+      <c r="X35" s="97" t="n"/>
+      <c r="Y35" s="97" t="n"/>
+      <c r="Z35" s="97" t="n"/>
+      <c r="AA35" s="97" t="n"/>
+      <c r="AB35" s="97" t="n"/>
+      <c r="AC35" s="97" t="n"/>
+      <c r="AD35" s="97" t="n"/>
+      <c r="AE35" s="97" t="n"/>
+      <c r="AF35" s="97" t="n"/>
+      <c r="AG35" s="97" t="n"/>
+      <c r="AH35" s="97" t="n"/>
+      <c r="AI35" s="97" t="n"/>
+      <c r="AJ35" s="64" t="n"/>
     </row>
     <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
+      <c r="A36" s="5" t="n"/>
       <c r="B36" s="42" t="n"/>
       <c r="C36" s="42" t="n"/>
       <c r="D36" s="42" t="n"/>
       <c r="E36" s="42" t="n"/>
       <c r="F36" s="42" t="n"/>
       <c r="G36" s="42" t="n"/>
-      <c r="H36" s="67" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
+      <c r="H36" s="93" t="n"/>
+      <c r="I36" s="97" t="n"/>
+      <c r="J36" s="97" t="n"/>
+      <c r="K36" s="97" t="n"/>
+      <c r="L36" s="97" t="n"/>
+      <c r="M36" s="97" t="n"/>
+      <c r="N36" s="97" t="n"/>
+      <c r="O36" s="97" t="n"/>
+      <c r="P36" s="97" t="n"/>
+      <c r="Q36" s="97" t="n"/>
+      <c r="R36" s="97" t="n"/>
+      <c r="S36" s="97" t="n"/>
+      <c r="T36" s="97" t="n"/>
+      <c r="U36" s="97" t="n"/>
+      <c r="V36" s="97" t="n"/>
+      <c r="W36" s="97" t="n"/>
+      <c r="X36" s="97" t="n"/>
+      <c r="Y36" s="97" t="n"/>
+      <c r="Z36" s="97" t="n"/>
+      <c r="AA36" s="97" t="n"/>
+      <c r="AB36" s="97" t="n"/>
+      <c r="AC36" s="97" t="n"/>
+      <c r="AD36" s="97" t="n"/>
+      <c r="AE36" s="97" t="n"/>
+      <c r="AF36" s="97" t="n"/>
+      <c r="AG36" s="97" t="n"/>
+      <c r="AH36" s="97" t="n"/>
+      <c r="AI36" s="97" t="n"/>
+      <c r="AJ36" s="64" t="n"/>
     </row>
     <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="n"/>
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
       <c r="B37" s="42" t="n"/>
       <c r="C37" s="42" t="n"/>
       <c r="D37" s="42" t="n"/>
       <c r="E37" s="42" t="n"/>
       <c r="F37" s="42" t="n"/>
       <c r="G37" s="42" t="n"/>
-      <c r="H37" s="67" t="n"/>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
+      <c r="H37" s="93" t="inlineStr">
+        <is>
+          <t>STEM: OS&amp;Y/RSRO</t>
+        </is>
+      </c>
+      <c r="I37" s="97" t="n"/>
+      <c r="J37" s="97" t="n"/>
+      <c r="K37" s="97" t="n"/>
+      <c r="L37" s="97" t="n"/>
+      <c r="M37" s="97" t="n"/>
+      <c r="N37" s="97" t="n"/>
+      <c r="O37" s="97" t="n"/>
+      <c r="P37" s="97" t="n"/>
+      <c r="Q37" s="97" t="n"/>
+      <c r="R37" s="97" t="n"/>
+      <c r="S37" s="97" t="n"/>
+      <c r="T37" s="97" t="n"/>
+      <c r="U37" s="97" t="n"/>
+      <c r="V37" s="97" t="n"/>
+      <c r="W37" s="97" t="n"/>
+      <c r="X37" s="97" t="n"/>
+      <c r="Y37" s="97" t="n"/>
+      <c r="Z37" s="97" t="n"/>
+      <c r="AA37" s="97" t="n"/>
+      <c r="AB37" s="97" t="n"/>
+      <c r="AC37" s="97" t="n"/>
+      <c r="AD37" s="97" t="n"/>
+      <c r="AE37" s="97" t="n"/>
+      <c r="AF37" s="97" t="n"/>
+      <c r="AG37" s="97" t="n"/>
+      <c r="AH37" s="97" t="n"/>
+      <c r="AI37" s="97" t="n"/>
+      <c r="AJ37" s="64" t="n"/>
     </row>
     <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
+      <c r="A38" s="5" t="n"/>
       <c r="B38" s="42" t="n"/>
       <c r="C38" s="42" t="n"/>
       <c r="D38" s="42" t="n"/>
       <c r="E38" s="42" t="n"/>
       <c r="F38" s="42" t="n"/>
       <c r="G38" s="42" t="n"/>
-      <c r="H38" s="67" t="inlineStr">
-        <is>
-          <t>FLEXIBLE WEDGE, STEM: OS&amp;Y/RSNRO</t>
-        </is>
-      </c>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="n"/>
-      <c r="B39" s="42" t="n"/>
-      <c r="C39" s="42" t="n"/>
-      <c r="D39" s="42" t="n"/>
-      <c r="E39" s="42" t="n"/>
-      <c r="F39" s="42" t="n"/>
-      <c r="G39" s="42" t="n"/>
-      <c r="H39" s="67" t="n"/>
-      <c r="I39" s="95" t="n"/>
-      <c r="J39" s="95" t="n"/>
-      <c r="K39" s="95" t="n"/>
-      <c r="L39" s="95" t="n"/>
-      <c r="M39" s="95" t="n"/>
-      <c r="N39" s="95" t="n"/>
-      <c r="O39" s="95" t="n"/>
-      <c r="P39" s="95" t="n"/>
-      <c r="Q39" s="95" t="n"/>
-      <c r="R39" s="95" t="n"/>
-      <c r="S39" s="95" t="n"/>
-      <c r="T39" s="95" t="n"/>
-      <c r="U39" s="95" t="n"/>
-      <c r="V39" s="95" t="n"/>
-      <c r="W39" s="95" t="n"/>
-      <c r="X39" s="95" t="n"/>
-      <c r="Y39" s="95" t="n"/>
-      <c r="Z39" s="95" t="n"/>
-      <c r="AA39" s="95" t="n"/>
-      <c r="AB39" s="95" t="n"/>
-      <c r="AC39" s="95" t="n"/>
-      <c r="AD39" s="95" t="n"/>
-      <c r="AE39" s="95" t="n"/>
-      <c r="AF39" s="95" t="n"/>
-      <c r="AG39" s="95" t="n"/>
-      <c r="AH39" s="95" t="n"/>
-      <c r="AI39" s="95" t="n"/>
-      <c r="AJ39" s="16" t="n"/>
+      <c r="H38" s="93" t="n"/>
+      <c r="I38" s="97" t="n"/>
+      <c r="J38" s="97" t="n"/>
+      <c r="K38" s="97" t="n"/>
+      <c r="L38" s="97" t="n"/>
+      <c r="M38" s="97" t="n"/>
+      <c r="N38" s="97" t="n"/>
+      <c r="O38" s="97" t="n"/>
+      <c r="P38" s="97" t="n"/>
+      <c r="Q38" s="97" t="n"/>
+      <c r="R38" s="97" t="n"/>
+      <c r="S38" s="97" t="n"/>
+      <c r="T38" s="97" t="n"/>
+      <c r="U38" s="97" t="n"/>
+      <c r="V38" s="97" t="n"/>
+      <c r="W38" s="97" t="n"/>
+      <c r="X38" s="97" t="n"/>
+      <c r="Y38" s="97" t="n"/>
+      <c r="Z38" s="97" t="n"/>
+      <c r="AA38" s="97" t="n"/>
+      <c r="AB38" s="97" t="n"/>
+      <c r="AC38" s="97" t="n"/>
+      <c r="AD38" s="97" t="n"/>
+      <c r="AE38" s="97" t="n"/>
+      <c r="AF38" s="97" t="n"/>
+      <c r="AG38" s="97" t="n"/>
+      <c r="AH38" s="97" t="n"/>
+      <c r="AI38" s="97" t="n"/>
+      <c r="AJ38" s="64" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A39" s="5" t="n"/>
+      <c r="B39" s="61" t="n"/>
+      <c r="C39" s="61" t="n"/>
+      <c r="D39" s="61" t="n"/>
+      <c r="E39" s="61" t="n"/>
+      <c r="F39" s="61" t="n"/>
+      <c r="G39" s="61" t="n"/>
+      <c r="H39" s="62" t="n"/>
+      <c r="I39" s="62" t="n"/>
+      <c r="J39" s="62" t="n"/>
+      <c r="K39" s="62" t="n"/>
+      <c r="L39" s="62" t="n"/>
+      <c r="M39" s="62" t="n"/>
+      <c r="N39" s="62" t="n"/>
+      <c r="O39" s="62" t="n"/>
+      <c r="P39" s="62" t="n"/>
+      <c r="Q39" s="62" t="n"/>
+      <c r="R39" s="62" t="n"/>
+      <c r="S39" s="62" t="n"/>
+      <c r="T39" s="62" t="n"/>
+      <c r="U39" s="62" t="n"/>
+      <c r="V39" s="62" t="n"/>
+      <c r="W39" s="62" t="n"/>
+      <c r="X39" s="62" t="n"/>
+      <c r="Y39" s="62" t="n"/>
+      <c r="Z39" s="62" t="n"/>
+      <c r="AA39" s="62" t="n"/>
+      <c r="AB39" s="62" t="n"/>
+      <c r="AC39" s="62" t="n"/>
+      <c r="AD39" s="62" t="n"/>
+      <c r="AE39" s="62" t="n"/>
+      <c r="AF39" s="62" t="n"/>
+      <c r="AG39" s="62" t="n"/>
+      <c r="AH39" s="62" t="n"/>
+      <c r="AI39" s="62" t="n"/>
+      <c r="AJ39" s="10" t="n"/>
     </row>
     <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A40" s="37" t="n"/>
@@ -13337,7 +11019,11 @@
       <c r="P40" s="61" t="n"/>
       <c r="Q40" s="61" t="n"/>
       <c r="R40" s="61" t="n"/>
-      <c r="S40" s="61" t="n"/>
+      <c r="S40" s="63" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
       <c r="T40" s="61" t="n"/>
       <c r="U40" s="61" t="n"/>
       <c r="V40" s="61" t="n"/>
@@ -13356,2243 +11042,182 @@
       <c r="AI40" s="61" t="n"/>
       <c r="AJ40" s="28" t="n"/>
     </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A41" s="15" t="n"/>
-      <c r="B41" s="51" t="n"/>
-      <c r="C41" s="51" t="n"/>
-      <c r="D41" s="51" t="n"/>
-      <c r="E41" s="51" t="n"/>
-      <c r="F41" s="51" t="n"/>
-      <c r="G41" s="51" t="n"/>
-      <c r="H41" s="51" t="n"/>
-      <c r="I41" s="51" t="n"/>
-      <c r="J41" s="51" t="n"/>
-      <c r="K41" s="51" t="n"/>
-      <c r="L41" s="51" t="n"/>
-      <c r="M41" s="51" t="n"/>
-      <c r="N41" s="51" t="n"/>
-      <c r="O41" s="51" t="n"/>
-      <c r="P41" s="51" t="n"/>
-      <c r="Q41" s="51" t="n"/>
-      <c r="R41" s="51" t="n"/>
-      <c r="S41" s="52" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T41" s="51" t="n"/>
-      <c r="U41" s="51" t="n"/>
-      <c r="V41" s="51" t="n"/>
-      <c r="W41" s="51" t="n"/>
-      <c r="X41" s="51" t="n"/>
-      <c r="Y41" s="51" t="n"/>
-      <c r="Z41" s="51" t="n"/>
-      <c r="AA41" s="51" t="n"/>
-      <c r="AB41" s="51" t="n"/>
-      <c r="AC41" s="51" t="n"/>
-      <c r="AD41" s="51" t="n"/>
-      <c r="AE41" s="51" t="n"/>
-      <c r="AF41" s="51" t="n"/>
-      <c r="AG41" s="51" t="n"/>
-      <c r="AH41" s="51" t="n"/>
-      <c r="AI41" s="51" t="n"/>
-      <c r="AJ41" s="16" t="n"/>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A41" s="38" t="n"/>
+      <c r="B41" s="33" t="n"/>
+      <c r="C41" s="33" t="n"/>
+      <c r="D41" s="33" t="n"/>
+      <c r="E41" s="33" t="n"/>
+      <c r="F41" s="33" t="n"/>
+      <c r="G41" s="33" t="n"/>
+      <c r="H41" s="33" t="n"/>
+      <c r="I41" s="33" t="n"/>
+      <c r="J41" s="33" t="n"/>
+      <c r="K41" s="33" t="n"/>
+      <c r="L41" s="33" t="n"/>
+      <c r="M41" s="33" t="n"/>
+      <c r="N41" s="33" t="n"/>
+      <c r="O41" s="33" t="n"/>
+      <c r="P41" s="33" t="n"/>
+      <c r="Q41" s="33" t="n"/>
+      <c r="R41" s="33" t="n"/>
+      <c r="S41" s="33" t="n"/>
+      <c r="T41" s="33" t="n"/>
+      <c r="U41" s="33" t="n"/>
+      <c r="V41" s="33" t="n"/>
+      <c r="W41" s="33" t="n"/>
+      <c r="X41" s="33" t="n"/>
+      <c r="Y41" s="33" t="n"/>
+      <c r="Z41" s="33" t="n"/>
+      <c r="AA41" s="33" t="n"/>
+      <c r="AB41" s="33" t="n"/>
+      <c r="AC41" s="33" t="n"/>
+      <c r="AD41" s="33" t="n"/>
+      <c r="AE41" s="33" t="n"/>
+      <c r="AF41" s="33" t="n"/>
+      <c r="AG41" s="33" t="n"/>
+      <c r="AH41" s="33" t="n"/>
+      <c r="AI41" s="33" t="n"/>
+      <c r="AJ41" s="34" t="n"/>
     </row>
     <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A42" s="38" t="n"/>
-      <c r="B42" s="33" t="n"/>
-      <c r="C42" s="33" t="n"/>
-      <c r="D42" s="33" t="n"/>
-      <c r="E42" s="33" t="n"/>
-      <c r="F42" s="33" t="n"/>
-      <c r="G42" s="33" t="n"/>
-      <c r="H42" s="33" t="n"/>
-      <c r="I42" s="33" t="n"/>
-      <c r="J42" s="33" t="n"/>
-      <c r="K42" s="33" t="n"/>
-      <c r="L42" s="33" t="n"/>
-      <c r="M42" s="33" t="n"/>
-      <c r="N42" s="33" t="n"/>
-      <c r="O42" s="33" t="n"/>
-      <c r="P42" s="33" t="n"/>
-      <c r="Q42" s="33" t="n"/>
-      <c r="R42" s="33" t="n"/>
-      <c r="S42" s="33" t="n"/>
-      <c r="T42" s="33" t="n"/>
-      <c r="U42" s="33" t="n"/>
-      <c r="V42" s="33" t="n"/>
-      <c r="W42" s="33" t="n"/>
-      <c r="X42" s="33" t="n"/>
-      <c r="Y42" s="33" t="n"/>
-      <c r="Z42" s="33" t="n"/>
-      <c r="AA42" s="33" t="n"/>
-      <c r="AB42" s="33" t="n"/>
-      <c r="AC42" s="33" t="n"/>
-      <c r="AD42" s="33" t="n"/>
-      <c r="AE42" s="33" t="n"/>
-      <c r="AF42" s="33" t="n"/>
-      <c r="AG42" s="33" t="n"/>
-      <c r="AH42" s="33" t="n"/>
-      <c r="AI42" s="33" t="n"/>
-      <c r="AJ42" s="34" t="n"/>
-    </row>
-    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="22" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">1. 
 </t>
         </is>
       </c>
-      <c r="B43" s="23" t="inlineStr">
+      <c r="B42" s="91" t="inlineStr">
         <is>
           <t>Piping Class Doc. No.MTU-ES-01 V1</t>
         </is>
       </c>
-      <c r="C43" s="23" t="n"/>
-      <c r="D43" s="23" t="n"/>
-      <c r="E43" s="23" t="n"/>
-      <c r="F43" s="23" t="n"/>
-      <c r="G43" s="23" t="n"/>
-      <c r="H43" s="23" t="n"/>
-      <c r="I43" s="23" t="n"/>
-      <c r="J43" s="23" t="n"/>
-      <c r="K43" s="23" t="n"/>
-      <c r="L43" s="23" t="n"/>
-      <c r="M43" s="23" t="n"/>
-      <c r="N43" s="23" t="n"/>
-      <c r="O43" s="23" t="n"/>
-      <c r="P43" s="23" t="n"/>
-      <c r="Q43" s="23" t="n"/>
-      <c r="R43" s="23" t="n"/>
-      <c r="S43" s="23" t="n"/>
-      <c r="T43" s="23" t="n"/>
-      <c r="U43" s="23" t="n"/>
-      <c r="V43" s="23" t="n"/>
-      <c r="W43" s="23" t="n"/>
-      <c r="X43" s="23" t="n"/>
-      <c r="Y43" s="23" t="n"/>
-      <c r="Z43" s="23" t="n"/>
-      <c r="AA43" s="23" t="n"/>
-      <c r="AB43" s="23" t="n"/>
-      <c r="AC43" s="23" t="n"/>
-      <c r="AD43" s="23" t="n"/>
-      <c r="AE43" s="23" t="n"/>
-      <c r="AF43" s="23" t="n"/>
-      <c r="AG43" s="23" t="n"/>
-      <c r="AH43" s="23" t="n"/>
-      <c r="AI43" s="23" t="n"/>
-      <c r="AJ43" s="34" t="n"/>
+      <c r="C42" s="97" t="n"/>
+      <c r="D42" s="97" t="n"/>
+      <c r="E42" s="97" t="n"/>
+      <c r="F42" s="97" t="n"/>
+      <c r="G42" s="97" t="n"/>
+      <c r="H42" s="97" t="n"/>
+      <c r="I42" s="97" t="n"/>
+      <c r="J42" s="97" t="n"/>
+      <c r="K42" s="97" t="n"/>
+      <c r="L42" s="97" t="n"/>
+      <c r="M42" s="97" t="n"/>
+      <c r="N42" s="97" t="n"/>
+      <c r="O42" s="97" t="n"/>
+      <c r="P42" s="97" t="n"/>
+      <c r="Q42" s="97" t="n"/>
+      <c r="R42" s="97" t="n"/>
+      <c r="S42" s="97" t="n"/>
+      <c r="T42" s="97" t="n"/>
+      <c r="U42" s="97" t="n"/>
+      <c r="V42" s="97" t="n"/>
+      <c r="W42" s="97" t="n"/>
+      <c r="X42" s="97" t="n"/>
+      <c r="Y42" s="97" t="n"/>
+      <c r="Z42" s="97" t="n"/>
+      <c r="AA42" s="97" t="n"/>
+      <c r="AB42" s="97" t="n"/>
+      <c r="AC42" s="97" t="n"/>
+      <c r="AD42" s="97" t="n"/>
+      <c r="AE42" s="97" t="n"/>
+      <c r="AF42" s="97" t="n"/>
+      <c r="AG42" s="97" t="n"/>
+      <c r="AH42" s="97" t="n"/>
+      <c r="AI42" s="97" t="n"/>
+      <c r="AJ42" s="34" t="n"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="2" t="n"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
+      <c r="W43" s="2" t="n"/>
+      <c r="X43" s="2" t="n"/>
+      <c r="Y43" s="2" t="n"/>
+      <c r="Z43" s="2" t="n"/>
+      <c r="AA43" s="2" t="n"/>
+      <c r="AB43" s="2" t="n"/>
+      <c r="AC43" s="2" t="n"/>
+      <c r="AD43" s="2" t="n"/>
+      <c r="AE43" s="2" t="n"/>
+      <c r="AF43" s="2" t="n"/>
+      <c r="AG43" s="2" t="n"/>
+      <c r="AH43" s="2" t="n"/>
+      <c r="AI43" s="2" t="n"/>
+      <c r="AJ43" s="2" t="n"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="B44" s="82" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="AA16:AC16"/>
+  <mergeCells count="48">
     <mergeCell ref="H24:O24"/>
     <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="H39:AI39"/>
     <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="AA22:AB22"/>
     <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="AB5:AI5"/>
     <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B44:AH44"/>
+    <mergeCell ref="B42:AI42"/>
+    <mergeCell ref="H31:AI31"/>
     <mergeCell ref="H32:AI32"/>
     <mergeCell ref="H33:AI33"/>
     <mergeCell ref="H34:AI34"/>
     <mergeCell ref="H35:AI35"/>
     <mergeCell ref="H36:AI36"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.7874015748031497" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="122" scale="69" fitToHeight="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AJ45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
-    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-      <c r="AA1" s="12" t="n"/>
-      <c r="AB1" s="12" t="n"/>
-      <c r="AC1" s="12" t="n"/>
-      <c r="AD1" s="12" t="n"/>
-      <c r="AE1" s="12" t="n"/>
-      <c r="AF1" s="12" t="n"/>
-      <c r="AG1" s="12" t="n"/>
-      <c r="AH1" s="12" t="n"/>
-      <c r="AI1" s="12" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A2" s="37" t="n"/>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="61" t="n"/>
-      <c r="D2" s="61" t="n"/>
-      <c r="E2" s="61" t="n"/>
-      <c r="F2" s="61" t="n"/>
-      <c r="G2" s="61" t="n"/>
-      <c r="H2" s="61" t="n"/>
-      <c r="I2" s="61" t="n"/>
-      <c r="J2" s="61" t="n"/>
-      <c r="K2" s="61" t="n"/>
-      <c r="L2" s="61" t="n"/>
-      <c r="M2" s="61" t="n"/>
-      <c r="N2" s="61" t="n"/>
-      <c r="O2" s="61" t="n"/>
-      <c r="P2" s="61" t="n"/>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="61" t="n"/>
-      <c r="S2" s="61" t="n"/>
-      <c r="T2" s="61" t="n"/>
-      <c r="U2" s="61" t="n"/>
-      <c r="V2" s="61" t="n"/>
-      <c r="W2" s="61" t="n"/>
-      <c r="X2" s="61" t="n"/>
-      <c r="Y2" s="61" t="n"/>
-      <c r="Z2" s="61" t="n"/>
-      <c r="AA2" s="61" t="n"/>
-      <c r="AB2" s="61" t="n"/>
-      <c r="AC2" s="61" t="n"/>
-      <c r="AD2" s="61" t="n"/>
-      <c r="AE2" s="61" t="n"/>
-      <c r="AF2" s="61" t="n"/>
-      <c r="AG2" s="61" t="n"/>
-      <c r="AH2" s="61" t="n"/>
-      <c r="AI2" s="61" t="n"/>
-      <c r="AJ2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>TAG. No.</t>
-        </is>
-      </c>
-      <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>GLV21A0B2B</t>
-        </is>
-      </c>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="61" t="n"/>
-      <c r="M3" s="61" t="n"/>
-      <c r="N3" s="61" t="n"/>
-      <c r="O3" s="61" t="n"/>
-      <c r="P3" s="48" t="n"/>
-      <c r="Q3" s="48" t="n"/>
-      <c r="R3" s="48" t="n"/>
-      <c r="S3" s="48" t="n"/>
-      <c r="T3" s="48" t="n"/>
-      <c r="U3" s="48" t="n"/>
-      <c r="V3" s="48" t="n"/>
-      <c r="W3" s="48" t="n"/>
-      <c r="X3" s="48" t="n"/>
-      <c r="Y3" s="48" t="n"/>
-      <c r="Z3" s="48" t="n"/>
-      <c r="AA3" s="48" t="n"/>
-      <c r="AB3" s="48" t="n"/>
-      <c r="AC3" s="48" t="n"/>
-      <c r="AD3" s="48" t="n"/>
-      <c r="AE3" s="48" t="n"/>
-      <c r="AF3" s="48" t="n"/>
-      <c r="AG3" s="48" t="n"/>
-      <c r="AH3" s="48" t="n"/>
-      <c r="AI3" s="48" t="n"/>
-      <c r="AJ3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>SIZE :</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="96" t="inlineStr">
-        <is>
-          <t>2, 6</t>
-        </is>
-      </c>
-      <c r="I4" s="97" t="n"/>
-      <c r="J4" s="97" t="n"/>
-      <c r="K4" s="49" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="61" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="61" t="n"/>
-      <c r="S4" s="61" t="n"/>
-      <c r="T4" s="61" t="n"/>
-      <c r="U4" s="61" t="n"/>
-      <c r="V4" s="61" t="n"/>
-      <c r="W4" s="61" t="n"/>
-      <c r="X4" s="61" t="n"/>
-      <c r="Y4" s="61" t="n"/>
-      <c r="Z4" s="61" t="n"/>
-      <c r="AA4" s="61" t="n"/>
-      <c r="AB4" s="61" t="n"/>
-      <c r="AC4" s="61" t="n"/>
-      <c r="AD4" s="61" t="n"/>
-      <c r="AE4" s="61" t="n"/>
-      <c r="AF4" s="61" t="n"/>
-      <c r="AG4" s="61" t="n"/>
-      <c r="AH4" s="61" t="n"/>
-      <c r="AI4" s="50" t="n"/>
-      <c r="AJ4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>PIPING CLASS :</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n"/>
-      <c r="C5" s="47" t="n"/>
-      <c r="D5" s="47" t="n"/>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="69" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="I5" s="95" t="n"/>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="95" t="n"/>
-      <c r="L5" s="95" t="n"/>
-      <c r="M5" s="95" t="n"/>
-      <c r="N5" s="95" t="n"/>
-      <c r="O5" s="47" t="n"/>
-      <c r="P5" s="47" t="n"/>
-      <c r="Q5" s="47" t="n"/>
-      <c r="R5" s="47" t="n"/>
-      <c r="S5" s="47" t="n"/>
-      <c r="T5" s="47" t="n"/>
-      <c r="U5" s="47" t="n"/>
-      <c r="V5" s="61" t="n"/>
-      <c r="W5" s="24" t="inlineStr">
-        <is>
-          <t>PLANT LOCATION:</t>
-        </is>
-      </c>
-      <c r="X5" s="61" t="n"/>
-      <c r="Y5" s="61" t="n"/>
-      <c r="Z5" s="61" t="n"/>
-      <c r="AA5" s="61" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="95" t="n"/>
-      <c r="AD5" s="95" t="n"/>
-      <c r="AE5" s="95" t="n"/>
-      <c r="AF5" s="95" t="n"/>
-      <c r="AG5" s="95" t="n"/>
-      <c r="AH5" s="95" t="n"/>
-      <c r="AI5" s="95" t="n"/>
-      <c r="AJ5" s="65" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>SERVICE (Note 1):</t>
-        </is>
-      </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="61" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="61" t="n"/>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
-        <is>
-          <t>HCN &amp; HCR</t>
-        </is>
-      </c>
-      <c r="I6" s="95" t="n"/>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="95" t="n"/>
-      <c r="L6" s="95" t="n"/>
-      <c r="M6" s="95" t="n"/>
-      <c r="N6" s="95" t="n"/>
-      <c r="O6" s="95" t="n"/>
-      <c r="P6" s="95" t="n"/>
-      <c r="Q6" s="95" t="n"/>
-      <c r="R6" s="95" t="n"/>
-      <c r="S6" s="95" t="n"/>
-      <c r="T6" s="95" t="n"/>
-      <c r="U6" s="95" t="n"/>
-      <c r="V6" s="95" t="n"/>
-      <c r="W6" s="95" t="n"/>
-      <c r="X6" s="95" t="n"/>
-      <c r="Y6" s="95" t="n"/>
-      <c r="Z6" s="95" t="n"/>
-      <c r="AA6" s="95" t="n"/>
-      <c r="AB6" s="95" t="n"/>
-      <c r="AC6" s="95" t="n"/>
-      <c r="AD6" s="95" t="n"/>
-      <c r="AE6" s="95" t="n"/>
-      <c r="AF6" s="95" t="n"/>
-      <c r="AG6" s="95" t="n"/>
-      <c r="AH6" s="95" t="n"/>
-      <c r="AI6" s="95" t="n"/>
-      <c r="AJ6" s="65" t="n"/>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="37" t="n"/>
-      <c r="B7" s="61" t="n"/>
-      <c r="C7" s="61" t="n"/>
-      <c r="D7" s="61" t="n"/>
-      <c r="E7" s="61" t="n"/>
-      <c r="F7" s="61" t="n"/>
-      <c r="G7" s="61" t="n"/>
-      <c r="H7" s="61" t="n"/>
-      <c r="I7" s="61" t="n"/>
-      <c r="J7" s="61" t="n"/>
-      <c r="K7" s="61" t="n"/>
-      <c r="L7" s="61" t="n"/>
-      <c r="M7" s="61" t="n"/>
-      <c r="N7" s="61" t="n"/>
-      <c r="O7" s="61" t="n"/>
-      <c r="P7" s="61" t="n"/>
-      <c r="Q7" s="61" t="n"/>
-      <c r="R7" s="61" t="n"/>
-      <c r="S7" s="61" t="n"/>
-      <c r="T7" s="61" t="n"/>
-      <c r="U7" s="61" t="n"/>
-      <c r="V7" s="61" t="n"/>
-      <c r="W7" s="61" t="n"/>
-      <c r="X7" s="61" t="n"/>
-      <c r="Y7" s="61" t="n"/>
-      <c r="Z7" s="61" t="n"/>
-      <c r="AA7" s="61" t="n"/>
-      <c r="AB7" s="61" t="n"/>
-      <c r="AC7" s="61" t="n"/>
-      <c r="AD7" s="61" t="n"/>
-      <c r="AE7" s="61" t="n"/>
-      <c r="AF7" s="61" t="n"/>
-      <c r="AG7" s="61" t="n"/>
-      <c r="AH7" s="61" t="n"/>
-      <c r="AI7" s="61" t="n"/>
-      <c r="AJ7" s="28" t="n"/>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A8" s="15" t="n"/>
-      <c r="B8" s="51" t="n"/>
-      <c r="C8" s="51" t="n"/>
-      <c r="D8" s="51" t="n"/>
-      <c r="E8" s="51" t="n"/>
-      <c r="F8" s="51" t="n"/>
-      <c r="G8" s="51" t="n"/>
-      <c r="H8" s="51" t="n"/>
-      <c r="I8" s="51" t="n"/>
-      <c r="J8" s="51" t="n"/>
-      <c r="K8" s="51" t="n"/>
-      <c r="L8" s="51" t="n"/>
-      <c r="M8" s="51" t="n"/>
-      <c r="N8" s="51" t="n"/>
-      <c r="O8" s="51" t="n"/>
-      <c r="P8" s="51" t="n"/>
-      <c r="Q8" s="51" t="n"/>
-      <c r="R8" s="51" t="n"/>
-      <c r="S8" s="52" t="inlineStr">
-        <is>
-          <t>M E C H A N I C A L</t>
-        </is>
-      </c>
-      <c r="T8" s="51" t="n"/>
-      <c r="U8" s="51" t="n"/>
-      <c r="V8" s="51" t="n"/>
-      <c r="W8" s="51" t="n"/>
-      <c r="X8" s="51" t="n"/>
-      <c r="Y8" s="51" t="n"/>
-      <c r="Z8" s="51" t="n"/>
-      <c r="AA8" s="51" t="n"/>
-      <c r="AB8" s="51" t="n"/>
-      <c r="AC8" s="51" t="n"/>
-      <c r="AD8" s="51" t="n"/>
-      <c r="AE8" s="51" t="n"/>
-      <c r="AF8" s="51" t="n"/>
-      <c r="AG8" s="51" t="n"/>
-      <c r="AH8" s="51" t="n"/>
-      <c r="AI8" s="51" t="n"/>
-      <c r="AJ8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="61" t="n"/>
-      <c r="D9" s="61" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="61" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="61" t="n"/>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="61" t="n"/>
-      <c r="K9" s="61" t="n"/>
-      <c r="L9" s="61" t="n"/>
-      <c r="M9" s="61" t="n"/>
-      <c r="N9" s="61" t="n"/>
-      <c r="O9" s="61" t="n"/>
-      <c r="P9" s="61" t="n"/>
-      <c r="Q9" s="61" t="n"/>
-      <c r="R9" s="61" t="n"/>
-      <c r="S9" s="61" t="n"/>
-      <c r="T9" s="61" t="n"/>
-      <c r="U9" s="61" t="n"/>
-      <c r="V9" s="61" t="n"/>
-      <c r="W9" s="61" t="n"/>
-      <c r="X9" s="61" t="n"/>
-      <c r="Y9" s="61" t="n"/>
-      <c r="Z9" s="61" t="n"/>
-      <c r="AA9" s="61" t="n"/>
-      <c r="AB9" s="61" t="n"/>
-      <c r="AC9" s="61" t="n"/>
-      <c r="AD9" s="61" t="n"/>
-      <c r="AE9" s="61" t="n"/>
-      <c r="AF9" s="61" t="n"/>
-      <c r="AG9" s="61" t="n"/>
-      <c r="AH9" s="61" t="n"/>
-      <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>VALVE TYPE :</t>
-        </is>
-      </c>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="61" t="n"/>
-      <c r="D10" s="61" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="61" t="n"/>
-      <c r="G10" s="61" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE</t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="95" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="95" t="n"/>
-      <c r="M10" s="95" t="n"/>
-      <c r="N10" s="95" t="n"/>
-      <c r="O10" s="95" t="n"/>
-      <c r="P10" s="95" t="n"/>
-      <c r="Q10" s="95" t="n"/>
-      <c r="R10" s="95" t="n"/>
-      <c r="S10" s="95" t="n"/>
-      <c r="T10" s="95" t="n"/>
-      <c r="U10" s="95" t="n"/>
-      <c r="V10" s="95" t="n"/>
-      <c r="W10" s="95" t="n"/>
-      <c r="X10" s="61" t="n"/>
-      <c r="Y10" s="61" t="n"/>
-      <c r="Z10" s="61" t="n"/>
-      <c r="AA10" s="61" t="n"/>
-      <c r="AB10" s="49" t="inlineStr">
-        <is>
-          <t>RATING / CLASS:</t>
-        </is>
-      </c>
-      <c r="AC10" s="70" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD10" s="95" t="n"/>
-      <c r="AE10" s="95" t="n"/>
-      <c r="AF10" s="95" t="n"/>
-      <c r="AG10" s="95" t="n"/>
-      <c r="AH10" s="95" t="n"/>
-      <c r="AI10" s="95" t="n"/>
-      <c r="AJ10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>END CONNECTIONS:</t>
-        </is>
-      </c>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="61" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="61" t="n"/>
-      <c r="G11" s="61" t="n"/>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLANGED </t>
-        </is>
-      </c>
-      <c r="I11" s="61" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M11" s="95" t="n"/>
-      <c r="N11" s="61" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="61" t="n"/>
-      <c r="Q11" s="61" t="n"/>
-      <c r="R11" s="49" t="inlineStr">
-        <is>
-          <t>FACING:</t>
-        </is>
-      </c>
-      <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="U11" s="95" t="n"/>
-      <c r="V11" s="61" t="n"/>
-      <c r="W11" s="61" t="n"/>
-      <c r="X11" s="61" t="n"/>
-      <c r="Y11" s="61" t="n"/>
-      <c r="Z11" s="61" t="n"/>
-      <c r="AA11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOCKETWELD </t>
-        </is>
-      </c>
-      <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
-      <c r="AD11" s="95" t="n"/>
-      <c r="AE11" s="66" t="inlineStr">
-        <is>
-          <t>SCREWED</t>
-        </is>
-      </c>
-      <c r="AF11" s="66" t="n"/>
-      <c r="AG11" s="66" t="n"/>
-      <c r="AH11" s="72" t="inlineStr"/>
-      <c r="AI11" s="95" t="n"/>
-      <c r="AJ11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="37" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="61" t="n"/>
-      <c r="D12" s="61" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="61" t="n"/>
-      <c r="G12" s="61" t="n"/>
-      <c r="H12" s="54" t="inlineStr">
-        <is>
-          <t>BUTTWELD</t>
-        </is>
-      </c>
-      <c r="I12" s="61" t="n"/>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="61" t="n"/>
-      <c r="L12" s="68" t="inlineStr"/>
-      <c r="M12" s="95" t="n"/>
-      <c r="N12" s="95" t="n"/>
-      <c r="O12" s="95" t="n"/>
-      <c r="P12" s="95" t="n"/>
-      <c r="Q12" s="95" t="n"/>
-      <c r="R12" s="95" t="n"/>
-      <c r="S12" s="95" t="n"/>
-      <c r="T12" s="95" t="n"/>
-      <c r="U12" s="95" t="n"/>
-      <c r="V12" s="95" t="n"/>
-      <c r="W12" s="61" t="n"/>
-      <c r="X12" s="61" t="n"/>
-      <c r="Y12" s="61" t="n"/>
-      <c r="Z12" s="61" t="n"/>
-      <c r="AA12" s="61" t="n"/>
-      <c r="AB12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-      <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
-      <c r="AE12" s="95" t="n"/>
-      <c r="AF12" s="95" t="n"/>
-      <c r="AG12" s="95" t="n"/>
-      <c r="AH12" s="95" t="n"/>
-      <c r="AI12" s="95" t="n"/>
-      <c r="AJ12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A13" s="37" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="61" t="n"/>
-      <c r="D13" s="61" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="61" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="61" t="n"/>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="61" t="n"/>
-      <c r="L13" s="61" t="n"/>
-      <c r="M13" s="61" t="n"/>
-      <c r="N13" s="61" t="n"/>
-      <c r="O13" s="61" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="61" t="n"/>
-      <c r="R13" s="61" t="n"/>
-      <c r="S13" s="61" t="n"/>
-      <c r="T13" s="61" t="n"/>
-      <c r="U13" s="61" t="n"/>
-      <c r="V13" s="61" t="n"/>
-      <c r="W13" s="61" t="n"/>
-      <c r="X13" s="61" t="n"/>
-      <c r="Y13" s="61" t="n"/>
-      <c r="Z13" s="61" t="n"/>
-      <c r="AA13" s="61" t="n"/>
-      <c r="AB13" s="53" t="n"/>
-      <c r="AC13" s="61" t="n"/>
-      <c r="AD13" s="61" t="n"/>
-      <c r="AE13" s="61" t="n"/>
-      <c r="AF13" s="61" t="n"/>
-      <c r="AG13" s="61" t="n"/>
-      <c r="AH13" s="61" t="n"/>
-      <c r="AI13" s="61" t="n"/>
-      <c r="AJ13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
-        </is>
-      </c>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="61" t="n"/>
-      <c r="D14" s="61" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="61" t="n"/>
-      <c r="G14" s="61" t="n"/>
-      <c r="H14" s="61" t="n"/>
-      <c r="I14" s="61" t="n"/>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="61" t="n"/>
-      <c r="L14" s="61" t="n"/>
-      <c r="M14" s="61" t="n"/>
-      <c r="N14" s="61" t="n"/>
-      <c r="O14" s="61" t="n"/>
-      <c r="P14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.5</t>
-        </is>
-      </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R14" s="95" t="n"/>
-      <c r="S14" s="95" t="n"/>
-      <c r="T14" s="61" t="n"/>
-      <c r="U14" s="61" t="n"/>
-      <c r="V14" s="61" t="n"/>
-      <c r="W14" s="61" t="n"/>
-      <c r="X14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.11</t>
-        </is>
-      </c>
-      <c r="Y14" s="68" t="inlineStr"/>
-      <c r="Z14" s="95" t="n"/>
-      <c r="AA14" s="95" t="n"/>
-      <c r="AB14" s="61" t="n"/>
-      <c r="AC14" s="61" t="n"/>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
-      <c r="AG14" s="95" t="n"/>
-      <c r="AH14" s="95" t="n"/>
-      <c r="AI14" s="95" t="n"/>
-      <c r="AJ14" s="16" t="n"/>
-    </row>
-    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="61" t="n"/>
-      <c r="D15" s="61" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="61" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="n"/>
-      <c r="I15" s="61" t="n"/>
-      <c r="J15" s="80" t="n"/>
-      <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="n"/>
-      <c r="R15" s="61" t="n"/>
-      <c r="S15" s="61" t="n"/>
-      <c r="T15" s="80" t="n"/>
-      <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="n"/>
-      <c r="AA15" s="61" t="n"/>
-      <c r="AB15" s="61" t="n"/>
-      <c r="AC15" s="61" t="n"/>
-      <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="84" t="n"/>
-      <c r="AJ15" s="98" t="n"/>
-    </row>
-    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="n"/>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="61" t="n"/>
-      <c r="D16" s="61" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="61" t="n"/>
-      <c r="G16" s="61" t="n"/>
-      <c r="H16" s="61" t="n"/>
-      <c r="I16" s="61" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="61" t="n"/>
-      <c r="L16" s="61" t="n"/>
-      <c r="M16" s="61" t="n"/>
-      <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="n"/>
-      <c r="P16" s="80" t="n"/>
-      <c r="S16" s="61" t="n"/>
-      <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="n"/>
-      <c r="V16" s="61" t="n"/>
-      <c r="W16" s="61" t="n"/>
-      <c r="X16" s="61" t="n"/>
-      <c r="Y16" s="55" t="n"/>
-      <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="80" t="n"/>
-      <c r="AD16" s="61" t="n"/>
-      <c r="AE16" s="61" t="n"/>
-      <c r="AF16" s="61" t="n"/>
-      <c r="AG16" s="61" t="n"/>
-      <c r="AH16" s="61" t="n"/>
-      <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="28" t="n"/>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A17" s="17" t="inlineStr">
-        <is>
-          <t>TYPE OPERATOR :</t>
-        </is>
-      </c>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="61" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="69" t="inlineStr">
-        <is>
-          <t>HANDWHEEL OPERATOR</t>
-        </is>
-      </c>
-      <c r="I17" s="95" t="n"/>
-      <c r="J17" s="95" t="n"/>
-      <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="n"/>
-      <c r="M17" s="95" t="n"/>
-      <c r="N17" s="95" t="n"/>
-      <c r="O17" s="61" t="n"/>
-      <c r="P17" s="61" t="n"/>
-      <c r="Q17" s="61" t="n"/>
-      <c r="R17" s="61" t="n"/>
-      <c r="S17" s="61" t="n"/>
-      <c r="T17" s="61" t="n"/>
-      <c r="U17" s="61" t="n"/>
-      <c r="V17" s="61" t="n"/>
-      <c r="W17" s="61" t="n"/>
-      <c r="X17" s="61" t="n"/>
-      <c r="Y17" s="61" t="n"/>
-      <c r="Z17" s="61" t="n"/>
-      <c r="AA17" s="61" t="n"/>
-      <c r="AB17" s="61" t="n"/>
-      <c r="AC17" s="61" t="n"/>
-      <c r="AD17" s="61" t="n"/>
-      <c r="AE17" s="61" t="n"/>
-      <c r="AF17" s="61" t="n"/>
-      <c r="AG17" s="61" t="n"/>
-      <c r="AH17" s="61" t="n"/>
-      <c r="AI17" s="61" t="n"/>
-      <c r="AJ17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A18" s="37" t="n"/>
-      <c r="B18" s="61" t="n"/>
-      <c r="C18" s="61" t="n"/>
-      <c r="D18" s="61" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="61" t="n"/>
-      <c r="G18" s="61" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="61" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="61" t="n"/>
-      <c r="L18" s="61" t="n"/>
-      <c r="M18" s="61" t="n"/>
-      <c r="N18" s="61" t="n"/>
-      <c r="O18" s="61" t="n"/>
-      <c r="P18" s="61" t="n"/>
-      <c r="Q18" s="61" t="n"/>
-      <c r="R18" s="61" t="n"/>
-      <c r="S18" s="61" t="n"/>
-      <c r="T18" s="61" t="n"/>
-      <c r="U18" s="61" t="n"/>
-      <c r="V18" s="61" t="n"/>
-      <c r="W18" s="61" t="n"/>
-      <c r="X18" s="61" t="n"/>
-      <c r="Y18" s="55" t="n"/>
-      <c r="Z18" s="61" t="n"/>
-      <c r="AA18" s="61" t="n"/>
-      <c r="AB18" s="61" t="n"/>
-      <c r="AC18" s="61" t="n"/>
-      <c r="AD18" s="61" t="n"/>
-      <c r="AE18" s="61" t="n"/>
-      <c r="AF18" s="61" t="n"/>
-      <c r="AG18" s="61" t="n"/>
-      <c r="AH18" s="61" t="n"/>
-      <c r="AI18" s="61" t="n"/>
-      <c r="AJ18" s="28" t="n"/>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="51" t="n"/>
-      <c r="C19" s="51" t="n"/>
-      <c r="D19" s="51" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
-      <c r="G19" s="51" t="n"/>
-      <c r="H19" s="51" t="n"/>
-      <c r="I19" s="51" t="n"/>
-      <c r="J19" s="51" t="n"/>
-      <c r="K19" s="51" t="n"/>
-      <c r="L19" s="51" t="n"/>
-      <c r="M19" s="51" t="n"/>
-      <c r="N19" s="51" t="n"/>
-      <c r="O19" s="51" t="n"/>
-      <c r="P19" s="51" t="n"/>
-      <c r="Q19" s="51" t="n"/>
-      <c r="R19" s="51" t="n"/>
-      <c r="S19" s="52" t="inlineStr">
-        <is>
-          <t>D E S I G N</t>
-        </is>
-      </c>
-      <c r="T19" s="51" t="n"/>
-      <c r="U19" s="51" t="n"/>
-      <c r="V19" s="51" t="n"/>
-      <c r="W19" s="51" t="n"/>
-      <c r="X19" s="51" t="n"/>
-      <c r="Y19" s="51" t="n"/>
-      <c r="Z19" s="51" t="n"/>
-      <c r="AA19" s="51" t="n"/>
-      <c r="AB19" s="51" t="n"/>
-      <c r="AC19" s="51" t="n"/>
-      <c r="AD19" s="51" t="n"/>
-      <c r="AE19" s="51" t="n"/>
-      <c r="AF19" s="51" t="n"/>
-      <c r="AG19" s="51" t="n"/>
-      <c r="AH19" s="51" t="n"/>
-      <c r="AI19" s="51" t="n"/>
-      <c r="AJ19" s="16" t="n"/>
-    </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A20" s="37" t="n"/>
-      <c r="B20" s="61" t="n"/>
-      <c r="C20" s="61" t="n"/>
-      <c r="D20" s="61" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="61" t="n"/>
-      <c r="H20" s="61" t="n"/>
-      <c r="I20" s="61" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="61" t="n"/>
-      <c r="L20" s="61" t="n"/>
-      <c r="M20" s="61" t="n"/>
-      <c r="N20" s="61" t="n"/>
-      <c r="O20" s="61" t="n"/>
-      <c r="P20" s="61" t="n"/>
-      <c r="Q20" s="61" t="n"/>
-      <c r="R20" s="61" t="n"/>
-      <c r="S20" s="61" t="n"/>
-      <c r="T20" s="61" t="n"/>
-      <c r="U20" s="61" t="n"/>
-      <c r="V20" s="61" t="n"/>
-      <c r="W20" s="61" t="n"/>
-      <c r="X20" s="61" t="n"/>
-      <c r="Y20" s="61" t="n"/>
-      <c r="Z20" s="61" t="n"/>
-      <c r="AA20" s="61" t="n"/>
-      <c r="AB20" s="61" t="n"/>
-      <c r="AC20" s="61" t="n"/>
-      <c r="AD20" s="61" t="n"/>
-      <c r="AE20" s="61" t="n"/>
-      <c r="AF20" s="61" t="n"/>
-      <c r="AG20" s="61" t="n"/>
-      <c r="AH20" s="61" t="n"/>
-      <c r="AI20" s="61" t="n"/>
-      <c r="AJ20" s="28" t="n"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>APPLICABLE PIPING</t>
-        </is>
-      </c>
-      <c r="B21" s="61" t="n"/>
-      <c r="C21" s="61" t="n"/>
-      <c r="D21" s="61" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="61" t="n"/>
-      <c r="H21" s="61" t="n"/>
-      <c r="I21" s="61" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="61" t="n"/>
-      <c r="L21" s="61" t="n"/>
-      <c r="M21" s="61" t="n"/>
-      <c r="N21" s="61" t="n"/>
-      <c r="O21" s="61" t="n"/>
-      <c r="P21" s="61" t="n"/>
-      <c r="Q21" s="61" t="n"/>
-      <c r="R21" s="61" t="n"/>
-      <c r="S21" s="61" t="n"/>
-      <c r="T21" s="61" t="n"/>
-      <c r="U21" s="61" t="n"/>
-      <c r="V21" s="61" t="n"/>
-      <c r="W21" s="61" t="n"/>
-      <c r="X21" s="61" t="n"/>
-      <c r="Y21" s="61" t="n"/>
-      <c r="Z21" s="61" t="n"/>
-      <c r="AA21" s="61" t="n"/>
-      <c r="AB21" s="61" t="n"/>
-      <c r="AC21" s="61" t="n"/>
-      <c r="AD21" s="61" t="n"/>
-      <c r="AE21" s="61" t="n"/>
-      <c r="AF21" s="61" t="n"/>
-      <c r="AG21" s="61" t="n"/>
-      <c r="AH21" s="61" t="n"/>
-      <c r="AI21" s="61" t="n"/>
-      <c r="AJ21" s="28" t="n"/>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DESIGN CODE:       </t>
-        </is>
-      </c>
-      <c r="B22" s="61" t="n"/>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>API 600</t>
-        </is>
-      </c>
-      <c r="I22" s="68" t="inlineStr"/>
-      <c r="J22" s="95" t="n"/>
-      <c r="K22" s="61" t="n"/>
-      <c r="L22" s="61" t="n"/>
-      <c r="M22" s="81" t="inlineStr">
-        <is>
-          <t>API 6D</t>
-        </is>
-      </c>
-      <c r="N22" s="61" t="n"/>
-      <c r="O22" s="68" t="inlineStr"/>
-      <c r="P22" s="95" t="n"/>
-      <c r="Q22" s="61" t="n"/>
-      <c r="R22" s="61" t="n"/>
-      <c r="S22" s="61" t="n"/>
-      <c r="T22" s="53" t="inlineStr">
-        <is>
-          <t>API 608</t>
-        </is>
-      </c>
-      <c r="U22" s="71" t="inlineStr"/>
-      <c r="V22" s="95" t="n"/>
-      <c r="W22" s="61" t="n"/>
-      <c r="X22" s="61" t="n"/>
-      <c r="Y22" s="61" t="n"/>
-      <c r="Z22" s="56" t="inlineStr">
-        <is>
-          <t>API 602</t>
-        </is>
-      </c>
-      <c r="AA22" s="68" t="inlineStr"/>
-      <c r="AB22" s="95" t="n"/>
-      <c r="AC22" s="61" t="n"/>
-      <c r="AD22" s="61" t="n"/>
-      <c r="AE22" s="79" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AG22" s="68" t="inlineStr">
-        <is>
-          <t>API 623</t>
-        </is>
-      </c>
-      <c r="AH22" s="95" t="n"/>
-      <c r="AI22" s="95" t="n"/>
-      <c r="AJ22" s="28" t="n"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
-        </is>
-      </c>
-      <c r="L23" s="90" t="inlineStr"/>
-      <c r="M23" s="95" t="n"/>
-      <c r="N23" s="95" t="n"/>
-      <c r="O23" s="95" t="n"/>
-      <c r="P23" s="95" t="n"/>
-      <c r="Q23" s="95" t="n"/>
-      <c r="R23" s="95" t="n"/>
-      <c r="S23" s="95" t="n"/>
-      <c r="T23" s="95" t="n"/>
-      <c r="U23" s="95" t="n"/>
-      <c r="V23" s="95" t="n"/>
-      <c r="W23" s="95" t="n"/>
-      <c r="X23" s="95" t="n"/>
-      <c r="Y23" s="95" t="n"/>
-      <c r="Z23" s="95" t="n"/>
-      <c r="AA23" s="95" t="n"/>
-      <c r="AB23" s="95" t="n"/>
-      <c r="AC23" s="95" t="n"/>
-      <c r="AD23" s="95" t="n"/>
-      <c r="AE23" s="95" t="n"/>
-      <c r="AF23" s="95" t="n"/>
-      <c r="AG23" s="95" t="n"/>
-      <c r="AH23" s="95" t="n"/>
-      <c r="AI23" s="95" t="n"/>
-      <c r="AJ23" s="28" t="n"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="68" t="n">
-        <v>285</v>
-      </c>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="95" t="n"/>
-      <c r="K24" s="95" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="95" t="n"/>
-      <c r="N24" s="95" t="n"/>
-      <c r="O24" s="95" t="n"/>
-      <c r="P24" s="24" t="inlineStr">
-        <is>
-          <t>PSIG @100°F</t>
-        </is>
-      </c>
-      <c r="Q24" s="61" t="n"/>
-      <c r="R24" s="61" t="n"/>
-      <c r="S24" s="61" t="n"/>
-      <c r="T24" s="61" t="n"/>
-      <c r="U24" s="61" t="n"/>
-      <c r="V24" s="61" t="n"/>
-      <c r="W24" s="61" t="n"/>
-      <c r="X24" s="61" t="n"/>
-      <c r="Y24" s="61" t="n"/>
-      <c r="Z24" s="49" t="inlineStr">
-        <is>
-          <t>DESIGN TEMP:</t>
-        </is>
-      </c>
-      <c r="AA24" s="61" t="n"/>
-      <c r="AB24" s="69" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="95" t="n"/>
-      <c r="AD24" s="24" t="inlineStr">
-        <is>
-          <t>F. MIN</t>
-        </is>
-      </c>
-      <c r="AE24" s="61" t="n"/>
-      <c r="AF24" s="69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="95" t="n"/>
-      <c r="AH24" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F. MAX</t>
-        </is>
-      </c>
-      <c r="AI24" s="61" t="n"/>
-      <c r="AJ24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B25" s="61" t="n"/>
-      <c r="C25" s="61" t="n"/>
-      <c r="D25" s="61" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="61" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="61" t="n"/>
-      <c r="I25" s="61" t="n"/>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="32" t="n"/>
-      <c r="L25" s="32" t="n"/>
-      <c r="M25" s="32" t="n"/>
-      <c r="N25" s="32" t="n"/>
-      <c r="O25" s="32" t="n"/>
-      <c r="P25" s="33" t="n"/>
-      <c r="Q25" s="79" t="inlineStr">
-        <is>
-          <t>PSIG</t>
-        </is>
-      </c>
-      <c r="S25" s="61" t="n"/>
-      <c r="T25" s="61" t="n"/>
-      <c r="U25" s="61" t="n"/>
-      <c r="V25" s="61" t="n"/>
-      <c r="W25" s="24" t="inlineStr">
-        <is>
-          <t>TEST PRESSURE:</t>
-        </is>
-      </c>
-      <c r="X25" s="61" t="n"/>
-      <c r="Y25" s="61" t="n"/>
-      <c r="Z25" s="61" t="n"/>
-      <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
-      <c r="AC25" s="95" t="n"/>
-      <c r="AD25" s="95" t="n"/>
-      <c r="AE25" s="24" t="n"/>
-      <c r="AF25" s="78" t="n"/>
-      <c r="AH25" s="61" t="n"/>
-      <c r="AI25" s="61" t="n"/>
-      <c r="AJ25" s="31" t="n"/>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>CONTAMINANTS :</t>
-        </is>
-      </c>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="61" t="n"/>
-      <c r="G26" s="61" t="n"/>
-      <c r="H26" s="24" t="inlineStr">
-        <is>
-          <t>CO2:</t>
-        </is>
-      </c>
-      <c r="I26" s="19" t="n"/>
-      <c r="J26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n"/>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="n"/>
-      <c r="Q26" s="61" t="n"/>
-      <c r="R26" s="61" t="n"/>
-      <c r="S26" s="49" t="inlineStr">
-        <is>
-          <t>CHLORIDE:</t>
-        </is>
-      </c>
-      <c r="T26" s="85" t="n"/>
-      <c r="U26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V26" s="20" t="n"/>
-      <c r="W26" s="33" t="n"/>
-      <c r="X26" s="33" t="n"/>
-      <c r="Y26" s="33" t="n"/>
-      <c r="Z26" s="33" t="n"/>
-      <c r="AA26" s="61" t="n"/>
-      <c r="AB26" s="53" t="inlineStr">
-        <is>
-          <t>H2S:</t>
-        </is>
-      </c>
-      <c r="AC26" s="70" t="n"/>
-      <c r="AD26" s="95" t="n"/>
-      <c r="AE26" s="95" t="n"/>
-      <c r="AF26" s="95" t="n"/>
-      <c r="AG26" s="95" t="n"/>
-      <c r="AH26" s="95" t="n"/>
-      <c r="AI26" s="95" t="n"/>
-      <c r="AJ26" s="28" t="n"/>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A27" s="37" t="n"/>
-      <c r="B27" s="61" t="n"/>
-      <c r="C27" s="61" t="n"/>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="61" t="n"/>
-      <c r="G27" s="61" t="n"/>
-      <c r="H27" s="24" t="inlineStr">
-        <is>
-          <t>METHANOL :</t>
-        </is>
-      </c>
-      <c r="I27" s="61" t="n"/>
-      <c r="J27" s="61" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n"/>
-      <c r="M27" s="33" t="n"/>
-      <c r="N27" s="33" t="n"/>
-      <c r="O27" s="33" t="n"/>
-      <c r="P27" s="33" t="n"/>
-      <c r="Q27" s="33" t="n"/>
-      <c r="R27" s="33" t="n"/>
-      <c r="S27" s="33" t="n"/>
-      <c r="T27" s="33" t="n"/>
-      <c r="U27" s="61" t="n"/>
-      <c r="V27" s="61" t="n"/>
-      <c r="W27" s="53" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="95" t="n"/>
-      <c r="Z27" s="95" t="n"/>
-      <c r="AA27" s="95" t="n"/>
-      <c r="AB27" s="95" t="n"/>
-      <c r="AC27" s="95" t="n"/>
-      <c r="AD27" s="95" t="n"/>
-      <c r="AE27" s="95" t="n"/>
-      <c r="AF27" s="95" t="n"/>
-      <c r="AG27" s="95" t="n"/>
-      <c r="AH27" s="95" t="n"/>
-      <c r="AI27" s="95" t="n"/>
-      <c r="AJ27" s="28" t="n"/>
-    </row>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A28" s="37" t="n"/>
-      <c r="B28" s="61" t="n"/>
-      <c r="C28" s="61" t="n"/>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="61" t="n"/>
-      <c r="G28" s="61" t="n"/>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="61" t="n"/>
-      <c r="J28" s="61" t="n"/>
-      <c r="K28" s="61" t="n"/>
-      <c r="L28" s="61" t="n"/>
-      <c r="M28" s="61" t="n"/>
-      <c r="N28" s="61" t="n"/>
-      <c r="O28" s="61" t="n"/>
-      <c r="P28" s="61" t="n"/>
-      <c r="Q28" s="61" t="n"/>
-      <c r="R28" s="61" t="n"/>
-      <c r="S28" s="61" t="n"/>
-      <c r="T28" s="61" t="n"/>
-      <c r="U28" s="61" t="n"/>
-      <c r="V28" s="61" t="n"/>
-      <c r="W28" s="61" t="n"/>
-      <c r="X28" s="61" t="n"/>
-      <c r="Y28" s="61" t="n"/>
-      <c r="Z28" s="61" t="n"/>
-      <c r="AA28" s="61" t="n"/>
-      <c r="AB28" s="61" t="n"/>
-      <c r="AC28" s="61" t="n"/>
-      <c r="AD28" s="61" t="n"/>
-      <c r="AE28" s="61" t="n"/>
-      <c r="AF28" s="61" t="n"/>
-      <c r="AG28" s="61" t="n"/>
-      <c r="AH28" s="61" t="n"/>
-      <c r="AI28" s="61" t="n"/>
-      <c r="AJ28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
-      <c r="G29" s="51" t="n"/>
-      <c r="H29" s="51" t="n"/>
-      <c r="I29" s="51" t="n"/>
-      <c r="J29" s="51" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-      <c r="P29" s="51" t="n"/>
-      <c r="Q29" s="51" t="n"/>
-      <c r="R29" s="51" t="n"/>
-      <c r="S29" s="52" t="inlineStr">
-        <is>
-          <t>M A T E R I A L S</t>
-        </is>
-      </c>
-      <c r="T29" s="51" t="n"/>
-      <c r="U29" s="51" t="n"/>
-      <c r="V29" s="51" t="n"/>
-      <c r="W29" s="51" t="n"/>
-      <c r="X29" s="51" t="n"/>
-      <c r="Y29" s="51" t="n"/>
-      <c r="Z29" s="51" t="n"/>
-      <c r="AA29" s="51" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="51" t="n"/>
-      <c r="AD29" s="51" t="n"/>
-      <c r="AE29" s="51" t="n"/>
-      <c r="AF29" s="51" t="n"/>
-      <c r="AG29" s="51" t="n"/>
-      <c r="AH29" s="51" t="n"/>
-      <c r="AI29" s="51" t="n"/>
-      <c r="AJ29" s="16" t="n"/>
-    </row>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="51" t="n"/>
-      <c r="C30" s="51" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
-      <c r="G30" s="51" t="n"/>
-      <c r="H30" s="51" t="n"/>
-      <c r="I30" s="51" t="n"/>
-      <c r="J30" s="51" t="n"/>
-      <c r="K30" s="51" t="n"/>
-      <c r="L30" s="51" t="n"/>
-      <c r="M30" s="51" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-      <c r="P30" s="51" t="n"/>
-      <c r="Q30" s="51" t="n"/>
-      <c r="R30" s="51" t="n"/>
-      <c r="S30" s="52" t="n"/>
-      <c r="T30" s="51" t="n"/>
-      <c r="U30" s="51" t="n"/>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="51" t="n"/>
-      <c r="X30" s="51" t="n"/>
-      <c r="Y30" s="51" t="n"/>
-      <c r="Z30" s="51" t="n"/>
-      <c r="AA30" s="51" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="51" t="n"/>
-      <c r="AD30" s="51" t="n"/>
-      <c r="AE30" s="51" t="n"/>
-      <c r="AF30" s="51" t="n"/>
-      <c r="AG30" s="51" t="n"/>
-      <c r="AH30" s="51" t="n"/>
-      <c r="AI30" s="51" t="n"/>
-      <c r="AJ30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="42" t="n"/>
-      <c r="G31" s="42" t="n"/>
-      <c r="H31" s="89" t="inlineStr">
-        <is>
-          <t>ASTM A216 Gr.WCB</t>
-        </is>
-      </c>
-      <c r="I31" s="95" t="n"/>
-      <c r="J31" s="95" t="n"/>
-      <c r="K31" s="95" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="95" t="n"/>
-      <c r="N31" s="95" t="n"/>
-      <c r="O31" s="95" t="n"/>
-      <c r="P31" s="95" t="n"/>
-      <c r="Q31" s="95" t="n"/>
-      <c r="R31" s="95" t="n"/>
-      <c r="S31" s="95" t="n"/>
-      <c r="T31" s="95" t="n"/>
-      <c r="U31" s="95" t="n"/>
-      <c r="V31" s="95" t="n"/>
-      <c r="W31" s="95" t="n"/>
-      <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>TRIM:</t>
-        </is>
-      </c>
-      <c r="AA31" s="42" t="n"/>
-      <c r="AB31" s="42" t="n"/>
-      <c r="AC31" s="70" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AD31" s="95" t="n"/>
-      <c r="AE31" s="95" t="n"/>
-      <c r="AF31" s="95" t="n"/>
-      <c r="AG31" s="95" t="n"/>
-      <c r="AH31" s="95" t="n"/>
-      <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
-      <c r="E32" s="42" t="n"/>
-      <c r="F32" s="42" t="n"/>
-      <c r="G32" s="42" t="n"/>
-      <c r="H32" s="85" t="inlineStr">
-        <is>
-          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="42" t="n"/>
-      <c r="Z32" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AA32" s="42" t="n"/>
-      <c r="AB32" s="42" t="n"/>
-      <c r="AC32" s="70" t="inlineStr">
-        <is>
-          <t>GRAPHITE</t>
-        </is>
-      </c>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>YOKE BEARINGS:</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="86" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="I33" s="97" t="n"/>
-      <c r="J33" s="97" t="n"/>
-      <c r="K33" s="97" t="n"/>
-      <c r="L33" s="97" t="n"/>
-      <c r="M33" s="97" t="n"/>
-      <c r="N33" s="97" t="n"/>
-      <c r="O33" s="97" t="n"/>
-      <c r="P33" s="97" t="n"/>
-      <c r="Q33" s="97" t="n"/>
-      <c r="R33" s="97" t="n"/>
-      <c r="S33" s="97" t="n"/>
-      <c r="T33" s="97" t="n"/>
-      <c r="U33" s="97" t="n"/>
-      <c r="V33" s="97" t="n"/>
-      <c r="W33" s="97" t="n"/>
-      <c r="X33" s="97" t="n"/>
-      <c r="Y33" s="40" t="n"/>
-      <c r="Z33" s="81" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
-        </is>
-      </c>
-      <c r="AA33" s="42" t="n"/>
-      <c r="AB33" s="42" t="n"/>
-      <c r="AC33" s="70" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
-        </is>
-      </c>
-      <c r="B34" s="42" t="n"/>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="87" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
-    </row>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
-        </is>
-      </c>
-      <c r="B35" s="42" t="n"/>
-      <c r="C35" s="42" t="n"/>
-      <c r="D35" s="42" t="n"/>
-      <c r="E35" s="42" t="n"/>
-      <c r="F35" s="42" t="n"/>
-      <c r="G35" s="42" t="n"/>
-      <c r="H35" s="87" t="inlineStr">
-        <is>
-          <t>RENEWABLE</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
-      <c r="B36" s="42" t="n"/>
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="87" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="n"/>
-      <c r="B37" s="42" t="n"/>
-      <c r="C37" s="42" t="n"/>
-      <c r="D37" s="42" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="42" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="87" t="n"/>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
-      <c r="B38" s="42" t="n"/>
-      <c r="C38" s="42" t="n"/>
-      <c r="D38" s="42" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="42" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="87" t="inlineStr">
-        <is>
-          <t>SWIVEL PARABOLIC DISC, STEM: OS&amp;Y/RSRO</t>
-        </is>
-      </c>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="n"/>
-      <c r="B39" s="42" t="n"/>
-      <c r="C39" s="42" t="n"/>
-      <c r="D39" s="42" t="n"/>
-      <c r="E39" s="42" t="n"/>
-      <c r="F39" s="42" t="n"/>
-      <c r="G39" s="42" t="n"/>
-      <c r="H39" s="87" t="n"/>
-      <c r="I39" s="95" t="n"/>
-      <c r="J39" s="95" t="n"/>
-      <c r="K39" s="95" t="n"/>
-      <c r="L39" s="95" t="n"/>
-      <c r="M39" s="95" t="n"/>
-      <c r="N39" s="95" t="n"/>
-      <c r="O39" s="95" t="n"/>
-      <c r="P39" s="95" t="n"/>
-      <c r="Q39" s="95" t="n"/>
-      <c r="R39" s="95" t="n"/>
-      <c r="S39" s="95" t="n"/>
-      <c r="T39" s="95" t="n"/>
-      <c r="U39" s="95" t="n"/>
-      <c r="V39" s="95" t="n"/>
-      <c r="W39" s="95" t="n"/>
-      <c r="X39" s="95" t="n"/>
-      <c r="Y39" s="95" t="n"/>
-      <c r="Z39" s="95" t="n"/>
-      <c r="AA39" s="95" t="n"/>
-      <c r="AB39" s="95" t="n"/>
-      <c r="AC39" s="95" t="n"/>
-      <c r="AD39" s="95" t="n"/>
-      <c r="AE39" s="95" t="n"/>
-      <c r="AF39" s="95" t="n"/>
-      <c r="AG39" s="95" t="n"/>
-      <c r="AH39" s="95" t="n"/>
-      <c r="AI39" s="95" t="n"/>
-      <c r="AJ39" s="16" t="n"/>
-    </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="61" t="n"/>
-      <c r="C40" s="61" t="n"/>
-      <c r="D40" s="61" t="n"/>
-      <c r="E40" s="61" t="n"/>
-      <c r="F40" s="61" t="n"/>
-      <c r="G40" s="61" t="n"/>
-      <c r="H40" s="40" t="n"/>
-      <c r="I40" s="40" t="n"/>
-      <c r="J40" s="40" t="n"/>
-      <c r="K40" s="40" t="n"/>
-      <c r="L40" s="40" t="n"/>
-      <c r="M40" s="40" t="n"/>
-      <c r="N40" s="40" t="n"/>
-      <c r="O40" s="40" t="n"/>
-      <c r="P40" s="40" t="n"/>
-      <c r="Q40" s="40" t="n"/>
-      <c r="R40" s="40" t="n"/>
-      <c r="S40" s="40" t="n"/>
-      <c r="T40" s="40" t="n"/>
-      <c r="U40" s="40" t="n"/>
-      <c r="V40" s="40" t="n"/>
-      <c r="W40" s="40" t="n"/>
-      <c r="X40" s="40" t="n"/>
-      <c r="Y40" s="40" t="n"/>
-      <c r="Z40" s="40" t="n"/>
-      <c r="AA40" s="40" t="n"/>
-      <c r="AB40" s="40" t="n"/>
-      <c r="AC40" s="40" t="n"/>
-      <c r="AD40" s="40" t="n"/>
-      <c r="AE40" s="40" t="n"/>
-      <c r="AF40" s="40" t="n"/>
-      <c r="AG40" s="40" t="n"/>
-      <c r="AH40" s="40" t="n"/>
-      <c r="AI40" s="40" t="n"/>
-      <c r="AJ40" s="26" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="37" t="n"/>
-      <c r="B41" s="61" t="n"/>
-      <c r="C41" s="61" t="n"/>
-      <c r="D41" s="61" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="61" t="n"/>
-      <c r="G41" s="61" t="n"/>
-      <c r="H41" s="61" t="n"/>
-      <c r="I41" s="61" t="n"/>
-      <c r="J41" s="61" t="n"/>
-      <c r="K41" s="61" t="n"/>
-      <c r="L41" s="61" t="n"/>
-      <c r="M41" s="61" t="n"/>
-      <c r="N41" s="61" t="n"/>
-      <c r="O41" s="61" t="n"/>
-      <c r="P41" s="61" t="n"/>
-      <c r="Q41" s="61" t="n"/>
-      <c r="R41" s="61" t="n"/>
-      <c r="S41" s="59" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T41" s="61" t="n"/>
-      <c r="U41" s="61" t="n"/>
-      <c r="V41" s="61" t="n"/>
-      <c r="W41" s="61" t="n"/>
-      <c r="X41" s="61" t="n"/>
-      <c r="Y41" s="61" t="n"/>
-      <c r="Z41" s="61" t="n"/>
-      <c r="AA41" s="61" t="n"/>
-      <c r="AB41" s="61" t="n"/>
-      <c r="AC41" s="61" t="n"/>
-      <c r="AD41" s="61" t="n"/>
-      <c r="AE41" s="61" t="n"/>
-      <c r="AF41" s="61" t="n"/>
-      <c r="AG41" s="61" t="n"/>
-      <c r="AH41" s="61" t="n"/>
-      <c r="AI41" s="61" t="n"/>
-      <c r="AJ41" s="28" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A42" s="37" t="n"/>
-      <c r="B42" s="61" t="n"/>
-      <c r="C42" s="61" t="n"/>
-      <c r="D42" s="61" t="n"/>
-      <c r="E42" s="61" t="n"/>
-      <c r="F42" s="61" t="n"/>
-      <c r="G42" s="61" t="n"/>
-      <c r="H42" s="61" t="n"/>
-      <c r="I42" s="61" t="n"/>
-      <c r="J42" s="61" t="n"/>
-      <c r="K42" s="61" t="n"/>
-      <c r="L42" s="61" t="n"/>
-      <c r="M42" s="61" t="n"/>
-      <c r="N42" s="61" t="n"/>
-      <c r="O42" s="61" t="n"/>
-      <c r="P42" s="61" t="n"/>
-      <c r="Q42" s="61" t="n"/>
-      <c r="R42" s="61" t="n"/>
-      <c r="S42" s="61" t="n"/>
-      <c r="T42" s="61" t="n"/>
-      <c r="U42" s="61" t="n"/>
-      <c r="V42" s="61" t="n"/>
-      <c r="W42" s="61" t="n"/>
-      <c r="X42" s="61" t="n"/>
-      <c r="Y42" s="61" t="n"/>
-      <c r="Z42" s="61" t="n"/>
-      <c r="AA42" s="61" t="n"/>
-      <c r="AB42" s="61" t="n"/>
-      <c r="AC42" s="61" t="n"/>
-      <c r="AD42" s="61" t="n"/>
-      <c r="AE42" s="61" t="n"/>
-      <c r="AF42" s="61" t="n"/>
-      <c r="AG42" s="61" t="n"/>
-      <c r="AH42" s="61" t="n"/>
-      <c r="AI42" s="61" t="n"/>
-      <c r="AJ42" s="28" t="n"/>
-    </row>
-    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 
-</t>
-        </is>
-      </c>
-      <c r="B43" s="88" t="inlineStr">
-        <is>
-          <t>Piping Class Doc: MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C43" s="97" t="n"/>
-      <c r="D43" s="97" t="n"/>
-      <c r="E43" s="97" t="n"/>
-      <c r="F43" s="97" t="n"/>
-      <c r="G43" s="97" t="n"/>
-      <c r="H43" s="97" t="n"/>
-      <c r="I43" s="97" t="n"/>
-      <c r="J43" s="97" t="n"/>
-      <c r="K43" s="97" t="n"/>
-      <c r="L43" s="97" t="n"/>
-      <c r="M43" s="97" t="n"/>
-      <c r="N43" s="97" t="n"/>
-      <c r="O43" s="97" t="n"/>
-      <c r="P43" s="97" t="n"/>
-      <c r="Q43" s="97" t="n"/>
-      <c r="R43" s="97" t="n"/>
-      <c r="S43" s="97" t="n"/>
-      <c r="T43" s="97" t="n"/>
-      <c r="U43" s="97" t="n"/>
-      <c r="V43" s="97" t="n"/>
-      <c r="W43" s="97" t="n"/>
-      <c r="X43" s="97" t="n"/>
-      <c r="Y43" s="97" t="n"/>
-      <c r="Z43" s="97" t="n"/>
-      <c r="AA43" s="97" t="n"/>
-      <c r="AB43" s="97" t="n"/>
-      <c r="AC43" s="97" t="n"/>
-      <c r="AD43" s="97" t="n"/>
-      <c r="AE43" s="97" t="n"/>
-      <c r="AF43" s="97" t="n"/>
-      <c r="AG43" s="97" t="n"/>
-      <c r="AH43" s="97" t="n"/>
-      <c r="AI43" s="97" t="n"/>
-      <c r="AJ43" s="99" t="n"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="n"/>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
-      <c r="P44" s="2" t="n"/>
-      <c r="Q44" s="2" t="n"/>
-      <c r="R44" s="2" t="n"/>
-      <c r="S44" s="2" t="n"/>
-      <c r="T44" s="2" t="n"/>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="n"/>
-      <c r="W44" s="2" t="n"/>
-      <c r="X44" s="2" t="n"/>
-      <c r="Y44" s="2" t="n"/>
-      <c r="Z44" s="2" t="n"/>
-      <c r="AA44" s="2" t="n"/>
-      <c r="AB44" s="2" t="n"/>
-      <c r="AC44" s="2" t="n"/>
-      <c r="AD44" s="2" t="n"/>
-      <c r="AE44" s="2" t="n"/>
-      <c r="AF44" s="2" t="n"/>
-      <c r="AG44" s="2" t="n"/>
-      <c r="AH44" s="2" t="n"/>
-      <c r="AI44" s="2" t="n"/>
-      <c r="AJ44" s="2" t="n"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="B45:AH45"/>
-    <mergeCell ref="B43:AJ43"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="AD12:AI12"/>
     <mergeCell ref="AC26:AI26"/>
     <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="H32:X32"/>
-    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="P16:R16"/>
     <mergeCell ref="AA16:AC16"/>
     <mergeCell ref="H17:N17"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="AB25:AD25"/>
     <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AG22:AI22"/>
     <mergeCell ref="A23:K23"/>
-    <mergeCell ref="H33:X33"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="H39:AI39"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="AC32:AI32"/>
-    <mergeCell ref="AC33:AI33"/>
-    <mergeCell ref="H34:AI34"/>
   </mergeCells>
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="9" scale="64"/>

--- a/output/hd.xlsx
+++ b/output/hd.xlsx
@@ -7,14 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="1" state="veryHidden" r:id="rId1"/>
-    <sheet name="BAV21A0F1C" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BAV21A0I1C" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="BAV24G0I1C" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CKV21A0B2B" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="CKV22A0B2B" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="CLV24F0B2B" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GAV21A0B2B" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="MFV21A0I2I" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="BAV24G0I1C" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BAV24G0I1C (1)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CKV22A0B2B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GAV22A0B2B" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MFV22A0I2I" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
@@ -1234,7 +1231,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>BAV21A0F1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -1280,7 +1277,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>4, 6</t>
+          <t>3/4, 1</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -1573,7 +1570,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -1604,11 +1601,7 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L11" s="69" t="inlineStr"/>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -1620,11 +1613,7 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
+      <c r="T11" s="69" t="inlineStr"/>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -1688,7 +1677,11 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -1759,11 +1752,7 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -1786,7 +1775,11 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>MNF STD</t>
+        </is>
+      </c>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -1889,11 +1882,7 @@
       <c r="X16" s="61" t="n"/>
       <c r="Y16" s="55" t="n"/>
       <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA16" s="68" t="inlineStr"/>
       <c r="AB16" s="95" t="n"/>
       <c r="AC16" s="95" t="n"/>
       <c r="AD16" s="61" t="n"/>
@@ -2314,7 +2303,11 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AB25" s="77" t="inlineStr">
+        <is>
+          <t>API 598</t>
+        </is>
+      </c>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -2563,7 +2556,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM A216 Gr.WCB</t>
+          <t>ASTM A105</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -2615,7 +2608,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="67" t="inlineStr">
         <is>
-          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
+          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -2707,7 +2700,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="67" t="inlineStr">
         <is>
-          <t>ASTM A105 + ENP (3 MILS TO ASTM B733)</t>
+          <t>AISI 316</t>
         </is>
       </c>
       <c r="I34" s="95" t="n"/>
@@ -2753,7 +2746,7 @@
       <c r="G35" s="42" t="n"/>
       <c r="H35" s="67" t="inlineStr">
         <is>
-          <t>AISI 410</t>
+          <t>AISI 316</t>
         </is>
       </c>
       <c r="I35" s="95" t="n"/>
@@ -2929,7 +2922,7 @@
       <c r="G39" s="42" t="n"/>
       <c r="H39" s="67" t="inlineStr">
         <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY</t>
+          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
         </is>
       </c>
       <c r="I39" s="95" t="n"/>
@@ -3377,7 +3370,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>BAV21A0I1C</t>
+          <t>BAV24G0I1C</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -3423,7 +3416,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>2, 3</t>
+          <t>3/4, 1</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -3473,7 +3466,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -3716,7 +3709,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -3747,11 +3740,7 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L11" s="69" t="inlineStr"/>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -3763,11 +3752,7 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
+      <c r="T11" s="69" t="inlineStr"/>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -3831,7 +3816,11 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -3902,11 +3891,7 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -3929,7 +3914,11 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>MNF STD</t>
+        </is>
+      </c>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -4032,11 +4021,7 @@
       <c r="X16" s="61" t="n"/>
       <c r="Y16" s="55" t="n"/>
       <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA16" s="68" t="inlineStr"/>
       <c r="AB16" s="95" t="n"/>
       <c r="AC16" s="95" t="n"/>
       <c r="AD16" s="61" t="n"/>
@@ -4367,7 +4352,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>285</v>
+        <v>740</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -4457,7 +4442,11 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AB25" s="77" t="inlineStr">
+        <is>
+          <t>API 598</t>
+        </is>
+      </c>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -4706,7 +4695,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM A216 Gr.WCB</t>
+          <t>ASTM A105</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -4758,7 +4747,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="67" t="inlineStr">
         <is>
-          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
+          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -5072,7 +5061,7 @@
       <c r="G39" s="42" t="n"/>
       <c r="H39" s="67" t="inlineStr">
         <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY</t>
+          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
         </is>
       </c>
       <c r="I39" s="95" t="n"/>
@@ -5414,7 +5403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5426,7 +5415,7 @@
     <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="11" t="n"/>
       <c r="B1" s="12" t="n"/>
       <c r="C1" s="12" t="n"/>
@@ -5443,7 +5432,7 @@
       <c r="N1" s="12" t="n"/>
       <c r="O1" s="73" t="inlineStr">
         <is>
-          <t>BALL VALVE DATA SHEET</t>
+          <t>CHECK VALVE DATA SHEET</t>
         </is>
       </c>
       <c r="P1" s="94" t="n"/>
@@ -5468,7 +5457,7 @@
       <c r="AI1" s="12" t="n"/>
       <c r="AJ1" s="13" t="n"/>
     </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
+    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="35">
       <c r="A2" s="37" t="n"/>
       <c r="B2" s="61" t="n"/>
       <c r="C2" s="61" t="n"/>
@@ -5520,7 +5509,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>CKV22A0B2B</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -5566,7 +5555,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>1/2, 3/4, 1, 1-1/2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -5616,7 +5605,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -5698,45 +5687,45 @@
       <c r="AI6" s="95" t="n"/>
       <c r="AJ6" s="65" t="n"/>
     </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="57" t="n"/>
-      <c r="B7" s="48" t="n"/>
-      <c r="C7" s="48" t="n"/>
-      <c r="D7" s="48" t="n"/>
-      <c r="E7" s="48" t="n"/>
-      <c r="F7" s="48" t="n"/>
-      <c r="G7" s="48" t="n"/>
-      <c r="H7" s="48" t="n"/>
-      <c r="I7" s="48" t="n"/>
-      <c r="J7" s="48" t="n"/>
-      <c r="K7" s="48" t="n"/>
-      <c r="L7" s="48" t="n"/>
-      <c r="M7" s="48" t="n"/>
-      <c r="N7" s="48" t="n"/>
-      <c r="O7" s="48" t="n"/>
-      <c r="P7" s="48" t="n"/>
-      <c r="Q7" s="48" t="n"/>
-      <c r="R7" s="48" t="n"/>
-      <c r="S7" s="48" t="n"/>
-      <c r="T7" s="48" t="n"/>
-      <c r="U7" s="48" t="n"/>
-      <c r="V7" s="48" t="n"/>
-      <c r="W7" s="48" t="n"/>
-      <c r="X7" s="48" t="n"/>
-      <c r="Y7" s="48" t="n"/>
-      <c r="Z7" s="48" t="n"/>
-      <c r="AA7" s="48" t="n"/>
-      <c r="AB7" s="48" t="n"/>
-      <c r="AC7" s="48" t="n"/>
-      <c r="AD7" s="48" t="n"/>
-      <c r="AE7" s="48" t="n"/>
-      <c r="AF7" s="48" t="n"/>
-      <c r="AG7" s="48" t="n"/>
-      <c r="AH7" s="48" t="n"/>
-      <c r="AI7" s="48" t="n"/>
-      <c r="AJ7" s="31" t="n"/>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
+    <row r="7" ht="14.25" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="15" t="n"/>
       <c r="B8" s="51" t="n"/>
       <c r="C8" s="51" t="n"/>
@@ -5778,7 +5767,7 @@
       <c r="AI8" s="51" t="n"/>
       <c r="AJ8" s="16" t="n"/>
     </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
+    <row r="9" ht="14.25" customFormat="1" customHeight="1" s="35">
       <c r="A9" s="37" t="n"/>
       <c r="B9" s="61" t="n"/>
       <c r="C9" s="61" t="n"/>
@@ -5830,7 +5819,7 @@
       <c r="G10" s="61" t="n"/>
       <c r="H10" s="69" t="inlineStr">
         <is>
-          <t>BALL VALVE, FLOATING BALL</t>
+          <t>SWING CHECK VALVE</t>
         </is>
       </c>
       <c r="I10" s="95" t="n"/>
@@ -5859,7 +5848,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -5890,7 +5879,11 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr"/>
+      <c r="L11" s="69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -5902,7 +5895,11 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr"/>
+      <c r="T11" s="69" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -5966,11 +5963,7 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
+      <c r="AD12" s="68" t="inlineStr"/>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -6041,2149 +6034,6 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr"/>
-      <c r="R14" s="95" t="n"/>
-      <c r="S14" s="95" t="n"/>
-      <c r="T14" s="61" t="n"/>
-      <c r="U14" s="61" t="n"/>
-      <c r="V14" s="61" t="n"/>
-      <c r="W14" s="61" t="n"/>
-      <c r="X14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.11</t>
-        </is>
-      </c>
-      <c r="Y14" s="68" t="inlineStr"/>
-      <c r="Z14" s="95" t="n"/>
-      <c r="AA14" s="95" t="n"/>
-      <c r="AB14" s="61" t="n"/>
-      <c r="AC14" s="61" t="n"/>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr">
-        <is>
-          <t>MNF STD</t>
-        </is>
-      </c>
-      <c r="AG14" s="95" t="n"/>
-      <c r="AH14" s="95" t="n"/>
-      <c r="AI14" s="95" t="n"/>
-      <c r="AJ14" s="16" t="n"/>
-    </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>BORE:</t>
-        </is>
-      </c>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="61" t="n"/>
-      <c r="D15" s="61" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="61" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="I15" s="61" t="n"/>
-      <c r="J15" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K15" s="95" t="n"/>
-      <c r="L15" s="95" t="n"/>
-      <c r="M15" s="95" t="n"/>
-      <c r="N15" s="95" t="n"/>
-      <c r="O15" s="95" t="n"/>
-      <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="inlineStr">
-        <is>
-          <t>REDUCED</t>
-        </is>
-      </c>
-      <c r="R15" s="61" t="n"/>
-      <c r="S15" s="61" t="n"/>
-      <c r="T15" s="68" t="inlineStr"/>
-      <c r="U15" s="95" t="n"/>
-      <c r="V15" s="95" t="n"/>
-      <c r="W15" s="95" t="n"/>
-      <c r="X15" s="95" t="n"/>
-      <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="inlineStr">
-        <is>
-          <t>ACCORDING TO:</t>
-        </is>
-      </c>
-      <c r="AA15" s="61" t="n"/>
-      <c r="AB15" s="61" t="n"/>
-      <c r="AC15" s="61" t="n"/>
-      <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="68" t="inlineStr"/>
-      <c r="AF15" s="95" t="n"/>
-      <c r="AG15" s="95" t="n"/>
-      <c r="AH15" s="95" t="n"/>
-      <c r="AI15" s="95" t="n"/>
-      <c r="AJ15" s="16" t="n"/>
-    </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>LENGHT:</t>
-        </is>
-      </c>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="61" t="n"/>
-      <c r="D16" s="61" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="61" t="n"/>
-      <c r="G16" s="61" t="n"/>
-      <c r="H16" s="61" t="n"/>
-      <c r="I16" s="61" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="61" t="n"/>
-      <c r="L16" s="61" t="n"/>
-      <c r="M16" s="61" t="n"/>
-      <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="inlineStr">
-        <is>
-          <t>SHORT  PATTERN</t>
-        </is>
-      </c>
-      <c r="P16" s="68" t="inlineStr"/>
-      <c r="Q16" s="95" t="n"/>
-      <c r="R16" s="95" t="n"/>
-      <c r="S16" s="61" t="n"/>
-      <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="inlineStr">
-        <is>
-          <t>REG./LONG  PATTERN</t>
-        </is>
-      </c>
-      <c r="V16" s="61" t="n"/>
-      <c r="W16" s="61" t="n"/>
-      <c r="X16" s="61" t="n"/>
-      <c r="Y16" s="55" t="n"/>
-      <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr"/>
-      <c r="AB16" s="95" t="n"/>
-      <c r="AC16" s="95" t="n"/>
-      <c r="AD16" s="61" t="n"/>
-      <c r="AE16" s="61" t="n"/>
-      <c r="AF16" s="61" t="n"/>
-      <c r="AG16" s="61" t="n"/>
-      <c r="AH16" s="61" t="n"/>
-      <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="16" t="n"/>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A17" s="17" t="inlineStr">
-        <is>
-          <t>TYPE OPERATOR :</t>
-        </is>
-      </c>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="61" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="69" t="inlineStr">
-        <is>
-          <t>LEVER OPERATOR</t>
-        </is>
-      </c>
-      <c r="I17" s="95" t="n"/>
-      <c r="J17" s="95" t="n"/>
-      <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="n"/>
-      <c r="M17" s="95" t="n"/>
-      <c r="N17" s="95" t="n"/>
-      <c r="O17" s="61" t="n"/>
-      <c r="P17" s="61" t="n"/>
-      <c r="Q17" s="61" t="n"/>
-      <c r="R17" s="61" t="n"/>
-      <c r="S17" s="61" t="n"/>
-      <c r="T17" s="61" t="n"/>
-      <c r="U17" s="61" t="n"/>
-      <c r="V17" s="61" t="n"/>
-      <c r="W17" s="61" t="n"/>
-      <c r="X17" s="61" t="n"/>
-      <c r="Y17" s="61" t="n"/>
-      <c r="Z17" s="61" t="n"/>
-      <c r="AA17" s="61" t="n"/>
-      <c r="AB17" s="61" t="n"/>
-      <c r="AC17" s="61" t="n"/>
-      <c r="AD17" s="61" t="n"/>
-      <c r="AE17" s="61" t="n"/>
-      <c r="AF17" s="61" t="n"/>
-      <c r="AG17" s="61" t="n"/>
-      <c r="AH17" s="61" t="n"/>
-      <c r="AI17" s="61" t="n"/>
-      <c r="AJ17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A18" s="37" t="n"/>
-      <c r="B18" s="61" t="n"/>
-      <c r="C18" s="61" t="n"/>
-      <c r="D18" s="61" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="61" t="n"/>
-      <c r="G18" s="61" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="61" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="61" t="n"/>
-      <c r="L18" s="61" t="n"/>
-      <c r="M18" s="61" t="n"/>
-      <c r="N18" s="61" t="n"/>
-      <c r="O18" s="61" t="n"/>
-      <c r="P18" s="61" t="n"/>
-      <c r="Q18" s="61" t="n"/>
-      <c r="R18" s="61" t="n"/>
-      <c r="S18" s="61" t="n"/>
-      <c r="T18" s="61" t="n"/>
-      <c r="U18" s="61" t="n"/>
-      <c r="V18" s="61" t="n"/>
-      <c r="W18" s="61" t="n"/>
-      <c r="X18" s="61" t="n"/>
-      <c r="Y18" s="55" t="n"/>
-      <c r="Z18" s="61" t="n"/>
-      <c r="AA18" s="61" t="n"/>
-      <c r="AB18" s="61" t="n"/>
-      <c r="AC18" s="61" t="n"/>
-      <c r="AD18" s="61" t="n"/>
-      <c r="AE18" s="61" t="n"/>
-      <c r="AF18" s="61" t="n"/>
-      <c r="AG18" s="61" t="n"/>
-      <c r="AH18" s="61" t="n"/>
-      <c r="AI18" s="61" t="n"/>
-      <c r="AJ18" s="28" t="n"/>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="51" t="n"/>
-      <c r="C19" s="51" t="n"/>
-      <c r="D19" s="51" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
-      <c r="G19" s="51" t="n"/>
-      <c r="H19" s="51" t="n"/>
-      <c r="I19" s="51" t="n"/>
-      <c r="J19" s="51" t="n"/>
-      <c r="K19" s="51" t="n"/>
-      <c r="L19" s="51" t="n"/>
-      <c r="M19" s="51" t="n"/>
-      <c r="N19" s="51" t="n"/>
-      <c r="O19" s="51" t="n"/>
-      <c r="P19" s="51" t="n"/>
-      <c r="Q19" s="51" t="n"/>
-      <c r="R19" s="51" t="n"/>
-      <c r="S19" s="52" t="inlineStr">
-        <is>
-          <t>D E S I G N</t>
-        </is>
-      </c>
-      <c r="T19" s="51" t="n"/>
-      <c r="U19" s="51" t="n"/>
-      <c r="V19" s="51" t="n"/>
-      <c r="W19" s="51" t="n"/>
-      <c r="X19" s="51" t="n"/>
-      <c r="Y19" s="51" t="n"/>
-      <c r="Z19" s="51" t="n"/>
-      <c r="AA19" s="51" t="n"/>
-      <c r="AB19" s="51" t="n"/>
-      <c r="AC19" s="51" t="n"/>
-      <c r="AD19" s="51" t="n"/>
-      <c r="AE19" s="51" t="n"/>
-      <c r="AF19" s="51" t="n"/>
-      <c r="AG19" s="51" t="n"/>
-      <c r="AH19" s="51" t="n"/>
-      <c r="AI19" s="51" t="n"/>
-      <c r="AJ19" s="16" t="n"/>
-    </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A20" s="37" t="n"/>
-      <c r="B20" s="61" t="n"/>
-      <c r="C20" s="61" t="n"/>
-      <c r="D20" s="61" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="61" t="n"/>
-      <c r="H20" s="61" t="n"/>
-      <c r="I20" s="61" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="61" t="n"/>
-      <c r="L20" s="61" t="n"/>
-      <c r="M20" s="61" t="n"/>
-      <c r="N20" s="61" t="n"/>
-      <c r="O20" s="61" t="n"/>
-      <c r="P20" s="61" t="n"/>
-      <c r="Q20" s="61" t="n"/>
-      <c r="R20" s="61" t="n"/>
-      <c r="S20" s="61" t="n"/>
-      <c r="T20" s="61" t="n"/>
-      <c r="U20" s="61" t="n"/>
-      <c r="V20" s="61" t="n"/>
-      <c r="W20" s="61" t="n"/>
-      <c r="X20" s="61" t="n"/>
-      <c r="Y20" s="61" t="n"/>
-      <c r="Z20" s="61" t="n"/>
-      <c r="AA20" s="61" t="n"/>
-      <c r="AB20" s="61" t="n"/>
-      <c r="AC20" s="61" t="n"/>
-      <c r="AD20" s="61" t="n"/>
-      <c r="AE20" s="61" t="n"/>
-      <c r="AF20" s="61" t="n"/>
-      <c r="AG20" s="61" t="n"/>
-      <c r="AH20" s="61" t="n"/>
-      <c r="AI20" s="61" t="n"/>
-      <c r="AJ20" s="28" t="n"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>APPLICABLE PIPING</t>
-        </is>
-      </c>
-      <c r="B21" s="61" t="n"/>
-      <c r="C21" s="61" t="n"/>
-      <c r="D21" s="61" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="61" t="n"/>
-      <c r="H21" s="61" t="n"/>
-      <c r="I21" s="61" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="61" t="n"/>
-      <c r="L21" s="61" t="n"/>
-      <c r="M21" s="61" t="n"/>
-      <c r="N21" s="61" t="n"/>
-      <c r="O21" s="61" t="n"/>
-      <c r="P21" s="61" t="n"/>
-      <c r="Q21" s="61" t="n"/>
-      <c r="R21" s="61" t="n"/>
-      <c r="S21" s="61" t="n"/>
-      <c r="T21" s="61" t="n"/>
-      <c r="U21" s="61" t="n"/>
-      <c r="V21" s="61" t="n"/>
-      <c r="W21" s="61" t="n"/>
-      <c r="X21" s="61" t="n"/>
-      <c r="Y21" s="61" t="n"/>
-      <c r="Z21" s="61" t="n"/>
-      <c r="AA21" s="61" t="n"/>
-      <c r="AB21" s="61" t="n"/>
-      <c r="AC21" s="61" t="n"/>
-      <c r="AD21" s="61" t="n"/>
-      <c r="AE21" s="61" t="n"/>
-      <c r="AF21" s="61" t="n"/>
-      <c r="AG21" s="61" t="n"/>
-      <c r="AH21" s="61" t="n"/>
-      <c r="AI21" s="61" t="n"/>
-      <c r="AJ21" s="28" t="n"/>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DESIGN CODE:       </t>
-        </is>
-      </c>
-      <c r="B22" s="61" t="n"/>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>API 600</t>
-        </is>
-      </c>
-      <c r="I22" s="68" t="inlineStr"/>
-      <c r="J22" s="95" t="n"/>
-      <c r="K22" s="61" t="n"/>
-      <c r="L22" s="61" t="n"/>
-      <c r="M22" s="81" t="inlineStr">
-        <is>
-          <t>API 6D</t>
-        </is>
-      </c>
-      <c r="N22" s="61" t="n"/>
-      <c r="O22" s="68" t="inlineStr"/>
-      <c r="P22" s="95" t="n"/>
-      <c r="Q22" s="61" t="n"/>
-      <c r="R22" s="61" t="n"/>
-      <c r="S22" s="61" t="n"/>
-      <c r="T22" s="53" t="inlineStr">
-        <is>
-          <t>API 608</t>
-        </is>
-      </c>
-      <c r="U22" s="71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V22" s="95" t="n"/>
-      <c r="W22" s="61" t="n"/>
-      <c r="X22" s="61" t="n"/>
-      <c r="Y22" s="61" t="n"/>
-      <c r="Z22" s="56" t="inlineStr">
-        <is>
-          <t>API 602</t>
-        </is>
-      </c>
-      <c r="AA22" s="68" t="inlineStr"/>
-      <c r="AB22" s="95" t="n"/>
-      <c r="AC22" s="61" t="n"/>
-      <c r="AD22" s="61" t="n"/>
-      <c r="AE22" s="79" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AG22" s="68" t="inlineStr"/>
-      <c r="AH22" s="95" t="n"/>
-      <c r="AI22" s="95" t="n"/>
-      <c r="AJ22" s="28" t="n"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
-        </is>
-      </c>
-      <c r="L23" s="90" t="inlineStr">
-        <is>
-          <t>FIRE SAFE AS PER API 607</t>
-        </is>
-      </c>
-      <c r="M23" s="95" t="n"/>
-      <c r="N23" s="95" t="n"/>
-      <c r="O23" s="95" t="n"/>
-      <c r="P23" s="95" t="n"/>
-      <c r="Q23" s="95" t="n"/>
-      <c r="R23" s="95" t="n"/>
-      <c r="S23" s="95" t="n"/>
-      <c r="T23" s="95" t="n"/>
-      <c r="U23" s="95" t="n"/>
-      <c r="V23" s="95" t="n"/>
-      <c r="W23" s="95" t="n"/>
-      <c r="X23" s="95" t="n"/>
-      <c r="Y23" s="95" t="n"/>
-      <c r="Z23" s="95" t="n"/>
-      <c r="AA23" s="95" t="n"/>
-      <c r="AB23" s="95" t="n"/>
-      <c r="AC23" s="95" t="n"/>
-      <c r="AD23" s="95" t="n"/>
-      <c r="AE23" s="95" t="n"/>
-      <c r="AF23" s="95" t="n"/>
-      <c r="AG23" s="95" t="n"/>
-      <c r="AH23" s="95" t="n"/>
-      <c r="AI23" s="95" t="n"/>
-      <c r="AJ23" s="28" t="n"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="68" t="n">
-        <v>285</v>
-      </c>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="95" t="n"/>
-      <c r="K24" s="95" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="95" t="n"/>
-      <c r="N24" s="95" t="n"/>
-      <c r="O24" s="95" t="n"/>
-      <c r="P24" s="24" t="inlineStr">
-        <is>
-          <t>PSIG @100°F</t>
-        </is>
-      </c>
-      <c r="Q24" s="61" t="n"/>
-      <c r="R24" s="61" t="n"/>
-      <c r="S24" s="61" t="n"/>
-      <c r="T24" s="61" t="n"/>
-      <c r="U24" s="61" t="n"/>
-      <c r="V24" s="61" t="n"/>
-      <c r="W24" s="61" t="n"/>
-      <c r="X24" s="61" t="n"/>
-      <c r="Y24" s="61" t="n"/>
-      <c r="Z24" s="49" t="inlineStr">
-        <is>
-          <t>DESIGN TEMP:</t>
-        </is>
-      </c>
-      <c r="AA24" s="61" t="n"/>
-      <c r="AB24" s="69" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="95" t="n"/>
-      <c r="AD24" s="24" t="inlineStr">
-        <is>
-          <t>F. MIN</t>
-        </is>
-      </c>
-      <c r="AE24" s="61" t="n"/>
-      <c r="AF24" s="69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="95" t="n"/>
-      <c r="AH24" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F. MAX</t>
-        </is>
-      </c>
-      <c r="AI24" s="61" t="n"/>
-      <c r="AJ24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B25" s="61" t="n"/>
-      <c r="C25" s="61" t="n"/>
-      <c r="D25" s="61" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="61" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="61" t="n"/>
-      <c r="I25" s="61" t="n"/>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="32" t="n"/>
-      <c r="L25" s="32" t="n"/>
-      <c r="M25" s="32" t="n"/>
-      <c r="N25" s="32" t="n"/>
-      <c r="O25" s="32" t="n"/>
-      <c r="P25" s="33" t="n"/>
-      <c r="Q25" s="79" t="inlineStr">
-        <is>
-          <t>PSIG</t>
-        </is>
-      </c>
-      <c r="S25" s="61" t="n"/>
-      <c r="T25" s="61" t="n"/>
-      <c r="U25" s="61" t="n"/>
-      <c r="V25" s="61" t="n"/>
-      <c r="W25" s="24" t="inlineStr">
-        <is>
-          <t>TEST PRESSURE:</t>
-        </is>
-      </c>
-      <c r="X25" s="61" t="n"/>
-      <c r="Y25" s="61" t="n"/>
-      <c r="Z25" s="61" t="n"/>
-      <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr">
-        <is>
-          <t>API 598</t>
-        </is>
-      </c>
-      <c r="AC25" s="95" t="n"/>
-      <c r="AD25" s="95" t="n"/>
-      <c r="AE25" s="24" t="n"/>
-      <c r="AF25" s="78" t="n"/>
-      <c r="AH25" s="61" t="n"/>
-      <c r="AI25" s="61" t="n"/>
-      <c r="AJ25" s="31" t="n"/>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>CONTAMINANTS :</t>
-        </is>
-      </c>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="61" t="n"/>
-      <c r="G26" s="61" t="n"/>
-      <c r="H26" s="24" t="inlineStr">
-        <is>
-          <t>CO2:</t>
-        </is>
-      </c>
-      <c r="I26" s="19" t="n"/>
-      <c r="J26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n"/>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="n"/>
-      <c r="Q26" s="61" t="n"/>
-      <c r="R26" s="61" t="n"/>
-      <c r="S26" s="49" t="inlineStr">
-        <is>
-          <t>CHLORIDE:</t>
-        </is>
-      </c>
-      <c r="T26" s="85" t="n"/>
-      <c r="U26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V26" s="20" t="n"/>
-      <c r="W26" s="33" t="n"/>
-      <c r="X26" s="33" t="n"/>
-      <c r="Y26" s="33" t="n"/>
-      <c r="Z26" s="33" t="n"/>
-      <c r="AA26" s="61" t="n"/>
-      <c r="AB26" s="53" t="inlineStr">
-        <is>
-          <t>H2S:</t>
-        </is>
-      </c>
-      <c r="AC26" s="70" t="n"/>
-      <c r="AD26" s="95" t="n"/>
-      <c r="AE26" s="95" t="n"/>
-      <c r="AF26" s="95" t="n"/>
-      <c r="AG26" s="95" t="n"/>
-      <c r="AH26" s="95" t="n"/>
-      <c r="AI26" s="95" t="n"/>
-      <c r="AJ26" s="28" t="n"/>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A27" s="37" t="n"/>
-      <c r="B27" s="61" t="n"/>
-      <c r="C27" s="61" t="n"/>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="61" t="n"/>
-      <c r="G27" s="61" t="n"/>
-      <c r="H27" s="24" t="inlineStr">
-        <is>
-          <t>METHANOL :</t>
-        </is>
-      </c>
-      <c r="I27" s="61" t="n"/>
-      <c r="J27" s="61" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n"/>
-      <c r="M27" s="33" t="n"/>
-      <c r="N27" s="33" t="n"/>
-      <c r="O27" s="33" t="n"/>
-      <c r="P27" s="33" t="n"/>
-      <c r="Q27" s="33" t="n"/>
-      <c r="R27" s="33" t="n"/>
-      <c r="S27" s="33" t="n"/>
-      <c r="T27" s="33" t="n"/>
-      <c r="U27" s="61" t="n"/>
-      <c r="V27" s="61" t="n"/>
-      <c r="W27" s="53" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="95" t="n"/>
-      <c r="Z27" s="95" t="n"/>
-      <c r="AA27" s="95" t="n"/>
-      <c r="AB27" s="95" t="n"/>
-      <c r="AC27" s="95" t="n"/>
-      <c r="AD27" s="95" t="n"/>
-      <c r="AE27" s="95" t="n"/>
-      <c r="AF27" s="95" t="n"/>
-      <c r="AG27" s="95" t="n"/>
-      <c r="AH27" s="95" t="n"/>
-      <c r="AI27" s="95" t="n"/>
-      <c r="AJ27" s="28" t="n"/>
-    </row>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A28" s="37" t="n"/>
-      <c r="B28" s="61" t="n"/>
-      <c r="C28" s="61" t="n"/>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="61" t="n"/>
-      <c r="G28" s="61" t="n"/>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="61" t="n"/>
-      <c r="J28" s="61" t="n"/>
-      <c r="K28" s="61" t="n"/>
-      <c r="L28" s="61" t="n"/>
-      <c r="M28" s="61" t="n"/>
-      <c r="N28" s="61" t="n"/>
-      <c r="O28" s="61" t="n"/>
-      <c r="P28" s="61" t="n"/>
-      <c r="Q28" s="61" t="n"/>
-      <c r="R28" s="61" t="n"/>
-      <c r="S28" s="61" t="n"/>
-      <c r="T28" s="61" t="n"/>
-      <c r="U28" s="61" t="n"/>
-      <c r="V28" s="61" t="n"/>
-      <c r="W28" s="61" t="n"/>
-      <c r="X28" s="61" t="n"/>
-      <c r="Y28" s="61" t="n"/>
-      <c r="Z28" s="61" t="n"/>
-      <c r="AA28" s="61" t="n"/>
-      <c r="AB28" s="61" t="n"/>
-      <c r="AC28" s="61" t="n"/>
-      <c r="AD28" s="61" t="n"/>
-      <c r="AE28" s="61" t="n"/>
-      <c r="AF28" s="61" t="n"/>
-      <c r="AG28" s="61" t="n"/>
-      <c r="AH28" s="61" t="n"/>
-      <c r="AI28" s="61" t="n"/>
-      <c r="AJ28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
-      <c r="G29" s="51" t="n"/>
-      <c r="H29" s="51" t="n"/>
-      <c r="I29" s="51" t="n"/>
-      <c r="J29" s="51" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-      <c r="P29" s="51" t="n"/>
-      <c r="Q29" s="51" t="n"/>
-      <c r="R29" s="51" t="n"/>
-      <c r="S29" s="52" t="inlineStr">
-        <is>
-          <t>M A T E R I A L S</t>
-        </is>
-      </c>
-      <c r="T29" s="51" t="n"/>
-      <c r="U29" s="51" t="n"/>
-      <c r="V29" s="51" t="n"/>
-      <c r="W29" s="51" t="n"/>
-      <c r="X29" s="51" t="n"/>
-      <c r="Y29" s="51" t="n"/>
-      <c r="Z29" s="51" t="n"/>
-      <c r="AA29" s="51" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="51" t="n"/>
-      <c r="AD29" s="51" t="n"/>
-      <c r="AE29" s="51" t="n"/>
-      <c r="AF29" s="51" t="n"/>
-      <c r="AG29" s="51" t="n"/>
-      <c r="AH29" s="51" t="n"/>
-      <c r="AI29" s="51" t="n"/>
-      <c r="AJ29" s="16" t="n"/>
-    </row>
-    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="51" t="n"/>
-      <c r="C30" s="51" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
-      <c r="G30" s="51" t="n"/>
-      <c r="H30" s="51" t="n"/>
-      <c r="I30" s="51" t="n"/>
-      <c r="J30" s="51" t="n"/>
-      <c r="K30" s="51" t="n"/>
-      <c r="L30" s="51" t="n"/>
-      <c r="M30" s="51" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-      <c r="P30" s="51" t="n"/>
-      <c r="Q30" s="51" t="n"/>
-      <c r="R30" s="51" t="n"/>
-      <c r="S30" s="52" t="n"/>
-      <c r="T30" s="51" t="n"/>
-      <c r="U30" s="51" t="n"/>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="51" t="n"/>
-      <c r="X30" s="51" t="n"/>
-      <c r="Y30" s="51" t="n"/>
-      <c r="Z30" s="51" t="n"/>
-      <c r="AA30" s="51" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="51" t="n"/>
-      <c r="AD30" s="51" t="n"/>
-      <c r="AE30" s="51" t="n"/>
-      <c r="AF30" s="51" t="n"/>
-      <c r="AG30" s="51" t="n"/>
-      <c r="AH30" s="51" t="n"/>
-      <c r="AI30" s="51" t="n"/>
-      <c r="AJ30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="42" t="n"/>
-      <c r="G31" s="42" t="n"/>
-      <c r="H31" s="67" t="inlineStr">
-        <is>
-          <t>ASTM A105</t>
-        </is>
-      </c>
-      <c r="I31" s="95" t="n"/>
-      <c r="J31" s="95" t="n"/>
-      <c r="K31" s="95" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="95" t="n"/>
-      <c r="N31" s="95" t="n"/>
-      <c r="O31" s="95" t="n"/>
-      <c r="P31" s="95" t="n"/>
-      <c r="Q31" s="95" t="n"/>
-      <c r="R31" s="95" t="n"/>
-      <c r="S31" s="95" t="n"/>
-      <c r="T31" s="95" t="n"/>
-      <c r="U31" s="95" t="n"/>
-      <c r="V31" s="95" t="n"/>
-      <c r="W31" s="95" t="n"/>
-      <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AC31" s="68" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD31" s="95" t="n"/>
-      <c r="AE31" s="95" t="n"/>
-      <c r="AF31" s="95" t="n"/>
-      <c r="AG31" s="95" t="n"/>
-      <c r="AH31" s="95" t="n"/>
-      <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
-      <c r="E32" s="42" t="n"/>
-      <c r="F32" s="42" t="n"/>
-      <c r="G32" s="42" t="n"/>
-      <c r="H32" s="67" t="inlineStr">
-        <is>
-          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="95" t="n"/>
-      <c r="Z32" s="95" t="n"/>
-      <c r="AA32" s="95" t="n"/>
-      <c r="AB32" s="95" t="n"/>
-      <c r="AC32" s="95" t="n"/>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="67" t="inlineStr">
-        <is>
-          <t>STEM: GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I33" s="95" t="n"/>
-      <c r="J33" s="95" t="n"/>
-      <c r="K33" s="95" t="n"/>
-      <c r="L33" s="95" t="n"/>
-      <c r="M33" s="95" t="n"/>
-      <c r="N33" s="95" t="n"/>
-      <c r="O33" s="95" t="n"/>
-      <c r="P33" s="95" t="n"/>
-      <c r="Q33" s="95" t="n"/>
-      <c r="R33" s="95" t="n"/>
-      <c r="S33" s="95" t="n"/>
-      <c r="T33" s="95" t="n"/>
-      <c r="U33" s="95" t="n"/>
-      <c r="V33" s="95" t="n"/>
-      <c r="W33" s="95" t="n"/>
-      <c r="X33" s="95" t="n"/>
-      <c r="Y33" s="95" t="n"/>
-      <c r="Z33" s="95" t="n"/>
-      <c r="AA33" s="95" t="n"/>
-      <c r="AB33" s="95" t="n"/>
-      <c r="AC33" s="95" t="n"/>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="83" t="inlineStr">
-        <is>
-          <t>BALL:</t>
-        </is>
-      </c>
-      <c r="B34" s="42" t="n"/>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="67" t="inlineStr">
-        <is>
-          <t>AISI 316</t>
-        </is>
-      </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
-    </row>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t>STEM :</t>
-        </is>
-      </c>
-      <c r="B35" s="42" t="n"/>
-      <c r="C35" s="42" t="n"/>
-      <c r="D35" s="42" t="n"/>
-      <c r="E35" s="42" t="n"/>
-      <c r="F35" s="42" t="n"/>
-      <c r="G35" s="42" t="n"/>
-      <c r="H35" s="67" t="inlineStr">
-        <is>
-          <t>AISI 316</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
-        </is>
-      </c>
-      <c r="B36" s="42" t="n"/>
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="67" t="inlineStr">
-        <is>
-          <t>RINGS: RPTFE</t>
-        </is>
-      </c>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
-      <c r="B37" s="42" t="n"/>
-      <c r="C37" s="42" t="n"/>
-      <c r="D37" s="42" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="42" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="67" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="n"/>
-      <c r="B38" s="42" t="n"/>
-      <c r="C38" s="42" t="n"/>
-      <c r="D38" s="42" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="42" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="67" t="n"/>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A39" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
-      <c r="B39" s="42" t="n"/>
-      <c r="C39" s="42" t="n"/>
-      <c r="D39" s="42" t="n"/>
-      <c r="E39" s="42" t="n"/>
-      <c r="F39" s="42" t="n"/>
-      <c r="G39" s="42" t="n"/>
-      <c r="H39" s="67" t="inlineStr">
-        <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
-        </is>
-      </c>
-      <c r="I39" s="95" t="n"/>
-      <c r="J39" s="95" t="n"/>
-      <c r="K39" s="95" t="n"/>
-      <c r="L39" s="95" t="n"/>
-      <c r="M39" s="95" t="n"/>
-      <c r="N39" s="95" t="n"/>
-      <c r="O39" s="95" t="n"/>
-      <c r="P39" s="95" t="n"/>
-      <c r="Q39" s="95" t="n"/>
-      <c r="R39" s="95" t="n"/>
-      <c r="S39" s="95" t="n"/>
-      <c r="T39" s="95" t="n"/>
-      <c r="U39" s="95" t="n"/>
-      <c r="V39" s="95" t="n"/>
-      <c r="W39" s="95" t="n"/>
-      <c r="X39" s="95" t="n"/>
-      <c r="Y39" s="95" t="n"/>
-      <c r="Z39" s="95" t="n"/>
-      <c r="AA39" s="95" t="n"/>
-      <c r="AB39" s="95" t="n"/>
-      <c r="AC39" s="95" t="n"/>
-      <c r="AD39" s="95" t="n"/>
-      <c r="AE39" s="95" t="n"/>
-      <c r="AF39" s="95" t="n"/>
-      <c r="AG39" s="95" t="n"/>
-      <c r="AH39" s="95" t="n"/>
-      <c r="AI39" s="95" t="n"/>
-      <c r="AJ39" s="16" t="n"/>
-    </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A40" s="18" t="n"/>
-      <c r="B40" s="42" t="n"/>
-      <c r="C40" s="42" t="n"/>
-      <c r="D40" s="42" t="n"/>
-      <c r="E40" s="42" t="n"/>
-      <c r="F40" s="42" t="n"/>
-      <c r="G40" s="42" t="n"/>
-      <c r="H40" s="67" t="n"/>
-      <c r="I40" s="95" t="n"/>
-      <c r="J40" s="95" t="n"/>
-      <c r="K40" s="95" t="n"/>
-      <c r="L40" s="95" t="n"/>
-      <c r="M40" s="95" t="n"/>
-      <c r="N40" s="95" t="n"/>
-      <c r="O40" s="95" t="n"/>
-      <c r="P40" s="95" t="n"/>
-      <c r="Q40" s="95" t="n"/>
-      <c r="R40" s="95" t="n"/>
-      <c r="S40" s="95" t="n"/>
-      <c r="T40" s="95" t="n"/>
-      <c r="U40" s="95" t="n"/>
-      <c r="V40" s="95" t="n"/>
-      <c r="W40" s="95" t="n"/>
-      <c r="X40" s="95" t="n"/>
-      <c r="Y40" s="95" t="n"/>
-      <c r="Z40" s="95" t="n"/>
-      <c r="AA40" s="95" t="n"/>
-      <c r="AB40" s="95" t="n"/>
-      <c r="AC40" s="95" t="n"/>
-      <c r="AD40" s="95" t="n"/>
-      <c r="AE40" s="95" t="n"/>
-      <c r="AF40" s="95" t="n"/>
-      <c r="AG40" s="95" t="n"/>
-      <c r="AH40" s="95" t="n"/>
-      <c r="AI40" s="95" t="n"/>
-      <c r="AJ40" s="16" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="37" t="n"/>
-      <c r="B41" s="61" t="n"/>
-      <c r="C41" s="61" t="n"/>
-      <c r="D41" s="61" t="n"/>
-      <c r="E41" s="61" t="n"/>
-      <c r="F41" s="61" t="n"/>
-      <c r="G41" s="61" t="n"/>
-      <c r="H41" s="61" t="n"/>
-      <c r="I41" s="61" t="n"/>
-      <c r="J41" s="61" t="n"/>
-      <c r="K41" s="61" t="n"/>
-      <c r="L41" s="61" t="n"/>
-      <c r="M41" s="61" t="n"/>
-      <c r="N41" s="61" t="n"/>
-      <c r="O41" s="61" t="n"/>
-      <c r="P41" s="61" t="n"/>
-      <c r="Q41" s="61" t="n"/>
-      <c r="R41" s="61" t="n"/>
-      <c r="S41" s="61" t="n"/>
-      <c r="T41" s="61" t="n"/>
-      <c r="U41" s="61" t="n"/>
-      <c r="V41" s="61" t="n"/>
-      <c r="W41" s="61" t="n"/>
-      <c r="X41" s="61" t="n"/>
-      <c r="Y41" s="61" t="n"/>
-      <c r="Z41" s="61" t="n"/>
-      <c r="AA41" s="61" t="n"/>
-      <c r="AB41" s="61" t="n"/>
-      <c r="AC41" s="61" t="n"/>
-      <c r="AD41" s="61" t="n"/>
-      <c r="AE41" s="61" t="n"/>
-      <c r="AF41" s="61" t="n"/>
-      <c r="AG41" s="61" t="n"/>
-      <c r="AH41" s="61" t="n"/>
-      <c r="AI41" s="61" t="n"/>
-      <c r="AJ41" s="28" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A42" s="15" t="n"/>
-      <c r="B42" s="51" t="n"/>
-      <c r="C42" s="51" t="n"/>
-      <c r="D42" s="51" t="n"/>
-      <c r="E42" s="51" t="n"/>
-      <c r="F42" s="51" t="n"/>
-      <c r="G42" s="51" t="n"/>
-      <c r="H42" s="51" t="n"/>
-      <c r="I42" s="51" t="n"/>
-      <c r="J42" s="51" t="n"/>
-      <c r="K42" s="51" t="n"/>
-      <c r="L42" s="51" t="n"/>
-      <c r="M42" s="51" t="n"/>
-      <c r="N42" s="51" t="n"/>
-      <c r="O42" s="51" t="n"/>
-      <c r="P42" s="51" t="n"/>
-      <c r="Q42" s="51" t="n"/>
-      <c r="R42" s="51" t="n"/>
-      <c r="S42" s="52" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T42" s="51" t="n"/>
-      <c r="U42" s="51" t="n"/>
-      <c r="V42" s="51" t="n"/>
-      <c r="W42" s="51" t="n"/>
-      <c r="X42" s="51" t="n"/>
-      <c r="Y42" s="51" t="n"/>
-      <c r="Z42" s="51" t="n"/>
-      <c r="AA42" s="51" t="n"/>
-      <c r="AB42" s="51" t="n"/>
-      <c r="AC42" s="51" t="n"/>
-      <c r="AD42" s="51" t="n"/>
-      <c r="AE42" s="51" t="n"/>
-      <c r="AF42" s="51" t="n"/>
-      <c r="AG42" s="51" t="n"/>
-      <c r="AH42" s="51" t="n"/>
-      <c r="AI42" s="51" t="n"/>
-      <c r="AJ42" s="16" t="n"/>
-    </row>
-    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A43" s="38" t="n"/>
-      <c r="B43" s="33" t="n"/>
-      <c r="C43" s="33" t="n"/>
-      <c r="D43" s="33" t="n"/>
-      <c r="E43" s="33" t="n"/>
-      <c r="F43" s="33" t="n"/>
-      <c r="G43" s="33" t="n"/>
-      <c r="H43" s="33" t="n"/>
-      <c r="I43" s="33" t="n"/>
-      <c r="J43" s="33" t="n"/>
-      <c r="K43" s="33" t="n"/>
-      <c r="L43" s="33" t="n"/>
-      <c r="M43" s="33" t="n"/>
-      <c r="N43" s="33" t="n"/>
-      <c r="O43" s="33" t="n"/>
-      <c r="P43" s="33" t="n"/>
-      <c r="Q43" s="33" t="n"/>
-      <c r="R43" s="33" t="n"/>
-      <c r="S43" s="33" t="n"/>
-      <c r="T43" s="33" t="n"/>
-      <c r="U43" s="33" t="n"/>
-      <c r="V43" s="33" t="n"/>
-      <c r="W43" s="33" t="n"/>
-      <c r="X43" s="33" t="n"/>
-      <c r="Y43" s="33" t="n"/>
-      <c r="Z43" s="33" t="n"/>
-      <c r="AA43" s="33" t="n"/>
-      <c r="AB43" s="33" t="n"/>
-      <c r="AC43" s="33" t="n"/>
-      <c r="AD43" s="33" t="n"/>
-      <c r="AE43" s="33" t="n"/>
-      <c r="AF43" s="33" t="n"/>
-      <c r="AG43" s="33" t="n"/>
-      <c r="AH43" s="33" t="n"/>
-      <c r="AI43" s="33" t="n"/>
-      <c r="AJ43" s="34" t="n"/>
-    </row>
-    <row r="44" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A44" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 
-</t>
-        </is>
-      </c>
-      <c r="B44" s="23" t="inlineStr">
-        <is>
-          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C44" s="23" t="n"/>
-      <c r="D44" s="23" t="n"/>
-      <c r="E44" s="23" t="n"/>
-      <c r="F44" s="23" t="n"/>
-      <c r="G44" s="23" t="n"/>
-      <c r="H44" s="23" t="n"/>
-      <c r="I44" s="23" t="n"/>
-      <c r="J44" s="23" t="n"/>
-      <c r="K44" s="23" t="n"/>
-      <c r="L44" s="23" t="n"/>
-      <c r="M44" s="23" t="n"/>
-      <c r="N44" s="23" t="n"/>
-      <c r="O44" s="23" t="n"/>
-      <c r="P44" s="23" t="n"/>
-      <c r="Q44" s="23" t="n"/>
-      <c r="R44" s="23" t="n"/>
-      <c r="S44" s="23" t="n"/>
-      <c r="T44" s="23" t="n"/>
-      <c r="U44" s="23" t="n"/>
-      <c r="V44" s="23" t="n"/>
-      <c r="W44" s="23" t="n"/>
-      <c r="X44" s="23" t="n"/>
-      <c r="Y44" s="23" t="n"/>
-      <c r="Z44" s="23" t="n"/>
-      <c r="AA44" s="23" t="n"/>
-      <c r="AB44" s="23" t="n"/>
-      <c r="AC44" s="23" t="n"/>
-      <c r="AD44" s="23" t="n"/>
-      <c r="AE44" s="23" t="n"/>
-      <c r="AF44" s="23" t="n"/>
-      <c r="AG44" s="23" t="n"/>
-      <c r="AH44" s="23" t="n"/>
-      <c r="AI44" s="23" t="n"/>
-      <c r="AJ44" s="34" t="n"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
-      <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="n"/>
-      <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="n"/>
-      <c r="T45" s="2" t="n"/>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
-      <c r="W45" s="2" t="n"/>
-      <c r="X45" s="2" t="n"/>
-      <c r="Y45" s="2" t="n"/>
-      <c r="Z45" s="2" t="n"/>
-      <c r="AA45" s="2" t="n"/>
-      <c r="AB45" s="2" t="n"/>
-      <c r="AC45" s="2" t="n"/>
-      <c r="AD45" s="2" t="n"/>
-      <c r="AE45" s="2" t="n"/>
-      <c r="AF45" s="2" t="n"/>
-      <c r="AG45" s="2" t="n"/>
-      <c r="AH45" s="2" t="n"/>
-      <c r="AI45" s="2" t="n"/>
-      <c r="AJ45" s="2" t="n"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="B46:AH46"/>
-    <mergeCell ref="H33:AI33"/>
-    <mergeCell ref="H34:AI34"/>
-    <mergeCell ref="H35:AI35"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="H39:AI39"/>
-    <mergeCell ref="H40:AI40"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="H32:AI32"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
-  </mergeCells>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AJ44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
-    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>CHECK VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-      <c r="AA1" s="12" t="n"/>
-      <c r="AB1" s="12" t="n"/>
-      <c r="AC1" s="12" t="n"/>
-      <c r="AD1" s="12" t="n"/>
-      <c r="AE1" s="12" t="n"/>
-      <c r="AF1" s="12" t="n"/>
-      <c r="AG1" s="12" t="n"/>
-      <c r="AH1" s="12" t="n"/>
-      <c r="AI1" s="12" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A2" s="37" t="n"/>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="61" t="n"/>
-      <c r="D2" s="61" t="n"/>
-      <c r="E2" s="61" t="n"/>
-      <c r="F2" s="61" t="n"/>
-      <c r="G2" s="61" t="n"/>
-      <c r="H2" s="61" t="n"/>
-      <c r="I2" s="61" t="n"/>
-      <c r="J2" s="61" t="n"/>
-      <c r="K2" s="61" t="n"/>
-      <c r="L2" s="61" t="n"/>
-      <c r="M2" s="61" t="n"/>
-      <c r="N2" s="61" t="n"/>
-      <c r="O2" s="61" t="n"/>
-      <c r="P2" s="61" t="n"/>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="61" t="n"/>
-      <c r="S2" s="61" t="n"/>
-      <c r="T2" s="61" t="n"/>
-      <c r="U2" s="61" t="n"/>
-      <c r="V2" s="61" t="n"/>
-      <c r="W2" s="61" t="n"/>
-      <c r="X2" s="61" t="n"/>
-      <c r="Y2" s="61" t="n"/>
-      <c r="Z2" s="61" t="n"/>
-      <c r="AA2" s="61" t="n"/>
-      <c r="AB2" s="61" t="n"/>
-      <c r="AC2" s="61" t="n"/>
-      <c r="AD2" s="61" t="n"/>
-      <c r="AE2" s="61" t="n"/>
-      <c r="AF2" s="61" t="n"/>
-      <c r="AG2" s="61" t="n"/>
-      <c r="AH2" s="61" t="n"/>
-      <c r="AI2" s="61" t="n"/>
-      <c r="AJ2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>TAG. No.</t>
-        </is>
-      </c>
-      <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>CKV21A0B2B</t>
-        </is>
-      </c>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="61" t="n"/>
-      <c r="M3" s="61" t="n"/>
-      <c r="N3" s="61" t="n"/>
-      <c r="O3" s="61" t="n"/>
-      <c r="P3" s="48" t="n"/>
-      <c r="Q3" s="48" t="n"/>
-      <c r="R3" s="48" t="n"/>
-      <c r="S3" s="48" t="n"/>
-      <c r="T3" s="48" t="n"/>
-      <c r="U3" s="48" t="n"/>
-      <c r="V3" s="48" t="n"/>
-      <c r="W3" s="48" t="n"/>
-      <c r="X3" s="48" t="n"/>
-      <c r="Y3" s="48" t="n"/>
-      <c r="Z3" s="48" t="n"/>
-      <c r="AA3" s="48" t="n"/>
-      <c r="AB3" s="48" t="n"/>
-      <c r="AC3" s="48" t="n"/>
-      <c r="AD3" s="48" t="n"/>
-      <c r="AE3" s="48" t="n"/>
-      <c r="AF3" s="48" t="n"/>
-      <c r="AG3" s="48" t="n"/>
-      <c r="AH3" s="48" t="n"/>
-      <c r="AI3" s="48" t="n"/>
-      <c r="AJ3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>SIZE :</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="96" t="inlineStr">
-        <is>
-          <t>3, 4</t>
-        </is>
-      </c>
-      <c r="I4" s="97" t="n"/>
-      <c r="J4" s="97" t="n"/>
-      <c r="K4" s="49" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="61" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="61" t="n"/>
-      <c r="S4" s="61" t="n"/>
-      <c r="T4" s="61" t="n"/>
-      <c r="U4" s="61" t="n"/>
-      <c r="V4" s="61" t="n"/>
-      <c r="W4" s="61" t="n"/>
-      <c r="X4" s="61" t="n"/>
-      <c r="Y4" s="61" t="n"/>
-      <c r="Z4" s="61" t="n"/>
-      <c r="AA4" s="61" t="n"/>
-      <c r="AB4" s="61" t="n"/>
-      <c r="AC4" s="61" t="n"/>
-      <c r="AD4" s="61" t="n"/>
-      <c r="AE4" s="61" t="n"/>
-      <c r="AF4" s="61" t="n"/>
-      <c r="AG4" s="61" t="n"/>
-      <c r="AH4" s="61" t="n"/>
-      <c r="AI4" s="50" t="n"/>
-      <c r="AJ4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>PIPING CLASS :</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n"/>
-      <c r="C5" s="47" t="n"/>
-      <c r="D5" s="47" t="n"/>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="69" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="I5" s="95" t="n"/>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="95" t="n"/>
-      <c r="L5" s="95" t="n"/>
-      <c r="M5" s="95" t="n"/>
-      <c r="N5" s="95" t="n"/>
-      <c r="O5" s="47" t="n"/>
-      <c r="P5" s="47" t="n"/>
-      <c r="Q5" s="47" t="n"/>
-      <c r="R5" s="47" t="n"/>
-      <c r="S5" s="47" t="n"/>
-      <c r="T5" s="47" t="n"/>
-      <c r="U5" s="47" t="n"/>
-      <c r="V5" s="61" t="n"/>
-      <c r="W5" s="24" t="inlineStr">
-        <is>
-          <t>PLANT LOCATION:</t>
-        </is>
-      </c>
-      <c r="X5" s="61" t="n"/>
-      <c r="Y5" s="61" t="n"/>
-      <c r="Z5" s="61" t="n"/>
-      <c r="AA5" s="61" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="95" t="n"/>
-      <c r="AD5" s="95" t="n"/>
-      <c r="AE5" s="95" t="n"/>
-      <c r="AF5" s="95" t="n"/>
-      <c r="AG5" s="95" t="n"/>
-      <c r="AH5" s="95" t="n"/>
-      <c r="AI5" s="95" t="n"/>
-      <c r="AJ5" s="65" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>SERVICE (Note 1):</t>
-        </is>
-      </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="61" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="61" t="n"/>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
-        <is>
-          <t>HCN &amp; HCR</t>
-        </is>
-      </c>
-      <c r="I6" s="95" t="n"/>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="95" t="n"/>
-      <c r="L6" s="95" t="n"/>
-      <c r="M6" s="95" t="n"/>
-      <c r="N6" s="95" t="n"/>
-      <c r="O6" s="95" t="n"/>
-      <c r="P6" s="95" t="n"/>
-      <c r="Q6" s="95" t="n"/>
-      <c r="R6" s="95" t="n"/>
-      <c r="S6" s="95" t="n"/>
-      <c r="T6" s="95" t="n"/>
-      <c r="U6" s="95" t="n"/>
-      <c r="V6" s="95" t="n"/>
-      <c r="W6" s="95" t="n"/>
-      <c r="X6" s="95" t="n"/>
-      <c r="Y6" s="95" t="n"/>
-      <c r="Z6" s="95" t="n"/>
-      <c r="AA6" s="95" t="n"/>
-      <c r="AB6" s="95" t="n"/>
-      <c r="AC6" s="95" t="n"/>
-      <c r="AD6" s="95" t="n"/>
-      <c r="AE6" s="95" t="n"/>
-      <c r="AF6" s="95" t="n"/>
-      <c r="AG6" s="95" t="n"/>
-      <c r="AH6" s="95" t="n"/>
-      <c r="AI6" s="95" t="n"/>
-      <c r="AJ6" s="65" t="n"/>
-    </row>
-    <row r="7" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="37" t="n"/>
-      <c r="B7" s="61" t="n"/>
-      <c r="C7" s="61" t="n"/>
-      <c r="D7" s="61" t="n"/>
-      <c r="E7" s="61" t="n"/>
-      <c r="F7" s="61" t="n"/>
-      <c r="G7" s="61" t="n"/>
-      <c r="H7" s="61" t="n"/>
-      <c r="I7" s="61" t="n"/>
-      <c r="J7" s="61" t="n"/>
-      <c r="K7" s="61" t="n"/>
-      <c r="L7" s="61" t="n"/>
-      <c r="M7" s="61" t="n"/>
-      <c r="N7" s="61" t="n"/>
-      <c r="O7" s="61" t="n"/>
-      <c r="P7" s="61" t="n"/>
-      <c r="Q7" s="61" t="n"/>
-      <c r="R7" s="61" t="n"/>
-      <c r="S7" s="61" t="n"/>
-      <c r="T7" s="61" t="n"/>
-      <c r="U7" s="61" t="n"/>
-      <c r="V7" s="61" t="n"/>
-      <c r="W7" s="61" t="n"/>
-      <c r="X7" s="61" t="n"/>
-      <c r="Y7" s="61" t="n"/>
-      <c r="Z7" s="61" t="n"/>
-      <c r="AA7" s="61" t="n"/>
-      <c r="AB7" s="61" t="n"/>
-      <c r="AC7" s="61" t="n"/>
-      <c r="AD7" s="61" t="n"/>
-      <c r="AE7" s="61" t="n"/>
-      <c r="AF7" s="61" t="n"/>
-      <c r="AG7" s="61" t="n"/>
-      <c r="AH7" s="61" t="n"/>
-      <c r="AI7" s="61" t="n"/>
-      <c r="AJ7" s="28" t="n"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="15" t="n"/>
-      <c r="B8" s="51" t="n"/>
-      <c r="C8" s="51" t="n"/>
-      <c r="D8" s="51" t="n"/>
-      <c r="E8" s="51" t="n"/>
-      <c r="F8" s="51" t="n"/>
-      <c r="G8" s="51" t="n"/>
-      <c r="H8" s="51" t="n"/>
-      <c r="I8" s="51" t="n"/>
-      <c r="J8" s="51" t="n"/>
-      <c r="K8" s="51" t="n"/>
-      <c r="L8" s="51" t="n"/>
-      <c r="M8" s="51" t="n"/>
-      <c r="N8" s="51" t="n"/>
-      <c r="O8" s="51" t="n"/>
-      <c r="P8" s="51" t="n"/>
-      <c r="Q8" s="51" t="n"/>
-      <c r="R8" s="51" t="n"/>
-      <c r="S8" s="52" t="inlineStr">
-        <is>
-          <t>M E C H A N I C A L</t>
-        </is>
-      </c>
-      <c r="T8" s="51" t="n"/>
-      <c r="U8" s="51" t="n"/>
-      <c r="V8" s="51" t="n"/>
-      <c r="W8" s="51" t="n"/>
-      <c r="X8" s="51" t="n"/>
-      <c r="Y8" s="51" t="n"/>
-      <c r="Z8" s="51" t="n"/>
-      <c r="AA8" s="51" t="n"/>
-      <c r="AB8" s="51" t="n"/>
-      <c r="AC8" s="51" t="n"/>
-      <c r="AD8" s="51" t="n"/>
-      <c r="AE8" s="51" t="n"/>
-      <c r="AF8" s="51" t="n"/>
-      <c r="AG8" s="51" t="n"/>
-      <c r="AH8" s="51" t="n"/>
-      <c r="AI8" s="51" t="n"/>
-      <c r="AJ8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="61" t="n"/>
-      <c r="D9" s="61" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="61" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="61" t="n"/>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="61" t="n"/>
-      <c r="K9" s="61" t="n"/>
-      <c r="L9" s="61" t="n"/>
-      <c r="M9" s="61" t="n"/>
-      <c r="N9" s="61" t="n"/>
-      <c r="O9" s="61" t="n"/>
-      <c r="P9" s="61" t="n"/>
-      <c r="Q9" s="61" t="n"/>
-      <c r="R9" s="61" t="n"/>
-      <c r="S9" s="61" t="n"/>
-      <c r="T9" s="61" t="n"/>
-      <c r="U9" s="61" t="n"/>
-      <c r="V9" s="61" t="n"/>
-      <c r="W9" s="61" t="n"/>
-      <c r="X9" s="61" t="n"/>
-      <c r="Y9" s="61" t="n"/>
-      <c r="Z9" s="61" t="n"/>
-      <c r="AA9" s="61" t="n"/>
-      <c r="AB9" s="61" t="n"/>
-      <c r="AC9" s="61" t="n"/>
-      <c r="AD9" s="61" t="n"/>
-      <c r="AE9" s="61" t="n"/>
-      <c r="AF9" s="61" t="n"/>
-      <c r="AG9" s="61" t="n"/>
-      <c r="AH9" s="61" t="n"/>
-      <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>VALVE TYPE :</t>
-        </is>
-      </c>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="61" t="n"/>
-      <c r="D10" s="61" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="61" t="n"/>
-      <c r="G10" s="61" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE</t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="95" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="95" t="n"/>
-      <c r="M10" s="95" t="n"/>
-      <c r="N10" s="95" t="n"/>
-      <c r="O10" s="95" t="n"/>
-      <c r="P10" s="95" t="n"/>
-      <c r="Q10" s="95" t="n"/>
-      <c r="R10" s="95" t="n"/>
-      <c r="S10" s="95" t="n"/>
-      <c r="T10" s="95" t="n"/>
-      <c r="U10" s="95" t="n"/>
-      <c r="V10" s="95" t="n"/>
-      <c r="W10" s="95" t="n"/>
-      <c r="X10" s="61" t="n"/>
-      <c r="Y10" s="61" t="n"/>
-      <c r="Z10" s="61" t="n"/>
-      <c r="AA10" s="61" t="n"/>
-      <c r="AB10" s="49" t="inlineStr">
-        <is>
-          <t>RATING / CLASS:</t>
-        </is>
-      </c>
-      <c r="AC10" s="70" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="AD10" s="95" t="n"/>
-      <c r="AE10" s="95" t="n"/>
-      <c r="AF10" s="95" t="n"/>
-      <c r="AG10" s="95" t="n"/>
-      <c r="AH10" s="95" t="n"/>
-      <c r="AI10" s="95" t="n"/>
-      <c r="AJ10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>END CONNECTIONS:</t>
-        </is>
-      </c>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="61" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="61" t="n"/>
-      <c r="G11" s="61" t="n"/>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLANGED </t>
-        </is>
-      </c>
-      <c r="I11" s="61" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M11" s="95" t="n"/>
-      <c r="N11" s="61" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="61" t="n"/>
-      <c r="Q11" s="61" t="n"/>
-      <c r="R11" s="49" t="inlineStr">
-        <is>
-          <t>FACING:</t>
-        </is>
-      </c>
-      <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="U11" s="95" t="n"/>
-      <c r="V11" s="61" t="n"/>
-      <c r="W11" s="61" t="n"/>
-      <c r="X11" s="61" t="n"/>
-      <c r="Y11" s="61" t="n"/>
-      <c r="Z11" s="61" t="n"/>
-      <c r="AA11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOCKETWELD </t>
-        </is>
-      </c>
-      <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
-      <c r="AD11" s="95" t="n"/>
-      <c r="AE11" s="66" t="inlineStr">
-        <is>
-          <t>SCREWED</t>
-        </is>
-      </c>
-      <c r="AF11" s="66" t="n"/>
-      <c r="AG11" s="66" t="n"/>
-      <c r="AH11" s="72" t="inlineStr"/>
-      <c r="AI11" s="95" t="n"/>
-      <c r="AJ11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="37" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="61" t="n"/>
-      <c r="D12" s="61" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="61" t="n"/>
-      <c r="G12" s="61" t="n"/>
-      <c r="H12" s="54" t="inlineStr">
-        <is>
-          <t>BUTTWELD</t>
-        </is>
-      </c>
-      <c r="I12" s="61" t="n"/>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="61" t="n"/>
-      <c r="L12" s="68" t="inlineStr"/>
-      <c r="M12" s="95" t="n"/>
-      <c r="N12" s="95" t="n"/>
-      <c r="O12" s="95" t="n"/>
-      <c r="P12" s="95" t="n"/>
-      <c r="Q12" s="95" t="n"/>
-      <c r="R12" s="95" t="n"/>
-      <c r="S12" s="95" t="n"/>
-      <c r="T12" s="95" t="n"/>
-      <c r="U12" s="95" t="n"/>
-      <c r="V12" s="95" t="n"/>
-      <c r="W12" s="61" t="n"/>
-      <c r="X12" s="61" t="n"/>
-      <c r="Y12" s="61" t="n"/>
-      <c r="Z12" s="61" t="n"/>
-      <c r="AA12" s="61" t="n"/>
-      <c r="AB12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-      <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
-      <c r="AE12" s="95" t="n"/>
-      <c r="AF12" s="95" t="n"/>
-      <c r="AG12" s="95" t="n"/>
-      <c r="AH12" s="95" t="n"/>
-      <c r="AI12" s="95" t="n"/>
-      <c r="AJ12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A13" s="37" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="61" t="n"/>
-      <c r="D13" s="61" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="61" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="61" t="n"/>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="61" t="n"/>
-      <c r="L13" s="61" t="n"/>
-      <c r="M13" s="61" t="n"/>
-      <c r="N13" s="61" t="n"/>
-      <c r="O13" s="61" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="61" t="n"/>
-      <c r="R13" s="61" t="n"/>
-      <c r="S13" s="61" t="n"/>
-      <c r="T13" s="61" t="n"/>
-      <c r="U13" s="61" t="n"/>
-      <c r="V13" s="61" t="n"/>
-      <c r="W13" s="61" t="n"/>
-      <c r="X13" s="61" t="n"/>
-      <c r="Y13" s="61" t="n"/>
-      <c r="Z13" s="61" t="n"/>
-      <c r="AA13" s="61" t="n"/>
-      <c r="AB13" s="53" t="n"/>
-      <c r="AC13" s="61" t="n"/>
-      <c r="AD13" s="61" t="n"/>
-      <c r="AE13" s="61" t="n"/>
-      <c r="AF13" s="61" t="n"/>
-      <c r="AG13" s="61" t="n"/>
-      <c r="AH13" s="61" t="n"/>
-      <c r="AI13" s="61" t="n"/>
-      <c r="AJ13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
-        </is>
-      </c>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="61" t="n"/>
-      <c r="D14" s="61" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="61" t="n"/>
-      <c r="G14" s="61" t="n"/>
-      <c r="H14" s="61" t="n"/>
-      <c r="I14" s="61" t="n"/>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="61" t="n"/>
-      <c r="L14" s="61" t="n"/>
-      <c r="M14" s="61" t="n"/>
-      <c r="N14" s="61" t="n"/>
-      <c r="O14" s="61" t="n"/>
-      <c r="P14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.5</t>
-        </is>
-      </c>
       <c r="Q14" s="68" t="inlineStr">
         <is>
           <t>X</t>
@@ -8584,7 +6434,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>285</v>
+        <v>740</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -9554,13 +7404,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9572,7 +7422,7 @@
     <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
       <c r="A1" s="11" t="n"/>
       <c r="B1" s="12" t="n"/>
       <c r="C1" s="12" t="n"/>
@@ -9589,7 +7439,7 @@
       <c r="N1" s="12" t="n"/>
       <c r="O1" s="73" t="inlineStr">
         <is>
-          <t>CHECK VALVE DATA SHEET</t>
+          <t>GATE VALVE DATA SHEET</t>
         </is>
       </c>
       <c r="P1" s="94" t="n"/>
@@ -9614,7 +7464,7 @@
       <c r="AI1" s="12" t="n"/>
       <c r="AJ1" s="13" t="n"/>
     </row>
-    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="35">
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A2" s="37" t="n"/>
       <c r="B2" s="61" t="n"/>
       <c r="C2" s="61" t="n"/>
@@ -9666,7 +7516,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>CKV22A0B2B</t>
+          <t>GAV22A0B2B</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -9712,7 +7562,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -9844,7 +7694,7 @@
       <c r="AI6" s="95" t="n"/>
       <c r="AJ6" s="65" t="n"/>
     </row>
-    <row r="7" ht="14.25" customFormat="1" customHeight="1" s="35">
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A7" s="37" t="n"/>
       <c r="B7" s="61" t="n"/>
       <c r="C7" s="61" t="n"/>
@@ -9882,7 +7732,7 @@
       <c r="AI7" s="61" t="n"/>
       <c r="AJ7" s="28" t="n"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
       <c r="A8" s="15" t="n"/>
       <c r="B8" s="51" t="n"/>
       <c r="C8" s="51" t="n"/>
@@ -9924,7 +7774,7 @@
       <c r="AI8" s="51" t="n"/>
       <c r="AJ8" s="16" t="n"/>
     </row>
-    <row r="9" ht="14.25" customFormat="1" customHeight="1" s="35">
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A9" s="37" t="n"/>
       <c r="B9" s="61" t="n"/>
       <c r="C9" s="61" t="n"/>
@@ -9976,7 +7826,7 @@
       <c r="G10" s="61" t="n"/>
       <c r="H10" s="69" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE</t>
+          <t>GATE VALVE</t>
         </is>
       </c>
       <c r="I10" s="95" t="n"/>
@@ -10224,4012 +8074,6 @@
       <c r="AI14" s="95" t="n"/>
       <c r="AJ14" s="16" t="n"/>
     </row>
-    <row r="15" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="61" t="n"/>
-      <c r="D15" s="61" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="61" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="n"/>
-      <c r="I15" s="61" t="n"/>
-      <c r="J15" s="80" t="n"/>
-      <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="n"/>
-      <c r="R15" s="61" t="n"/>
-      <c r="S15" s="61" t="n"/>
-      <c r="T15" s="80" t="n"/>
-      <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="n"/>
-      <c r="AA15" s="61" t="n"/>
-      <c r="AB15" s="61" t="n"/>
-      <c r="AC15" s="61" t="n"/>
-      <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="84" t="n"/>
-      <c r="AJ15" s="98" t="n"/>
-    </row>
-    <row r="16" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="n"/>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="61" t="n"/>
-      <c r="D16" s="61" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="61" t="n"/>
-      <c r="G16" s="61" t="n"/>
-      <c r="H16" s="61" t="n"/>
-      <c r="I16" s="61" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="61" t="n"/>
-      <c r="L16" s="61" t="n"/>
-      <c r="M16" s="61" t="n"/>
-      <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="n"/>
-      <c r="P16" s="80" t="n"/>
-      <c r="S16" s="61" t="n"/>
-      <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="n"/>
-      <c r="V16" s="61" t="n"/>
-      <c r="W16" s="61" t="n"/>
-      <c r="X16" s="61" t="n"/>
-      <c r="Y16" s="55" t="n"/>
-      <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="80" t="n"/>
-      <c r="AD16" s="61" t="n"/>
-      <c r="AE16" s="61" t="n"/>
-      <c r="AF16" s="61" t="n"/>
-      <c r="AG16" s="61" t="n"/>
-      <c r="AH16" s="61" t="n"/>
-      <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="28" t="n"/>
-    </row>
-    <row r="17" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A17" s="17" t="n"/>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="61" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="61" t="inlineStr"/>
-      <c r="I17" s="61" t="n"/>
-      <c r="J17" s="61" t="n"/>
-      <c r="K17" s="61" t="n"/>
-      <c r="L17" s="61" t="n"/>
-      <c r="M17" s="61" t="n"/>
-      <c r="N17" s="61" t="n"/>
-      <c r="O17" s="61" t="n"/>
-      <c r="P17" s="61" t="n"/>
-      <c r="Q17" s="61" t="n"/>
-      <c r="R17" s="61" t="n"/>
-      <c r="S17" s="61" t="n"/>
-      <c r="T17" s="61" t="n"/>
-      <c r="U17" s="61" t="n"/>
-      <c r="V17" s="61" t="n"/>
-      <c r="W17" s="61" t="n"/>
-      <c r="X17" s="61" t="n"/>
-      <c r="Y17" s="61" t="n"/>
-      <c r="Z17" s="61" t="n"/>
-      <c r="AA17" s="61" t="n"/>
-      <c r="AB17" s="61" t="n"/>
-      <c r="AC17" s="61" t="n"/>
-      <c r="AD17" s="61" t="n"/>
-      <c r="AE17" s="61" t="n"/>
-      <c r="AF17" s="61" t="n"/>
-      <c r="AG17" s="61" t="n"/>
-      <c r="AH17" s="61" t="n"/>
-      <c r="AI17" s="61" t="n"/>
-      <c r="AJ17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A18" s="37" t="n"/>
-      <c r="B18" s="61" t="n"/>
-      <c r="C18" s="61" t="n"/>
-      <c r="D18" s="61" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="61" t="n"/>
-      <c r="G18" s="61" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="61" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="61" t="n"/>
-      <c r="L18" s="61" t="n"/>
-      <c r="M18" s="61" t="n"/>
-      <c r="N18" s="61" t="n"/>
-      <c r="O18" s="61" t="n"/>
-      <c r="P18" s="61" t="n"/>
-      <c r="Q18" s="61" t="n"/>
-      <c r="R18" s="61" t="n"/>
-      <c r="S18" s="61" t="n"/>
-      <c r="T18" s="61" t="n"/>
-      <c r="U18" s="61" t="n"/>
-      <c r="V18" s="61" t="n"/>
-      <c r="W18" s="61" t="n"/>
-      <c r="X18" s="61" t="n"/>
-      <c r="Y18" s="55" t="n"/>
-      <c r="Z18" s="61" t="n"/>
-      <c r="AA18" s="61" t="n"/>
-      <c r="AB18" s="61" t="n"/>
-      <c r="AC18" s="61" t="n"/>
-      <c r="AD18" s="61" t="n"/>
-      <c r="AE18" s="61" t="n"/>
-      <c r="AF18" s="61" t="n"/>
-      <c r="AG18" s="61" t="n"/>
-      <c r="AH18" s="61" t="n"/>
-      <c r="AI18" s="61" t="n"/>
-      <c r="AJ18" s="28" t="n"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="51" t="n"/>
-      <c r="C19" s="51" t="n"/>
-      <c r="D19" s="51" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
-      <c r="G19" s="51" t="n"/>
-      <c r="H19" s="51" t="n"/>
-      <c r="I19" s="51" t="n"/>
-      <c r="J19" s="51" t="n"/>
-      <c r="K19" s="51" t="n"/>
-      <c r="L19" s="51" t="n"/>
-      <c r="M19" s="51" t="n"/>
-      <c r="N19" s="51" t="n"/>
-      <c r="O19" s="51" t="n"/>
-      <c r="P19" s="51" t="n"/>
-      <c r="Q19" s="51" t="n"/>
-      <c r="R19" s="51" t="n"/>
-      <c r="S19" s="52" t="inlineStr">
-        <is>
-          <t>D E S I G N</t>
-        </is>
-      </c>
-      <c r="T19" s="51" t="n"/>
-      <c r="U19" s="51" t="n"/>
-      <c r="V19" s="51" t="n"/>
-      <c r="W19" s="51" t="n"/>
-      <c r="X19" s="51" t="n"/>
-      <c r="Y19" s="51" t="n"/>
-      <c r="Z19" s="51" t="n"/>
-      <c r="AA19" s="51" t="n"/>
-      <c r="AB19" s="51" t="n"/>
-      <c r="AC19" s="51" t="n"/>
-      <c r="AD19" s="51" t="n"/>
-      <c r="AE19" s="51" t="n"/>
-      <c r="AF19" s="51" t="n"/>
-      <c r="AG19" s="51" t="n"/>
-      <c r="AH19" s="51" t="n"/>
-      <c r="AI19" s="51" t="n"/>
-      <c r="AJ19" s="16" t="n"/>
-    </row>
-    <row r="20" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A20" s="37" t="n"/>
-      <c r="B20" s="61" t="n"/>
-      <c r="C20" s="61" t="n"/>
-      <c r="D20" s="61" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="61" t="n"/>
-      <c r="H20" s="61" t="n"/>
-      <c r="I20" s="61" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="61" t="n"/>
-      <c r="L20" s="61" t="n"/>
-      <c r="M20" s="61" t="n"/>
-      <c r="N20" s="61" t="n"/>
-      <c r="O20" s="61" t="n"/>
-      <c r="P20" s="61" t="n"/>
-      <c r="Q20" s="61" t="n"/>
-      <c r="R20" s="61" t="n"/>
-      <c r="S20" s="61" t="n"/>
-      <c r="T20" s="61" t="n"/>
-      <c r="U20" s="61" t="n"/>
-      <c r="V20" s="61" t="n"/>
-      <c r="W20" s="61" t="n"/>
-      <c r="X20" s="61" t="n"/>
-      <c r="Y20" s="61" t="n"/>
-      <c r="Z20" s="61" t="n"/>
-      <c r="AA20" s="61" t="n"/>
-      <c r="AB20" s="61" t="n"/>
-      <c r="AC20" s="61" t="n"/>
-      <c r="AD20" s="61" t="n"/>
-      <c r="AE20" s="61" t="n"/>
-      <c r="AF20" s="61" t="n"/>
-      <c r="AG20" s="61" t="n"/>
-      <c r="AH20" s="61" t="n"/>
-      <c r="AI20" s="61" t="n"/>
-      <c r="AJ20" s="28" t="n"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>APPLICABLE PIPING</t>
-        </is>
-      </c>
-      <c r="B21" s="61" t="n"/>
-      <c r="C21" s="61" t="n"/>
-      <c r="D21" s="61" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="61" t="n"/>
-      <c r="H21" s="61" t="n"/>
-      <c r="I21" s="61" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="61" t="n"/>
-      <c r="L21" s="61" t="n"/>
-      <c r="M21" s="61" t="n"/>
-      <c r="N21" s="61" t="n"/>
-      <c r="O21" s="61" t="n"/>
-      <c r="P21" s="61" t="n"/>
-      <c r="Q21" s="61" t="n"/>
-      <c r="R21" s="61" t="n"/>
-      <c r="S21" s="61" t="n"/>
-      <c r="T21" s="61" t="n"/>
-      <c r="U21" s="61" t="n"/>
-      <c r="V21" s="61" t="n"/>
-      <c r="W21" s="61" t="n"/>
-      <c r="X21" s="61" t="n"/>
-      <c r="Y21" s="61" t="n"/>
-      <c r="Z21" s="61" t="n"/>
-      <c r="AA21" s="61" t="n"/>
-      <c r="AB21" s="61" t="n"/>
-      <c r="AC21" s="61" t="n"/>
-      <c r="AD21" s="61" t="n"/>
-      <c r="AE21" s="61" t="n"/>
-      <c r="AF21" s="61" t="n"/>
-      <c r="AG21" s="61" t="n"/>
-      <c r="AH21" s="61" t="n"/>
-      <c r="AI21" s="61" t="n"/>
-      <c r="AJ21" s="28" t="n"/>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DESIGN CODE:       </t>
-        </is>
-      </c>
-      <c r="B22" s="61" t="n"/>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>API 600</t>
-        </is>
-      </c>
-      <c r="I22" s="68" t="inlineStr"/>
-      <c r="J22" s="95" t="n"/>
-      <c r="K22" s="61" t="n"/>
-      <c r="L22" s="61" t="n"/>
-      <c r="M22" s="81" t="inlineStr">
-        <is>
-          <t>API 6D</t>
-        </is>
-      </c>
-      <c r="N22" s="61" t="n"/>
-      <c r="O22" s="68" t="inlineStr"/>
-      <c r="P22" s="95" t="n"/>
-      <c r="Q22" s="61" t="n"/>
-      <c r="R22" s="61" t="n"/>
-      <c r="S22" s="61" t="n"/>
-      <c r="T22" s="53" t="inlineStr">
-        <is>
-          <t>API 608</t>
-        </is>
-      </c>
-      <c r="U22" s="71" t="inlineStr"/>
-      <c r="V22" s="95" t="n"/>
-      <c r="W22" s="61" t="n"/>
-      <c r="X22" s="61" t="n"/>
-      <c r="Y22" s="61" t="n"/>
-      <c r="Z22" s="56" t="inlineStr">
-        <is>
-          <t>API 602</t>
-        </is>
-      </c>
-      <c r="AA22" s="68" t="inlineStr"/>
-      <c r="AB22" s="95" t="n"/>
-      <c r="AC22" s="61" t="n"/>
-      <c r="AD22" s="61" t="n"/>
-      <c r="AE22" s="79" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AG22" s="68" t="inlineStr">
-        <is>
-          <t>API 594</t>
-        </is>
-      </c>
-      <c r="AH22" s="95" t="n"/>
-      <c r="AI22" s="95" t="n"/>
-      <c r="AJ22" s="28" t="n"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
-        </is>
-      </c>
-      <c r="L23" s="90" t="inlineStr"/>
-      <c r="M23" s="95" t="n"/>
-      <c r="N23" s="95" t="n"/>
-      <c r="O23" s="95" t="n"/>
-      <c r="P23" s="95" t="n"/>
-      <c r="Q23" s="95" t="n"/>
-      <c r="R23" s="95" t="n"/>
-      <c r="S23" s="95" t="n"/>
-      <c r="T23" s="95" t="n"/>
-      <c r="U23" s="95" t="n"/>
-      <c r="V23" s="95" t="n"/>
-      <c r="W23" s="95" t="n"/>
-      <c r="X23" s="95" t="n"/>
-      <c r="Y23" s="95" t="n"/>
-      <c r="Z23" s="95" t="n"/>
-      <c r="AA23" s="95" t="n"/>
-      <c r="AB23" s="95" t="n"/>
-      <c r="AC23" s="95" t="n"/>
-      <c r="AD23" s="95" t="n"/>
-      <c r="AE23" s="95" t="n"/>
-      <c r="AF23" s="95" t="n"/>
-      <c r="AG23" s="95" t="n"/>
-      <c r="AH23" s="95" t="n"/>
-      <c r="AI23" s="95" t="n"/>
-      <c r="AJ23" s="28" t="n"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="68" t="n">
-        <v>740</v>
-      </c>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="95" t="n"/>
-      <c r="K24" s="95" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="95" t="n"/>
-      <c r="N24" s="95" t="n"/>
-      <c r="O24" s="95" t="n"/>
-      <c r="P24" s="24" t="inlineStr">
-        <is>
-          <t>PSIG @100°F</t>
-        </is>
-      </c>
-      <c r="Q24" s="61" t="n"/>
-      <c r="R24" s="61" t="n"/>
-      <c r="S24" s="61" t="n"/>
-      <c r="T24" s="61" t="n"/>
-      <c r="U24" s="61" t="n"/>
-      <c r="V24" s="61" t="n"/>
-      <c r="W24" s="61" t="n"/>
-      <c r="X24" s="61" t="n"/>
-      <c r="Y24" s="61" t="n"/>
-      <c r="Z24" s="49" t="inlineStr">
-        <is>
-          <t>DESIGN TEMP:</t>
-        </is>
-      </c>
-      <c r="AA24" s="61" t="n"/>
-      <c r="AB24" s="69" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="95" t="n"/>
-      <c r="AD24" s="24" t="inlineStr">
-        <is>
-          <t>F. MIN</t>
-        </is>
-      </c>
-      <c r="AE24" s="61" t="n"/>
-      <c r="AF24" s="69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="95" t="n"/>
-      <c r="AH24" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F. MAX</t>
-        </is>
-      </c>
-      <c r="AI24" s="61" t="n"/>
-      <c r="AJ24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B25" s="61" t="n"/>
-      <c r="C25" s="61" t="n"/>
-      <c r="D25" s="61" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="61" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="61" t="n"/>
-      <c r="I25" s="61" t="n"/>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="32" t="n"/>
-      <c r="L25" s="32" t="n"/>
-      <c r="M25" s="32" t="n"/>
-      <c r="N25" s="32" t="n"/>
-      <c r="O25" s="32" t="n"/>
-      <c r="P25" s="33" t="n"/>
-      <c r="Q25" s="79" t="inlineStr">
-        <is>
-          <t>PSIG</t>
-        </is>
-      </c>
-      <c r="S25" s="61" t="n"/>
-      <c r="T25" s="61" t="n"/>
-      <c r="U25" s="61" t="n"/>
-      <c r="V25" s="61" t="n"/>
-      <c r="W25" s="24" t="inlineStr">
-        <is>
-          <t>TEST PRESSURE:</t>
-        </is>
-      </c>
-      <c r="X25" s="61" t="n"/>
-      <c r="Y25" s="61" t="n"/>
-      <c r="Z25" s="61" t="n"/>
-      <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr">
-        <is>
-          <t>API 598</t>
-        </is>
-      </c>
-      <c r="AC25" s="95" t="n"/>
-      <c r="AD25" s="95" t="n"/>
-      <c r="AE25" s="24" t="n"/>
-      <c r="AF25" s="78" t="n"/>
-      <c r="AH25" s="61" t="n"/>
-      <c r="AI25" s="61" t="n"/>
-      <c r="AJ25" s="31" t="n"/>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>CONTAMINANTS :</t>
-        </is>
-      </c>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="61" t="n"/>
-      <c r="G26" s="61" t="n"/>
-      <c r="H26" s="24" t="inlineStr">
-        <is>
-          <t>CO2:</t>
-        </is>
-      </c>
-      <c r="I26" s="19" t="n"/>
-      <c r="J26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n"/>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="n"/>
-      <c r="Q26" s="61" t="n"/>
-      <c r="R26" s="61" t="n"/>
-      <c r="S26" s="49" t="inlineStr">
-        <is>
-          <t>CHLORIDE:</t>
-        </is>
-      </c>
-      <c r="T26" s="85" t="n"/>
-      <c r="U26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V26" s="20" t="n"/>
-      <c r="W26" s="33" t="n"/>
-      <c r="X26" s="33" t="n"/>
-      <c r="Y26" s="33" t="n"/>
-      <c r="Z26" s="33" t="n"/>
-      <c r="AA26" s="61" t="n"/>
-      <c r="AB26" s="53" t="inlineStr">
-        <is>
-          <t>H2S:</t>
-        </is>
-      </c>
-      <c r="AC26" s="70" t="n"/>
-      <c r="AD26" s="95" t="n"/>
-      <c r="AE26" s="95" t="n"/>
-      <c r="AF26" s="95" t="n"/>
-      <c r="AG26" s="95" t="n"/>
-      <c r="AH26" s="95" t="n"/>
-      <c r="AI26" s="95" t="n"/>
-      <c r="AJ26" s="28" t="n"/>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A27" s="37" t="n"/>
-      <c r="B27" s="61" t="n"/>
-      <c r="C27" s="61" t="n"/>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="61" t="n"/>
-      <c r="G27" s="61" t="n"/>
-      <c r="H27" s="24" t="inlineStr">
-        <is>
-          <t>METHANOL :</t>
-        </is>
-      </c>
-      <c r="I27" s="61" t="n"/>
-      <c r="J27" s="61" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n"/>
-      <c r="M27" s="33" t="n"/>
-      <c r="N27" s="33" t="n"/>
-      <c r="O27" s="33" t="n"/>
-      <c r="P27" s="33" t="n"/>
-      <c r="Q27" s="33" t="n"/>
-      <c r="R27" s="33" t="n"/>
-      <c r="S27" s="33" t="n"/>
-      <c r="T27" s="33" t="n"/>
-      <c r="U27" s="61" t="n"/>
-      <c r="V27" s="61" t="n"/>
-      <c r="W27" s="53" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="95" t="n"/>
-      <c r="Z27" s="95" t="n"/>
-      <c r="AA27" s="95" t="n"/>
-      <c r="AB27" s="95" t="n"/>
-      <c r="AC27" s="95" t="n"/>
-      <c r="AD27" s="95" t="n"/>
-      <c r="AE27" s="95" t="n"/>
-      <c r="AF27" s="95" t="n"/>
-      <c r="AG27" s="95" t="n"/>
-      <c r="AH27" s="95" t="n"/>
-      <c r="AI27" s="95" t="n"/>
-      <c r="AJ27" s="28" t="n"/>
-    </row>
-    <row r="28" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A28" s="37" t="n"/>
-      <c r="B28" s="61" t="n"/>
-      <c r="C28" s="61" t="n"/>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="61" t="n"/>
-      <c r="G28" s="61" t="n"/>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="61" t="n"/>
-      <c r="J28" s="61" t="n"/>
-      <c r="K28" s="61" t="n"/>
-      <c r="L28" s="61" t="n"/>
-      <c r="M28" s="61" t="n"/>
-      <c r="N28" s="61" t="n"/>
-      <c r="O28" s="61" t="n"/>
-      <c r="P28" s="61" t="n"/>
-      <c r="Q28" s="61" t="n"/>
-      <c r="R28" s="61" t="n"/>
-      <c r="S28" s="61" t="n"/>
-      <c r="T28" s="61" t="n"/>
-      <c r="U28" s="61" t="n"/>
-      <c r="V28" s="61" t="n"/>
-      <c r="W28" s="61" t="n"/>
-      <c r="X28" s="61" t="n"/>
-      <c r="Y28" s="61" t="n"/>
-      <c r="Z28" s="61" t="n"/>
-      <c r="AA28" s="61" t="n"/>
-      <c r="AB28" s="61" t="n"/>
-      <c r="AC28" s="61" t="n"/>
-      <c r="AD28" s="61" t="n"/>
-      <c r="AE28" s="61" t="n"/>
-      <c r="AF28" s="61" t="n"/>
-      <c r="AG28" s="61" t="n"/>
-      <c r="AH28" s="61" t="n"/>
-      <c r="AI28" s="61" t="n"/>
-      <c r="AJ28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
-      <c r="G29" s="51" t="n"/>
-      <c r="H29" s="51" t="n"/>
-      <c r="I29" s="51" t="n"/>
-      <c r="J29" s="51" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-      <c r="P29" s="51" t="n"/>
-      <c r="Q29" s="51" t="n"/>
-      <c r="R29" s="51" t="n"/>
-      <c r="S29" s="58" t="inlineStr">
-        <is>
-          <t>M A T E R I A L S</t>
-        </is>
-      </c>
-      <c r="T29" s="51" t="n"/>
-      <c r="U29" s="51" t="n"/>
-      <c r="V29" s="51" t="n"/>
-      <c r="W29" s="51" t="n"/>
-      <c r="X29" s="51" t="n"/>
-      <c r="Y29" s="51" t="n"/>
-      <c r="Z29" s="51" t="n"/>
-      <c r="AA29" s="51" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="51" t="n"/>
-      <c r="AD29" s="51" t="n"/>
-      <c r="AE29" s="51" t="n"/>
-      <c r="AF29" s="51" t="n"/>
-      <c r="AG29" s="51" t="n"/>
-      <c r="AH29" s="51" t="n"/>
-      <c r="AI29" s="51" t="n"/>
-      <c r="AJ29" s="16" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="51" t="n"/>
-      <c r="C30" s="51" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
-      <c r="G30" s="51" t="n"/>
-      <c r="H30" s="51" t="n"/>
-      <c r="I30" s="51" t="n"/>
-      <c r="J30" s="51" t="n"/>
-      <c r="K30" s="51" t="n"/>
-      <c r="L30" s="51" t="n"/>
-      <c r="M30" s="51" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-      <c r="P30" s="51" t="n"/>
-      <c r="Q30" s="51" t="n"/>
-      <c r="R30" s="51" t="n"/>
-      <c r="S30" s="58" t="n"/>
-      <c r="T30" s="51" t="n"/>
-      <c r="U30" s="51" t="n"/>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="51" t="n"/>
-      <c r="X30" s="51" t="n"/>
-      <c r="Y30" s="51" t="n"/>
-      <c r="Z30" s="51" t="n"/>
-      <c r="AA30" s="51" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="51" t="n"/>
-      <c r="AD30" s="51" t="n"/>
-      <c r="AE30" s="51" t="n"/>
-      <c r="AF30" s="51" t="n"/>
-      <c r="AG30" s="51" t="n"/>
-      <c r="AH30" s="51" t="n"/>
-      <c r="AI30" s="51" t="n"/>
-      <c r="AJ30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="42" t="n"/>
-      <c r="G31" s="42" t="n"/>
-      <c r="H31" s="85" t="inlineStr">
-        <is>
-          <t>ASTM A216 Gr.WCB</t>
-        </is>
-      </c>
-      <c r="I31" s="95" t="n"/>
-      <c r="J31" s="95" t="n"/>
-      <c r="K31" s="95" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="95" t="n"/>
-      <c r="N31" s="95" t="n"/>
-      <c r="O31" s="95" t="n"/>
-      <c r="P31" s="95" t="n"/>
-      <c r="Q31" s="95" t="n"/>
-      <c r="R31" s="95" t="n"/>
-      <c r="S31" s="95" t="n"/>
-      <c r="T31" s="95" t="n"/>
-      <c r="U31" s="95" t="n"/>
-      <c r="V31" s="95" t="n"/>
-      <c r="W31" s="95" t="n"/>
-      <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>TRIM:</t>
-        </is>
-      </c>
-      <c r="AA31" s="42" t="n"/>
-      <c r="AB31" s="42" t="n"/>
-      <c r="AC31" s="70" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AD31" s="95" t="n"/>
-      <c r="AE31" s="95" t="n"/>
-      <c r="AF31" s="95" t="n"/>
-      <c r="AG31" s="95" t="n"/>
-      <c r="AH31" s="95" t="n"/>
-      <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
-      <c r="E32" s="42" t="n"/>
-      <c r="F32" s="42" t="n"/>
-      <c r="G32" s="42" t="n"/>
-      <c r="H32" s="85" t="inlineStr">
-        <is>
-          <t>BOLTED COVER: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="42" t="n"/>
-      <c r="Z32" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AA32" s="42" t="n"/>
-      <c r="AB32" s="42" t="n"/>
-      <c r="AC32" s="70" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>SEAT:</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="86" t="inlineStr">
-        <is>
-          <t>RENEWABLE</t>
-        </is>
-      </c>
-      <c r="I33" s="97" t="n"/>
-      <c r="J33" s="97" t="n"/>
-      <c r="K33" s="97" t="n"/>
-      <c r="L33" s="97" t="n"/>
-      <c r="M33" s="97" t="n"/>
-      <c r="N33" s="97" t="n"/>
-      <c r="O33" s="97" t="n"/>
-      <c r="P33" s="97" t="n"/>
-      <c r="Q33" s="97" t="n"/>
-      <c r="R33" s="97" t="n"/>
-      <c r="S33" s="97" t="n"/>
-      <c r="T33" s="97" t="n"/>
-      <c r="U33" s="97" t="n"/>
-      <c r="V33" s="97" t="n"/>
-      <c r="W33" s="97" t="n"/>
-      <c r="X33" s="97" t="n"/>
-      <c r="Y33" s="42" t="n"/>
-      <c r="Z33" s="81" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
-        </is>
-      </c>
-      <c r="AA33" s="42" t="n"/>
-      <c r="AB33" s="42" t="n"/>
-      <c r="AC33" s="70" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="83" t="inlineStr">
-        <is>
-          <t>SYSTEM:</t>
-        </is>
-      </c>
-      <c r="B34" s="42" t="n"/>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="67" t="inlineStr">
-        <is>
-          <t>SWING CHECK</t>
-        </is>
-      </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
-    </row>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
-      <c r="B35" s="42" t="n"/>
-      <c r="C35" s="42" t="n"/>
-      <c r="D35" s="42" t="n"/>
-      <c r="E35" s="42" t="n"/>
-      <c r="F35" s="42" t="n"/>
-      <c r="G35" s="42" t="n"/>
-      <c r="H35" s="67" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="18" t="n"/>
-      <c r="B36" s="42" t="n"/>
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="67" t="n"/>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
-      <c r="B37" s="42" t="n"/>
-      <c r="C37" s="42" t="n"/>
-      <c r="D37" s="42" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="42" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="67" t="inlineStr">
-        <is>
-          <t>INSTALLATION: HORIZONTAL OR VERTICAL, O-RING: VITON</t>
-        </is>
-      </c>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="n"/>
-      <c r="B38" s="42" t="n"/>
-      <c r="C38" s="42" t="n"/>
-      <c r="D38" s="42" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="42" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="67" t="n"/>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A39" s="37" t="n"/>
-      <c r="B39" s="61" t="n"/>
-      <c r="C39" s="61" t="n"/>
-      <c r="D39" s="61" t="n"/>
-      <c r="E39" s="61" t="n"/>
-      <c r="F39" s="61" t="n"/>
-      <c r="G39" s="61" t="n"/>
-      <c r="H39" s="61" t="n"/>
-      <c r="I39" s="61" t="n"/>
-      <c r="J39" s="61" t="n"/>
-      <c r="K39" s="61" t="n"/>
-      <c r="L39" s="61" t="n"/>
-      <c r="M39" s="61" t="n"/>
-      <c r="N39" s="61" t="n"/>
-      <c r="O39" s="61" t="n"/>
-      <c r="P39" s="61" t="n"/>
-      <c r="Q39" s="61" t="n"/>
-      <c r="R39" s="61" t="n"/>
-      <c r="S39" s="61" t="n"/>
-      <c r="T39" s="61" t="n"/>
-      <c r="U39" s="61" t="n"/>
-      <c r="V39" s="61" t="n"/>
-      <c r="W39" s="61" t="n"/>
-      <c r="X39" s="61" t="n"/>
-      <c r="Y39" s="61" t="n"/>
-      <c r="Z39" s="61" t="n"/>
-      <c r="AA39" s="61" t="n"/>
-      <c r="AB39" s="61" t="n"/>
-      <c r="AC39" s="61" t="n"/>
-      <c r="AD39" s="61" t="n"/>
-      <c r="AE39" s="61" t="n"/>
-      <c r="AF39" s="61" t="n"/>
-      <c r="AG39" s="61" t="n"/>
-      <c r="AH39" s="61" t="n"/>
-      <c r="AI39" s="61" t="n"/>
-      <c r="AJ39" s="28" t="n"/>
-    </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A40" s="15" t="n"/>
-      <c r="B40" s="51" t="n"/>
-      <c r="C40" s="51" t="n"/>
-      <c r="D40" s="51" t="n"/>
-      <c r="E40" s="51" t="n"/>
-      <c r="F40" s="51" t="n"/>
-      <c r="G40" s="51" t="n"/>
-      <c r="H40" s="51" t="n"/>
-      <c r="I40" s="51" t="n"/>
-      <c r="J40" s="51" t="n"/>
-      <c r="K40" s="51" t="n"/>
-      <c r="L40" s="51" t="n"/>
-      <c r="M40" s="51" t="n"/>
-      <c r="N40" s="51" t="n"/>
-      <c r="O40" s="51" t="n"/>
-      <c r="P40" s="51" t="n"/>
-      <c r="Q40" s="51" t="n"/>
-      <c r="R40" s="51" t="n"/>
-      <c r="S40" s="52" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T40" s="51" t="n"/>
-      <c r="U40" s="51" t="n"/>
-      <c r="V40" s="51" t="n"/>
-      <c r="W40" s="51" t="n"/>
-      <c r="X40" s="51" t="n"/>
-      <c r="Y40" s="51" t="n"/>
-      <c r="Z40" s="51" t="n"/>
-      <c r="AA40" s="51" t="n"/>
-      <c r="AB40" s="51" t="n"/>
-      <c r="AC40" s="51" t="n"/>
-      <c r="AD40" s="51" t="n"/>
-      <c r="AE40" s="51" t="n"/>
-      <c r="AF40" s="51" t="n"/>
-      <c r="AG40" s="51" t="n"/>
-      <c r="AH40" s="51" t="n"/>
-      <c r="AI40" s="51" t="n"/>
-      <c r="AJ40" s="16" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="38" t="n"/>
-      <c r="B41" s="33" t="n"/>
-      <c r="C41" s="33" t="n"/>
-      <c r="D41" s="33" t="n"/>
-      <c r="E41" s="33" t="n"/>
-      <c r="F41" s="33" t="n"/>
-      <c r="G41" s="33" t="n"/>
-      <c r="H41" s="33" t="n"/>
-      <c r="I41" s="33" t="n"/>
-      <c r="J41" s="33" t="n"/>
-      <c r="K41" s="33" t="n"/>
-      <c r="L41" s="33" t="n"/>
-      <c r="M41" s="33" t="n"/>
-      <c r="N41" s="33" t="n"/>
-      <c r="O41" s="33" t="n"/>
-      <c r="P41" s="33" t="n"/>
-      <c r="Q41" s="33" t="n"/>
-      <c r="R41" s="33" t="n"/>
-      <c r="S41" s="33" t="n"/>
-      <c r="T41" s="33" t="n"/>
-      <c r="U41" s="33" t="n"/>
-      <c r="V41" s="33" t="n"/>
-      <c r="W41" s="33" t="n"/>
-      <c r="X41" s="33" t="n"/>
-      <c r="Y41" s="33" t="n"/>
-      <c r="Z41" s="33" t="n"/>
-      <c r="AA41" s="33" t="n"/>
-      <c r="AB41" s="33" t="n"/>
-      <c r="AC41" s="33" t="n"/>
-      <c r="AD41" s="33" t="n"/>
-      <c r="AE41" s="33" t="n"/>
-      <c r="AF41" s="33" t="n"/>
-      <c r="AG41" s="33" t="n"/>
-      <c r="AH41" s="33" t="n"/>
-      <c r="AI41" s="33" t="n"/>
-      <c r="AJ41" s="34" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A42" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 
-</t>
-        </is>
-      </c>
-      <c r="B42" s="86" t="inlineStr">
-        <is>
-          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C42" s="97" t="n"/>
-      <c r="D42" s="97" t="n"/>
-      <c r="E42" s="97" t="n"/>
-      <c r="F42" s="97" t="n"/>
-      <c r="G42" s="97" t="n"/>
-      <c r="H42" s="97" t="n"/>
-      <c r="I42" s="97" t="n"/>
-      <c r="J42" s="97" t="n"/>
-      <c r="K42" s="97" t="n"/>
-      <c r="L42" s="97" t="n"/>
-      <c r="M42" s="97" t="n"/>
-      <c r="N42" s="97" t="n"/>
-      <c r="O42" s="97" t="n"/>
-      <c r="P42" s="97" t="n"/>
-      <c r="Q42" s="97" t="n"/>
-      <c r="R42" s="97" t="n"/>
-      <c r="S42" s="97" t="n"/>
-      <c r="T42" s="97" t="n"/>
-      <c r="U42" s="97" t="n"/>
-      <c r="V42" s="97" t="n"/>
-      <c r="W42" s="97" t="n"/>
-      <c r="X42" s="97" t="n"/>
-      <c r="Y42" s="97" t="n"/>
-      <c r="Z42" s="97" t="n"/>
-      <c r="AA42" s="97" t="n"/>
-      <c r="AB42" s="97" t="n"/>
-      <c r="AC42" s="97" t="n"/>
-      <c r="AD42" s="97" t="n"/>
-      <c r="AE42" s="97" t="n"/>
-      <c r="AF42" s="97" t="n"/>
-      <c r="AG42" s="97" t="n"/>
-      <c r="AH42" s="97" t="n"/>
-      <c r="AI42" s="97" t="n"/>
-      <c r="AJ42" s="34" t="n"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
-      <c r="C43" s="2" t="n"/>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
-      <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="n"/>
-      <c r="R43" s="2" t="n"/>
-      <c r="S43" s="2" t="n"/>
-      <c r="T43" s="2" t="n"/>
-      <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="n"/>
-      <c r="W43" s="2" t="n"/>
-      <c r="X43" s="2" t="n"/>
-      <c r="Y43" s="2" t="n"/>
-      <c r="Z43" s="2" t="n"/>
-      <c r="AA43" s="2" t="n"/>
-      <c r="AB43" s="2" t="n"/>
-      <c r="AC43" s="2" t="n"/>
-      <c r="AD43" s="2" t="n"/>
-      <c r="AE43" s="2" t="n"/>
-      <c r="AF43" s="2" t="n"/>
-      <c r="AG43" s="2" t="n"/>
-      <c r="AH43" s="2" t="n"/>
-      <c r="AI43" s="2" t="n"/>
-      <c r="AJ43" s="2" t="n"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="B42:AI42"/>
-    <mergeCell ref="H34:AI34"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AC33:AI33"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="H32:X32"/>
-    <mergeCell ref="H33:X33"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="B44:AH44"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="H35:AI35"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="AC32:AI32"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-  </mergeCells>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AJ44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
-    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>CHECK VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-      <c r="AA1" s="12" t="n"/>
-      <c r="AB1" s="12" t="n"/>
-      <c r="AC1" s="12" t="n"/>
-      <c r="AD1" s="12" t="n"/>
-      <c r="AE1" s="12" t="n"/>
-      <c r="AF1" s="12" t="n"/>
-      <c r="AG1" s="12" t="n"/>
-      <c r="AH1" s="12" t="n"/>
-      <c r="AI1" s="12" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A2" s="37" t="n"/>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="61" t="n"/>
-      <c r="D2" s="61" t="n"/>
-      <c r="E2" s="61" t="n"/>
-      <c r="F2" s="61" t="n"/>
-      <c r="G2" s="61" t="n"/>
-      <c r="H2" s="61" t="n"/>
-      <c r="I2" s="61" t="n"/>
-      <c r="J2" s="61" t="n"/>
-      <c r="K2" s="61" t="n"/>
-      <c r="L2" s="61" t="n"/>
-      <c r="M2" s="61" t="n"/>
-      <c r="N2" s="61" t="n"/>
-      <c r="O2" s="61" t="n"/>
-      <c r="P2" s="61" t="n"/>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="61" t="n"/>
-      <c r="S2" s="61" t="n"/>
-      <c r="T2" s="61" t="n"/>
-      <c r="U2" s="61" t="n"/>
-      <c r="V2" s="61" t="n"/>
-      <c r="W2" s="61" t="n"/>
-      <c r="X2" s="61" t="n"/>
-      <c r="Y2" s="61" t="n"/>
-      <c r="Z2" s="61" t="n"/>
-      <c r="AA2" s="61" t="n"/>
-      <c r="AB2" s="61" t="n"/>
-      <c r="AC2" s="61" t="n"/>
-      <c r="AD2" s="61" t="n"/>
-      <c r="AE2" s="61" t="n"/>
-      <c r="AF2" s="61" t="n"/>
-      <c r="AG2" s="61" t="n"/>
-      <c r="AH2" s="61" t="n"/>
-      <c r="AI2" s="61" t="n"/>
-      <c r="AJ2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>TAG. No.</t>
-        </is>
-      </c>
-      <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>CLV24F0B2B</t>
-        </is>
-      </c>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="61" t="n"/>
-      <c r="M3" s="61" t="n"/>
-      <c r="N3" s="61" t="n"/>
-      <c r="O3" s="61" t="n"/>
-      <c r="P3" s="48" t="n"/>
-      <c r="Q3" s="48" t="n"/>
-      <c r="R3" s="48" t="n"/>
-      <c r="S3" s="48" t="n"/>
-      <c r="T3" s="48" t="n"/>
-      <c r="U3" s="48" t="n"/>
-      <c r="V3" s="48" t="n"/>
-      <c r="W3" s="48" t="n"/>
-      <c r="X3" s="48" t="n"/>
-      <c r="Y3" s="48" t="n"/>
-      <c r="Z3" s="48" t="n"/>
-      <c r="AA3" s="48" t="n"/>
-      <c r="AB3" s="48" t="n"/>
-      <c r="AC3" s="48" t="n"/>
-      <c r="AD3" s="48" t="n"/>
-      <c r="AE3" s="48" t="n"/>
-      <c r="AF3" s="48" t="n"/>
-      <c r="AG3" s="48" t="n"/>
-      <c r="AH3" s="48" t="n"/>
-      <c r="AI3" s="48" t="n"/>
-      <c r="AJ3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>SIZE :</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="96" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="I4" s="97" t="n"/>
-      <c r="J4" s="97" t="n"/>
-      <c r="K4" s="49" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="61" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="61" t="n"/>
-      <c r="S4" s="61" t="n"/>
-      <c r="T4" s="61" t="n"/>
-      <c r="U4" s="61" t="n"/>
-      <c r="V4" s="61" t="n"/>
-      <c r="W4" s="61" t="n"/>
-      <c r="X4" s="61" t="n"/>
-      <c r="Y4" s="61" t="n"/>
-      <c r="Z4" s="61" t="n"/>
-      <c r="AA4" s="61" t="n"/>
-      <c r="AB4" s="61" t="n"/>
-      <c r="AC4" s="61" t="n"/>
-      <c r="AD4" s="61" t="n"/>
-      <c r="AE4" s="61" t="n"/>
-      <c r="AF4" s="61" t="n"/>
-      <c r="AG4" s="61" t="n"/>
-      <c r="AH4" s="61" t="n"/>
-      <c r="AI4" s="50" t="n"/>
-      <c r="AJ4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>PIPING CLASS :</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n"/>
-      <c r="C5" s="47" t="n"/>
-      <c r="D5" s="47" t="n"/>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="69" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="I5" s="95" t="n"/>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="95" t="n"/>
-      <c r="L5" s="95" t="n"/>
-      <c r="M5" s="95" t="n"/>
-      <c r="N5" s="95" t="n"/>
-      <c r="O5" s="47" t="n"/>
-      <c r="P5" s="47" t="n"/>
-      <c r="Q5" s="47" t="n"/>
-      <c r="R5" s="47" t="n"/>
-      <c r="S5" s="47" t="n"/>
-      <c r="T5" s="47" t="n"/>
-      <c r="U5" s="47" t="n"/>
-      <c r="V5" s="61" t="n"/>
-      <c r="W5" s="24" t="inlineStr">
-        <is>
-          <t>PLANT LOCATION:</t>
-        </is>
-      </c>
-      <c r="X5" s="61" t="n"/>
-      <c r="Y5" s="61" t="n"/>
-      <c r="Z5" s="61" t="n"/>
-      <c r="AA5" s="61" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="95" t="n"/>
-      <c r="AD5" s="95" t="n"/>
-      <c r="AE5" s="95" t="n"/>
-      <c r="AF5" s="95" t="n"/>
-      <c r="AG5" s="95" t="n"/>
-      <c r="AH5" s="95" t="n"/>
-      <c r="AI5" s="95" t="n"/>
-      <c r="AJ5" s="65" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>SERVICE (Note 1):</t>
-        </is>
-      </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="61" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="61" t="n"/>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
-        <is>
-          <t>HCN &amp; HCR</t>
-        </is>
-      </c>
-      <c r="I6" s="95" t="n"/>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="95" t="n"/>
-      <c r="L6" s="95" t="n"/>
-      <c r="M6" s="95" t="n"/>
-      <c r="N6" s="95" t="n"/>
-      <c r="O6" s="95" t="n"/>
-      <c r="P6" s="95" t="n"/>
-      <c r="Q6" s="95" t="n"/>
-      <c r="R6" s="95" t="n"/>
-      <c r="S6" s="95" t="n"/>
-      <c r="T6" s="95" t="n"/>
-      <c r="U6" s="95" t="n"/>
-      <c r="V6" s="95" t="n"/>
-      <c r="W6" s="95" t="n"/>
-      <c r="X6" s="95" t="n"/>
-      <c r="Y6" s="95" t="n"/>
-      <c r="Z6" s="95" t="n"/>
-      <c r="AA6" s="95" t="n"/>
-      <c r="AB6" s="95" t="n"/>
-      <c r="AC6" s="95" t="n"/>
-      <c r="AD6" s="95" t="n"/>
-      <c r="AE6" s="95" t="n"/>
-      <c r="AF6" s="95" t="n"/>
-      <c r="AG6" s="95" t="n"/>
-      <c r="AH6" s="95" t="n"/>
-      <c r="AI6" s="95" t="n"/>
-      <c r="AJ6" s="65" t="n"/>
-    </row>
-    <row r="7" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="37" t="n"/>
-      <c r="B7" s="61" t="n"/>
-      <c r="C7" s="61" t="n"/>
-      <c r="D7" s="61" t="n"/>
-      <c r="E7" s="61" t="n"/>
-      <c r="F7" s="61" t="n"/>
-      <c r="G7" s="61" t="n"/>
-      <c r="H7" s="61" t="n"/>
-      <c r="I7" s="61" t="n"/>
-      <c r="J7" s="61" t="n"/>
-      <c r="K7" s="61" t="n"/>
-      <c r="L7" s="61" t="n"/>
-      <c r="M7" s="61" t="n"/>
-      <c r="N7" s="61" t="n"/>
-      <c r="O7" s="61" t="n"/>
-      <c r="P7" s="61" t="n"/>
-      <c r="Q7" s="61" t="n"/>
-      <c r="R7" s="61" t="n"/>
-      <c r="S7" s="61" t="n"/>
-      <c r="T7" s="61" t="n"/>
-      <c r="U7" s="61" t="n"/>
-      <c r="V7" s="61" t="n"/>
-      <c r="W7" s="61" t="n"/>
-      <c r="X7" s="61" t="n"/>
-      <c r="Y7" s="61" t="n"/>
-      <c r="Z7" s="61" t="n"/>
-      <c r="AA7" s="61" t="n"/>
-      <c r="AB7" s="61" t="n"/>
-      <c r="AC7" s="61" t="n"/>
-      <c r="AD7" s="61" t="n"/>
-      <c r="AE7" s="61" t="n"/>
-      <c r="AF7" s="61" t="n"/>
-      <c r="AG7" s="61" t="n"/>
-      <c r="AH7" s="61" t="n"/>
-      <c r="AI7" s="61" t="n"/>
-      <c r="AJ7" s="28" t="n"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="15" t="n"/>
-      <c r="B8" s="51" t="n"/>
-      <c r="C8" s="51" t="n"/>
-      <c r="D8" s="51" t="n"/>
-      <c r="E8" s="51" t="n"/>
-      <c r="F8" s="51" t="n"/>
-      <c r="G8" s="51" t="n"/>
-      <c r="H8" s="51" t="n"/>
-      <c r="I8" s="51" t="n"/>
-      <c r="J8" s="51" t="n"/>
-      <c r="K8" s="51" t="n"/>
-      <c r="L8" s="51" t="n"/>
-      <c r="M8" s="51" t="n"/>
-      <c r="N8" s="51" t="n"/>
-      <c r="O8" s="51" t="n"/>
-      <c r="P8" s="51" t="n"/>
-      <c r="Q8" s="51" t="n"/>
-      <c r="R8" s="51" t="n"/>
-      <c r="S8" s="52" t="inlineStr">
-        <is>
-          <t>M E C H A N I C A L</t>
-        </is>
-      </c>
-      <c r="T8" s="51" t="n"/>
-      <c r="U8" s="51" t="n"/>
-      <c r="V8" s="51" t="n"/>
-      <c r="W8" s="51" t="n"/>
-      <c r="X8" s="51" t="n"/>
-      <c r="Y8" s="51" t="n"/>
-      <c r="Z8" s="51" t="n"/>
-      <c r="AA8" s="51" t="n"/>
-      <c r="AB8" s="51" t="n"/>
-      <c r="AC8" s="51" t="n"/>
-      <c r="AD8" s="51" t="n"/>
-      <c r="AE8" s="51" t="n"/>
-      <c r="AF8" s="51" t="n"/>
-      <c r="AG8" s="51" t="n"/>
-      <c r="AH8" s="51" t="n"/>
-      <c r="AI8" s="51" t="n"/>
-      <c r="AJ8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="61" t="n"/>
-      <c r="D9" s="61" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="61" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="61" t="n"/>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="61" t="n"/>
-      <c r="K9" s="61" t="n"/>
-      <c r="L9" s="61" t="n"/>
-      <c r="M9" s="61" t="n"/>
-      <c r="N9" s="61" t="n"/>
-      <c r="O9" s="61" t="n"/>
-      <c r="P9" s="61" t="n"/>
-      <c r="Q9" s="61" t="n"/>
-      <c r="R9" s="61" t="n"/>
-      <c r="S9" s="61" t="n"/>
-      <c r="T9" s="61" t="n"/>
-      <c r="U9" s="61" t="n"/>
-      <c r="V9" s="61" t="n"/>
-      <c r="W9" s="61" t="n"/>
-      <c r="X9" s="61" t="n"/>
-      <c r="Y9" s="61" t="n"/>
-      <c r="Z9" s="61" t="n"/>
-      <c r="AA9" s="61" t="n"/>
-      <c r="AB9" s="61" t="n"/>
-      <c r="AC9" s="61" t="n"/>
-      <c r="AD9" s="61" t="n"/>
-      <c r="AE9" s="61" t="n"/>
-      <c r="AF9" s="61" t="n"/>
-      <c r="AG9" s="61" t="n"/>
-      <c r="AH9" s="61" t="n"/>
-      <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>VALVE TYPE :</t>
-        </is>
-      </c>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="61" t="n"/>
-      <c r="D10" s="61" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="61" t="n"/>
-      <c r="G10" s="61" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
-        <is>
-          <t>LIFT CHECK VALVE</t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="95" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="95" t="n"/>
-      <c r="M10" s="95" t="n"/>
-      <c r="N10" s="95" t="n"/>
-      <c r="O10" s="95" t="n"/>
-      <c r="P10" s="95" t="n"/>
-      <c r="Q10" s="95" t="n"/>
-      <c r="R10" s="95" t="n"/>
-      <c r="S10" s="95" t="n"/>
-      <c r="T10" s="95" t="n"/>
-      <c r="U10" s="95" t="n"/>
-      <c r="V10" s="95" t="n"/>
-      <c r="W10" s="95" t="n"/>
-      <c r="X10" s="61" t="n"/>
-      <c r="Y10" s="61" t="n"/>
-      <c r="Z10" s="61" t="n"/>
-      <c r="AA10" s="61" t="n"/>
-      <c r="AB10" s="49" t="inlineStr">
-        <is>
-          <t>RATING / CLASS:</t>
-        </is>
-      </c>
-      <c r="AC10" s="70" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="AD10" s="95" t="n"/>
-      <c r="AE10" s="95" t="n"/>
-      <c r="AF10" s="95" t="n"/>
-      <c r="AG10" s="95" t="n"/>
-      <c r="AH10" s="95" t="n"/>
-      <c r="AI10" s="95" t="n"/>
-      <c r="AJ10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>END CONNECTIONS:</t>
-        </is>
-      </c>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="61" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="61" t="n"/>
-      <c r="G11" s="61" t="n"/>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLANGED </t>
-        </is>
-      </c>
-      <c r="I11" s="61" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr"/>
-      <c r="M11" s="95" t="n"/>
-      <c r="N11" s="61" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="61" t="n"/>
-      <c r="Q11" s="61" t="n"/>
-      <c r="R11" s="49" t="inlineStr">
-        <is>
-          <t>FACING:</t>
-        </is>
-      </c>
-      <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr"/>
-      <c r="U11" s="95" t="n"/>
-      <c r="V11" s="61" t="n"/>
-      <c r="W11" s="61" t="n"/>
-      <c r="X11" s="61" t="n"/>
-      <c r="Y11" s="61" t="n"/>
-      <c r="Z11" s="61" t="n"/>
-      <c r="AA11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOCKETWELD </t>
-        </is>
-      </c>
-      <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD11" s="95" t="n"/>
-      <c r="AE11" s="66" t="inlineStr">
-        <is>
-          <t>SCREWED</t>
-        </is>
-      </c>
-      <c r="AF11" s="66" t="n"/>
-      <c r="AG11" s="66" t="n"/>
-      <c r="AH11" s="72" t="inlineStr"/>
-      <c r="AI11" s="95" t="n"/>
-      <c r="AJ11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="37" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="61" t="n"/>
-      <c r="D12" s="61" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="61" t="n"/>
-      <c r="G12" s="61" t="n"/>
-      <c r="H12" s="54" t="inlineStr">
-        <is>
-          <t>BUTTWELD</t>
-        </is>
-      </c>
-      <c r="I12" s="61" t="n"/>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="61" t="n"/>
-      <c r="L12" s="68" t="inlineStr"/>
-      <c r="M12" s="95" t="n"/>
-      <c r="N12" s="95" t="n"/>
-      <c r="O12" s="95" t="n"/>
-      <c r="P12" s="95" t="n"/>
-      <c r="Q12" s="95" t="n"/>
-      <c r="R12" s="95" t="n"/>
-      <c r="S12" s="95" t="n"/>
-      <c r="T12" s="95" t="n"/>
-      <c r="U12" s="95" t="n"/>
-      <c r="V12" s="95" t="n"/>
-      <c r="W12" s="61" t="n"/>
-      <c r="X12" s="61" t="n"/>
-      <c r="Y12" s="61" t="n"/>
-      <c r="Z12" s="61" t="n"/>
-      <c r="AA12" s="61" t="n"/>
-      <c r="AB12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-      <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
-      <c r="AE12" s="95" t="n"/>
-      <c r="AF12" s="95" t="n"/>
-      <c r="AG12" s="95" t="n"/>
-      <c r="AH12" s="95" t="n"/>
-      <c r="AI12" s="95" t="n"/>
-      <c r="AJ12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A13" s="37" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="61" t="n"/>
-      <c r="D13" s="61" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="61" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="61" t="n"/>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="61" t="n"/>
-      <c r="L13" s="61" t="n"/>
-      <c r="M13" s="61" t="n"/>
-      <c r="N13" s="61" t="n"/>
-      <c r="O13" s="61" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="61" t="n"/>
-      <c r="R13" s="61" t="n"/>
-      <c r="S13" s="61" t="n"/>
-      <c r="T13" s="61" t="n"/>
-      <c r="U13" s="61" t="n"/>
-      <c r="V13" s="61" t="n"/>
-      <c r="W13" s="61" t="n"/>
-      <c r="X13" s="61" t="n"/>
-      <c r="Y13" s="61" t="n"/>
-      <c r="Z13" s="61" t="n"/>
-      <c r="AA13" s="61" t="n"/>
-      <c r="AB13" s="53" t="n"/>
-      <c r="AC13" s="61" t="n"/>
-      <c r="AD13" s="61" t="n"/>
-      <c r="AE13" s="61" t="n"/>
-      <c r="AF13" s="61" t="n"/>
-      <c r="AG13" s="61" t="n"/>
-      <c r="AH13" s="61" t="n"/>
-      <c r="AI13" s="61" t="n"/>
-      <c r="AJ13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
-        </is>
-      </c>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="61" t="n"/>
-      <c r="D14" s="61" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="61" t="n"/>
-      <c r="G14" s="61" t="n"/>
-      <c r="H14" s="61" t="n"/>
-      <c r="I14" s="61" t="n"/>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="61" t="n"/>
-      <c r="L14" s="61" t="n"/>
-      <c r="M14" s="61" t="n"/>
-      <c r="N14" s="61" t="n"/>
-      <c r="O14" s="61" t="n"/>
-      <c r="P14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.5</t>
-        </is>
-      </c>
-      <c r="Q14" s="68" t="inlineStr"/>
-      <c r="R14" s="95" t="n"/>
-      <c r="S14" s="95" t="n"/>
-      <c r="T14" s="61" t="n"/>
-      <c r="U14" s="61" t="n"/>
-      <c r="V14" s="61" t="n"/>
-      <c r="W14" s="61" t="n"/>
-      <c r="X14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.11</t>
-        </is>
-      </c>
-      <c r="Y14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z14" s="95" t="n"/>
-      <c r="AA14" s="95" t="n"/>
-      <c r="AB14" s="61" t="n"/>
-      <c r="AC14" s="61" t="n"/>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
-      <c r="AG14" s="95" t="n"/>
-      <c r="AH14" s="95" t="n"/>
-      <c r="AI14" s="95" t="n"/>
-      <c r="AJ14" s="16" t="n"/>
-    </row>
-    <row r="15" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="61" t="n"/>
-      <c r="D15" s="61" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="61" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="n"/>
-      <c r="I15" s="61" t="n"/>
-      <c r="J15" s="80" t="n"/>
-      <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="n"/>
-      <c r="R15" s="61" t="n"/>
-      <c r="S15" s="61" t="n"/>
-      <c r="T15" s="80" t="n"/>
-      <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="n"/>
-      <c r="AA15" s="61" t="n"/>
-      <c r="AB15" s="61" t="n"/>
-      <c r="AC15" s="61" t="n"/>
-      <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="84" t="n"/>
-      <c r="AJ15" s="98" t="n"/>
-    </row>
-    <row r="16" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="n"/>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="61" t="n"/>
-      <c r="D16" s="61" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="61" t="n"/>
-      <c r="G16" s="61" t="n"/>
-      <c r="H16" s="61" t="n"/>
-      <c r="I16" s="61" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="61" t="n"/>
-      <c r="L16" s="61" t="n"/>
-      <c r="M16" s="61" t="n"/>
-      <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="n"/>
-      <c r="P16" s="80" t="n"/>
-      <c r="S16" s="61" t="n"/>
-      <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="n"/>
-      <c r="V16" s="61" t="n"/>
-      <c r="W16" s="61" t="n"/>
-      <c r="X16" s="61" t="n"/>
-      <c r="Y16" s="55" t="n"/>
-      <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="80" t="n"/>
-      <c r="AD16" s="61" t="n"/>
-      <c r="AE16" s="61" t="n"/>
-      <c r="AF16" s="61" t="n"/>
-      <c r="AG16" s="61" t="n"/>
-      <c r="AH16" s="61" t="n"/>
-      <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="28" t="n"/>
-    </row>
-    <row r="17" hidden="1" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A17" s="17" t="n"/>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="61" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="61" t="inlineStr"/>
-      <c r="I17" s="61" t="n"/>
-      <c r="J17" s="61" t="n"/>
-      <c r="K17" s="61" t="n"/>
-      <c r="L17" s="61" t="n"/>
-      <c r="M17" s="61" t="n"/>
-      <c r="N17" s="61" t="n"/>
-      <c r="O17" s="61" t="n"/>
-      <c r="P17" s="61" t="n"/>
-      <c r="Q17" s="61" t="n"/>
-      <c r="R17" s="61" t="n"/>
-      <c r="S17" s="61" t="n"/>
-      <c r="T17" s="61" t="n"/>
-      <c r="U17" s="61" t="n"/>
-      <c r="V17" s="61" t="n"/>
-      <c r="W17" s="61" t="n"/>
-      <c r="X17" s="61" t="n"/>
-      <c r="Y17" s="61" t="n"/>
-      <c r="Z17" s="61" t="n"/>
-      <c r="AA17" s="61" t="n"/>
-      <c r="AB17" s="61" t="n"/>
-      <c r="AC17" s="61" t="n"/>
-      <c r="AD17" s="61" t="n"/>
-      <c r="AE17" s="61" t="n"/>
-      <c r="AF17" s="61" t="n"/>
-      <c r="AG17" s="61" t="n"/>
-      <c r="AH17" s="61" t="n"/>
-      <c r="AI17" s="61" t="n"/>
-      <c r="AJ17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A18" s="37" t="n"/>
-      <c r="B18" s="61" t="n"/>
-      <c r="C18" s="61" t="n"/>
-      <c r="D18" s="61" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="61" t="n"/>
-      <c r="G18" s="61" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="61" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="61" t="n"/>
-      <c r="L18" s="61" t="n"/>
-      <c r="M18" s="61" t="n"/>
-      <c r="N18" s="61" t="n"/>
-      <c r="O18" s="61" t="n"/>
-      <c r="P18" s="61" t="n"/>
-      <c r="Q18" s="61" t="n"/>
-      <c r="R18" s="61" t="n"/>
-      <c r="S18" s="61" t="n"/>
-      <c r="T18" s="61" t="n"/>
-      <c r="U18" s="61" t="n"/>
-      <c r="V18" s="61" t="n"/>
-      <c r="W18" s="61" t="n"/>
-      <c r="X18" s="61" t="n"/>
-      <c r="Y18" s="55" t="n"/>
-      <c r="Z18" s="61" t="n"/>
-      <c r="AA18" s="61" t="n"/>
-      <c r="AB18" s="61" t="n"/>
-      <c r="AC18" s="61" t="n"/>
-      <c r="AD18" s="61" t="n"/>
-      <c r="AE18" s="61" t="n"/>
-      <c r="AF18" s="61" t="n"/>
-      <c r="AG18" s="61" t="n"/>
-      <c r="AH18" s="61" t="n"/>
-      <c r="AI18" s="61" t="n"/>
-      <c r="AJ18" s="28" t="n"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="51" t="n"/>
-      <c r="C19" s="51" t="n"/>
-      <c r="D19" s="51" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
-      <c r="G19" s="51" t="n"/>
-      <c r="H19" s="51" t="n"/>
-      <c r="I19" s="51" t="n"/>
-      <c r="J19" s="51" t="n"/>
-      <c r="K19" s="51" t="n"/>
-      <c r="L19" s="51" t="n"/>
-      <c r="M19" s="51" t="n"/>
-      <c r="N19" s="51" t="n"/>
-      <c r="O19" s="51" t="n"/>
-      <c r="P19" s="51" t="n"/>
-      <c r="Q19" s="51" t="n"/>
-      <c r="R19" s="51" t="n"/>
-      <c r="S19" s="52" t="inlineStr">
-        <is>
-          <t>D E S I G N</t>
-        </is>
-      </c>
-      <c r="T19" s="51" t="n"/>
-      <c r="U19" s="51" t="n"/>
-      <c r="V19" s="51" t="n"/>
-      <c r="W19" s="51" t="n"/>
-      <c r="X19" s="51" t="n"/>
-      <c r="Y19" s="51" t="n"/>
-      <c r="Z19" s="51" t="n"/>
-      <c r="AA19" s="51" t="n"/>
-      <c r="AB19" s="51" t="n"/>
-      <c r="AC19" s="51" t="n"/>
-      <c r="AD19" s="51" t="n"/>
-      <c r="AE19" s="51" t="n"/>
-      <c r="AF19" s="51" t="n"/>
-      <c r="AG19" s="51" t="n"/>
-      <c r="AH19" s="51" t="n"/>
-      <c r="AI19" s="51" t="n"/>
-      <c r="AJ19" s="16" t="n"/>
-    </row>
-    <row r="20" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A20" s="37" t="n"/>
-      <c r="B20" s="61" t="n"/>
-      <c r="C20" s="61" t="n"/>
-      <c r="D20" s="61" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="61" t="n"/>
-      <c r="H20" s="61" t="n"/>
-      <c r="I20" s="61" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="61" t="n"/>
-      <c r="L20" s="61" t="n"/>
-      <c r="M20" s="61" t="n"/>
-      <c r="N20" s="61" t="n"/>
-      <c r="O20" s="61" t="n"/>
-      <c r="P20" s="61" t="n"/>
-      <c r="Q20" s="61" t="n"/>
-      <c r="R20" s="61" t="n"/>
-      <c r="S20" s="61" t="n"/>
-      <c r="T20" s="61" t="n"/>
-      <c r="U20" s="61" t="n"/>
-      <c r="V20" s="61" t="n"/>
-      <c r="W20" s="61" t="n"/>
-      <c r="X20" s="61" t="n"/>
-      <c r="Y20" s="61" t="n"/>
-      <c r="Z20" s="61" t="n"/>
-      <c r="AA20" s="61" t="n"/>
-      <c r="AB20" s="61" t="n"/>
-      <c r="AC20" s="61" t="n"/>
-      <c r="AD20" s="61" t="n"/>
-      <c r="AE20" s="61" t="n"/>
-      <c r="AF20" s="61" t="n"/>
-      <c r="AG20" s="61" t="n"/>
-      <c r="AH20" s="61" t="n"/>
-      <c r="AI20" s="61" t="n"/>
-      <c r="AJ20" s="28" t="n"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>APPLICABLE PIPING</t>
-        </is>
-      </c>
-      <c r="B21" s="61" t="n"/>
-      <c r="C21" s="61" t="n"/>
-      <c r="D21" s="61" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="61" t="n"/>
-      <c r="H21" s="61" t="n"/>
-      <c r="I21" s="61" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="61" t="n"/>
-      <c r="L21" s="61" t="n"/>
-      <c r="M21" s="61" t="n"/>
-      <c r="N21" s="61" t="n"/>
-      <c r="O21" s="61" t="n"/>
-      <c r="P21" s="61" t="n"/>
-      <c r="Q21" s="61" t="n"/>
-      <c r="R21" s="61" t="n"/>
-      <c r="S21" s="61" t="n"/>
-      <c r="T21" s="61" t="n"/>
-      <c r="U21" s="61" t="n"/>
-      <c r="V21" s="61" t="n"/>
-      <c r="W21" s="61" t="n"/>
-      <c r="X21" s="61" t="n"/>
-      <c r="Y21" s="61" t="n"/>
-      <c r="Z21" s="61" t="n"/>
-      <c r="AA21" s="61" t="n"/>
-      <c r="AB21" s="61" t="n"/>
-      <c r="AC21" s="61" t="n"/>
-      <c r="AD21" s="61" t="n"/>
-      <c r="AE21" s="61" t="n"/>
-      <c r="AF21" s="61" t="n"/>
-      <c r="AG21" s="61" t="n"/>
-      <c r="AH21" s="61" t="n"/>
-      <c r="AI21" s="61" t="n"/>
-      <c r="AJ21" s="28" t="n"/>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DESIGN CODE:       </t>
-        </is>
-      </c>
-      <c r="B22" s="61" t="n"/>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>API 600</t>
-        </is>
-      </c>
-      <c r="I22" s="68" t="inlineStr"/>
-      <c r="J22" s="95" t="n"/>
-      <c r="K22" s="61" t="n"/>
-      <c r="L22" s="61" t="n"/>
-      <c r="M22" s="81" t="inlineStr">
-        <is>
-          <t>API 6D</t>
-        </is>
-      </c>
-      <c r="N22" s="61" t="n"/>
-      <c r="O22" s="68" t="inlineStr"/>
-      <c r="P22" s="95" t="n"/>
-      <c r="Q22" s="61" t="n"/>
-      <c r="R22" s="61" t="n"/>
-      <c r="S22" s="61" t="n"/>
-      <c r="T22" s="53" t="inlineStr">
-        <is>
-          <t>API 608</t>
-        </is>
-      </c>
-      <c r="U22" s="71" t="inlineStr"/>
-      <c r="V22" s="95" t="n"/>
-      <c r="W22" s="61" t="n"/>
-      <c r="X22" s="61" t="n"/>
-      <c r="Y22" s="61" t="n"/>
-      <c r="Z22" s="56" t="inlineStr">
-        <is>
-          <t>API 602</t>
-        </is>
-      </c>
-      <c r="AA22" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB22" s="95" t="n"/>
-      <c r="AC22" s="61" t="n"/>
-      <c r="AD22" s="61" t="n"/>
-      <c r="AE22" s="79" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AG22" s="68" t="inlineStr"/>
-      <c r="AH22" s="95" t="n"/>
-      <c r="AI22" s="95" t="n"/>
-      <c r="AJ22" s="28" t="n"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
-        </is>
-      </c>
-      <c r="L23" s="90" t="inlineStr"/>
-      <c r="M23" s="95" t="n"/>
-      <c r="N23" s="95" t="n"/>
-      <c r="O23" s="95" t="n"/>
-      <c r="P23" s="95" t="n"/>
-      <c r="Q23" s="95" t="n"/>
-      <c r="R23" s="95" t="n"/>
-      <c r="S23" s="95" t="n"/>
-      <c r="T23" s="95" t="n"/>
-      <c r="U23" s="95" t="n"/>
-      <c r="V23" s="95" t="n"/>
-      <c r="W23" s="95" t="n"/>
-      <c r="X23" s="95" t="n"/>
-      <c r="Y23" s="95" t="n"/>
-      <c r="Z23" s="95" t="n"/>
-      <c r="AA23" s="95" t="n"/>
-      <c r="AB23" s="95" t="n"/>
-      <c r="AC23" s="95" t="n"/>
-      <c r="AD23" s="95" t="n"/>
-      <c r="AE23" s="95" t="n"/>
-      <c r="AF23" s="95" t="n"/>
-      <c r="AG23" s="95" t="n"/>
-      <c r="AH23" s="95" t="n"/>
-      <c r="AI23" s="95" t="n"/>
-      <c r="AJ23" s="28" t="n"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="68" t="n">
-        <v>285</v>
-      </c>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="95" t="n"/>
-      <c r="K24" s="95" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="95" t="n"/>
-      <c r="N24" s="95" t="n"/>
-      <c r="O24" s="95" t="n"/>
-      <c r="P24" s="24" t="inlineStr">
-        <is>
-          <t>PSIG @100°F</t>
-        </is>
-      </c>
-      <c r="Q24" s="61" t="n"/>
-      <c r="R24" s="61" t="n"/>
-      <c r="S24" s="61" t="n"/>
-      <c r="T24" s="61" t="n"/>
-      <c r="U24" s="61" t="n"/>
-      <c r="V24" s="61" t="n"/>
-      <c r="W24" s="61" t="n"/>
-      <c r="X24" s="61" t="n"/>
-      <c r="Y24" s="61" t="n"/>
-      <c r="Z24" s="49" t="inlineStr">
-        <is>
-          <t>DESIGN TEMP:</t>
-        </is>
-      </c>
-      <c r="AA24" s="61" t="n"/>
-      <c r="AB24" s="69" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="95" t="n"/>
-      <c r="AD24" s="24" t="inlineStr">
-        <is>
-          <t>F. MIN</t>
-        </is>
-      </c>
-      <c r="AE24" s="61" t="n"/>
-      <c r="AF24" s="69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="95" t="n"/>
-      <c r="AH24" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F. MAX</t>
-        </is>
-      </c>
-      <c r="AI24" s="61" t="n"/>
-      <c r="AJ24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B25" s="61" t="n"/>
-      <c r="C25" s="61" t="n"/>
-      <c r="D25" s="61" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="61" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="61" t="n"/>
-      <c r="I25" s="61" t="n"/>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="32" t="n"/>
-      <c r="L25" s="32" t="n"/>
-      <c r="M25" s="32" t="n"/>
-      <c r="N25" s="32" t="n"/>
-      <c r="O25" s="32" t="n"/>
-      <c r="P25" s="33" t="n"/>
-      <c r="Q25" s="79" t="inlineStr">
-        <is>
-          <t>PSIG</t>
-        </is>
-      </c>
-      <c r="S25" s="61" t="n"/>
-      <c r="T25" s="61" t="n"/>
-      <c r="U25" s="61" t="n"/>
-      <c r="V25" s="61" t="n"/>
-      <c r="W25" s="24" t="inlineStr">
-        <is>
-          <t>TEST PRESSURE:</t>
-        </is>
-      </c>
-      <c r="X25" s="61" t="n"/>
-      <c r="Y25" s="61" t="n"/>
-      <c r="Z25" s="61" t="n"/>
-      <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
-      <c r="AC25" s="95" t="n"/>
-      <c r="AD25" s="95" t="n"/>
-      <c r="AE25" s="24" t="n"/>
-      <c r="AF25" s="78" t="n"/>
-      <c r="AH25" s="61" t="n"/>
-      <c r="AI25" s="61" t="n"/>
-      <c r="AJ25" s="31" t="n"/>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>CONTAMINANTS :</t>
-        </is>
-      </c>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="61" t="n"/>
-      <c r="G26" s="61" t="n"/>
-      <c r="H26" s="24" t="inlineStr">
-        <is>
-          <t>CO2:</t>
-        </is>
-      </c>
-      <c r="I26" s="19" t="n"/>
-      <c r="J26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n"/>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="n"/>
-      <c r="Q26" s="61" t="n"/>
-      <c r="R26" s="61" t="n"/>
-      <c r="S26" s="49" t="inlineStr">
-        <is>
-          <t>CHLORIDE:</t>
-        </is>
-      </c>
-      <c r="T26" s="85" t="n"/>
-      <c r="U26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V26" s="20" t="n"/>
-      <c r="W26" s="33" t="n"/>
-      <c r="X26" s="33" t="n"/>
-      <c r="Y26" s="33" t="n"/>
-      <c r="Z26" s="33" t="n"/>
-      <c r="AA26" s="61" t="n"/>
-      <c r="AB26" s="53" t="inlineStr">
-        <is>
-          <t>H2S:</t>
-        </is>
-      </c>
-      <c r="AC26" s="70" t="n"/>
-      <c r="AD26" s="95" t="n"/>
-      <c r="AE26" s="95" t="n"/>
-      <c r="AF26" s="95" t="n"/>
-      <c r="AG26" s="95" t="n"/>
-      <c r="AH26" s="95" t="n"/>
-      <c r="AI26" s="95" t="n"/>
-      <c r="AJ26" s="28" t="n"/>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A27" s="37" t="n"/>
-      <c r="B27" s="61" t="n"/>
-      <c r="C27" s="61" t="n"/>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="61" t="n"/>
-      <c r="G27" s="61" t="n"/>
-      <c r="H27" s="24" t="inlineStr">
-        <is>
-          <t>METHANOL :</t>
-        </is>
-      </c>
-      <c r="I27" s="61" t="n"/>
-      <c r="J27" s="61" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n"/>
-      <c r="M27" s="33" t="n"/>
-      <c r="N27" s="33" t="n"/>
-      <c r="O27" s="33" t="n"/>
-      <c r="P27" s="33" t="n"/>
-      <c r="Q27" s="33" t="n"/>
-      <c r="R27" s="33" t="n"/>
-      <c r="S27" s="33" t="n"/>
-      <c r="T27" s="33" t="n"/>
-      <c r="U27" s="61" t="n"/>
-      <c r="V27" s="61" t="n"/>
-      <c r="W27" s="53" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="95" t="n"/>
-      <c r="Z27" s="95" t="n"/>
-      <c r="AA27" s="95" t="n"/>
-      <c r="AB27" s="95" t="n"/>
-      <c r="AC27" s="95" t="n"/>
-      <c r="AD27" s="95" t="n"/>
-      <c r="AE27" s="95" t="n"/>
-      <c r="AF27" s="95" t="n"/>
-      <c r="AG27" s="95" t="n"/>
-      <c r="AH27" s="95" t="n"/>
-      <c r="AI27" s="95" t="n"/>
-      <c r="AJ27" s="28" t="n"/>
-    </row>
-    <row r="28" ht="14.25" customFormat="1" customHeight="1" s="35">
-      <c r="A28" s="37" t="n"/>
-      <c r="B28" s="61" t="n"/>
-      <c r="C28" s="61" t="n"/>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="61" t="n"/>
-      <c r="G28" s="61" t="n"/>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="61" t="n"/>
-      <c r="J28" s="61" t="n"/>
-      <c r="K28" s="61" t="n"/>
-      <c r="L28" s="61" t="n"/>
-      <c r="M28" s="61" t="n"/>
-      <c r="N28" s="61" t="n"/>
-      <c r="O28" s="61" t="n"/>
-      <c r="P28" s="61" t="n"/>
-      <c r="Q28" s="61" t="n"/>
-      <c r="R28" s="61" t="n"/>
-      <c r="S28" s="61" t="n"/>
-      <c r="T28" s="61" t="n"/>
-      <c r="U28" s="61" t="n"/>
-      <c r="V28" s="61" t="n"/>
-      <c r="W28" s="61" t="n"/>
-      <c r="X28" s="61" t="n"/>
-      <c r="Y28" s="61" t="n"/>
-      <c r="Z28" s="61" t="n"/>
-      <c r="AA28" s="61" t="n"/>
-      <c r="AB28" s="61" t="n"/>
-      <c r="AC28" s="61" t="n"/>
-      <c r="AD28" s="61" t="n"/>
-      <c r="AE28" s="61" t="n"/>
-      <c r="AF28" s="61" t="n"/>
-      <c r="AG28" s="61" t="n"/>
-      <c r="AH28" s="61" t="n"/>
-      <c r="AI28" s="61" t="n"/>
-      <c r="AJ28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
-      <c r="G29" s="51" t="n"/>
-      <c r="H29" s="51" t="n"/>
-      <c r="I29" s="51" t="n"/>
-      <c r="J29" s="51" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-      <c r="P29" s="51" t="n"/>
-      <c r="Q29" s="51" t="n"/>
-      <c r="R29" s="51" t="n"/>
-      <c r="S29" s="58" t="inlineStr">
-        <is>
-          <t>M A T E R I A L S</t>
-        </is>
-      </c>
-      <c r="T29" s="51" t="n"/>
-      <c r="U29" s="51" t="n"/>
-      <c r="V29" s="51" t="n"/>
-      <c r="W29" s="51" t="n"/>
-      <c r="X29" s="51" t="n"/>
-      <c r="Y29" s="51" t="n"/>
-      <c r="Z29" s="51" t="n"/>
-      <c r="AA29" s="51" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="51" t="n"/>
-      <c r="AD29" s="51" t="n"/>
-      <c r="AE29" s="51" t="n"/>
-      <c r="AF29" s="51" t="n"/>
-      <c r="AG29" s="51" t="n"/>
-      <c r="AH29" s="51" t="n"/>
-      <c r="AI29" s="51" t="n"/>
-      <c r="AJ29" s="16" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="51" t="n"/>
-      <c r="C30" s="51" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
-      <c r="G30" s="51" t="n"/>
-      <c r="H30" s="51" t="n"/>
-      <c r="I30" s="51" t="n"/>
-      <c r="J30" s="51" t="n"/>
-      <c r="K30" s="51" t="n"/>
-      <c r="L30" s="51" t="n"/>
-      <c r="M30" s="51" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-      <c r="P30" s="51" t="n"/>
-      <c r="Q30" s="51" t="n"/>
-      <c r="R30" s="51" t="n"/>
-      <c r="S30" s="58" t="n"/>
-      <c r="T30" s="51" t="n"/>
-      <c r="U30" s="51" t="n"/>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="51" t="n"/>
-      <c r="X30" s="51" t="n"/>
-      <c r="Y30" s="51" t="n"/>
-      <c r="Z30" s="51" t="n"/>
-      <c r="AA30" s="51" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="51" t="n"/>
-      <c r="AD30" s="51" t="n"/>
-      <c r="AE30" s="51" t="n"/>
-      <c r="AF30" s="51" t="n"/>
-      <c r="AG30" s="51" t="n"/>
-      <c r="AH30" s="51" t="n"/>
-      <c r="AI30" s="51" t="n"/>
-      <c r="AJ30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="83" t="inlineStr">
-        <is>
-          <t>BODY/BONNET:</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="42" t="n"/>
-      <c r="G31" s="42" t="n"/>
-      <c r="H31" s="85" t="inlineStr">
-        <is>
-          <t>ASTM A105</t>
-        </is>
-      </c>
-      <c r="I31" s="95" t="n"/>
-      <c r="J31" s="95" t="n"/>
-      <c r="K31" s="95" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="95" t="n"/>
-      <c r="N31" s="95" t="n"/>
-      <c r="O31" s="95" t="n"/>
-      <c r="P31" s="95" t="n"/>
-      <c r="Q31" s="95" t="n"/>
-      <c r="R31" s="95" t="n"/>
-      <c r="S31" s="95" t="n"/>
-      <c r="T31" s="95" t="n"/>
-      <c r="U31" s="95" t="n"/>
-      <c r="V31" s="95" t="n"/>
-      <c r="W31" s="95" t="n"/>
-      <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="42" t="n"/>
-      <c r="Z31" s="81" t="inlineStr">
-        <is>
-          <t>TRIM:</t>
-        </is>
-      </c>
-      <c r="AA31" s="42" t="n"/>
-      <c r="AB31" s="42" t="n"/>
-      <c r="AC31" s="70" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AD31" s="95" t="n"/>
-      <c r="AE31" s="95" t="n"/>
-      <c r="AF31" s="95" t="n"/>
-      <c r="AG31" s="95" t="n"/>
-      <c r="AH31" s="95" t="n"/>
-      <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="16" t="n"/>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="83" t="inlineStr">
-        <is>
-          <t>BONNET GASKET:</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
-      <c r="E32" s="42" t="n"/>
-      <c r="F32" s="42" t="n"/>
-      <c r="G32" s="42" t="n"/>
-      <c r="H32" s="85" t="inlineStr">
-        <is>
-          <t>BOLTED COVER: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I32" s="95" t="n"/>
-      <c r="J32" s="95" t="n"/>
-      <c r="K32" s="95" t="n"/>
-      <c r="L32" s="95" t="n"/>
-      <c r="M32" s="95" t="n"/>
-      <c r="N32" s="95" t="n"/>
-      <c r="O32" s="95" t="n"/>
-      <c r="P32" s="95" t="n"/>
-      <c r="Q32" s="95" t="n"/>
-      <c r="R32" s="95" t="n"/>
-      <c r="S32" s="95" t="n"/>
-      <c r="T32" s="95" t="n"/>
-      <c r="U32" s="95" t="n"/>
-      <c r="V32" s="95" t="n"/>
-      <c r="W32" s="95" t="n"/>
-      <c r="X32" s="95" t="n"/>
-      <c r="Y32" s="42" t="n"/>
-      <c r="Z32" s="81" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="AA32" s="42" t="n"/>
-      <c r="AB32" s="42" t="n"/>
-      <c r="AC32" s="70" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD32" s="95" t="n"/>
-      <c r="AE32" s="95" t="n"/>
-      <c r="AF32" s="95" t="n"/>
-      <c r="AG32" s="95" t="n"/>
-      <c r="AH32" s="95" t="n"/>
-      <c r="AI32" s="95" t="n"/>
-      <c r="AJ32" s="16" t="n"/>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="83" t="inlineStr">
-        <is>
-          <t>SEAT:</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="86" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="I33" s="97" t="n"/>
-      <c r="J33" s="97" t="n"/>
-      <c r="K33" s="97" t="n"/>
-      <c r="L33" s="97" t="n"/>
-      <c r="M33" s="97" t="n"/>
-      <c r="N33" s="97" t="n"/>
-      <c r="O33" s="97" t="n"/>
-      <c r="P33" s="97" t="n"/>
-      <c r="Q33" s="97" t="n"/>
-      <c r="R33" s="97" t="n"/>
-      <c r="S33" s="97" t="n"/>
-      <c r="T33" s="97" t="n"/>
-      <c r="U33" s="97" t="n"/>
-      <c r="V33" s="97" t="n"/>
-      <c r="W33" s="97" t="n"/>
-      <c r="X33" s="97" t="n"/>
-      <c r="Y33" s="42" t="n"/>
-      <c r="Z33" s="81" t="inlineStr">
-        <is>
-          <t>SEALS:</t>
-        </is>
-      </c>
-      <c r="AA33" s="42" t="n"/>
-      <c r="AB33" s="42" t="n"/>
-      <c r="AC33" s="70" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="AD33" s="95" t="n"/>
-      <c r="AE33" s="95" t="n"/>
-      <c r="AF33" s="95" t="n"/>
-      <c r="AG33" s="95" t="n"/>
-      <c r="AH33" s="95" t="n"/>
-      <c r="AI33" s="95" t="n"/>
-      <c r="AJ33" s="16" t="n"/>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="83" t="inlineStr">
-        <is>
-          <t>SYSTEM:</t>
-        </is>
-      </c>
-      <c r="B34" s="42" t="n"/>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="67" t="inlineStr">
-        <is>
-          <t>LIFT CHECK</t>
-        </is>
-      </c>
-      <c r="I34" s="95" t="n"/>
-      <c r="J34" s="95" t="n"/>
-      <c r="K34" s="95" t="n"/>
-      <c r="L34" s="95" t="n"/>
-      <c r="M34" s="95" t="n"/>
-      <c r="N34" s="95" t="n"/>
-      <c r="O34" s="95" t="n"/>
-      <c r="P34" s="95" t="n"/>
-      <c r="Q34" s="95" t="n"/>
-      <c r="R34" s="95" t="n"/>
-      <c r="S34" s="95" t="n"/>
-      <c r="T34" s="95" t="n"/>
-      <c r="U34" s="95" t="n"/>
-      <c r="V34" s="95" t="n"/>
-      <c r="W34" s="95" t="n"/>
-      <c r="X34" s="95" t="n"/>
-      <c r="Y34" s="95" t="n"/>
-      <c r="Z34" s="95" t="n"/>
-      <c r="AA34" s="95" t="n"/>
-      <c r="AB34" s="95" t="n"/>
-      <c r="AC34" s="95" t="n"/>
-      <c r="AD34" s="95" t="n"/>
-      <c r="AE34" s="95" t="n"/>
-      <c r="AF34" s="95" t="n"/>
-      <c r="AG34" s="95" t="n"/>
-      <c r="AH34" s="95" t="n"/>
-      <c r="AI34" s="95" t="n"/>
-      <c r="AJ34" s="16" t="n"/>
-    </row>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
-      <c r="B35" s="42" t="n"/>
-      <c r="C35" s="42" t="n"/>
-      <c r="D35" s="42" t="n"/>
-      <c r="E35" s="42" t="n"/>
-      <c r="F35" s="42" t="n"/>
-      <c r="G35" s="42" t="n"/>
-      <c r="H35" s="67" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I35" s="95" t="n"/>
-      <c r="J35" s="95" t="n"/>
-      <c r="K35" s="95" t="n"/>
-      <c r="L35" s="95" t="n"/>
-      <c r="M35" s="95" t="n"/>
-      <c r="N35" s="95" t="n"/>
-      <c r="O35" s="95" t="n"/>
-      <c r="P35" s="95" t="n"/>
-      <c r="Q35" s="95" t="n"/>
-      <c r="R35" s="95" t="n"/>
-      <c r="S35" s="95" t="n"/>
-      <c r="T35" s="95" t="n"/>
-      <c r="U35" s="95" t="n"/>
-      <c r="V35" s="95" t="n"/>
-      <c r="W35" s="95" t="n"/>
-      <c r="X35" s="95" t="n"/>
-      <c r="Y35" s="95" t="n"/>
-      <c r="Z35" s="95" t="n"/>
-      <c r="AA35" s="95" t="n"/>
-      <c r="AB35" s="95" t="n"/>
-      <c r="AC35" s="95" t="n"/>
-      <c r="AD35" s="95" t="n"/>
-      <c r="AE35" s="95" t="n"/>
-      <c r="AF35" s="95" t="n"/>
-      <c r="AG35" s="95" t="n"/>
-      <c r="AH35" s="95" t="n"/>
-      <c r="AI35" s="95" t="n"/>
-      <c r="AJ35" s="16" t="n"/>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="18" t="n"/>
-      <c r="B36" s="42" t="n"/>
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="67" t="n"/>
-      <c r="I36" s="95" t="n"/>
-      <c r="J36" s="95" t="n"/>
-      <c r="K36" s="95" t="n"/>
-      <c r="L36" s="95" t="n"/>
-      <c r="M36" s="95" t="n"/>
-      <c r="N36" s="95" t="n"/>
-      <c r="O36" s="95" t="n"/>
-      <c r="P36" s="95" t="n"/>
-      <c r="Q36" s="95" t="n"/>
-      <c r="R36" s="95" t="n"/>
-      <c r="S36" s="95" t="n"/>
-      <c r="T36" s="95" t="n"/>
-      <c r="U36" s="95" t="n"/>
-      <c r="V36" s="95" t="n"/>
-      <c r="W36" s="95" t="n"/>
-      <c r="X36" s="95" t="n"/>
-      <c r="Y36" s="95" t="n"/>
-      <c r="Z36" s="95" t="n"/>
-      <c r="AA36" s="95" t="n"/>
-      <c r="AB36" s="95" t="n"/>
-      <c r="AC36" s="95" t="n"/>
-      <c r="AD36" s="95" t="n"/>
-      <c r="AE36" s="95" t="n"/>
-      <c r="AF36" s="95" t="n"/>
-      <c r="AG36" s="95" t="n"/>
-      <c r="AH36" s="95" t="n"/>
-      <c r="AI36" s="95" t="n"/>
-      <c r="AJ36" s="16" t="n"/>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="18" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
-      <c r="B37" s="42" t="n"/>
-      <c r="C37" s="42" t="n"/>
-      <c r="D37" s="42" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="42" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="67" t="inlineStr">
-        <is>
-          <t>INSTALLATION: HORIZONTAL OR VERTICAL, PISTON TYPE: OBTURATOR</t>
-        </is>
-      </c>
-      <c r="I37" s="95" t="n"/>
-      <c r="J37" s="95" t="n"/>
-      <c r="K37" s="95" t="n"/>
-      <c r="L37" s="95" t="n"/>
-      <c r="M37" s="95" t="n"/>
-      <c r="N37" s="95" t="n"/>
-      <c r="O37" s="95" t="n"/>
-      <c r="P37" s="95" t="n"/>
-      <c r="Q37" s="95" t="n"/>
-      <c r="R37" s="95" t="n"/>
-      <c r="S37" s="95" t="n"/>
-      <c r="T37" s="95" t="n"/>
-      <c r="U37" s="95" t="n"/>
-      <c r="V37" s="95" t="n"/>
-      <c r="W37" s="95" t="n"/>
-      <c r="X37" s="95" t="n"/>
-      <c r="Y37" s="95" t="n"/>
-      <c r="Z37" s="95" t="n"/>
-      <c r="AA37" s="95" t="n"/>
-      <c r="AB37" s="95" t="n"/>
-      <c r="AC37" s="95" t="n"/>
-      <c r="AD37" s="95" t="n"/>
-      <c r="AE37" s="95" t="n"/>
-      <c r="AF37" s="95" t="n"/>
-      <c r="AG37" s="95" t="n"/>
-      <c r="AH37" s="95" t="n"/>
-      <c r="AI37" s="95" t="n"/>
-      <c r="AJ37" s="16" t="n"/>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="18" t="n"/>
-      <c r="B38" s="42" t="n"/>
-      <c r="C38" s="42" t="n"/>
-      <c r="D38" s="42" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="42" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="67" t="n"/>
-      <c r="I38" s="95" t="n"/>
-      <c r="J38" s="95" t="n"/>
-      <c r="K38" s="95" t="n"/>
-      <c r="L38" s="95" t="n"/>
-      <c r="M38" s="95" t="n"/>
-      <c r="N38" s="95" t="n"/>
-      <c r="O38" s="95" t="n"/>
-      <c r="P38" s="95" t="n"/>
-      <c r="Q38" s="95" t="n"/>
-      <c r="R38" s="95" t="n"/>
-      <c r="S38" s="95" t="n"/>
-      <c r="T38" s="95" t="n"/>
-      <c r="U38" s="95" t="n"/>
-      <c r="V38" s="95" t="n"/>
-      <c r="W38" s="95" t="n"/>
-      <c r="X38" s="95" t="n"/>
-      <c r="Y38" s="95" t="n"/>
-      <c r="Z38" s="95" t="n"/>
-      <c r="AA38" s="95" t="n"/>
-      <c r="AB38" s="95" t="n"/>
-      <c r="AC38" s="95" t="n"/>
-      <c r="AD38" s="95" t="n"/>
-      <c r="AE38" s="95" t="n"/>
-      <c r="AF38" s="95" t="n"/>
-      <c r="AG38" s="95" t="n"/>
-      <c r="AH38" s="95" t="n"/>
-      <c r="AI38" s="95" t="n"/>
-      <c r="AJ38" s="16" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A39" s="37" t="n"/>
-      <c r="B39" s="61" t="n"/>
-      <c r="C39" s="61" t="n"/>
-      <c r="D39" s="61" t="n"/>
-      <c r="E39" s="61" t="n"/>
-      <c r="F39" s="61" t="n"/>
-      <c r="G39" s="61" t="n"/>
-      <c r="H39" s="61" t="n"/>
-      <c r="I39" s="61" t="n"/>
-      <c r="J39" s="61" t="n"/>
-      <c r="K39" s="61" t="n"/>
-      <c r="L39" s="61" t="n"/>
-      <c r="M39" s="61" t="n"/>
-      <c r="N39" s="61" t="n"/>
-      <c r="O39" s="61" t="n"/>
-      <c r="P39" s="61" t="n"/>
-      <c r="Q39" s="61" t="n"/>
-      <c r="R39" s="61" t="n"/>
-      <c r="S39" s="61" t="n"/>
-      <c r="T39" s="61" t="n"/>
-      <c r="U39" s="61" t="n"/>
-      <c r="V39" s="61" t="n"/>
-      <c r="W39" s="61" t="n"/>
-      <c r="X39" s="61" t="n"/>
-      <c r="Y39" s="61" t="n"/>
-      <c r="Z39" s="61" t="n"/>
-      <c r="AA39" s="61" t="n"/>
-      <c r="AB39" s="61" t="n"/>
-      <c r="AC39" s="61" t="n"/>
-      <c r="AD39" s="61" t="n"/>
-      <c r="AE39" s="61" t="n"/>
-      <c r="AF39" s="61" t="n"/>
-      <c r="AG39" s="61" t="n"/>
-      <c r="AH39" s="61" t="n"/>
-      <c r="AI39" s="61" t="n"/>
-      <c r="AJ39" s="28" t="n"/>
-    </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A40" s="15" t="n"/>
-      <c r="B40" s="51" t="n"/>
-      <c r="C40" s="51" t="n"/>
-      <c r="D40" s="51" t="n"/>
-      <c r="E40" s="51" t="n"/>
-      <c r="F40" s="51" t="n"/>
-      <c r="G40" s="51" t="n"/>
-      <c r="H40" s="51" t="n"/>
-      <c r="I40" s="51" t="n"/>
-      <c r="J40" s="51" t="n"/>
-      <c r="K40" s="51" t="n"/>
-      <c r="L40" s="51" t="n"/>
-      <c r="M40" s="51" t="n"/>
-      <c r="N40" s="51" t="n"/>
-      <c r="O40" s="51" t="n"/>
-      <c r="P40" s="51" t="n"/>
-      <c r="Q40" s="51" t="n"/>
-      <c r="R40" s="51" t="n"/>
-      <c r="S40" s="52" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T40" s="51" t="n"/>
-      <c r="U40" s="51" t="n"/>
-      <c r="V40" s="51" t="n"/>
-      <c r="W40" s="51" t="n"/>
-      <c r="X40" s="51" t="n"/>
-      <c r="Y40" s="51" t="n"/>
-      <c r="Z40" s="51" t="n"/>
-      <c r="AA40" s="51" t="n"/>
-      <c r="AB40" s="51" t="n"/>
-      <c r="AC40" s="51" t="n"/>
-      <c r="AD40" s="51" t="n"/>
-      <c r="AE40" s="51" t="n"/>
-      <c r="AF40" s="51" t="n"/>
-      <c r="AG40" s="51" t="n"/>
-      <c r="AH40" s="51" t="n"/>
-      <c r="AI40" s="51" t="n"/>
-      <c r="AJ40" s="16" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="38" t="n"/>
-      <c r="B41" s="33" t="n"/>
-      <c r="C41" s="33" t="n"/>
-      <c r="D41" s="33" t="n"/>
-      <c r="E41" s="33" t="n"/>
-      <c r="F41" s="33" t="n"/>
-      <c r="G41" s="33" t="n"/>
-      <c r="H41" s="33" t="n"/>
-      <c r="I41" s="33" t="n"/>
-      <c r="J41" s="33" t="n"/>
-      <c r="K41" s="33" t="n"/>
-      <c r="L41" s="33" t="n"/>
-      <c r="M41" s="33" t="n"/>
-      <c r="N41" s="33" t="n"/>
-      <c r="O41" s="33" t="n"/>
-      <c r="P41" s="33" t="n"/>
-      <c r="Q41" s="33" t="n"/>
-      <c r="R41" s="33" t="n"/>
-      <c r="S41" s="33" t="n"/>
-      <c r="T41" s="33" t="n"/>
-      <c r="U41" s="33" t="n"/>
-      <c r="V41" s="33" t="n"/>
-      <c r="W41" s="33" t="n"/>
-      <c r="X41" s="33" t="n"/>
-      <c r="Y41" s="33" t="n"/>
-      <c r="Z41" s="33" t="n"/>
-      <c r="AA41" s="33" t="n"/>
-      <c r="AB41" s="33" t="n"/>
-      <c r="AC41" s="33" t="n"/>
-      <c r="AD41" s="33" t="n"/>
-      <c r="AE41" s="33" t="n"/>
-      <c r="AF41" s="33" t="n"/>
-      <c r="AG41" s="33" t="n"/>
-      <c r="AH41" s="33" t="n"/>
-      <c r="AI41" s="33" t="n"/>
-      <c r="AJ41" s="34" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A42" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 
-</t>
-        </is>
-      </c>
-      <c r="B42" s="86" t="inlineStr">
-        <is>
-          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C42" s="97" t="n"/>
-      <c r="D42" s="97" t="n"/>
-      <c r="E42" s="97" t="n"/>
-      <c r="F42" s="97" t="n"/>
-      <c r="G42" s="97" t="n"/>
-      <c r="H42" s="97" t="n"/>
-      <c r="I42" s="97" t="n"/>
-      <c r="J42" s="97" t="n"/>
-      <c r="K42" s="97" t="n"/>
-      <c r="L42" s="97" t="n"/>
-      <c r="M42" s="97" t="n"/>
-      <c r="N42" s="97" t="n"/>
-      <c r="O42" s="97" t="n"/>
-      <c r="P42" s="97" t="n"/>
-      <c r="Q42" s="97" t="n"/>
-      <c r="R42" s="97" t="n"/>
-      <c r="S42" s="97" t="n"/>
-      <c r="T42" s="97" t="n"/>
-      <c r="U42" s="97" t="n"/>
-      <c r="V42" s="97" t="n"/>
-      <c r="W42" s="97" t="n"/>
-      <c r="X42" s="97" t="n"/>
-      <c r="Y42" s="97" t="n"/>
-      <c r="Z42" s="97" t="n"/>
-      <c r="AA42" s="97" t="n"/>
-      <c r="AB42" s="97" t="n"/>
-      <c r="AC42" s="97" t="n"/>
-      <c r="AD42" s="97" t="n"/>
-      <c r="AE42" s="97" t="n"/>
-      <c r="AF42" s="97" t="n"/>
-      <c r="AG42" s="97" t="n"/>
-      <c r="AH42" s="97" t="n"/>
-      <c r="AI42" s="97" t="n"/>
-      <c r="AJ42" s="34" t="n"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
-      <c r="C43" s="2" t="n"/>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
-      <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="n"/>
-      <c r="R43" s="2" t="n"/>
-      <c r="S43" s="2" t="n"/>
-      <c r="T43" s="2" t="n"/>
-      <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="n"/>
-      <c r="W43" s="2" t="n"/>
-      <c r="X43" s="2" t="n"/>
-      <c r="Y43" s="2" t="n"/>
-      <c r="Z43" s="2" t="n"/>
-      <c r="AA43" s="2" t="n"/>
-      <c r="AB43" s="2" t="n"/>
-      <c r="AC43" s="2" t="n"/>
-      <c r="AD43" s="2" t="n"/>
-      <c r="AE43" s="2" t="n"/>
-      <c r="AF43" s="2" t="n"/>
-      <c r="AG43" s="2" t="n"/>
-      <c r="AH43" s="2" t="n"/>
-      <c r="AI43" s="2" t="n"/>
-      <c r="AJ43" s="2" t="n"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="B42:AI42"/>
-    <mergeCell ref="H34:AI34"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AC33:AI33"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="H31:X31"/>
-    <mergeCell ref="H32:X32"/>
-    <mergeCell ref="H33:X33"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="B44:AH44"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="H35:AI35"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="AC32:AI32"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AF14:AI14"/>
-  </mergeCells>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AJ43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
-    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="73" t="inlineStr">
-        <is>
-          <t>GATE VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="P1" s="94" t="n"/>
-      <c r="Q1" s="94" t="n"/>
-      <c r="R1" s="94" t="n"/>
-      <c r="S1" s="94" t="n"/>
-      <c r="T1" s="94" t="n"/>
-      <c r="U1" s="94" t="n"/>
-      <c r="V1" s="94" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-      <c r="AA1" s="12" t="n"/>
-      <c r="AB1" s="12" t="n"/>
-      <c r="AC1" s="12" t="n"/>
-      <c r="AD1" s="12" t="n"/>
-      <c r="AE1" s="12" t="n"/>
-      <c r="AF1" s="12" t="n"/>
-      <c r="AG1" s="12" t="n"/>
-      <c r="AH1" s="12" t="n"/>
-      <c r="AI1" s="12" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A2" s="37" t="n"/>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="61" t="n"/>
-      <c r="D2" s="61" t="n"/>
-      <c r="E2" s="61" t="n"/>
-      <c r="F2" s="61" t="n"/>
-      <c r="G2" s="61" t="n"/>
-      <c r="H2" s="61" t="n"/>
-      <c r="I2" s="61" t="n"/>
-      <c r="J2" s="61" t="n"/>
-      <c r="K2" s="61" t="n"/>
-      <c r="L2" s="61" t="n"/>
-      <c r="M2" s="61" t="n"/>
-      <c r="N2" s="61" t="n"/>
-      <c r="O2" s="61" t="n"/>
-      <c r="P2" s="61" t="n"/>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="61" t="n"/>
-      <c r="S2" s="61" t="n"/>
-      <c r="T2" s="61" t="n"/>
-      <c r="U2" s="61" t="n"/>
-      <c r="V2" s="61" t="n"/>
-      <c r="W2" s="61" t="n"/>
-      <c r="X2" s="61" t="n"/>
-      <c r="Y2" s="61" t="n"/>
-      <c r="Z2" s="61" t="n"/>
-      <c r="AA2" s="61" t="n"/>
-      <c r="AB2" s="61" t="n"/>
-      <c r="AC2" s="61" t="n"/>
-      <c r="AD2" s="61" t="n"/>
-      <c r="AE2" s="61" t="n"/>
-      <c r="AF2" s="61" t="n"/>
-      <c r="AG2" s="61" t="n"/>
-      <c r="AH2" s="61" t="n"/>
-      <c r="AI2" s="61" t="n"/>
-      <c r="AJ2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>TAG. No.</t>
-        </is>
-      </c>
-      <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>GAV21A0B2B</t>
-        </is>
-      </c>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="61" t="n"/>
-      <c r="M3" s="61" t="n"/>
-      <c r="N3" s="61" t="n"/>
-      <c r="O3" s="61" t="n"/>
-      <c r="P3" s="48" t="n"/>
-      <c r="Q3" s="48" t="n"/>
-      <c r="R3" s="48" t="n"/>
-      <c r="S3" s="48" t="n"/>
-      <c r="T3" s="48" t="n"/>
-      <c r="U3" s="48" t="n"/>
-      <c r="V3" s="48" t="n"/>
-      <c r="W3" s="48" t="n"/>
-      <c r="X3" s="48" t="n"/>
-      <c r="Y3" s="48" t="n"/>
-      <c r="Z3" s="48" t="n"/>
-      <c r="AA3" s="48" t="n"/>
-      <c r="AB3" s="48" t="n"/>
-      <c r="AC3" s="48" t="n"/>
-      <c r="AD3" s="48" t="n"/>
-      <c r="AE3" s="48" t="n"/>
-      <c r="AF3" s="48" t="n"/>
-      <c r="AG3" s="48" t="n"/>
-      <c r="AH3" s="48" t="n"/>
-      <c r="AI3" s="48" t="n"/>
-      <c r="AJ3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>SIZE :</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="96" t="inlineStr">
-        <is>
-          <t>2, 3</t>
-        </is>
-      </c>
-      <c r="I4" s="97" t="n"/>
-      <c r="J4" s="97" t="n"/>
-      <c r="K4" s="49" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="61" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="61" t="n"/>
-      <c r="S4" s="61" t="n"/>
-      <c r="T4" s="61" t="n"/>
-      <c r="U4" s="61" t="n"/>
-      <c r="V4" s="61" t="n"/>
-      <c r="W4" s="61" t="n"/>
-      <c r="X4" s="61" t="n"/>
-      <c r="Y4" s="61" t="n"/>
-      <c r="Z4" s="61" t="n"/>
-      <c r="AA4" s="61" t="n"/>
-      <c r="AB4" s="61" t="n"/>
-      <c r="AC4" s="61" t="n"/>
-      <c r="AD4" s="61" t="n"/>
-      <c r="AE4" s="61" t="n"/>
-      <c r="AF4" s="61" t="n"/>
-      <c r="AG4" s="61" t="n"/>
-      <c r="AH4" s="61" t="n"/>
-      <c r="AI4" s="50" t="n"/>
-      <c r="AJ4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>PIPING CLASS :</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n"/>
-      <c r="C5" s="47" t="n"/>
-      <c r="D5" s="47" t="n"/>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="69" t="inlineStr">
-        <is>
-          <t>CS2SA1</t>
-        </is>
-      </c>
-      <c r="I5" s="95" t="n"/>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="95" t="n"/>
-      <c r="L5" s="95" t="n"/>
-      <c r="M5" s="95" t="n"/>
-      <c r="N5" s="95" t="n"/>
-      <c r="O5" s="47" t="n"/>
-      <c r="P5" s="47" t="n"/>
-      <c r="Q5" s="47" t="n"/>
-      <c r="R5" s="47" t="n"/>
-      <c r="S5" s="47" t="n"/>
-      <c r="T5" s="47" t="n"/>
-      <c r="U5" s="47" t="n"/>
-      <c r="V5" s="61" t="n"/>
-      <c r="W5" s="24" t="inlineStr">
-        <is>
-          <t>PLANT LOCATION:</t>
-        </is>
-      </c>
-      <c r="X5" s="61" t="n"/>
-      <c r="Y5" s="61" t="n"/>
-      <c r="Z5" s="61" t="n"/>
-      <c r="AA5" s="61" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="95" t="n"/>
-      <c r="AD5" s="95" t="n"/>
-      <c r="AE5" s="95" t="n"/>
-      <c r="AF5" s="95" t="n"/>
-      <c r="AG5" s="95" t="n"/>
-      <c r="AH5" s="95" t="n"/>
-      <c r="AI5" s="95" t="n"/>
-      <c r="AJ5" s="65" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>SERVICE (Note 1):</t>
-        </is>
-      </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="61" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="61" t="n"/>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
-        <is>
-          <t>HCN &amp; HCR</t>
-        </is>
-      </c>
-      <c r="I6" s="95" t="n"/>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="95" t="n"/>
-      <c r="L6" s="95" t="n"/>
-      <c r="M6" s="95" t="n"/>
-      <c r="N6" s="95" t="n"/>
-      <c r="O6" s="95" t="n"/>
-      <c r="P6" s="95" t="n"/>
-      <c r="Q6" s="95" t="n"/>
-      <c r="R6" s="95" t="n"/>
-      <c r="S6" s="95" t="n"/>
-      <c r="T6" s="95" t="n"/>
-      <c r="U6" s="95" t="n"/>
-      <c r="V6" s="95" t="n"/>
-      <c r="W6" s="95" t="n"/>
-      <c r="X6" s="95" t="n"/>
-      <c r="Y6" s="95" t="n"/>
-      <c r="Z6" s="95" t="n"/>
-      <c r="AA6" s="95" t="n"/>
-      <c r="AB6" s="95" t="n"/>
-      <c r="AC6" s="95" t="n"/>
-      <c r="AD6" s="95" t="n"/>
-      <c r="AE6" s="95" t="n"/>
-      <c r="AF6" s="95" t="n"/>
-      <c r="AG6" s="95" t="n"/>
-      <c r="AH6" s="95" t="n"/>
-      <c r="AI6" s="95" t="n"/>
-      <c r="AJ6" s="65" t="n"/>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="37" t="n"/>
-      <c r="B7" s="61" t="n"/>
-      <c r="C7" s="61" t="n"/>
-      <c r="D7" s="61" t="n"/>
-      <c r="E7" s="61" t="n"/>
-      <c r="F7" s="61" t="n"/>
-      <c r="G7" s="61" t="n"/>
-      <c r="H7" s="61" t="n"/>
-      <c r="I7" s="61" t="n"/>
-      <c r="J7" s="61" t="n"/>
-      <c r="K7" s="61" t="n"/>
-      <c r="L7" s="61" t="n"/>
-      <c r="M7" s="61" t="n"/>
-      <c r="N7" s="61" t="n"/>
-      <c r="O7" s="61" t="n"/>
-      <c r="P7" s="61" t="n"/>
-      <c r="Q7" s="61" t="n"/>
-      <c r="R7" s="61" t="n"/>
-      <c r="S7" s="61" t="n"/>
-      <c r="T7" s="61" t="n"/>
-      <c r="U7" s="61" t="n"/>
-      <c r="V7" s="61" t="n"/>
-      <c r="W7" s="61" t="n"/>
-      <c r="X7" s="61" t="n"/>
-      <c r="Y7" s="61" t="n"/>
-      <c r="Z7" s="61" t="n"/>
-      <c r="AA7" s="61" t="n"/>
-      <c r="AB7" s="61" t="n"/>
-      <c r="AC7" s="61" t="n"/>
-      <c r="AD7" s="61" t="n"/>
-      <c r="AE7" s="61" t="n"/>
-      <c r="AF7" s="61" t="n"/>
-      <c r="AG7" s="61" t="n"/>
-      <c r="AH7" s="61" t="n"/>
-      <c r="AI7" s="61" t="n"/>
-      <c r="AJ7" s="28" t="n"/>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A8" s="15" t="n"/>
-      <c r="B8" s="51" t="n"/>
-      <c r="C8" s="51" t="n"/>
-      <c r="D8" s="51" t="n"/>
-      <c r="E8" s="51" t="n"/>
-      <c r="F8" s="51" t="n"/>
-      <c r="G8" s="51" t="n"/>
-      <c r="H8" s="51" t="n"/>
-      <c r="I8" s="51" t="n"/>
-      <c r="J8" s="51" t="n"/>
-      <c r="K8" s="51" t="n"/>
-      <c r="L8" s="51" t="n"/>
-      <c r="M8" s="51" t="n"/>
-      <c r="N8" s="51" t="n"/>
-      <c r="O8" s="51" t="n"/>
-      <c r="P8" s="51" t="n"/>
-      <c r="Q8" s="51" t="n"/>
-      <c r="R8" s="51" t="n"/>
-      <c r="S8" s="52" t="inlineStr">
-        <is>
-          <t>M E C H A N I C A L</t>
-        </is>
-      </c>
-      <c r="T8" s="51" t="n"/>
-      <c r="U8" s="51" t="n"/>
-      <c r="V8" s="51" t="n"/>
-      <c r="W8" s="51" t="n"/>
-      <c r="X8" s="51" t="n"/>
-      <c r="Y8" s="51" t="n"/>
-      <c r="Z8" s="51" t="n"/>
-      <c r="AA8" s="51" t="n"/>
-      <c r="AB8" s="51" t="n"/>
-      <c r="AC8" s="51" t="n"/>
-      <c r="AD8" s="51" t="n"/>
-      <c r="AE8" s="51" t="n"/>
-      <c r="AF8" s="51" t="n"/>
-      <c r="AG8" s="51" t="n"/>
-      <c r="AH8" s="51" t="n"/>
-      <c r="AI8" s="51" t="n"/>
-      <c r="AJ8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="61" t="n"/>
-      <c r="D9" s="61" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="61" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="61" t="n"/>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="61" t="n"/>
-      <c r="K9" s="61" t="n"/>
-      <c r="L9" s="61" t="n"/>
-      <c r="M9" s="61" t="n"/>
-      <c r="N9" s="61" t="n"/>
-      <c r="O9" s="61" t="n"/>
-      <c r="P9" s="61" t="n"/>
-      <c r="Q9" s="61" t="n"/>
-      <c r="R9" s="61" t="n"/>
-      <c r="S9" s="61" t="n"/>
-      <c r="T9" s="61" t="n"/>
-      <c r="U9" s="61" t="n"/>
-      <c r="V9" s="61" t="n"/>
-      <c r="W9" s="61" t="n"/>
-      <c r="X9" s="61" t="n"/>
-      <c r="Y9" s="61" t="n"/>
-      <c r="Z9" s="61" t="n"/>
-      <c r="AA9" s="61" t="n"/>
-      <c r="AB9" s="61" t="n"/>
-      <c r="AC9" s="61" t="n"/>
-      <c r="AD9" s="61" t="n"/>
-      <c r="AE9" s="61" t="n"/>
-      <c r="AF9" s="61" t="n"/>
-      <c r="AG9" s="61" t="n"/>
-      <c r="AH9" s="61" t="n"/>
-      <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>VALVE TYPE :</t>
-        </is>
-      </c>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="61" t="n"/>
-      <c r="D10" s="61" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="61" t="n"/>
-      <c r="G10" s="61" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
-        <is>
-          <t>GATE VALVE</t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="95" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="95" t="n"/>
-      <c r="M10" s="95" t="n"/>
-      <c r="N10" s="95" t="n"/>
-      <c r="O10" s="95" t="n"/>
-      <c r="P10" s="95" t="n"/>
-      <c r="Q10" s="95" t="n"/>
-      <c r="R10" s="95" t="n"/>
-      <c r="S10" s="95" t="n"/>
-      <c r="T10" s="95" t="n"/>
-      <c r="U10" s="95" t="n"/>
-      <c r="V10" s="95" t="n"/>
-      <c r="W10" s="95" t="n"/>
-      <c r="X10" s="61" t="n"/>
-      <c r="Y10" s="61" t="n"/>
-      <c r="Z10" s="61" t="n"/>
-      <c r="AA10" s="61" t="n"/>
-      <c r="AB10" s="49" t="inlineStr">
-        <is>
-          <t>RATING / CLASS:</t>
-        </is>
-      </c>
-      <c r="AC10" s="70" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="AD10" s="95" t="n"/>
-      <c r="AE10" s="95" t="n"/>
-      <c r="AF10" s="95" t="n"/>
-      <c r="AG10" s="95" t="n"/>
-      <c r="AH10" s="95" t="n"/>
-      <c r="AI10" s="95" t="n"/>
-      <c r="AJ10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>END CONNECTIONS:</t>
-        </is>
-      </c>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="61" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="61" t="n"/>
-      <c r="G11" s="61" t="n"/>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLANGED </t>
-        </is>
-      </c>
-      <c r="I11" s="61" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M11" s="95" t="n"/>
-      <c r="N11" s="61" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="61" t="n"/>
-      <c r="Q11" s="61" t="n"/>
-      <c r="R11" s="49" t="inlineStr">
-        <is>
-          <t>FACING:</t>
-        </is>
-      </c>
-      <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="U11" s="95" t="n"/>
-      <c r="V11" s="61" t="n"/>
-      <c r="W11" s="61" t="n"/>
-      <c r="X11" s="61" t="n"/>
-      <c r="Y11" s="61" t="n"/>
-      <c r="Z11" s="61" t="n"/>
-      <c r="AA11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOCKETWELD </t>
-        </is>
-      </c>
-      <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
-      <c r="AD11" s="95" t="n"/>
-      <c r="AE11" s="66" t="inlineStr">
-        <is>
-          <t>SCREWED</t>
-        </is>
-      </c>
-      <c r="AF11" s="66" t="n"/>
-      <c r="AG11" s="66" t="n"/>
-      <c r="AH11" s="72" t="inlineStr"/>
-      <c r="AI11" s="95" t="n"/>
-      <c r="AJ11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="37" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="61" t="n"/>
-      <c r="D12" s="61" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="61" t="n"/>
-      <c r="G12" s="61" t="n"/>
-      <c r="H12" s="54" t="inlineStr">
-        <is>
-          <t>BUTTWELD</t>
-        </is>
-      </c>
-      <c r="I12" s="61" t="n"/>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="61" t="n"/>
-      <c r="L12" s="68" t="inlineStr"/>
-      <c r="M12" s="95" t="n"/>
-      <c r="N12" s="95" t="n"/>
-      <c r="O12" s="95" t="n"/>
-      <c r="P12" s="95" t="n"/>
-      <c r="Q12" s="95" t="n"/>
-      <c r="R12" s="95" t="n"/>
-      <c r="S12" s="95" t="n"/>
-      <c r="T12" s="95" t="n"/>
-      <c r="U12" s="95" t="n"/>
-      <c r="V12" s="95" t="n"/>
-      <c r="W12" s="61" t="n"/>
-      <c r="X12" s="61" t="n"/>
-      <c r="Y12" s="61" t="n"/>
-      <c r="Z12" s="61" t="n"/>
-      <c r="AA12" s="61" t="n"/>
-      <c r="AB12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-      <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr"/>
-      <c r="AE12" s="95" t="n"/>
-      <c r="AF12" s="95" t="n"/>
-      <c r="AG12" s="95" t="n"/>
-      <c r="AH12" s="95" t="n"/>
-      <c r="AI12" s="95" t="n"/>
-      <c r="AJ12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A13" s="37" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="61" t="n"/>
-      <c r="D13" s="61" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="61" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="61" t="n"/>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="61" t="n"/>
-      <c r="L13" s="61" t="n"/>
-      <c r="M13" s="61" t="n"/>
-      <c r="N13" s="61" t="n"/>
-      <c r="O13" s="61" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="61" t="n"/>
-      <c r="R13" s="61" t="n"/>
-      <c r="S13" s="61" t="n"/>
-      <c r="T13" s="61" t="n"/>
-      <c r="U13" s="61" t="n"/>
-      <c r="V13" s="61" t="n"/>
-      <c r="W13" s="61" t="n"/>
-      <c r="X13" s="61" t="n"/>
-      <c r="Y13" s="61" t="n"/>
-      <c r="Z13" s="61" t="n"/>
-      <c r="AA13" s="61" t="n"/>
-      <c r="AB13" s="53" t="n"/>
-      <c r="AC13" s="61" t="n"/>
-      <c r="AD13" s="61" t="n"/>
-      <c r="AE13" s="61" t="n"/>
-      <c r="AF13" s="61" t="n"/>
-      <c r="AG13" s="61" t="n"/>
-      <c r="AH13" s="61" t="n"/>
-      <c r="AI13" s="61" t="n"/>
-      <c r="AJ13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
-        </is>
-      </c>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="61" t="n"/>
-      <c r="D14" s="61" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="61" t="n"/>
-      <c r="G14" s="61" t="n"/>
-      <c r="H14" s="61" t="n"/>
-      <c r="I14" s="61" t="n"/>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="61" t="n"/>
-      <c r="L14" s="61" t="n"/>
-      <c r="M14" s="61" t="n"/>
-      <c r="N14" s="61" t="n"/>
-      <c r="O14" s="61" t="n"/>
-      <c r="P14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.5</t>
-        </is>
-      </c>
-      <c r="Q14" s="68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R14" s="95" t="n"/>
-      <c r="S14" s="95" t="n"/>
-      <c r="T14" s="61" t="n"/>
-      <c r="U14" s="61" t="n"/>
-      <c r="V14" s="61" t="n"/>
-      <c r="W14" s="61" t="n"/>
-      <c r="X14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.11</t>
-        </is>
-      </c>
-      <c r="Y14" s="68" t="inlineStr"/>
-      <c r="Z14" s="95" t="n"/>
-      <c r="AA14" s="95" t="n"/>
-      <c r="AB14" s="61" t="n"/>
-      <c r="AC14" s="61" t="n"/>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr"/>
-      <c r="AG14" s="95" t="n"/>
-      <c r="AH14" s="95" t="n"/>
-      <c r="AI14" s="95" t="n"/>
-      <c r="AJ14" s="16" t="n"/>
-    </row>
     <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
       <c r="A15" s="18" t="n"/>
       <c r="B15" s="61" t="n"/>
@@ -14303,7 +8147,7 @@
       <c r="G17" s="61" t="n"/>
       <c r="H17" s="69" t="inlineStr">
         <is>
-          <t>HANDWHEEL OPERATOR</t>
+          <t>GEAR OPERATOR</t>
         </is>
       </c>
       <c r="I17" s="95" t="n"/>
@@ -14605,7 +8449,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>285</v>
+        <v>740</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -15562,7 +9406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15674,7 +9518,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>MFV21A0I2I</t>
+          <t>MFV22A0I2I</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -15770,7 +9614,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -16013,7 +9857,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -16603,7 +10447,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>285</v>
+        <v>740</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -17080,7 +10924,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="93" t="inlineStr">
         <is>
-          <t>AISI 316</t>
+          <t>BY MNF</t>
         </is>
       </c>
       <c r="I34" s="97" t="n"/>

--- a/output/hd.xlsx
+++ b/output/hd.xlsx
@@ -7,11 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="1" state="veryHidden" r:id="rId1"/>
-    <sheet name="BAV24G0I1C" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BAV24G0I1C (1)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CKV22A0B2B" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GAV22A0B2B" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MFV22A0I2I" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BAV22A0F1C" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BAV24G0I1C" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BAV24G0I1C (1)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CKV22A0B2B" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GAV22A0B2B" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
@@ -1231,7 +1231,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>BAV22A0F1C</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -1277,7 +1277,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>3/4, 1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -1327,7 +1327,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS2SA1</t>
+          <t>CS3SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -1541,7 +1541,7 @@
       <c r="G10" s="61" t="n"/>
       <c r="H10" s="69" t="inlineStr">
         <is>
-          <t>BALL VALVE, FLOATING BALL</t>
+          <t>BALL VALVE, TRUNNION BALL</t>
         </is>
       </c>
       <c r="I10" s="95" t="n"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -1601,7 +1601,11 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr"/>
+      <c r="L11" s="69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -1613,7 +1617,11 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr"/>
+      <c r="T11" s="69" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -1677,11 +1685,7 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
+      <c r="AD12" s="68" t="inlineStr"/>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -1752,7 +1756,11 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="Q14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -1775,11 +1783,7 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr">
-        <is>
-          <t>MNF STD</t>
-        </is>
-      </c>
+      <c r="AF14" s="68" t="inlineStr"/>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -1882,7 +1886,11 @@
       <c r="X16" s="61" t="n"/>
       <c r="Y16" s="55" t="n"/>
       <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr"/>
+      <c r="AA16" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB16" s="95" t="n"/>
       <c r="AC16" s="95" t="n"/>
       <c r="AD16" s="61" t="n"/>
@@ -1907,7 +1915,7 @@
       <c r="G17" s="61" t="n"/>
       <c r="H17" s="69" t="inlineStr">
         <is>
-          <t>LEVER OPERATOR</t>
+          <t>GEAR OPERATOR</t>
         </is>
       </c>
       <c r="I17" s="95" t="n"/>
@@ -2213,7 +2221,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>285</v>
+        <v>740</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -2303,11 +2311,7 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr">
-        <is>
-          <t>API 598</t>
-        </is>
-      </c>
+      <c r="AB25" s="77" t="inlineStr"/>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -2556,7 +2560,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM A105</t>
+          <t>ASTM A216 Gr.WCB</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -2608,7 +2612,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="67" t="inlineStr">
         <is>
-          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
+          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -2700,7 +2704,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="67" t="inlineStr">
         <is>
-          <t>AISI 316</t>
+          <t>ASTM A105N + ENP (3 MILS TO ASTM B733)</t>
         </is>
       </c>
       <c r="I34" s="95" t="n"/>
@@ -2746,7 +2750,7 @@
       <c r="G35" s="42" t="n"/>
       <c r="H35" s="67" t="inlineStr">
         <is>
-          <t>AISI 316</t>
+          <t>AISI 410</t>
         </is>
       </c>
       <c r="I35" s="95" t="n"/>
@@ -2792,7 +2796,7 @@
       <c r="G36" s="42" t="n"/>
       <c r="H36" s="67" t="inlineStr">
         <is>
-          <t>RINGS: RPTFE</t>
+          <t>RINGS: ASTM A105 + ENP (3 MILS TO ASTM B733), INSERTS: RPTFE</t>
         </is>
       </c>
       <c r="I36" s="95" t="n"/>
@@ -2922,7 +2926,7 @@
       <c r="G39" s="42" t="n"/>
       <c r="H39" s="67" t="inlineStr">
         <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
+          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY. ORING: VITON, EMERGENCY SEALANT INJECTION POINT ON STEAM AND SEAT</t>
         </is>
       </c>
       <c r="I39" s="95" t="n"/>
@@ -3466,7 +3470,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS3SA1</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -4352,7 +4356,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>740</v>
+        <v>285</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -5403,6 +5407,2145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AJ46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>BALL VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>BAV24G0I1C</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>3/4, 1</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS3SA1</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>HCN &amp; HCR</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="57" t="n"/>
+      <c r="B7" s="48" t="n"/>
+      <c r="C7" s="48" t="n"/>
+      <c r="D7" s="48" t="n"/>
+      <c r="E7" s="48" t="n"/>
+      <c r="F7" s="48" t="n"/>
+      <c r="G7" s="48" t="n"/>
+      <c r="H7" s="48" t="n"/>
+      <c r="I7" s="48" t="n"/>
+      <c r="J7" s="48" t="n"/>
+      <c r="K7" s="48" t="n"/>
+      <c r="L7" s="48" t="n"/>
+      <c r="M7" s="48" t="n"/>
+      <c r="N7" s="48" t="n"/>
+      <c r="O7" s="48" t="n"/>
+      <c r="P7" s="48" t="n"/>
+      <c r="Q7" s="48" t="n"/>
+      <c r="R7" s="48" t="n"/>
+      <c r="S7" s="48" t="n"/>
+      <c r="T7" s="48" t="n"/>
+      <c r="U7" s="48" t="n"/>
+      <c r="V7" s="48" t="n"/>
+      <c r="W7" s="48" t="n"/>
+      <c r="X7" s="48" t="n"/>
+      <c r="Y7" s="48" t="n"/>
+      <c r="Z7" s="48" t="n"/>
+      <c r="AA7" s="48" t="n"/>
+      <c r="AB7" s="48" t="n"/>
+      <c r="AC7" s="48" t="n"/>
+      <c r="AD7" s="48" t="n"/>
+      <c r="AE7" s="48" t="n"/>
+      <c r="AF7" s="48" t="n"/>
+      <c r="AG7" s="48" t="n"/>
+      <c r="AH7" s="48" t="n"/>
+      <c r="AI7" s="48" t="n"/>
+      <c r="AJ7" s="31" t="n"/>
+    </row>
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>BALL VALVE, FLOATING BALL</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr"/>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr"/>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>MNF STD</t>
+        </is>
+      </c>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="inlineStr">
+        <is>
+          <t>BORE:</t>
+        </is>
+      </c>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K15" s="95" t="n"/>
+      <c r="L15" s="95" t="n"/>
+      <c r="M15" s="95" t="n"/>
+      <c r="N15" s="95" t="n"/>
+      <c r="O15" s="95" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="inlineStr">
+        <is>
+          <t>REDUCED</t>
+        </is>
+      </c>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="68" t="inlineStr"/>
+      <c r="U15" s="95" t="n"/>
+      <c r="V15" s="95" t="n"/>
+      <c r="W15" s="95" t="n"/>
+      <c r="X15" s="95" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="inlineStr">
+        <is>
+          <t>ACCORDING TO:</t>
+        </is>
+      </c>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="68" t="inlineStr"/>
+      <c r="AF15" s="95" t="n"/>
+      <c r="AG15" s="95" t="n"/>
+      <c r="AH15" s="95" t="n"/>
+      <c r="AI15" s="95" t="n"/>
+      <c r="AJ15" s="16" t="n"/>
+    </row>
+    <row r="16" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="inlineStr">
+        <is>
+          <t>LENGHT:</t>
+        </is>
+      </c>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="inlineStr">
+        <is>
+          <t>SHORT  PATTERN</t>
+        </is>
+      </c>
+      <c r="P16" s="68" t="inlineStr"/>
+      <c r="Q16" s="95" t="n"/>
+      <c r="R16" s="95" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="inlineStr">
+        <is>
+          <t>REG./LONG  PATTERN</t>
+        </is>
+      </c>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="68" t="inlineStr"/>
+      <c r="AB16" s="95" t="n"/>
+      <c r="AC16" s="95" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="16" t="n"/>
+    </row>
+    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>TYPE OPERATOR :</t>
+        </is>
+      </c>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="69" t="inlineStr">
+        <is>
+          <t>LEVER OPERATOR</t>
+        </is>
+      </c>
+      <c r="I17" s="95" t="n"/>
+      <c r="J17" s="95" t="n"/>
+      <c r="K17" s="95" t="n"/>
+      <c r="L17" s="95" t="n"/>
+      <c r="M17" s="95" t="n"/>
+      <c r="N17" s="95" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr"/>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr">
+        <is>
+          <t>FIRE SAFE AS PER API 607</t>
+        </is>
+      </c>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>740</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr">
+        <is>
+          <t>API 598</t>
+        </is>
+      </c>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="52" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="52" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="67" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AC31" s="68" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="67" t="inlineStr">
+        <is>
+          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="95" t="n"/>
+      <c r="Z32" s="95" t="n"/>
+      <c r="AA32" s="95" t="n"/>
+      <c r="AB32" s="95" t="n"/>
+      <c r="AC32" s="95" t="n"/>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="67" t="inlineStr">
+        <is>
+          <t>STEM: GRAPHITE</t>
+        </is>
+      </c>
+      <c r="I33" s="95" t="n"/>
+      <c r="J33" s="95" t="n"/>
+      <c r="K33" s="95" t="n"/>
+      <c r="L33" s="95" t="n"/>
+      <c r="M33" s="95" t="n"/>
+      <c r="N33" s="95" t="n"/>
+      <c r="O33" s="95" t="n"/>
+      <c r="P33" s="95" t="n"/>
+      <c r="Q33" s="95" t="n"/>
+      <c r="R33" s="95" t="n"/>
+      <c r="S33" s="95" t="n"/>
+      <c r="T33" s="95" t="n"/>
+      <c r="U33" s="95" t="n"/>
+      <c r="V33" s="95" t="n"/>
+      <c r="W33" s="95" t="n"/>
+      <c r="X33" s="95" t="n"/>
+      <c r="Y33" s="95" t="n"/>
+      <c r="Z33" s="95" t="n"/>
+      <c r="AA33" s="95" t="n"/>
+      <c r="AB33" s="95" t="n"/>
+      <c r="AC33" s="95" t="n"/>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="83" t="inlineStr">
+        <is>
+          <t>BALL:</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="67" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="67" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
+        </is>
+      </c>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="67" t="inlineStr">
+        <is>
+          <t>RINGS: RPTFE</t>
+        </is>
+      </c>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="67" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="n"/>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="67" t="n"/>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A39" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B39" s="42" t="n"/>
+      <c r="C39" s="42" t="n"/>
+      <c r="D39" s="42" t="n"/>
+      <c r="E39" s="42" t="n"/>
+      <c r="F39" s="42" t="n"/>
+      <c r="G39" s="42" t="n"/>
+      <c r="H39" s="67" t="inlineStr">
+        <is>
+          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
+        </is>
+      </c>
+      <c r="I39" s="95" t="n"/>
+      <c r="J39" s="95" t="n"/>
+      <c r="K39" s="95" t="n"/>
+      <c r="L39" s="95" t="n"/>
+      <c r="M39" s="95" t="n"/>
+      <c r="N39" s="95" t="n"/>
+      <c r="O39" s="95" t="n"/>
+      <c r="P39" s="95" t="n"/>
+      <c r="Q39" s="95" t="n"/>
+      <c r="R39" s="95" t="n"/>
+      <c r="S39" s="95" t="n"/>
+      <c r="T39" s="95" t="n"/>
+      <c r="U39" s="95" t="n"/>
+      <c r="V39" s="95" t="n"/>
+      <c r="W39" s="95" t="n"/>
+      <c r="X39" s="95" t="n"/>
+      <c r="Y39" s="95" t="n"/>
+      <c r="Z39" s="95" t="n"/>
+      <c r="AA39" s="95" t="n"/>
+      <c r="AB39" s="95" t="n"/>
+      <c r="AC39" s="95" t="n"/>
+      <c r="AD39" s="95" t="n"/>
+      <c r="AE39" s="95" t="n"/>
+      <c r="AF39" s="95" t="n"/>
+      <c r="AG39" s="95" t="n"/>
+      <c r="AH39" s="95" t="n"/>
+      <c r="AI39" s="95" t="n"/>
+      <c r="AJ39" s="16" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A40" s="18" t="n"/>
+      <c r="B40" s="42" t="n"/>
+      <c r="C40" s="42" t="n"/>
+      <c r="D40" s="42" t="n"/>
+      <c r="E40" s="42" t="n"/>
+      <c r="F40" s="42" t="n"/>
+      <c r="G40" s="42" t="n"/>
+      <c r="H40" s="67" t="n"/>
+      <c r="I40" s="95" t="n"/>
+      <c r="J40" s="95" t="n"/>
+      <c r="K40" s="95" t="n"/>
+      <c r="L40" s="95" t="n"/>
+      <c r="M40" s="95" t="n"/>
+      <c r="N40" s="95" t="n"/>
+      <c r="O40" s="95" t="n"/>
+      <c r="P40" s="95" t="n"/>
+      <c r="Q40" s="95" t="n"/>
+      <c r="R40" s="95" t="n"/>
+      <c r="S40" s="95" t="n"/>
+      <c r="T40" s="95" t="n"/>
+      <c r="U40" s="95" t="n"/>
+      <c r="V40" s="95" t="n"/>
+      <c r="W40" s="95" t="n"/>
+      <c r="X40" s="95" t="n"/>
+      <c r="Y40" s="95" t="n"/>
+      <c r="Z40" s="95" t="n"/>
+      <c r="AA40" s="95" t="n"/>
+      <c r="AB40" s="95" t="n"/>
+      <c r="AC40" s="95" t="n"/>
+      <c r="AD40" s="95" t="n"/>
+      <c r="AE40" s="95" t="n"/>
+      <c r="AF40" s="95" t="n"/>
+      <c r="AG40" s="95" t="n"/>
+      <c r="AH40" s="95" t="n"/>
+      <c r="AI40" s="95" t="n"/>
+      <c r="AJ40" s="16" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A41" s="37" t="n"/>
+      <c r="B41" s="61" t="n"/>
+      <c r="C41" s="61" t="n"/>
+      <c r="D41" s="61" t="n"/>
+      <c r="E41" s="61" t="n"/>
+      <c r="F41" s="61" t="n"/>
+      <c r="G41" s="61" t="n"/>
+      <c r="H41" s="61" t="n"/>
+      <c r="I41" s="61" t="n"/>
+      <c r="J41" s="61" t="n"/>
+      <c r="K41" s="61" t="n"/>
+      <c r="L41" s="61" t="n"/>
+      <c r="M41" s="61" t="n"/>
+      <c r="N41" s="61" t="n"/>
+      <c r="O41" s="61" t="n"/>
+      <c r="P41" s="61" t="n"/>
+      <c r="Q41" s="61" t="n"/>
+      <c r="R41" s="61" t="n"/>
+      <c r="S41" s="61" t="n"/>
+      <c r="T41" s="61" t="n"/>
+      <c r="U41" s="61" t="n"/>
+      <c r="V41" s="61" t="n"/>
+      <c r="W41" s="61" t="n"/>
+      <c r="X41" s="61" t="n"/>
+      <c r="Y41" s="61" t="n"/>
+      <c r="Z41" s="61" t="n"/>
+      <c r="AA41" s="61" t="n"/>
+      <c r="AB41" s="61" t="n"/>
+      <c r="AC41" s="61" t="n"/>
+      <c r="AD41" s="61" t="n"/>
+      <c r="AE41" s="61" t="n"/>
+      <c r="AF41" s="61" t="n"/>
+      <c r="AG41" s="61" t="n"/>
+      <c r="AH41" s="61" t="n"/>
+      <c r="AI41" s="61" t="n"/>
+      <c r="AJ41" s="28" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A42" s="15" t="n"/>
+      <c r="B42" s="51" t="n"/>
+      <c r="C42" s="51" t="n"/>
+      <c r="D42" s="51" t="n"/>
+      <c r="E42" s="51" t="n"/>
+      <c r="F42" s="51" t="n"/>
+      <c r="G42" s="51" t="n"/>
+      <c r="H42" s="51" t="n"/>
+      <c r="I42" s="51" t="n"/>
+      <c r="J42" s="51" t="n"/>
+      <c r="K42" s="51" t="n"/>
+      <c r="L42" s="51" t="n"/>
+      <c r="M42" s="51" t="n"/>
+      <c r="N42" s="51" t="n"/>
+      <c r="O42" s="51" t="n"/>
+      <c r="P42" s="51" t="n"/>
+      <c r="Q42" s="51" t="n"/>
+      <c r="R42" s="51" t="n"/>
+      <c r="S42" s="52" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T42" s="51" t="n"/>
+      <c r="U42" s="51" t="n"/>
+      <c r="V42" s="51" t="n"/>
+      <c r="W42" s="51" t="n"/>
+      <c r="X42" s="51" t="n"/>
+      <c r="Y42" s="51" t="n"/>
+      <c r="Z42" s="51" t="n"/>
+      <c r="AA42" s="51" t="n"/>
+      <c r="AB42" s="51" t="n"/>
+      <c r="AC42" s="51" t="n"/>
+      <c r="AD42" s="51" t="n"/>
+      <c r="AE42" s="51" t="n"/>
+      <c r="AF42" s="51" t="n"/>
+      <c r="AG42" s="51" t="n"/>
+      <c r="AH42" s="51" t="n"/>
+      <c r="AI42" s="51" t="n"/>
+      <c r="AJ42" s="16" t="n"/>
+    </row>
+    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A43" s="38" t="n"/>
+      <c r="B43" s="33" t="n"/>
+      <c r="C43" s="33" t="n"/>
+      <c r="D43" s="33" t="n"/>
+      <c r="E43" s="33" t="n"/>
+      <c r="F43" s="33" t="n"/>
+      <c r="G43" s="33" t="n"/>
+      <c r="H43" s="33" t="n"/>
+      <c r="I43" s="33" t="n"/>
+      <c r="J43" s="33" t="n"/>
+      <c r="K43" s="33" t="n"/>
+      <c r="L43" s="33" t="n"/>
+      <c r="M43" s="33" t="n"/>
+      <c r="N43" s="33" t="n"/>
+      <c r="O43" s="33" t="n"/>
+      <c r="P43" s="33" t="n"/>
+      <c r="Q43" s="33" t="n"/>
+      <c r="R43" s="33" t="n"/>
+      <c r="S43" s="33" t="n"/>
+      <c r="T43" s="33" t="n"/>
+      <c r="U43" s="33" t="n"/>
+      <c r="V43" s="33" t="n"/>
+      <c r="W43" s="33" t="n"/>
+      <c r="X43" s="33" t="n"/>
+      <c r="Y43" s="33" t="n"/>
+      <c r="Z43" s="33" t="n"/>
+      <c r="AA43" s="33" t="n"/>
+      <c r="AB43" s="33" t="n"/>
+      <c r="AC43" s="33" t="n"/>
+      <c r="AD43" s="33" t="n"/>
+      <c r="AE43" s="33" t="n"/>
+      <c r="AF43" s="33" t="n"/>
+      <c r="AG43" s="33" t="n"/>
+      <c r="AH43" s="33" t="n"/>
+      <c r="AI43" s="33" t="n"/>
+      <c r="AJ43" s="34" t="n"/>
+    </row>
+    <row r="44" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A44" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B44" s="23" t="inlineStr">
+        <is>
+          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C44" s="23" t="n"/>
+      <c r="D44" s="23" t="n"/>
+      <c r="E44" s="23" t="n"/>
+      <c r="F44" s="23" t="n"/>
+      <c r="G44" s="23" t="n"/>
+      <c r="H44" s="23" t="n"/>
+      <c r="I44" s="23" t="n"/>
+      <c r="J44" s="23" t="n"/>
+      <c r="K44" s="23" t="n"/>
+      <c r="L44" s="23" t="n"/>
+      <c r="M44" s="23" t="n"/>
+      <c r="N44" s="23" t="n"/>
+      <c r="O44" s="23" t="n"/>
+      <c r="P44" s="23" t="n"/>
+      <c r="Q44" s="23" t="n"/>
+      <c r="R44" s="23" t="n"/>
+      <c r="S44" s="23" t="n"/>
+      <c r="T44" s="23" t="n"/>
+      <c r="U44" s="23" t="n"/>
+      <c r="V44" s="23" t="n"/>
+      <c r="W44" s="23" t="n"/>
+      <c r="X44" s="23" t="n"/>
+      <c r="Y44" s="23" t="n"/>
+      <c r="Z44" s="23" t="n"/>
+      <c r="AA44" s="23" t="n"/>
+      <c r="AB44" s="23" t="n"/>
+      <c r="AC44" s="23" t="n"/>
+      <c r="AD44" s="23" t="n"/>
+      <c r="AE44" s="23" t="n"/>
+      <c r="AF44" s="23" t="n"/>
+      <c r="AG44" s="23" t="n"/>
+      <c r="AH44" s="23" t="n"/>
+      <c r="AI44" s="23" t="n"/>
+      <c r="AJ44" s="34" t="n"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="n"/>
+      <c r="T45" s="2" t="n"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
+      <c r="W45" s="2" t="n"/>
+      <c r="X45" s="2" t="n"/>
+      <c r="Y45" s="2" t="n"/>
+      <c r="Z45" s="2" t="n"/>
+      <c r="AA45" s="2" t="n"/>
+      <c r="AB45" s="2" t="n"/>
+      <c r="AC45" s="2" t="n"/>
+      <c r="AD45" s="2" t="n"/>
+      <c r="AE45" s="2" t="n"/>
+      <c r="AF45" s="2" t="n"/>
+      <c r="AG45" s="2" t="n"/>
+      <c r="AH45" s="2" t="n"/>
+      <c r="AI45" s="2" t="n"/>
+      <c r="AJ45" s="2" t="n"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="B46" s="82" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="B46:AH46"/>
+    <mergeCell ref="H33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="H40:AI40"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="H32:AI32"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="U22:V22"/>
+  </mergeCells>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7404,7 +9547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9404,1984 +11547,4 @@
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.7874015748031497" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="122" scale="69" fitToHeight="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AJ44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
-    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A1" s="11" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="39" t="inlineStr">
-        <is>
-          <t>DOUBLE BLOCK AND BLEED VALVE DATA SHEET</t>
-        </is>
-      </c>
-      <c r="N1" s="39" t="n"/>
-      <c r="O1" s="39" t="n"/>
-      <c r="P1" s="39" t="n"/>
-      <c r="Q1" s="39" t="n"/>
-      <c r="R1" s="39" t="n"/>
-      <c r="S1" s="39" t="n"/>
-      <c r="T1" s="39" t="n"/>
-      <c r="U1" s="39" t="n"/>
-      <c r="V1" s="39" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-      <c r="AA1" s="12" t="n"/>
-      <c r="AB1" s="12" t="n"/>
-      <c r="AC1" s="12" t="n"/>
-      <c r="AD1" s="12" t="n"/>
-      <c r="AE1" s="12" t="n"/>
-      <c r="AF1" s="12" t="n"/>
-      <c r="AG1" s="12" t="n"/>
-      <c r="AH1" s="12" t="n"/>
-      <c r="AI1" s="12" t="n"/>
-      <c r="AJ1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A2" s="37" t="n"/>
-      <c r="B2" s="61" t="n"/>
-      <c r="C2" s="61" t="n"/>
-      <c r="D2" s="61" t="n"/>
-      <c r="E2" s="61" t="n"/>
-      <c r="F2" s="61" t="n"/>
-      <c r="G2" s="61" t="n"/>
-      <c r="H2" s="61" t="n"/>
-      <c r="I2" s="61" t="n"/>
-      <c r="J2" s="61" t="n"/>
-      <c r="K2" s="61" t="n"/>
-      <c r="L2" s="61" t="n"/>
-      <c r="M2" s="61" t="n"/>
-      <c r="N2" s="61" t="n"/>
-      <c r="O2" s="61" t="n"/>
-      <c r="P2" s="61" t="n"/>
-      <c r="Q2" s="47" t="n"/>
-      <c r="R2" s="61" t="n"/>
-      <c r="S2" s="61" t="n"/>
-      <c r="T2" s="61" t="n"/>
-      <c r="U2" s="61" t="n"/>
-      <c r="V2" s="61" t="n"/>
-      <c r="W2" s="61" t="n"/>
-      <c r="X2" s="61" t="n"/>
-      <c r="Y2" s="61" t="n"/>
-      <c r="Z2" s="61" t="n"/>
-      <c r="AA2" s="61" t="n"/>
-      <c r="AB2" s="61" t="n"/>
-      <c r="AC2" s="61" t="n"/>
-      <c r="AD2" s="61" t="n"/>
-      <c r="AE2" s="61" t="n"/>
-      <c r="AF2" s="61" t="n"/>
-      <c r="AG2" s="61" t="n"/>
-      <c r="AH2" s="61" t="n"/>
-      <c r="AI2" s="61" t="n"/>
-      <c r="AJ2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>TAG. No.</t>
-        </is>
-      </c>
-      <c r="B3" s="48" t="n"/>
-      <c r="C3" s="48" t="n"/>
-      <c r="D3" s="48" t="n"/>
-      <c r="E3" s="48" t="n"/>
-      <c r="F3" s="48" t="n"/>
-      <c r="G3" s="48" t="n"/>
-      <c r="H3" s="74" t="inlineStr">
-        <is>
-          <t>MFV22A0I2I</t>
-        </is>
-      </c>
-      <c r="I3" s="95" t="n"/>
-      <c r="J3" s="95" t="n"/>
-      <c r="K3" s="95" t="n"/>
-      <c r="L3" s="61" t="n"/>
-      <c r="M3" s="61" t="n"/>
-      <c r="N3" s="61" t="n"/>
-      <c r="O3" s="61" t="n"/>
-      <c r="P3" s="48" t="n"/>
-      <c r="Q3" s="48" t="n"/>
-      <c r="R3" s="48" t="n"/>
-      <c r="S3" s="48" t="n"/>
-      <c r="T3" s="48" t="n"/>
-      <c r="U3" s="48" t="n"/>
-      <c r="V3" s="48" t="n"/>
-      <c r="W3" s="48" t="n"/>
-      <c r="X3" s="48" t="n"/>
-      <c r="Y3" s="48" t="n"/>
-      <c r="Z3" s="48" t="n"/>
-      <c r="AA3" s="48" t="n"/>
-      <c r="AB3" s="48" t="n"/>
-      <c r="AC3" s="48" t="n"/>
-      <c r="AD3" s="48" t="n"/>
-      <c r="AE3" s="48" t="n"/>
-      <c r="AF3" s="48" t="n"/>
-      <c r="AG3" s="48" t="n"/>
-      <c r="AH3" s="48" t="n"/>
-      <c r="AI3" s="48" t="n"/>
-      <c r="AJ3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>SIZE :</t>
-        </is>
-      </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="61" t="n"/>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="61" t="n"/>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="61" t="n"/>
-      <c r="H4" s="96" t="inlineStr">
-        <is>
-          <t>3/4</t>
-        </is>
-      </c>
-      <c r="I4" s="97" t="n"/>
-      <c r="J4" s="97" t="n"/>
-      <c r="K4" s="49" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="61" t="n"/>
-      <c r="N4" s="61" t="n"/>
-      <c r="O4" s="61" t="n"/>
-      <c r="P4" s="61" t="n"/>
-      <c r="Q4" s="61" t="n"/>
-      <c r="R4" s="61" t="n"/>
-      <c r="S4" s="61" t="n"/>
-      <c r="T4" s="61" t="n"/>
-      <c r="U4" s="61" t="n"/>
-      <c r="V4" s="61" t="n"/>
-      <c r="W4" s="61" t="n"/>
-      <c r="X4" s="61" t="n"/>
-      <c r="Y4" s="61" t="n"/>
-      <c r="Z4" s="61" t="n"/>
-      <c r="AA4" s="61" t="n"/>
-      <c r="AB4" s="61" t="n"/>
-      <c r="AC4" s="61" t="n"/>
-      <c r="AD4" s="61" t="n"/>
-      <c r="AE4" s="61" t="n"/>
-      <c r="AF4" s="61" t="n"/>
-      <c r="AG4" s="61" t="n"/>
-      <c r="AH4" s="61" t="n"/>
-      <c r="AI4" s="50" t="n"/>
-      <c r="AJ4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>PIPING CLASS :</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n"/>
-      <c r="C5" s="47" t="n"/>
-      <c r="D5" s="47" t="n"/>
-      <c r="E5" s="47" t="n"/>
-      <c r="F5" s="47" t="n"/>
-      <c r="G5" s="47" t="n"/>
-      <c r="H5" s="69" t="inlineStr">
-        <is>
-          <t>CS3SA1</t>
-        </is>
-      </c>
-      <c r="I5" s="95" t="n"/>
-      <c r="J5" s="95" t="n"/>
-      <c r="K5" s="95" t="n"/>
-      <c r="L5" s="95" t="n"/>
-      <c r="M5" s="95" t="n"/>
-      <c r="N5" s="95" t="n"/>
-      <c r="O5" s="47" t="n"/>
-      <c r="P5" s="47" t="n"/>
-      <c r="Q5" s="47" t="n"/>
-      <c r="R5" s="47" t="n"/>
-      <c r="S5" s="47" t="n"/>
-      <c r="T5" s="47" t="n"/>
-      <c r="U5" s="47" t="n"/>
-      <c r="V5" s="61" t="n"/>
-      <c r="W5" s="24" t="inlineStr">
-        <is>
-          <t>PLANT LOCATION:</t>
-        </is>
-      </c>
-      <c r="X5" s="61" t="n"/>
-      <c r="Y5" s="61" t="n"/>
-      <c r="Z5" s="61" t="n"/>
-      <c r="AA5" s="61" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="95" t="n"/>
-      <c r="AD5" s="95" t="n"/>
-      <c r="AE5" s="95" t="n"/>
-      <c r="AF5" s="95" t="n"/>
-      <c r="AG5" s="95" t="n"/>
-      <c r="AH5" s="95" t="n"/>
-      <c r="AI5" s="95" t="n"/>
-      <c r="AJ5" s="65" t="n"/>
-    </row>
-    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>SERVICE (Note 1):</t>
-        </is>
-      </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="61" t="n"/>
-      <c r="D6" s="61" t="n"/>
-      <c r="E6" s="61" t="n"/>
-      <c r="F6" s="61" t="n"/>
-      <c r="G6" s="61" t="n"/>
-      <c r="H6" s="67" t="inlineStr">
-        <is>
-          <t>HCN &amp; HCR</t>
-        </is>
-      </c>
-      <c r="I6" s="95" t="n"/>
-      <c r="J6" s="95" t="n"/>
-      <c r="K6" s="95" t="n"/>
-      <c r="L6" s="95" t="n"/>
-      <c r="M6" s="95" t="n"/>
-      <c r="N6" s="95" t="n"/>
-      <c r="O6" s="95" t="n"/>
-      <c r="P6" s="95" t="n"/>
-      <c r="Q6" s="95" t="n"/>
-      <c r="R6" s="95" t="n"/>
-      <c r="S6" s="95" t="n"/>
-      <c r="T6" s="95" t="n"/>
-      <c r="U6" s="95" t="n"/>
-      <c r="V6" s="95" t="n"/>
-      <c r="W6" s="95" t="n"/>
-      <c r="X6" s="95" t="n"/>
-      <c r="Y6" s="95" t="n"/>
-      <c r="Z6" s="95" t="n"/>
-      <c r="AA6" s="95" t="n"/>
-      <c r="AB6" s="95" t="n"/>
-      <c r="AC6" s="95" t="n"/>
-      <c r="AD6" s="95" t="n"/>
-      <c r="AE6" s="95" t="n"/>
-      <c r="AF6" s="95" t="n"/>
-      <c r="AG6" s="95" t="n"/>
-      <c r="AH6" s="95" t="n"/>
-      <c r="AI6" s="95" t="n"/>
-      <c r="AJ6" s="65" t="n"/>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A7" s="37" t="n"/>
-      <c r="B7" s="61" t="n"/>
-      <c r="C7" s="61" t="n"/>
-      <c r="D7" s="61" t="n"/>
-      <c r="E7" s="61" t="n"/>
-      <c r="F7" s="61" t="n"/>
-      <c r="G7" s="61" t="n"/>
-      <c r="H7" s="61" t="n"/>
-      <c r="I7" s="61" t="n"/>
-      <c r="J7" s="61" t="n"/>
-      <c r="K7" s="61" t="n"/>
-      <c r="L7" s="61" t="n"/>
-      <c r="M7" s="61" t="n"/>
-      <c r="N7" s="61" t="n"/>
-      <c r="O7" s="61" t="n"/>
-      <c r="P7" s="61" t="n"/>
-      <c r="Q7" s="61" t="n"/>
-      <c r="R7" s="61" t="n"/>
-      <c r="S7" s="61" t="n"/>
-      <c r="T7" s="61" t="n"/>
-      <c r="U7" s="61" t="n"/>
-      <c r="V7" s="61" t="n"/>
-      <c r="W7" s="61" t="n"/>
-      <c r="X7" s="61" t="n"/>
-      <c r="Y7" s="61" t="n"/>
-      <c r="Z7" s="61" t="n"/>
-      <c r="AA7" s="61" t="n"/>
-      <c r="AB7" s="61" t="n"/>
-      <c r="AC7" s="61" t="n"/>
-      <c r="AD7" s="61" t="n"/>
-      <c r="AE7" s="61" t="n"/>
-      <c r="AF7" s="61" t="n"/>
-      <c r="AG7" s="61" t="n"/>
-      <c r="AH7" s="61" t="n"/>
-      <c r="AI7" s="61" t="n"/>
-      <c r="AJ7" s="28" t="n"/>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A8" s="15" t="n"/>
-      <c r="B8" s="51" t="n"/>
-      <c r="C8" s="51" t="n"/>
-      <c r="D8" s="51" t="n"/>
-      <c r="E8" s="51" t="n"/>
-      <c r="F8" s="51" t="n"/>
-      <c r="G8" s="51" t="n"/>
-      <c r="H8" s="51" t="n"/>
-      <c r="I8" s="51" t="n"/>
-      <c r="J8" s="51" t="n"/>
-      <c r="K8" s="51" t="n"/>
-      <c r="L8" s="51" t="n"/>
-      <c r="M8" s="51" t="n"/>
-      <c r="N8" s="51" t="n"/>
-      <c r="O8" s="51" t="n"/>
-      <c r="P8" s="51" t="n"/>
-      <c r="Q8" s="51" t="n"/>
-      <c r="R8" s="51" t="n"/>
-      <c r="S8" s="52" t="inlineStr">
-        <is>
-          <t>M E C H A N I C A L</t>
-        </is>
-      </c>
-      <c r="T8" s="51" t="n"/>
-      <c r="U8" s="51" t="n"/>
-      <c r="V8" s="51" t="n"/>
-      <c r="W8" s="51" t="n"/>
-      <c r="X8" s="51" t="n"/>
-      <c r="Y8" s="51" t="n"/>
-      <c r="Z8" s="51" t="n"/>
-      <c r="AA8" s="51" t="n"/>
-      <c r="AB8" s="51" t="n"/>
-      <c r="AC8" s="51" t="n"/>
-      <c r="AD8" s="51" t="n"/>
-      <c r="AE8" s="51" t="n"/>
-      <c r="AF8" s="51" t="n"/>
-      <c r="AG8" s="51" t="n"/>
-      <c r="AH8" s="51" t="n"/>
-      <c r="AI8" s="51" t="n"/>
-      <c r="AJ8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="61" t="n"/>
-      <c r="C9" s="61" t="n"/>
-      <c r="D9" s="61" t="n"/>
-      <c r="E9" s="61" t="n"/>
-      <c r="F9" s="61" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="61" t="n"/>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="61" t="n"/>
-      <c r="K9" s="61" t="n"/>
-      <c r="L9" s="61" t="n"/>
-      <c r="M9" s="61" t="n"/>
-      <c r="N9" s="61" t="n"/>
-      <c r="O9" s="61" t="n"/>
-      <c r="P9" s="61" t="n"/>
-      <c r="Q9" s="61" t="n"/>
-      <c r="R9" s="61" t="n"/>
-      <c r="S9" s="61" t="n"/>
-      <c r="T9" s="61" t="n"/>
-      <c r="U9" s="61" t="n"/>
-      <c r="V9" s="61" t="n"/>
-      <c r="W9" s="61" t="n"/>
-      <c r="X9" s="61" t="n"/>
-      <c r="Y9" s="61" t="n"/>
-      <c r="Z9" s="61" t="n"/>
-      <c r="AA9" s="61" t="n"/>
-      <c r="AB9" s="61" t="n"/>
-      <c r="AC9" s="61" t="n"/>
-      <c r="AD9" s="61" t="n"/>
-      <c r="AE9" s="61" t="n"/>
-      <c r="AF9" s="61" t="n"/>
-      <c r="AG9" s="61" t="n"/>
-      <c r="AH9" s="61" t="n"/>
-      <c r="AI9" s="61" t="n"/>
-      <c r="AJ9" s="16" t="n"/>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>VALVE TYPE :</t>
-        </is>
-      </c>
-      <c r="B10" s="61" t="n"/>
-      <c r="C10" s="61" t="n"/>
-      <c r="D10" s="61" t="n"/>
-      <c r="E10" s="61" t="n"/>
-      <c r="F10" s="61" t="n"/>
-      <c r="G10" s="61" t="n"/>
-      <c r="H10" s="69" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONOGLANGE, DBB VALVE</t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="n"/>
-      <c r="J10" s="95" t="n"/>
-      <c r="K10" s="95" t="n"/>
-      <c r="L10" s="95" t="n"/>
-      <c r="M10" s="95" t="n"/>
-      <c r="N10" s="95" t="n"/>
-      <c r="O10" s="95" t="n"/>
-      <c r="P10" s="95" t="n"/>
-      <c r="Q10" s="95" t="n"/>
-      <c r="R10" s="95" t="n"/>
-      <c r="S10" s="95" t="n"/>
-      <c r="T10" s="95" t="n"/>
-      <c r="U10" s="95" t="n"/>
-      <c r="V10" s="95" t="n"/>
-      <c r="W10" s="95" t="n"/>
-      <c r="X10" s="61" t="n"/>
-      <c r="Y10" s="61" t="n"/>
-      <c r="Z10" s="61" t="n"/>
-      <c r="AA10" s="61" t="n"/>
-      <c r="AB10" s="49" t="inlineStr">
-        <is>
-          <t>RATING / CLASS:</t>
-        </is>
-      </c>
-      <c r="AC10" s="70" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="AD10" s="95" t="n"/>
-      <c r="AE10" s="95" t="n"/>
-      <c r="AF10" s="95" t="n"/>
-      <c r="AG10" s="95" t="n"/>
-      <c r="AH10" s="95" t="n"/>
-      <c r="AI10" s="95" t="n"/>
-      <c r="AJ10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>END CONNECTIONS:</t>
-        </is>
-      </c>
-      <c r="B11" s="61" t="n"/>
-      <c r="C11" s="61" t="n"/>
-      <c r="D11" s="61" t="n"/>
-      <c r="E11" s="61" t="n"/>
-      <c r="F11" s="61" t="n"/>
-      <c r="G11" s="61" t="n"/>
-      <c r="H11" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLANGED </t>
-        </is>
-      </c>
-      <c r="I11" s="61" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr"/>
-      <c r="M11" s="95" t="n"/>
-      <c r="N11" s="61" t="n"/>
-      <c r="O11" s="61" t="n"/>
-      <c r="P11" s="61" t="n"/>
-      <c r="Q11" s="61" t="n"/>
-      <c r="R11" s="49" t="inlineStr">
-        <is>
-          <t>FACING:</t>
-        </is>
-      </c>
-      <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr"/>
-      <c r="U11" s="95" t="n"/>
-      <c r="V11" s="61" t="n"/>
-      <c r="W11" s="61" t="n"/>
-      <c r="X11" s="61" t="n"/>
-      <c r="Y11" s="61" t="n"/>
-      <c r="Z11" s="61" t="n"/>
-      <c r="AA11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOCKETWELD </t>
-        </is>
-      </c>
-      <c r="AB11" s="61" t="n"/>
-      <c r="AC11" s="71" t="inlineStr"/>
-      <c r="AD11" s="95" t="n"/>
-      <c r="AE11" s="66" t="inlineStr">
-        <is>
-          <t>SCREWED</t>
-        </is>
-      </c>
-      <c r="AF11" s="66" t="n"/>
-      <c r="AG11" s="66" t="n"/>
-      <c r="AH11" s="72" t="inlineStr"/>
-      <c r="AI11" s="95" t="n"/>
-      <c r="AJ11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A12" s="37" t="n"/>
-      <c r="B12" s="61" t="n"/>
-      <c r="C12" s="61" t="n"/>
-      <c r="D12" s="61" t="n"/>
-      <c r="E12" s="61" t="n"/>
-      <c r="F12" s="61" t="n"/>
-      <c r="G12" s="61" t="n"/>
-      <c r="H12" s="54" t="inlineStr">
-        <is>
-          <t>BUTTWELD</t>
-        </is>
-      </c>
-      <c r="I12" s="61" t="n"/>
-      <c r="J12" s="61" t="n"/>
-      <c r="K12" s="61" t="n"/>
-      <c r="L12" s="68" t="inlineStr"/>
-      <c r="M12" s="95" t="n"/>
-      <c r="N12" s="95" t="n"/>
-      <c r="O12" s="95" t="n"/>
-      <c r="P12" s="95" t="n"/>
-      <c r="Q12" s="95" t="n"/>
-      <c r="R12" s="95" t="n"/>
-      <c r="S12" s="95" t="n"/>
-      <c r="T12" s="95" t="n"/>
-      <c r="U12" s="95" t="n"/>
-      <c r="V12" s="95" t="n"/>
-      <c r="W12" s="61" t="n"/>
-      <c r="X12" s="61" t="n"/>
-      <c r="Y12" s="61" t="n"/>
-      <c r="Z12" s="61" t="n"/>
-      <c r="AA12" s="61" t="n"/>
-      <c r="AB12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OTHER </t>
-        </is>
-      </c>
-      <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr">
-        <is>
-          <t>RFxFNPT</t>
-        </is>
-      </c>
-      <c r="AE12" s="95" t="n"/>
-      <c r="AF12" s="95" t="n"/>
-      <c r="AG12" s="95" t="n"/>
-      <c r="AH12" s="95" t="n"/>
-      <c r="AI12" s="95" t="n"/>
-      <c r="AJ12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A13" s="37" t="n"/>
-      <c r="B13" s="61" t="n"/>
-      <c r="C13" s="61" t="n"/>
-      <c r="D13" s="61" t="n"/>
-      <c r="E13" s="61" t="n"/>
-      <c r="F13" s="61" t="n"/>
-      <c r="G13" s="61" t="n"/>
-      <c r="H13" s="54" t="n"/>
-      <c r="I13" s="61" t="n"/>
-      <c r="J13" s="61" t="n"/>
-      <c r="K13" s="61" t="n"/>
-      <c r="L13" s="61" t="n"/>
-      <c r="M13" s="61" t="n"/>
-      <c r="N13" s="61" t="n"/>
-      <c r="O13" s="61" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="61" t="n"/>
-      <c r="R13" s="61" t="n"/>
-      <c r="S13" s="61" t="n"/>
-      <c r="T13" s="61" t="n"/>
-      <c r="U13" s="61" t="n"/>
-      <c r="V13" s="61" t="n"/>
-      <c r="W13" s="61" t="n"/>
-      <c r="X13" s="61" t="n"/>
-      <c r="Y13" s="61" t="n"/>
-      <c r="Z13" s="61" t="n"/>
-      <c r="AA13" s="61" t="n"/>
-      <c r="AB13" s="53" t="n"/>
-      <c r="AC13" s="61" t="n"/>
-      <c r="AD13" s="61" t="n"/>
-      <c r="AE13" s="61" t="n"/>
-      <c r="AF13" s="61" t="n"/>
-      <c r="AG13" s="61" t="n"/>
-      <c r="AH13" s="61" t="n"/>
-      <c r="AI13" s="61" t="n"/>
-      <c r="AJ13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
-        </is>
-      </c>
-      <c r="B14" s="61" t="n"/>
-      <c r="C14" s="61" t="n"/>
-      <c r="D14" s="61" t="n"/>
-      <c r="E14" s="61" t="n"/>
-      <c r="F14" s="61" t="n"/>
-      <c r="G14" s="61" t="n"/>
-      <c r="H14" s="61" t="n"/>
-      <c r="I14" s="61" t="n"/>
-      <c r="J14" s="61" t="n"/>
-      <c r="K14" s="61" t="n"/>
-      <c r="L14" s="61" t="n"/>
-      <c r="M14" s="61" t="n"/>
-      <c r="N14" s="61" t="n"/>
-      <c r="O14" s="61" t="n"/>
-      <c r="P14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.5</t>
-        </is>
-      </c>
-      <c r="Q14" s="68" t="inlineStr"/>
-      <c r="R14" s="95" t="n"/>
-      <c r="S14" s="95" t="n"/>
-      <c r="T14" s="61" t="n"/>
-      <c r="U14" s="61" t="n"/>
-      <c r="V14" s="61" t="n"/>
-      <c r="W14" s="61" t="n"/>
-      <c r="X14" s="53" t="inlineStr">
-        <is>
-          <t>ASME B16.11</t>
-        </is>
-      </c>
-      <c r="Y14" s="68" t="inlineStr"/>
-      <c r="Z14" s="95" t="n"/>
-      <c r="AA14" s="95" t="n"/>
-      <c r="AB14" s="61" t="n"/>
-      <c r="AC14" s="61" t="n"/>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr">
-        <is>
-          <t>ASME B16.5xB1.20.1</t>
-        </is>
-      </c>
-      <c r="AG14" s="95" t="n"/>
-      <c r="AH14" s="95" t="n"/>
-      <c r="AI14" s="95" t="n"/>
-      <c r="AJ14" s="16" t="n"/>
-    </row>
-    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A15" s="18" t="n"/>
-      <c r="B15" s="61" t="n"/>
-      <c r="C15" s="61" t="n"/>
-      <c r="D15" s="61" t="n"/>
-      <c r="E15" s="61" t="n"/>
-      <c r="F15" s="61" t="n"/>
-      <c r="G15" s="61" t="n"/>
-      <c r="H15" s="24" t="n"/>
-      <c r="I15" s="61" t="n"/>
-      <c r="J15" s="80" t="n"/>
-      <c r="P15" s="61" t="n"/>
-      <c r="Q15" s="81" t="n"/>
-      <c r="R15" s="61" t="n"/>
-      <c r="S15" s="61" t="n"/>
-      <c r="T15" s="80" t="n"/>
-      <c r="Y15" s="61" t="n"/>
-      <c r="Z15" s="24" t="n"/>
-      <c r="AA15" s="61" t="n"/>
-      <c r="AB15" s="61" t="n"/>
-      <c r="AC15" s="61" t="n"/>
-      <c r="AD15" s="61" t="n"/>
-      <c r="AE15" s="84" t="n"/>
-      <c r="AJ15" s="98" t="n"/>
-    </row>
-    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A16" s="18" t="n"/>
-      <c r="B16" s="61" t="n"/>
-      <c r="C16" s="61" t="n"/>
-      <c r="D16" s="61" t="n"/>
-      <c r="E16" s="61" t="n"/>
-      <c r="F16" s="61" t="n"/>
-      <c r="G16" s="61" t="n"/>
-      <c r="H16" s="61" t="n"/>
-      <c r="I16" s="61" t="n"/>
-      <c r="J16" s="61" t="n"/>
-      <c r="K16" s="61" t="n"/>
-      <c r="L16" s="61" t="n"/>
-      <c r="M16" s="61" t="n"/>
-      <c r="N16" s="61" t="n"/>
-      <c r="O16" s="49" t="n"/>
-      <c r="P16" s="80" t="n"/>
-      <c r="S16" s="61" t="n"/>
-      <c r="T16" s="61" t="n"/>
-      <c r="U16" s="24" t="n"/>
-      <c r="V16" s="61" t="n"/>
-      <c r="W16" s="61" t="n"/>
-      <c r="X16" s="61" t="n"/>
-      <c r="Y16" s="55" t="n"/>
-      <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="80" t="n"/>
-      <c r="AD16" s="61" t="n"/>
-      <c r="AE16" s="61" t="n"/>
-      <c r="AF16" s="61" t="n"/>
-      <c r="AG16" s="61" t="n"/>
-      <c r="AH16" s="61" t="n"/>
-      <c r="AI16" s="61" t="n"/>
-      <c r="AJ16" s="28" t="n"/>
-    </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A17" s="17" t="inlineStr">
-        <is>
-          <t>TYPE OPERATOR :</t>
-        </is>
-      </c>
-      <c r="B17" s="61" t="n"/>
-      <c r="C17" s="61" t="n"/>
-      <c r="D17" s="61" t="n"/>
-      <c r="E17" s="61" t="n"/>
-      <c r="F17" s="61" t="n"/>
-      <c r="G17" s="61" t="n"/>
-      <c r="H17" s="69" t="inlineStr">
-        <is>
-          <t>T-HANDLE OPERATOR</t>
-        </is>
-      </c>
-      <c r="I17" s="95" t="n"/>
-      <c r="J17" s="95" t="n"/>
-      <c r="K17" s="95" t="n"/>
-      <c r="L17" s="95" t="n"/>
-      <c r="M17" s="95" t="n"/>
-      <c r="N17" s="95" t="n"/>
-      <c r="O17" s="61" t="n"/>
-      <c r="P17" s="61" t="n"/>
-      <c r="Q17" s="61" t="n"/>
-      <c r="R17" s="61" t="n"/>
-      <c r="S17" s="61" t="n"/>
-      <c r="T17" s="61" t="n"/>
-      <c r="U17" s="61" t="n"/>
-      <c r="V17" s="61" t="n"/>
-      <c r="W17" s="61" t="n"/>
-      <c r="X17" s="61" t="n"/>
-      <c r="Y17" s="61" t="n"/>
-      <c r="Z17" s="61" t="n"/>
-      <c r="AA17" s="61" t="n"/>
-      <c r="AB17" s="61" t="n"/>
-      <c r="AC17" s="61" t="n"/>
-      <c r="AD17" s="61" t="n"/>
-      <c r="AE17" s="61" t="n"/>
-      <c r="AF17" s="61" t="n"/>
-      <c r="AG17" s="61" t="n"/>
-      <c r="AH17" s="61" t="n"/>
-      <c r="AI17" s="61" t="n"/>
-      <c r="AJ17" s="28" t="n"/>
-    </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A18" s="37" t="n"/>
-      <c r="B18" s="61" t="n"/>
-      <c r="C18" s="61" t="n"/>
-      <c r="D18" s="61" t="n"/>
-      <c r="E18" s="61" t="n"/>
-      <c r="F18" s="61" t="n"/>
-      <c r="G18" s="61" t="n"/>
-      <c r="H18" s="61" t="n"/>
-      <c r="I18" s="61" t="n"/>
-      <c r="J18" s="61" t="n"/>
-      <c r="K18" s="61" t="n"/>
-      <c r="L18" s="61" t="n"/>
-      <c r="M18" s="61" t="n"/>
-      <c r="N18" s="61" t="n"/>
-      <c r="O18" s="61" t="n"/>
-      <c r="P18" s="61" t="n"/>
-      <c r="Q18" s="61" t="n"/>
-      <c r="R18" s="61" t="n"/>
-      <c r="S18" s="61" t="n"/>
-      <c r="T18" s="61" t="n"/>
-      <c r="U18" s="61" t="n"/>
-      <c r="V18" s="61" t="n"/>
-      <c r="W18" s="61" t="n"/>
-      <c r="X18" s="61" t="n"/>
-      <c r="Y18" s="55" t="n"/>
-      <c r="Z18" s="61" t="n"/>
-      <c r="AA18" s="61" t="n"/>
-      <c r="AB18" s="61" t="n"/>
-      <c r="AC18" s="61" t="n"/>
-      <c r="AD18" s="61" t="n"/>
-      <c r="AE18" s="61" t="n"/>
-      <c r="AF18" s="61" t="n"/>
-      <c r="AG18" s="61" t="n"/>
-      <c r="AH18" s="61" t="n"/>
-      <c r="AI18" s="61" t="n"/>
-      <c r="AJ18" s="28" t="n"/>
-    </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
-      <c r="A19" s="15" t="n"/>
-      <c r="B19" s="51" t="n"/>
-      <c r="C19" s="51" t="n"/>
-      <c r="D19" s="51" t="n"/>
-      <c r="E19" s="51" t="n"/>
-      <c r="F19" s="51" t="n"/>
-      <c r="G19" s="51" t="n"/>
-      <c r="H19" s="51" t="n"/>
-      <c r="I19" s="51" t="n"/>
-      <c r="J19" s="51" t="n"/>
-      <c r="K19" s="51" t="n"/>
-      <c r="L19" s="51" t="n"/>
-      <c r="M19" s="51" t="n"/>
-      <c r="N19" s="51" t="n"/>
-      <c r="O19" s="51" t="n"/>
-      <c r="P19" s="51" t="n"/>
-      <c r="Q19" s="51" t="n"/>
-      <c r="R19" s="51" t="n"/>
-      <c r="S19" s="52" t="inlineStr">
-        <is>
-          <t>D E S I G N</t>
-        </is>
-      </c>
-      <c r="T19" s="51" t="n"/>
-      <c r="U19" s="51" t="n"/>
-      <c r="V19" s="51" t="n"/>
-      <c r="W19" s="51" t="n"/>
-      <c r="X19" s="51" t="n"/>
-      <c r="Y19" s="51" t="n"/>
-      <c r="Z19" s="51" t="n"/>
-      <c r="AA19" s="51" t="n"/>
-      <c r="AB19" s="51" t="n"/>
-      <c r="AC19" s="51" t="n"/>
-      <c r="AD19" s="51" t="n"/>
-      <c r="AE19" s="51" t="n"/>
-      <c r="AF19" s="51" t="n"/>
-      <c r="AG19" s="51" t="n"/>
-      <c r="AH19" s="51" t="n"/>
-      <c r="AI19" s="51" t="n"/>
-      <c r="AJ19" s="16" t="n"/>
-    </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A20" s="37" t="n"/>
-      <c r="B20" s="61" t="n"/>
-      <c r="C20" s="61" t="n"/>
-      <c r="D20" s="61" t="n"/>
-      <c r="E20" s="61" t="n"/>
-      <c r="F20" s="61" t="n"/>
-      <c r="G20" s="61" t="n"/>
-      <c r="H20" s="61" t="n"/>
-      <c r="I20" s="61" t="n"/>
-      <c r="J20" s="61" t="n"/>
-      <c r="K20" s="61" t="n"/>
-      <c r="L20" s="61" t="n"/>
-      <c r="M20" s="61" t="n"/>
-      <c r="N20" s="61" t="n"/>
-      <c r="O20" s="61" t="n"/>
-      <c r="P20" s="61" t="n"/>
-      <c r="Q20" s="61" t="n"/>
-      <c r="R20" s="61" t="n"/>
-      <c r="S20" s="61" t="n"/>
-      <c r="T20" s="61" t="n"/>
-      <c r="U20" s="61" t="n"/>
-      <c r="V20" s="61" t="n"/>
-      <c r="W20" s="61" t="n"/>
-      <c r="X20" s="61" t="n"/>
-      <c r="Y20" s="61" t="n"/>
-      <c r="Z20" s="61" t="n"/>
-      <c r="AA20" s="61" t="n"/>
-      <c r="AB20" s="61" t="n"/>
-      <c r="AC20" s="61" t="n"/>
-      <c r="AD20" s="61" t="n"/>
-      <c r="AE20" s="61" t="n"/>
-      <c r="AF20" s="61" t="n"/>
-      <c r="AG20" s="61" t="n"/>
-      <c r="AH20" s="61" t="n"/>
-      <c r="AI20" s="61" t="n"/>
-      <c r="AJ20" s="28" t="n"/>
-    </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>APPLICABLE PIPING</t>
-        </is>
-      </c>
-      <c r="B21" s="61" t="n"/>
-      <c r="C21" s="61" t="n"/>
-      <c r="D21" s="61" t="n"/>
-      <c r="E21" s="61" t="n"/>
-      <c r="F21" s="61" t="n"/>
-      <c r="G21" s="61" t="n"/>
-      <c r="H21" s="61" t="n"/>
-      <c r="I21" s="61" t="n"/>
-      <c r="J21" s="61" t="n"/>
-      <c r="K21" s="61" t="n"/>
-      <c r="L21" s="61" t="n"/>
-      <c r="M21" s="61" t="n"/>
-      <c r="N21" s="61" t="n"/>
-      <c r="O21" s="61" t="n"/>
-      <c r="P21" s="61" t="n"/>
-      <c r="Q21" s="61" t="n"/>
-      <c r="R21" s="61" t="n"/>
-      <c r="S21" s="61" t="n"/>
-      <c r="T21" s="61" t="n"/>
-      <c r="U21" s="61" t="n"/>
-      <c r="V21" s="61" t="n"/>
-      <c r="W21" s="61" t="n"/>
-      <c r="X21" s="61" t="n"/>
-      <c r="Y21" s="61" t="n"/>
-      <c r="Z21" s="61" t="n"/>
-      <c r="AA21" s="61" t="n"/>
-      <c r="AB21" s="61" t="n"/>
-      <c r="AC21" s="61" t="n"/>
-      <c r="AD21" s="61" t="n"/>
-      <c r="AE21" s="61" t="n"/>
-      <c r="AF21" s="61" t="n"/>
-      <c r="AG21" s="61" t="n"/>
-      <c r="AH21" s="61" t="n"/>
-      <c r="AI21" s="61" t="n"/>
-      <c r="AJ21" s="28" t="n"/>
-    </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DESIGN CODE:       </t>
-        </is>
-      </c>
-      <c r="B22" s="61" t="n"/>
-      <c r="C22" s="61" t="n"/>
-      <c r="D22" s="61" t="n"/>
-      <c r="E22" s="61" t="n"/>
-      <c r="F22" s="61" t="n"/>
-      <c r="G22" s="61" t="n"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>API 600</t>
-        </is>
-      </c>
-      <c r="I22" s="68" t="inlineStr"/>
-      <c r="J22" s="95" t="n"/>
-      <c r="K22" s="61" t="n"/>
-      <c r="L22" s="61" t="n"/>
-      <c r="M22" s="81" t="inlineStr">
-        <is>
-          <t>API 6D</t>
-        </is>
-      </c>
-      <c r="N22" s="61" t="n"/>
-      <c r="O22" s="68" t="inlineStr"/>
-      <c r="P22" s="95" t="n"/>
-      <c r="Q22" s="61" t="n"/>
-      <c r="R22" s="61" t="n"/>
-      <c r="S22" s="61" t="n"/>
-      <c r="T22" s="53" t="inlineStr">
-        <is>
-          <t>API 608</t>
-        </is>
-      </c>
-      <c r="U22" s="71" t="inlineStr"/>
-      <c r="V22" s="95" t="n"/>
-      <c r="W22" s="61" t="n"/>
-      <c r="X22" s="61" t="n"/>
-      <c r="Y22" s="61" t="n"/>
-      <c r="Z22" s="56" t="inlineStr">
-        <is>
-          <t>API 602</t>
-        </is>
-      </c>
-      <c r="AA22" s="68" t="inlineStr"/>
-      <c r="AB22" s="95" t="n"/>
-      <c r="AC22" s="61" t="n"/>
-      <c r="AD22" s="61" t="n"/>
-      <c r="AE22" s="79" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="AG22" s="68" t="inlineStr">
-        <is>
-          <t>EEMUA 182</t>
-        </is>
-      </c>
-      <c r="AH22" s="95" t="n"/>
-      <c r="AI22" s="95" t="n"/>
-      <c r="AJ22" s="28" t="n"/>
-    </row>
-    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A23" s="83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
-        </is>
-      </c>
-      <c r="L23" s="90" t="inlineStr"/>
-      <c r="M23" s="95" t="n"/>
-      <c r="N23" s="95" t="n"/>
-      <c r="O23" s="95" t="n"/>
-      <c r="P23" s="95" t="n"/>
-      <c r="Q23" s="95" t="n"/>
-      <c r="R23" s="95" t="n"/>
-      <c r="S23" s="95" t="n"/>
-      <c r="T23" s="95" t="n"/>
-      <c r="U23" s="95" t="n"/>
-      <c r="V23" s="95" t="n"/>
-      <c r="W23" s="95" t="n"/>
-      <c r="X23" s="95" t="n"/>
-      <c r="Y23" s="95" t="n"/>
-      <c r="Z23" s="95" t="n"/>
-      <c r="AA23" s="95" t="n"/>
-      <c r="AB23" s="95" t="n"/>
-      <c r="AC23" s="95" t="n"/>
-      <c r="AD23" s="95" t="n"/>
-      <c r="AE23" s="95" t="n"/>
-      <c r="AF23" s="95" t="n"/>
-      <c r="AG23" s="95" t="n"/>
-      <c r="AH23" s="95" t="n"/>
-      <c r="AI23" s="95" t="n"/>
-      <c r="AJ23" s="28" t="n"/>
-    </row>
-    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B24" s="61" t="n"/>
-      <c r="C24" s="61" t="n"/>
-      <c r="D24" s="61" t="n"/>
-      <c r="E24" s="61" t="n"/>
-      <c r="F24" s="61" t="n"/>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="68" t="n">
-        <v>740</v>
-      </c>
-      <c r="I24" s="95" t="n"/>
-      <c r="J24" s="95" t="n"/>
-      <c r="K24" s="95" t="n"/>
-      <c r="L24" s="95" t="n"/>
-      <c r="M24" s="95" t="n"/>
-      <c r="N24" s="95" t="n"/>
-      <c r="O24" s="95" t="n"/>
-      <c r="P24" s="24" t="inlineStr">
-        <is>
-          <t>PSIG @100°F</t>
-        </is>
-      </c>
-      <c r="Q24" s="61" t="n"/>
-      <c r="R24" s="61" t="n"/>
-      <c r="S24" s="61" t="n"/>
-      <c r="T24" s="61" t="n"/>
-      <c r="U24" s="61" t="n"/>
-      <c r="V24" s="61" t="n"/>
-      <c r="W24" s="61" t="n"/>
-      <c r="X24" s="61" t="n"/>
-      <c r="Y24" s="61" t="n"/>
-      <c r="Z24" s="49" t="inlineStr">
-        <is>
-          <t>DESIGN TEMP:</t>
-        </is>
-      </c>
-      <c r="AA24" s="61" t="n"/>
-      <c r="AB24" s="69" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC24" s="95" t="n"/>
-      <c r="AD24" s="24" t="inlineStr">
-        <is>
-          <t>F. MIN</t>
-        </is>
-      </c>
-      <c r="AE24" s="61" t="n"/>
-      <c r="AF24" s="69" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG24" s="95" t="n"/>
-      <c r="AH24" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> F. MAX</t>
-        </is>
-      </c>
-      <c r="AI24" s="61" t="n"/>
-      <c r="AJ24" s="31" t="n"/>
-    </row>
-    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A25" s="17" t="inlineStr">
-        <is>
-          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
-        </is>
-      </c>
-      <c r="B25" s="61" t="n"/>
-      <c r="C25" s="61" t="n"/>
-      <c r="D25" s="61" t="n"/>
-      <c r="E25" s="61" t="n"/>
-      <c r="F25" s="61" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="61" t="n"/>
-      <c r="I25" s="61" t="n"/>
-      <c r="J25" s="32" t="n"/>
-      <c r="K25" s="32" t="n"/>
-      <c r="L25" s="32" t="n"/>
-      <c r="M25" s="32" t="n"/>
-      <c r="N25" s="32" t="n"/>
-      <c r="O25" s="32" t="n"/>
-      <c r="P25" s="33" t="n"/>
-      <c r="Q25" s="79" t="inlineStr">
-        <is>
-          <t>PSIG</t>
-        </is>
-      </c>
-      <c r="S25" s="61" t="n"/>
-      <c r="T25" s="61" t="n"/>
-      <c r="U25" s="61" t="n"/>
-      <c r="V25" s="61" t="n"/>
-      <c r="W25" s="24" t="inlineStr">
-        <is>
-          <t>TEST PRESSURE:</t>
-        </is>
-      </c>
-      <c r="X25" s="61" t="n"/>
-      <c r="Y25" s="61" t="n"/>
-      <c r="Z25" s="61" t="n"/>
-      <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr"/>
-      <c r="AC25" s="95" t="n"/>
-      <c r="AD25" s="95" t="n"/>
-      <c r="AE25" s="24" t="n"/>
-      <c r="AF25" s="78" t="n"/>
-      <c r="AH25" s="61" t="n"/>
-      <c r="AI25" s="61" t="n"/>
-      <c r="AJ25" s="31" t="n"/>
-    </row>
-    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>CONTAMINANTS :</t>
-        </is>
-      </c>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="61" t="n"/>
-      <c r="G26" s="61" t="n"/>
-      <c r="H26" s="24" t="inlineStr">
-        <is>
-          <t>CO2:</t>
-        </is>
-      </c>
-      <c r="I26" s="19" t="n"/>
-      <c r="J26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K26" s="21" t="n"/>
-      <c r="L26" s="33" t="n"/>
-      <c r="M26" s="33" t="n"/>
-      <c r="N26" s="33" t="n"/>
-      <c r="O26" s="33" t="n"/>
-      <c r="P26" s="33" t="n"/>
-      <c r="Q26" s="61" t="n"/>
-      <c r="R26" s="61" t="n"/>
-      <c r="S26" s="49" t="inlineStr">
-        <is>
-          <t>CHLORIDE:</t>
-        </is>
-      </c>
-      <c r="T26" s="85" t="n"/>
-      <c r="U26" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V26" s="20" t="n"/>
-      <c r="W26" s="33" t="n"/>
-      <c r="X26" s="33" t="n"/>
-      <c r="Y26" s="33" t="n"/>
-      <c r="Z26" s="33" t="n"/>
-      <c r="AA26" s="61" t="n"/>
-      <c r="AB26" s="53" t="inlineStr">
-        <is>
-          <t>H2S:</t>
-        </is>
-      </c>
-      <c r="AC26" s="70" t="n"/>
-      <c r="AD26" s="95" t="n"/>
-      <c r="AE26" s="95" t="n"/>
-      <c r="AF26" s="95" t="n"/>
-      <c r="AG26" s="95" t="n"/>
-      <c r="AH26" s="95" t="n"/>
-      <c r="AI26" s="95" t="n"/>
-      <c r="AJ26" s="28" t="n"/>
-    </row>
-    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A27" s="37" t="n"/>
-      <c r="B27" s="61" t="n"/>
-      <c r="C27" s="61" t="n"/>
-      <c r="D27" s="61" t="n"/>
-      <c r="E27" s="61" t="n"/>
-      <c r="F27" s="61" t="n"/>
-      <c r="G27" s="61" t="n"/>
-      <c r="H27" s="24" t="inlineStr">
-        <is>
-          <t>METHANOL :</t>
-        </is>
-      </c>
-      <c r="I27" s="61" t="n"/>
-      <c r="J27" s="61" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="33" t="n"/>
-      <c r="M27" s="33" t="n"/>
-      <c r="N27" s="33" t="n"/>
-      <c r="O27" s="33" t="n"/>
-      <c r="P27" s="33" t="n"/>
-      <c r="Q27" s="33" t="n"/>
-      <c r="R27" s="33" t="n"/>
-      <c r="S27" s="33" t="n"/>
-      <c r="T27" s="33" t="n"/>
-      <c r="U27" s="61" t="n"/>
-      <c r="V27" s="61" t="n"/>
-      <c r="W27" s="53" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="X27" s="70" t="n"/>
-      <c r="Y27" s="95" t="n"/>
-      <c r="Z27" s="95" t="n"/>
-      <c r="AA27" s="95" t="n"/>
-      <c r="AB27" s="95" t="n"/>
-      <c r="AC27" s="95" t="n"/>
-      <c r="AD27" s="95" t="n"/>
-      <c r="AE27" s="95" t="n"/>
-      <c r="AF27" s="95" t="n"/>
-      <c r="AG27" s="95" t="n"/>
-      <c r="AH27" s="95" t="n"/>
-      <c r="AI27" s="95" t="n"/>
-      <c r="AJ27" s="28" t="n"/>
-    </row>
-    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A28" s="37" t="n"/>
-      <c r="B28" s="61" t="n"/>
-      <c r="C28" s="61" t="n"/>
-      <c r="D28" s="61" t="n"/>
-      <c r="E28" s="61" t="n"/>
-      <c r="F28" s="61" t="n"/>
-      <c r="G28" s="61" t="n"/>
-      <c r="H28" s="61" t="n"/>
-      <c r="I28" s="61" t="n"/>
-      <c r="J28" s="61" t="n"/>
-      <c r="K28" s="61" t="n"/>
-      <c r="L28" s="61" t="n"/>
-      <c r="M28" s="61" t="n"/>
-      <c r="N28" s="61" t="n"/>
-      <c r="O28" s="61" t="n"/>
-      <c r="P28" s="61" t="n"/>
-      <c r="Q28" s="61" t="n"/>
-      <c r="R28" s="61" t="n"/>
-      <c r="S28" s="61" t="n"/>
-      <c r="T28" s="61" t="n"/>
-      <c r="U28" s="61" t="n"/>
-      <c r="V28" s="61" t="n"/>
-      <c r="W28" s="61" t="n"/>
-      <c r="X28" s="61" t="n"/>
-      <c r="Y28" s="61" t="n"/>
-      <c r="Z28" s="61" t="n"/>
-      <c r="AA28" s="61" t="n"/>
-      <c r="AB28" s="61" t="n"/>
-      <c r="AC28" s="61" t="n"/>
-      <c r="AD28" s="61" t="n"/>
-      <c r="AE28" s="61" t="n"/>
-      <c r="AF28" s="61" t="n"/>
-      <c r="AG28" s="61" t="n"/>
-      <c r="AH28" s="61" t="n"/>
-      <c r="AI28" s="61" t="n"/>
-      <c r="AJ28" s="28" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="15" t="n"/>
-      <c r="B29" s="51" t="n"/>
-      <c r="C29" s="51" t="n"/>
-      <c r="D29" s="51" t="n"/>
-      <c r="E29" s="51" t="n"/>
-      <c r="F29" s="51" t="n"/>
-      <c r="G29" s="51" t="n"/>
-      <c r="H29" s="51" t="n"/>
-      <c r="I29" s="51" t="n"/>
-      <c r="J29" s="51" t="n"/>
-      <c r="K29" s="51" t="n"/>
-      <c r="L29" s="51" t="n"/>
-      <c r="M29" s="51" t="n"/>
-      <c r="N29" s="51" t="n"/>
-      <c r="O29" s="51" t="n"/>
-      <c r="P29" s="51" t="n"/>
-      <c r="Q29" s="51" t="n"/>
-      <c r="R29" s="51" t="n"/>
-      <c r="S29" s="58" t="inlineStr">
-        <is>
-          <t>M A T E R I A L S</t>
-        </is>
-      </c>
-      <c r="T29" s="51" t="n"/>
-      <c r="U29" s="51" t="n"/>
-      <c r="V29" s="51" t="n"/>
-      <c r="W29" s="51" t="n"/>
-      <c r="X29" s="51" t="n"/>
-      <c r="Y29" s="51" t="n"/>
-      <c r="Z29" s="51" t="n"/>
-      <c r="AA29" s="51" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="51" t="n"/>
-      <c r="AD29" s="51" t="n"/>
-      <c r="AE29" s="51" t="n"/>
-      <c r="AF29" s="51" t="n"/>
-      <c r="AG29" s="51" t="n"/>
-      <c r="AH29" s="51" t="n"/>
-      <c r="AI29" s="51" t="n"/>
-      <c r="AJ29" s="16" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="15" t="n"/>
-      <c r="B30" s="51" t="n"/>
-      <c r="C30" s="51" t="n"/>
-      <c r="D30" s="51" t="n"/>
-      <c r="E30" s="51" t="n"/>
-      <c r="F30" s="51" t="n"/>
-      <c r="G30" s="51" t="n"/>
-      <c r="H30" s="51" t="n"/>
-      <c r="I30" s="51" t="n"/>
-      <c r="J30" s="51" t="n"/>
-      <c r="K30" s="51" t="n"/>
-      <c r="L30" s="51" t="n"/>
-      <c r="M30" s="51" t="n"/>
-      <c r="N30" s="51" t="n"/>
-      <c r="O30" s="51" t="n"/>
-      <c r="P30" s="51" t="n"/>
-      <c r="Q30" s="51" t="n"/>
-      <c r="R30" s="51" t="n"/>
-      <c r="S30" s="58" t="n"/>
-      <c r="T30" s="51" t="n"/>
-      <c r="U30" s="51" t="n"/>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="51" t="n"/>
-      <c r="X30" s="51" t="n"/>
-      <c r="Y30" s="51" t="n"/>
-      <c r="Z30" s="51" t="n"/>
-      <c r="AA30" s="51" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="51" t="n"/>
-      <c r="AD30" s="51" t="n"/>
-      <c r="AE30" s="51" t="n"/>
-      <c r="AF30" s="51" t="n"/>
-      <c r="AG30" s="51" t="n"/>
-      <c r="AH30" s="51" t="n"/>
-      <c r="AI30" s="51" t="n"/>
-      <c r="AJ30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A31" s="43" t="inlineStr">
-        <is>
-          <t>BODY:</t>
-        </is>
-      </c>
-      <c r="B31" s="42" t="n"/>
-      <c r="C31" s="42" t="n"/>
-      <c r="D31" s="42" t="n"/>
-      <c r="E31" s="42" t="n"/>
-      <c r="F31" s="42" t="n"/>
-      <c r="G31" s="42" t="n"/>
-      <c r="H31" s="92" t="inlineStr">
-        <is>
-          <t>ASTM A105</t>
-        </is>
-      </c>
-      <c r="I31" s="95" t="n"/>
-      <c r="J31" s="95" t="n"/>
-      <c r="K31" s="95" t="n"/>
-      <c r="L31" s="95" t="n"/>
-      <c r="M31" s="95" t="n"/>
-      <c r="N31" s="95" t="n"/>
-      <c r="O31" s="95" t="n"/>
-      <c r="P31" s="95" t="n"/>
-      <c r="Q31" s="95" t="n"/>
-      <c r="R31" s="95" t="n"/>
-      <c r="S31" s="95" t="n"/>
-      <c r="T31" s="95" t="n"/>
-      <c r="U31" s="95" t="n"/>
-      <c r="V31" s="95" t="n"/>
-      <c r="W31" s="95" t="n"/>
-      <c r="X31" s="95" t="n"/>
-      <c r="Y31" s="95" t="n"/>
-      <c r="Z31" s="95" t="n"/>
-      <c r="AA31" s="95" t="n"/>
-      <c r="AB31" s="95" t="n"/>
-      <c r="AC31" s="95" t="n"/>
-      <c r="AD31" s="95" t="n"/>
-      <c r="AE31" s="95" t="n"/>
-      <c r="AF31" s="95" t="n"/>
-      <c r="AG31" s="95" t="n"/>
-      <c r="AH31" s="95" t="n"/>
-      <c r="AI31" s="95" t="n"/>
-      <c r="AJ31" s="64" t="n"/>
-    </row>
-    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A32" s="43" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="B32" s="42" t="n"/>
-      <c r="C32" s="42" t="n"/>
-      <c r="D32" s="42" t="n"/>
-      <c r="E32" s="42" t="n"/>
-      <c r="F32" s="42" t="n"/>
-      <c r="G32" s="42" t="n"/>
-      <c r="H32" s="93" t="inlineStr">
-        <is>
-          <t>GRAPHITE</t>
-        </is>
-      </c>
-      <c r="I32" s="97" t="n"/>
-      <c r="J32" s="97" t="n"/>
-      <c r="K32" s="97" t="n"/>
-      <c r="L32" s="97" t="n"/>
-      <c r="M32" s="97" t="n"/>
-      <c r="N32" s="97" t="n"/>
-      <c r="O32" s="97" t="n"/>
-      <c r="P32" s="97" t="n"/>
-      <c r="Q32" s="97" t="n"/>
-      <c r="R32" s="97" t="n"/>
-      <c r="S32" s="97" t="n"/>
-      <c r="T32" s="97" t="n"/>
-      <c r="U32" s="97" t="n"/>
-      <c r="V32" s="97" t="n"/>
-      <c r="W32" s="97" t="n"/>
-      <c r="X32" s="97" t="n"/>
-      <c r="Y32" s="97" t="n"/>
-      <c r="Z32" s="97" t="n"/>
-      <c r="AA32" s="97" t="n"/>
-      <c r="AB32" s="97" t="n"/>
-      <c r="AC32" s="97" t="n"/>
-      <c r="AD32" s="97" t="n"/>
-      <c r="AE32" s="97" t="n"/>
-      <c r="AF32" s="97" t="n"/>
-      <c r="AG32" s="97" t="n"/>
-      <c r="AH32" s="97" t="n"/>
-      <c r="AI32" s="97" t="n"/>
-      <c r="AJ32" s="64" t="n"/>
-    </row>
-    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>STEM / STEM TIP:</t>
-        </is>
-      </c>
-      <c r="B33" s="42" t="n"/>
-      <c r="C33" s="42" t="n"/>
-      <c r="D33" s="42" t="n"/>
-      <c r="E33" s="42" t="n"/>
-      <c r="F33" s="42" t="n"/>
-      <c r="G33" s="42" t="n"/>
-      <c r="H33" s="93" t="inlineStr">
-        <is>
-          <t>AISI 316</t>
-        </is>
-      </c>
-      <c r="I33" s="97" t="n"/>
-      <c r="J33" s="97" t="n"/>
-      <c r="K33" s="97" t="n"/>
-      <c r="L33" s="97" t="n"/>
-      <c r="M33" s="97" t="n"/>
-      <c r="N33" s="97" t="n"/>
-      <c r="O33" s="97" t="n"/>
-      <c r="P33" s="97" t="n"/>
-      <c r="Q33" s="97" t="n"/>
-      <c r="R33" s="97" t="n"/>
-      <c r="S33" s="97" t="n"/>
-      <c r="T33" s="97" t="n"/>
-      <c r="U33" s="97" t="n"/>
-      <c r="V33" s="97" t="n"/>
-      <c r="W33" s="97" t="n"/>
-      <c r="X33" s="97" t="n"/>
-      <c r="Y33" s="97" t="n"/>
-      <c r="Z33" s="97" t="n"/>
-      <c r="AA33" s="97" t="n"/>
-      <c r="AB33" s="97" t="n"/>
-      <c r="AC33" s="97" t="n"/>
-      <c r="AD33" s="97" t="n"/>
-      <c r="AE33" s="97" t="n"/>
-      <c r="AF33" s="97" t="n"/>
-      <c r="AG33" s="97" t="n"/>
-      <c r="AH33" s="97" t="n"/>
-      <c r="AI33" s="97" t="n"/>
-      <c r="AJ33" s="64" t="n"/>
-    </row>
-    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A34" s="43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEAT: </t>
-        </is>
-      </c>
-      <c r="B34" s="42" t="n"/>
-      <c r="C34" s="42" t="n"/>
-      <c r="D34" s="42" t="n"/>
-      <c r="E34" s="42" t="n"/>
-      <c r="F34" s="42" t="n"/>
-      <c r="G34" s="42" t="n"/>
-      <c r="H34" s="93" t="inlineStr">
-        <is>
-          <t>BY MNF</t>
-        </is>
-      </c>
-      <c r="I34" s="97" t="n"/>
-      <c r="J34" s="97" t="n"/>
-      <c r="K34" s="97" t="n"/>
-      <c r="L34" s="97" t="n"/>
-      <c r="M34" s="97" t="n"/>
-      <c r="N34" s="97" t="n"/>
-      <c r="O34" s="97" t="n"/>
-      <c r="P34" s="97" t="n"/>
-      <c r="Q34" s="97" t="n"/>
-      <c r="R34" s="97" t="n"/>
-      <c r="S34" s="97" t="n"/>
-      <c r="T34" s="97" t="n"/>
-      <c r="U34" s="97" t="n"/>
-      <c r="V34" s="97" t="n"/>
-      <c r="W34" s="97" t="n"/>
-      <c r="X34" s="97" t="n"/>
-      <c r="Y34" s="97" t="n"/>
-      <c r="Z34" s="97" t="n"/>
-      <c r="AA34" s="97" t="n"/>
-      <c r="AB34" s="97" t="n"/>
-      <c r="AC34" s="97" t="n"/>
-      <c r="AD34" s="97" t="n"/>
-      <c r="AE34" s="97" t="n"/>
-      <c r="AF34" s="97" t="n"/>
-      <c r="AG34" s="97" t="n"/>
-      <c r="AH34" s="97" t="n"/>
-      <c r="AI34" s="97" t="n"/>
-      <c r="AJ34" s="64" t="n"/>
-    </row>
-    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A35" s="5" t="inlineStr">
-        <is>
-          <t>COATING:</t>
-        </is>
-      </c>
-      <c r="B35" s="42" t="n"/>
-      <c r="C35" s="42" t="n"/>
-      <c r="D35" s="42" t="n"/>
-      <c r="E35" s="42" t="n"/>
-      <c r="F35" s="42" t="n"/>
-      <c r="G35" s="42" t="n"/>
-      <c r="H35" s="93" t="inlineStr">
-        <is>
-          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
-        </is>
-      </c>
-      <c r="I35" s="97" t="n"/>
-      <c r="J35" s="97" t="n"/>
-      <c r="K35" s="97" t="n"/>
-      <c r="L35" s="97" t="n"/>
-      <c r="M35" s="97" t="n"/>
-      <c r="N35" s="97" t="n"/>
-      <c r="O35" s="97" t="n"/>
-      <c r="P35" s="97" t="n"/>
-      <c r="Q35" s="97" t="n"/>
-      <c r="R35" s="97" t="n"/>
-      <c r="S35" s="97" t="n"/>
-      <c r="T35" s="97" t="n"/>
-      <c r="U35" s="97" t="n"/>
-      <c r="V35" s="97" t="n"/>
-      <c r="W35" s="97" t="n"/>
-      <c r="X35" s="97" t="n"/>
-      <c r="Y35" s="97" t="n"/>
-      <c r="Z35" s="97" t="n"/>
-      <c r="AA35" s="97" t="n"/>
-      <c r="AB35" s="97" t="n"/>
-      <c r="AC35" s="97" t="n"/>
-      <c r="AD35" s="97" t="n"/>
-      <c r="AE35" s="97" t="n"/>
-      <c r="AF35" s="97" t="n"/>
-      <c r="AG35" s="97" t="n"/>
-      <c r="AH35" s="97" t="n"/>
-      <c r="AI35" s="97" t="n"/>
-      <c r="AJ35" s="64" t="n"/>
-    </row>
-    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A36" s="5" t="n"/>
-      <c r="B36" s="42" t="n"/>
-      <c r="C36" s="42" t="n"/>
-      <c r="D36" s="42" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="42" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="93" t="n"/>
-      <c r="I36" s="97" t="n"/>
-      <c r="J36" s="97" t="n"/>
-      <c r="K36" s="97" t="n"/>
-      <c r="L36" s="97" t="n"/>
-      <c r="M36" s="97" t="n"/>
-      <c r="N36" s="97" t="n"/>
-      <c r="O36" s="97" t="n"/>
-      <c r="P36" s="97" t="n"/>
-      <c r="Q36" s="97" t="n"/>
-      <c r="R36" s="97" t="n"/>
-      <c r="S36" s="97" t="n"/>
-      <c r="T36" s="97" t="n"/>
-      <c r="U36" s="97" t="n"/>
-      <c r="V36" s="97" t="n"/>
-      <c r="W36" s="97" t="n"/>
-      <c r="X36" s="97" t="n"/>
-      <c r="Y36" s="97" t="n"/>
-      <c r="Z36" s="97" t="n"/>
-      <c r="AA36" s="97" t="n"/>
-      <c r="AB36" s="97" t="n"/>
-      <c r="AC36" s="97" t="n"/>
-      <c r="AD36" s="97" t="n"/>
-      <c r="AE36" s="97" t="n"/>
-      <c r="AF36" s="97" t="n"/>
-      <c r="AG36" s="97" t="n"/>
-      <c r="AH36" s="97" t="n"/>
-      <c r="AI36" s="97" t="n"/>
-      <c r="AJ36" s="64" t="n"/>
-    </row>
-    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A37" s="5" t="inlineStr">
-        <is>
-          <t>OTHER:</t>
-        </is>
-      </c>
-      <c r="B37" s="42" t="n"/>
-      <c r="C37" s="42" t="n"/>
-      <c r="D37" s="42" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="42" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="93" t="inlineStr">
-        <is>
-          <t>STEM: OS&amp;Y/RSRO, AISI 316 STEM TIP, SWIVEL NEEDLE, INTEGRAL SEATS</t>
-        </is>
-      </c>
-      <c r="I37" s="97" t="n"/>
-      <c r="J37" s="97" t="n"/>
-      <c r="K37" s="97" t="n"/>
-      <c r="L37" s="97" t="n"/>
-      <c r="M37" s="97" t="n"/>
-      <c r="N37" s="97" t="n"/>
-      <c r="O37" s="97" t="n"/>
-      <c r="P37" s="97" t="n"/>
-      <c r="Q37" s="97" t="n"/>
-      <c r="R37" s="97" t="n"/>
-      <c r="S37" s="97" t="n"/>
-      <c r="T37" s="97" t="n"/>
-      <c r="U37" s="97" t="n"/>
-      <c r="V37" s="97" t="n"/>
-      <c r="W37" s="97" t="n"/>
-      <c r="X37" s="97" t="n"/>
-      <c r="Y37" s="97" t="n"/>
-      <c r="Z37" s="97" t="n"/>
-      <c r="AA37" s="97" t="n"/>
-      <c r="AB37" s="97" t="n"/>
-      <c r="AC37" s="97" t="n"/>
-      <c r="AD37" s="97" t="n"/>
-      <c r="AE37" s="97" t="n"/>
-      <c r="AF37" s="97" t="n"/>
-      <c r="AG37" s="97" t="n"/>
-      <c r="AH37" s="97" t="n"/>
-      <c r="AI37" s="97" t="n"/>
-      <c r="AJ37" s="64" t="n"/>
-    </row>
-    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
-      <c r="A38" s="5" t="n"/>
-      <c r="B38" s="42" t="n"/>
-      <c r="C38" s="42" t="n"/>
-      <c r="D38" s="42" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="42" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="93" t="n"/>
-      <c r="I38" s="97" t="n"/>
-      <c r="J38" s="97" t="n"/>
-      <c r="K38" s="97" t="n"/>
-      <c r="L38" s="97" t="n"/>
-      <c r="M38" s="97" t="n"/>
-      <c r="N38" s="97" t="n"/>
-      <c r="O38" s="97" t="n"/>
-      <c r="P38" s="97" t="n"/>
-      <c r="Q38" s="97" t="n"/>
-      <c r="R38" s="97" t="n"/>
-      <c r="S38" s="97" t="n"/>
-      <c r="T38" s="97" t="n"/>
-      <c r="U38" s="97" t="n"/>
-      <c r="V38" s="97" t="n"/>
-      <c r="W38" s="97" t="n"/>
-      <c r="X38" s="97" t="n"/>
-      <c r="Y38" s="97" t="n"/>
-      <c r="Z38" s="97" t="n"/>
-      <c r="AA38" s="97" t="n"/>
-      <c r="AB38" s="97" t="n"/>
-      <c r="AC38" s="97" t="n"/>
-      <c r="AD38" s="97" t="n"/>
-      <c r="AE38" s="97" t="n"/>
-      <c r="AF38" s="97" t="n"/>
-      <c r="AG38" s="97" t="n"/>
-      <c r="AH38" s="97" t="n"/>
-      <c r="AI38" s="97" t="n"/>
-      <c r="AJ38" s="64" t="n"/>
-    </row>
-    <row r="39" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A39" s="5" t="n"/>
-      <c r="B39" s="61" t="n"/>
-      <c r="C39" s="61" t="n"/>
-      <c r="D39" s="61" t="n"/>
-      <c r="E39" s="61" t="n"/>
-      <c r="F39" s="61" t="n"/>
-      <c r="G39" s="61" t="n"/>
-      <c r="H39" s="62" t="n"/>
-      <c r="I39" s="62" t="n"/>
-      <c r="J39" s="62" t="n"/>
-      <c r="K39" s="62" t="n"/>
-      <c r="L39" s="62" t="n"/>
-      <c r="M39" s="62" t="n"/>
-      <c r="N39" s="62" t="n"/>
-      <c r="O39" s="62" t="n"/>
-      <c r="P39" s="62" t="n"/>
-      <c r="Q39" s="62" t="n"/>
-      <c r="R39" s="62" t="n"/>
-      <c r="S39" s="62" t="n"/>
-      <c r="T39" s="62" t="n"/>
-      <c r="U39" s="62" t="n"/>
-      <c r="V39" s="62" t="n"/>
-      <c r="W39" s="62" t="n"/>
-      <c r="X39" s="62" t="n"/>
-      <c r="Y39" s="62" t="n"/>
-      <c r="Z39" s="62" t="n"/>
-      <c r="AA39" s="62" t="n"/>
-      <c r="AB39" s="62" t="n"/>
-      <c r="AC39" s="62" t="n"/>
-      <c r="AD39" s="62" t="n"/>
-      <c r="AE39" s="62" t="n"/>
-      <c r="AF39" s="62" t="n"/>
-      <c r="AG39" s="62" t="n"/>
-      <c r="AH39" s="62" t="n"/>
-      <c r="AI39" s="62" t="n"/>
-      <c r="AJ39" s="10" t="n"/>
-    </row>
-    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A40" s="37" t="n"/>
-      <c r="B40" s="61" t="n"/>
-      <c r="C40" s="61" t="n"/>
-      <c r="D40" s="61" t="n"/>
-      <c r="E40" s="61" t="n"/>
-      <c r="F40" s="61" t="n"/>
-      <c r="G40" s="61" t="n"/>
-      <c r="H40" s="61" t="n"/>
-      <c r="I40" s="61" t="n"/>
-      <c r="J40" s="61" t="n"/>
-      <c r="K40" s="61" t="n"/>
-      <c r="L40" s="61" t="n"/>
-      <c r="M40" s="61" t="n"/>
-      <c r="N40" s="61" t="n"/>
-      <c r="O40" s="61" t="n"/>
-      <c r="P40" s="61" t="n"/>
-      <c r="Q40" s="61" t="n"/>
-      <c r="R40" s="61" t="n"/>
-      <c r="S40" s="63" t="inlineStr">
-        <is>
-          <t>N O T E S</t>
-        </is>
-      </c>
-      <c r="T40" s="61" t="n"/>
-      <c r="U40" s="61" t="n"/>
-      <c r="V40" s="61" t="n"/>
-      <c r="W40" s="61" t="n"/>
-      <c r="X40" s="61" t="n"/>
-      <c r="Y40" s="61" t="n"/>
-      <c r="Z40" s="61" t="n"/>
-      <c r="AA40" s="61" t="n"/>
-      <c r="AB40" s="61" t="n"/>
-      <c r="AC40" s="61" t="n"/>
-      <c r="AD40" s="61" t="n"/>
-      <c r="AE40" s="61" t="n"/>
-      <c r="AF40" s="61" t="n"/>
-      <c r="AG40" s="61" t="n"/>
-      <c r="AH40" s="61" t="n"/>
-      <c r="AI40" s="61" t="n"/>
-      <c r="AJ40" s="28" t="n"/>
-    </row>
-    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A41" s="38" t="n"/>
-      <c r="B41" s="33" t="n"/>
-      <c r="C41" s="33" t="n"/>
-      <c r="D41" s="33" t="n"/>
-      <c r="E41" s="33" t="n"/>
-      <c r="F41" s="33" t="n"/>
-      <c r="G41" s="33" t="n"/>
-      <c r="H41" s="33" t="n"/>
-      <c r="I41" s="33" t="n"/>
-      <c r="J41" s="33" t="n"/>
-      <c r="K41" s="33" t="n"/>
-      <c r="L41" s="33" t="n"/>
-      <c r="M41" s="33" t="n"/>
-      <c r="N41" s="33" t="n"/>
-      <c r="O41" s="33" t="n"/>
-      <c r="P41" s="33" t="n"/>
-      <c r="Q41" s="33" t="n"/>
-      <c r="R41" s="33" t="n"/>
-      <c r="S41" s="33" t="n"/>
-      <c r="T41" s="33" t="n"/>
-      <c r="U41" s="33" t="n"/>
-      <c r="V41" s="33" t="n"/>
-      <c r="W41" s="33" t="n"/>
-      <c r="X41" s="33" t="n"/>
-      <c r="Y41" s="33" t="n"/>
-      <c r="Z41" s="33" t="n"/>
-      <c r="AA41" s="33" t="n"/>
-      <c r="AB41" s="33" t="n"/>
-      <c r="AC41" s="33" t="n"/>
-      <c r="AD41" s="33" t="n"/>
-      <c r="AE41" s="33" t="n"/>
-      <c r="AF41" s="33" t="n"/>
-      <c r="AG41" s="33" t="n"/>
-      <c r="AH41" s="33" t="n"/>
-      <c r="AI41" s="33" t="n"/>
-      <c r="AJ41" s="34" t="n"/>
-    </row>
-    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 
-</t>
-        </is>
-      </c>
-      <c r="B42" s="91" t="inlineStr">
-        <is>
-          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
-        </is>
-      </c>
-      <c r="C42" s="97" t="n"/>
-      <c r="D42" s="97" t="n"/>
-      <c r="E42" s="97" t="n"/>
-      <c r="F42" s="97" t="n"/>
-      <c r="G42" s="97" t="n"/>
-      <c r="H42" s="97" t="n"/>
-      <c r="I42" s="97" t="n"/>
-      <c r="J42" s="97" t="n"/>
-      <c r="K42" s="97" t="n"/>
-      <c r="L42" s="97" t="n"/>
-      <c r="M42" s="97" t="n"/>
-      <c r="N42" s="97" t="n"/>
-      <c r="O42" s="97" t="n"/>
-      <c r="P42" s="97" t="n"/>
-      <c r="Q42" s="97" t="n"/>
-      <c r="R42" s="97" t="n"/>
-      <c r="S42" s="97" t="n"/>
-      <c r="T42" s="97" t="n"/>
-      <c r="U42" s="97" t="n"/>
-      <c r="V42" s="97" t="n"/>
-      <c r="W42" s="97" t="n"/>
-      <c r="X42" s="97" t="n"/>
-      <c r="Y42" s="97" t="n"/>
-      <c r="Z42" s="97" t="n"/>
-      <c r="AA42" s="97" t="n"/>
-      <c r="AB42" s="97" t="n"/>
-      <c r="AC42" s="97" t="n"/>
-      <c r="AD42" s="97" t="n"/>
-      <c r="AE42" s="97" t="n"/>
-      <c r="AF42" s="97" t="n"/>
-      <c r="AG42" s="97" t="n"/>
-      <c r="AH42" s="97" t="n"/>
-      <c r="AI42" s="97" t="n"/>
-      <c r="AJ42" s="34" t="n"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
-      <c r="C43" s="2" t="n"/>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
-      <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="n"/>
-      <c r="R43" s="2" t="n"/>
-      <c r="S43" s="2" t="n"/>
-      <c r="T43" s="2" t="n"/>
-      <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="n"/>
-      <c r="W43" s="2" t="n"/>
-      <c r="X43" s="2" t="n"/>
-      <c r="Y43" s="2" t="n"/>
-      <c r="Z43" s="2" t="n"/>
-      <c r="AA43" s="2" t="n"/>
-      <c r="AB43" s="2" t="n"/>
-      <c r="AC43" s="2" t="n"/>
-      <c r="AD43" s="2" t="n"/>
-      <c r="AE43" s="2" t="n"/>
-      <c r="AF43" s="2" t="n"/>
-      <c r="AG43" s="2" t="n"/>
-      <c r="AH43" s="2" t="n"/>
-      <c r="AI43" s="2" t="n"/>
-      <c r="AJ43" s="2" t="n"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="82" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="L12:V12"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H10:W10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="B44:AH44"/>
-    <mergeCell ref="B42:AI42"/>
-    <mergeCell ref="H31:AI31"/>
-    <mergeCell ref="H32:AI32"/>
-    <mergeCell ref="H33:AI33"/>
-    <mergeCell ref="H34:AI34"/>
-    <mergeCell ref="H35:AI35"/>
-    <mergeCell ref="H36:AI36"/>
-    <mergeCell ref="H37:AI37"/>
-    <mergeCell ref="H38:AI38"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="X27:AI27"/>
-    <mergeCell ref="L23:AI23"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AG22:AI22"/>
-    <mergeCell ref="A23:K23"/>
-  </mergeCells>
-  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
-</worksheet>
 </file>
--- a/output/hd.xlsx
+++ b/output/hd.xlsx
@@ -7,11 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="1" state="veryHidden" r:id="rId1"/>
-    <sheet name="BAV22A0F1C" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BAV24G0I1C" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="BAV24G0I1C (1)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CKV22A0B2B" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GAV22A0B2B" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BAV21A0F1C" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BAV21A0I1C" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BAV24G0I1C" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CKV21A0B2B" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GAV21A0B2B" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="GAV21A0B2B (1)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="GAV413C3J2G" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="GAV415J4J2G" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="GLV415J4J2G" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
@@ -425,7 +429,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="68"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="68">
@@ -637,6 +641,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,13 +1124,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,7 +1159,7 @@
       <c r="N1" s="12" t="n"/>
       <c r="O1" s="73" t="inlineStr">
         <is>
-          <t>BALL VALVE DATA SHEET</t>
+          <t>GLOBE VALVE DATA SHEET</t>
         </is>
       </c>
       <c r="P1" s="94" t="n"/>
@@ -1231,7 +1236,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>BAV22A0F1C</t>
+          <t>GLV415J4J2G</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -1277,7 +1282,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2-1/2</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -1327,7 +1332,2058 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS3SA1</t>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>FIRE WATER</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
+    </row>
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>ANGLE HOSE VALVE</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>300 PSI CWP</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr"/>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr"/>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>NPTFxNH</t>
+        </is>
+      </c>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>ASME B1.20.1 / NFPA 1963</t>
+        </is>
+      </c>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="80" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="n"/>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="80" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="n"/>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AJ15" s="98" t="n"/>
+    </row>
+    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="n"/>
+      <c r="P16" s="80" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="n"/>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="80" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="28" t="n"/>
+    </row>
+    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>TYPE OPERATOR :</t>
+        </is>
+      </c>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="69" t="inlineStr">
+        <is>
+          <t>HANDWHEEL OPERATOR</t>
+        </is>
+      </c>
+      <c r="I17" s="95" t="n"/>
+      <c r="J17" s="95" t="n"/>
+      <c r="K17" s="95" t="n"/>
+      <c r="L17" s="95" t="n"/>
+      <c r="M17" s="95" t="n"/>
+      <c r="N17" s="95" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr"/>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr">
+        <is>
+          <t>MSS SP-80</t>
+        </is>
+      </c>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr"/>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>200</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="52" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="52" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="89" t="inlineStr">
+        <is>
+          <t>ASTM B62 UNS C83600</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>TRIM:</t>
+        </is>
+      </c>
+      <c r="AA31" s="42" t="n"/>
+      <c r="AB31" s="42" t="n"/>
+      <c r="AC31" s="70" t="inlineStr"/>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="42" t="n"/>
+      <c r="Z32" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AA32" s="42" t="n"/>
+      <c r="AB32" s="42" t="n"/>
+      <c r="AC32" s="70" t="inlineStr">
+        <is>
+          <t>NON ASBESTOS ARAMID FIBERS WITH GRAPHITE</t>
+        </is>
+      </c>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>YOKE BEARINGS:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="86" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="I33" s="97" t="n"/>
+      <c r="J33" s="97" t="n"/>
+      <c r="K33" s="97" t="n"/>
+      <c r="L33" s="97" t="n"/>
+      <c r="M33" s="97" t="n"/>
+      <c r="N33" s="97" t="n"/>
+      <c r="O33" s="97" t="n"/>
+      <c r="P33" s="97" t="n"/>
+      <c r="Q33" s="97" t="n"/>
+      <c r="R33" s="97" t="n"/>
+      <c r="S33" s="97" t="n"/>
+      <c r="T33" s="97" t="n"/>
+      <c r="U33" s="97" t="n"/>
+      <c r="V33" s="97" t="n"/>
+      <c r="W33" s="97" t="n"/>
+      <c r="X33" s="97" t="n"/>
+      <c r="Y33" s="40" t="n"/>
+      <c r="Z33" s="81" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="AA33" s="42" t="n"/>
+      <c r="AB33" s="42" t="n"/>
+      <c r="AC33" s="70" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="87" t="inlineStr">
+        <is>
+          <t>BRONZE</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="87" t="inlineStr">
+        <is>
+          <t>DISC: RUBBER</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="87" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="n"/>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="87" t="n"/>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="87" t="inlineStr">
+        <is>
+          <t>UL LISTED / FM APPROVED, OUTLET WITH CAP AND CHAIN, RISING STEM, RENEWABLE DISC, INTEGRAL SEAT, DISC: BRONZE, SCREWED-IN BONNET</t>
+        </is>
+      </c>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A39" s="18" t="n"/>
+      <c r="B39" s="42" t="n"/>
+      <c r="C39" s="42" t="n"/>
+      <c r="D39" s="42" t="n"/>
+      <c r="E39" s="42" t="n"/>
+      <c r="F39" s="42" t="n"/>
+      <c r="G39" s="42" t="n"/>
+      <c r="H39" s="87" t="n"/>
+      <c r="I39" s="95" t="n"/>
+      <c r="J39" s="95" t="n"/>
+      <c r="K39" s="95" t="n"/>
+      <c r="L39" s="95" t="n"/>
+      <c r="M39" s="95" t="n"/>
+      <c r="N39" s="95" t="n"/>
+      <c r="O39" s="95" t="n"/>
+      <c r="P39" s="95" t="n"/>
+      <c r="Q39" s="95" t="n"/>
+      <c r="R39" s="95" t="n"/>
+      <c r="S39" s="95" t="n"/>
+      <c r="T39" s="95" t="n"/>
+      <c r="U39" s="95" t="n"/>
+      <c r="V39" s="95" t="n"/>
+      <c r="W39" s="95" t="n"/>
+      <c r="X39" s="95" t="n"/>
+      <c r="Y39" s="95" t="n"/>
+      <c r="Z39" s="95" t="n"/>
+      <c r="AA39" s="95" t="n"/>
+      <c r="AB39" s="95" t="n"/>
+      <c r="AC39" s="95" t="n"/>
+      <c r="AD39" s="95" t="n"/>
+      <c r="AE39" s="95" t="n"/>
+      <c r="AF39" s="95" t="n"/>
+      <c r="AG39" s="95" t="n"/>
+      <c r="AH39" s="95" t="n"/>
+      <c r="AI39" s="95" t="n"/>
+      <c r="AJ39" s="16" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A40" s="18" t="n"/>
+      <c r="B40" s="61" t="n"/>
+      <c r="C40" s="61" t="n"/>
+      <c r="D40" s="61" t="n"/>
+      <c r="E40" s="61" t="n"/>
+      <c r="F40" s="61" t="n"/>
+      <c r="G40" s="61" t="n"/>
+      <c r="H40" s="40" t="n"/>
+      <c r="I40" s="40" t="n"/>
+      <c r="J40" s="40" t="n"/>
+      <c r="K40" s="40" t="n"/>
+      <c r="L40" s="40" t="n"/>
+      <c r="M40" s="40" t="n"/>
+      <c r="N40" s="40" t="n"/>
+      <c r="O40" s="40" t="n"/>
+      <c r="P40" s="40" t="n"/>
+      <c r="Q40" s="40" t="n"/>
+      <c r="R40" s="40" t="n"/>
+      <c r="S40" s="40" t="n"/>
+      <c r="T40" s="40" t="n"/>
+      <c r="U40" s="40" t="n"/>
+      <c r="V40" s="40" t="n"/>
+      <c r="W40" s="40" t="n"/>
+      <c r="X40" s="40" t="n"/>
+      <c r="Y40" s="40" t="n"/>
+      <c r="Z40" s="40" t="n"/>
+      <c r="AA40" s="40" t="n"/>
+      <c r="AB40" s="40" t="n"/>
+      <c r="AC40" s="40" t="n"/>
+      <c r="AD40" s="40" t="n"/>
+      <c r="AE40" s="40" t="n"/>
+      <c r="AF40" s="40" t="n"/>
+      <c r="AG40" s="40" t="n"/>
+      <c r="AH40" s="40" t="n"/>
+      <c r="AI40" s="40" t="n"/>
+      <c r="AJ40" s="26" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A41" s="37" t="n"/>
+      <c r="B41" s="61" t="n"/>
+      <c r="C41" s="61" t="n"/>
+      <c r="D41" s="61" t="n"/>
+      <c r="E41" s="61" t="n"/>
+      <c r="F41" s="61" t="n"/>
+      <c r="G41" s="61" t="n"/>
+      <c r="H41" s="61" t="n"/>
+      <c r="I41" s="61" t="n"/>
+      <c r="J41" s="61" t="n"/>
+      <c r="K41" s="61" t="n"/>
+      <c r="L41" s="61" t="n"/>
+      <c r="M41" s="61" t="n"/>
+      <c r="N41" s="61" t="n"/>
+      <c r="O41" s="61" t="n"/>
+      <c r="P41" s="61" t="n"/>
+      <c r="Q41" s="61" t="n"/>
+      <c r="R41" s="61" t="n"/>
+      <c r="S41" s="59" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T41" s="61" t="n"/>
+      <c r="U41" s="61" t="n"/>
+      <c r="V41" s="61" t="n"/>
+      <c r="W41" s="61" t="n"/>
+      <c r="X41" s="61" t="n"/>
+      <c r="Y41" s="61" t="n"/>
+      <c r="Z41" s="61" t="n"/>
+      <c r="AA41" s="61" t="n"/>
+      <c r="AB41" s="61" t="n"/>
+      <c r="AC41" s="61" t="n"/>
+      <c r="AD41" s="61" t="n"/>
+      <c r="AE41" s="61" t="n"/>
+      <c r="AF41" s="61" t="n"/>
+      <c r="AG41" s="61" t="n"/>
+      <c r="AH41" s="61" t="n"/>
+      <c r="AI41" s="61" t="n"/>
+      <c r="AJ41" s="28" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A42" s="37" t="n"/>
+      <c r="B42" s="61" t="n"/>
+      <c r="C42" s="61" t="n"/>
+      <c r="D42" s="61" t="n"/>
+      <c r="E42" s="61" t="n"/>
+      <c r="F42" s="61" t="n"/>
+      <c r="G42" s="61" t="n"/>
+      <c r="H42" s="61" t="n"/>
+      <c r="I42" s="61" t="n"/>
+      <c r="J42" s="61" t="n"/>
+      <c r="K42" s="61" t="n"/>
+      <c r="L42" s="61" t="n"/>
+      <c r="M42" s="61" t="n"/>
+      <c r="N42" s="61" t="n"/>
+      <c r="O42" s="61" t="n"/>
+      <c r="P42" s="61" t="n"/>
+      <c r="Q42" s="61" t="n"/>
+      <c r="R42" s="61" t="n"/>
+      <c r="S42" s="61" t="n"/>
+      <c r="T42" s="61" t="n"/>
+      <c r="U42" s="61" t="n"/>
+      <c r="V42" s="61" t="n"/>
+      <c r="W42" s="61" t="n"/>
+      <c r="X42" s="61" t="n"/>
+      <c r="Y42" s="61" t="n"/>
+      <c r="Z42" s="61" t="n"/>
+      <c r="AA42" s="61" t="n"/>
+      <c r="AB42" s="61" t="n"/>
+      <c r="AC42" s="61" t="n"/>
+      <c r="AD42" s="61" t="n"/>
+      <c r="AE42" s="61" t="n"/>
+      <c r="AF42" s="61" t="n"/>
+      <c r="AG42" s="61" t="n"/>
+      <c r="AH42" s="61" t="n"/>
+      <c r="AI42" s="61" t="n"/>
+      <c r="AJ42" s="28" t="n"/>
+    </row>
+    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A43" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B43" s="88" t="inlineStr">
+        <is>
+          <t>Piping Class Doc: MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C43" s="97" t="n"/>
+      <c r="D43" s="97" t="n"/>
+      <c r="E43" s="97" t="n"/>
+      <c r="F43" s="97" t="n"/>
+      <c r="G43" s="97" t="n"/>
+      <c r="H43" s="97" t="n"/>
+      <c r="I43" s="97" t="n"/>
+      <c r="J43" s="97" t="n"/>
+      <c r="K43" s="97" t="n"/>
+      <c r="L43" s="97" t="n"/>
+      <c r="M43" s="97" t="n"/>
+      <c r="N43" s="97" t="n"/>
+      <c r="O43" s="97" t="n"/>
+      <c r="P43" s="97" t="n"/>
+      <c r="Q43" s="97" t="n"/>
+      <c r="R43" s="97" t="n"/>
+      <c r="S43" s="97" t="n"/>
+      <c r="T43" s="97" t="n"/>
+      <c r="U43" s="97" t="n"/>
+      <c r="V43" s="97" t="n"/>
+      <c r="W43" s="97" t="n"/>
+      <c r="X43" s="97" t="n"/>
+      <c r="Y43" s="97" t="n"/>
+      <c r="Z43" s="97" t="n"/>
+      <c r="AA43" s="97" t="n"/>
+      <c r="AB43" s="97" t="n"/>
+      <c r="AC43" s="97" t="n"/>
+      <c r="AD43" s="97" t="n"/>
+      <c r="AE43" s="97" t="n"/>
+      <c r="AF43" s="97" t="n"/>
+      <c r="AG43" s="97" t="n"/>
+      <c r="AH43" s="97" t="n"/>
+      <c r="AI43" s="97" t="n"/>
+      <c r="AJ43" s="99" t="n"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
+      <c r="R44" s="2" t="n"/>
+      <c r="S44" s="2" t="n"/>
+      <c r="T44" s="2" t="n"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="n"/>
+      <c r="W44" s="2" t="n"/>
+      <c r="X44" s="2" t="n"/>
+      <c r="Y44" s="2" t="n"/>
+      <c r="Z44" s="2" t="n"/>
+      <c r="AA44" s="2" t="n"/>
+      <c r="AB44" s="2" t="n"/>
+      <c r="AC44" s="2" t="n"/>
+      <c r="AD44" s="2" t="n"/>
+      <c r="AE44" s="2" t="n"/>
+      <c r="AF44" s="2" t="n"/>
+      <c r="AG44" s="2" t="n"/>
+      <c r="AH44" s="2" t="n"/>
+      <c r="AI44" s="2" t="n"/>
+      <c r="AJ44" s="2" t="n"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="B45" s="82" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="B45:AH45"/>
+    <mergeCell ref="B43:AJ43"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="H36:AI36"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="H32:X32"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="H33:X33"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="AC32:AI32"/>
+    <mergeCell ref="AC33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
+  </mergeCells>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="1.377952755905512" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="64"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>BALL VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>BAV21A0F1C</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -1541,7 +3597,7 @@
       <c r="G10" s="61" t="n"/>
       <c r="H10" s="69" t="inlineStr">
         <is>
-          <t>BALL VALVE, TRUNNION BALL</t>
+          <t>BALL VALVE, FLOATING BALL</t>
         </is>
       </c>
       <c r="I10" s="95" t="n"/>
@@ -1570,7 +3626,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -1915,7 +3971,7 @@
       <c r="G17" s="61" t="n"/>
       <c r="H17" s="69" t="inlineStr">
         <is>
-          <t>GEAR OPERATOR</t>
+          <t>LEVER OPERATOR</t>
         </is>
       </c>
       <c r="I17" s="95" t="n"/>
@@ -2221,7 +4277,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>740</v>
+        <v>285</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -2704,7 +4760,7 @@
       <c r="G34" s="42" t="n"/>
       <c r="H34" s="67" t="inlineStr">
         <is>
-          <t>ASTM A105N + ENP (3 MILS TO ASTM B733)</t>
+          <t>ASTM A105 + ENP (3 MILS TO ASTM B733)</t>
         </is>
       </c>
       <c r="I34" s="95" t="n"/>
@@ -2796,7 +4852,7 @@
       <c r="G36" s="42" t="n"/>
       <c r="H36" s="67" t="inlineStr">
         <is>
-          <t>RINGS: ASTM A105 + ENP (3 MILS TO ASTM B733), INSERTS: RPTFE</t>
+          <t>RINGS: RPTFE</t>
         </is>
       </c>
       <c r="I36" s="95" t="n"/>
@@ -2926,7 +4982,7 @@
       <c r="G39" s="42" t="n"/>
       <c r="H39" s="67" t="inlineStr">
         <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY. ORING: VITON, EMERGENCY SEALANT INJECTION POINT ON STEAM AND SEAT</t>
+          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY</t>
         </is>
       </c>
       <c r="I39" s="95" t="n"/>
@@ -3374,7 +5430,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>BAV24G0I1C</t>
+          <t>BAV21A0I1C</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -3420,7 +5476,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>3/4, 1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -3713,7 +5769,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -3744,7 +5800,11 @@
       <c r="I11" s="61" t="n"/>
       <c r="J11" s="61" t="n"/>
       <c r="K11" s="61" t="n"/>
-      <c r="L11" s="69" t="inlineStr"/>
+      <c r="L11" s="69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M11" s="95" t="n"/>
       <c r="N11" s="61" t="n"/>
       <c r="O11" s="61" t="n"/>
@@ -3756,7 +5816,11 @@
         </is>
       </c>
       <c r="S11" s="61" t="n"/>
-      <c r="T11" s="69" t="inlineStr"/>
+      <c r="T11" s="69" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
       <c r="U11" s="95" t="n"/>
       <c r="V11" s="61" t="n"/>
       <c r="W11" s="61" t="n"/>
@@ -3820,11 +5884,7 @@
         </is>
       </c>
       <c r="AC12" s="61" t="n"/>
-      <c r="AD12" s="68" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
+      <c r="AD12" s="68" t="inlineStr"/>
       <c r="AE12" s="95" t="n"/>
       <c r="AF12" s="95" t="n"/>
       <c r="AG12" s="95" t="n"/>
@@ -3895,7 +5955,11 @@
           <t>ASME B16.5</t>
         </is>
       </c>
-      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="Q14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R14" s="95" t="n"/>
       <c r="S14" s="95" t="n"/>
       <c r="T14" s="61" t="n"/>
@@ -3918,11 +5982,7 @@
         </is>
       </c>
       <c r="AE14" s="61" t="n"/>
-      <c r="AF14" s="68" t="inlineStr">
-        <is>
-          <t>MNF STD</t>
-        </is>
-      </c>
+      <c r="AF14" s="68" t="inlineStr"/>
       <c r="AG14" s="95" t="n"/>
       <c r="AH14" s="95" t="n"/>
       <c r="AI14" s="95" t="n"/>
@@ -4025,7 +6085,11 @@
       <c r="X16" s="61" t="n"/>
       <c r="Y16" s="55" t="n"/>
       <c r="Z16" s="61" t="n"/>
-      <c r="AA16" s="68" t="inlineStr"/>
+      <c r="AA16" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB16" s="95" t="n"/>
       <c r="AC16" s="95" t="n"/>
       <c r="AD16" s="61" t="n"/>
@@ -4446,11 +6510,7 @@
       <c r="Y25" s="61" t="n"/>
       <c r="Z25" s="61" t="n"/>
       <c r="AA25" s="61" t="n"/>
-      <c r="AB25" s="77" t="inlineStr">
-        <is>
-          <t>API 598</t>
-        </is>
-      </c>
+      <c r="AB25" s="77" t="inlineStr"/>
       <c r="AC25" s="95" t="n"/>
       <c r="AD25" s="95" t="n"/>
       <c r="AE25" s="24" t="n"/>
@@ -4699,7 +6759,7 @@
       <c r="G31" s="42" t="n"/>
       <c r="H31" s="67" t="inlineStr">
         <is>
-          <t>ASTM A105</t>
+          <t>ASTM A216 Gr.WCB</t>
         </is>
       </c>
       <c r="I31" s="95" t="n"/>
@@ -4751,7 +6811,7 @@
       <c r="G32" s="42" t="n"/>
       <c r="H32" s="67" t="inlineStr">
         <is>
-          <t>BOLTED CONNECTION: A193 Gr.B7/A194 Gr.2H</t>
+          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
         </is>
       </c>
       <c r="I32" s="95" t="n"/>
@@ -5065,7 +7125,7 @@
       <c r="G39" s="42" t="n"/>
       <c r="H39" s="67" t="inlineStr">
         <is>
-          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY, WITH 2 INTEGRAL WELDED PE NIPPLES</t>
+          <t>2 OR 3 PIECES SPLIT BODY SIDE ENTRY</t>
         </is>
       </c>
       <c r="I39" s="95" t="n"/>
@@ -5559,7 +7619,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>3/4, 1</t>
+          <t>3/4</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -5609,7 +7669,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS3SA1</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -6495,7 +8555,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>740</v>
+        <v>285</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -7652,7 +9712,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>CKV22A0B2B</t>
+          <t>CKV21A0B2B</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -7698,7 +9758,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8, 10, 14, 24</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -7748,7 +9808,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS3SA1</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -7991,7 +10051,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -8577,7 +10637,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>740</v>
+        <v>285</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -9659,7 +11719,7 @@
       <c r="G3" s="48" t="n"/>
       <c r="H3" s="74" t="inlineStr">
         <is>
-          <t>GAV22A0B2B</t>
+          <t>GAV21A0B2B</t>
         </is>
       </c>
       <c r="I3" s="95" t="n"/>
@@ -9705,7 +11765,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3, 6, 8</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -9755,7 +11815,7 @@
       <c r="G5" s="47" t="n"/>
       <c r="H5" s="69" t="inlineStr">
         <is>
-          <t>CS3SA1</t>
+          <t>CS2SA1</t>
         </is>
       </c>
       <c r="I5" s="95" t="n"/>
@@ -9998,7 +12058,7 @@
       </c>
       <c r="AC10" s="70" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AD10" s="95" t="n"/>
@@ -10290,7 +12350,7 @@
       <c r="G17" s="61" t="n"/>
       <c r="H17" s="69" t="inlineStr">
         <is>
-          <t>GEAR OPERATOR</t>
+          <t>HANDWHEEL OPERATOR</t>
         </is>
       </c>
       <c r="I17" s="95" t="n"/>
@@ -10592,7 +12652,7 @@
       <c r="F24" s="61" t="n"/>
       <c r="G24" s="61" t="n"/>
       <c r="H24" s="68" t="n">
-        <v>740</v>
+        <v>285</v>
       </c>
       <c r="I24" s="95" t="n"/>
       <c r="J24" s="95" t="n"/>
@@ -11256,6 +13316,6000 @@
       <c r="H38" s="67" t="inlineStr">
         <is>
           <t>FLEXIBLE WEDGE, STEM: OS&amp;Y/RSNRO</t>
+        </is>
+      </c>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A39" s="18" t="n"/>
+      <c r="B39" s="42" t="n"/>
+      <c r="C39" s="42" t="n"/>
+      <c r="D39" s="42" t="n"/>
+      <c r="E39" s="42" t="n"/>
+      <c r="F39" s="42" t="n"/>
+      <c r="G39" s="42" t="n"/>
+      <c r="H39" s="67" t="n"/>
+      <c r="I39" s="95" t="n"/>
+      <c r="J39" s="95" t="n"/>
+      <c r="K39" s="95" t="n"/>
+      <c r="L39" s="95" t="n"/>
+      <c r="M39" s="95" t="n"/>
+      <c r="N39" s="95" t="n"/>
+      <c r="O39" s="95" t="n"/>
+      <c r="P39" s="95" t="n"/>
+      <c r="Q39" s="95" t="n"/>
+      <c r="R39" s="95" t="n"/>
+      <c r="S39" s="95" t="n"/>
+      <c r="T39" s="95" t="n"/>
+      <c r="U39" s="95" t="n"/>
+      <c r="V39" s="95" t="n"/>
+      <c r="W39" s="95" t="n"/>
+      <c r="X39" s="95" t="n"/>
+      <c r="Y39" s="95" t="n"/>
+      <c r="Z39" s="95" t="n"/>
+      <c r="AA39" s="95" t="n"/>
+      <c r="AB39" s="95" t="n"/>
+      <c r="AC39" s="95" t="n"/>
+      <c r="AD39" s="95" t="n"/>
+      <c r="AE39" s="95" t="n"/>
+      <c r="AF39" s="95" t="n"/>
+      <c r="AG39" s="95" t="n"/>
+      <c r="AH39" s="95" t="n"/>
+      <c r="AI39" s="95" t="n"/>
+      <c r="AJ39" s="16" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A40" s="37" t="n"/>
+      <c r="B40" s="61" t="n"/>
+      <c r="C40" s="61" t="n"/>
+      <c r="D40" s="61" t="n"/>
+      <c r="E40" s="61" t="n"/>
+      <c r="F40" s="61" t="n"/>
+      <c r="G40" s="61" t="n"/>
+      <c r="H40" s="61" t="n"/>
+      <c r="I40" s="61" t="n"/>
+      <c r="J40" s="61" t="n"/>
+      <c r="K40" s="61" t="n"/>
+      <c r="L40" s="61" t="n"/>
+      <c r="M40" s="61" t="n"/>
+      <c r="N40" s="61" t="n"/>
+      <c r="O40" s="61" t="n"/>
+      <c r="P40" s="61" t="n"/>
+      <c r="Q40" s="61" t="n"/>
+      <c r="R40" s="61" t="n"/>
+      <c r="S40" s="61" t="n"/>
+      <c r="T40" s="61" t="n"/>
+      <c r="U40" s="61" t="n"/>
+      <c r="V40" s="61" t="n"/>
+      <c r="W40" s="61" t="n"/>
+      <c r="X40" s="61" t="n"/>
+      <c r="Y40" s="61" t="n"/>
+      <c r="Z40" s="61" t="n"/>
+      <c r="AA40" s="61" t="n"/>
+      <c r="AB40" s="61" t="n"/>
+      <c r="AC40" s="61" t="n"/>
+      <c r="AD40" s="61" t="n"/>
+      <c r="AE40" s="61" t="n"/>
+      <c r="AF40" s="61" t="n"/>
+      <c r="AG40" s="61" t="n"/>
+      <c r="AH40" s="61" t="n"/>
+      <c r="AI40" s="61" t="n"/>
+      <c r="AJ40" s="28" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A41" s="15" t="n"/>
+      <c r="B41" s="51" t="n"/>
+      <c r="C41" s="51" t="n"/>
+      <c r="D41" s="51" t="n"/>
+      <c r="E41" s="51" t="n"/>
+      <c r="F41" s="51" t="n"/>
+      <c r="G41" s="51" t="n"/>
+      <c r="H41" s="51" t="n"/>
+      <c r="I41" s="51" t="n"/>
+      <c r="J41" s="51" t="n"/>
+      <c r="K41" s="51" t="n"/>
+      <c r="L41" s="51" t="n"/>
+      <c r="M41" s="51" t="n"/>
+      <c r="N41" s="51" t="n"/>
+      <c r="O41" s="51" t="n"/>
+      <c r="P41" s="51" t="n"/>
+      <c r="Q41" s="51" t="n"/>
+      <c r="R41" s="51" t="n"/>
+      <c r="S41" s="52" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T41" s="51" t="n"/>
+      <c r="U41" s="51" t="n"/>
+      <c r="V41" s="51" t="n"/>
+      <c r="W41" s="51" t="n"/>
+      <c r="X41" s="51" t="n"/>
+      <c r="Y41" s="51" t="n"/>
+      <c r="Z41" s="51" t="n"/>
+      <c r="AA41" s="51" t="n"/>
+      <c r="AB41" s="51" t="n"/>
+      <c r="AC41" s="51" t="n"/>
+      <c r="AD41" s="51" t="n"/>
+      <c r="AE41" s="51" t="n"/>
+      <c r="AF41" s="51" t="n"/>
+      <c r="AG41" s="51" t="n"/>
+      <c r="AH41" s="51" t="n"/>
+      <c r="AI41" s="51" t="n"/>
+      <c r="AJ41" s="16" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A42" s="38" t="n"/>
+      <c r="B42" s="33" t="n"/>
+      <c r="C42" s="33" t="n"/>
+      <c r="D42" s="33" t="n"/>
+      <c r="E42" s="33" t="n"/>
+      <c r="F42" s="33" t="n"/>
+      <c r="G42" s="33" t="n"/>
+      <c r="H42" s="33" t="n"/>
+      <c r="I42" s="33" t="n"/>
+      <c r="J42" s="33" t="n"/>
+      <c r="K42" s="33" t="n"/>
+      <c r="L42" s="33" t="n"/>
+      <c r="M42" s="33" t="n"/>
+      <c r="N42" s="33" t="n"/>
+      <c r="O42" s="33" t="n"/>
+      <c r="P42" s="33" t="n"/>
+      <c r="Q42" s="33" t="n"/>
+      <c r="R42" s="33" t="n"/>
+      <c r="S42" s="33" t="n"/>
+      <c r="T42" s="33" t="n"/>
+      <c r="U42" s="33" t="n"/>
+      <c r="V42" s="33" t="n"/>
+      <c r="W42" s="33" t="n"/>
+      <c r="X42" s="33" t="n"/>
+      <c r="Y42" s="33" t="n"/>
+      <c r="Z42" s="33" t="n"/>
+      <c r="AA42" s="33" t="n"/>
+      <c r="AB42" s="33" t="n"/>
+      <c r="AC42" s="33" t="n"/>
+      <c r="AD42" s="33" t="n"/>
+      <c r="AE42" s="33" t="n"/>
+      <c r="AF42" s="33" t="n"/>
+      <c r="AG42" s="33" t="n"/>
+      <c r="AH42" s="33" t="n"/>
+      <c r="AI42" s="33" t="n"/>
+      <c r="AJ42" s="34" t="n"/>
+    </row>
+    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A43" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B43" s="23" t="inlineStr">
+        <is>
+          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C43" s="23" t="n"/>
+      <c r="D43" s="23" t="n"/>
+      <c r="E43" s="23" t="n"/>
+      <c r="F43" s="23" t="n"/>
+      <c r="G43" s="23" t="n"/>
+      <c r="H43" s="23" t="n"/>
+      <c r="I43" s="23" t="n"/>
+      <c r="J43" s="23" t="n"/>
+      <c r="K43" s="23" t="n"/>
+      <c r="L43" s="23" t="n"/>
+      <c r="M43" s="23" t="n"/>
+      <c r="N43" s="23" t="n"/>
+      <c r="O43" s="23" t="n"/>
+      <c r="P43" s="23" t="n"/>
+      <c r="Q43" s="23" t="n"/>
+      <c r="R43" s="23" t="n"/>
+      <c r="S43" s="23" t="n"/>
+      <c r="T43" s="23" t="n"/>
+      <c r="U43" s="23" t="n"/>
+      <c r="V43" s="23" t="n"/>
+      <c r="W43" s="23" t="n"/>
+      <c r="X43" s="23" t="n"/>
+      <c r="Y43" s="23" t="n"/>
+      <c r="Z43" s="23" t="n"/>
+      <c r="AA43" s="23" t="n"/>
+      <c r="AB43" s="23" t="n"/>
+      <c r="AC43" s="23" t="n"/>
+      <c r="AD43" s="23" t="n"/>
+      <c r="AE43" s="23" t="n"/>
+      <c r="AF43" s="23" t="n"/>
+      <c r="AG43" s="23" t="n"/>
+      <c r="AH43" s="23" t="n"/>
+      <c r="AI43" s="23" t="n"/>
+      <c r="AJ43" s="34" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="H32:AI32"/>
+    <mergeCell ref="H33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.7874015748031497" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="122" scale="69" fitToHeight="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AJ43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>GATE VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>GAV21A0B2B</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>14, 16</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS2SA1</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>HCN &amp; HCR</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
+    </row>
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>GATE VALVE</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr"/>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="80" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="n"/>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="80" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="n"/>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AJ15" s="98" t="n"/>
+    </row>
+    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="n"/>
+      <c r="P16" s="80" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="n"/>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="80" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="28" t="n"/>
+    </row>
+    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>TYPE OPERATOR :</t>
+        </is>
+      </c>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="69" t="inlineStr">
+        <is>
+          <t>GEAR OPERATOR</t>
+        </is>
+      </c>
+      <c r="I17" s="95" t="n"/>
+      <c r="J17" s="95" t="n"/>
+      <c r="K17" s="95" t="n"/>
+      <c r="L17" s="95" t="n"/>
+      <c r="M17" s="95" t="n"/>
+      <c r="N17" s="95" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr"/>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr"/>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr"/>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>285</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr">
+        <is>
+          <t>API 598</t>
+        </is>
+      </c>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="52" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="52" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="67" t="inlineStr">
+        <is>
+          <t>ASTM A216 Gr.WCB</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AC31" s="68" t="inlineStr">
+        <is>
+          <t>GRAPHITE</t>
+        </is>
+      </c>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="67" t="inlineStr">
+        <is>
+          <t>BOLTED BONNET: A193 Gr.B7/A194 Gr.2H, SPW: ASI 304/GRAPHITE</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="95" t="n"/>
+      <c r="Z32" s="95" t="n"/>
+      <c r="AA32" s="95" t="n"/>
+      <c r="AB32" s="95" t="n"/>
+      <c r="AC32" s="95" t="n"/>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="67" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="I33" s="95" t="n"/>
+      <c r="J33" s="95" t="n"/>
+      <c r="K33" s="95" t="n"/>
+      <c r="L33" s="95" t="n"/>
+      <c r="M33" s="95" t="n"/>
+      <c r="N33" s="95" t="n"/>
+      <c r="O33" s="95" t="n"/>
+      <c r="P33" s="95" t="n"/>
+      <c r="Q33" s="95" t="n"/>
+      <c r="R33" s="95" t="n"/>
+      <c r="S33" s="95" t="n"/>
+      <c r="T33" s="95" t="n"/>
+      <c r="U33" s="95" t="n"/>
+      <c r="V33" s="95" t="n"/>
+      <c r="W33" s="95" t="n"/>
+      <c r="X33" s="95" t="n"/>
+      <c r="Y33" s="95" t="n"/>
+      <c r="Z33" s="95" t="n"/>
+      <c r="AA33" s="95" t="n"/>
+      <c r="AB33" s="95" t="n"/>
+      <c r="AC33" s="95" t="n"/>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="67" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="67" t="inlineStr">
+        <is>
+          <t>RENEWABLE</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="67" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="n"/>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="67" t="n"/>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="67" t="inlineStr">
+        <is>
+          <t>FLEXIBLE WEDGE, STEM: OS&amp;Y/RSNRO</t>
+        </is>
+      </c>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A39" s="18" t="n"/>
+      <c r="B39" s="42" t="n"/>
+      <c r="C39" s="42" t="n"/>
+      <c r="D39" s="42" t="n"/>
+      <c r="E39" s="42" t="n"/>
+      <c r="F39" s="42" t="n"/>
+      <c r="G39" s="42" t="n"/>
+      <c r="H39" s="67" t="n"/>
+      <c r="I39" s="95" t="n"/>
+      <c r="J39" s="95" t="n"/>
+      <c r="K39" s="95" t="n"/>
+      <c r="L39" s="95" t="n"/>
+      <c r="M39" s="95" t="n"/>
+      <c r="N39" s="95" t="n"/>
+      <c r="O39" s="95" t="n"/>
+      <c r="P39" s="95" t="n"/>
+      <c r="Q39" s="95" t="n"/>
+      <c r="R39" s="95" t="n"/>
+      <c r="S39" s="95" t="n"/>
+      <c r="T39" s="95" t="n"/>
+      <c r="U39" s="95" t="n"/>
+      <c r="V39" s="95" t="n"/>
+      <c r="W39" s="95" t="n"/>
+      <c r="X39" s="95" t="n"/>
+      <c r="Y39" s="95" t="n"/>
+      <c r="Z39" s="95" t="n"/>
+      <c r="AA39" s="95" t="n"/>
+      <c r="AB39" s="95" t="n"/>
+      <c r="AC39" s="95" t="n"/>
+      <c r="AD39" s="95" t="n"/>
+      <c r="AE39" s="95" t="n"/>
+      <c r="AF39" s="95" t="n"/>
+      <c r="AG39" s="95" t="n"/>
+      <c r="AH39" s="95" t="n"/>
+      <c r="AI39" s="95" t="n"/>
+      <c r="AJ39" s="16" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A40" s="37" t="n"/>
+      <c r="B40" s="61" t="n"/>
+      <c r="C40" s="61" t="n"/>
+      <c r="D40" s="61" t="n"/>
+      <c r="E40" s="61" t="n"/>
+      <c r="F40" s="61" t="n"/>
+      <c r="G40" s="61" t="n"/>
+      <c r="H40" s="61" t="n"/>
+      <c r="I40" s="61" t="n"/>
+      <c r="J40" s="61" t="n"/>
+      <c r="K40" s="61" t="n"/>
+      <c r="L40" s="61" t="n"/>
+      <c r="M40" s="61" t="n"/>
+      <c r="N40" s="61" t="n"/>
+      <c r="O40" s="61" t="n"/>
+      <c r="P40" s="61" t="n"/>
+      <c r="Q40" s="61" t="n"/>
+      <c r="R40" s="61" t="n"/>
+      <c r="S40" s="61" t="n"/>
+      <c r="T40" s="61" t="n"/>
+      <c r="U40" s="61" t="n"/>
+      <c r="V40" s="61" t="n"/>
+      <c r="W40" s="61" t="n"/>
+      <c r="X40" s="61" t="n"/>
+      <c r="Y40" s="61" t="n"/>
+      <c r="Z40" s="61" t="n"/>
+      <c r="AA40" s="61" t="n"/>
+      <c r="AB40" s="61" t="n"/>
+      <c r="AC40" s="61" t="n"/>
+      <c r="AD40" s="61" t="n"/>
+      <c r="AE40" s="61" t="n"/>
+      <c r="AF40" s="61" t="n"/>
+      <c r="AG40" s="61" t="n"/>
+      <c r="AH40" s="61" t="n"/>
+      <c r="AI40" s="61" t="n"/>
+      <c r="AJ40" s="28" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A41" s="15" t="n"/>
+      <c r="B41" s="51" t="n"/>
+      <c r="C41" s="51" t="n"/>
+      <c r="D41" s="51" t="n"/>
+      <c r="E41" s="51" t="n"/>
+      <c r="F41" s="51" t="n"/>
+      <c r="G41" s="51" t="n"/>
+      <c r="H41" s="51" t="n"/>
+      <c r="I41" s="51" t="n"/>
+      <c r="J41" s="51" t="n"/>
+      <c r="K41" s="51" t="n"/>
+      <c r="L41" s="51" t="n"/>
+      <c r="M41" s="51" t="n"/>
+      <c r="N41" s="51" t="n"/>
+      <c r="O41" s="51" t="n"/>
+      <c r="P41" s="51" t="n"/>
+      <c r="Q41" s="51" t="n"/>
+      <c r="R41" s="51" t="n"/>
+      <c r="S41" s="52" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T41" s="51" t="n"/>
+      <c r="U41" s="51" t="n"/>
+      <c r="V41" s="51" t="n"/>
+      <c r="W41" s="51" t="n"/>
+      <c r="X41" s="51" t="n"/>
+      <c r="Y41" s="51" t="n"/>
+      <c r="Z41" s="51" t="n"/>
+      <c r="AA41" s="51" t="n"/>
+      <c r="AB41" s="51" t="n"/>
+      <c r="AC41" s="51" t="n"/>
+      <c r="AD41" s="51" t="n"/>
+      <c r="AE41" s="51" t="n"/>
+      <c r="AF41" s="51" t="n"/>
+      <c r="AG41" s="51" t="n"/>
+      <c r="AH41" s="51" t="n"/>
+      <c r="AI41" s="51" t="n"/>
+      <c r="AJ41" s="16" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A42" s="38" t="n"/>
+      <c r="B42" s="33" t="n"/>
+      <c r="C42" s="33" t="n"/>
+      <c r="D42" s="33" t="n"/>
+      <c r="E42" s="33" t="n"/>
+      <c r="F42" s="33" t="n"/>
+      <c r="G42" s="33" t="n"/>
+      <c r="H42" s="33" t="n"/>
+      <c r="I42" s="33" t="n"/>
+      <c r="J42" s="33" t="n"/>
+      <c r="K42" s="33" t="n"/>
+      <c r="L42" s="33" t="n"/>
+      <c r="M42" s="33" t="n"/>
+      <c r="N42" s="33" t="n"/>
+      <c r="O42" s="33" t="n"/>
+      <c r="P42" s="33" t="n"/>
+      <c r="Q42" s="33" t="n"/>
+      <c r="R42" s="33" t="n"/>
+      <c r="S42" s="33" t="n"/>
+      <c r="T42" s="33" t="n"/>
+      <c r="U42" s="33" t="n"/>
+      <c r="V42" s="33" t="n"/>
+      <c r="W42" s="33" t="n"/>
+      <c r="X42" s="33" t="n"/>
+      <c r="Y42" s="33" t="n"/>
+      <c r="Z42" s="33" t="n"/>
+      <c r="AA42" s="33" t="n"/>
+      <c r="AB42" s="33" t="n"/>
+      <c r="AC42" s="33" t="n"/>
+      <c r="AD42" s="33" t="n"/>
+      <c r="AE42" s="33" t="n"/>
+      <c r="AF42" s="33" t="n"/>
+      <c r="AG42" s="33" t="n"/>
+      <c r="AH42" s="33" t="n"/>
+      <c r="AI42" s="33" t="n"/>
+      <c r="AJ42" s="34" t="n"/>
+    </row>
+    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A43" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B43" s="23" t="inlineStr">
+        <is>
+          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C43" s="23" t="n"/>
+      <c r="D43" s="23" t="n"/>
+      <c r="E43" s="23" t="n"/>
+      <c r="F43" s="23" t="n"/>
+      <c r="G43" s="23" t="n"/>
+      <c r="H43" s="23" t="n"/>
+      <c r="I43" s="23" t="n"/>
+      <c r="J43" s="23" t="n"/>
+      <c r="K43" s="23" t="n"/>
+      <c r="L43" s="23" t="n"/>
+      <c r="M43" s="23" t="n"/>
+      <c r="N43" s="23" t="n"/>
+      <c r="O43" s="23" t="n"/>
+      <c r="P43" s="23" t="n"/>
+      <c r="Q43" s="23" t="n"/>
+      <c r="R43" s="23" t="n"/>
+      <c r="S43" s="23" t="n"/>
+      <c r="T43" s="23" t="n"/>
+      <c r="U43" s="23" t="n"/>
+      <c r="V43" s="23" t="n"/>
+      <c r="W43" s="23" t="n"/>
+      <c r="X43" s="23" t="n"/>
+      <c r="Y43" s="23" t="n"/>
+      <c r="Z43" s="23" t="n"/>
+      <c r="AA43" s="23" t="n"/>
+      <c r="AB43" s="23" t="n"/>
+      <c r="AC43" s="23" t="n"/>
+      <c r="AD43" s="23" t="n"/>
+      <c r="AE43" s="23" t="n"/>
+      <c r="AF43" s="23" t="n"/>
+      <c r="AG43" s="23" t="n"/>
+      <c r="AH43" s="23" t="n"/>
+      <c r="AI43" s="23" t="n"/>
+      <c r="AJ43" s="34" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="H32:AI32"/>
+    <mergeCell ref="H33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.7874015748031497" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="122" scale="69" fitToHeight="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AJ43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>GATE VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>GAV413C3J2G</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>2, 3, 14, 16</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>FIRE WATER</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
+    </row>
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>GATE VALVE</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr"/>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>ASME B16.1</t>
+        </is>
+      </c>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="80" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="n"/>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="80" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="n"/>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AJ15" s="98" t="n"/>
+    </row>
+    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="n"/>
+      <c r="P16" s="80" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="n"/>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="80" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="28" t="n"/>
+    </row>
+    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>TYPE OPERATOR :</t>
+        </is>
+      </c>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="69" t="inlineStr">
+        <is>
+          <t>HANDWHEEL OPERATOR</t>
+        </is>
+      </c>
+      <c r="I17" s="95" t="n"/>
+      <c r="J17" s="95" t="n"/>
+      <c r="K17" s="95" t="n"/>
+      <c r="L17" s="95" t="n"/>
+      <c r="M17" s="95" t="n"/>
+      <c r="N17" s="95" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr"/>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr">
+        <is>
+          <t>MSS SP-128 TYPE II</t>
+        </is>
+      </c>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr"/>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>200</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="52" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="52" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="67" t="inlineStr">
+        <is>
+          <t>ASTM A536 GRADE 65-45-12</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AC31" s="68" t="inlineStr">
+        <is>
+          <t>EPDM</t>
+        </is>
+      </c>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="67" t="inlineStr">
+        <is>
+          <t>NON METALLIC FLAT GASKET EPDM</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="95" t="n"/>
+      <c r="Z32" s="95" t="n"/>
+      <c r="AA32" s="95" t="n"/>
+      <c r="AB32" s="95" t="n"/>
+      <c r="AC32" s="95" t="n"/>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="67" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="I33" s="95" t="n"/>
+      <c r="J33" s="95" t="n"/>
+      <c r="K33" s="95" t="n"/>
+      <c r="L33" s="95" t="n"/>
+      <c r="M33" s="95" t="n"/>
+      <c r="N33" s="95" t="n"/>
+      <c r="O33" s="95" t="n"/>
+      <c r="P33" s="95" t="n"/>
+      <c r="Q33" s="95" t="n"/>
+      <c r="R33" s="95" t="n"/>
+      <c r="S33" s="95" t="n"/>
+      <c r="T33" s="95" t="n"/>
+      <c r="U33" s="95" t="n"/>
+      <c r="V33" s="95" t="n"/>
+      <c r="W33" s="95" t="n"/>
+      <c r="X33" s="95" t="n"/>
+      <c r="Y33" s="95" t="n"/>
+      <c r="Z33" s="95" t="n"/>
+      <c r="AA33" s="95" t="n"/>
+      <c r="AB33" s="95" t="n"/>
+      <c r="AC33" s="95" t="n"/>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="67" t="inlineStr">
+        <is>
+          <t>BRONZE</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="67" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="67" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="n"/>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="67" t="n"/>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="67" t="inlineStr">
+        <is>
+          <t>UL LISTED / FM APPROVED, SOLID WEDGE, WEDGE: DUCTILE IRON EPDM ENCAPSULATED, STEM: OS&amp;Y/RSNRO, BONNET BOLTING AS PER MANUFACTURER'S STD WITH SURFACE PROTECTION</t>
+        </is>
+      </c>
+      <c r="I38" s="95" t="n"/>
+      <c r="J38" s="95" t="n"/>
+      <c r="K38" s="95" t="n"/>
+      <c r="L38" s="95" t="n"/>
+      <c r="M38" s="95" t="n"/>
+      <c r="N38" s="95" t="n"/>
+      <c r="O38" s="95" t="n"/>
+      <c r="P38" s="95" t="n"/>
+      <c r="Q38" s="95" t="n"/>
+      <c r="R38" s="95" t="n"/>
+      <c r="S38" s="95" t="n"/>
+      <c r="T38" s="95" t="n"/>
+      <c r="U38" s="95" t="n"/>
+      <c r="V38" s="95" t="n"/>
+      <c r="W38" s="95" t="n"/>
+      <c r="X38" s="95" t="n"/>
+      <c r="Y38" s="95" t="n"/>
+      <c r="Z38" s="95" t="n"/>
+      <c r="AA38" s="95" t="n"/>
+      <c r="AB38" s="95" t="n"/>
+      <c r="AC38" s="95" t="n"/>
+      <c r="AD38" s="95" t="n"/>
+      <c r="AE38" s="95" t="n"/>
+      <c r="AF38" s="95" t="n"/>
+      <c r="AG38" s="95" t="n"/>
+      <c r="AH38" s="95" t="n"/>
+      <c r="AI38" s="95" t="n"/>
+      <c r="AJ38" s="16" t="n"/>
+    </row>
+    <row r="39" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A39" s="18" t="n"/>
+      <c r="B39" s="42" t="n"/>
+      <c r="C39" s="42" t="n"/>
+      <c r="D39" s="42" t="n"/>
+      <c r="E39" s="42" t="n"/>
+      <c r="F39" s="42" t="n"/>
+      <c r="G39" s="42" t="n"/>
+      <c r="H39" s="67" t="n"/>
+      <c r="I39" s="95" t="n"/>
+      <c r="J39" s="95" t="n"/>
+      <c r="K39" s="95" t="n"/>
+      <c r="L39" s="95" t="n"/>
+      <c r="M39" s="95" t="n"/>
+      <c r="N39" s="95" t="n"/>
+      <c r="O39" s="95" t="n"/>
+      <c r="P39" s="95" t="n"/>
+      <c r="Q39" s="95" t="n"/>
+      <c r="R39" s="95" t="n"/>
+      <c r="S39" s="95" t="n"/>
+      <c r="T39" s="95" t="n"/>
+      <c r="U39" s="95" t="n"/>
+      <c r="V39" s="95" t="n"/>
+      <c r="W39" s="95" t="n"/>
+      <c r="X39" s="95" t="n"/>
+      <c r="Y39" s="95" t="n"/>
+      <c r="Z39" s="95" t="n"/>
+      <c r="AA39" s="95" t="n"/>
+      <c r="AB39" s="95" t="n"/>
+      <c r="AC39" s="95" t="n"/>
+      <c r="AD39" s="95" t="n"/>
+      <c r="AE39" s="95" t="n"/>
+      <c r="AF39" s="95" t="n"/>
+      <c r="AG39" s="95" t="n"/>
+      <c r="AH39" s="95" t="n"/>
+      <c r="AI39" s="95" t="n"/>
+      <c r="AJ39" s="16" t="n"/>
+    </row>
+    <row r="40" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A40" s="37" t="n"/>
+      <c r="B40" s="61" t="n"/>
+      <c r="C40" s="61" t="n"/>
+      <c r="D40" s="61" t="n"/>
+      <c r="E40" s="61" t="n"/>
+      <c r="F40" s="61" t="n"/>
+      <c r="G40" s="61" t="n"/>
+      <c r="H40" s="61" t="n"/>
+      <c r="I40" s="61" t="n"/>
+      <c r="J40" s="61" t="n"/>
+      <c r="K40" s="61" t="n"/>
+      <c r="L40" s="61" t="n"/>
+      <c r="M40" s="61" t="n"/>
+      <c r="N40" s="61" t="n"/>
+      <c r="O40" s="61" t="n"/>
+      <c r="P40" s="61" t="n"/>
+      <c r="Q40" s="61" t="n"/>
+      <c r="R40" s="61" t="n"/>
+      <c r="S40" s="61" t="n"/>
+      <c r="T40" s="61" t="n"/>
+      <c r="U40" s="61" t="n"/>
+      <c r="V40" s="61" t="n"/>
+      <c r="W40" s="61" t="n"/>
+      <c r="X40" s="61" t="n"/>
+      <c r="Y40" s="61" t="n"/>
+      <c r="Z40" s="61" t="n"/>
+      <c r="AA40" s="61" t="n"/>
+      <c r="AB40" s="61" t="n"/>
+      <c r="AC40" s="61" t="n"/>
+      <c r="AD40" s="61" t="n"/>
+      <c r="AE40" s="61" t="n"/>
+      <c r="AF40" s="61" t="n"/>
+      <c r="AG40" s="61" t="n"/>
+      <c r="AH40" s="61" t="n"/>
+      <c r="AI40" s="61" t="n"/>
+      <c r="AJ40" s="28" t="n"/>
+    </row>
+    <row r="41" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A41" s="15" t="n"/>
+      <c r="B41" s="51" t="n"/>
+      <c r="C41" s="51" t="n"/>
+      <c r="D41" s="51" t="n"/>
+      <c r="E41" s="51" t="n"/>
+      <c r="F41" s="51" t="n"/>
+      <c r="G41" s="51" t="n"/>
+      <c r="H41" s="51" t="n"/>
+      <c r="I41" s="51" t="n"/>
+      <c r="J41" s="51" t="n"/>
+      <c r="K41" s="51" t="n"/>
+      <c r="L41" s="51" t="n"/>
+      <c r="M41" s="51" t="n"/>
+      <c r="N41" s="51" t="n"/>
+      <c r="O41" s="51" t="n"/>
+      <c r="P41" s="51" t="n"/>
+      <c r="Q41" s="51" t="n"/>
+      <c r="R41" s="51" t="n"/>
+      <c r="S41" s="52" t="inlineStr">
+        <is>
+          <t>N O T E S</t>
+        </is>
+      </c>
+      <c r="T41" s="51" t="n"/>
+      <c r="U41" s="51" t="n"/>
+      <c r="V41" s="51" t="n"/>
+      <c r="W41" s="51" t="n"/>
+      <c r="X41" s="51" t="n"/>
+      <c r="Y41" s="51" t="n"/>
+      <c r="Z41" s="51" t="n"/>
+      <c r="AA41" s="51" t="n"/>
+      <c r="AB41" s="51" t="n"/>
+      <c r="AC41" s="51" t="n"/>
+      <c r="AD41" s="51" t="n"/>
+      <c r="AE41" s="51" t="n"/>
+      <c r="AF41" s="51" t="n"/>
+      <c r="AG41" s="51" t="n"/>
+      <c r="AH41" s="51" t="n"/>
+      <c r="AI41" s="51" t="n"/>
+      <c r="AJ41" s="16" t="n"/>
+    </row>
+    <row r="42" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A42" s="38" t="n"/>
+      <c r="B42" s="33" t="n"/>
+      <c r="C42" s="33" t="n"/>
+      <c r="D42" s="33" t="n"/>
+      <c r="E42" s="33" t="n"/>
+      <c r="F42" s="33" t="n"/>
+      <c r="G42" s="33" t="n"/>
+      <c r="H42" s="33" t="n"/>
+      <c r="I42" s="33" t="n"/>
+      <c r="J42" s="33" t="n"/>
+      <c r="K42" s="33" t="n"/>
+      <c r="L42" s="33" t="n"/>
+      <c r="M42" s="33" t="n"/>
+      <c r="N42" s="33" t="n"/>
+      <c r="O42" s="33" t="n"/>
+      <c r="P42" s="33" t="n"/>
+      <c r="Q42" s="33" t="n"/>
+      <c r="R42" s="33" t="n"/>
+      <c r="S42" s="33" t="n"/>
+      <c r="T42" s="33" t="n"/>
+      <c r="U42" s="33" t="n"/>
+      <c r="V42" s="33" t="n"/>
+      <c r="W42" s="33" t="n"/>
+      <c r="X42" s="33" t="n"/>
+      <c r="Y42" s="33" t="n"/>
+      <c r="Z42" s="33" t="n"/>
+      <c r="AA42" s="33" t="n"/>
+      <c r="AB42" s="33" t="n"/>
+      <c r="AC42" s="33" t="n"/>
+      <c r="AD42" s="33" t="n"/>
+      <c r="AE42" s="33" t="n"/>
+      <c r="AF42" s="33" t="n"/>
+      <c r="AG42" s="33" t="n"/>
+      <c r="AH42" s="33" t="n"/>
+      <c r="AI42" s="33" t="n"/>
+      <c r="AJ42" s="34" t="n"/>
+    </row>
+    <row r="43" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A43" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 
+</t>
+        </is>
+      </c>
+      <c r="B43" s="23" t="inlineStr">
+        <is>
+          <t>Piping Class Doc. No.MTU-ES-01 V1</t>
+        </is>
+      </c>
+      <c r="C43" s="23" t="n"/>
+      <c r="D43" s="23" t="n"/>
+      <c r="E43" s="23" t="n"/>
+      <c r="F43" s="23" t="n"/>
+      <c r="G43" s="23" t="n"/>
+      <c r="H43" s="23" t="n"/>
+      <c r="I43" s="23" t="n"/>
+      <c r="J43" s="23" t="n"/>
+      <c r="K43" s="23" t="n"/>
+      <c r="L43" s="23" t="n"/>
+      <c r="M43" s="23" t="n"/>
+      <c r="N43" s="23" t="n"/>
+      <c r="O43" s="23" t="n"/>
+      <c r="P43" s="23" t="n"/>
+      <c r="Q43" s="23" t="n"/>
+      <c r="R43" s="23" t="n"/>
+      <c r="S43" s="23" t="n"/>
+      <c r="T43" s="23" t="n"/>
+      <c r="U43" s="23" t="n"/>
+      <c r="V43" s="23" t="n"/>
+      <c r="W43" s="23" t="n"/>
+      <c r="X43" s="23" t="n"/>
+      <c r="Y43" s="23" t="n"/>
+      <c r="Z43" s="23" t="n"/>
+      <c r="AA43" s="23" t="n"/>
+      <c r="AB43" s="23" t="n"/>
+      <c r="AC43" s="23" t="n"/>
+      <c r="AD43" s="23" t="n"/>
+      <c r="AE43" s="23" t="n"/>
+      <c r="AF43" s="23" t="n"/>
+      <c r="AG43" s="23" t="n"/>
+      <c r="AH43" s="23" t="n"/>
+      <c r="AI43" s="23" t="n"/>
+      <c r="AJ43" s="34" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="H10:W10"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="L12:V12"/>
+    <mergeCell ref="H39:AI39"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="H31:X31"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="H37:AI37"/>
+    <mergeCell ref="H38:AI38"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="AG22:AI22"/>
+    <mergeCell ref="L23:AI23"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="X27:AI27"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="H32:AI32"/>
+    <mergeCell ref="H33:AI33"/>
+    <mergeCell ref="H34:AI34"/>
+    <mergeCell ref="H35:AI35"/>
+    <mergeCell ref="H36:AI36"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.7874015748031497" bottom="0.7874015748031497" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="122" scale="69" fitToHeight="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AJ43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col width="3.5703125" customWidth="1" style="14" min="1" max="36"/>
+    <col width="2.7109375" customWidth="1" style="14" min="37" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="73" t="inlineStr">
+        <is>
+          <t>GATE VALVE DATA SHEET</t>
+        </is>
+      </c>
+      <c r="P1" s="94" t="n"/>
+      <c r="Q1" s="94" t="n"/>
+      <c r="R1" s="94" t="n"/>
+      <c r="S1" s="94" t="n"/>
+      <c r="T1" s="94" t="n"/>
+      <c r="U1" s="94" t="n"/>
+      <c r="V1" s="94" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
+      <c r="AA1" s="12" t="n"/>
+      <c r="AB1" s="12" t="n"/>
+      <c r="AC1" s="12" t="n"/>
+      <c r="AD1" s="12" t="n"/>
+      <c r="AE1" s="12" t="n"/>
+      <c r="AF1" s="12" t="n"/>
+      <c r="AG1" s="12" t="n"/>
+      <c r="AH1" s="12" t="n"/>
+      <c r="AI1" s="12" t="n"/>
+      <c r="AJ1" s="13" t="n"/>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A2" s="37" t="n"/>
+      <c r="B2" s="61" t="n"/>
+      <c r="C2" s="61" t="n"/>
+      <c r="D2" s="61" t="n"/>
+      <c r="E2" s="61" t="n"/>
+      <c r="F2" s="61" t="n"/>
+      <c r="G2" s="61" t="n"/>
+      <c r="H2" s="61" t="n"/>
+      <c r="I2" s="61" t="n"/>
+      <c r="J2" s="61" t="n"/>
+      <c r="K2" s="61" t="n"/>
+      <c r="L2" s="61" t="n"/>
+      <c r="M2" s="61" t="n"/>
+      <c r="N2" s="61" t="n"/>
+      <c r="O2" s="61" t="n"/>
+      <c r="P2" s="61" t="n"/>
+      <c r="Q2" s="47" t="n"/>
+      <c r="R2" s="61" t="n"/>
+      <c r="S2" s="61" t="n"/>
+      <c r="T2" s="61" t="n"/>
+      <c r="U2" s="61" t="n"/>
+      <c r="V2" s="61" t="n"/>
+      <c r="W2" s="61" t="n"/>
+      <c r="X2" s="61" t="n"/>
+      <c r="Y2" s="61" t="n"/>
+      <c r="Z2" s="61" t="n"/>
+      <c r="AA2" s="61" t="n"/>
+      <c r="AB2" s="61" t="n"/>
+      <c r="AC2" s="61" t="n"/>
+      <c r="AD2" s="61" t="n"/>
+      <c r="AE2" s="61" t="n"/>
+      <c r="AF2" s="61" t="n"/>
+      <c r="AG2" s="61" t="n"/>
+      <c r="AH2" s="61" t="n"/>
+      <c r="AI2" s="61" t="n"/>
+      <c r="AJ2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>TAG. No.</t>
+        </is>
+      </c>
+      <c r="B3" s="48" t="n"/>
+      <c r="C3" s="48" t="n"/>
+      <c r="D3" s="48" t="n"/>
+      <c r="E3" s="48" t="n"/>
+      <c r="F3" s="48" t="n"/>
+      <c r="G3" s="48" t="n"/>
+      <c r="H3" s="74" t="inlineStr">
+        <is>
+          <t>GAV415J4J2G</t>
+        </is>
+      </c>
+      <c r="I3" s="95" t="n"/>
+      <c r="J3" s="95" t="n"/>
+      <c r="K3" s="95" t="n"/>
+      <c r="L3" s="61" t="n"/>
+      <c r="M3" s="61" t="n"/>
+      <c r="N3" s="61" t="n"/>
+      <c r="O3" s="61" t="n"/>
+      <c r="P3" s="48" t="n"/>
+      <c r="Q3" s="48" t="n"/>
+      <c r="R3" s="48" t="n"/>
+      <c r="S3" s="48" t="n"/>
+      <c r="T3" s="48" t="n"/>
+      <c r="U3" s="48" t="n"/>
+      <c r="V3" s="48" t="n"/>
+      <c r="W3" s="48" t="n"/>
+      <c r="X3" s="48" t="n"/>
+      <c r="Y3" s="48" t="n"/>
+      <c r="Z3" s="48" t="n"/>
+      <c r="AA3" s="48" t="n"/>
+      <c r="AB3" s="48" t="n"/>
+      <c r="AC3" s="48" t="n"/>
+      <c r="AD3" s="48" t="n"/>
+      <c r="AE3" s="48" t="n"/>
+      <c r="AF3" s="48" t="n"/>
+      <c r="AG3" s="48" t="n"/>
+      <c r="AH3" s="48" t="n"/>
+      <c r="AI3" s="48" t="n"/>
+      <c r="AJ3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>SIZE :</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n"/>
+      <c r="C4" s="61" t="n"/>
+      <c r="D4" s="61" t="n"/>
+      <c r="E4" s="61" t="n"/>
+      <c r="F4" s="61" t="n"/>
+      <c r="G4" s="61" t="n"/>
+      <c r="H4" s="96" t="inlineStr">
+        <is>
+          <t>2-1/2</t>
+        </is>
+      </c>
+      <c r="I4" s="97" t="n"/>
+      <c r="J4" s="97" t="n"/>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="L4" s="61" t="n"/>
+      <c r="M4" s="61" t="n"/>
+      <c r="N4" s="61" t="n"/>
+      <c r="O4" s="61" t="n"/>
+      <c r="P4" s="61" t="n"/>
+      <c r="Q4" s="61" t="n"/>
+      <c r="R4" s="61" t="n"/>
+      <c r="S4" s="61" t="n"/>
+      <c r="T4" s="61" t="n"/>
+      <c r="U4" s="61" t="n"/>
+      <c r="V4" s="61" t="n"/>
+      <c r="W4" s="61" t="n"/>
+      <c r="X4" s="61" t="n"/>
+      <c r="Y4" s="61" t="n"/>
+      <c r="Z4" s="61" t="n"/>
+      <c r="AA4" s="61" t="n"/>
+      <c r="AB4" s="61" t="n"/>
+      <c r="AC4" s="61" t="n"/>
+      <c r="AD4" s="61" t="n"/>
+      <c r="AE4" s="61" t="n"/>
+      <c r="AF4" s="61" t="n"/>
+      <c r="AG4" s="61" t="n"/>
+      <c r="AH4" s="61" t="n"/>
+      <c r="AI4" s="50" t="n"/>
+      <c r="AJ4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A5" s="18" t="inlineStr">
+        <is>
+          <t>PIPING CLASS :</t>
+        </is>
+      </c>
+      <c r="B5" s="47" t="n"/>
+      <c r="C5" s="47" t="n"/>
+      <c r="D5" s="47" t="n"/>
+      <c r="E5" s="47" t="n"/>
+      <c r="F5" s="47" t="n"/>
+      <c r="G5" s="47" t="n"/>
+      <c r="H5" s="69" t="inlineStr">
+        <is>
+          <t>CS1SC2</t>
+        </is>
+      </c>
+      <c r="I5" s="95" t="n"/>
+      <c r="J5" s="95" t="n"/>
+      <c r="K5" s="95" t="n"/>
+      <c r="L5" s="95" t="n"/>
+      <c r="M5" s="95" t="n"/>
+      <c r="N5" s="95" t="n"/>
+      <c r="O5" s="47" t="n"/>
+      <c r="P5" s="47" t="n"/>
+      <c r="Q5" s="47" t="n"/>
+      <c r="R5" s="47" t="n"/>
+      <c r="S5" s="47" t="n"/>
+      <c r="T5" s="47" t="n"/>
+      <c r="U5" s="47" t="n"/>
+      <c r="V5" s="61" t="n"/>
+      <c r="W5" s="24" t="inlineStr">
+        <is>
+          <t>PLANT LOCATION:</t>
+        </is>
+      </c>
+      <c r="X5" s="61" t="n"/>
+      <c r="Y5" s="61" t="n"/>
+      <c r="Z5" s="61" t="n"/>
+      <c r="AA5" s="61" t="n"/>
+      <c r="AB5" s="76" t="n"/>
+      <c r="AC5" s="95" t="n"/>
+      <c r="AD5" s="95" t="n"/>
+      <c r="AE5" s="95" t="n"/>
+      <c r="AF5" s="95" t="n"/>
+      <c r="AG5" s="95" t="n"/>
+      <c r="AH5" s="95" t="n"/>
+      <c r="AI5" s="95" t="n"/>
+      <c r="AJ5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>SERVICE (Note 1):</t>
+        </is>
+      </c>
+      <c r="B6" s="61" t="n"/>
+      <c r="C6" s="61" t="n"/>
+      <c r="D6" s="61" t="n"/>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="61" t="n"/>
+      <c r="G6" s="61" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
+        <is>
+          <t>FIRE WATER</t>
+        </is>
+      </c>
+      <c r="I6" s="95" t="n"/>
+      <c r="J6" s="95" t="n"/>
+      <c r="K6" s="95" t="n"/>
+      <c r="L6" s="95" t="n"/>
+      <c r="M6" s="95" t="n"/>
+      <c r="N6" s="95" t="n"/>
+      <c r="O6" s="95" t="n"/>
+      <c r="P6" s="95" t="n"/>
+      <c r="Q6" s="95" t="n"/>
+      <c r="R6" s="95" t="n"/>
+      <c r="S6" s="95" t="n"/>
+      <c r="T6" s="95" t="n"/>
+      <c r="U6" s="95" t="n"/>
+      <c r="V6" s="95" t="n"/>
+      <c r="W6" s="95" t="n"/>
+      <c r="X6" s="95" t="n"/>
+      <c r="Y6" s="95" t="n"/>
+      <c r="Z6" s="95" t="n"/>
+      <c r="AA6" s="95" t="n"/>
+      <c r="AB6" s="95" t="n"/>
+      <c r="AC6" s="95" t="n"/>
+      <c r="AD6" s="95" t="n"/>
+      <c r="AE6" s="95" t="n"/>
+      <c r="AF6" s="95" t="n"/>
+      <c r="AG6" s="95" t="n"/>
+      <c r="AH6" s="95" t="n"/>
+      <c r="AI6" s="95" t="n"/>
+      <c r="AJ6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="61" t="n"/>
+      <c r="C7" s="61" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="61" t="n"/>
+      <c r="G7" s="61" t="n"/>
+      <c r="H7" s="61" t="n"/>
+      <c r="I7" s="61" t="n"/>
+      <c r="J7" s="61" t="n"/>
+      <c r="K7" s="61" t="n"/>
+      <c r="L7" s="61" t="n"/>
+      <c r="M7" s="61" t="n"/>
+      <c r="N7" s="61" t="n"/>
+      <c r="O7" s="61" t="n"/>
+      <c r="P7" s="61" t="n"/>
+      <c r="Q7" s="61" t="n"/>
+      <c r="R7" s="61" t="n"/>
+      <c r="S7" s="61" t="n"/>
+      <c r="T7" s="61" t="n"/>
+      <c r="U7" s="61" t="n"/>
+      <c r="V7" s="61" t="n"/>
+      <c r="W7" s="61" t="n"/>
+      <c r="X7" s="61" t="n"/>
+      <c r="Y7" s="61" t="n"/>
+      <c r="Z7" s="61" t="n"/>
+      <c r="AA7" s="61" t="n"/>
+      <c r="AB7" s="61" t="n"/>
+      <c r="AC7" s="61" t="n"/>
+      <c r="AD7" s="61" t="n"/>
+      <c r="AE7" s="61" t="n"/>
+      <c r="AF7" s="61" t="n"/>
+      <c r="AG7" s="61" t="n"/>
+      <c r="AH7" s="61" t="n"/>
+      <c r="AI7" s="61" t="n"/>
+      <c r="AJ7" s="28" t="n"/>
+    </row>
+    <row r="8" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="51" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="51" t="n"/>
+      <c r="E8" s="51" t="n"/>
+      <c r="F8" s="51" t="n"/>
+      <c r="G8" s="51" t="n"/>
+      <c r="H8" s="51" t="n"/>
+      <c r="I8" s="51" t="n"/>
+      <c r="J8" s="51" t="n"/>
+      <c r="K8" s="51" t="n"/>
+      <c r="L8" s="51" t="n"/>
+      <c r="M8" s="51" t="n"/>
+      <c r="N8" s="51" t="n"/>
+      <c r="O8" s="51" t="n"/>
+      <c r="P8" s="51" t="n"/>
+      <c r="Q8" s="51" t="n"/>
+      <c r="R8" s="51" t="n"/>
+      <c r="S8" s="52" t="inlineStr">
+        <is>
+          <t>M E C H A N I C A L</t>
+        </is>
+      </c>
+      <c r="T8" s="51" t="n"/>
+      <c r="U8" s="51" t="n"/>
+      <c r="V8" s="51" t="n"/>
+      <c r="W8" s="51" t="n"/>
+      <c r="X8" s="51" t="n"/>
+      <c r="Y8" s="51" t="n"/>
+      <c r="Z8" s="51" t="n"/>
+      <c r="AA8" s="51" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="51" t="n"/>
+      <c r="AD8" s="51" t="n"/>
+      <c r="AE8" s="51" t="n"/>
+      <c r="AF8" s="51" t="n"/>
+      <c r="AG8" s="51" t="n"/>
+      <c r="AH8" s="51" t="n"/>
+      <c r="AI8" s="51" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+    </row>
+    <row r="9" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="61" t="n"/>
+      <c r="C9" s="61" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="61" t="n"/>
+      <c r="G9" s="61" t="n"/>
+      <c r="H9" s="61" t="n"/>
+      <c r="I9" s="61" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="61" t="n"/>
+      <c r="L9" s="61" t="n"/>
+      <c r="M9" s="61" t="n"/>
+      <c r="N9" s="61" t="n"/>
+      <c r="O9" s="61" t="n"/>
+      <c r="P9" s="61" t="n"/>
+      <c r="Q9" s="61" t="n"/>
+      <c r="R9" s="61" t="n"/>
+      <c r="S9" s="61" t="n"/>
+      <c r="T9" s="61" t="n"/>
+      <c r="U9" s="61" t="n"/>
+      <c r="V9" s="61" t="n"/>
+      <c r="W9" s="61" t="n"/>
+      <c r="X9" s="61" t="n"/>
+      <c r="Y9" s="61" t="n"/>
+      <c r="Z9" s="61" t="n"/>
+      <c r="AA9" s="61" t="n"/>
+      <c r="AB9" s="61" t="n"/>
+      <c r="AC9" s="61" t="n"/>
+      <c r="AD9" s="61" t="n"/>
+      <c r="AE9" s="61" t="n"/>
+      <c r="AF9" s="61" t="n"/>
+      <c r="AG9" s="61" t="n"/>
+      <c r="AH9" s="61" t="n"/>
+      <c r="AI9" s="61" t="n"/>
+      <c r="AJ9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>VALVE TYPE :</t>
+        </is>
+      </c>
+      <c r="B10" s="61" t="n"/>
+      <c r="C10" s="61" t="n"/>
+      <c r="D10" s="61" t="n"/>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="69" t="inlineStr">
+        <is>
+          <t>HOSE GATE VALVE</t>
+        </is>
+      </c>
+      <c r="I10" s="95" t="n"/>
+      <c r="J10" s="95" t="n"/>
+      <c r="K10" s="95" t="n"/>
+      <c r="L10" s="95" t="n"/>
+      <c r="M10" s="95" t="n"/>
+      <c r="N10" s="95" t="n"/>
+      <c r="O10" s="95" t="n"/>
+      <c r="P10" s="95" t="n"/>
+      <c r="Q10" s="95" t="n"/>
+      <c r="R10" s="95" t="n"/>
+      <c r="S10" s="95" t="n"/>
+      <c r="T10" s="95" t="n"/>
+      <c r="U10" s="95" t="n"/>
+      <c r="V10" s="95" t="n"/>
+      <c r="W10" s="95" t="n"/>
+      <c r="X10" s="61" t="n"/>
+      <c r="Y10" s="61" t="n"/>
+      <c r="Z10" s="61" t="n"/>
+      <c r="AA10" s="61" t="n"/>
+      <c r="AB10" s="49" t="inlineStr">
+        <is>
+          <t>RATING / CLASS:</t>
+        </is>
+      </c>
+      <c r="AC10" s="70" t="inlineStr">
+        <is>
+          <t>300 PSI CWP</t>
+        </is>
+      </c>
+      <c r="AD10" s="95" t="n"/>
+      <c r="AE10" s="95" t="n"/>
+      <c r="AF10" s="95" t="n"/>
+      <c r="AG10" s="95" t="n"/>
+      <c r="AH10" s="95" t="n"/>
+      <c r="AI10" s="95" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>END CONNECTIONS:</t>
+        </is>
+      </c>
+      <c r="B11" s="61" t="n"/>
+      <c r="C11" s="61" t="n"/>
+      <c r="D11" s="61" t="n"/>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="61" t="n"/>
+      <c r="G11" s="61" t="n"/>
+      <c r="H11" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLANGED </t>
+        </is>
+      </c>
+      <c r="I11" s="61" t="n"/>
+      <c r="J11" s="61" t="n"/>
+      <c r="K11" s="61" t="n"/>
+      <c r="L11" s="69" t="inlineStr"/>
+      <c r="M11" s="95" t="n"/>
+      <c r="N11" s="61" t="n"/>
+      <c r="O11" s="61" t="n"/>
+      <c r="P11" s="61" t="n"/>
+      <c r="Q11" s="61" t="n"/>
+      <c r="R11" s="49" t="inlineStr">
+        <is>
+          <t>FACING:</t>
+        </is>
+      </c>
+      <c r="S11" s="61" t="n"/>
+      <c r="T11" s="69" t="inlineStr"/>
+      <c r="U11" s="95" t="n"/>
+      <c r="V11" s="61" t="n"/>
+      <c r="W11" s="61" t="n"/>
+      <c r="X11" s="61" t="n"/>
+      <c r="Y11" s="61" t="n"/>
+      <c r="Z11" s="61" t="n"/>
+      <c r="AA11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOCKETWELD </t>
+        </is>
+      </c>
+      <c r="AB11" s="61" t="n"/>
+      <c r="AC11" s="71" t="inlineStr"/>
+      <c r="AD11" s="95" t="n"/>
+      <c r="AE11" s="66" t="inlineStr">
+        <is>
+          <t>SCREWED</t>
+        </is>
+      </c>
+      <c r="AF11" s="66" t="n"/>
+      <c r="AG11" s="66" t="n"/>
+      <c r="AH11" s="72" t="inlineStr"/>
+      <c r="AI11" s="95" t="n"/>
+      <c r="AJ11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A12" s="37" t="n"/>
+      <c r="B12" s="61" t="n"/>
+      <c r="C12" s="61" t="n"/>
+      <c r="D12" s="61" t="n"/>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="61" t="n"/>
+      <c r="G12" s="61" t="n"/>
+      <c r="H12" s="54" t="inlineStr">
+        <is>
+          <t>BUTTWELD</t>
+        </is>
+      </c>
+      <c r="I12" s="61" t="n"/>
+      <c r="J12" s="61" t="n"/>
+      <c r="K12" s="61" t="n"/>
+      <c r="L12" s="68" t="inlineStr"/>
+      <c r="M12" s="95" t="n"/>
+      <c r="N12" s="95" t="n"/>
+      <c r="O12" s="95" t="n"/>
+      <c r="P12" s="95" t="n"/>
+      <c r="Q12" s="95" t="n"/>
+      <c r="R12" s="95" t="n"/>
+      <c r="S12" s="95" t="n"/>
+      <c r="T12" s="95" t="n"/>
+      <c r="U12" s="95" t="n"/>
+      <c r="V12" s="95" t="n"/>
+      <c r="W12" s="61" t="n"/>
+      <c r="X12" s="61" t="n"/>
+      <c r="Y12" s="61" t="n"/>
+      <c r="Z12" s="61" t="n"/>
+      <c r="AA12" s="61" t="n"/>
+      <c r="AB12" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTHER </t>
+        </is>
+      </c>
+      <c r="AC12" s="61" t="n"/>
+      <c r="AD12" s="68" t="inlineStr">
+        <is>
+          <t>NPTFxNH</t>
+        </is>
+      </c>
+      <c r="AE12" s="95" t="n"/>
+      <c r="AF12" s="95" t="n"/>
+      <c r="AG12" s="95" t="n"/>
+      <c r="AH12" s="95" t="n"/>
+      <c r="AI12" s="95" t="n"/>
+      <c r="AJ12" s="16" t="n"/>
+    </row>
+    <row r="13" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A13" s="37" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="61" t="n"/>
+      <c r="K13" s="61" t="n"/>
+      <c r="L13" s="61" t="n"/>
+      <c r="M13" s="61" t="n"/>
+      <c r="N13" s="61" t="n"/>
+      <c r="O13" s="61" t="n"/>
+      <c r="P13" s="61" t="n"/>
+      <c r="Q13" s="61" t="n"/>
+      <c r="R13" s="61" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="61" t="n"/>
+      <c r="U13" s="61" t="n"/>
+      <c r="V13" s="61" t="n"/>
+      <c r="W13" s="61" t="n"/>
+      <c r="X13" s="61" t="n"/>
+      <c r="Y13" s="61" t="n"/>
+      <c r="Z13" s="61" t="n"/>
+      <c r="AA13" s="61" t="n"/>
+      <c r="AB13" s="53" t="n"/>
+      <c r="AC13" s="61" t="n"/>
+      <c r="AD13" s="61" t="n"/>
+      <c r="AE13" s="61" t="n"/>
+      <c r="AF13" s="61" t="n"/>
+      <c r="AG13" s="61" t="n"/>
+      <c r="AH13" s="61" t="n"/>
+      <c r="AI13" s="61" t="n"/>
+      <c r="AJ13" s="16" t="n"/>
+    </row>
+    <row r="14" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>ENDS SIZE &amp; PRESSURE CLASS PER:</t>
+        </is>
+      </c>
+      <c r="B14" s="61" t="n"/>
+      <c r="C14" s="61" t="n"/>
+      <c r="D14" s="61" t="n"/>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="61" t="n"/>
+      <c r="G14" s="61" t="n"/>
+      <c r="H14" s="61" t="n"/>
+      <c r="I14" s="61" t="n"/>
+      <c r="J14" s="61" t="n"/>
+      <c r="K14" s="61" t="n"/>
+      <c r="L14" s="61" t="n"/>
+      <c r="M14" s="61" t="n"/>
+      <c r="N14" s="61" t="n"/>
+      <c r="O14" s="61" t="n"/>
+      <c r="P14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.5</t>
+        </is>
+      </c>
+      <c r="Q14" s="68" t="inlineStr"/>
+      <c r="R14" s="95" t="n"/>
+      <c r="S14" s="95" t="n"/>
+      <c r="T14" s="61" t="n"/>
+      <c r="U14" s="61" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="61" t="n"/>
+      <c r="X14" s="53" t="inlineStr">
+        <is>
+          <t>ASME B16.11</t>
+        </is>
+      </c>
+      <c r="Y14" s="68" t="inlineStr"/>
+      <c r="Z14" s="95" t="n"/>
+      <c r="AA14" s="95" t="n"/>
+      <c r="AB14" s="61" t="n"/>
+      <c r="AC14" s="61" t="n"/>
+      <c r="AD14" s="24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AE14" s="61" t="n"/>
+      <c r="AF14" s="68" t="inlineStr">
+        <is>
+          <t>ASME B1.20.1 / NFPA 1963</t>
+        </is>
+      </c>
+      <c r="AG14" s="95" t="n"/>
+      <c r="AH14" s="95" t="n"/>
+      <c r="AI14" s="95" t="n"/>
+      <c r="AJ14" s="16" t="n"/>
+    </row>
+    <row r="15" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A15" s="18" t="n"/>
+      <c r="B15" s="61" t="n"/>
+      <c r="C15" s="61" t="n"/>
+      <c r="D15" s="61" t="n"/>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="61" t="n"/>
+      <c r="G15" s="61" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="61" t="n"/>
+      <c r="J15" s="80" t="n"/>
+      <c r="P15" s="61" t="n"/>
+      <c r="Q15" s="81" t="n"/>
+      <c r="R15" s="61" t="n"/>
+      <c r="S15" s="61" t="n"/>
+      <c r="T15" s="80" t="n"/>
+      <c r="Y15" s="61" t="n"/>
+      <c r="Z15" s="24" t="n"/>
+      <c r="AA15" s="61" t="n"/>
+      <c r="AB15" s="61" t="n"/>
+      <c r="AC15" s="61" t="n"/>
+      <c r="AD15" s="61" t="n"/>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AJ15" s="98" t="n"/>
+    </row>
+    <row r="16" hidden="1" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A16" s="18" t="n"/>
+      <c r="B16" s="61" t="n"/>
+      <c r="C16" s="61" t="n"/>
+      <c r="D16" s="61" t="n"/>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="61" t="n"/>
+      <c r="G16" s="61" t="n"/>
+      <c r="H16" s="61" t="n"/>
+      <c r="I16" s="61" t="n"/>
+      <c r="J16" s="61" t="n"/>
+      <c r="K16" s="61" t="n"/>
+      <c r="L16" s="61" t="n"/>
+      <c r="M16" s="61" t="n"/>
+      <c r="N16" s="61" t="n"/>
+      <c r="O16" s="49" t="n"/>
+      <c r="P16" s="80" t="n"/>
+      <c r="S16" s="61" t="n"/>
+      <c r="T16" s="61" t="n"/>
+      <c r="U16" s="24" t="n"/>
+      <c r="V16" s="61" t="n"/>
+      <c r="W16" s="61" t="n"/>
+      <c r="X16" s="61" t="n"/>
+      <c r="Y16" s="55" t="n"/>
+      <c r="Z16" s="61" t="n"/>
+      <c r="AA16" s="80" t="n"/>
+      <c r="AD16" s="61" t="n"/>
+      <c r="AE16" s="61" t="n"/>
+      <c r="AF16" s="61" t="n"/>
+      <c r="AG16" s="61" t="n"/>
+      <c r="AH16" s="61" t="n"/>
+      <c r="AI16" s="61" t="n"/>
+      <c r="AJ16" s="28" t="n"/>
+    </row>
+    <row r="17" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>TYPE OPERATOR :</t>
+        </is>
+      </c>
+      <c r="B17" s="61" t="n"/>
+      <c r="C17" s="61" t="n"/>
+      <c r="D17" s="61" t="n"/>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="61" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="69" t="inlineStr">
+        <is>
+          <t>HANDWHEEL OPERATOR</t>
+        </is>
+      </c>
+      <c r="I17" s="95" t="n"/>
+      <c r="J17" s="95" t="n"/>
+      <c r="K17" s="95" t="n"/>
+      <c r="L17" s="95" t="n"/>
+      <c r="M17" s="95" t="n"/>
+      <c r="N17" s="95" t="n"/>
+      <c r="O17" s="61" t="n"/>
+      <c r="P17" s="61" t="n"/>
+      <c r="Q17" s="61" t="n"/>
+      <c r="R17" s="61" t="n"/>
+      <c r="S17" s="61" t="n"/>
+      <c r="T17" s="61" t="n"/>
+      <c r="U17" s="61" t="n"/>
+      <c r="V17" s="61" t="n"/>
+      <c r="W17" s="61" t="n"/>
+      <c r="X17" s="61" t="n"/>
+      <c r="Y17" s="61" t="n"/>
+      <c r="Z17" s="61" t="n"/>
+      <c r="AA17" s="61" t="n"/>
+      <c r="AB17" s="61" t="n"/>
+      <c r="AC17" s="61" t="n"/>
+      <c r="AD17" s="61" t="n"/>
+      <c r="AE17" s="61" t="n"/>
+      <c r="AF17" s="61" t="n"/>
+      <c r="AG17" s="61" t="n"/>
+      <c r="AH17" s="61" t="n"/>
+      <c r="AI17" s="61" t="n"/>
+      <c r="AJ17" s="28" t="n"/>
+    </row>
+    <row r="18" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A18" s="37" t="n"/>
+      <c r="B18" s="61" t="n"/>
+      <c r="C18" s="61" t="n"/>
+      <c r="D18" s="61" t="n"/>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="61" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="61" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="61" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="61" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="61" t="n"/>
+      <c r="O18" s="61" t="n"/>
+      <c r="P18" s="61" t="n"/>
+      <c r="Q18" s="61" t="n"/>
+      <c r="R18" s="61" t="n"/>
+      <c r="S18" s="61" t="n"/>
+      <c r="T18" s="61" t="n"/>
+      <c r="U18" s="61" t="n"/>
+      <c r="V18" s="61" t="n"/>
+      <c r="W18" s="61" t="n"/>
+      <c r="X18" s="61" t="n"/>
+      <c r="Y18" s="55" t="n"/>
+      <c r="Z18" s="61" t="n"/>
+      <c r="AA18" s="61" t="n"/>
+      <c r="AB18" s="61" t="n"/>
+      <c r="AC18" s="61" t="n"/>
+      <c r="AD18" s="61" t="n"/>
+      <c r="AE18" s="61" t="n"/>
+      <c r="AF18" s="61" t="n"/>
+      <c r="AG18" s="61" t="n"/>
+      <c r="AH18" s="61" t="n"/>
+      <c r="AI18" s="61" t="n"/>
+      <c r="AJ18" s="28" t="n"/>
+    </row>
+    <row r="19" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="51" t="n"/>
+      <c r="C19" s="51" t="n"/>
+      <c r="D19" s="51" t="n"/>
+      <c r="E19" s="51" t="n"/>
+      <c r="F19" s="51" t="n"/>
+      <c r="G19" s="51" t="n"/>
+      <c r="H19" s="51" t="n"/>
+      <c r="I19" s="51" t="n"/>
+      <c r="J19" s="51" t="n"/>
+      <c r="K19" s="51" t="n"/>
+      <c r="L19" s="51" t="n"/>
+      <c r="M19" s="51" t="n"/>
+      <c r="N19" s="51" t="n"/>
+      <c r="O19" s="51" t="n"/>
+      <c r="P19" s="51" t="n"/>
+      <c r="Q19" s="51" t="n"/>
+      <c r="R19" s="51" t="n"/>
+      <c r="S19" s="52" t="inlineStr">
+        <is>
+          <t>D E S I G N</t>
+        </is>
+      </c>
+      <c r="T19" s="51" t="n"/>
+      <c r="U19" s="51" t="n"/>
+      <c r="V19" s="51" t="n"/>
+      <c r="W19" s="51" t="n"/>
+      <c r="X19" s="51" t="n"/>
+      <c r="Y19" s="51" t="n"/>
+      <c r="Z19" s="51" t="n"/>
+      <c r="AA19" s="51" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="51" t="n"/>
+      <c r="AD19" s="51" t="n"/>
+      <c r="AE19" s="51" t="n"/>
+      <c r="AF19" s="51" t="n"/>
+      <c r="AG19" s="51" t="n"/>
+      <c r="AH19" s="51" t="n"/>
+      <c r="AI19" s="51" t="n"/>
+      <c r="AJ19" s="16" t="n"/>
+    </row>
+    <row r="20" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A20" s="37" t="n"/>
+      <c r="B20" s="61" t="n"/>
+      <c r="C20" s="61" t="n"/>
+      <c r="D20" s="61" t="n"/>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="61" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="61" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="61" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="61" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="61" t="n"/>
+      <c r="Q20" s="61" t="n"/>
+      <c r="R20" s="61" t="n"/>
+      <c r="S20" s="61" t="n"/>
+      <c r="T20" s="61" t="n"/>
+      <c r="U20" s="61" t="n"/>
+      <c r="V20" s="61" t="n"/>
+      <c r="W20" s="61" t="n"/>
+      <c r="X20" s="61" t="n"/>
+      <c r="Y20" s="61" t="n"/>
+      <c r="Z20" s="61" t="n"/>
+      <c r="AA20" s="61" t="n"/>
+      <c r="AB20" s="61" t="n"/>
+      <c r="AC20" s="61" t="n"/>
+      <c r="AD20" s="61" t="n"/>
+      <c r="AE20" s="61" t="n"/>
+      <c r="AF20" s="61" t="n"/>
+      <c r="AG20" s="61" t="n"/>
+      <c r="AH20" s="61" t="n"/>
+      <c r="AI20" s="61" t="n"/>
+      <c r="AJ20" s="28" t="n"/>
+    </row>
+    <row r="21" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>APPLICABLE PIPING</t>
+        </is>
+      </c>
+      <c r="B21" s="61" t="n"/>
+      <c r="C21" s="61" t="n"/>
+      <c r="D21" s="61" t="n"/>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="61" t="n"/>
+      <c r="H21" s="61" t="n"/>
+      <c r="I21" s="61" t="n"/>
+      <c r="J21" s="61" t="n"/>
+      <c r="K21" s="61" t="n"/>
+      <c r="L21" s="61" t="n"/>
+      <c r="M21" s="61" t="n"/>
+      <c r="N21" s="61" t="n"/>
+      <c r="O21" s="61" t="n"/>
+      <c r="P21" s="61" t="n"/>
+      <c r="Q21" s="61" t="n"/>
+      <c r="R21" s="61" t="n"/>
+      <c r="S21" s="61" t="n"/>
+      <c r="T21" s="61" t="n"/>
+      <c r="U21" s="61" t="n"/>
+      <c r="V21" s="61" t="n"/>
+      <c r="W21" s="61" t="n"/>
+      <c r="X21" s="61" t="n"/>
+      <c r="Y21" s="61" t="n"/>
+      <c r="Z21" s="61" t="n"/>
+      <c r="AA21" s="61" t="n"/>
+      <c r="AB21" s="61" t="n"/>
+      <c r="AC21" s="61" t="n"/>
+      <c r="AD21" s="61" t="n"/>
+      <c r="AE21" s="61" t="n"/>
+      <c r="AF21" s="61" t="n"/>
+      <c r="AG21" s="61" t="n"/>
+      <c r="AH21" s="61" t="n"/>
+      <c r="AI21" s="61" t="n"/>
+      <c r="AJ21" s="28" t="n"/>
+    </row>
+    <row r="22" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DESIGN CODE:       </t>
+        </is>
+      </c>
+      <c r="B22" s="61" t="n"/>
+      <c r="C22" s="61" t="n"/>
+      <c r="D22" s="61" t="n"/>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="61" t="n"/>
+      <c r="G22" s="61" t="n"/>
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>API 600</t>
+        </is>
+      </c>
+      <c r="I22" s="68" t="inlineStr"/>
+      <c r="J22" s="95" t="n"/>
+      <c r="K22" s="61" t="n"/>
+      <c r="L22" s="61" t="n"/>
+      <c r="M22" s="81" t="inlineStr">
+        <is>
+          <t>API 6D</t>
+        </is>
+      </c>
+      <c r="N22" s="61" t="n"/>
+      <c r="O22" s="68" t="inlineStr"/>
+      <c r="P22" s="95" t="n"/>
+      <c r="Q22" s="61" t="n"/>
+      <c r="R22" s="61" t="n"/>
+      <c r="S22" s="61" t="n"/>
+      <c r="T22" s="53" t="inlineStr">
+        <is>
+          <t>API 608</t>
+        </is>
+      </c>
+      <c r="U22" s="71" t="inlineStr"/>
+      <c r="V22" s="95" t="n"/>
+      <c r="W22" s="61" t="n"/>
+      <c r="X22" s="61" t="n"/>
+      <c r="Y22" s="61" t="n"/>
+      <c r="Z22" s="56" t="inlineStr">
+        <is>
+          <t>API 602</t>
+        </is>
+      </c>
+      <c r="AA22" s="68" t="inlineStr"/>
+      <c r="AB22" s="95" t="n"/>
+      <c r="AC22" s="61" t="n"/>
+      <c r="AD22" s="61" t="n"/>
+      <c r="AE22" s="79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="AG22" s="68" t="inlineStr">
+        <is>
+          <t>MSS SP-80</t>
+        </is>
+      </c>
+      <c r="AH22" s="95" t="n"/>
+      <c r="AI22" s="95" t="n"/>
+      <c r="AJ22" s="28" t="n"/>
+    </row>
+    <row r="23" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A23" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APPLICABLE  STANDARDS/SPECIFICATIONS : </t>
+        </is>
+      </c>
+      <c r="L23" s="90" t="inlineStr"/>
+      <c r="M23" s="95" t="n"/>
+      <c r="N23" s="95" t="n"/>
+      <c r="O23" s="95" t="n"/>
+      <c r="P23" s="95" t="n"/>
+      <c r="Q23" s="95" t="n"/>
+      <c r="R23" s="95" t="n"/>
+      <c r="S23" s="95" t="n"/>
+      <c r="T23" s="95" t="n"/>
+      <c r="U23" s="95" t="n"/>
+      <c r="V23" s="95" t="n"/>
+      <c r="W23" s="95" t="n"/>
+      <c r="X23" s="95" t="n"/>
+      <c r="Y23" s="95" t="n"/>
+      <c r="Z23" s="95" t="n"/>
+      <c r="AA23" s="95" t="n"/>
+      <c r="AB23" s="95" t="n"/>
+      <c r="AC23" s="95" t="n"/>
+      <c r="AD23" s="95" t="n"/>
+      <c r="AE23" s="95" t="n"/>
+      <c r="AF23" s="95" t="n"/>
+      <c r="AG23" s="95" t="n"/>
+      <c r="AH23" s="95" t="n"/>
+      <c r="AI23" s="95" t="n"/>
+      <c r="AJ23" s="28" t="n"/>
+    </row>
+    <row r="24" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B24" s="61" t="n"/>
+      <c r="C24" s="61" t="n"/>
+      <c r="D24" s="61" t="n"/>
+      <c r="E24" s="61" t="n"/>
+      <c r="F24" s="61" t="n"/>
+      <c r="G24" s="61" t="n"/>
+      <c r="H24" s="68" t="n">
+        <v>200</v>
+      </c>
+      <c r="I24" s="95" t="n"/>
+      <c r="J24" s="95" t="n"/>
+      <c r="K24" s="95" t="n"/>
+      <c r="L24" s="95" t="n"/>
+      <c r="M24" s="95" t="n"/>
+      <c r="N24" s="95" t="n"/>
+      <c r="O24" s="95" t="n"/>
+      <c r="P24" s="24" t="inlineStr">
+        <is>
+          <t>PSIG @100°F</t>
+        </is>
+      </c>
+      <c r="Q24" s="61" t="n"/>
+      <c r="R24" s="61" t="n"/>
+      <c r="S24" s="61" t="n"/>
+      <c r="T24" s="61" t="n"/>
+      <c r="U24" s="61" t="n"/>
+      <c r="V24" s="61" t="n"/>
+      <c r="W24" s="61" t="n"/>
+      <c r="X24" s="61" t="n"/>
+      <c r="Y24" s="61" t="n"/>
+      <c r="Z24" s="49" t="inlineStr">
+        <is>
+          <t>DESIGN TEMP:</t>
+        </is>
+      </c>
+      <c r="AA24" s="61" t="n"/>
+      <c r="AB24" s="69" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AC24" s="95" t="n"/>
+      <c r="AD24" s="24" t="inlineStr">
+        <is>
+          <t>F. MIN</t>
+        </is>
+      </c>
+      <c r="AE24" s="61" t="n"/>
+      <c r="AF24" s="69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="95" t="n"/>
+      <c r="AH24" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F. MAX</t>
+        </is>
+      </c>
+      <c r="AI24" s="61" t="n"/>
+      <c r="AJ24" s="31" t="n"/>
+    </row>
+    <row r="25" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A25" s="17" t="inlineStr">
+        <is>
+          <t>DESIGN   DIFFERENTIAL   PRESSURE :</t>
+        </is>
+      </c>
+      <c r="B25" s="61" t="n"/>
+      <c r="C25" s="61" t="n"/>
+      <c r="D25" s="61" t="n"/>
+      <c r="E25" s="61" t="n"/>
+      <c r="F25" s="61" t="n"/>
+      <c r="G25" s="61" t="n"/>
+      <c r="H25" s="61" t="n"/>
+      <c r="I25" s="61" t="n"/>
+      <c r="J25" s="32" t="n"/>
+      <c r="K25" s="32" t="n"/>
+      <c r="L25" s="32" t="n"/>
+      <c r="M25" s="32" t="n"/>
+      <c r="N25" s="32" t="n"/>
+      <c r="O25" s="32" t="n"/>
+      <c r="P25" s="33" t="n"/>
+      <c r="Q25" s="79" t="inlineStr">
+        <is>
+          <t>PSIG</t>
+        </is>
+      </c>
+      <c r="S25" s="61" t="n"/>
+      <c r="T25" s="61" t="n"/>
+      <c r="U25" s="61" t="n"/>
+      <c r="V25" s="61" t="n"/>
+      <c r="W25" s="24" t="inlineStr">
+        <is>
+          <t>TEST PRESSURE:</t>
+        </is>
+      </c>
+      <c r="X25" s="61" t="n"/>
+      <c r="Y25" s="61" t="n"/>
+      <c r="Z25" s="61" t="n"/>
+      <c r="AA25" s="61" t="n"/>
+      <c r="AB25" s="77" t="inlineStr"/>
+      <c r="AC25" s="95" t="n"/>
+      <c r="AD25" s="95" t="n"/>
+      <c r="AE25" s="24" t="n"/>
+      <c r="AF25" s="78" t="n"/>
+      <c r="AH25" s="61" t="n"/>
+      <c r="AI25" s="61" t="n"/>
+      <c r="AJ25" s="31" t="n"/>
+    </row>
+    <row r="26" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>CONTAMINANTS :</t>
+        </is>
+      </c>
+      <c r="B26" s="61" t="n"/>
+      <c r="C26" s="61" t="n"/>
+      <c r="D26" s="61" t="n"/>
+      <c r="E26" s="61" t="n"/>
+      <c r="F26" s="61" t="n"/>
+      <c r="G26" s="61" t="n"/>
+      <c r="H26" s="24" t="inlineStr">
+        <is>
+          <t>CO2:</t>
+        </is>
+      </c>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K26" s="21" t="n"/>
+      <c r="L26" s="33" t="n"/>
+      <c r="M26" s="33" t="n"/>
+      <c r="N26" s="33" t="n"/>
+      <c r="O26" s="33" t="n"/>
+      <c r="P26" s="33" t="n"/>
+      <c r="Q26" s="61" t="n"/>
+      <c r="R26" s="61" t="n"/>
+      <c r="S26" s="49" t="inlineStr">
+        <is>
+          <t>CHLORIDE:</t>
+        </is>
+      </c>
+      <c r="T26" s="85" t="n"/>
+      <c r="U26" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V26" s="20" t="n"/>
+      <c r="W26" s="33" t="n"/>
+      <c r="X26" s="33" t="n"/>
+      <c r="Y26" s="33" t="n"/>
+      <c r="Z26" s="33" t="n"/>
+      <c r="AA26" s="61" t="n"/>
+      <c r="AB26" s="53" t="inlineStr">
+        <is>
+          <t>H2S:</t>
+        </is>
+      </c>
+      <c r="AC26" s="70" t="n"/>
+      <c r="AD26" s="95" t="n"/>
+      <c r="AE26" s="95" t="n"/>
+      <c r="AF26" s="95" t="n"/>
+      <c r="AG26" s="95" t="n"/>
+      <c r="AH26" s="95" t="n"/>
+      <c r="AI26" s="95" t="n"/>
+      <c r="AJ26" s="28" t="n"/>
+    </row>
+    <row r="27" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A27" s="37" t="n"/>
+      <c r="B27" s="61" t="n"/>
+      <c r="C27" s="61" t="n"/>
+      <c r="D27" s="61" t="n"/>
+      <c r="E27" s="61" t="n"/>
+      <c r="F27" s="61" t="n"/>
+      <c r="G27" s="61" t="n"/>
+      <c r="H27" s="24" t="inlineStr">
+        <is>
+          <t>METHANOL :</t>
+        </is>
+      </c>
+      <c r="I27" s="61" t="n"/>
+      <c r="J27" s="61" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="33" t="n"/>
+      <c r="M27" s="33" t="n"/>
+      <c r="N27" s="33" t="n"/>
+      <c r="O27" s="33" t="n"/>
+      <c r="P27" s="33" t="n"/>
+      <c r="Q27" s="33" t="n"/>
+      <c r="R27" s="33" t="n"/>
+      <c r="S27" s="33" t="n"/>
+      <c r="T27" s="33" t="n"/>
+      <c r="U27" s="61" t="n"/>
+      <c r="V27" s="61" t="n"/>
+      <c r="W27" s="53" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="X27" s="70" t="n"/>
+      <c r="Y27" s="95" t="n"/>
+      <c r="Z27" s="95" t="n"/>
+      <c r="AA27" s="95" t="n"/>
+      <c r="AB27" s="95" t="n"/>
+      <c r="AC27" s="95" t="n"/>
+      <c r="AD27" s="95" t="n"/>
+      <c r="AE27" s="95" t="n"/>
+      <c r="AF27" s="95" t="n"/>
+      <c r="AG27" s="95" t="n"/>
+      <c r="AH27" s="95" t="n"/>
+      <c r="AI27" s="95" t="n"/>
+      <c r="AJ27" s="28" t="n"/>
+    </row>
+    <row r="28" ht="15" customFormat="1" customHeight="1" s="35">
+      <c r="A28" s="37" t="n"/>
+      <c r="B28" s="61" t="n"/>
+      <c r="C28" s="61" t="n"/>
+      <c r="D28" s="61" t="n"/>
+      <c r="E28" s="61" t="n"/>
+      <c r="F28" s="61" t="n"/>
+      <c r="G28" s="61" t="n"/>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="61" t="n"/>
+      <c r="J28" s="61" t="n"/>
+      <c r="K28" s="61" t="n"/>
+      <c r="L28" s="61" t="n"/>
+      <c r="M28" s="61" t="n"/>
+      <c r="N28" s="61" t="n"/>
+      <c r="O28" s="61" t="n"/>
+      <c r="P28" s="61" t="n"/>
+      <c r="Q28" s="61" t="n"/>
+      <c r="R28" s="61" t="n"/>
+      <c r="S28" s="61" t="n"/>
+      <c r="T28" s="61" t="n"/>
+      <c r="U28" s="61" t="n"/>
+      <c r="V28" s="61" t="n"/>
+      <c r="W28" s="61" t="n"/>
+      <c r="X28" s="61" t="n"/>
+      <c r="Y28" s="61" t="n"/>
+      <c r="Z28" s="61" t="n"/>
+      <c r="AA28" s="61" t="n"/>
+      <c r="AB28" s="61" t="n"/>
+      <c r="AC28" s="61" t="n"/>
+      <c r="AD28" s="61" t="n"/>
+      <c r="AE28" s="61" t="n"/>
+      <c r="AF28" s="61" t="n"/>
+      <c r="AG28" s="61" t="n"/>
+      <c r="AH28" s="61" t="n"/>
+      <c r="AI28" s="61" t="n"/>
+      <c r="AJ28" s="28" t="n"/>
+    </row>
+    <row r="29" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="51" t="n"/>
+      <c r="C29" s="51" t="n"/>
+      <c r="D29" s="51" t="n"/>
+      <c r="E29" s="51" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="51" t="n"/>
+      <c r="H29" s="51" t="n"/>
+      <c r="I29" s="51" t="n"/>
+      <c r="J29" s="51" t="n"/>
+      <c r="K29" s="51" t="n"/>
+      <c r="L29" s="51" t="n"/>
+      <c r="M29" s="51" t="n"/>
+      <c r="N29" s="51" t="n"/>
+      <c r="O29" s="51" t="n"/>
+      <c r="P29" s="51" t="n"/>
+      <c r="Q29" s="51" t="n"/>
+      <c r="R29" s="51" t="n"/>
+      <c r="S29" s="52" t="inlineStr">
+        <is>
+          <t>M A T E R I A L S</t>
+        </is>
+      </c>
+      <c r="T29" s="51" t="n"/>
+      <c r="U29" s="51" t="n"/>
+      <c r="V29" s="51" t="n"/>
+      <c r="W29" s="51" t="n"/>
+      <c r="X29" s="51" t="n"/>
+      <c r="Y29" s="51" t="n"/>
+      <c r="Z29" s="51" t="n"/>
+      <c r="AA29" s="51" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="51" t="n"/>
+      <c r="AD29" s="51" t="n"/>
+      <c r="AE29" s="51" t="n"/>
+      <c r="AF29" s="51" t="n"/>
+      <c r="AG29" s="51" t="n"/>
+      <c r="AH29" s="51" t="n"/>
+      <c r="AI29" s="51" t="n"/>
+      <c r="AJ29" s="16" t="n"/>
+    </row>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="14">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="51" t="n"/>
+      <c r="C30" s="51" t="n"/>
+      <c r="D30" s="51" t="n"/>
+      <c r="E30" s="51" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="51" t="n"/>
+      <c r="H30" s="51" t="n"/>
+      <c r="I30" s="51" t="n"/>
+      <c r="J30" s="51" t="n"/>
+      <c r="K30" s="51" t="n"/>
+      <c r="L30" s="51" t="n"/>
+      <c r="M30" s="51" t="n"/>
+      <c r="N30" s="51" t="n"/>
+      <c r="O30" s="51" t="n"/>
+      <c r="P30" s="51" t="n"/>
+      <c r="Q30" s="51" t="n"/>
+      <c r="R30" s="51" t="n"/>
+      <c r="S30" s="52" t="n"/>
+      <c r="T30" s="51" t="n"/>
+      <c r="U30" s="51" t="n"/>
+      <c r="V30" s="51" t="n"/>
+      <c r="W30" s="51" t="n"/>
+      <c r="X30" s="51" t="n"/>
+      <c r="Y30" s="51" t="n"/>
+      <c r="Z30" s="51" t="n"/>
+      <c r="AA30" s="51" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="51" t="n"/>
+      <c r="AD30" s="51" t="n"/>
+      <c r="AE30" s="51" t="n"/>
+      <c r="AF30" s="51" t="n"/>
+      <c r="AG30" s="51" t="n"/>
+      <c r="AH30" s="51" t="n"/>
+      <c r="AI30" s="51" t="n"/>
+      <c r="AJ30" s="16" t="n"/>
+    </row>
+    <row r="31" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A31" s="83" t="inlineStr">
+        <is>
+          <t>BODY/BONNET:</t>
+        </is>
+      </c>
+      <c r="B31" s="42" t="n"/>
+      <c r="C31" s="42" t="n"/>
+      <c r="D31" s="42" t="n"/>
+      <c r="E31" s="42" t="n"/>
+      <c r="F31" s="42" t="n"/>
+      <c r="G31" s="42" t="n"/>
+      <c r="H31" s="67" t="inlineStr">
+        <is>
+          <t>ASTM B62 UNS C83600</t>
+        </is>
+      </c>
+      <c r="I31" s="95" t="n"/>
+      <c r="J31" s="95" t="n"/>
+      <c r="K31" s="95" t="n"/>
+      <c r="L31" s="95" t="n"/>
+      <c r="M31" s="95" t="n"/>
+      <c r="N31" s="95" t="n"/>
+      <c r="O31" s="95" t="n"/>
+      <c r="P31" s="95" t="n"/>
+      <c r="Q31" s="95" t="n"/>
+      <c r="R31" s="95" t="n"/>
+      <c r="S31" s="95" t="n"/>
+      <c r="T31" s="95" t="n"/>
+      <c r="U31" s="95" t="n"/>
+      <c r="V31" s="95" t="n"/>
+      <c r="W31" s="95" t="n"/>
+      <c r="X31" s="95" t="n"/>
+      <c r="Y31" s="42" t="n"/>
+      <c r="Z31" s="81" t="inlineStr">
+        <is>
+          <t>PACKING:</t>
+        </is>
+      </c>
+      <c r="AC31" s="68" t="inlineStr">
+        <is>
+          <t>NON ASBESTOS ARAMID FIBERS WITH GRAPHITE</t>
+        </is>
+      </c>
+      <c r="AD31" s="95" t="n"/>
+      <c r="AE31" s="95" t="n"/>
+      <c r="AF31" s="95" t="n"/>
+      <c r="AG31" s="95" t="n"/>
+      <c r="AH31" s="95" t="n"/>
+      <c r="AI31" s="95" t="n"/>
+      <c r="AJ31" s="16" t="n"/>
+    </row>
+    <row r="32" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A32" s="83" t="inlineStr">
+        <is>
+          <t>BONNET GASKET:</t>
+        </is>
+      </c>
+      <c r="B32" s="42" t="n"/>
+      <c r="C32" s="42" t="n"/>
+      <c r="D32" s="42" t="n"/>
+      <c r="E32" s="42" t="n"/>
+      <c r="F32" s="42" t="n"/>
+      <c r="G32" s="42" t="n"/>
+      <c r="H32" s="67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="95" t="n"/>
+      <c r="J32" s="95" t="n"/>
+      <c r="K32" s="95" t="n"/>
+      <c r="L32" s="95" t="n"/>
+      <c r="M32" s="95" t="n"/>
+      <c r="N32" s="95" t="n"/>
+      <c r="O32" s="95" t="n"/>
+      <c r="P32" s="95" t="n"/>
+      <c r="Q32" s="95" t="n"/>
+      <c r="R32" s="95" t="n"/>
+      <c r="S32" s="95" t="n"/>
+      <c r="T32" s="95" t="n"/>
+      <c r="U32" s="95" t="n"/>
+      <c r="V32" s="95" t="n"/>
+      <c r="W32" s="95" t="n"/>
+      <c r="X32" s="95" t="n"/>
+      <c r="Y32" s="95" t="n"/>
+      <c r="Z32" s="95" t="n"/>
+      <c r="AA32" s="95" t="n"/>
+      <c r="AB32" s="95" t="n"/>
+      <c r="AC32" s="95" t="n"/>
+      <c r="AD32" s="95" t="n"/>
+      <c r="AE32" s="95" t="n"/>
+      <c r="AF32" s="95" t="n"/>
+      <c r="AG32" s="95" t="n"/>
+      <c r="AH32" s="95" t="n"/>
+      <c r="AI32" s="95" t="n"/>
+      <c r="AJ32" s="16" t="n"/>
+    </row>
+    <row r="33" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A33" s="83" t="inlineStr">
+        <is>
+          <t>SEALS:</t>
+        </is>
+      </c>
+      <c r="B33" s="42" t="n"/>
+      <c r="C33" s="42" t="n"/>
+      <c r="D33" s="42" t="n"/>
+      <c r="E33" s="42" t="n"/>
+      <c r="F33" s="42" t="n"/>
+      <c r="G33" s="42" t="n"/>
+      <c r="H33" s="67" t="inlineStr">
+        <is>
+          <t>BY MNF</t>
+        </is>
+      </c>
+      <c r="I33" s="95" t="n"/>
+      <c r="J33" s="95" t="n"/>
+      <c r="K33" s="95" t="n"/>
+      <c r="L33" s="95" t="n"/>
+      <c r="M33" s="95" t="n"/>
+      <c r="N33" s="95" t="n"/>
+      <c r="O33" s="95" t="n"/>
+      <c r="P33" s="95" t="n"/>
+      <c r="Q33" s="95" t="n"/>
+      <c r="R33" s="95" t="n"/>
+      <c r="S33" s="95" t="n"/>
+      <c r="T33" s="95" t="n"/>
+      <c r="U33" s="95" t="n"/>
+      <c r="V33" s="95" t="n"/>
+      <c r="W33" s="95" t="n"/>
+      <c r="X33" s="95" t="n"/>
+      <c r="Y33" s="95" t="n"/>
+      <c r="Z33" s="95" t="n"/>
+      <c r="AA33" s="95" t="n"/>
+      <c r="AB33" s="95" t="n"/>
+      <c r="AC33" s="95" t="n"/>
+      <c r="AD33" s="95" t="n"/>
+      <c r="AE33" s="95" t="n"/>
+      <c r="AF33" s="95" t="n"/>
+      <c r="AG33" s="95" t="n"/>
+      <c r="AH33" s="95" t="n"/>
+      <c r="AI33" s="95" t="n"/>
+      <c r="AJ33" s="16" t="n"/>
+    </row>
+    <row r="34" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A34" s="18" t="inlineStr">
+        <is>
+          <t>STEM :</t>
+        </is>
+      </c>
+      <c r="B34" s="42" t="n"/>
+      <c r="C34" s="42" t="n"/>
+      <c r="D34" s="42" t="n"/>
+      <c r="E34" s="42" t="n"/>
+      <c r="F34" s="42" t="n"/>
+      <c r="G34" s="42" t="n"/>
+      <c r="H34" s="67" t="inlineStr">
+        <is>
+          <t>BRONZE</t>
+        </is>
+      </c>
+      <c r="I34" s="95" t="n"/>
+      <c r="J34" s="95" t="n"/>
+      <c r="K34" s="95" t="n"/>
+      <c r="L34" s="95" t="n"/>
+      <c r="M34" s="95" t="n"/>
+      <c r="N34" s="95" t="n"/>
+      <c r="O34" s="95" t="n"/>
+      <c r="P34" s="95" t="n"/>
+      <c r="Q34" s="95" t="n"/>
+      <c r="R34" s="95" t="n"/>
+      <c r="S34" s="95" t="n"/>
+      <c r="T34" s="95" t="n"/>
+      <c r="U34" s="95" t="n"/>
+      <c r="V34" s="95" t="n"/>
+      <c r="W34" s="95" t="n"/>
+      <c r="X34" s="95" t="n"/>
+      <c r="Y34" s="95" t="n"/>
+      <c r="Z34" s="95" t="n"/>
+      <c r="AA34" s="95" t="n"/>
+      <c r="AB34" s="95" t="n"/>
+      <c r="AC34" s="95" t="n"/>
+      <c r="AD34" s="95" t="n"/>
+      <c r="AE34" s="95" t="n"/>
+      <c r="AF34" s="95" t="n"/>
+      <c r="AG34" s="95" t="n"/>
+      <c r="AH34" s="95" t="n"/>
+      <c r="AI34" s="95" t="n"/>
+      <c r="AJ34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A35" s="83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT: </t>
+        </is>
+      </c>
+      <c r="B35" s="42" t="n"/>
+      <c r="C35" s="42" t="n"/>
+      <c r="D35" s="42" t="n"/>
+      <c r="E35" s="42" t="n"/>
+      <c r="F35" s="42" t="n"/>
+      <c r="G35" s="42" t="n"/>
+      <c r="H35" s="67" t="inlineStr">
+        <is>
+          <t>BRONZE</t>
+        </is>
+      </c>
+      <c r="I35" s="95" t="n"/>
+      <c r="J35" s="95" t="n"/>
+      <c r="K35" s="95" t="n"/>
+      <c r="L35" s="95" t="n"/>
+      <c r="M35" s="95" t="n"/>
+      <c r="N35" s="95" t="n"/>
+      <c r="O35" s="95" t="n"/>
+      <c r="P35" s="95" t="n"/>
+      <c r="Q35" s="95" t="n"/>
+      <c r="R35" s="95" t="n"/>
+      <c r="S35" s="95" t="n"/>
+      <c r="T35" s="95" t="n"/>
+      <c r="U35" s="95" t="n"/>
+      <c r="V35" s="95" t="n"/>
+      <c r="W35" s="95" t="n"/>
+      <c r="X35" s="95" t="n"/>
+      <c r="Y35" s="95" t="n"/>
+      <c r="Z35" s="95" t="n"/>
+      <c r="AA35" s="95" t="n"/>
+      <c r="AB35" s="95" t="n"/>
+      <c r="AC35" s="95" t="n"/>
+      <c r="AD35" s="95" t="n"/>
+      <c r="AE35" s="95" t="n"/>
+      <c r="AF35" s="95" t="n"/>
+      <c r="AG35" s="95" t="n"/>
+      <c r="AH35" s="95" t="n"/>
+      <c r="AI35" s="95" t="n"/>
+      <c r="AJ35" s="16" t="n"/>
+    </row>
+    <row r="36" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>COATING:</t>
+        </is>
+      </c>
+      <c r="B36" s="42" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="42" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="67" t="inlineStr">
+        <is>
+          <t>AS PER MTU-ES-12 "ESPECIFICACIÓN TÉCNICA COMPRA VÁLVULAS CORTE Y RETENCIÓN ESTACIONES" AND MTU-ED-04 API TRIM No 8, SOLID WEDGE, BOLTED BONNET A193 Gr. B7/A194 Gr.2H, FLEXIBLE WEDGE</t>
+        </is>
+      </c>
+      <c r="I36" s="95" t="n"/>
+      <c r="J36" s="95" t="n"/>
+      <c r="K36" s="95" t="n"/>
+      <c r="L36" s="95" t="n"/>
+      <c r="M36" s="95" t="n"/>
+      <c r="N36" s="95" t="n"/>
+      <c r="O36" s="95" t="n"/>
+      <c r="P36" s="95" t="n"/>
+      <c r="Q36" s="95" t="n"/>
+      <c r="R36" s="95" t="n"/>
+      <c r="S36" s="95" t="n"/>
+      <c r="T36" s="95" t="n"/>
+      <c r="U36" s="95" t="n"/>
+      <c r="V36" s="95" t="n"/>
+      <c r="W36" s="95" t="n"/>
+      <c r="X36" s="95" t="n"/>
+      <c r="Y36" s="95" t="n"/>
+      <c r="Z36" s="95" t="n"/>
+      <c r="AA36" s="95" t="n"/>
+      <c r="AB36" s="95" t="n"/>
+      <c r="AC36" s="95" t="n"/>
+      <c r="AD36" s="95" t="n"/>
+      <c r="AE36" s="95" t="n"/>
+      <c r="AF36" s="95" t="n"/>
+      <c r="AG36" s="95" t="n"/>
+      <c r="AH36" s="95" t="n"/>
+      <c r="AI36" s="95" t="n"/>
+      <c r="AJ36" s="16" t="n"/>
+    </row>
+    <row r="37" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A37" s="18" t="n"/>
+      <c r="B37" s="42" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="42" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="67" t="n"/>
+      <c r="I37" s="95" t="n"/>
+      <c r="J37" s="95" t="n"/>
+      <c r="K37" s="95" t="n"/>
+      <c r="L37" s="95" t="n"/>
+      <c r="M37" s="95" t="n"/>
+      <c r="N37" s="95" t="n"/>
+      <c r="O37" s="95" t="n"/>
+      <c r="P37" s="95" t="n"/>
+      <c r="Q37" s="95" t="n"/>
+      <c r="R37" s="95" t="n"/>
+      <c r="S37" s="95" t="n"/>
+      <c r="T37" s="95" t="n"/>
+      <c r="U37" s="95" t="n"/>
+      <c r="V37" s="95" t="n"/>
+      <c r="W37" s="95" t="n"/>
+      <c r="X37" s="95" t="n"/>
+      <c r="Y37" s="95" t="n"/>
+      <c r="Z37" s="95" t="n"/>
+      <c r="AA37" s="95" t="n"/>
+      <c r="AB37" s="95" t="n"/>
+      <c r="AC37" s="95" t="n"/>
+      <c r="AD37" s="95" t="n"/>
+      <c r="AE37" s="95" t="n"/>
+      <c r="AF37" s="95" t="n"/>
+      <c r="AG37" s="95" t="n"/>
+      <c r="AH37" s="95" t="n"/>
+      <c r="AI37" s="95" t="n"/>
+      <c r="AJ37" s="16" t="n"/>
+    </row>
+    <row r="38" ht="15" customFormat="1" customHeight="1" s="41">
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>OTHER:</t>
+        </is>
+      </c>
+      <c r="B38" s="42" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="42" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="67" t="inlineStr">
+        <is>
+          <t>UL LISTED / FM APPROVED, OUTLET WITH CAP AND CHAIN, SCREWED BONNET, NON RISING STEM, SOLID WEDGE, WEDGE: ASTM B62</t>
         </is>
       </c>
       <c r="I38" s="95" t="n"/>

--- a/output/hd.xlsx
+++ b/output/hd.xlsx
@@ -11765,7 +11765,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>3, 6, 8</t>
+          <t>3, 6, 8, 12</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
@@ -15769,7 +15769,7 @@
       <c r="G4" s="61" t="n"/>
       <c r="H4" s="96" t="inlineStr">
         <is>
-          <t>2, 3, 14, 16</t>
+          <t>2, 3, 6, 8, 14, 16</t>
         </is>
       </c>
       <c r="I4" s="97" t="n"/>
